--- a/Logs/quotations.xlsx
+++ b/Logs/quotations.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="120">
   <si>
     <t>Shipment Scope</t>
   </si>
@@ -124,15 +124,27 @@
     <t>Door-to-Door</t>
   </si>
   <si>
+    <t>Port-to-Door</t>
+  </si>
+  <si>
     <t>110020, Okhla Industrial Estate, South East Delhi, Delhi, India</t>
   </si>
   <si>
+    <t>Nhava Sheva, India (INNSA)</t>
+  </si>
+  <si>
+    <t>301019, RIICO Industrial Area, Alwar, Rajasthan, India</t>
+  </si>
+  <si>
     <t>Nhava Sheva</t>
   </si>
   <si>
     <t>New York</t>
   </si>
   <si>
+    <t>Los Angeles</t>
+  </si>
+  <si>
     <t>07201</t>
   </si>
   <si>
@@ -142,12 +154,27 @@
     <t>TEB9</t>
   </si>
   <si>
-    <t>21901</t>
+    <t>SCK8</t>
+  </si>
+  <si>
+    <t>IUST</t>
+  </si>
+  <si>
+    <t>ABE8</t>
+  </si>
+  <si>
+    <t>IND9</t>
   </si>
   <si>
     <t>08873</t>
   </si>
   <si>
+    <t>08518</t>
+  </si>
+  <si>
+    <t>46143</t>
+  </si>
+  <si>
     <t>WARM</t>
   </si>
   <si>
@@ -160,12 +187,21 @@
     <t>['FTL', 'FTL53', 'LTL']</t>
   </si>
   <si>
+    <t>['LTL']</t>
+  </si>
+  <si>
+    <t>['FTL', 'FTL53']</t>
+  </si>
+  <si>
     <t>condition1</t>
   </si>
   <si>
     <t>condition2</t>
   </si>
   <si>
+    <t>condition5</t>
+  </si>
+  <si>
     <t>{'Rate': 253.07, 'Carrier Name': 'Estes Express Lines', 'Service Provider': 'HeyPrimo'}</t>
   </si>
   <si>
@@ -175,24 +211,78 @@
     <t>{'Rate': 97.0, 'Carrier Name': nan, 'Service Provider': 'AmznFrgt'}</t>
   </si>
   <si>
+    <t>{'Rate': 824.85, 'Carrier Name': 'Estes Express Lines', 'Service Provider': 'Ex-Freight'}</t>
+  </si>
+  <si>
+    <t>{'Rate': 785.07, 'Carrier Name': 'Estes Express Lines', 'Service Provider': 'Ex-Freight'}</t>
+  </si>
+  <si>
+    <t>{'Rate': 117.0, 'Carrier Name': nan, 'Service Provider': 'AmznFrgt'}</t>
+  </si>
+  <si>
+    <t>{'Rate': 223.44, 'Carrier Name': 'Estes Express Lines VL', 'Service Provider': 'HeyPrimo'}</t>
+  </si>
+  <si>
+    <t>{'Rate': 251.14, 'Carrier Name': 'Estes Express Lines', 'Service Provider': 'Ex-Freight'}</t>
+  </si>
+  <si>
+    <t>{'Rate': 539.63, 'Carrier Name': 'Estes Express Lines', 'Service Provider': 'Ex-Freight'}</t>
+  </si>
+  <si>
     <t>{'Rate': 705.0, 'Carrier Name': nan, 'Service Provider': 'JB.Hunt'}</t>
   </si>
   <si>
     <t>{'Rate': 465.0, 'Carrier Name': nan, 'Service Provider': 'JB.Hunt'}</t>
   </si>
   <si>
+    <t>{'Rate': 1494.0, 'Carrier Name': nan, 'Service Provider': 'JB.Hunt'}</t>
+  </si>
+  <si>
+    <t>{'Rate': 732.0, 'Carrier Name': nan, 'Service Provider': 'JB.Hunt'}</t>
+  </si>
+  <si>
+    <t>{'Rate': 514.0, 'Carrier Name': nan, 'Service Provider': 'JB.Hunt'}</t>
+  </si>
+  <si>
     <t>{'Rate': 645.0, 'Carrier Name': nan, 'Service Provider': 'NTG'}</t>
   </si>
   <si>
     <t>{'Rate': 372.0, 'Carrier Name': nan, 'Service Provider': 'NTG'}</t>
   </si>
   <si>
+    <t>{'Rate': 1426.0, 'Carrier Name': nan, 'Service Provider': 'NTG'}</t>
+  </si>
+  <si>
+    <t>{'Rate': 843.0, 'Carrier Name': nan, 'Service Provider': 'NTG'}</t>
+  </si>
+  <si>
+    <t>{'Rate': 460.0, 'Carrier Name': nan, 'Service Provider': 'NTG'}</t>
+  </si>
+  <si>
     <t>{'Rate': 799.31, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt'}</t>
   </si>
   <si>
     <t>{'Rate': 594.9, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt'}</t>
   </si>
   <si>
+    <t>{'Rate': 1380.82, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt'}</t>
+  </si>
+  <si>
+    <t>{'Rate': 1396.82, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt'}</t>
+  </si>
+  <si>
+    <t>{'Rate': 818.36, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt'}</t>
+  </si>
+  <si>
+    <t>{'Rate': 414.9, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt'}</t>
+  </si>
+  <si>
+    <t>{'Rate': 485.07, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt'}</t>
+  </si>
+  <si>
+    <t>{'Rate': 1082.96, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt'}</t>
+  </si>
+  <si>
     <t>{'Rate Type': 'LTL', 'Rate': 253.07, 'Carrier Name': 'Estes Express Lines', 'Service Provider': 'HeyPrimo'}</t>
   </si>
   <si>
@@ -202,21 +292,69 @@
     <t>{'Rate Type': 'LTL', 'Rate': 97.0, 'Carrier Name': nan, 'Service Provider': 'AmznFrgt'}</t>
   </si>
   <si>
+    <t>{'Rate Type': 'LTL', 'Rate': 824.85, 'Carrier Name': 'Estes Express Lines', 'Service Provider': 'Ex-Freight'}</t>
+  </si>
+  <si>
+    <t>{'Rate Type': 'LTL', 'Rate': 785.07, 'Carrier Name': 'Estes Express Lines', 'Service Provider': 'Ex-Freight'}</t>
+  </si>
+  <si>
+    <t>{'Rate Type': 'LTL', 'Rate': 117.0, 'Carrier Name': nan, 'Service Provider': 'AmznFrgt'}</t>
+  </si>
+  <si>
+    <t>{'Rate Type': 'LTL', 'Rate': 223.44, 'Carrier Name': 'Estes Express Lines VL', 'Service Provider': 'HeyPrimo'}</t>
+  </si>
+  <si>
+    <t>{'Rate Type': 'LTL', 'Rate': 251.14, 'Carrier Name': 'Estes Express Lines', 'Service Provider': 'Ex-Freight'}</t>
+  </si>
+  <si>
+    <t>{'Rate Type': 'LTL', 'Rate': 539.63, 'Carrier Name': 'Estes Express Lines', 'Service Provider': 'Ex-Freight'}</t>
+  </si>
+  <si>
     <t>{'Rate Type': 'Drayage', 'Rate': 799.31, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt'}</t>
   </si>
   <si>
+    <t>{'Rate Type': 'FTL53', 'Rate': 1426.0, 'Carrier Name': nan, 'Service Provider': 'NTG'}</t>
+  </si>
+  <si>
+    <t>{'Rate Type': 'Drayage', 'Rate': 818.36, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt'}</t>
+  </si>
+  <si>
     <t>CMM0246LCL0040</t>
   </si>
   <si>
     <t>CMM0246LCL0039</t>
   </si>
   <si>
+    <t>CMM0808LCL0014</t>
+  </si>
+  <si>
+    <t>CMM0547LCL0072</t>
+  </si>
+  <si>
+    <t>CMM0628LCL0011</t>
+  </si>
+  <si>
+    <t>CMM0800LCL0050</t>
+  </si>
+  <si>
     <t>IUSL 21901, North East, North East, Maryland, United States</t>
   </si>
   <si>
     <t>TEB9 08873, Somerset, Franklin Township, New Jersey, United States</t>
   </si>
   <si>
+    <t>SCK8 94561, Oakley, Oakley, California, United States</t>
+  </si>
+  <si>
+    <t>IUST 17225, Greencastle, Greencastle, Pennsylvania, United States</t>
+  </si>
+  <si>
+    <t>ABE8 08518, Florence, Florence, New Jersey, United States</t>
+  </si>
+  <si>
+    <t>IND9 46143, Greenwood, Greenwood, Indiana, United States</t>
+  </si>
+  <si>
     <t>Own Console</t>
   </si>
   <si>
@@ -224,6 +362,18 @@
   </si>
   <si>
     <t>2025-07-25 17:21:41</t>
+  </si>
+  <si>
+    <t>2025-08-01 13:17:13</t>
+  </si>
+  <si>
+    <t>2025-08-02 09:25:51</t>
+  </si>
+  <si>
+    <t>2025-08-04 06:26:15</t>
+  </si>
+  <si>
+    <t>2025-08-04 06:54:52</t>
   </si>
 </sst>
 </file>
@@ -581,7 +731,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AI4"/>
+  <dimension ref="A1:AI10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -699,19 +849,19 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E2">
         <v>7201</v>
       </c>
       <c r="F2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G2">
         <v>21901</v>
@@ -729,31 +879,31 @@
         <v>2</v>
       </c>
       <c r="L2" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="M2" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="N2" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="O2" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="P2" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="Q2" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="R2" t="s">
-        <v>57</v>
+        <v>81</v>
       </c>
       <c r="S2" t="s">
-        <v>59</v>
+        <v>89</v>
       </c>
       <c r="T2" t="s">
-        <v>62</v>
+        <v>98</v>
       </c>
       <c r="U2">
         <v>200</v>
@@ -789,16 +939,16 @@
         <v>493.0482161516644</v>
       </c>
       <c r="AF2" t="s">
-        <v>63</v>
+        <v>101</v>
       </c>
       <c r="AG2" t="s">
-        <v>65</v>
+        <v>107</v>
       </c>
       <c r="AH2" t="s">
-        <v>67</v>
+        <v>113</v>
       </c>
       <c r="AI2" t="s">
-        <v>68</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:35">
@@ -806,22 +956,22 @@
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E3" t="s">
-        <v>39</v>
+        <v>41</v>
+      </c>
+      <c r="E3">
+        <v>7201</v>
       </c>
       <c r="F3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G3" t="s">
-        <v>42</v>
+        <v>44</v>
+      </c>
+      <c r="G3">
+        <v>21901</v>
       </c>
       <c r="H3">
         <v>10</v>
@@ -836,31 +986,31 @@
         <v>1</v>
       </c>
       <c r="L3" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="M3" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="N3" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="O3" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="P3" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="Q3" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="R3" t="s">
-        <v>57</v>
+        <v>81</v>
       </c>
       <c r="S3" t="s">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="T3" t="s">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="U3">
         <v>2500</v>
@@ -896,16 +1046,16 @@
         <v>5189.144796176047</v>
       </c>
       <c r="AF3" t="s">
-        <v>64</v>
+        <v>102</v>
       </c>
       <c r="AG3" t="s">
-        <v>65</v>
+        <v>107</v>
       </c>
       <c r="AH3" t="s">
-        <v>67</v>
+        <v>113</v>
       </c>
       <c r="AI3" t="s">
-        <v>69</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:35">
@@ -913,22 +1063,22 @@
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" t="s">
-        <v>39</v>
+        <v>41</v>
+      </c>
+      <c r="E4">
+        <v>7201</v>
       </c>
       <c r="F4" t="s">
-        <v>41</v>
-      </c>
-      <c r="G4" t="s">
-        <v>43</v>
+        <v>45</v>
+      </c>
+      <c r="G4">
+        <v>8873</v>
       </c>
       <c r="H4">
         <v>9</v>
@@ -943,31 +1093,31 @@
         <v>1</v>
       </c>
       <c r="L4" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="M4" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="N4" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="O4" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="P4" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="Q4" t="s">
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="R4" t="s">
-        <v>58</v>
+        <v>82</v>
       </c>
       <c r="S4" t="s">
-        <v>61</v>
+        <v>91</v>
       </c>
       <c r="T4" t="s">
-        <v>61</v>
+        <v>91</v>
       </c>
       <c r="U4">
         <v>2500</v>
@@ -1003,16 +1153,652 @@
         <v>4444.313250254152</v>
       </c>
       <c r="AF4" t="s">
-        <v>64</v>
+        <v>102</v>
       </c>
       <c r="AG4" t="s">
+        <v>108</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>113</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35">
+      <c r="A5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5">
+        <v>90220</v>
+      </c>
+      <c r="F5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G5">
+        <v>94561</v>
+      </c>
+      <c r="H5">
+        <v>140</v>
+      </c>
+      <c r="I5">
+        <v>1796.2</v>
+      </c>
+      <c r="J5">
+        <v>12.51</v>
+      </c>
+      <c r="K5">
+        <v>7</v>
+      </c>
+      <c r="L5" t="s">
+        <v>53</v>
+      </c>
+      <c r="M5" t="s">
+        <v>57</v>
+      </c>
+      <c r="N5" t="s">
+        <v>61</v>
+      </c>
+      <c r="O5" t="s">
+        <v>65</v>
+      </c>
+      <c r="P5" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>78</v>
+      </c>
+      <c r="R5" t="s">
+        <v>83</v>
+      </c>
+      <c r="S5" t="s">
+        <v>92</v>
+      </c>
+      <c r="T5" t="s">
+        <v>92</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>200</v>
+      </c>
+      <c r="W5">
+        <v>2502</v>
+      </c>
+      <c r="X5">
+        <v>50</v>
+      </c>
+      <c r="Y5">
+        <v>53</v>
+      </c>
+      <c r="Z5">
+        <v>100</v>
+      </c>
+      <c r="AA5">
+        <v>50</v>
+      </c>
+      <c r="AB5">
+        <v>168</v>
+      </c>
+      <c r="AC5">
+        <v>824.85</v>
+      </c>
+      <c r="AD5">
+        <v>3697.85</v>
+      </c>
+      <c r="AE5">
+        <v>295.5915267785771</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>103</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>109</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>113</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="6" spans="1:35">
+      <c r="A6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6">
+        <v>90220</v>
+      </c>
+      <c r="F6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G6">
+        <v>94561</v>
+      </c>
+      <c r="H6">
+        <v>150</v>
+      </c>
+      <c r="I6">
+        <v>2895</v>
+      </c>
+      <c r="J6">
+        <v>10.119</v>
+      </c>
+      <c r="K6">
+        <v>6</v>
+      </c>
+      <c r="L6" t="s">
+        <v>53</v>
+      </c>
+      <c r="M6" t="s">
+        <v>58</v>
+      </c>
+      <c r="N6" t="s">
+        <v>61</v>
+      </c>
+      <c r="O6" t="s">
         <v>66</v>
       </c>
-      <c r="AH4" t="s">
+      <c r="P6" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>78</v>
+      </c>
+      <c r="R6" t="s">
+        <v>84</v>
+      </c>
+      <c r="S6" t="s">
+        <v>93</v>
+      </c>
+      <c r="T6" t="s">
+        <v>99</v>
+      </c>
+      <c r="U6">
+        <v>3500</v>
+      </c>
+      <c r="V6">
+        <v>200</v>
+      </c>
+      <c r="W6">
+        <v>2023.8</v>
+      </c>
+      <c r="X6">
+        <v>50</v>
+      </c>
+      <c r="Y6">
+        <v>53</v>
+      </c>
+      <c r="Z6">
+        <v>100</v>
+      </c>
+      <c r="AA6">
+        <v>50</v>
+      </c>
+      <c r="AB6">
+        <v>144</v>
+      </c>
+      <c r="AC6">
+        <v>1426</v>
+      </c>
+      <c r="AD6">
+        <v>7296.8</v>
+      </c>
+      <c r="AE6">
+        <v>721.0989228184603</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>104</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>109</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>113</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="7" spans="1:35">
+      <c r="A7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7">
+        <v>7201</v>
+      </c>
+      <c r="F7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G7">
+        <v>17225</v>
+      </c>
+      <c r="H7">
+        <v>41</v>
+      </c>
+      <c r="I7">
+        <v>289.87</v>
+      </c>
+      <c r="J7">
+        <v>0.6929999999999999</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7" t="s">
+        <v>53</v>
+      </c>
+      <c r="M7" t="s">
+        <v>55</v>
+      </c>
+      <c r="N7" t="s">
+        <v>59</v>
+      </c>
+      <c r="O7" t="s">
         <v>67</v>
       </c>
-      <c r="AI4" t="s">
+      <c r="P7" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>79</v>
+      </c>
+      <c r="R7" t="s">
+        <v>85</v>
+      </c>
+      <c r="S7" t="s">
+        <v>94</v>
+      </c>
+      <c r="T7" t="s">
+        <v>100</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>61.73160173160174</v>
+      </c>
+      <c r="W7">
+        <v>42.78</v>
+      </c>
+      <c r="X7">
+        <v>50</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>100</v>
+      </c>
+      <c r="AA7">
+        <v>50</v>
+      </c>
+      <c r="AB7">
+        <v>18</v>
+      </c>
+      <c r="AC7">
+        <v>818.36</v>
+      </c>
+      <c r="AD7">
+        <v>1029.14</v>
+      </c>
+      <c r="AE7">
+        <v>1485.050505050505</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>105</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>110</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>113</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="8" spans="1:35">
+      <c r="A8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>45</v>
+      </c>
+      <c r="G8" t="s">
+        <v>50</v>
+      </c>
+      <c r="H8">
+        <v>3</v>
+      </c>
+      <c r="I8">
+        <v>115</v>
+      </c>
+      <c r="J8">
+        <v>4.337999999999999</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8" t="s">
+        <v>54</v>
+      </c>
+      <c r="M8" t="s">
+        <v>56</v>
+      </c>
+      <c r="N8" t="s">
+        <v>60</v>
+      </c>
+      <c r="O8" t="s">
+        <v>68</v>
+      </c>
+      <c r="P8" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>77</v>
+      </c>
+      <c r="R8" t="s">
+        <v>86</v>
+      </c>
+      <c r="S8" t="s">
+        <v>95</v>
+      </c>
+      <c r="T8" t="s">
+        <v>95</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>61.73160173160174</v>
+      </c>
+      <c r="W8">
+        <v>267.7916883116883</v>
+      </c>
+      <c r="X8">
+        <v>50</v>
+      </c>
+      <c r="Y8">
+        <v>53</v>
+      </c>
+      <c r="Z8">
+        <v>100</v>
+      </c>
+      <c r="AA8">
+        <v>50</v>
+      </c>
+      <c r="AB8">
+        <v>54</v>
+      </c>
+      <c r="AC8">
+        <v>223.44</v>
+      </c>
+      <c r="AD8">
+        <v>748.2316883116882</v>
+      </c>
+      <c r="AE8">
+        <v>172.4831001179549</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>106</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>108</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>113</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="9" spans="1:35">
+      <c r="A9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" t="s">
+        <v>51</v>
+      </c>
+      <c r="H9">
+        <v>5</v>
+      </c>
+      <c r="I9">
+        <v>173</v>
+      </c>
+      <c r="J9">
+        <v>8.6</v>
+      </c>
+      <c r="K9">
+        <v>5</v>
+      </c>
+      <c r="L9" t="s">
+        <v>53</v>
+      </c>
+      <c r="M9" t="s">
+        <v>56</v>
+      </c>
+      <c r="N9" t="s">
+        <v>60</v>
+      </c>
+      <c r="O9" t="s">
         <v>69</v>
+      </c>
+      <c r="P9" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>80</v>
+      </c>
+      <c r="R9" t="s">
+        <v>87</v>
+      </c>
+      <c r="S9" t="s">
+        <v>96</v>
+      </c>
+      <c r="T9" t="s">
+        <v>96</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>61.73160173160174</v>
+      </c>
+      <c r="W9">
+        <v>530.8917748917748</v>
+      </c>
+      <c r="X9">
+        <v>50</v>
+      </c>
+      <c r="Y9">
+        <v>53</v>
+      </c>
+      <c r="Z9">
+        <v>100</v>
+      </c>
+      <c r="AA9">
+        <v>50</v>
+      </c>
+      <c r="AB9">
+        <v>90</v>
+      </c>
+      <c r="AC9">
+        <v>251.14</v>
+      </c>
+      <c r="AD9">
+        <v>1075.031774891775</v>
+      </c>
+      <c r="AE9">
+        <v>125.0036947548575</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>106</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>111</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>113</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="10" spans="1:35">
+      <c r="A10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s">
+        <v>49</v>
+      </c>
+      <c r="G10" t="s">
+        <v>52</v>
+      </c>
+      <c r="H10">
+        <v>4</v>
+      </c>
+      <c r="I10">
+        <v>159</v>
+      </c>
+      <c r="J10">
+        <v>7.54</v>
+      </c>
+      <c r="K10">
+        <v>4</v>
+      </c>
+      <c r="L10" t="s">
+        <v>54</v>
+      </c>
+      <c r="M10" t="s">
+        <v>56</v>
+      </c>
+      <c r="N10" t="s">
+        <v>60</v>
+      </c>
+      <c r="O10" t="s">
+        <v>70</v>
+      </c>
+      <c r="R10" t="s">
+        <v>88</v>
+      </c>
+      <c r="S10" t="s">
+        <v>97</v>
+      </c>
+      <c r="T10" t="s">
+        <v>97</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>61.73160173160174</v>
+      </c>
+      <c r="W10">
+        <v>465.4562770562771</v>
+      </c>
+      <c r="X10">
+        <v>50</v>
+      </c>
+      <c r="Y10">
+        <v>53</v>
+      </c>
+      <c r="Z10">
+        <v>100</v>
+      </c>
+      <c r="AA10">
+        <v>50</v>
+      </c>
+      <c r="AB10">
+        <v>72</v>
+      </c>
+      <c r="AC10">
+        <v>539.63</v>
+      </c>
+      <c r="AD10">
+        <v>1280.086277056277</v>
+      </c>
+      <c r="AE10">
+        <v>169.7727157899572</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>106</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>113</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>

--- a/Logs/quotations.xlsx
+++ b/Logs/quotations.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="145">
   <si>
     <t>Shipment Scope</t>
   </si>
@@ -121,58 +121,82 @@
     <t>Quoted Date/Time</t>
   </si>
   <si>
+    <t>FBA Address</t>
+  </si>
+  <si>
+    <t>Consolidator</t>
+  </si>
+  <si>
+    <t>Palletization (Per Pallet)</t>
+  </si>
+  <si>
+    <t>PER CBM P2P &amp; Doc</t>
+  </si>
+  <si>
+    <t>Port-to-Door</t>
+  </si>
+  <si>
     <t>Door-to-Door</t>
   </si>
   <si>
-    <t>Port-to-Door</t>
+    <t>Nhava Sheva, India (INNSA)</t>
+  </si>
+  <si>
+    <t>301019, RIICO Industrial Area, Alwar, Rajasthan, India</t>
+  </si>
+  <si>
+    <t>583229, Koppal, Koppal, Karnataka, India</t>
   </si>
   <si>
     <t>110020, Okhla Industrial Estate, South East Delhi, Delhi, India</t>
   </si>
   <si>
-    <t>Nhava Sheva, India (INNSA)</t>
-  </si>
-  <si>
-    <t>301019, RIICO Industrial Area, Alwar, Rajasthan, India</t>
-  </si>
-  <si>
     <t>Nhava Sheva</t>
   </si>
   <si>
+    <t>Los Angeles</t>
+  </si>
+  <si>
     <t>New York</t>
   </si>
   <si>
-    <t>Los Angeles</t>
+    <t>Charleston</t>
+  </si>
+  <si>
+    <t>29483</t>
   </si>
   <si>
     <t>07201</t>
   </si>
   <si>
+    <t>SCK8</t>
+  </si>
+  <si>
+    <t>IUST</t>
+  </si>
+  <si>
+    <t>TEB9</t>
+  </si>
+  <si>
+    <t>ABE8</t>
+  </si>
+  <si>
+    <t>IND9</t>
+  </si>
+  <si>
     <t>IUSL</t>
   </si>
   <si>
-    <t>TEB9</t>
-  </si>
-  <si>
-    <t>SCK8</t>
-  </si>
-  <si>
-    <t>IUST</t>
-  </si>
-  <si>
-    <t>ABE8</t>
-  </si>
-  <si>
-    <t>IND9</t>
+    <t>AGS2</t>
+  </si>
+  <si>
+    <t>30567</t>
   </si>
   <si>
     <t>08873</t>
   </si>
   <si>
-    <t>08518</t>
-  </si>
-  <si>
-    <t>46143</t>
+    <t>21901</t>
   </si>
   <si>
     <t>WARM</t>
@@ -181,16 +205,25 @@
     <t>COLD</t>
   </si>
   <si>
+    <t>HOT</t>
+  </si>
+  <si>
+    <t>['LTL']</t>
+  </si>
+  <si>
+    <t>['FTL', 'FTL53']</t>
+  </si>
+  <si>
     <t>['Drayage']</t>
   </si>
   <si>
     <t>['FTL', 'FTL53', 'LTL']</t>
   </si>
   <si>
-    <t>['LTL']</t>
-  </si>
-  <si>
-    <t>['FTL', 'FTL53']</t>
+    <t>['FTL']</t>
+  </si>
+  <si>
+    <t>condition5</t>
   </si>
   <si>
     <t>condition1</t>
@@ -199,72 +232,69 @@
     <t>condition2</t>
   </si>
   <si>
-    <t>condition5</t>
-  </si>
-  <si>
-    <t>{'Rate': 253.07, 'Carrier Name': 'Estes Express Lines', 'Service Provider': 'HeyPrimo'}</t>
-  </si>
-  <si>
-    <t>{'Rate': 232.39, 'Carrier Name': 'Estes Express Lines', 'Service Provider': 'HeyPrimo'}</t>
+    <t>{'Rate': 824.85, 'Carrier Name': 'Estes Express Lines', 'Service Provider': 'Ex-Freight'}</t>
+  </si>
+  <si>
+    <t>{'Rate': 785.07, 'Carrier Name': 'Estes Express Lines', 'Service Provider': 'Ex-Freight'}</t>
+  </si>
+  <si>
+    <t>{'Rate': 117.0, 'Carrier Name': nan, 'Service Provider': 'AmznFrgt'}</t>
+  </si>
+  <si>
+    <t>{'Rate': 223.44, 'Carrier Name': 'Estes Express Lines VL', 'Service Provider': 'HeyPrimo'}</t>
+  </si>
+  <si>
+    <t>{'Rate': 251.14, 'Carrier Name': 'Estes Express Lines', 'Service Provider': 'Ex-Freight'}</t>
+  </si>
+  <si>
+    <t>{'Rate': 539.63, 'Carrier Name': 'Estes Express Lines', 'Service Provider': 'Ex-Freight'}</t>
+  </si>
+  <si>
+    <t>{'Rate': 252.3, 'Carrier Name': 'Estes Express Lines', 'Service Provider': 'Ex-Freight'}</t>
+  </si>
+  <si>
+    <t>{'Rate': 278.0, 'Carrier Name': 'Estes Express Lines', 'Service Provider': 'Ex-Freight'}</t>
+  </si>
+  <si>
+    <t>{'Rate': 305.01, 'Carrier Name': 'Estes Express Lines', 'Service Provider': 'HeyPrimo'}</t>
   </si>
   <si>
     <t>{'Rate': 97.0, 'Carrier Name': nan, 'Service Provider': 'AmznFrgt'}</t>
   </si>
   <si>
-    <t>{'Rate': 824.85, 'Carrier Name': 'Estes Express Lines', 'Service Provider': 'Ex-Freight'}</t>
-  </si>
-  <si>
-    <t>{'Rate': 785.07, 'Carrier Name': 'Estes Express Lines', 'Service Provider': 'Ex-Freight'}</t>
-  </si>
-  <si>
-    <t>{'Rate': 117.0, 'Carrier Name': nan, 'Service Provider': 'AmznFrgt'}</t>
-  </si>
-  <si>
-    <t>{'Rate': 223.44, 'Carrier Name': 'Estes Express Lines VL', 'Service Provider': 'HeyPrimo'}</t>
-  </si>
-  <si>
-    <t>{'Rate': 251.14, 'Carrier Name': 'Estes Express Lines', 'Service Provider': 'Ex-Freight'}</t>
-  </si>
-  <si>
-    <t>{'Rate': 539.63, 'Carrier Name': 'Estes Express Lines', 'Service Provider': 'Ex-Freight'}</t>
+    <t>{'Rate': 241.21, 'Carrier Name': 'Estes Express Lines', 'Service Provider': 'Ex-Freight'}</t>
+  </si>
+  <si>
+    <t>{'Rate': 1494.0, 'Carrier Name': nan, 'Service Provider': 'JB.Hunt'}</t>
+  </si>
+  <si>
+    <t>{'Rate': 732.0, 'Carrier Name': nan, 'Service Provider': 'JB.Hunt'}</t>
+  </si>
+  <si>
+    <t>{'Rate': 465.0, 'Carrier Name': nan, 'Service Provider': 'JB.Hunt'}</t>
+  </si>
+  <si>
+    <t>{'Rate': 514.0, 'Carrier Name': nan, 'Service Provider': 'JB.Hunt'}</t>
   </si>
   <si>
     <t>{'Rate': 705.0, 'Carrier Name': nan, 'Service Provider': 'JB.Hunt'}</t>
   </si>
   <si>
-    <t>{'Rate': 465.0, 'Carrier Name': nan, 'Service Provider': 'JB.Hunt'}</t>
-  </si>
-  <si>
-    <t>{'Rate': 1494.0, 'Carrier Name': nan, 'Service Provider': 'JB.Hunt'}</t>
-  </si>
-  <si>
-    <t>{'Rate': 732.0, 'Carrier Name': nan, 'Service Provider': 'JB.Hunt'}</t>
-  </si>
-  <si>
-    <t>{'Rate': 514.0, 'Carrier Name': nan, 'Service Provider': 'JB.Hunt'}</t>
+    <t>{'Rate': 1426.0, 'Carrier Name': nan, 'Service Provider': 'NTG'}</t>
+  </si>
+  <si>
+    <t>{'Rate': 843.0, 'Carrier Name': nan, 'Service Provider': 'NTG'}</t>
+  </si>
+  <si>
+    <t>{'Rate': 372.0, 'Carrier Name': nan, 'Service Provider': 'NTG'}</t>
+  </si>
+  <si>
+    <t>{'Rate': 460.0, 'Carrier Name': nan, 'Service Provider': 'NTG'}</t>
   </si>
   <si>
     <t>{'Rate': 645.0, 'Carrier Name': nan, 'Service Provider': 'NTG'}</t>
   </si>
   <si>
-    <t>{'Rate': 372.0, 'Carrier Name': nan, 'Service Provider': 'NTG'}</t>
-  </si>
-  <si>
-    <t>{'Rate': 1426.0, 'Carrier Name': nan, 'Service Provider': 'NTG'}</t>
-  </si>
-  <si>
-    <t>{'Rate': 843.0, 'Carrier Name': nan, 'Service Provider': 'NTG'}</t>
-  </si>
-  <si>
-    <t>{'Rate': 460.0, 'Carrier Name': nan, 'Service Provider': 'NTG'}</t>
-  </si>
-  <si>
-    <t>{'Rate': 799.31, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt'}</t>
-  </si>
-  <si>
-    <t>{'Rate': 594.9, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt'}</t>
-  </si>
-  <si>
     <t>{'Rate': 1380.82, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt'}</t>
   </si>
   <si>
@@ -283,34 +313,46 @@
     <t>{'Rate': 1082.96, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt'}</t>
   </si>
   <si>
-    <t>{'Rate Type': 'LTL', 'Rate': 253.07, 'Carrier Name': 'Estes Express Lines', 'Service Provider': 'HeyPrimo'}</t>
-  </si>
-  <si>
-    <t>{'Rate Type': 'LTL', 'Rate': 232.39, 'Carrier Name': 'Estes Express Lines', 'Service Provider': 'HeyPrimo'}</t>
+    <t>{'Rate': 734.31, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt'}</t>
+  </si>
+  <si>
+    <t>{'Rate': 761.44, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt'}</t>
+  </si>
+  <si>
+    <t>{'Rate': 427.9, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt'}</t>
+  </si>
+  <si>
+    <t>{'Rate Type': 'LTL', 'Rate': 824.85, 'Carrier Name': 'Estes Express Lines', 'Service Provider': 'Ex-Freight'}</t>
+  </si>
+  <si>
+    <t>{'Rate Type': 'LTL', 'Rate': 785.07, 'Carrier Name': 'Estes Express Lines', 'Service Provider': 'Ex-Freight'}</t>
+  </si>
+  <si>
+    <t>{'Rate Type': 'LTL', 'Rate': 117.0, 'Carrier Name': nan, 'Service Provider': 'AmznFrgt'}</t>
+  </si>
+  <si>
+    <t>{'Rate Type': 'LTL', 'Rate': 223.44, 'Carrier Name': 'Estes Express Lines VL', 'Service Provider': 'HeyPrimo'}</t>
+  </si>
+  <si>
+    <t>{'Rate Type': 'LTL', 'Rate': 251.14, 'Carrier Name': 'Estes Express Lines', 'Service Provider': 'Ex-Freight'}</t>
+  </si>
+  <si>
+    <t>{'Rate Type': 'LTL', 'Rate': 539.63, 'Carrier Name': 'Estes Express Lines', 'Service Provider': 'Ex-Freight'}</t>
+  </si>
+  <si>
+    <t>{'Rate Type': 'LTL', 'Rate': 252.3, 'Carrier Name': 'Estes Express Lines', 'Service Provider': 'Ex-Freight'}</t>
+  </si>
+  <si>
+    <t>{'Rate Type': 'LTL', 'Rate': 278.0, 'Carrier Name': 'Estes Express Lines', 'Service Provider': 'Ex-Freight'}</t>
+  </si>
+  <si>
+    <t>{'Rate Type': 'LTL', 'Rate': 305.01, 'Carrier Name': 'Estes Express Lines', 'Service Provider': 'HeyPrimo'}</t>
   </si>
   <si>
     <t>{'Rate Type': 'LTL', 'Rate': 97.0, 'Carrier Name': nan, 'Service Provider': 'AmznFrgt'}</t>
   </si>
   <si>
-    <t>{'Rate Type': 'LTL', 'Rate': 824.85, 'Carrier Name': 'Estes Express Lines', 'Service Provider': 'Ex-Freight'}</t>
-  </si>
-  <si>
-    <t>{'Rate Type': 'LTL', 'Rate': 785.07, 'Carrier Name': 'Estes Express Lines', 'Service Provider': 'Ex-Freight'}</t>
-  </si>
-  <si>
-    <t>{'Rate Type': 'LTL', 'Rate': 117.0, 'Carrier Name': nan, 'Service Provider': 'AmznFrgt'}</t>
-  </si>
-  <si>
-    <t>{'Rate Type': 'LTL', 'Rate': 223.44, 'Carrier Name': 'Estes Express Lines VL', 'Service Provider': 'HeyPrimo'}</t>
-  </si>
-  <si>
-    <t>{'Rate Type': 'LTL', 'Rate': 251.14, 'Carrier Name': 'Estes Express Lines', 'Service Provider': 'Ex-Freight'}</t>
-  </si>
-  <si>
-    <t>{'Rate Type': 'LTL', 'Rate': 539.63, 'Carrier Name': 'Estes Express Lines', 'Service Provider': 'Ex-Freight'}</t>
-  </si>
-  <si>
-    <t>{'Rate Type': 'Drayage', 'Rate': 799.31, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt'}</t>
+    <t>{'Rate Type': 'LTL', 'Rate': 241.21, 'Carrier Name': 'Estes Express Lines', 'Service Provider': 'Ex-Freight'}</t>
   </si>
   <si>
     <t>{'Rate Type': 'FTL53', 'Rate': 1426.0, 'Carrier Name': nan, 'Service Provider': 'NTG'}</t>
@@ -319,51 +361,63 @@
     <t>{'Rate Type': 'Drayage', 'Rate': 818.36, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt'}</t>
   </si>
   <si>
+    <t>{'Rate Type': 'Drayage', 'Rate': 734.31, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt'}</t>
+  </si>
+  <si>
+    <t>{'Rate Type': 'N/A', 'Rate': 0.0, 'Carrier Name': '', 'Service Provider': ''}</t>
+  </si>
+  <si>
+    <t>{'Rate Type': 'FTL', 'Rate': 465.0, 'Carrier Name': nan, 'Service Provider': 'JB.Hunt'}</t>
+  </si>
+  <si>
+    <t>{'Rate Type': 'FTL', 'Rate': 705.0, 'Carrier Name': nan, 'Service Provider': 'JB.Hunt'}</t>
+  </si>
+  <si>
+    <t>CMM0808LCL0014</t>
+  </si>
+  <si>
+    <t>CMM0547LCL0072</t>
+  </si>
+  <si>
+    <t>CMM0628LCL0011</t>
+  </si>
+  <si>
+    <t>CMM0800LCL0050</t>
+  </si>
+  <si>
+    <t>CMM0246LCL0041</t>
+  </si>
+  <si>
     <t>CMM0246LCL0040</t>
   </si>
   <si>
     <t>CMM0246LCL0039</t>
   </si>
   <si>
-    <t>CMM0808LCL0014</t>
-  </si>
-  <si>
-    <t>CMM0547LCL0072</t>
-  </si>
-  <si>
-    <t>CMM0628LCL0011</t>
-  </si>
-  <si>
-    <t>CMM0800LCL0050</t>
+    <t>SCK8 94561, Oakley, Oakley, California, United States</t>
+  </si>
+  <si>
+    <t>IUST 17225, Greencastle, Greencastle, Pennsylvania, United States</t>
+  </si>
+  <si>
+    <t>TEB9 08873, Somerset, Franklin Township, New Jersey, United States</t>
+  </si>
+  <si>
+    <t>ABE8 08518, Florence, Florence, New Jersey, United States</t>
+  </si>
+  <si>
+    <t>IND9 46143, Greenwood, Greenwood, Indiana, United States</t>
   </si>
   <si>
     <t>IUSL 21901, North East, North East, Maryland, United States</t>
   </si>
   <si>
-    <t>TEB9 08873, Somerset, Franklin Township, New Jersey, United States</t>
-  </si>
-  <si>
-    <t>SCK8 94561, Oakley, Oakley, California, United States</t>
-  </si>
-  <si>
-    <t>IUST 17225, Greencastle, Greencastle, Pennsylvania, United States</t>
-  </si>
-  <si>
-    <t>ABE8 08518, Florence, Florence, New Jersey, United States</t>
-  </si>
-  <si>
-    <t>IND9 46143, Greenwood, Greenwood, Indiana, United States</t>
+    <t>AGS2 30567, Pendergrass, Pendergrass, Georgia, United States</t>
   </si>
   <si>
     <t>Own Console</t>
   </si>
   <si>
-    <t>2025-07-25 17:17:16</t>
-  </si>
-  <si>
-    <t>2025-07-25 17:21:41</t>
-  </si>
-  <si>
     <t>2025-08-01 13:17:13</t>
   </si>
   <si>
@@ -374,6 +428,27 @@
   </si>
   <si>
     <t>2025-08-04 06:54:52</t>
+  </si>
+  <si>
+    <t>2025-08-05 14:08:43</t>
+  </si>
+  <si>
+    <t>2025-08-05 18:12:58</t>
+  </si>
+  <si>
+    <t>2025-08-05 18:24:22</t>
+  </si>
+  <si>
+    <t>21901,</t>
+  </si>
+  <si>
+    <t>30567,</t>
+  </si>
+  <si>
+    <t>08873,</t>
+  </si>
+  <si>
+    <t>Agraga</t>
   </si>
 </sst>
 </file>
@@ -731,13 +806,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AI10"/>
+  <dimension ref="A1:AM12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:35">
+    <row r="1" spans="1:39">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -843,76 +918,88 @@
       <c r="AI1" s="1" t="s">
         <v>34</v>
       </c>
+      <c r="AJ1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="2" spans="1:35">
+    <row r="2" spans="1:39">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E2">
-        <v>7201</v>
+        <v>90220</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="G2">
-        <v>21901</v>
+        <v>94561</v>
       </c>
       <c r="H2">
+        <v>140</v>
+      </c>
+      <c r="I2">
+        <v>1796.2</v>
+      </c>
+      <c r="J2">
+        <v>12.51</v>
+      </c>
+      <c r="K2">
         <v>7</v>
       </c>
-      <c r="I2">
-        <v>1590.904</v>
-      </c>
-      <c r="J2">
-        <v>2.871</v>
-      </c>
-      <c r="K2">
-        <v>2</v>
-      </c>
       <c r="L2" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="M2" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="N2" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="O2" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="P2" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="Q2" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="R2" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="S2" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="T2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
         <v>200</v>
       </c>
-      <c r="V2">
-        <v>61.73160173160174</v>
-      </c>
       <c r="W2">
-        <v>177.2314285714286</v>
+        <v>2502</v>
       </c>
       <c r="X2">
         <v>50</v>
@@ -927,99 +1014,99 @@
         <v>50</v>
       </c>
       <c r="AB2">
-        <v>36</v>
+        <v>168</v>
       </c>
       <c r="AC2">
-        <v>799.3099999999999</v>
+        <v>824.85</v>
       </c>
       <c r="AD2">
-        <v>1415.541428571428</v>
+        <v>3697.85</v>
       </c>
       <c r="AE2">
-        <v>493.0482161516644</v>
+        <v>295.5915267785771</v>
       </c>
       <c r="AF2" t="s">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="AG2" t="s">
-        <v>107</v>
+        <v>126</v>
       </c>
       <c r="AH2" t="s">
+        <v>133</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="3" spans="1:39">
+      <c r="A3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3">
+        <v>90220</v>
+      </c>
+      <c r="F3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G3">
+        <v>94561</v>
+      </c>
+      <c r="H3">
+        <v>150</v>
+      </c>
+      <c r="I3">
+        <v>2895</v>
+      </c>
+      <c r="J3">
+        <v>10.119</v>
+      </c>
+      <c r="K3">
+        <v>6</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="s">
+        <v>65</v>
+      </c>
+      <c r="N3" t="s">
+        <v>69</v>
+      </c>
+      <c r="O3" t="s">
+        <v>73</v>
+      </c>
+      <c r="P3" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>88</v>
+      </c>
+      <c r="R3" t="s">
+        <v>94</v>
+      </c>
+      <c r="S3" t="s">
+        <v>103</v>
+      </c>
+      <c r="T3" t="s">
         <v>113</v>
       </c>
-      <c r="AI2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="3" spans="1:35">
-      <c r="A3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E3">
-        <v>7201</v>
-      </c>
-      <c r="F3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G3">
-        <v>21901</v>
-      </c>
-      <c r="H3">
-        <v>10</v>
-      </c>
-      <c r="I3">
-        <v>2000</v>
-      </c>
-      <c r="J3">
-        <v>0.576</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3" t="s">
-        <v>53</v>
-      </c>
-      <c r="M3" t="s">
-        <v>56</v>
-      </c>
-      <c r="N3" t="s">
-        <v>60</v>
-      </c>
-      <c r="O3" t="s">
-        <v>63</v>
-      </c>
-      <c r="P3" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>76</v>
-      </c>
-      <c r="R3" t="s">
-        <v>81</v>
-      </c>
-      <c r="S3" t="s">
-        <v>90</v>
-      </c>
-      <c r="T3" t="s">
-        <v>90</v>
-      </c>
       <c r="U3">
-        <v>2500</v>
+        <v>3500</v>
       </c>
       <c r="V3">
-        <v>61.73160173160174</v>
+        <v>200</v>
       </c>
       <c r="W3">
-        <v>35.5574025974026</v>
+        <v>2023.8</v>
       </c>
       <c r="X3">
         <v>50</v>
@@ -1034,105 +1121,105 @@
         <v>50</v>
       </c>
       <c r="AB3">
-        <v>18</v>
+        <v>144</v>
       </c>
       <c r="AC3">
-        <v>232.39</v>
+        <v>1426</v>
       </c>
       <c r="AD3">
-        <v>2988.947402597403</v>
+        <v>7296.8</v>
       </c>
       <c r="AE3">
-        <v>5189.144796176047</v>
+        <v>721.0989228184603</v>
       </c>
       <c r="AF3" t="s">
-        <v>102</v>
+        <v>120</v>
       </c>
       <c r="AG3" t="s">
-        <v>107</v>
+        <v>126</v>
       </c>
       <c r="AH3" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="AI3" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
     </row>
-    <row r="4" spans="1:35">
+    <row r="4" spans="1:39">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C4" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D4" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="E4">
         <v>7201</v>
       </c>
       <c r="F4" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="G4">
-        <v>8873</v>
+        <v>17225</v>
       </c>
       <c r="H4">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="I4">
-        <v>660</v>
+        <v>289.87</v>
       </c>
       <c r="J4">
-        <v>0.643</v>
+        <v>0.6929999999999999</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="M4" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="N4" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="O4" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="P4" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="Q4" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="R4" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="S4" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="T4" t="s">
-        <v>91</v>
+        <v>114</v>
       </c>
       <c r="U4">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="V4">
         <v>61.73160173160174</v>
       </c>
       <c r="W4">
-        <v>39.69341991341992</v>
+        <v>42.78</v>
       </c>
       <c r="X4">
         <v>50</v>
       </c>
       <c r="Y4">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="Z4">
         <v>100</v>
@@ -1144,96 +1231,96 @@
         <v>18</v>
       </c>
       <c r="AC4">
-        <v>97</v>
+        <v>818.36</v>
       </c>
       <c r="AD4">
-        <v>2857.69341991342</v>
+        <v>1029.14</v>
       </c>
       <c r="AE4">
-        <v>4444.313250254152</v>
+        <v>1485.050505050505</v>
       </c>
       <c r="AF4" t="s">
-        <v>102</v>
+        <v>121</v>
       </c>
       <c r="AG4" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="AH4" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="AI4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39">
+      <c r="A5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5">
+        <v>7201</v>
+      </c>
+      <c r="F5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G5">
+        <v>8873</v>
+      </c>
+      <c r="H5">
+        <v>3</v>
+      </c>
+      <c r="I5">
         <v>115</v>
       </c>
-    </row>
-    <row r="5" spans="1:35">
-      <c r="A5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D5" t="s">
-        <v>42</v>
-      </c>
-      <c r="E5">
-        <v>90220</v>
-      </c>
-      <c r="F5" t="s">
-        <v>46</v>
-      </c>
-      <c r="G5">
-        <v>94561</v>
-      </c>
-      <c r="H5">
-        <v>140</v>
-      </c>
-      <c r="I5">
-        <v>1796.2</v>
-      </c>
       <c r="J5">
-        <v>12.51</v>
+        <v>4.337999999999999</v>
       </c>
       <c r="K5">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="L5" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="M5" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="N5" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="O5" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="P5" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="Q5" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="R5" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="S5" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="T5" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="U5">
         <v>0</v>
       </c>
       <c r="V5">
-        <v>200</v>
+        <v>61.73160173160174</v>
       </c>
       <c r="W5">
-        <v>2502</v>
+        <v>267.7916883116883</v>
       </c>
       <c r="X5">
         <v>50</v>
@@ -1248,99 +1335,99 @@
         <v>50</v>
       </c>
       <c r="AB5">
-        <v>168</v>
+        <v>54</v>
       </c>
       <c r="AC5">
-        <v>824.85</v>
+        <v>223.44</v>
       </c>
       <c r="AD5">
-        <v>3697.85</v>
+        <v>748.2316883116882</v>
       </c>
       <c r="AE5">
-        <v>295.5915267785771</v>
+        <v>172.4831001179549</v>
       </c>
       <c r="AF5" t="s">
-        <v>103</v>
+        <v>122</v>
       </c>
       <c r="AG5" t="s">
-        <v>109</v>
+        <v>128</v>
       </c>
       <c r="AH5" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="AI5" t="s">
-        <v>116</v>
+        <v>137</v>
       </c>
     </row>
-    <row r="6" spans="1:35">
+    <row r="6" spans="1:39">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C6" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D6" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E6">
-        <v>90220</v>
+        <v>7201</v>
       </c>
       <c r="F6" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="G6">
-        <v>94561</v>
+        <v>8518</v>
       </c>
       <c r="H6">
-        <v>150</v>
+        <v>5</v>
       </c>
       <c r="I6">
-        <v>2895</v>
+        <v>173</v>
       </c>
       <c r="J6">
-        <v>10.119</v>
+        <v>8.6</v>
       </c>
       <c r="K6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L6" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="M6" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="N6" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="O6" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="P6" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="Q6" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="R6" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="S6" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="T6" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="U6">
-        <v>3500</v>
+        <v>0</v>
       </c>
       <c r="V6">
-        <v>200</v>
+        <v>61.73160173160174</v>
       </c>
       <c r="W6">
-        <v>2023.8</v>
+        <v>530.8917748917748</v>
       </c>
       <c r="X6">
         <v>50</v>
@@ -1355,90 +1442,84 @@
         <v>50</v>
       </c>
       <c r="AB6">
-        <v>144</v>
+        <v>90</v>
       </c>
       <c r="AC6">
-        <v>1426</v>
+        <v>251.14</v>
       </c>
       <c r="AD6">
-        <v>7296.8</v>
+        <v>1075.031774891775</v>
       </c>
       <c r="AE6">
-        <v>721.0989228184603</v>
+        <v>125.0036947548575</v>
       </c>
       <c r="AF6" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="AG6" t="s">
-        <v>109</v>
+        <v>129</v>
       </c>
       <c r="AH6" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="AI6" t="s">
-        <v>117</v>
+        <v>137</v>
       </c>
     </row>
-    <row r="7" spans="1:35">
+    <row r="7" spans="1:39">
       <c r="A7" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C7" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D7" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="E7">
         <v>7201</v>
       </c>
       <c r="F7" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="G7">
-        <v>17225</v>
+        <v>46143</v>
       </c>
       <c r="H7">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="I7">
-        <v>289.87</v>
+        <v>159</v>
       </c>
       <c r="J7">
-        <v>0.6929999999999999</v>
+        <v>7.54</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L7" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="M7" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="N7" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="O7" t="s">
-        <v>67</v>
-      </c>
-      <c r="P7" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="R7" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="S7" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="T7" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="U7">
         <v>0</v>
@@ -1447,13 +1528,13 @@
         <v>61.73160173160174</v>
       </c>
       <c r="W7">
-        <v>42.78</v>
+        <v>465.4562770562771</v>
       </c>
       <c r="X7">
         <v>50</v>
       </c>
       <c r="Y7">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="Z7">
         <v>100</v>
@@ -1462,99 +1543,99 @@
         <v>50</v>
       </c>
       <c r="AB7">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="AC7">
-        <v>818.36</v>
+        <v>539.63</v>
       </c>
       <c r="AD7">
-        <v>1029.14</v>
+        <v>1280.086277056277</v>
       </c>
       <c r="AE7">
-        <v>1485.050505050505</v>
+        <v>169.7727157899572</v>
       </c>
       <c r="AF7" t="s">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="AG7" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="AH7" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="AI7" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
     </row>
-    <row r="8" spans="1:35">
+    <row r="8" spans="1:39">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C8" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
-      </c>
-      <c r="E8" t="s">
-        <v>43</v>
+        <v>47</v>
+      </c>
+      <c r="E8">
+        <v>7201</v>
       </c>
       <c r="F8" t="s">
-        <v>45</v>
-      </c>
-      <c r="G8" t="s">
-        <v>50</v>
+        <v>56</v>
+      </c>
+      <c r="G8">
+        <v>21901</v>
       </c>
       <c r="H8">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="I8">
+        <v>1000</v>
+      </c>
+      <c r="J8">
+        <v>2.1</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8" t="s">
+        <v>63</v>
+      </c>
+      <c r="M8" t="s">
+        <v>66</v>
+      </c>
+      <c r="N8" t="s">
+        <v>70</v>
+      </c>
+      <c r="O8" t="s">
+        <v>78</v>
+      </c>
+      <c r="P8" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>92</v>
+      </c>
+      <c r="R8" t="s">
+        <v>99</v>
+      </c>
+      <c r="S8" t="s">
+        <v>108</v>
+      </c>
+      <c r="T8" t="s">
         <v>115</v>
       </c>
-      <c r="J8">
-        <v>4.337999999999999</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
-      <c r="L8" t="s">
-        <v>54</v>
-      </c>
-      <c r="M8" t="s">
-        <v>56</v>
-      </c>
-      <c r="N8" t="s">
-        <v>60</v>
-      </c>
-      <c r="O8" t="s">
-        <v>68</v>
-      </c>
-      <c r="P8" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>77</v>
-      </c>
-      <c r="R8" t="s">
-        <v>86</v>
-      </c>
-      <c r="S8" t="s">
-        <v>95</v>
-      </c>
-      <c r="T8" t="s">
-        <v>95</v>
-      </c>
       <c r="U8">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="V8">
         <v>61.73160173160174</v>
       </c>
       <c r="W8">
-        <v>267.7916883116883</v>
+        <v>129.6363636363637</v>
       </c>
       <c r="X8">
         <v>50</v>
@@ -1569,99 +1650,108 @@
         <v>50</v>
       </c>
       <c r="AB8">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="AC8">
-        <v>223.44</v>
+        <v>734.3099999999999</v>
       </c>
       <c r="AD8">
-        <v>748.2316883116882</v>
+        <v>2102.946363636363</v>
       </c>
       <c r="AE8">
-        <v>172.4831001179549</v>
+        <v>1001.40303030303</v>
       </c>
       <c r="AF8" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="AG8" t="s">
-        <v>108</v>
+        <v>131</v>
       </c>
       <c r="AH8" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="AI8" t="s">
-        <v>119</v>
+        <v>138</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>141</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>144</v>
+      </c>
+      <c r="AL8">
+        <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:35">
+    <row r="9" spans="1:39">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C9" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D9" t="s">
-        <v>41</v>
-      </c>
-      <c r="E9" t="s">
-        <v>43</v>
+        <v>47</v>
+      </c>
+      <c r="E9">
+        <v>7201</v>
       </c>
       <c r="F9" t="s">
-        <v>48</v>
-      </c>
-      <c r="G9" t="s">
-        <v>51</v>
+        <v>56</v>
+      </c>
+      <c r="G9">
+        <v>21901</v>
       </c>
       <c r="H9">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I9">
-        <v>173</v>
+        <v>1590.904</v>
       </c>
       <c r="J9">
-        <v>8.6</v>
+        <v>2.871</v>
       </c>
       <c r="K9">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L9" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="M9" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="N9" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="O9" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="P9" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="Q9" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="R9" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="S9" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="T9" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="U9">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V9">
         <v>61.73160173160174</v>
       </c>
       <c r="W9">
-        <v>530.8917748917748</v>
+        <v>177.2314285714286</v>
       </c>
       <c r="X9">
         <v>50</v>
@@ -1676,93 +1766,105 @@
         <v>50</v>
       </c>
       <c r="AB9">
-        <v>90</v>
+        <v>36</v>
       </c>
       <c r="AC9">
-        <v>251.14</v>
+        <v>734.3099999999999</v>
       </c>
       <c r="AD9">
-        <v>1075.031774891775</v>
+        <v>1250.541428571428</v>
       </c>
       <c r="AE9">
-        <v>125.0036947548575</v>
+        <v>435.5769517838483</v>
       </c>
       <c r="AF9" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="AG9" t="s">
-        <v>111</v>
+        <v>131</v>
       </c>
       <c r="AH9" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="AI9" t="s">
-        <v>119</v>
+        <v>139</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>141</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>144</v>
+      </c>
+      <c r="AL9">
+        <v>18</v>
+      </c>
+      <c r="AM9">
+        <v>79.1471363885157</v>
       </c>
     </row>
-    <row r="10" spans="1:35">
+    <row r="10" spans="1:39">
       <c r="A10" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C10" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D10" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="F10" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="G10" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="H10">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="I10">
-        <v>159</v>
+        <v>2000</v>
       </c>
       <c r="J10">
-        <v>7.54</v>
+        <v>0.576</v>
       </c>
       <c r="K10">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L10" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="M10" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="N10" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="O10" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="R10" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="S10" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="T10" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="U10">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V10">
-        <v>61.73160173160174</v>
+        <v>63.54978354978356</v>
       </c>
       <c r="W10">
-        <v>465.4562770562771</v>
+        <v>36.60467532467533</v>
       </c>
       <c r="X10">
         <v>50</v>
@@ -1777,28 +1879,278 @@
         <v>50</v>
       </c>
       <c r="AB10">
-        <v>72</v>
+        <v>20</v>
       </c>
       <c r="AC10">
-        <v>539.63</v>
+        <v>0</v>
       </c>
       <c r="AD10">
-        <v>1280.086277056277</v>
+        <v>359.6046753246753</v>
       </c>
       <c r="AE10">
-        <v>169.7727157899572</v>
+        <v>624.3136724386725</v>
       </c>
       <c r="AF10" t="s">
-        <v>106</v>
+        <v>125</v>
       </c>
       <c r="AG10" t="s">
+        <v>132</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>133</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>140</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>142</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>144</v>
+      </c>
+      <c r="AL10">
+        <v>20</v>
+      </c>
+      <c r="AM10">
+        <v>150.3553391053391</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39">
+      <c r="A11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" t="s">
+        <v>50</v>
+      </c>
+      <c r="F11" t="s">
+        <v>53</v>
+      </c>
+      <c r="G11" t="s">
+        <v>59</v>
+      </c>
+      <c r="H11">
+        <v>9</v>
+      </c>
+      <c r="I11">
+        <v>660</v>
+      </c>
+      <c r="J11">
+        <v>0.643</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11" t="s">
+        <v>62</v>
+      </c>
+      <c r="M11" t="s">
+        <v>68</v>
+      </c>
+      <c r="N11" t="s">
+        <v>71</v>
+      </c>
+      <c r="O11" t="s">
+        <v>81</v>
+      </c>
+      <c r="P11" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>90</v>
+      </c>
+      <c r="R11" t="s">
+        <v>101</v>
+      </c>
+      <c r="S11" t="s">
+        <v>111</v>
+      </c>
+      <c r="T11" t="s">
+        <v>117</v>
+      </c>
+      <c r="U11">
+        <v>100</v>
+      </c>
+      <c r="V11">
+        <v>61.73160173160174</v>
+      </c>
+      <c r="W11">
+        <v>39.69341991341992</v>
+      </c>
+      <c r="X11">
+        <v>50</v>
+      </c>
+      <c r="Y11">
+        <v>53</v>
+      </c>
+      <c r="Z11">
+        <v>100</v>
+      </c>
+      <c r="AA11">
+        <v>50</v>
+      </c>
+      <c r="AB11">
+        <v>18</v>
+      </c>
+      <c r="AC11">
+        <v>465</v>
+      </c>
+      <c r="AD11">
+        <v>825.6934199134199</v>
+      </c>
+      <c r="AE11">
+        <v>1284.126625059751</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>125</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>128</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>133</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>140</v>
+      </c>
+      <c r="AJ11" t="s">
+        <v>143</v>
+      </c>
+      <c r="AK11" t="s">
+        <v>144</v>
+      </c>
+      <c r="AL11">
+        <v>18</v>
+      </c>
+      <c r="AM11">
+        <v>139.4920993987868</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39">
+      <c r="A12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12" t="s">
+        <v>56</v>
+      </c>
+      <c r="G12" t="s">
+        <v>60</v>
+      </c>
+      <c r="H12">
+        <v>10</v>
+      </c>
+      <c r="I12">
+        <v>1000</v>
+      </c>
+      <c r="J12">
+        <v>1.382</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12" t="s">
+        <v>63</v>
+      </c>
+      <c r="M12" t="s">
+        <v>68</v>
+      </c>
+      <c r="N12" t="s">
+        <v>71</v>
+      </c>
+      <c r="O12" t="s">
+        <v>82</v>
+      </c>
+      <c r="P12" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>92</v>
+      </c>
+      <c r="R12" t="s">
+        <v>99</v>
+      </c>
+      <c r="S12" t="s">
         <v>112</v>
       </c>
-      <c r="AH10" t="s">
-        <v>113</v>
-      </c>
-      <c r="AI10" t="s">
-        <v>119</v>
+      <c r="T12" t="s">
+        <v>118</v>
+      </c>
+      <c r="U12">
+        <v>100</v>
+      </c>
+      <c r="V12">
+        <v>61.73160173160174</v>
+      </c>
+      <c r="W12">
+        <v>85.3130735930736</v>
+      </c>
+      <c r="X12">
+        <v>50</v>
+      </c>
+      <c r="Y12">
+        <v>53</v>
+      </c>
+      <c r="Z12">
+        <v>100</v>
+      </c>
+      <c r="AA12">
+        <v>50</v>
+      </c>
+      <c r="AB12">
+        <v>18</v>
+      </c>
+      <c r="AC12">
+        <v>705</v>
+      </c>
+      <c r="AD12">
+        <v>1111.313073593074</v>
+      </c>
+      <c r="AE12">
+        <v>804.1339172164064</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>125</v>
+      </c>
+      <c r="AG12" t="s">
+        <v>131</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>133</v>
+      </c>
+      <c r="AI12" t="s">
+        <v>140</v>
+      </c>
+      <c r="AJ12" t="s">
+        <v>141</v>
+      </c>
+      <c r="AK12" t="s">
+        <v>144</v>
+      </c>
+      <c r="AL12">
+        <v>18</v>
+      </c>
+      <c r="AM12">
+        <v>97.91105180396065</v>
       </c>
     </row>
   </sheetData>

--- a/Logs/quotations.xlsx
+++ b/Logs/quotations.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="96">
   <si>
     <t>Shipment Scope</t>
   </si>
@@ -136,9 +136,15 @@
     <t>Door-to-Door</t>
   </si>
   <si>
+    <t>Port-to-Door</t>
+  </si>
+  <si>
     <t>110020, Okhla Industrial Estate, South East Delhi, Delhi, India</t>
   </si>
   <si>
+    <t>Nhava Sheva, India (INNSA)</t>
+  </si>
+  <si>
     <t>Nhava Sheva</t>
   </si>
   <si>
@@ -148,10 +154,10 @@
     <t>Charleston</t>
   </si>
   <si>
-    <t>29483</t>
-  </si>
-  <si>
-    <t>07201</t>
+    <t>Los Angeles</t>
+  </si>
+  <si>
+    <t>90220</t>
   </si>
   <si>
     <t>IUSL</t>
@@ -163,6 +169,9 @@
     <t>TEB9</t>
   </si>
   <si>
+    <t>SCK8</t>
+  </si>
+  <si>
     <t>IUSL 21901, North East, North East, Maryland, United States</t>
   </si>
   <si>
@@ -172,18 +181,18 @@
     <t>TEB9 08873, Somerset, Franklin Township, New Jersey, United States</t>
   </si>
   <si>
-    <t>30567</t>
-  </si>
-  <si>
-    <t>08873</t>
-  </si>
-  <si>
-    <t>21901</t>
+    <t>SCK8 94561, Oakley, Oakley, California, United States</t>
+  </si>
+  <si>
+    <t>94561</t>
   </si>
   <si>
     <t>Agraga</t>
   </si>
   <si>
+    <t>AllCargo</t>
+  </si>
+  <si>
     <t>HOT</t>
   </si>
   <si>
@@ -202,6 +211,9 @@
     <t>condition2</t>
   </si>
   <si>
+    <t>condition3</t>
+  </si>
+  <si>
     <t>{'Rate': 308.31, 'Carrier Name': 'Estes Express Lines', 'Service Provider': 'HeyPrimo'}</t>
   </si>
   <si>
@@ -211,18 +223,27 @@
     <t>{'Rate': 97.0, 'Carrier Name': nan, 'Service Provider': 'AmznFrgt'}</t>
   </si>
   <si>
+    <t>{'Rate': 726.98, 'Carrier Name': 'ABF Density VL', 'Service Provider': 'HeyPrimo'}</t>
+  </si>
+  <si>
     <t>{'Rate': 705.0, 'Carrier Name': nan, 'Service Provider': 'JB.Hunt'}</t>
   </si>
   <si>
     <t>{'Rate': 465.0, 'Carrier Name': nan, 'Service Provider': 'JB.Hunt'}</t>
   </si>
   <si>
+    <t>{'Rate': 1494.0, 'Carrier Name': nan, 'Service Provider': 'JB.Hunt'}</t>
+  </si>
+  <si>
     <t>{'Rate': 645.0, 'Carrier Name': nan, 'Service Provider': 'NTG'}</t>
   </si>
   <si>
     <t>{'Rate': 372.0, 'Carrier Name': nan, 'Service Provider': 'NTG'}</t>
   </si>
   <si>
+    <t>{'Rate': 1426.0, 'Carrier Name': nan, 'Service Provider': 'NTG'}</t>
+  </si>
+  <si>
     <t>{'Rate': 721.31, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt'}</t>
   </si>
   <si>
@@ -232,6 +253,9 @@
     <t>{'Rate': 424.9, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt'}</t>
   </si>
   <si>
+    <t>{'Rate': 1254.82, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt'}</t>
+  </si>
+  <si>
     <t>{'Rate Type': 'LTL', 'Rate': 308.31, 'Carrier Name': 'Estes Express Lines', 'Service Provider': 'HeyPrimo'}</t>
   </si>
   <si>
@@ -241,6 +265,9 @@
     <t>{'Rate Type': 'LTL', 'Rate': 97.0, 'Carrier Name': nan, 'Service Provider': 'AmznFrgt'}</t>
   </si>
   <si>
+    <t>{'Rate Type': 'LTL', 'Rate': 726.98, 'Carrier Name': 'ABF Density VL', 'Service Provider': 'HeyPrimo'}</t>
+  </si>
+  <si>
     <t>{'Rate Type': 'Drayage', 'Rate': 721.31, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt'}</t>
   </si>
   <si>
@@ -253,19 +280,28 @@
     <t>{'Rate Type': 'FTL', 'Rate': 705.0, 'Carrier Name': nan, 'Service Provider': 'JB.Hunt'}</t>
   </si>
   <si>
+    <t>{'Rate Type': 'Drayage', 'Rate': 1254.82, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt'}</t>
+  </si>
+  <si>
     <t>CMM0246LCL0040</t>
   </si>
   <si>
     <t>CMM0246LCL0039</t>
   </si>
   <si>
+    <t>CMM0575LCL0025</t>
+  </si>
+  <si>
     <t>Own Console</t>
   </si>
   <si>
     <t>2025-08-06 16:45:06</t>
   </si>
   <si>
-    <t>2025-08-06 16:49:41</t>
+    <t>2025-08-06 11:31:47</t>
+  </si>
+  <si>
+    <t>2025-08-06 11:43:08</t>
   </si>
 </sst>
 </file>
@@ -623,7 +659,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM5"/>
+  <dimension ref="A1:AM6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -753,28 +789,28 @@
         <v>39</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E2">
         <v>7201</v>
       </c>
       <c r="F2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="H2">
         <v>21901</v>
       </c>
       <c r="I2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J2">
         <v>7</v>
@@ -789,31 +825,31 @@
         <v>2</v>
       </c>
       <c r="N2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="O2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="P2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="Q2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="R2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="S2" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="T2" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="U2" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="V2" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="W2">
         <v>100</v>
@@ -855,16 +891,16 @@
         <v>430.7006020799124</v>
       </c>
       <c r="AJ2" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AK2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="AL2" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AM2" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:39">
@@ -872,28 +908,28 @@
         <v>39</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
+      </c>
+      <c r="E3">
+        <v>29483</v>
       </c>
       <c r="F3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G3" t="s">
-        <v>50</v>
-      </c>
-      <c r="H3" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="H3">
+        <v>30567</v>
       </c>
       <c r="I3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J3">
         <v>10</v>
@@ -908,25 +944,25 @@
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="O3" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="P3" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="Q3" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="T3" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="U3" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="V3" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="W3">
         <v>100</v>
@@ -968,16 +1004,16 @@
         <v>619.1053391053391</v>
       </c>
       <c r="AJ3" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AK3" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="AL3" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AM3" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -985,28 +1021,28 @@
         <v>39</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E4" t="s">
-        <v>45</v>
+        <v>44</v>
+      </c>
+      <c r="E4">
+        <v>7201</v>
       </c>
       <c r="F4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G4" t="s">
-        <v>51</v>
-      </c>
-      <c r="H4" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="H4">
+        <v>8873</v>
       </c>
       <c r="I4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J4">
         <v>9</v>
@@ -1021,31 +1057,31 @@
         <v>1</v>
       </c>
       <c r="N4" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="O4" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="P4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="Q4" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="R4" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="S4" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="T4" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="U4" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="V4" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="W4">
         <v>100</v>
@@ -1087,16 +1123,16 @@
         <v>1282.571415106407</v>
       </c>
       <c r="AJ4" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AK4" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="AL4" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AM4" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:39">
@@ -1104,28 +1140,28 @@
         <v>39</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D5" t="s">
-        <v>42</v>
-      </c>
-      <c r="E5" t="s">
-        <v>45</v>
+        <v>44</v>
+      </c>
+      <c r="E5">
+        <v>7201</v>
       </c>
       <c r="F5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G5" t="s">
-        <v>49</v>
-      </c>
-      <c r="H5" t="s">
-        <v>54</v>
+        <v>52</v>
+      </c>
+      <c r="H5">
+        <v>21901</v>
       </c>
       <c r="I5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J5">
         <v>10</v>
@@ -1140,31 +1176,31 @@
         <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="O5" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="P5" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="Q5" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="R5" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="S5" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="T5" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="U5" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="V5" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="W5">
         <v>100</v>
@@ -1206,16 +1242,135 @@
         <v>803.4103282149592</v>
       </c>
       <c r="AJ5" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AK5" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="AL5" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AM5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39">
+      <c r="A6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6" t="s">
+        <v>51</v>
+      </c>
+      <c r="G6" t="s">
+        <v>55</v>
+      </c>
+      <c r="H6" t="s">
+        <v>56</v>
+      </c>
+      <c r="I6" t="s">
+        <v>58</v>
+      </c>
+      <c r="J6">
+        <v>77</v>
+      </c>
+      <c r="K6">
+        <v>1155</v>
+      </c>
+      <c r="L6">
+        <v>5.304</v>
+      </c>
+      <c r="M6">
+        <v>3</v>
+      </c>
+      <c r="N6" t="s">
+        <v>59</v>
+      </c>
+      <c r="O6" t="s">
+        <v>61</v>
+      </c>
+      <c r="P6" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>69</v>
+      </c>
+      <c r="R6" t="s">
+        <v>72</v>
+      </c>
+      <c r="S6" t="s">
+        <v>75</v>
+      </c>
+      <c r="T6" t="s">
+        <v>79</v>
+      </c>
+      <c r="U6" t="s">
         <v>83</v>
+      </c>
+      <c r="V6" t="s">
+        <v>88</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>200</v>
+      </c>
+      <c r="Y6">
+        <v>209.4268476621418</v>
+      </c>
+      <c r="Z6">
+        <v>1060.8</v>
+      </c>
+      <c r="AA6">
+        <v>50</v>
+      </c>
+      <c r="AB6">
+        <v>52</v>
+      </c>
+      <c r="AC6">
+        <v>100</v>
+      </c>
+      <c r="AD6">
+        <v>50</v>
+      </c>
+      <c r="AE6">
+        <v>18</v>
+      </c>
+      <c r="AF6">
+        <v>54</v>
+      </c>
+      <c r="AG6">
+        <v>1254.82</v>
+      </c>
+      <c r="AH6">
+        <v>2571.62</v>
+      </c>
+      <c r="AI6">
+        <v>484.8453996983408</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>91</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>55</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>92</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/Logs/quotations.xlsx
+++ b/Logs/quotations.xlsx
@@ -301,7 +301,7 @@
     <t>2025-08-06 11:31:47</t>
   </si>
   <si>
-    <t>2025-08-06 11:43:08</t>
+    <t>2025-08-06 18:59:42</t>
   </si>
 </sst>
 </file>
@@ -1325,13 +1325,13 @@
         <v>0</v>
       </c>
       <c r="X6">
-        <v>200</v>
+        <v>70.33057851239668</v>
       </c>
       <c r="Y6">
-        <v>209.4268476621418</v>
+        <v>79.75742617453847</v>
       </c>
       <c r="Z6">
-        <v>1060.8</v>
+        <v>373.0333884297521</v>
       </c>
       <c r="AA6">
         <v>50</v>
@@ -1355,10 +1355,10 @@
         <v>1254.82</v>
       </c>
       <c r="AH6">
-        <v>2571.62</v>
+        <v>1883.853388429752</v>
       </c>
       <c r="AI6">
-        <v>484.8453996983408</v>
+        <v>355.1759782107375</v>
       </c>
       <c r="AJ6" t="s">
         <v>91</v>

--- a/Logs/quotations.xlsx
+++ b/Logs/quotations.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="102">
   <si>
     <t>Shipment Scope</t>
   </si>
@@ -151,40 +151,49 @@
     <t>New York</t>
   </si>
   <si>
+    <t>Los Angeles</t>
+  </si>
+  <si>
     <t>Charleston</t>
   </si>
   <si>
-    <t>Los Angeles</t>
-  </si>
-  <si>
-    <t>90220</t>
+    <t>29483</t>
+  </si>
+  <si>
+    <t>07201</t>
   </si>
   <si>
     <t>IUSL</t>
   </si>
   <si>
+    <t>SCK8</t>
+  </si>
+  <si>
     <t>AGS2</t>
   </si>
   <si>
     <t>TEB9</t>
   </si>
   <si>
-    <t>SCK8</t>
-  </si>
-  <si>
     <t>IUSL 21901, North East, North East, Maryland, United States</t>
   </si>
   <si>
+    <t>SCK8 94561, Oakley, Oakley, California, United States</t>
+  </si>
+  <si>
     <t>AGS2 30567, Pendergrass, Pendergrass, Georgia, United States</t>
   </si>
   <si>
     <t>TEB9 08873, Somerset, Franklin Township, New Jersey, United States</t>
   </si>
   <si>
-    <t>SCK8 94561, Oakley, Oakley, California, United States</t>
-  </si>
-  <si>
-    <t>94561</t>
+    <t>30567</t>
+  </si>
+  <si>
+    <t>08873</t>
+  </si>
+  <si>
+    <t>21901</t>
   </si>
   <si>
     <t>Agraga</t>
@@ -208,69 +217,81 @@
     <t>condition1</t>
   </si>
   <si>
+    <t>condition3</t>
+  </si>
+  <si>
     <t>condition2</t>
   </si>
   <si>
-    <t>condition3</t>
-  </si>
-  <si>
     <t>{'Rate': 308.31, 'Carrier Name': 'Estes Express Lines', 'Service Provider': 'HeyPrimo'}</t>
   </si>
   <si>
+    <t>{'Rate': 726.98, 'Carrier Name': 'ABF Density VL', 'Service Provider': 'HeyPrimo'}</t>
+  </si>
+  <si>
     <t>{'Rate': 305.01, 'Carrier Name': 'Estes Express Lines', 'Service Provider': 'HeyPrimo'}</t>
   </si>
   <si>
     <t>{'Rate': 97.0, 'Carrier Name': nan, 'Service Provider': 'AmznFrgt'}</t>
   </si>
   <si>
-    <t>{'Rate': 726.98, 'Carrier Name': 'ABF Density VL', 'Service Provider': 'HeyPrimo'}</t>
+    <t>{'Rate': 241.21, 'Carrier Name': 'Estes Express Lines', 'Service Provider': 'Ex-Freight'}</t>
   </si>
   <si>
     <t>{'Rate': 705.0, 'Carrier Name': nan, 'Service Provider': 'JB.Hunt'}</t>
   </si>
   <si>
+    <t>{'Rate': 1494.0, 'Carrier Name': nan, 'Service Provider': 'JB.Hunt'}</t>
+  </si>
+  <si>
     <t>{'Rate': 465.0, 'Carrier Name': nan, 'Service Provider': 'JB.Hunt'}</t>
   </si>
   <si>
-    <t>{'Rate': 1494.0, 'Carrier Name': nan, 'Service Provider': 'JB.Hunt'}</t>
-  </si>
-  <si>
     <t>{'Rate': 645.0, 'Carrier Name': nan, 'Service Provider': 'NTG'}</t>
   </si>
   <si>
+    <t>{'Rate': 1426.0, 'Carrier Name': nan, 'Service Provider': 'NTG'}</t>
+  </si>
+  <si>
     <t>{'Rate': 372.0, 'Carrier Name': nan, 'Service Provider': 'NTG'}</t>
   </si>
   <si>
-    <t>{'Rate': 1426.0, 'Carrier Name': nan, 'Service Provider': 'NTG'}</t>
-  </si>
-  <si>
     <t>{'Rate': 721.31, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt'}</t>
   </si>
   <si>
-    <t>{'Rate': 754.44, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt'}</t>
-  </si>
-  <si>
-    <t>{'Rate': 424.9, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt'}</t>
-  </si>
-  <si>
     <t>{'Rate': 1254.82, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt'}</t>
   </si>
   <si>
+    <t>{'Rate': 740.44, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt'}</t>
+  </si>
+  <si>
+    <t>{'Rate': 413.9, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt'}</t>
+  </si>
+  <si>
+    <t>{'Rate': 700.31, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt'}</t>
+  </si>
+  <si>
     <t>{'Rate Type': 'LTL', 'Rate': 308.31, 'Carrier Name': 'Estes Express Lines', 'Service Provider': 'HeyPrimo'}</t>
   </si>
   <si>
+    <t>{'Rate Type': 'LTL', 'Rate': 726.98, 'Carrier Name': 'ABF Density VL', 'Service Provider': 'HeyPrimo'}</t>
+  </si>
+  <si>
     <t>{'Rate Type': 'LTL', 'Rate': 305.01, 'Carrier Name': 'Estes Express Lines', 'Service Provider': 'HeyPrimo'}</t>
   </si>
   <si>
     <t>{'Rate Type': 'LTL', 'Rate': 97.0, 'Carrier Name': nan, 'Service Provider': 'AmznFrgt'}</t>
   </si>
   <si>
-    <t>{'Rate Type': 'LTL', 'Rate': 726.98, 'Carrier Name': 'ABF Density VL', 'Service Provider': 'HeyPrimo'}</t>
+    <t>{'Rate Type': 'LTL', 'Rate': 241.21, 'Carrier Name': 'Estes Express Lines', 'Service Provider': 'Ex-Freight'}</t>
   </si>
   <si>
     <t>{'Rate Type': 'Drayage', 'Rate': 721.31, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt'}</t>
   </si>
   <si>
+    <t>{'Rate Type': 'Drayage', 'Rate': 1254.82, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt'}</t>
+  </si>
+  <si>
     <t>{'Rate Type': 'N/A', 'Rate': 0.0, 'Carrier Name': '', 'Service Provider': ''}</t>
   </si>
   <si>
@@ -280,28 +301,25 @@
     <t>{'Rate Type': 'FTL', 'Rate': 705.0, 'Carrier Name': nan, 'Service Provider': 'JB.Hunt'}</t>
   </si>
   <si>
-    <t>{'Rate Type': 'Drayage', 'Rate': 1254.82, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt'}</t>
-  </si>
-  <si>
     <t>CMM0246LCL0040</t>
   </si>
   <si>
+    <t>CMM0575LCL0025</t>
+  </si>
+  <si>
     <t>CMM0246LCL0039</t>
   </si>
   <si>
-    <t>CMM0575LCL0025</t>
-  </si>
-  <si>
     <t>Own Console</t>
   </si>
   <si>
     <t>2025-08-06 16:45:06</t>
   </si>
   <si>
-    <t>2025-08-06 11:31:47</t>
-  </si>
-  <si>
     <t>2025-08-06 18:59:42</t>
+  </si>
+  <si>
+    <t>2025-08-07 07:54:42</t>
   </si>
 </sst>
 </file>
@@ -801,16 +819,16 @@
         <v>7201</v>
       </c>
       <c r="F2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H2">
         <v>21901</v>
       </c>
       <c r="I2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="J2">
         <v>7</v>
@@ -825,31 +843,31 @@
         <v>2</v>
       </c>
       <c r="N2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="O2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="P2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="Q2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="R2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="S2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="T2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="U2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="V2" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="W2">
         <v>100</v>
@@ -891,24 +909,24 @@
         <v>430.7006020799124</v>
       </c>
       <c r="AJ2" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="AK2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AL2" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="AM2" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:39">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C3" t="s">
         <v>43</v>
@@ -917,64 +935,70 @@
         <v>45</v>
       </c>
       <c r="E3">
-        <v>29483</v>
+        <v>90220</v>
       </c>
       <c r="F3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H3">
-        <v>30567</v>
+        <v>94561</v>
       </c>
       <c r="I3" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="J3">
-        <v>10</v>
+        <v>77</v>
       </c>
       <c r="K3">
-        <v>2000</v>
+        <v>1155</v>
       </c>
       <c r="L3">
-        <v>0.576</v>
+        <v>5.304</v>
       </c>
       <c r="M3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="O3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P3" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="Q3" t="s">
-        <v>67</v>
+        <v>70</v>
+      </c>
+      <c r="R3" t="s">
+        <v>75</v>
+      </c>
+      <c r="S3" t="s">
+        <v>78</v>
       </c>
       <c r="T3" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="U3" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="V3" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="W3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>63.54978354978356</v>
+        <v>70.33057851239668</v>
       </c>
       <c r="Y3">
-        <v>150.3553391053391</v>
+        <v>79.75742617453847</v>
       </c>
       <c r="Z3">
-        <v>36.60467532467533</v>
+        <v>373.0333884297521</v>
       </c>
       <c r="AA3">
         <v>50</v>
@@ -992,28 +1016,28 @@
         <v>18</v>
       </c>
       <c r="AF3">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="AG3">
-        <v>0</v>
+        <v>1254.82</v>
       </c>
       <c r="AH3">
-        <v>356.6046753246753</v>
+        <v>1883.853388429752</v>
       </c>
       <c r="AI3">
-        <v>619.1053391053391</v>
+        <v>355.1759782107375</v>
       </c>
       <c r="AJ3" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="AK3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AL3" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="AM3" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -1027,73 +1051,67 @@
         <v>43</v>
       </c>
       <c r="D4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E4">
-        <v>7201</v>
+        <v>46</v>
+      </c>
+      <c r="E4" t="s">
+        <v>47</v>
       </c>
       <c r="F4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G4" t="s">
-        <v>54</v>
-      </c>
-      <c r="H4">
-        <v>8873</v>
+        <v>55</v>
+      </c>
+      <c r="H4" t="s">
+        <v>57</v>
       </c>
       <c r="I4" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="J4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K4">
-        <v>660</v>
+        <v>2000</v>
       </c>
       <c r="L4">
-        <v>0.643</v>
+        <v>0.576</v>
       </c>
       <c r="M4">
         <v>1</v>
       </c>
       <c r="N4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="O4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="P4" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="Q4" t="s">
-        <v>68</v>
-      </c>
-      <c r="R4" t="s">
         <v>71</v>
       </c>
-      <c r="S4" t="s">
-        <v>74</v>
-      </c>
       <c r="T4" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="U4" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="V4" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="W4">
         <v>100</v>
       </c>
       <c r="X4">
-        <v>61.73160173160174</v>
+        <v>90.82251082251082</v>
       </c>
       <c r="Y4">
-        <v>139.4920993987868</v>
+        <v>177.6280663780664</v>
       </c>
       <c r="Z4">
-        <v>39.69341991341992</v>
+        <v>52.31376623376623</v>
       </c>
       <c r="AA4">
         <v>50</v>
@@ -1114,25 +1132,25 @@
         <v>18</v>
       </c>
       <c r="AG4">
-        <v>465</v>
+        <v>0</v>
       </c>
       <c r="AH4">
-        <v>824.6934199134199</v>
+        <v>372.3137662337662</v>
       </c>
       <c r="AI4">
-        <v>1282.571415106407</v>
+        <v>646.3780663780664</v>
       </c>
       <c r="AJ4" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="AK4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AL4" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="AM4" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:39">
@@ -1148,71 +1166,71 @@
       <c r="D5" t="s">
         <v>44</v>
       </c>
-      <c r="E5">
-        <v>7201</v>
+      <c r="E5" t="s">
+        <v>48</v>
       </c>
       <c r="F5" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G5" t="s">
-        <v>52</v>
-      </c>
-      <c r="H5">
-        <v>21901</v>
+        <v>56</v>
+      </c>
+      <c r="H5" t="s">
+        <v>58</v>
       </c>
       <c r="I5" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="J5">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K5">
-        <v>1000</v>
+        <v>660</v>
       </c>
       <c r="L5">
-        <v>1.382</v>
+        <v>0.643</v>
       </c>
       <c r="M5">
         <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="O5" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="P5" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="Q5" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="R5" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="S5" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="T5" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="U5" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="V5" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="W5">
         <v>100</v>
       </c>
       <c r="X5">
-        <v>61.73160173160174</v>
+        <v>94.45887445887446</v>
       </c>
       <c r="Y5">
-        <v>97.91105180396065</v>
+        <v>172.2193721260595</v>
       </c>
       <c r="Z5">
-        <v>85.3130735930736</v>
+        <v>60.73705627705628</v>
       </c>
       <c r="AA5">
         <v>50</v>
@@ -1233,105 +1251,105 @@
         <v>18</v>
       </c>
       <c r="AG5">
-        <v>705</v>
+        <v>465</v>
       </c>
       <c r="AH5">
-        <v>1110.313073593074</v>
+        <v>845.7370562770562</v>
       </c>
       <c r="AI5">
-        <v>803.4103282149592</v>
+        <v>1315.29868783368</v>
       </c>
       <c r="AJ5" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="AK5" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="AL5" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="AM5" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:39">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C6" t="s">
         <v>43</v>
       </c>
       <c r="D6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H6" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="I6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J6">
+        <v>10</v>
+      </c>
+      <c r="K6">
+        <v>1000</v>
+      </c>
+      <c r="L6">
+        <v>1.382</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
+        <v>62</v>
+      </c>
+      <c r="O6" t="s">
+        <v>65</v>
+      </c>
+      <c r="P6" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>73</v>
+      </c>
+      <c r="R6" t="s">
+        <v>74</v>
+      </c>
+      <c r="S6" t="s">
         <v>77</v>
       </c>
-      <c r="K6">
-        <v>1155</v>
-      </c>
-      <c r="L6">
-        <v>5.304</v>
-      </c>
-      <c r="M6">
-        <v>3</v>
-      </c>
-      <c r="N6" t="s">
-        <v>59</v>
-      </c>
-      <c r="O6" t="s">
-        <v>61</v>
-      </c>
-      <c r="P6" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>69</v>
-      </c>
-      <c r="R6" t="s">
-        <v>72</v>
-      </c>
-      <c r="S6" t="s">
-        <v>75</v>
-      </c>
       <c r="T6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="U6" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="V6" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="W6">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X6">
-        <v>70.33057851239668</v>
+        <v>94.45887445887446</v>
       </c>
       <c r="Y6">
-        <v>79.75742617453847</v>
+        <v>130.6383245312334</v>
       </c>
       <c r="Z6">
-        <v>373.0333884297521</v>
+        <v>130.5421645021645</v>
       </c>
       <c r="AA6">
         <v>50</v>
@@ -1349,28 +1367,28 @@
         <v>18</v>
       </c>
       <c r="AF6">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="AG6">
-        <v>1254.82</v>
+        <v>705</v>
       </c>
       <c r="AH6">
-        <v>1883.853388429752</v>
+        <v>1155.542164502164</v>
       </c>
       <c r="AI6">
-        <v>355.1759782107375</v>
+        <v>836.137600942232</v>
       </c>
       <c r="AJ6" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="AK6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="AL6" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="AM6" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/Logs/quotations.xlsx
+++ b/Logs/quotations.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="114">
   <si>
     <t>Shipment Scope</t>
   </si>
@@ -133,27 +133,30 @@
     <t>Quoted Date/Time</t>
   </si>
   <si>
+    <t>coast</t>
+  </si>
+  <si>
+    <t>Port-to-Door</t>
+  </si>
+  <si>
     <t>Door-to-Door</t>
   </si>
   <si>
-    <t>Port-to-Door</t>
+    <t>Nhava Sheva, India (INNSA)</t>
   </si>
   <si>
     <t>110020, Okhla Industrial Estate, South East Delhi, Delhi, India</t>
   </si>
   <si>
-    <t>Nhava Sheva, India (INNSA)</t>
-  </si>
-  <si>
     <t>Nhava Sheva</t>
   </si>
   <si>
+    <t>Los Angeles</t>
+  </si>
+  <si>
     <t>New York</t>
   </si>
   <si>
-    <t>Los Angeles</t>
-  </si>
-  <si>
     <t>Charleston</t>
   </si>
   <si>
@@ -163,24 +166,30 @@
     <t>07201</t>
   </si>
   <si>
+    <t>SCK8</t>
+  </si>
+  <si>
+    <t>IUST</t>
+  </si>
+  <si>
     <t>IUSL</t>
   </si>
   <si>
-    <t>SCK8</t>
-  </si>
-  <si>
     <t>AGS2</t>
   </si>
   <si>
     <t>TEB9</t>
   </si>
   <si>
+    <t>SCK8 94561, Oakley, Oakley, California, United States</t>
+  </si>
+  <si>
+    <t>IUST 17225, Greencastle, Greencastle, Pennsylvania, United States</t>
+  </si>
+  <si>
     <t>IUSL 21901, North East, North East, Maryland, United States</t>
   </si>
   <si>
-    <t>SCK8 94561, Oakley, Oakley, California, United States</t>
-  </si>
-  <si>
     <t>AGS2 30567, Pendergrass, Pendergrass, Georgia, United States</t>
   </si>
   <si>
@@ -196,12 +205,12 @@
     <t>21901</t>
   </si>
   <si>
+    <t>AllCargo</t>
+  </si>
+  <si>
     <t>Agraga</t>
   </si>
   <si>
-    <t>AllCargo</t>
-  </si>
-  <si>
     <t>HOT</t>
   </si>
   <si>
@@ -214,21 +223,24 @@
     <t>['FTL']</t>
   </si>
   <si>
+    <t>condition3</t>
+  </si>
+  <si>
     <t>condition1</t>
   </si>
   <si>
-    <t>condition3</t>
-  </si>
-  <si>
     <t>condition2</t>
   </si>
   <si>
-    <t>{'Rate': 308.31, 'Carrier Name': 'Estes Express Lines', 'Service Provider': 'HeyPrimo'}</t>
-  </si>
-  <si>
     <t>{'Rate': 726.98, 'Carrier Name': 'ABF Density VL', 'Service Provider': 'HeyPrimo'}</t>
   </si>
   <si>
+    <t>{'Rate': 460.0, 'Carrier Name': nan, 'Service Provider': 'AmznFrgt'}</t>
+  </si>
+  <si>
+    <t>{'Rate': 278.0, 'Carrier Name': 'Estes Express Lines', 'Service Provider': 'Ex-Freight'}</t>
+  </si>
+  <si>
     <t>{'Rate': 305.01, 'Carrier Name': 'Estes Express Lines', 'Service Provider': 'HeyPrimo'}</t>
   </si>
   <si>
@@ -238,45 +250,54 @@
     <t>{'Rate': 241.21, 'Carrier Name': 'Estes Express Lines', 'Service Provider': 'Ex-Freight'}</t>
   </si>
   <si>
+    <t>{'Rate': 1494.0, 'Carrier Name': nan, 'Service Provider': 'JB.Hunt'}</t>
+  </si>
+  <si>
+    <t>{'Rate': 732.0, 'Carrier Name': nan, 'Service Provider': 'JB.Hunt'}</t>
+  </si>
+  <si>
     <t>{'Rate': 705.0, 'Carrier Name': nan, 'Service Provider': 'JB.Hunt'}</t>
   </si>
   <si>
-    <t>{'Rate': 1494.0, 'Carrier Name': nan, 'Service Provider': 'JB.Hunt'}</t>
-  </si>
-  <si>
     <t>{'Rate': 465.0, 'Carrier Name': nan, 'Service Provider': 'JB.Hunt'}</t>
   </si>
   <si>
+    <t>{'Rate': 1426.0, 'Carrier Name': nan, 'Service Provider': 'NTG'}</t>
+  </si>
+  <si>
+    <t>{'Rate': 843.0, 'Carrier Name': nan, 'Service Provider': 'NTG'}</t>
+  </si>
+  <si>
     <t>{'Rate': 645.0, 'Carrier Name': nan, 'Service Provider': 'NTG'}</t>
   </si>
   <si>
-    <t>{'Rate': 1426.0, 'Carrier Name': nan, 'Service Provider': 'NTG'}</t>
-  </si>
-  <si>
     <t>{'Rate': 372.0, 'Carrier Name': nan, 'Service Provider': 'NTG'}</t>
   </si>
   <si>
-    <t>{'Rate': 721.31, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt'}</t>
-  </si>
-  <si>
     <t>{'Rate': 1254.82, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt'}</t>
   </si>
   <si>
-    <t>{'Rate': 740.44, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt'}</t>
-  </si>
-  <si>
-    <t>{'Rate': 413.9, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt'}</t>
-  </si>
-  <si>
-    <t>{'Rate': 700.31, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt'}</t>
-  </si>
-  <si>
-    <t>{'Rate Type': 'LTL', 'Rate': 308.31, 'Carrier Name': 'Estes Express Lines', 'Service Provider': 'HeyPrimo'}</t>
+    <t>{'Rate': 828.36, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt'}</t>
+  </si>
+  <si>
+    <t>{'Rate': 714.31, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt'}</t>
+  </si>
+  <si>
+    <t>{'Rate': 670.44, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt'}</t>
+  </si>
+  <si>
+    <t>{'Rate': 431.9, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt'}</t>
   </si>
   <si>
     <t>{'Rate Type': 'LTL', 'Rate': 726.98, 'Carrier Name': 'ABF Density VL', 'Service Provider': 'HeyPrimo'}</t>
   </si>
   <si>
+    <t>{'Rate Type': 'LTL', 'Rate': 460.0, 'Carrier Name': nan, 'Service Provider': 'AmznFrgt'}</t>
+  </si>
+  <si>
+    <t>{'Rate Type': 'LTL', 'Rate': 278.0, 'Carrier Name': 'Estes Express Lines', 'Service Provider': 'Ex-Freight'}</t>
+  </si>
+  <si>
     <t>{'Rate Type': 'LTL', 'Rate': 305.01, 'Carrier Name': 'Estes Express Lines', 'Service Provider': 'HeyPrimo'}</t>
   </si>
   <si>
@@ -286,12 +307,15 @@
     <t>{'Rate Type': 'LTL', 'Rate': 241.21, 'Carrier Name': 'Estes Express Lines', 'Service Provider': 'Ex-Freight'}</t>
   </si>
   <si>
-    <t>{'Rate Type': 'Drayage', 'Rate': 721.31, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt'}</t>
-  </si>
-  <si>
     <t>{'Rate Type': 'Drayage', 'Rate': 1254.82, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt'}</t>
   </si>
   <si>
+    <t>{'Rate Type': 'Drayage', 'Rate': 828.36, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt'}</t>
+  </si>
+  <si>
+    <t>{'Rate Type': 'Drayage', 'Rate': 714.31, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt'}</t>
+  </si>
+  <si>
     <t>{'Rate Type': 'N/A', 'Rate': 0.0, 'Carrier Name': '', 'Service Provider': ''}</t>
   </si>
   <si>
@@ -301,25 +325,37 @@
     <t>{'Rate Type': 'FTL', 'Rate': 705.0, 'Carrier Name': nan, 'Service Provider': 'JB.Hunt'}</t>
   </si>
   <si>
+    <t>CMM0575LCL0025</t>
+  </si>
+  <si>
+    <t>CMM0575LCL0026</t>
+  </si>
+  <si>
     <t>CMM0246LCL0040</t>
   </si>
   <si>
-    <t>CMM0575LCL0025</t>
-  </si>
-  <si>
     <t>CMM0246LCL0039</t>
   </si>
   <si>
     <t>Own Console</t>
   </si>
   <si>
-    <t>2025-08-06 16:45:06</t>
-  </si>
-  <si>
     <t>2025-08-06 18:59:42</t>
   </si>
   <si>
-    <t>2025-08-07 07:54:42</t>
+    <t>2025-08-07 10:23:16</t>
+  </si>
+  <si>
+    <t>2025-08-07 15:28:47</t>
+  </si>
+  <si>
+    <t>2025-08-07 15:34:00</t>
+  </si>
+  <si>
+    <t>NORTH</t>
+  </si>
+  <si>
+    <t>SOUTH</t>
   </si>
 </sst>
 </file>
@@ -677,13 +713,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM6"/>
+  <dimension ref="A1:AN7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:39">
+    <row r="1" spans="1:40">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -801,85 +837,88 @@
       <c r="AM1" s="1" t="s">
         <v>38</v>
       </c>
+      <c r="AN1" s="1" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="2" spans="1:39">
+    <row r="2" spans="1:40">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E2">
-        <v>7201</v>
+        <v>90220</v>
       </c>
       <c r="F2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H2">
-        <v>21901</v>
+        <v>94561</v>
       </c>
       <c r="I2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="J2">
-        <v>7</v>
+        <v>77</v>
       </c>
       <c r="K2">
-        <v>1590.904</v>
+        <v>1155</v>
       </c>
       <c r="L2">
-        <v>2.871</v>
+        <v>5.304</v>
       </c>
       <c r="M2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="O2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="P2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="Q2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="R2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="S2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="T2" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="U2" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="V2" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="W2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>61.73160173160174</v>
+        <v>70.33057851239668</v>
       </c>
       <c r="Y2">
-        <v>79.1471363885157</v>
+        <v>79.75742617453847</v>
       </c>
       <c r="Z2">
-        <v>177.2314285714286</v>
+        <v>373.0333884297521</v>
       </c>
       <c r="AA2">
         <v>50</v>
@@ -897,31 +936,31 @@
         <v>18</v>
       </c>
       <c r="AF2">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="AG2">
-        <v>721.3099999999999</v>
+        <v>1254.82</v>
       </c>
       <c r="AH2">
-        <v>1236.541428571428</v>
+        <v>1883.853388429752</v>
       </c>
       <c r="AI2">
-        <v>430.7006020799124</v>
+        <v>355.1759782107375</v>
       </c>
       <c r="AJ2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="AK2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AL2" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="AM2" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
     </row>
-    <row r="3" spans="1:39">
+    <row r="3" spans="1:40">
       <c r="A3" t="s">
         <v>40</v>
       </c>
@@ -929,76 +968,76 @@
         <v>42</v>
       </c>
       <c r="C3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E3">
-        <v>90220</v>
+        <v>7201</v>
       </c>
       <c r="F3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H3">
-        <v>94561</v>
+        <v>17225</v>
       </c>
       <c r="I3" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="J3">
-        <v>77</v>
+        <v>112</v>
       </c>
       <c r="K3">
-        <v>1155</v>
+        <v>1680</v>
       </c>
       <c r="L3">
-        <v>5.304</v>
+        <v>8.356999999999999</v>
       </c>
       <c r="M3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="O3" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="P3" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="Q3" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="R3" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="S3" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="T3" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="U3" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="V3" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="W3">
         <v>0</v>
       </c>
       <c r="X3">
-        <v>70.33057851239668</v>
+        <v>61.2396694214876</v>
       </c>
       <c r="Y3">
-        <v>79.75742617453847</v>
+        <v>67.22267767803899</v>
       </c>
       <c r="Z3">
-        <v>373.0333884297521</v>
+        <v>511.7799173553718</v>
       </c>
       <c r="AA3">
         <v>50</v>
@@ -1016,102 +1055,108 @@
         <v>18</v>
       </c>
       <c r="AF3">
-        <v>54</v>
+        <v>90</v>
       </c>
       <c r="AG3">
-        <v>1254.82</v>
+        <v>828.36</v>
       </c>
       <c r="AH3">
-        <v>1883.853388429752</v>
+        <v>1632.139917355372</v>
       </c>
       <c r="AI3">
-        <v>355.1759782107375</v>
+        <v>195.302132027686</v>
       </c>
       <c r="AJ3" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="AK3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="AL3" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="AM3" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
     </row>
-    <row r="4" spans="1:39">
+    <row r="4" spans="1:40">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D4" t="s">
         <v>46</v>
       </c>
-      <c r="E4" t="s">
-        <v>47</v>
+      <c r="E4">
+        <v>7201</v>
       </c>
       <c r="F4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G4" t="s">
-        <v>55</v>
-      </c>
-      <c r="H4" t="s">
         <v>57</v>
       </c>
+      <c r="H4">
+        <v>21901</v>
+      </c>
       <c r="I4" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="J4">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="K4">
-        <v>2000</v>
+        <v>1590.904</v>
       </c>
       <c r="L4">
-        <v>0.576</v>
+        <v>2.871</v>
       </c>
       <c r="M4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="O4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="P4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="Q4" t="s">
-        <v>71</v>
+        <v>74</v>
+      </c>
+      <c r="R4" t="s">
+        <v>80</v>
+      </c>
+      <c r="S4" t="s">
+        <v>84</v>
       </c>
       <c r="T4" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="U4" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="V4" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="W4">
         <v>100</v>
       </c>
       <c r="X4">
-        <v>90.82251082251082</v>
+        <v>61.2396694214876</v>
       </c>
       <c r="Y4">
-        <v>177.6280663780664</v>
+        <v>78.65520407840157</v>
       </c>
       <c r="Z4">
-        <v>52.31376623376623</v>
+        <v>175.8190909090909</v>
       </c>
       <c r="AA4">
         <v>50</v>
@@ -1129,108 +1174,105 @@
         <v>18</v>
       </c>
       <c r="AF4">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="AG4">
-        <v>0</v>
+        <v>714.3099999999999</v>
       </c>
       <c r="AH4">
-        <v>372.3137662337662</v>
+        <v>1228.129090909091</v>
       </c>
       <c r="AI4">
-        <v>646.3780663780664</v>
+        <v>427.7704949178303</v>
       </c>
       <c r="AJ4" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="AK4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="AL4" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="AM4" t="s">
-        <v>101</v>
+        <v>110</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>112</v>
       </c>
     </row>
-    <row r="5" spans="1:39">
+    <row r="5" spans="1:40">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D5" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E5" t="s">
         <v>48</v>
       </c>
       <c r="F5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="I5" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="J5">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K5">
-        <v>660</v>
+        <v>2000</v>
       </c>
       <c r="L5">
-        <v>0.643</v>
+        <v>0.576</v>
       </c>
       <c r="M5">
         <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="O5" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P5" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="Q5" t="s">
-        <v>72</v>
-      </c>
-      <c r="R5" t="s">
-        <v>76</v>
-      </c>
-      <c r="S5" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="T5" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="U5" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="V5" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="W5">
         <v>100</v>
       </c>
       <c r="X5">
-        <v>94.45887445887446</v>
+        <v>90.82251082251082</v>
       </c>
       <c r="Y5">
-        <v>172.2193721260595</v>
+        <v>177.6280663780664</v>
       </c>
       <c r="Z5">
-        <v>60.73705627705628</v>
+        <v>52.31376623376623</v>
       </c>
       <c r="AA5">
         <v>50</v>
@@ -1251,93 +1293,96 @@
         <v>18</v>
       </c>
       <c r="AG5">
-        <v>465</v>
+        <v>0</v>
       </c>
       <c r="AH5">
-        <v>845.7370562770562</v>
+        <v>372.3137662337662</v>
       </c>
       <c r="AI5">
-        <v>1315.29868783368</v>
+        <v>646.3780663780664</v>
       </c>
       <c r="AJ5" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="AK5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="AL5" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="AM5" t="s">
-        <v>101</v>
+        <v>111</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>113</v>
       </c>
     </row>
-    <row r="6" spans="1:39">
+    <row r="6" spans="1:40">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D6" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F6" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="G6" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="H6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="I6" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="J6">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K6">
-        <v>1000</v>
+        <v>660</v>
       </c>
       <c r="L6">
-        <v>1.382</v>
+        <v>0.643</v>
       </c>
       <c r="M6">
         <v>1</v>
       </c>
       <c r="N6" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="O6" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P6" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="Q6" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="R6" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="S6" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="T6" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="U6" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="V6" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="W6">
         <v>100</v>
@@ -1346,10 +1391,10 @@
         <v>94.45887445887446</v>
       </c>
       <c r="Y6">
-        <v>130.6383245312334</v>
+        <v>172.2193721260595</v>
       </c>
       <c r="Z6">
-        <v>130.5421645021645</v>
+        <v>60.73705627705628</v>
       </c>
       <c r="AA6">
         <v>50</v>
@@ -1370,25 +1415,150 @@
         <v>18</v>
       </c>
       <c r="AG6">
+        <v>465</v>
+      </c>
+      <c r="AH6">
+        <v>845.7370562770562</v>
+      </c>
+      <c r="AI6">
+        <v>1315.29868783368</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>106</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>107</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>111</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="7" spans="1:40">
+      <c r="A7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H7" t="s">
+        <v>62</v>
+      </c>
+      <c r="I7" t="s">
+        <v>64</v>
+      </c>
+      <c r="J7">
+        <v>10</v>
+      </c>
+      <c r="K7">
+        <v>1000</v>
+      </c>
+      <c r="L7">
+        <v>1.382</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
+        <v>65</v>
+      </c>
+      <c r="O7" t="s">
+        <v>68</v>
+      </c>
+      <c r="P7" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>77</v>
+      </c>
+      <c r="R7" t="s">
+        <v>80</v>
+      </c>
+      <c r="S7" t="s">
+        <v>84</v>
+      </c>
+      <c r="T7" t="s">
+        <v>88</v>
+      </c>
+      <c r="U7" t="s">
+        <v>96</v>
+      </c>
+      <c r="V7" t="s">
+        <v>102</v>
+      </c>
+      <c r="W7">
+        <v>100</v>
+      </c>
+      <c r="X7">
+        <v>94.45887445887446</v>
+      </c>
+      <c r="Y7">
+        <v>130.6383245312334</v>
+      </c>
+      <c r="Z7">
+        <v>130.5421645021645</v>
+      </c>
+      <c r="AA7">
+        <v>50</v>
+      </c>
+      <c r="AB7">
+        <v>52</v>
+      </c>
+      <c r="AC7">
+        <v>100</v>
+      </c>
+      <c r="AD7">
+        <v>50</v>
+      </c>
+      <c r="AE7">
+        <v>18</v>
+      </c>
+      <c r="AF7">
+        <v>18</v>
+      </c>
+      <c r="AG7">
         <v>705</v>
       </c>
-      <c r="AH6">
+      <c r="AH7">
         <v>1155.542164502164</v>
       </c>
-      <c r="AI6">
+      <c r="AI7">
         <v>836.137600942232</v>
       </c>
-      <c r="AJ6" t="s">
-        <v>97</v>
-      </c>
-      <c r="AK6" t="s">
-        <v>53</v>
-      </c>
-      <c r="AL6" t="s">
-        <v>98</v>
-      </c>
-      <c r="AM6" t="s">
-        <v>101</v>
+      <c r="AJ7" t="s">
+        <v>106</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>57</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>107</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>111</v>
+      </c>
+      <c r="AN7" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>

--- a/Logs/quotations.xlsx
+++ b/Logs/quotations.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="112">
   <si>
     <t>Shipment Scope</t>
   </si>
@@ -160,9 +160,6 @@
     <t>Charleston</t>
   </si>
   <si>
-    <t>29483</t>
-  </si>
-  <si>
     <t>07201</t>
   </si>
   <si>
@@ -172,36 +169,30 @@
     <t>IUST</t>
   </si>
   <si>
+    <t>AGS2</t>
+  </si>
+  <si>
+    <t>TEB9</t>
+  </si>
+  <si>
     <t>IUSL</t>
   </si>
   <si>
-    <t>AGS2</t>
-  </si>
-  <si>
-    <t>TEB9</t>
-  </si>
-  <si>
     <t>SCK8 94561, Oakley, Oakley, California, United States</t>
   </si>
   <si>
     <t>IUST 17225, Greencastle, Greencastle, Pennsylvania, United States</t>
   </si>
   <si>
+    <t>AGS2 30567, Pendergrass, Pendergrass, Georgia, United States</t>
+  </si>
+  <si>
+    <t>TEB9 08873, Somerset, Franklin Township, New Jersey, United States</t>
+  </si>
+  <si>
     <t>IUSL 21901, North East, North East, Maryland, United States</t>
   </si>
   <si>
-    <t>AGS2 30567, Pendergrass, Pendergrass, Georgia, United States</t>
-  </si>
-  <si>
-    <t>TEB9 08873, Somerset, Franklin Township, New Jersey, United States</t>
-  </si>
-  <si>
-    <t>30567</t>
-  </si>
-  <si>
-    <t>08873</t>
-  </si>
-  <si>
     <t>21901</t>
   </si>
   <si>
@@ -223,6 +214,9 @@
     <t>['FTL']</t>
   </si>
   <si>
+    <t>['LTL']</t>
+  </si>
+  <si>
     <t>condition3</t>
   </si>
   <si>
@@ -238,16 +232,16 @@
     <t>{'Rate': 460.0, 'Carrier Name': nan, 'Service Provider': 'AmznFrgt'}</t>
   </si>
   <si>
-    <t>{'Rate': 278.0, 'Carrier Name': 'Estes Express Lines', 'Service Provider': 'Ex-Freight'}</t>
-  </si>
-  <si>
     <t>{'Rate': 305.01, 'Carrier Name': 'Estes Express Lines', 'Service Provider': 'HeyPrimo'}</t>
   </si>
   <si>
     <t>{'Rate': 97.0, 'Carrier Name': nan, 'Service Provider': 'AmznFrgt'}</t>
   </si>
   <si>
-    <t>{'Rate': 241.21, 'Carrier Name': 'Estes Express Lines', 'Service Provider': 'Ex-Freight'}</t>
+    <t>{'Rate': 308.31, 'Carrier Name': 'Estes Express Lines', 'Service Provider': 'HeyPrimo'}</t>
+  </si>
+  <si>
+    <t>{'Rate': 300.19, 'Carrier Name': 'Estes Express Lines', 'Service Provider': 'Ex-Freight'}</t>
   </si>
   <si>
     <t>{'Rate': 1494.0, 'Carrier Name': nan, 'Service Provider': 'JB.Hunt'}</t>
@@ -256,37 +250,37 @@
     <t>{'Rate': 732.0, 'Carrier Name': nan, 'Service Provider': 'JB.Hunt'}</t>
   </si>
   <si>
+    <t>{'Rate': 465.0, 'Carrier Name': nan, 'Service Provider': 'JB.Hunt'}</t>
+  </si>
+  <si>
     <t>{'Rate': 705.0, 'Carrier Name': nan, 'Service Provider': 'JB.Hunt'}</t>
   </si>
   <si>
-    <t>{'Rate': 465.0, 'Carrier Name': nan, 'Service Provider': 'JB.Hunt'}</t>
-  </si>
-  <si>
     <t>{'Rate': 1426.0, 'Carrier Name': nan, 'Service Provider': 'NTG'}</t>
   </si>
   <si>
     <t>{'Rate': 843.0, 'Carrier Name': nan, 'Service Provider': 'NTG'}</t>
   </si>
   <si>
+    <t>{'Rate': 372.0, 'Carrier Name': nan, 'Service Provider': 'NTG'}</t>
+  </si>
+  <si>
     <t>{'Rate': 645.0, 'Carrier Name': nan, 'Service Provider': 'NTG'}</t>
   </si>
   <si>
-    <t>{'Rate': 372.0, 'Carrier Name': nan, 'Service Provider': 'NTG'}</t>
-  </si>
-  <si>
     <t>{'Rate': 1254.82, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt'}</t>
   </si>
   <si>
     <t>{'Rate': 828.36, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt'}</t>
   </si>
   <si>
-    <t>{'Rate': 714.31, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt'}</t>
-  </si>
-  <si>
-    <t>{'Rate': 670.44, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt'}</t>
-  </si>
-  <si>
-    <t>{'Rate': 431.9, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt'}</t>
+    <t>{'Rate': 718.44, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt'}</t>
+  </si>
+  <si>
+    <t>{'Rate': 435.9, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt'}</t>
+  </si>
+  <si>
+    <t>{'Rate': 721.31, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt'}</t>
   </si>
   <si>
     <t>{'Rate Type': 'LTL', 'Rate': 726.98, 'Carrier Name': 'ABF Density VL', 'Service Provider': 'HeyPrimo'}</t>
@@ -295,16 +289,16 @@
     <t>{'Rate Type': 'LTL', 'Rate': 460.0, 'Carrier Name': nan, 'Service Provider': 'AmznFrgt'}</t>
   </si>
   <si>
-    <t>{'Rate Type': 'LTL', 'Rate': 278.0, 'Carrier Name': 'Estes Express Lines', 'Service Provider': 'Ex-Freight'}</t>
-  </si>
-  <si>
     <t>{'Rate Type': 'LTL', 'Rate': 305.01, 'Carrier Name': 'Estes Express Lines', 'Service Provider': 'HeyPrimo'}</t>
   </si>
   <si>
     <t>{'Rate Type': 'LTL', 'Rate': 97.0, 'Carrier Name': nan, 'Service Provider': 'AmznFrgt'}</t>
   </si>
   <si>
-    <t>{'Rate Type': 'LTL', 'Rate': 241.21, 'Carrier Name': 'Estes Express Lines', 'Service Provider': 'Ex-Freight'}</t>
+    <t>{'Rate Type': 'LTL', 'Rate': 308.31, 'Carrier Name': 'Estes Express Lines', 'Service Provider': 'HeyPrimo'}</t>
+  </si>
+  <si>
+    <t>{'Rate Type': 'LTL', 'Rate': 300.19, 'Carrier Name': 'Estes Express Lines', 'Service Provider': 'Ex-Freight'}</t>
   </si>
   <si>
     <t>{'Rate Type': 'Drayage', 'Rate': 1254.82, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt'}</t>
@@ -313,9 +307,6 @@
     <t>{'Rate Type': 'Drayage', 'Rate': 828.36, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt'}</t>
   </si>
   <si>
-    <t>{'Rate Type': 'Drayage', 'Rate': 714.31, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt'}</t>
-  </si>
-  <si>
     <t>{'Rate Type': 'N/A', 'Rate': 0.0, 'Carrier Name': '', 'Service Provider': ''}</t>
   </si>
   <si>
@@ -331,31 +322,34 @@
     <t>CMM0575LCL0026</t>
   </si>
   <si>
+    <t>CMM0246LCL0039</t>
+  </si>
+  <si>
     <t>CMM0246LCL0040</t>
   </si>
   <si>
-    <t>CMM0246LCL0039</t>
-  </si>
-  <si>
     <t>Own Console</t>
   </si>
   <si>
+    <t>Coload</t>
+  </si>
+  <si>
     <t>2025-08-06 18:59:42</t>
   </si>
   <si>
     <t>2025-08-07 10:23:16</t>
   </si>
   <si>
-    <t>2025-08-07 15:28:47</t>
-  </si>
-  <si>
-    <t>2025-08-07 15:34:00</t>
+    <t>2025-08-08 10:50:21</t>
+  </si>
+  <si>
+    <t>2025-08-08 11:26:23</t>
+  </si>
+  <si>
+    <t>SOUTH</t>
   </si>
   <si>
     <t>NORTH</t>
-  </si>
-  <si>
-    <t>SOUTH</t>
   </si>
 </sst>
 </file>
@@ -713,7 +707,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN7"/>
+  <dimension ref="A1:AN10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -858,16 +852,16 @@
         <v>90220</v>
       </c>
       <c r="F2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H2">
         <v>94561</v>
       </c>
       <c r="I2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="J2">
         <v>77</v>
@@ -882,31 +876,31 @@
         <v>3</v>
       </c>
       <c r="N2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="O2" t="s">
+        <v>64</v>
+      </c>
+      <c r="P2" t="s">
         <v>67</v>
       </c>
-      <c r="P2" t="s">
-        <v>69</v>
-      </c>
       <c r="Q2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="R2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="S2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="T2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="U2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="V2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="W2">
         <v>0</v>
@@ -948,16 +942,16 @@
         <v>355.1759782107375</v>
       </c>
       <c r="AJ2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="AK2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AL2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="AM2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:40">
@@ -977,16 +971,16 @@
         <v>7201</v>
       </c>
       <c r="F3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H3">
         <v>17225</v>
       </c>
       <c r="I3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="J3">
         <v>112</v>
@@ -1001,31 +995,31 @@
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="O3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="P3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="Q3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="R3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="S3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="T3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="U3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="V3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="W3">
         <v>0</v>
@@ -1067,16 +1061,16 @@
         <v>195.302132027686</v>
       </c>
       <c r="AJ3" t="s">
+        <v>101</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AL3" t="s">
         <v>104</v>
       </c>
-      <c r="AK3" t="s">
-        <v>56</v>
-      </c>
-      <c r="AL3" t="s">
+      <c r="AM3" t="s">
         <v>107</v>
-      </c>
-      <c r="AM3" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:40">
@@ -1090,73 +1084,67 @@
         <v>44</v>
       </c>
       <c r="D4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E4">
-        <v>7201</v>
+        <v>29483</v>
       </c>
       <c r="F4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H4">
-        <v>21901</v>
+        <v>30567</v>
       </c>
       <c r="I4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="J4">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="K4">
-        <v>1590.904</v>
+        <v>2000</v>
       </c>
       <c r="L4">
-        <v>2.871</v>
+        <v>0.576</v>
       </c>
       <c r="M4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N4" t="s">
+        <v>63</v>
+      </c>
+      <c r="O4" t="s">
         <v>65</v>
       </c>
-      <c r="O4" t="s">
-        <v>67</v>
-      </c>
       <c r="P4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q4" t="s">
-        <v>74</v>
-      </c>
-      <c r="R4" t="s">
-        <v>80</v>
-      </c>
-      <c r="S4" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="T4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="U4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="V4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="W4">
         <v>100</v>
       </c>
       <c r="X4">
-        <v>61.2396694214876</v>
+        <v>90.82251082251082</v>
       </c>
       <c r="Y4">
-        <v>78.65520407840157</v>
+        <v>177.6280663780664</v>
       </c>
       <c r="Z4">
-        <v>175.8190909090909</v>
+        <v>52.31376623376623</v>
       </c>
       <c r="AA4">
         <v>50</v>
@@ -1174,31 +1162,31 @@
         <v>18</v>
       </c>
       <c r="AF4">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="AG4">
-        <v>714.3099999999999</v>
+        <v>0</v>
       </c>
       <c r="AH4">
-        <v>1228.129090909091</v>
+        <v>372.3137662337662</v>
       </c>
       <c r="AI4">
-        <v>427.7704949178303</v>
+        <v>646.3780663780664</v>
       </c>
       <c r="AJ4" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="AK4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AL4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="AM4" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN4" t="s">
         <v>110</v>
-      </c>
-      <c r="AN4" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:40">
@@ -1214,20 +1202,20 @@
       <c r="D5" t="s">
         <v>47</v>
       </c>
-      <c r="E5" t="s">
-        <v>48</v>
+      <c r="E5">
+        <v>29483</v>
       </c>
       <c r="F5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G5" t="s">
-        <v>58</v>
-      </c>
-      <c r="H5" t="s">
-        <v>60</v>
+        <v>56</v>
+      </c>
+      <c r="H5">
+        <v>30567</v>
       </c>
       <c r="I5" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="J5">
         <v>10</v>
@@ -1242,37 +1230,37 @@
         <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="O5" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="P5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="Q5" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="T5" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="U5" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="V5" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="W5">
         <v>100</v>
       </c>
       <c r="X5">
-        <v>90.82251082251082</v>
+        <v>90.5</v>
       </c>
       <c r="Y5">
-        <v>177.6280663780664</v>
+        <v>177.3055555555555</v>
       </c>
       <c r="Z5">
-        <v>52.31376623376623</v>
+        <v>52.12799999999999</v>
       </c>
       <c r="AA5">
         <v>50</v>
@@ -1296,25 +1284,25 @@
         <v>0</v>
       </c>
       <c r="AH5">
-        <v>372.3137662337662</v>
+        <v>372.128</v>
       </c>
       <c r="AI5">
-        <v>646.3780663780664</v>
+        <v>646.0555555555555</v>
       </c>
       <c r="AJ5" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="AK5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="AL5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="AM5" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="AN5" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:40">
@@ -1330,20 +1318,20 @@
       <c r="D6" t="s">
         <v>46</v>
       </c>
-      <c r="E6" t="s">
-        <v>49</v>
+      <c r="E6">
+        <v>7201</v>
       </c>
       <c r="F6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G6" t="s">
-        <v>59</v>
-      </c>
-      <c r="H6" t="s">
+        <v>57</v>
+      </c>
+      <c r="H6">
+        <v>8873</v>
+      </c>
+      <c r="I6" t="s">
         <v>61</v>
-      </c>
-      <c r="I6" t="s">
-        <v>64</v>
       </c>
       <c r="J6">
         <v>9</v>
@@ -1358,31 +1346,31 @@
         <v>1</v>
       </c>
       <c r="N6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="O6" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="P6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="Q6" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="R6" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="S6" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="T6" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="U6" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="V6" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="W6">
         <v>100</v>
@@ -1424,19 +1412,19 @@
         <v>1315.29868783368</v>
       </c>
       <c r="AJ6" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="AK6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AL6" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="AM6" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN6" t="s">
         <v>111</v>
-      </c>
-      <c r="AN6" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:40">
@@ -1452,8 +1440,8 @@
       <c r="D7" t="s">
         <v>46</v>
       </c>
-      <c r="E7" t="s">
-        <v>49</v>
+      <c r="E7">
+        <v>7201</v>
       </c>
       <c r="F7" t="s">
         <v>52</v>
@@ -1461,62 +1449,62 @@
       <c r="G7" t="s">
         <v>57</v>
       </c>
-      <c r="H7" t="s">
-        <v>62</v>
+      <c r="H7">
+        <v>8873</v>
       </c>
       <c r="I7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="J7">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K7">
-        <v>1000</v>
+        <v>660</v>
       </c>
       <c r="L7">
-        <v>1.382</v>
+        <v>0.643</v>
       </c>
       <c r="M7">
         <v>1</v>
       </c>
       <c r="N7" t="s">
+        <v>63</v>
+      </c>
+      <c r="O7" t="s">
         <v>65</v>
       </c>
-      <c r="O7" t="s">
-        <v>68</v>
-      </c>
       <c r="P7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="Q7" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="R7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="S7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="T7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="U7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="V7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="W7">
         <v>100</v>
       </c>
       <c r="X7">
-        <v>94.45887445887446</v>
+        <v>70.84999999999999</v>
       </c>
       <c r="Y7">
-        <v>130.6383245312334</v>
+        <v>148.6104976671851</v>
       </c>
       <c r="Z7">
-        <v>130.5421645021645</v>
+        <v>45.55654999999999</v>
       </c>
       <c r="AA7">
         <v>50</v>
@@ -1537,28 +1525,394 @@
         <v>18</v>
       </c>
       <c r="AG7">
-        <v>705</v>
+        <v>465</v>
       </c>
       <c r="AH7">
-        <v>1155.542164502164</v>
+        <v>830.55655</v>
       </c>
       <c r="AI7">
-        <v>836.137600942232</v>
+        <v>1291.689813374806</v>
       </c>
       <c r="AJ7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="AK7" t="s">
         <v>57</v>
       </c>
       <c r="AL7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="AM7" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN7" t="s">
         <v>111</v>
       </c>
-      <c r="AN7" t="s">
-        <v>112</v>
+    </row>
+    <row r="8" spans="1:40">
+      <c r="A8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8">
+        <v>7201</v>
+      </c>
+      <c r="F8" t="s">
+        <v>53</v>
+      </c>
+      <c r="G8" t="s">
+        <v>58</v>
+      </c>
+      <c r="H8">
+        <v>21901</v>
+      </c>
+      <c r="I8" t="s">
+        <v>61</v>
+      </c>
+      <c r="J8">
+        <v>10</v>
+      </c>
+      <c r="K8">
+        <v>1000</v>
+      </c>
+      <c r="L8">
+        <v>1.382</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8" t="s">
+        <v>62</v>
+      </c>
+      <c r="O8" t="s">
+        <v>65</v>
+      </c>
+      <c r="P8" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>74</v>
+      </c>
+      <c r="R8" t="s">
+        <v>79</v>
+      </c>
+      <c r="S8" t="s">
+        <v>83</v>
+      </c>
+      <c r="T8" t="s">
+        <v>88</v>
+      </c>
+      <c r="U8" t="s">
+        <v>93</v>
+      </c>
+      <c r="V8" t="s">
+        <v>99</v>
+      </c>
+      <c r="W8">
+        <v>100</v>
+      </c>
+      <c r="X8">
+        <v>94.45887445887446</v>
+      </c>
+      <c r="Y8">
+        <v>130.6383245312334</v>
+      </c>
+      <c r="Z8">
+        <v>130.5421645021645</v>
+      </c>
+      <c r="AA8">
+        <v>50</v>
+      </c>
+      <c r="AB8">
+        <v>52</v>
+      </c>
+      <c r="AC8">
+        <v>100</v>
+      </c>
+      <c r="AD8">
+        <v>50</v>
+      </c>
+      <c r="AE8">
+        <v>18</v>
+      </c>
+      <c r="AF8">
+        <v>18</v>
+      </c>
+      <c r="AG8">
+        <v>705</v>
+      </c>
+      <c r="AH8">
+        <v>1155.542164502164</v>
+      </c>
+      <c r="AI8">
+        <v>836.137600942232</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>102</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>58</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>104</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN8" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="9" spans="1:40">
+      <c r="A9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9">
+        <v>7201</v>
+      </c>
+      <c r="F9" t="s">
+        <v>53</v>
+      </c>
+      <c r="G9" t="s">
+        <v>58</v>
+      </c>
+      <c r="H9">
+        <v>21901</v>
+      </c>
+      <c r="I9" t="s">
+        <v>61</v>
+      </c>
+      <c r="J9">
+        <v>10</v>
+      </c>
+      <c r="K9">
+        <v>1000</v>
+      </c>
+      <c r="L9">
+        <v>1.382</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="N9" t="s">
+        <v>62</v>
+      </c>
+      <c r="O9" t="s">
+        <v>65</v>
+      </c>
+      <c r="P9" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>74</v>
+      </c>
+      <c r="R9" t="s">
+        <v>79</v>
+      </c>
+      <c r="S9" t="s">
+        <v>83</v>
+      </c>
+      <c r="T9" t="s">
+        <v>88</v>
+      </c>
+      <c r="U9" t="s">
+        <v>93</v>
+      </c>
+      <c r="V9" t="s">
+        <v>99</v>
+      </c>
+      <c r="W9">
+        <v>100</v>
+      </c>
+      <c r="X9">
+        <v>70.84999999999999</v>
+      </c>
+      <c r="Y9">
+        <v>107.0294500723589</v>
+      </c>
+      <c r="Z9">
+        <v>97.91469999999998</v>
+      </c>
+      <c r="AA9">
+        <v>50</v>
+      </c>
+      <c r="AB9">
+        <v>52</v>
+      </c>
+      <c r="AC9">
+        <v>100</v>
+      </c>
+      <c r="AD9">
+        <v>50</v>
+      </c>
+      <c r="AE9">
+        <v>18</v>
+      </c>
+      <c r="AF9">
+        <v>18</v>
+      </c>
+      <c r="AG9">
+        <v>705</v>
+      </c>
+      <c r="AH9">
+        <v>1122.9147</v>
+      </c>
+      <c r="AI9">
+        <v>812.5287264833576</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>102</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>58</v>
+      </c>
+      <c r="AL9" t="s">
+        <v>105</v>
+      </c>
+      <c r="AM9" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="10" spans="1:40">
+      <c r="A10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" t="s">
+        <v>53</v>
+      </c>
+      <c r="G10" t="s">
+        <v>58</v>
+      </c>
+      <c r="H10" t="s">
+        <v>59</v>
+      </c>
+      <c r="I10" t="s">
+        <v>61</v>
+      </c>
+      <c r="J10">
+        <v>7</v>
+      </c>
+      <c r="K10">
+        <v>1590.904</v>
+      </c>
+      <c r="L10">
+        <v>2.871</v>
+      </c>
+      <c r="M10">
+        <v>2</v>
+      </c>
+      <c r="N10" t="s">
+        <v>62</v>
+      </c>
+      <c r="O10" t="s">
+        <v>66</v>
+      </c>
+      <c r="P10" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>75</v>
+      </c>
+      <c r="R10" t="s">
+        <v>79</v>
+      </c>
+      <c r="S10" t="s">
+        <v>83</v>
+      </c>
+      <c r="T10" t="s">
+        <v>88</v>
+      </c>
+      <c r="U10" t="s">
+        <v>94</v>
+      </c>
+      <c r="V10" t="s">
+        <v>94</v>
+      </c>
+      <c r="W10">
+        <v>100</v>
+      </c>
+      <c r="X10">
+        <v>94.45887445887446</v>
+      </c>
+      <c r="Y10">
+        <v>111.8744091157884</v>
+      </c>
+      <c r="Z10">
+        <v>271.1914285714286</v>
+      </c>
+      <c r="AA10">
+        <v>50</v>
+      </c>
+      <c r="AB10">
+        <v>52</v>
+      </c>
+      <c r="AC10">
+        <v>100</v>
+      </c>
+      <c r="AD10">
+        <v>50</v>
+      </c>
+      <c r="AE10">
+        <v>18</v>
+      </c>
+      <c r="AF10">
+        <v>36</v>
+      </c>
+      <c r="AG10">
+        <v>300.19</v>
+      </c>
+      <c r="AH10">
+        <v>909.3814285714286</v>
+      </c>
+      <c r="AI10">
+        <v>316.7472757127929</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>103</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>58</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>104</v>
+      </c>
+      <c r="AM10" t="s">
+        <v>109</v>
+      </c>
+      <c r="AN10" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>

--- a/Logs/quotations.xlsx
+++ b/Logs/quotations.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="112">
   <si>
     <t>Shipment Scope</t>
   </si>
@@ -214,9 +214,6 @@
     <t>['FTL']</t>
   </si>
   <si>
-    <t>['LTL']</t>
-  </si>
-  <si>
     <t>condition3</t>
   </si>
   <si>
@@ -238,10 +235,10 @@
     <t>{'Rate': 97.0, 'Carrier Name': nan, 'Service Provider': 'AmznFrgt'}</t>
   </si>
   <si>
-    <t>{'Rate': 308.31, 'Carrier Name': 'Estes Express Lines', 'Service Provider': 'HeyPrimo'}</t>
-  </si>
-  <si>
-    <t>{'Rate': 300.19, 'Carrier Name': 'Estes Express Lines', 'Service Provider': 'Ex-Freight'}</t>
+    <t>{'Rate': 232.03, 'Carrier Name': 'Estes Express Lines', 'Service Provider': 'HeyPrimo'}</t>
+  </si>
+  <si>
+    <t>{'Rate': 252.68, 'Carrier Name': 'Estes Express Lines', 'Service Provider': 'HeyPrimo'}</t>
   </si>
   <si>
     <t>{'Rate': 1494.0, 'Carrier Name': nan, 'Service Provider': 'JB.Hunt'}</t>
@@ -280,6 +277,9 @@
     <t>{'Rate': 435.9, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt'}</t>
   </si>
   <si>
+    <t>{'Lowest Rate': np.float64(241.21), 'Carrier Name': 'Estes Express Lines'}</t>
+  </si>
+  <si>
     <t>{'Rate': 721.31, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt'}</t>
   </si>
   <si>
@@ -295,10 +295,10 @@
     <t>{'Rate Type': 'LTL', 'Rate': 97.0, 'Carrier Name': nan, 'Service Provider': 'AmznFrgt'}</t>
   </si>
   <si>
-    <t>{'Rate Type': 'LTL', 'Rate': 308.31, 'Carrier Name': 'Estes Express Lines', 'Service Provider': 'HeyPrimo'}</t>
-  </si>
-  <si>
-    <t>{'Rate Type': 'LTL', 'Rate': 300.19, 'Carrier Name': 'Estes Express Lines', 'Service Provider': 'Ex-Freight'}</t>
+    <t>{'Rate Type': 'LTL', 'Rate': 232.03, 'Carrier Name': 'Estes Express Lines', 'Service Provider': 'HeyPrimo'}</t>
+  </si>
+  <si>
+    <t>{'Rate Type': 'LTL', 'Rate': 252.68, 'Carrier Name': 'Estes Express Lines', 'Service Provider': 'HeyPrimo'}</t>
   </si>
   <si>
     <t>{'Rate Type': 'Drayage', 'Rate': 1254.82, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt'}</t>
@@ -316,6 +316,9 @@
     <t>{'Rate Type': 'FTL', 'Rate': 705.0, 'Carrier Name': nan, 'Service Provider': 'JB.Hunt'}</t>
   </si>
   <si>
+    <t>{'Rate Type': 'Drayage', 'Rate': 721.31, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt'}</t>
+  </si>
+  <si>
     <t>CMM0575LCL0025</t>
   </si>
   <si>
@@ -331,19 +334,16 @@
     <t>Own Console</t>
   </si>
   <si>
-    <t>Coload</t>
-  </si>
-  <si>
     <t>2025-08-06 18:59:42</t>
   </si>
   <si>
     <t>2025-08-07 10:23:16</t>
   </si>
   <si>
-    <t>2025-08-08 10:50:21</t>
-  </si>
-  <si>
-    <t>2025-08-08 11:26:23</t>
+    <t>2025-08-08 13:11:36</t>
+  </si>
+  <si>
+    <t>2025-08-08 13:18:43</t>
   </si>
   <si>
     <t>SOUTH</t>
@@ -707,7 +707,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN10"/>
+  <dimension ref="A1:AN7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -882,19 +882,19 @@
         <v>64</v>
       </c>
       <c r="P2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Q2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="R2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="S2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="T2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="U2" t="s">
         <v>89</v>
@@ -942,13 +942,13 @@
         <v>355.1759782107375</v>
       </c>
       <c r="AJ2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK2" t="s">
         <v>54</v>
       </c>
       <c r="AL2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AM2" t="s">
         <v>106</v>
@@ -1001,19 +1001,19 @@
         <v>64</v>
       </c>
       <c r="P3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Q3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="R3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="S3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="T3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="U3" t="s">
         <v>90</v>
@@ -1061,13 +1061,13 @@
         <v>195.302132027686</v>
       </c>
       <c r="AJ3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK3" t="s">
         <v>55</v>
       </c>
       <c r="AL3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AM3" t="s">
         <v>107</v>
@@ -1120,13 +1120,13 @@
         <v>65</v>
       </c>
       <c r="P4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Q4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="T4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="U4" t="s">
         <v>91</v>
@@ -1174,13 +1174,13 @@
         <v>646.3780663780664</v>
       </c>
       <c r="AJ4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK4" t="s">
         <v>56</v>
       </c>
       <c r="AL4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AM4" t="s">
         <v>108</v>
@@ -1200,31 +1200,31 @@
         <v>44</v>
       </c>
       <c r="D5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E5">
-        <v>29483</v>
+        <v>7201</v>
       </c>
       <c r="F5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H5">
-        <v>30567</v>
+        <v>8873</v>
       </c>
       <c r="I5" t="s">
         <v>61</v>
       </c>
       <c r="J5">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K5">
-        <v>2000</v>
+        <v>660</v>
       </c>
       <c r="L5">
-        <v>0.576</v>
+        <v>0.643</v>
       </c>
       <c r="M5">
         <v>1</v>
@@ -1236,31 +1236,37 @@
         <v>65</v>
       </c>
       <c r="P5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Q5" t="s">
         <v>72</v>
       </c>
+      <c r="R5" t="s">
+        <v>77</v>
+      </c>
+      <c r="S5" t="s">
+        <v>81</v>
+      </c>
       <c r="T5" t="s">
         <v>86</v>
       </c>
       <c r="U5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="V5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="W5">
         <v>100</v>
       </c>
       <c r="X5">
-        <v>90.5</v>
+        <v>94.45887445887446</v>
       </c>
       <c r="Y5">
-        <v>177.3055555555555</v>
+        <v>172.2193721260595</v>
       </c>
       <c r="Z5">
-        <v>52.12799999999999</v>
+        <v>60.73705627705628</v>
       </c>
       <c r="AA5">
         <v>50</v>
@@ -1281,19 +1287,19 @@
         <v>18</v>
       </c>
       <c r="AG5">
-        <v>0</v>
+        <v>465</v>
       </c>
       <c r="AH5">
-        <v>372.128</v>
+        <v>845.7370562770562</v>
       </c>
       <c r="AI5">
-        <v>646.0555555555555</v>
+        <v>1315.29868783368</v>
       </c>
       <c r="AJ5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AL5" t="s">
         <v>105</v>
@@ -1302,7 +1308,7 @@
         <v>108</v>
       </c>
       <c r="AN5" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:40">
@@ -1322,37 +1328,37 @@
         <v>7201</v>
       </c>
       <c r="F6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H6">
-        <v>8873</v>
+        <v>21901</v>
       </c>
       <c r="I6" t="s">
         <v>61</v>
       </c>
       <c r="J6">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K6">
-        <v>660</v>
+        <v>1000</v>
       </c>
       <c r="L6">
-        <v>0.643</v>
+        <v>1.382</v>
       </c>
       <c r="M6">
         <v>1</v>
       </c>
       <c r="N6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O6" t="s">
         <v>65</v>
       </c>
       <c r="P6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Q6" t="s">
         <v>73</v>
@@ -1367,10 +1373,10 @@
         <v>87</v>
       </c>
       <c r="U6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="V6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="W6">
         <v>100</v>
@@ -1379,10 +1385,10 @@
         <v>94.45887445887446</v>
       </c>
       <c r="Y6">
-        <v>172.2193721260595</v>
+        <v>130.6383245312334</v>
       </c>
       <c r="Z6">
-        <v>60.73705627705628</v>
+        <v>130.5421645021645</v>
       </c>
       <c r="AA6">
         <v>50</v>
@@ -1403,22 +1409,22 @@
         <v>18</v>
       </c>
       <c r="AG6">
-        <v>465</v>
+        <v>705</v>
       </c>
       <c r="AH6">
-        <v>845.7370562770562</v>
+        <v>1155.542164502164</v>
       </c>
       <c r="AI6">
-        <v>1315.29868783368</v>
+        <v>836.137600942232</v>
       </c>
       <c r="AJ6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AL6" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AM6" t="s">
         <v>108</v>
@@ -1440,44 +1446,44 @@
       <c r="D7" t="s">
         <v>46</v>
       </c>
-      <c r="E7">
-        <v>7201</v>
+      <c r="E7" t="s">
+        <v>48</v>
       </c>
       <c r="F7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G7" t="s">
-        <v>57</v>
-      </c>
-      <c r="H7">
-        <v>8873</v>
+        <v>58</v>
+      </c>
+      <c r="H7" t="s">
+        <v>59</v>
       </c>
       <c r="I7" t="s">
         <v>61</v>
       </c>
       <c r="J7">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="K7">
-        <v>660</v>
+        <v>1590.904</v>
       </c>
       <c r="L7">
-        <v>0.643</v>
+        <v>2.871</v>
       </c>
       <c r="M7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="P7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="Q7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R7" t="s">
         <v>78</v>
@@ -1486,25 +1492,25 @@
         <v>82</v>
       </c>
       <c r="T7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="U7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="V7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="W7">
         <v>100</v>
       </c>
       <c r="X7">
-        <v>70.84999999999999</v>
+        <v>61.2396694214876</v>
       </c>
       <c r="Y7">
-        <v>148.6104976671851</v>
+        <v>78.65520407840157</v>
       </c>
       <c r="Z7">
-        <v>45.55654999999999</v>
+        <v>175.8190909090909</v>
       </c>
       <c r="AA7">
         <v>50</v>
@@ -1522,396 +1528,30 @@
         <v>18</v>
       </c>
       <c r="AF7">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="AG7">
-        <v>465</v>
+        <v>721.3099999999999</v>
       </c>
       <c r="AH7">
-        <v>830.55655</v>
+        <v>1235.129090909091</v>
       </c>
       <c r="AI7">
-        <v>1291.689813374806</v>
+        <v>430.2086697697982</v>
       </c>
       <c r="AJ7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="AK7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AL7" t="s">
         <v>105</v>
       </c>
       <c r="AM7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AN7" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8" t="s">
-        <v>44</v>
-      </c>
-      <c r="D8" t="s">
-        <v>46</v>
-      </c>
-      <c r="E8">
-        <v>7201</v>
-      </c>
-      <c r="F8" t="s">
-        <v>53</v>
-      </c>
-      <c r="G8" t="s">
-        <v>58</v>
-      </c>
-      <c r="H8">
-        <v>21901</v>
-      </c>
-      <c r="I8" t="s">
-        <v>61</v>
-      </c>
-      <c r="J8">
-        <v>10</v>
-      </c>
-      <c r="K8">
-        <v>1000</v>
-      </c>
-      <c r="L8">
-        <v>1.382</v>
-      </c>
-      <c r="M8">
-        <v>1</v>
-      </c>
-      <c r="N8" t="s">
-        <v>62</v>
-      </c>
-      <c r="O8" t="s">
-        <v>65</v>
-      </c>
-      <c r="P8" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>74</v>
-      </c>
-      <c r="R8" t="s">
-        <v>79</v>
-      </c>
-      <c r="S8" t="s">
-        <v>83</v>
-      </c>
-      <c r="T8" t="s">
-        <v>88</v>
-      </c>
-      <c r="U8" t="s">
-        <v>93</v>
-      </c>
-      <c r="V8" t="s">
-        <v>99</v>
-      </c>
-      <c r="W8">
-        <v>100</v>
-      </c>
-      <c r="X8">
-        <v>94.45887445887446</v>
-      </c>
-      <c r="Y8">
-        <v>130.6383245312334</v>
-      </c>
-      <c r="Z8">
-        <v>130.5421645021645</v>
-      </c>
-      <c r="AA8">
-        <v>50</v>
-      </c>
-      <c r="AB8">
-        <v>52</v>
-      </c>
-      <c r="AC8">
-        <v>100</v>
-      </c>
-      <c r="AD8">
-        <v>50</v>
-      </c>
-      <c r="AE8">
-        <v>18</v>
-      </c>
-      <c r="AF8">
-        <v>18</v>
-      </c>
-      <c r="AG8">
-        <v>705</v>
-      </c>
-      <c r="AH8">
-        <v>1155.542164502164</v>
-      </c>
-      <c r="AI8">
-        <v>836.137600942232</v>
-      </c>
-      <c r="AJ8" t="s">
-        <v>102</v>
-      </c>
-      <c r="AK8" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL8" t="s">
-        <v>104</v>
-      </c>
-      <c r="AM8" t="s">
-        <v>108</v>
-      </c>
-      <c r="AN8" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C9" t="s">
-        <v>44</v>
-      </c>
-      <c r="D9" t="s">
-        <v>46</v>
-      </c>
-      <c r="E9">
-        <v>7201</v>
-      </c>
-      <c r="F9" t="s">
-        <v>53</v>
-      </c>
-      <c r="G9" t="s">
-        <v>58</v>
-      </c>
-      <c r="H9">
-        <v>21901</v>
-      </c>
-      <c r="I9" t="s">
-        <v>61</v>
-      </c>
-      <c r="J9">
-        <v>10</v>
-      </c>
-      <c r="K9">
-        <v>1000</v>
-      </c>
-      <c r="L9">
-        <v>1.382</v>
-      </c>
-      <c r="M9">
-        <v>1</v>
-      </c>
-      <c r="N9" t="s">
-        <v>62</v>
-      </c>
-      <c r="O9" t="s">
-        <v>65</v>
-      </c>
-      <c r="P9" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>74</v>
-      </c>
-      <c r="R9" t="s">
-        <v>79</v>
-      </c>
-      <c r="S9" t="s">
-        <v>83</v>
-      </c>
-      <c r="T9" t="s">
-        <v>88</v>
-      </c>
-      <c r="U9" t="s">
-        <v>93</v>
-      </c>
-      <c r="V9" t="s">
-        <v>99</v>
-      </c>
-      <c r="W9">
-        <v>100</v>
-      </c>
-      <c r="X9">
-        <v>70.84999999999999</v>
-      </c>
-      <c r="Y9">
-        <v>107.0294500723589</v>
-      </c>
-      <c r="Z9">
-        <v>97.91469999999998</v>
-      </c>
-      <c r="AA9">
-        <v>50</v>
-      </c>
-      <c r="AB9">
-        <v>52</v>
-      </c>
-      <c r="AC9">
-        <v>100</v>
-      </c>
-      <c r="AD9">
-        <v>50</v>
-      </c>
-      <c r="AE9">
-        <v>18</v>
-      </c>
-      <c r="AF9">
-        <v>18</v>
-      </c>
-      <c r="AG9">
-        <v>705</v>
-      </c>
-      <c r="AH9">
-        <v>1122.9147</v>
-      </c>
-      <c r="AI9">
-        <v>812.5287264833576</v>
-      </c>
-      <c r="AJ9" t="s">
-        <v>102</v>
-      </c>
-      <c r="AK9" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL9" t="s">
-        <v>105</v>
-      </c>
-      <c r="AM9" t="s">
-        <v>108</v>
-      </c>
-      <c r="AN9" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>41</v>
-      </c>
-      <c r="B10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C10" t="s">
-        <v>44</v>
-      </c>
-      <c r="D10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E10" t="s">
-        <v>48</v>
-      </c>
-      <c r="F10" t="s">
-        <v>53</v>
-      </c>
-      <c r="G10" t="s">
-        <v>58</v>
-      </c>
-      <c r="H10" t="s">
-        <v>59</v>
-      </c>
-      <c r="I10" t="s">
-        <v>61</v>
-      </c>
-      <c r="J10">
-        <v>7</v>
-      </c>
-      <c r="K10">
-        <v>1590.904</v>
-      </c>
-      <c r="L10">
-        <v>2.871</v>
-      </c>
-      <c r="M10">
-        <v>2</v>
-      </c>
-      <c r="N10" t="s">
-        <v>62</v>
-      </c>
-      <c r="O10" t="s">
-        <v>66</v>
-      </c>
-      <c r="P10" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>75</v>
-      </c>
-      <c r="R10" t="s">
-        <v>79</v>
-      </c>
-      <c r="S10" t="s">
-        <v>83</v>
-      </c>
-      <c r="T10" t="s">
-        <v>88</v>
-      </c>
-      <c r="U10" t="s">
-        <v>94</v>
-      </c>
-      <c r="V10" t="s">
-        <v>94</v>
-      </c>
-      <c r="W10">
-        <v>100</v>
-      </c>
-      <c r="X10">
-        <v>94.45887445887446</v>
-      </c>
-      <c r="Y10">
-        <v>111.8744091157884</v>
-      </c>
-      <c r="Z10">
-        <v>271.1914285714286</v>
-      </c>
-      <c r="AA10">
-        <v>50</v>
-      </c>
-      <c r="AB10">
-        <v>52</v>
-      </c>
-      <c r="AC10">
-        <v>100</v>
-      </c>
-      <c r="AD10">
-        <v>50</v>
-      </c>
-      <c r="AE10">
-        <v>18</v>
-      </c>
-      <c r="AF10">
-        <v>36</v>
-      </c>
-      <c r="AG10">
-        <v>300.19</v>
-      </c>
-      <c r="AH10">
-        <v>909.3814285714286</v>
-      </c>
-      <c r="AI10">
-        <v>316.7472757127929</v>
-      </c>
-      <c r="AJ10" t="s">
-        <v>103</v>
-      </c>
-      <c r="AK10" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL10" t="s">
-        <v>104</v>
-      </c>
-      <c r="AM10" t="s">
-        <v>109</v>
-      </c>
-      <c r="AN10" t="s">
         <v>111</v>
       </c>
     </row>

--- a/Logs/quotations.xlsx
+++ b/Logs/quotations.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="147">
   <si>
     <t>Shipment Scope</t>
   </si>
@@ -145,6 +145,9 @@
     <t>Nhava Sheva, India (INNSA)</t>
   </si>
   <si>
+    <t>421601, Thane, Thane, Maharashtra, India</t>
+  </si>
+  <si>
     <t>110020, Okhla Industrial Estate, South East Delhi, Delhi, India</t>
   </si>
   <si>
@@ -169,6 +172,15 @@
     <t>IUST</t>
   </si>
   <si>
+    <t>IND9</t>
+  </si>
+  <si>
+    <t>AVP1</t>
+  </si>
+  <si>
+    <t>FWA4</t>
+  </si>
+  <si>
     <t>AGS2</t>
   </si>
   <si>
@@ -178,12 +190,24 @@
     <t>IUSL</t>
   </si>
   <si>
+    <t>WBW2</t>
+  </si>
+  <si>
     <t>SCK8 94561, Oakley, Oakley, California, United States</t>
   </si>
   <si>
     <t>IUST 17225, Greencastle, Greencastle, Pennsylvania, United States</t>
   </si>
   <si>
+    <t>IND9 46143, Greenwood, Greenwood, Indiana, United States</t>
+  </si>
+  <si>
+    <t>AVP1 18202, West Hazleton, West Hazleton, Pennsylvania, United States</t>
+  </si>
+  <si>
+    <t>FWA4 46818, Fort Wayne, Fort Wayne, Indiana, United States</t>
+  </si>
+  <si>
     <t>AGS2 30567, Pendergrass, Pendergrass, Georgia, United States</t>
   </si>
   <si>
@@ -193,7 +217,16 @@
     <t>IUSL 21901, North East, North East, Maryland, United States</t>
   </si>
   <si>
-    <t>21901</t>
+    <t>WBW2 18447, Archbald, Archbald, Pennsylvania, United States</t>
+  </si>
+  <si>
+    <t>46143</t>
+  </si>
+  <si>
+    <t>18202</t>
+  </si>
+  <si>
+    <t>46809</t>
   </si>
   <si>
     <t>AllCargo</t>
@@ -208,6 +241,9 @@
     <t>COLD</t>
   </si>
   <si>
+    <t>WARM</t>
+  </si>
+  <si>
     <t>['Drayage']</t>
   </si>
   <si>
@@ -229,6 +265,15 @@
     <t>{'Rate': 460.0, 'Carrier Name': nan, 'Service Provider': 'AmznFrgt'}</t>
   </si>
   <si>
+    <t>{'Rate': 673.11, 'Carrier Name': 'Estes Express Lines VL', 'Service Provider': 'HeyPrimo'}</t>
+  </si>
+  <si>
+    <t>{'Rate': 180.0, 'Carrier Name': nan, 'Service Provider': 'AmznFrgt'}</t>
+  </si>
+  <si>
+    <t>{'Rate': 609.56, 'Carrier Name': 'Estes Express Lines VL', 'Service Provider': 'HeyPrimo'}</t>
+  </si>
+  <si>
     <t>{'Rate': 305.01, 'Carrier Name': 'Estes Express Lines', 'Service Provider': 'HeyPrimo'}</t>
   </si>
   <si>
@@ -241,12 +286,18 @@
     <t>{'Rate': 252.68, 'Carrier Name': 'Estes Express Lines', 'Service Provider': 'HeyPrimo'}</t>
   </si>
   <si>
+    <t>{'Rate': 610.87, 'Carrier Name': 'Estes Express Lines', 'Service Provider': 'Ex-Freight'}</t>
+  </si>
+  <si>
     <t>{'Rate': 1494.0, 'Carrier Name': nan, 'Service Provider': 'JB.Hunt'}</t>
   </si>
   <si>
     <t>{'Rate': 732.0, 'Carrier Name': nan, 'Service Provider': 'JB.Hunt'}</t>
   </si>
   <si>
+    <t>{'Rate': 614.0, 'Carrier Name': nan, 'Service Provider': 'JB.Hunt'}</t>
+  </si>
+  <si>
     <t>{'Rate': 465.0, 'Carrier Name': nan, 'Service Provider': 'JB.Hunt'}</t>
   </si>
   <si>
@@ -259,6 +310,9 @@
     <t>{'Rate': 843.0, 'Carrier Name': nan, 'Service Provider': 'NTG'}</t>
   </si>
   <si>
+    <t>{'Rate': 615.0, 'Carrier Name': nan, 'Service Provider': 'NTG'}</t>
+  </si>
+  <si>
     <t>{'Rate': 372.0, 'Carrier Name': nan, 'Service Provider': 'NTG'}</t>
   </si>
   <si>
@@ -271,6 +325,15 @@
     <t>{'Rate': 828.36, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt'}</t>
   </si>
   <si>
+    <t>{'Rate': 1049.96, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt'}</t>
+  </si>
+  <si>
+    <t>{'Rate': 561.95, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt'}</t>
+  </si>
+  <si>
+    <t>{'Rate': 1193.44, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt'}</t>
+  </si>
+  <si>
     <t>{'Rate': 718.44, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt'}</t>
   </si>
   <si>
@@ -283,12 +346,24 @@
     <t>{'Rate': 721.31, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt'}</t>
   </si>
   <si>
+    <t>{'Rate': 559.68, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt'}</t>
+  </si>
+  <si>
     <t>{'Rate Type': 'LTL', 'Rate': 726.98, 'Carrier Name': 'ABF Density VL', 'Service Provider': 'HeyPrimo'}</t>
   </si>
   <si>
     <t>{'Rate Type': 'LTL', 'Rate': 460.0, 'Carrier Name': nan, 'Service Provider': 'AmznFrgt'}</t>
   </si>
   <si>
+    <t>{'Rate Type': 'LTL', 'Rate': 673.11, 'Carrier Name': 'Estes Express Lines VL', 'Service Provider': 'HeyPrimo'}</t>
+  </si>
+  <si>
+    <t>{'Rate Type': 'LTL', 'Rate': 180.0, 'Carrier Name': nan, 'Service Provider': 'AmznFrgt'}</t>
+  </si>
+  <si>
+    <t>{'Rate Type': 'LTL', 'Rate': 609.56, 'Carrier Name': 'Estes Express Lines VL', 'Service Provider': 'HeyPrimo'}</t>
+  </si>
+  <si>
     <t>{'Rate Type': 'LTL', 'Rate': 305.01, 'Carrier Name': 'Estes Express Lines', 'Service Provider': 'HeyPrimo'}</t>
   </si>
   <si>
@@ -301,6 +376,9 @@
     <t>{'Rate Type': 'LTL', 'Rate': 252.68, 'Carrier Name': 'Estes Express Lines', 'Service Provider': 'HeyPrimo'}</t>
   </si>
   <si>
+    <t>{'Rate Type': 'Drayage', 'Rate': 559.68, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt'}</t>
+  </si>
+  <si>
     <t>{'Rate Type': 'Drayage', 'Rate': 1254.82, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt'}</t>
   </si>
   <si>
@@ -310,6 +388,9 @@
     <t>{'Rate Type': 'N/A', 'Rate': 0.0, 'Carrier Name': '', 'Service Provider': ''}</t>
   </si>
   <si>
+    <t>{'Rate Type': 'FTL', 'Rate': 614.0, 'Carrier Name': nan, 'Service Provider': 'JB.Hunt'}</t>
+  </si>
+  <si>
     <t>{'Rate Type': 'FTL', 'Rate': 465.0, 'Carrier Name': nan, 'Service Provider': 'JB.Hunt'}</t>
   </si>
   <si>
@@ -325,28 +406,52 @@
     <t>CMM0575LCL0026</t>
   </si>
   <si>
+    <t>CMM0804LCL0055</t>
+  </si>
+  <si>
     <t>CMM0246LCL0039</t>
   </si>
   <si>
     <t>CMM0246LCL0040</t>
   </si>
   <si>
+    <t>CMM0077LCL0001</t>
+  </si>
+  <si>
+    <t>CMM0804LCL0053</t>
+  </si>
+  <si>
     <t>Own Console</t>
   </si>
   <si>
+    <t>Coload</t>
+  </si>
+  <si>
     <t>2025-08-06 18:59:42</t>
   </si>
   <si>
     <t>2025-08-07 10:23:16</t>
   </si>
   <si>
-    <t>2025-08-08 13:11:36</t>
-  </si>
-  <si>
-    <t>2025-08-08 13:18:43</t>
+    <t>2025-08-08 07:52:43</t>
+  </si>
+  <si>
+    <t>2025-08-08 07:52:52</t>
+  </si>
+  <si>
+    <t>2025-08-08 07:52:58</t>
+  </si>
+  <si>
+    <t>2025-08-08 07:56:26</t>
+  </si>
+  <si>
+    <t>2025-08-08 08:01:16</t>
   </si>
   <si>
     <t>SOUTH</t>
+  </si>
+  <si>
+    <t>WEST</t>
   </si>
   <si>
     <t>NORTH</t>
@@ -707,7 +812,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN7"/>
+  <dimension ref="A1:AN17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -843,25 +948,25 @@
         <v>42</v>
       </c>
       <c r="C2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E2">
         <v>90220</v>
       </c>
       <c r="F2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="H2">
         <v>94561</v>
       </c>
       <c r="I2" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="J2">
         <v>77</v>
@@ -876,31 +981,31 @@
         <v>3</v>
       </c>
       <c r="N2" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="O2" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="P2" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="Q2" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="R2" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="S2" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="T2" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="U2" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="V2" t="s">
-        <v>95</v>
+        <v>121</v>
       </c>
       <c r="W2">
         <v>0</v>
@@ -942,16 +1047,16 @@
         <v>355.1759782107375</v>
       </c>
       <c r="AJ2" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
       <c r="AK2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="AL2" t="s">
-        <v>105</v>
+        <v>135</v>
       </c>
       <c r="AM2" t="s">
-        <v>106</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:40">
@@ -962,25 +1067,25 @@
         <v>42</v>
       </c>
       <c r="C3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E3">
         <v>7201</v>
       </c>
       <c r="F3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G3" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="H3">
         <v>17225</v>
       </c>
       <c r="I3" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="J3">
         <v>112</v>
@@ -995,31 +1100,31 @@
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="O3" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="P3" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="Q3" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="R3" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="S3" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="T3" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="U3" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="V3" t="s">
-        <v>96</v>
+        <v>122</v>
       </c>
       <c r="W3">
         <v>0</v>
@@ -1061,16 +1166,16 @@
         <v>195.302132027686</v>
       </c>
       <c r="AJ3" t="s">
-        <v>102</v>
+        <v>129</v>
       </c>
       <c r="AK3" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AL3" t="s">
-        <v>105</v>
+        <v>135</v>
       </c>
       <c r="AM3" t="s">
-        <v>107</v>
+        <v>138</v>
       </c>
     </row>
     <row r="4" spans="1:40">
@@ -1081,70 +1186,70 @@
         <v>43</v>
       </c>
       <c r="C4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D4" t="s">
         <v>47</v>
       </c>
       <c r="E4">
-        <v>29483</v>
+        <v>7201</v>
       </c>
       <c r="F4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G4" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="H4">
-        <v>30567</v>
+        <v>46143</v>
       </c>
       <c r="I4" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="J4">
-        <v>10</v>
+        <v>117</v>
       </c>
       <c r="K4">
-        <v>2000</v>
+        <v>1525.68</v>
       </c>
       <c r="L4">
-        <v>0.576</v>
+        <v>3.983</v>
       </c>
       <c r="M4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N4" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="O4" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="P4" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="Q4" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="T4" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="U4" t="s">
-        <v>91</v>
+        <v>113</v>
       </c>
       <c r="V4" t="s">
-        <v>97</v>
+        <v>123</v>
       </c>
       <c r="W4">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="X4">
-        <v>90.82251082251082</v>
+        <v>94.45887445887446</v>
       </c>
       <c r="Y4">
-        <v>177.6280663780664</v>
+        <v>107.0122262037903</v>
       </c>
       <c r="Z4">
-        <v>52.31376623376623</v>
+        <v>376.229696969697</v>
       </c>
       <c r="AA4">
         <v>50</v>
@@ -1162,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="AF4">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="AG4">
         <v>0</v>
       </c>
       <c r="AH4">
-        <v>372.3137662337662</v>
+        <v>1632.229696969697</v>
       </c>
       <c r="AI4">
-        <v>646.3780663780664</v>
+        <v>409.7990702911617</v>
       </c>
       <c r="AJ4" t="s">
-        <v>103</v>
+        <v>130</v>
       </c>
       <c r="AK4" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="AL4" t="s">
-        <v>105</v>
+        <v>135</v>
       </c>
       <c r="AM4" t="s">
-        <v>108</v>
+        <v>139</v>
       </c>
       <c r="AN4" t="s">
-        <v>110</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5" spans="1:40">
@@ -1197,76 +1302,76 @@
         <v>43</v>
       </c>
       <c r="C5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E5">
         <v>7201</v>
       </c>
       <c r="F5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G5" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="H5">
-        <v>8873</v>
+        <v>18202</v>
       </c>
       <c r="I5" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="J5">
-        <v>9</v>
+        <v>66</v>
       </c>
       <c r="K5">
-        <v>660</v>
+        <v>858.66</v>
       </c>
       <c r="L5">
-        <v>0.643</v>
+        <v>2.247</v>
       </c>
       <c r="M5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N5" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="O5" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="P5" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="Q5" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="R5" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="S5" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="T5" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="U5" t="s">
-        <v>92</v>
+        <v>114</v>
       </c>
       <c r="V5" t="s">
-        <v>98</v>
+        <v>124</v>
       </c>
       <c r="W5">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="X5">
         <v>94.45887445887446</v>
       </c>
       <c r="Y5">
-        <v>172.2193721260595</v>
+        <v>116.7107658696444</v>
       </c>
       <c r="Z5">
-        <v>60.73705627705628</v>
+        <v>212.2490909090909</v>
       </c>
       <c r="AA5">
         <v>50</v>
@@ -1284,31 +1389,31 @@
         <v>18</v>
       </c>
       <c r="AF5">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="AG5">
-        <v>465</v>
+        <v>614</v>
       </c>
       <c r="AH5">
-        <v>845.7370562770562</v>
+        <v>2064.249090909091</v>
       </c>
       <c r="AI5">
-        <v>1315.29868783368</v>
+        <v>918.6689323137923</v>
       </c>
       <c r="AJ5" t="s">
-        <v>103</v>
+        <v>130</v>
       </c>
       <c r="AK5" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AL5" t="s">
-        <v>105</v>
+        <v>135</v>
       </c>
       <c r="AM5" t="s">
-        <v>108</v>
+        <v>139</v>
       </c>
       <c r="AN5" t="s">
-        <v>111</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:40">
@@ -1319,76 +1424,70 @@
         <v>43</v>
       </c>
       <c r="C6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E6">
         <v>7201</v>
       </c>
       <c r="F6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G6" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="H6">
-        <v>21901</v>
+        <v>46809</v>
       </c>
       <c r="I6" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="J6">
-        <v>10</v>
+        <v>142</v>
       </c>
       <c r="K6">
+        <v>1850.26</v>
+      </c>
+      <c r="L6">
+        <v>4.834</v>
+      </c>
+      <c r="M6">
+        <v>3</v>
+      </c>
+      <c r="N6" t="s">
+        <v>74</v>
+      </c>
+      <c r="O6" t="s">
+        <v>77</v>
+      </c>
+      <c r="P6" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>85</v>
+      </c>
+      <c r="T6" t="s">
+        <v>105</v>
+      </c>
+      <c r="U6" t="s">
+        <v>115</v>
+      </c>
+      <c r="V6" t="s">
+        <v>123</v>
+      </c>
+      <c r="W6">
         <v>1000</v>
-      </c>
-      <c r="L6">
-        <v>1.382</v>
-      </c>
-      <c r="M6">
-        <v>1</v>
-      </c>
-      <c r="N6" t="s">
-        <v>62</v>
-      </c>
-      <c r="O6" t="s">
-        <v>65</v>
-      </c>
-      <c r="P6" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>73</v>
-      </c>
-      <c r="R6" t="s">
-        <v>78</v>
-      </c>
-      <c r="S6" t="s">
-        <v>82</v>
-      </c>
-      <c r="T6" t="s">
-        <v>87</v>
-      </c>
-      <c r="U6" t="s">
-        <v>93</v>
-      </c>
-      <c r="V6" t="s">
-        <v>99</v>
-      </c>
-      <c r="W6">
-        <v>100</v>
       </c>
       <c r="X6">
         <v>94.45887445887446</v>
       </c>
       <c r="Y6">
-        <v>130.6383245312334</v>
+        <v>104.8022753690937</v>
       </c>
       <c r="Z6">
-        <v>130.5421645021645</v>
+        <v>456.6141991341991</v>
       </c>
       <c r="AA6">
         <v>50</v>
@@ -1406,31 +1505,31 @@
         <v>18</v>
       </c>
       <c r="AF6">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="AG6">
-        <v>705</v>
+        <v>0</v>
       </c>
       <c r="AH6">
-        <v>1155.542164502164</v>
+        <v>1712.614199134199</v>
       </c>
       <c r="AI6">
-        <v>836.137600942232</v>
+        <v>354.2851053235828</v>
       </c>
       <c r="AJ6" t="s">
-        <v>103</v>
+        <v>130</v>
       </c>
       <c r="AK6" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="AL6" t="s">
-        <v>105</v>
+        <v>135</v>
       </c>
       <c r="AM6" t="s">
-        <v>108</v>
+        <v>139</v>
       </c>
       <c r="AN6" t="s">
-        <v>111</v>
+        <v>145</v>
       </c>
     </row>
     <row r="7" spans="1:40">
@@ -1438,79 +1537,73 @@
         <v>41</v>
       </c>
       <c r="B7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E7" t="s">
         <v>48</v>
       </c>
+      <c r="E7">
+        <v>29483</v>
+      </c>
       <c r="F7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G7" t="s">
-        <v>58</v>
-      </c>
-      <c r="H7" t="s">
-        <v>59</v>
+        <v>64</v>
+      </c>
+      <c r="H7">
+        <v>30567</v>
       </c>
       <c r="I7" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="J7">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="K7">
-        <v>1590.904</v>
+        <v>2000</v>
       </c>
       <c r="L7">
-        <v>2.871</v>
+        <v>0.576</v>
       </c>
       <c r="M7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N7" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="O7" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="P7" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="Q7" t="s">
-        <v>74</v>
-      </c>
-      <c r="R7" t="s">
-        <v>78</v>
-      </c>
-      <c r="S7" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="T7" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="U7" t="s">
-        <v>94</v>
+        <v>116</v>
       </c>
       <c r="V7" t="s">
-        <v>100</v>
+        <v>123</v>
       </c>
       <c r="W7">
         <v>100</v>
       </c>
       <c r="X7">
-        <v>61.2396694214876</v>
+        <v>90.82251082251082</v>
       </c>
       <c r="Y7">
-        <v>78.65520407840157</v>
+        <v>177.6280663780664</v>
       </c>
       <c r="Z7">
-        <v>175.8190909090909</v>
+        <v>52.31376623376623</v>
       </c>
       <c r="AA7">
         <v>50</v>
@@ -1528,31 +1621,1227 @@
         <v>18</v>
       </c>
       <c r="AF7">
+        <v>18</v>
+      </c>
+      <c r="AG7">
+        <v>0</v>
+      </c>
+      <c r="AH7">
+        <v>372.3137662337662</v>
+      </c>
+      <c r="AI7">
+        <v>646.3780663780664</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>131</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>64</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>135</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>140</v>
+      </c>
+      <c r="AN7" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="8" spans="1:40">
+      <c r="A8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8">
+        <v>29483</v>
+      </c>
+      <c r="F8" t="s">
+        <v>55</v>
+      </c>
+      <c r="G8" t="s">
+        <v>64</v>
+      </c>
+      <c r="H8">
+        <v>30567</v>
+      </c>
+      <c r="I8" t="s">
+        <v>72</v>
+      </c>
+      <c r="J8">
+        <v>10</v>
+      </c>
+      <c r="K8">
+        <v>2000</v>
+      </c>
+      <c r="L8">
+        <v>0.576</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8" t="s">
+        <v>74</v>
+      </c>
+      <c r="O8" t="s">
+        <v>77</v>
+      </c>
+      <c r="P8" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>86</v>
+      </c>
+      <c r="T8" t="s">
+        <v>106</v>
+      </c>
+      <c r="U8" t="s">
+        <v>116</v>
+      </c>
+      <c r="V8" t="s">
+        <v>123</v>
+      </c>
+      <c r="W8">
+        <v>100</v>
+      </c>
+      <c r="X8">
+        <v>90.5</v>
+      </c>
+      <c r="Y8">
+        <v>177.3055555555555</v>
+      </c>
+      <c r="Z8">
+        <v>52.12799999999999</v>
+      </c>
+      <c r="AA8">
+        <v>50</v>
+      </c>
+      <c r="AB8">
+        <v>52</v>
+      </c>
+      <c r="AC8">
+        <v>100</v>
+      </c>
+      <c r="AD8">
+        <v>50</v>
+      </c>
+      <c r="AE8">
+        <v>18</v>
+      </c>
+      <c r="AF8">
+        <v>18</v>
+      </c>
+      <c r="AG8">
+        <v>0</v>
+      </c>
+      <c r="AH8">
+        <v>372.128</v>
+      </c>
+      <c r="AI8">
+        <v>646.0555555555555</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>131</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>64</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>136</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>140</v>
+      </c>
+      <c r="AN8" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="9" spans="1:40">
+      <c r="A9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9">
+        <v>7201</v>
+      </c>
+      <c r="F9" t="s">
+        <v>56</v>
+      </c>
+      <c r="G9" t="s">
+        <v>65</v>
+      </c>
+      <c r="H9">
+        <v>8873</v>
+      </c>
+      <c r="I9" t="s">
+        <v>72</v>
+      </c>
+      <c r="J9">
+        <v>9</v>
+      </c>
+      <c r="K9">
+        <v>660</v>
+      </c>
+      <c r="L9">
+        <v>0.643</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="N9" t="s">
+        <v>74</v>
+      </c>
+      <c r="O9" t="s">
+        <v>77</v>
+      </c>
+      <c r="P9" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>87</v>
+      </c>
+      <c r="R9" t="s">
+        <v>94</v>
+      </c>
+      <c r="S9" t="s">
+        <v>99</v>
+      </c>
+      <c r="T9" t="s">
+        <v>107</v>
+      </c>
+      <c r="U9" t="s">
+        <v>117</v>
+      </c>
+      <c r="V9" t="s">
+        <v>125</v>
+      </c>
+      <c r="W9">
+        <v>100</v>
+      </c>
+      <c r="X9">
+        <v>94.45887445887446</v>
+      </c>
+      <c r="Y9">
+        <v>172.2193721260595</v>
+      </c>
+      <c r="Z9">
+        <v>60.73705627705628</v>
+      </c>
+      <c r="AA9">
+        <v>50</v>
+      </c>
+      <c r="AB9">
+        <v>52</v>
+      </c>
+      <c r="AC9">
+        <v>100</v>
+      </c>
+      <c r="AD9">
+        <v>50</v>
+      </c>
+      <c r="AE9">
+        <v>18</v>
+      </c>
+      <c r="AF9">
+        <v>18</v>
+      </c>
+      <c r="AG9">
+        <v>465</v>
+      </c>
+      <c r="AH9">
+        <v>845.7370562770562</v>
+      </c>
+      <c r="AI9">
+        <v>1315.29868783368</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>131</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>65</v>
+      </c>
+      <c r="AL9" t="s">
+        <v>135</v>
+      </c>
+      <c r="AM9" t="s">
+        <v>140</v>
+      </c>
+      <c r="AN9" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="10" spans="1:40">
+      <c r="A10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10">
+        <v>7201</v>
+      </c>
+      <c r="F10" t="s">
+        <v>56</v>
+      </c>
+      <c r="G10" t="s">
+        <v>65</v>
+      </c>
+      <c r="H10">
+        <v>8873</v>
+      </c>
+      <c r="I10" t="s">
+        <v>72</v>
+      </c>
+      <c r="J10">
+        <v>9</v>
+      </c>
+      <c r="K10">
+        <v>660</v>
+      </c>
+      <c r="L10">
+        <v>0.643</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="N10" t="s">
+        <v>74</v>
+      </c>
+      <c r="O10" t="s">
+        <v>77</v>
+      </c>
+      <c r="P10" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>87</v>
+      </c>
+      <c r="R10" t="s">
+        <v>94</v>
+      </c>
+      <c r="S10" t="s">
+        <v>99</v>
+      </c>
+      <c r="T10" t="s">
+        <v>107</v>
+      </c>
+      <c r="U10" t="s">
+        <v>117</v>
+      </c>
+      <c r="V10" t="s">
+        <v>125</v>
+      </c>
+      <c r="W10">
+        <v>100</v>
+      </c>
+      <c r="X10">
+        <v>70.84999999999999</v>
+      </c>
+      <c r="Y10">
+        <v>148.6104976671851</v>
+      </c>
+      <c r="Z10">
+        <v>45.55654999999999</v>
+      </c>
+      <c r="AA10">
+        <v>50</v>
+      </c>
+      <c r="AB10">
+        <v>52</v>
+      </c>
+      <c r="AC10">
+        <v>100</v>
+      </c>
+      <c r="AD10">
+        <v>50</v>
+      </c>
+      <c r="AE10">
+        <v>18</v>
+      </c>
+      <c r="AF10">
+        <v>18</v>
+      </c>
+      <c r="AG10">
+        <v>465</v>
+      </c>
+      <c r="AH10">
+        <v>830.55655</v>
+      </c>
+      <c r="AI10">
+        <v>1291.689813374806</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>131</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>65</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>136</v>
+      </c>
+      <c r="AM10" t="s">
+        <v>140</v>
+      </c>
+      <c r="AN10" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="11" spans="1:40">
+      <c r="A11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11">
+        <v>7201</v>
+      </c>
+      <c r="F11" t="s">
+        <v>57</v>
+      </c>
+      <c r="G11" t="s">
+        <v>66</v>
+      </c>
+      <c r="H11">
+        <v>21901</v>
+      </c>
+      <c r="I11" t="s">
+        <v>72</v>
+      </c>
+      <c r="J11">
+        <v>10</v>
+      </c>
+      <c r="K11">
+        <v>1000</v>
+      </c>
+      <c r="L11">
+        <v>1.382</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+      <c r="N11" t="s">
+        <v>73</v>
+      </c>
+      <c r="O11" t="s">
+        <v>77</v>
+      </c>
+      <c r="P11" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>88</v>
+      </c>
+      <c r="R11" t="s">
+        <v>95</v>
+      </c>
+      <c r="S11" t="s">
+        <v>100</v>
+      </c>
+      <c r="T11" t="s">
+        <v>108</v>
+      </c>
+      <c r="U11" t="s">
+        <v>118</v>
+      </c>
+      <c r="V11" t="s">
+        <v>126</v>
+      </c>
+      <c r="W11">
+        <v>100</v>
+      </c>
+      <c r="X11">
+        <v>94.45887445887446</v>
+      </c>
+      <c r="Y11">
+        <v>130.6383245312334</v>
+      </c>
+      <c r="Z11">
+        <v>130.5421645021645</v>
+      </c>
+      <c r="AA11">
+        <v>50</v>
+      </c>
+      <c r="AB11">
+        <v>52</v>
+      </c>
+      <c r="AC11">
+        <v>100</v>
+      </c>
+      <c r="AD11">
+        <v>50</v>
+      </c>
+      <c r="AE11">
+        <v>18</v>
+      </c>
+      <c r="AF11">
+        <v>18</v>
+      </c>
+      <c r="AG11">
+        <v>705</v>
+      </c>
+      <c r="AH11">
+        <v>1155.542164502164</v>
+      </c>
+      <c r="AI11">
+        <v>836.137600942232</v>
+      </c>
+      <c r="AJ11" t="s">
+        <v>131</v>
+      </c>
+      <c r="AK11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>135</v>
+      </c>
+      <c r="AM11" t="s">
+        <v>140</v>
+      </c>
+      <c r="AN11" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="12" spans="1:40">
+      <c r="A12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12">
+        <v>7201</v>
+      </c>
+      <c r="F12" t="s">
+        <v>57</v>
+      </c>
+      <c r="G12" t="s">
+        <v>66</v>
+      </c>
+      <c r="H12">
+        <v>21901</v>
+      </c>
+      <c r="I12" t="s">
+        <v>72</v>
+      </c>
+      <c r="J12">
+        <v>10</v>
+      </c>
+      <c r="K12">
+        <v>1000</v>
+      </c>
+      <c r="L12">
+        <v>1.382</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+      <c r="N12" t="s">
+        <v>73</v>
+      </c>
+      <c r="O12" t="s">
+        <v>77</v>
+      </c>
+      <c r="P12" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>88</v>
+      </c>
+      <c r="R12" t="s">
+        <v>95</v>
+      </c>
+      <c r="S12" t="s">
+        <v>100</v>
+      </c>
+      <c r="T12" t="s">
+        <v>108</v>
+      </c>
+      <c r="U12" t="s">
+        <v>118</v>
+      </c>
+      <c r="V12" t="s">
+        <v>126</v>
+      </c>
+      <c r="W12">
+        <v>100</v>
+      </c>
+      <c r="X12">
+        <v>70.84999999999999</v>
+      </c>
+      <c r="Y12">
+        <v>107.0294500723589</v>
+      </c>
+      <c r="Z12">
+        <v>97.91469999999998</v>
+      </c>
+      <c r="AA12">
+        <v>50</v>
+      </c>
+      <c r="AB12">
+        <v>52</v>
+      </c>
+      <c r="AC12">
+        <v>100</v>
+      </c>
+      <c r="AD12">
+        <v>50</v>
+      </c>
+      <c r="AE12">
+        <v>18</v>
+      </c>
+      <c r="AF12">
+        <v>18</v>
+      </c>
+      <c r="AG12">
+        <v>705</v>
+      </c>
+      <c r="AH12">
+        <v>1122.9147</v>
+      </c>
+      <c r="AI12">
+        <v>812.5287264833576</v>
+      </c>
+      <c r="AJ12" t="s">
+        <v>131</v>
+      </c>
+      <c r="AK12" t="s">
+        <v>66</v>
+      </c>
+      <c r="AL12" t="s">
+        <v>136</v>
+      </c>
+      <c r="AM12" t="s">
+        <v>140</v>
+      </c>
+      <c r="AN12" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="13" spans="1:40">
+      <c r="A13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13">
+        <v>7201</v>
+      </c>
+      <c r="F13" t="s">
+        <v>57</v>
+      </c>
+      <c r="G13" t="s">
+        <v>66</v>
+      </c>
+      <c r="H13">
+        <v>21901</v>
+      </c>
+      <c r="I13" t="s">
+        <v>72</v>
+      </c>
+      <c r="J13">
+        <v>7</v>
+      </c>
+      <c r="K13">
+        <v>1590.904</v>
+      </c>
+      <c r="L13">
+        <v>2.871</v>
+      </c>
+      <c r="M13">
+        <v>2</v>
+      </c>
+      <c r="N13" t="s">
+        <v>73</v>
+      </c>
+      <c r="O13" t="s">
+        <v>76</v>
+      </c>
+      <c r="P13" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>89</v>
+      </c>
+      <c r="R13" t="s">
+        <v>95</v>
+      </c>
+      <c r="S13" t="s">
+        <v>100</v>
+      </c>
+      <c r="T13" t="s">
+        <v>109</v>
+      </c>
+      <c r="U13" t="s">
+        <v>119</v>
+      </c>
+      <c r="V13" t="s">
+        <v>127</v>
+      </c>
+      <c r="W13">
+        <v>100</v>
+      </c>
+      <c r="X13">
+        <v>61.2396694214876</v>
+      </c>
+      <c r="Y13">
+        <v>78.65520407840157</v>
+      </c>
+      <c r="Z13">
+        <v>175.8190909090909</v>
+      </c>
+      <c r="AA13">
+        <v>50</v>
+      </c>
+      <c r="AB13">
+        <v>52</v>
+      </c>
+      <c r="AC13">
+        <v>100</v>
+      </c>
+      <c r="AD13">
+        <v>50</v>
+      </c>
+      <c r="AE13">
+        <v>18</v>
+      </c>
+      <c r="AF13">
         <v>36</v>
       </c>
-      <c r="AG7">
+      <c r="AG13">
         <v>721.3099999999999</v>
       </c>
-      <c r="AH7">
+      <c r="AH13">
         <v>1235.129090909091</v>
       </c>
-      <c r="AI7">
+      <c r="AI13">
         <v>430.2086697697982</v>
       </c>
-      <c r="AJ7" t="s">
+      <c r="AJ13" t="s">
+        <v>132</v>
+      </c>
+      <c r="AK13" t="s">
+        <v>66</v>
+      </c>
+      <c r="AL13" t="s">
+        <v>135</v>
+      </c>
+      <c r="AM13" t="s">
+        <v>141</v>
+      </c>
+      <c r="AN13" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="14" spans="1:40">
+      <c r="A14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14">
+        <v>7201</v>
+      </c>
+      <c r="F14" t="s">
+        <v>58</v>
+      </c>
+      <c r="G14" t="s">
+        <v>67</v>
+      </c>
+      <c r="H14">
+        <v>18447</v>
+      </c>
+      <c r="I14" t="s">
+        <v>72</v>
+      </c>
+      <c r="J14">
+        <v>170</v>
+      </c>
+      <c r="K14">
+        <v>3498.6</v>
+      </c>
+      <c r="L14">
+        <v>15.002</v>
+      </c>
+      <c r="M14">
+        <v>9</v>
+      </c>
+      <c r="N14" t="s">
+        <v>75</v>
+      </c>
+      <c r="O14" t="s">
+        <v>76</v>
+      </c>
+      <c r="P14" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>90</v>
+      </c>
+      <c r="T14" t="s">
+        <v>110</v>
+      </c>
+      <c r="U14" t="s">
+        <v>120</v>
+      </c>
+      <c r="V14" t="s">
+        <v>120</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <v>61.2396694214876</v>
+      </c>
+      <c r="Y14">
+        <v>64.57255836962784</v>
+      </c>
+      <c r="Z14">
+        <v>918.717520661157</v>
+      </c>
+      <c r="AA14">
+        <v>50</v>
+      </c>
+      <c r="AB14">
+        <v>52</v>
+      </c>
+      <c r="AC14">
+        <v>100</v>
+      </c>
+      <c r="AD14">
+        <v>50</v>
+      </c>
+      <c r="AE14">
+        <v>18</v>
+      </c>
+      <c r="AF14">
+        <v>162</v>
+      </c>
+      <c r="AG14">
+        <v>559.6799999999999</v>
+      </c>
+      <c r="AH14">
+        <v>1842.397520661157</v>
+      </c>
+      <c r="AI14">
+        <v>122.8101266938513</v>
+      </c>
+      <c r="AJ14" t="s">
+        <v>133</v>
+      </c>
+      <c r="AK14" t="s">
+        <v>67</v>
+      </c>
+      <c r="AL14" t="s">
+        <v>135</v>
+      </c>
+      <c r="AM14" t="s">
+        <v>142</v>
+      </c>
+      <c r="AN14" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="15" spans="1:40">
+      <c r="A15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" t="s">
+        <v>49</v>
+      </c>
+      <c r="F15" t="s">
+        <v>52</v>
+      </c>
+      <c r="G15" t="s">
+        <v>61</v>
+      </c>
+      <c r="H15" t="s">
+        <v>68</v>
+      </c>
+      <c r="I15" t="s">
+        <v>72</v>
+      </c>
+      <c r="J15">
+        <v>117</v>
+      </c>
+      <c r="K15">
+        <v>1525.68</v>
+      </c>
+      <c r="L15">
+        <v>3.983</v>
+      </c>
+      <c r="M15">
+        <v>3</v>
+      </c>
+      <c r="N15" t="s">
+        <v>74</v>
+      </c>
+      <c r="O15" t="s">
+        <v>77</v>
+      </c>
+      <c r="P15" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>83</v>
+      </c>
+      <c r="T15" t="s">
+        <v>103</v>
+      </c>
+      <c r="U15" t="s">
+        <v>113</v>
+      </c>
+      <c r="V15" t="s">
+        <v>123</v>
+      </c>
+      <c r="W15">
+        <v>114</v>
+      </c>
+      <c r="X15">
+        <v>94.45887445887446</v>
+      </c>
+      <c r="Y15">
+        <v>107.0122262037903</v>
+      </c>
+      <c r="Z15">
+        <v>376.229696969697</v>
+      </c>
+      <c r="AA15">
+        <v>50</v>
+      </c>
+      <c r="AB15">
+        <v>52</v>
+      </c>
+      <c r="AC15">
+        <v>100</v>
+      </c>
+      <c r="AD15">
+        <v>50</v>
+      </c>
+      <c r="AE15">
+        <v>18</v>
+      </c>
+      <c r="AF15">
+        <v>54</v>
+      </c>
+      <c r="AG15">
+        <v>0</v>
+      </c>
+      <c r="AH15">
+        <v>746.229696969697</v>
+      </c>
+      <c r="AI15">
+        <v>187.3536773712521</v>
+      </c>
+      <c r="AJ15" t="s">
+        <v>134</v>
+      </c>
+      <c r="AK15" t="s">
+        <v>61</v>
+      </c>
+      <c r="AL15" t="s">
+        <v>135</v>
+      </c>
+      <c r="AM15" t="s">
+        <v>143</v>
+      </c>
+      <c r="AN15" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="16" spans="1:40">
+      <c r="A16" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" t="s">
+        <v>49</v>
+      </c>
+      <c r="F16" t="s">
+        <v>53</v>
+      </c>
+      <c r="G16" t="s">
+        <v>62</v>
+      </c>
+      <c r="H16" t="s">
+        <v>69</v>
+      </c>
+      <c r="I16" t="s">
+        <v>72</v>
+      </c>
+      <c r="J16">
+        <v>66</v>
+      </c>
+      <c r="K16">
+        <v>858.66</v>
+      </c>
+      <c r="L16">
+        <v>2.247</v>
+      </c>
+      <c r="M16">
+        <v>2</v>
+      </c>
+      <c r="N16" t="s">
+        <v>74</v>
+      </c>
+      <c r="O16" t="s">
+        <v>77</v>
+      </c>
+      <c r="P16" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>84</v>
+      </c>
+      <c r="R16" t="s">
+        <v>93</v>
+      </c>
+      <c r="S16" t="s">
+        <v>98</v>
+      </c>
+      <c r="T16" t="s">
         <v>104</v>
       </c>
-      <c r="AK7" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL7" t="s">
+      <c r="U16" t="s">
+        <v>114</v>
+      </c>
+      <c r="V16" t="s">
+        <v>124</v>
+      </c>
+      <c r="W16">
+        <v>114</v>
+      </c>
+      <c r="X16">
+        <v>94.45887445887446</v>
+      </c>
+      <c r="Y16">
+        <v>116.7107658696444</v>
+      </c>
+      <c r="Z16">
+        <v>212.2490909090909</v>
+      </c>
+      <c r="AA16">
+        <v>50</v>
+      </c>
+      <c r="AB16">
+        <v>52</v>
+      </c>
+      <c r="AC16">
+        <v>100</v>
+      </c>
+      <c r="AD16">
+        <v>50</v>
+      </c>
+      <c r="AE16">
+        <v>18</v>
+      </c>
+      <c r="AF16">
+        <v>36</v>
+      </c>
+      <c r="AG16">
+        <v>614</v>
+      </c>
+      <c r="AH16">
+        <v>1178.249090909091</v>
+      </c>
+      <c r="AI16">
+        <v>524.3654165149493</v>
+      </c>
+      <c r="AJ16" t="s">
+        <v>134</v>
+      </c>
+      <c r="AK16" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL16" t="s">
+        <v>135</v>
+      </c>
+      <c r="AM16" t="s">
+        <v>143</v>
+      </c>
+      <c r="AN16" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="17" spans="1:40">
+      <c r="A17" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17" t="s">
+        <v>49</v>
+      </c>
+      <c r="F17" t="s">
+        <v>54</v>
+      </c>
+      <c r="G17" t="s">
+        <v>63</v>
+      </c>
+      <c r="H17" t="s">
+        <v>70</v>
+      </c>
+      <c r="I17" t="s">
+        <v>72</v>
+      </c>
+      <c r="J17">
+        <v>142</v>
+      </c>
+      <c r="K17">
+        <v>1850.26</v>
+      </c>
+      <c r="L17">
+        <v>4.834</v>
+      </c>
+      <c r="M17">
+        <v>3</v>
+      </c>
+      <c r="N17" t="s">
+        <v>74</v>
+      </c>
+      <c r="O17" t="s">
+        <v>77</v>
+      </c>
+      <c r="P17" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>85</v>
+      </c>
+      <c r="T17" t="s">
         <v>105</v>
       </c>
-      <c r="AM7" t="s">
-        <v>109</v>
-      </c>
-      <c r="AN7" t="s">
-        <v>111</v>
+      <c r="U17" t="s">
+        <v>115</v>
+      </c>
+      <c r="V17" t="s">
+        <v>123</v>
+      </c>
+      <c r="W17">
+        <v>114</v>
+      </c>
+      <c r="X17">
+        <v>94.45887445887446</v>
+      </c>
+      <c r="Y17">
+        <v>104.8022753690937</v>
+      </c>
+      <c r="Z17">
+        <v>456.6141991341991</v>
+      </c>
+      <c r="AA17">
+        <v>50</v>
+      </c>
+      <c r="AB17">
+        <v>52</v>
+      </c>
+      <c r="AC17">
+        <v>100</v>
+      </c>
+      <c r="AD17">
+        <v>50</v>
+      </c>
+      <c r="AE17">
+        <v>18</v>
+      </c>
+      <c r="AF17">
+        <v>54</v>
+      </c>
+      <c r="AG17">
+        <v>0</v>
+      </c>
+      <c r="AH17">
+        <v>826.6141991341991</v>
+      </c>
+      <c r="AI17">
+        <v>171.0000411944971</v>
+      </c>
+      <c r="AJ17" t="s">
+        <v>134</v>
+      </c>
+      <c r="AK17" t="s">
+        <v>63</v>
+      </c>
+      <c r="AL17" t="s">
+        <v>135</v>
+      </c>
+      <c r="AM17" t="s">
+        <v>143</v>
+      </c>
+      <c r="AN17" t="s">
+        <v>145</v>
       </c>
     </row>
   </sheetData>

--- a/Logs/quotations.xlsx
+++ b/Logs/quotations.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="171">
   <si>
     <t>Shipment Scope</t>
   </si>
@@ -145,12 +145,12 @@
     <t>Nhava Sheva, India (INNSA)</t>
   </si>
   <si>
+    <t>110020, Okhla Industrial Estate, South East Delhi, Delhi, India</t>
+  </si>
+  <si>
     <t>421601, Thane, Thane, Maharashtra, India</t>
   </si>
   <si>
-    <t>110020, Okhla Industrial Estate, South East Delhi, Delhi, India</t>
-  </si>
-  <si>
     <t>Nhava Sheva</t>
   </si>
   <si>
@@ -172,6 +172,21 @@
     <t>IUST</t>
   </si>
   <si>
+    <t>AGS2</t>
+  </si>
+  <si>
+    <t>TEB9</t>
+  </si>
+  <si>
+    <t>IUSL</t>
+  </si>
+  <si>
+    <t>WBW2</t>
+  </si>
+  <si>
+    <t>HEA2</t>
+  </si>
+  <si>
     <t>IND9</t>
   </si>
   <si>
@@ -181,24 +196,27 @@
     <t>FWA4</t>
   </si>
   <si>
-    <t>AGS2</t>
-  </si>
-  <si>
-    <t>TEB9</t>
-  </si>
-  <si>
-    <t>IUSL</t>
-  </si>
-  <si>
-    <t>WBW2</t>
-  </si>
-  <si>
     <t>SCK8 94561, Oakley, Oakley, California, United States</t>
   </si>
   <si>
     <t>IUST 17225, Greencastle, Greencastle, Pennsylvania, United States</t>
   </si>
   <si>
+    <t>AGS2 30567, Pendergrass, Pendergrass, Georgia, United States</t>
+  </si>
+  <si>
+    <t>TEB9 08873, Somerset, Franklin Township, New Jersey, United States</t>
+  </si>
+  <si>
+    <t>IUSL 21901, North East, North East, Maryland, United States</t>
+  </si>
+  <si>
+    <t>WBW2 18447, Archbald, Archbald, Pennsylvania, United States</t>
+  </si>
+  <si>
+    <t>HEA2 18031, Breinigsville, Breinigsville, Pennsylvania, United States</t>
+  </si>
+  <si>
     <t>IND9 46143, Greenwood, Greenwood, Indiana, United States</t>
   </si>
   <si>
@@ -208,18 +226,6 @@
     <t>FWA4 46818, Fort Wayne, Fort Wayne, Indiana, United States</t>
   </si>
   <si>
-    <t>AGS2 30567, Pendergrass, Pendergrass, Georgia, United States</t>
-  </si>
-  <si>
-    <t>TEB9 08873, Somerset, Franklin Township, New Jersey, United States</t>
-  </si>
-  <si>
-    <t>IUSL 21901, North East, North East, Maryland, United States</t>
-  </si>
-  <si>
-    <t>WBW2 18447, Archbald, Archbald, Pennsylvania, United States</t>
-  </si>
-  <si>
     <t>46143</t>
   </si>
   <si>
@@ -265,6 +271,33 @@
     <t>{'Rate': 460.0, 'Carrier Name': nan, 'Service Provider': 'AmznFrgt'}</t>
   </si>
   <si>
+    <t>{'Rate': 305.01, 'Carrier Name': 'Estes Express Lines', 'Service Provider': 'HeyPrimo'}</t>
+  </si>
+  <si>
+    <t>{'Rate': 97.0, 'Carrier Name': nan, 'Service Provider': 'AmznFrgt'}</t>
+  </si>
+  <si>
+    <t>{'Rate': 232.03, 'Carrier Name': 'Estes Express Lines', 'Service Provider': 'HeyPrimo'}</t>
+  </si>
+  <si>
+    <t>{'Rate': 252.68, 'Carrier Name': 'Estes Express Lines', 'Service Provider': 'HeyPrimo'}</t>
+  </si>
+  <si>
+    <t>{'Rate': 610.87, 'Carrier Name': 'Estes Express Lines', 'Service Provider': 'Ex-Freight'}</t>
+  </si>
+  <si>
+    <t>{'Rate': 1185.21, 'Carrier Name': 'Estes Express Lines', 'Service Provider': 'Ex-Freight'}</t>
+  </si>
+  <si>
+    <t>{'Rate': 639.99, 'Carrier Name': 'Estes Express Lines', 'Service Provider': 'Ex-Freight'}</t>
+  </si>
+  <si>
+    <t>{'Rate': 547.0, 'Carrier Name': nan, 'Service Provider': 'AmznFrgt'}</t>
+  </si>
+  <si>
+    <t>{'Rate': 242.95, 'Carrier Name': 'Estes Express Lines', 'Service Provider': 'Ex-Freight'}</t>
+  </si>
+  <si>
     <t>{'Rate': 673.11, 'Carrier Name': 'Estes Express Lines VL', 'Service Provider': 'HeyPrimo'}</t>
   </si>
   <si>
@@ -274,57 +307,66 @@
     <t>{'Rate': 609.56, 'Carrier Name': 'Estes Express Lines VL', 'Service Provider': 'HeyPrimo'}</t>
   </si>
   <si>
-    <t>{'Rate': 305.01, 'Carrier Name': 'Estes Express Lines', 'Service Provider': 'HeyPrimo'}</t>
-  </si>
-  <si>
-    <t>{'Rate': 97.0, 'Carrier Name': nan, 'Service Provider': 'AmznFrgt'}</t>
-  </si>
-  <si>
-    <t>{'Rate': 232.03, 'Carrier Name': 'Estes Express Lines', 'Service Provider': 'HeyPrimo'}</t>
-  </si>
-  <si>
-    <t>{'Rate': 252.68, 'Carrier Name': 'Estes Express Lines', 'Service Provider': 'HeyPrimo'}</t>
-  </si>
-  <si>
-    <t>{'Rate': 610.87, 'Carrier Name': 'Estes Express Lines', 'Service Provider': 'Ex-Freight'}</t>
-  </si>
-  <si>
     <t>{'Rate': 1494.0, 'Carrier Name': nan, 'Service Provider': 'JB.Hunt'}</t>
   </si>
   <si>
     <t>{'Rate': 732.0, 'Carrier Name': nan, 'Service Provider': 'JB.Hunt'}</t>
   </si>
   <si>
+    <t>{'Rate': 465.0, 'Carrier Name': nan, 'Service Provider': 'JB.Hunt'}</t>
+  </si>
+  <si>
+    <t>{'Rate': 705.0, 'Carrier Name': nan, 'Service Provider': 'JB.Hunt'}</t>
+  </si>
+  <si>
     <t>{'Rate': 614.0, 'Carrier Name': nan, 'Service Provider': 'JB.Hunt'}</t>
   </si>
   <si>
-    <t>{'Rate': 465.0, 'Carrier Name': nan, 'Service Provider': 'JB.Hunt'}</t>
-  </si>
-  <si>
-    <t>{'Rate': 705.0, 'Carrier Name': nan, 'Service Provider': 'JB.Hunt'}</t>
-  </si>
-  <si>
     <t>{'Rate': 1426.0, 'Carrier Name': nan, 'Service Provider': 'NTG'}</t>
   </si>
   <si>
     <t>{'Rate': 843.0, 'Carrier Name': nan, 'Service Provider': 'NTG'}</t>
   </si>
   <si>
+    <t>{'Rate': 372.0, 'Carrier Name': nan, 'Service Provider': 'NTG'}</t>
+  </si>
+  <si>
+    <t>{'Rate': 645.0, 'Carrier Name': nan, 'Service Provider': 'NTG'}</t>
+  </si>
+  <si>
     <t>{'Rate': 615.0, 'Carrier Name': nan, 'Service Provider': 'NTG'}</t>
   </si>
   <si>
-    <t>{'Rate': 372.0, 'Carrier Name': nan, 'Service Provider': 'NTG'}</t>
-  </si>
-  <si>
-    <t>{'Rate': 645.0, 'Carrier Name': nan, 'Service Provider': 'NTG'}</t>
-  </si>
-  <si>
     <t>{'Rate': 1254.82, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt'}</t>
   </si>
   <si>
     <t>{'Rate': 828.36, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt'}</t>
   </si>
   <si>
+    <t>{'Rate': 718.44, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt'}</t>
+  </si>
+  <si>
+    <t>{'Rate': 435.9, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt'}</t>
+  </si>
+  <si>
+    <t>{'Lowest Rate': np.float64(241.21), 'Carrier Name': 'Estes Express Lines'}</t>
+  </si>
+  <si>
+    <t>{'Rate': 721.31, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt'}</t>
+  </si>
+  <si>
+    <t>{'Rate': 559.68, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt'}</t>
+  </si>
+  <si>
+    <t>{'Rate': 1334.82, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt'}</t>
+  </si>
+  <si>
+    <t>{'Rate': 826.36, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt'}</t>
+  </si>
+  <si>
+    <t>{'Rate': 502.87, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt'}</t>
+  </si>
+  <si>
     <t>{'Rate': 1049.96, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt'}</t>
   </si>
   <si>
@@ -334,27 +376,36 @@
     <t>{'Rate': 1193.44, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt'}</t>
   </si>
   <si>
-    <t>{'Rate': 718.44, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt'}</t>
-  </si>
-  <si>
-    <t>{'Rate': 435.9, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt'}</t>
-  </si>
-  <si>
-    <t>{'Lowest Rate': np.float64(241.21), 'Carrier Name': 'Estes Express Lines'}</t>
-  </si>
-  <si>
-    <t>{'Rate': 721.31, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt'}</t>
-  </si>
-  <si>
-    <t>{'Rate': 559.68, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt'}</t>
-  </si>
-  <si>
     <t>{'Rate Type': 'LTL', 'Rate': 726.98, 'Carrier Name': 'ABF Density VL', 'Service Provider': 'HeyPrimo'}</t>
   </si>
   <si>
     <t>{'Rate Type': 'LTL', 'Rate': 460.0, 'Carrier Name': nan, 'Service Provider': 'AmznFrgt'}</t>
   </si>
   <si>
+    <t>{'Rate Type': 'LTL', 'Rate': 305.01, 'Carrier Name': 'Estes Express Lines', 'Service Provider': 'HeyPrimo'}</t>
+  </si>
+  <si>
+    <t>{'Rate Type': 'LTL', 'Rate': 97.0, 'Carrier Name': nan, 'Service Provider': 'AmznFrgt'}</t>
+  </si>
+  <si>
+    <t>{'Rate Type': 'LTL', 'Rate': 232.03, 'Carrier Name': 'Estes Express Lines', 'Service Provider': 'HeyPrimo'}</t>
+  </si>
+  <si>
+    <t>{'Rate Type': 'LTL', 'Rate': 252.68, 'Carrier Name': 'Estes Express Lines', 'Service Provider': 'HeyPrimo'}</t>
+  </si>
+  <si>
+    <t>{'Rate Type': 'Drayage', 'Rate': 559.68, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt'}</t>
+  </si>
+  <si>
+    <t>{'Rate Type': 'LTL', 'Rate': 1185.21, 'Carrier Name': 'Estes Express Lines', 'Service Provider': 'Ex-Freight'}</t>
+  </si>
+  <si>
+    <t>{'Rate Type': 'LTL', 'Rate': 547.0, 'Carrier Name': nan, 'Service Provider': 'AmznFrgt'}</t>
+  </si>
+  <si>
+    <t>{'Rate Type': 'LTL', 'Rate': 242.95, 'Carrier Name': 'Estes Express Lines', 'Service Provider': 'Ex-Freight'}</t>
+  </si>
+  <si>
     <t>{'Rate Type': 'LTL', 'Rate': 673.11, 'Carrier Name': 'Estes Express Lines VL', 'Service Provider': 'HeyPrimo'}</t>
   </si>
   <si>
@@ -364,21 +415,6 @@
     <t>{'Rate Type': 'LTL', 'Rate': 609.56, 'Carrier Name': 'Estes Express Lines VL', 'Service Provider': 'HeyPrimo'}</t>
   </si>
   <si>
-    <t>{'Rate Type': 'LTL', 'Rate': 305.01, 'Carrier Name': 'Estes Express Lines', 'Service Provider': 'HeyPrimo'}</t>
-  </si>
-  <si>
-    <t>{'Rate Type': 'LTL', 'Rate': 97.0, 'Carrier Name': nan, 'Service Provider': 'AmznFrgt'}</t>
-  </si>
-  <si>
-    <t>{'Rate Type': 'LTL', 'Rate': 232.03, 'Carrier Name': 'Estes Express Lines', 'Service Provider': 'HeyPrimo'}</t>
-  </si>
-  <si>
-    <t>{'Rate Type': 'LTL', 'Rate': 252.68, 'Carrier Name': 'Estes Express Lines', 'Service Provider': 'HeyPrimo'}</t>
-  </si>
-  <si>
-    <t>{'Rate Type': 'Drayage', 'Rate': 559.68, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt'}</t>
-  </si>
-  <si>
     <t>{'Rate Type': 'Drayage', 'Rate': 1254.82, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt'}</t>
   </si>
   <si>
@@ -388,39 +424,66 @@
     <t>{'Rate Type': 'N/A', 'Rate': 0.0, 'Carrier Name': '', 'Service Provider': ''}</t>
   </si>
   <si>
+    <t>{'Rate Type': 'FTL', 'Rate': 465.0, 'Carrier Name': nan, 'Service Provider': 'JB.Hunt'}</t>
+  </si>
+  <si>
+    <t>{'Rate Type': 'FTL', 'Rate': 705.0, 'Carrier Name': nan, 'Service Provider': 'JB.Hunt'}</t>
+  </si>
+  <si>
+    <t>{'Rate Type': 'Drayage', 'Rate': 721.31, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt'}</t>
+  </si>
+  <si>
+    <t>{'Rate Type': 'Drayage', 'Rate': 1334.82, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt'}</t>
+  </si>
+  <si>
+    <t>{'Rate Type': 'FTL', 'Rate': 732.0, 'Carrier Name': nan, 'Service Provider': 'JB.Hunt'}</t>
+  </si>
+  <si>
+    <t>{'Rate Type': 'Drayage', 'Rate': 502.87, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt'}</t>
+  </si>
+  <si>
+    <t>{'Rate Type': 'Drayage', 'Rate': 1049.96, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt'}</t>
+  </si>
+  <si>
+    <t>{'Rate Type': 'Drayage', 'Rate': 561.95, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt'}</t>
+  </si>
+  <si>
+    <t>{'Rate Type': 'Drayage', 'Rate': 1193.44, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt'}</t>
+  </si>
+  <si>
     <t>{'Rate Type': 'FTL', 'Rate': 614.0, 'Carrier Name': nan, 'Service Provider': 'JB.Hunt'}</t>
   </si>
   <si>
-    <t>{'Rate Type': 'FTL', 'Rate': 465.0, 'Carrier Name': nan, 'Service Provider': 'JB.Hunt'}</t>
-  </si>
-  <si>
-    <t>{'Rate Type': 'FTL', 'Rate': 705.0, 'Carrier Name': nan, 'Service Provider': 'JB.Hunt'}</t>
-  </si>
-  <si>
-    <t>{'Rate Type': 'Drayage', 'Rate': 721.31, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt'}</t>
-  </si>
-  <si>
     <t>CMM0575LCL0025</t>
   </si>
   <si>
     <t>CMM0575LCL0026</t>
   </si>
   <si>
+    <t>CMM0246LCL0039</t>
+  </si>
+  <si>
+    <t>CMM0246LCL0040</t>
+  </si>
+  <si>
+    <t>CMM0077LCL0001</t>
+  </si>
+  <si>
+    <t>CMM0657LCL0098</t>
+  </si>
+  <si>
+    <t>CMM0050LCL0065</t>
+  </si>
+  <si>
+    <t>CMM0657LCL0096</t>
+  </si>
+  <si>
+    <t>CMM0804LCL0053</t>
+  </si>
+  <si>
     <t>CMM0804LCL0055</t>
   </si>
   <si>
-    <t>CMM0246LCL0039</t>
-  </si>
-  <si>
-    <t>CMM0246LCL0040</t>
-  </si>
-  <si>
-    <t>CMM0077LCL0001</t>
-  </si>
-  <si>
-    <t>CMM0804LCL0053</t>
-  </si>
-  <si>
     <t>Own Console</t>
   </si>
   <si>
@@ -433,9 +496,6 @@
     <t>2025-08-07 10:23:16</t>
   </si>
   <si>
-    <t>2025-08-08 07:52:43</t>
-  </si>
-  <si>
     <t>2025-08-08 07:52:52</t>
   </si>
   <si>
@@ -445,16 +505,28 @@
     <t>2025-08-08 07:56:26</t>
   </si>
   <si>
-    <t>2025-08-08 08:01:16</t>
+    <t>2025-08-08 08:10:08</t>
+  </si>
+  <si>
+    <t>2025-08-08 08:12:55</t>
+  </si>
+  <si>
+    <t>2025-08-08 08:16:57</t>
+  </si>
+  <si>
+    <t>2025-08-08 08:22:25</t>
+  </si>
+  <si>
+    <t>2025-08-08 08:22:56</t>
   </si>
   <si>
     <t>SOUTH</t>
   </si>
   <si>
+    <t>NORTH</t>
+  </si>
+  <si>
     <t>WEST</t>
-  </si>
-  <si>
-    <t>NORTH</t>
   </si>
 </sst>
 </file>
@@ -812,7 +884,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN17"/>
+  <dimension ref="A1:AN21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -960,13 +1032,13 @@
         <v>50</v>
       </c>
       <c r="G2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H2">
         <v>94561</v>
       </c>
       <c r="I2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="J2">
         <v>77</v>
@@ -981,31 +1053,31 @@
         <v>3</v>
       </c>
       <c r="N2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="O2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="P2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Q2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="R2" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="S2" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="T2" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="U2" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="V2" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="W2">
         <v>0</v>
@@ -1047,16 +1119,16 @@
         <v>355.1759782107375</v>
       </c>
       <c r="AJ2" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="AK2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AL2" t="s">
-        <v>135</v>
+        <v>156</v>
       </c>
       <c r="AM2" t="s">
-        <v>137</v>
+        <v>158</v>
       </c>
     </row>
     <row r="3" spans="1:40">
@@ -1079,13 +1151,13 @@
         <v>51</v>
       </c>
       <c r="G3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H3">
         <v>17225</v>
       </c>
       <c r="I3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J3">
         <v>112</v>
@@ -1100,31 +1172,31 @@
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="O3" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="P3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Q3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="R3" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="S3" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="T3" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="U3" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="V3" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="W3">
         <v>0</v>
@@ -1166,16 +1238,16 @@
         <v>195.302132027686</v>
       </c>
       <c r="AJ3" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="AK3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AL3" t="s">
-        <v>135</v>
+        <v>156</v>
       </c>
       <c r="AM3" t="s">
-        <v>138</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:40">
@@ -1189,67 +1261,67 @@
         <v>45</v>
       </c>
       <c r="D4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E4">
-        <v>7201</v>
+        <v>29483</v>
       </c>
       <c r="F4" t="s">
         <v>52</v>
       </c>
       <c r="G4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H4">
-        <v>46143</v>
+        <v>30567</v>
       </c>
       <c r="I4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J4">
-        <v>117</v>
+        <v>10</v>
       </c>
       <c r="K4">
-        <v>1525.68</v>
+        <v>2000</v>
       </c>
       <c r="L4">
-        <v>3.983</v>
+        <v>0.576</v>
       </c>
       <c r="M4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="O4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="P4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Q4" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="T4" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="U4" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="V4" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="W4">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="X4">
-        <v>94.45887445887446</v>
+        <v>90.82251082251082</v>
       </c>
       <c r="Y4">
-        <v>107.0122262037903</v>
+        <v>177.6280663780664</v>
       </c>
       <c r="Z4">
-        <v>376.229696969697</v>
+        <v>52.31376623376623</v>
       </c>
       <c r="AA4">
         <v>50</v>
@@ -1267,31 +1339,31 @@
         <v>18</v>
       </c>
       <c r="AF4">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="AG4">
         <v>0</v>
       </c>
       <c r="AH4">
-        <v>1632.229696969697</v>
+        <v>372.3137662337662</v>
       </c>
       <c r="AI4">
-        <v>409.7990702911617</v>
+        <v>646.3780663780664</v>
       </c>
       <c r="AJ4" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
       <c r="AK4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AL4" t="s">
-        <v>135</v>
+        <v>156</v>
       </c>
       <c r="AM4" t="s">
-        <v>139</v>
+        <v>160</v>
       </c>
       <c r="AN4" t="s">
-        <v>144</v>
+        <v>168</v>
       </c>
     </row>
     <row r="5" spans="1:40">
@@ -1305,73 +1377,67 @@
         <v>45</v>
       </c>
       <c r="D5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E5">
-        <v>7201</v>
+        <v>29483</v>
       </c>
       <c r="F5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G5" t="s">
         <v>62</v>
       </c>
       <c r="H5">
-        <v>18202</v>
+        <v>30567</v>
       </c>
       <c r="I5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J5">
-        <v>66</v>
+        <v>10</v>
       </c>
       <c r="K5">
-        <v>858.66</v>
+        <v>2000</v>
       </c>
       <c r="L5">
-        <v>2.247</v>
+        <v>0.576</v>
       </c>
       <c r="M5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="O5" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="P5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Q5" t="s">
-        <v>84</v>
-      </c>
-      <c r="R5" t="s">
-        <v>93</v>
-      </c>
-      <c r="S5" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="T5" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="U5" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="V5" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="W5">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="X5">
-        <v>94.45887445887446</v>
+        <v>90.5</v>
       </c>
       <c r="Y5">
-        <v>116.7107658696444</v>
+        <v>177.3055555555555</v>
       </c>
       <c r="Z5">
-        <v>212.2490909090909</v>
+        <v>52.12799999999999</v>
       </c>
       <c r="AA5">
         <v>50</v>
@@ -1389,31 +1455,31 @@
         <v>18</v>
       </c>
       <c r="AF5">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="AG5">
-        <v>614</v>
+        <v>0</v>
       </c>
       <c r="AH5">
-        <v>2064.249090909091</v>
+        <v>372.128</v>
       </c>
       <c r="AI5">
-        <v>918.6689323137923</v>
+        <v>646.0555555555555</v>
       </c>
       <c r="AJ5" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
       <c r="AK5" t="s">
         <v>62</v>
       </c>
       <c r="AL5" t="s">
-        <v>135</v>
+        <v>157</v>
       </c>
       <c r="AM5" t="s">
-        <v>139</v>
+        <v>160</v>
       </c>
       <c r="AN5" t="s">
-        <v>144</v>
+        <v>168</v>
       </c>
     </row>
     <row r="6" spans="1:40">
@@ -1433,61 +1499,67 @@
         <v>7201</v>
       </c>
       <c r="F6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G6" t="s">
         <v>63</v>
       </c>
       <c r="H6">
-        <v>46809</v>
+        <v>8873</v>
       </c>
       <c r="I6" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J6">
-        <v>142</v>
+        <v>9</v>
       </c>
       <c r="K6">
-        <v>1850.26</v>
+        <v>660</v>
       </c>
       <c r="L6">
-        <v>4.834</v>
+        <v>0.643</v>
       </c>
       <c r="M6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="O6" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="P6" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Q6" t="s">
-        <v>85</v>
+        <v>86</v>
+      </c>
+      <c r="R6" t="s">
+        <v>99</v>
+      </c>
+      <c r="S6" t="s">
+        <v>104</v>
       </c>
       <c r="T6" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="U6" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="V6" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="W6">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="X6">
         <v>94.45887445887446</v>
       </c>
       <c r="Y6">
-        <v>104.8022753690937</v>
+        <v>172.2193721260595</v>
       </c>
       <c r="Z6">
-        <v>456.6141991341991</v>
+        <v>60.73705627705628</v>
       </c>
       <c r="AA6">
         <v>50</v>
@@ -1505,31 +1577,31 @@
         <v>18</v>
       </c>
       <c r="AF6">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="AG6">
-        <v>0</v>
+        <v>465</v>
       </c>
       <c r="AH6">
-        <v>1712.614199134199</v>
+        <v>845.7370562770562</v>
       </c>
       <c r="AI6">
-        <v>354.2851053235828</v>
+        <v>1315.29868783368</v>
       </c>
       <c r="AJ6" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
       <c r="AK6" t="s">
         <v>63</v>
       </c>
       <c r="AL6" t="s">
-        <v>135</v>
+        <v>156</v>
       </c>
       <c r="AM6" t="s">
-        <v>139</v>
+        <v>160</v>
       </c>
       <c r="AN6" t="s">
-        <v>145</v>
+        <v>169</v>
       </c>
     </row>
     <row r="7" spans="1:40">
@@ -1537,73 +1609,79 @@
         <v>41</v>
       </c>
       <c r="B7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C7" t="s">
         <v>45</v>
       </c>
       <c r="D7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E7">
-        <v>29483</v>
+        <v>7201</v>
       </c>
       <c r="F7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H7">
-        <v>30567</v>
+        <v>8873</v>
       </c>
       <c r="I7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J7">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K7">
-        <v>2000</v>
+        <v>660</v>
       </c>
       <c r="L7">
-        <v>0.576</v>
+        <v>0.643</v>
       </c>
       <c r="M7">
         <v>1</v>
       </c>
       <c r="N7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="O7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="P7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Q7" t="s">
         <v>86</v>
       </c>
+      <c r="R7" t="s">
+        <v>99</v>
+      </c>
+      <c r="S7" t="s">
+        <v>104</v>
+      </c>
       <c r="T7" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="U7" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="V7" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="W7">
         <v>100</v>
       </c>
       <c r="X7">
-        <v>90.82251082251082</v>
+        <v>70.84999999999999</v>
       </c>
       <c r="Y7">
-        <v>177.6280663780664</v>
+        <v>148.6104976671851</v>
       </c>
       <c r="Z7">
-        <v>52.31376623376623</v>
+        <v>45.55654999999999</v>
       </c>
       <c r="AA7">
         <v>50</v>
@@ -1624,28 +1702,28 @@
         <v>18</v>
       </c>
       <c r="AG7">
-        <v>0</v>
+        <v>465</v>
       </c>
       <c r="AH7">
-        <v>372.3137662337662</v>
+        <v>830.55655</v>
       </c>
       <c r="AI7">
-        <v>646.3780663780664</v>
+        <v>1291.689813374806</v>
       </c>
       <c r="AJ7" t="s">
-        <v>131</v>
+        <v>148</v>
       </c>
       <c r="AK7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AL7" t="s">
-        <v>135</v>
+        <v>157</v>
       </c>
       <c r="AM7" t="s">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="AN7" t="s">
-        <v>144</v>
+        <v>169</v>
       </c>
     </row>
     <row r="8" spans="1:40">
@@ -1653,73 +1731,79 @@
         <v>41</v>
       </c>
       <c r="B8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C8" t="s">
         <v>45</v>
       </c>
       <c r="D8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E8">
-        <v>29483</v>
+        <v>7201</v>
       </c>
       <c r="F8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G8" t="s">
         <v>64</v>
       </c>
       <c r="H8">
-        <v>30567</v>
+        <v>21901</v>
       </c>
       <c r="I8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J8">
         <v>10</v>
       </c>
       <c r="K8">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="L8">
-        <v>0.576</v>
+        <v>1.382</v>
       </c>
       <c r="M8">
         <v>1</v>
       </c>
       <c r="N8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O8" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="P8" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Q8" t="s">
-        <v>86</v>
+        <v>87</v>
+      </c>
+      <c r="R8" t="s">
+        <v>100</v>
+      </c>
+      <c r="S8" t="s">
+        <v>105</v>
       </c>
       <c r="T8" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="U8" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="V8" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="W8">
         <v>100</v>
       </c>
       <c r="X8">
-        <v>90.5</v>
+        <v>94.45887445887446</v>
       </c>
       <c r="Y8">
-        <v>177.3055555555555</v>
+        <v>130.6383245312334</v>
       </c>
       <c r="Z8">
-        <v>52.12799999999999</v>
+        <v>130.5421645021645</v>
       </c>
       <c r="AA8">
         <v>50</v>
@@ -1740,28 +1824,28 @@
         <v>18</v>
       </c>
       <c r="AG8">
-        <v>0</v>
+        <v>705</v>
       </c>
       <c r="AH8">
-        <v>372.128</v>
+        <v>1155.542164502164</v>
       </c>
       <c r="AI8">
-        <v>646.0555555555555</v>
+        <v>836.137600942232</v>
       </c>
       <c r="AJ8" t="s">
-        <v>131</v>
+        <v>148</v>
       </c>
       <c r="AK8" t="s">
         <v>64</v>
       </c>
       <c r="AL8" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
       <c r="AM8" t="s">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="AN8" t="s">
-        <v>144</v>
+        <v>169</v>
       </c>
     </row>
     <row r="9" spans="1:40">
@@ -1769,7 +1853,7 @@
         <v>41</v>
       </c>
       <c r="B9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C9" t="s">
         <v>45</v>
@@ -1781,67 +1865,67 @@
         <v>7201</v>
       </c>
       <c r="F9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H9">
-        <v>8873</v>
+        <v>21901</v>
       </c>
       <c r="I9" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J9">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K9">
-        <v>660</v>
+        <v>1000</v>
       </c>
       <c r="L9">
-        <v>0.643</v>
+        <v>1.382</v>
       </c>
       <c r="M9">
         <v>1</v>
       </c>
       <c r="N9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O9" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="P9" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Q9" t="s">
         <v>87</v>
       </c>
       <c r="R9" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="S9" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="T9" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="U9" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="V9" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="W9">
         <v>100</v>
       </c>
       <c r="X9">
-        <v>94.45887445887446</v>
+        <v>70.84999999999999</v>
       </c>
       <c r="Y9">
-        <v>172.2193721260595</v>
+        <v>107.0294500723589</v>
       </c>
       <c r="Z9">
-        <v>60.73705627705628</v>
+        <v>97.91469999999998</v>
       </c>
       <c r="AA9">
         <v>50</v>
@@ -1862,28 +1946,28 @@
         <v>18</v>
       </c>
       <c r="AG9">
-        <v>465</v>
+        <v>705</v>
       </c>
       <c r="AH9">
-        <v>845.7370562770562</v>
+        <v>1122.9147</v>
       </c>
       <c r="AI9">
-        <v>1315.29868783368</v>
+        <v>812.5287264833576</v>
       </c>
       <c r="AJ9" t="s">
-        <v>131</v>
+        <v>148</v>
       </c>
       <c r="AK9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AL9" t="s">
-        <v>135</v>
+        <v>157</v>
       </c>
       <c r="AM9" t="s">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="AN9" t="s">
-        <v>146</v>
+        <v>169</v>
       </c>
     </row>
     <row r="10" spans="1:40">
@@ -1891,7 +1975,7 @@
         <v>41</v>
       </c>
       <c r="B10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C10" t="s">
         <v>45</v>
@@ -1903,67 +1987,67 @@
         <v>7201</v>
       </c>
       <c r="F10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H10">
-        <v>8873</v>
+        <v>21901</v>
       </c>
       <c r="I10" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J10">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="K10">
-        <v>660</v>
+        <v>1590.904</v>
       </c>
       <c r="L10">
-        <v>0.643</v>
+        <v>2.871</v>
       </c>
       <c r="M10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O10" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Q10" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="R10" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="S10" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="T10" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="U10" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="V10" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="W10">
         <v>100</v>
       </c>
       <c r="X10">
-        <v>70.84999999999999</v>
+        <v>61.2396694214876</v>
       </c>
       <c r="Y10">
-        <v>148.6104976671851</v>
+        <v>78.65520407840157</v>
       </c>
       <c r="Z10">
-        <v>45.55654999999999</v>
+        <v>175.8190909090909</v>
       </c>
       <c r="AA10">
         <v>50</v>
@@ -1981,39 +2065,39 @@
         <v>18</v>
       </c>
       <c r="AF10">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="AG10">
-        <v>465</v>
+        <v>721.3099999999999</v>
       </c>
       <c r="AH10">
-        <v>830.55655</v>
+        <v>1235.129090909091</v>
       </c>
       <c r="AI10">
-        <v>1291.689813374806</v>
+        <v>430.2086697697982</v>
       </c>
       <c r="AJ10" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="AK10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AL10" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
       <c r="AM10" t="s">
-        <v>140</v>
+        <v>161</v>
       </c>
       <c r="AN10" t="s">
-        <v>146</v>
+        <v>169</v>
       </c>
     </row>
     <row r="11" spans="1:40">
       <c r="A11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C11" t="s">
         <v>45</v>
@@ -2025,67 +2109,61 @@
         <v>7201</v>
       </c>
       <c r="F11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H11">
-        <v>21901</v>
+        <v>18447</v>
       </c>
       <c r="I11" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J11">
-        <v>10</v>
+        <v>170</v>
       </c>
       <c r="K11">
-        <v>1000</v>
+        <v>3498.6</v>
       </c>
       <c r="L11">
-        <v>1.382</v>
+        <v>15.002</v>
       </c>
       <c r="M11">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="N11" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="O11" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Q11" t="s">
-        <v>88</v>
-      </c>
-      <c r="R11" t="s">
-        <v>95</v>
-      </c>
-      <c r="S11" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="T11" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="U11" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="V11" t="s">
         <v>126</v>
       </c>
       <c r="W11">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X11">
-        <v>94.45887445887446</v>
+        <v>61.2396694214876</v>
       </c>
       <c r="Y11">
-        <v>130.6383245312334</v>
+        <v>64.57255836962784</v>
       </c>
       <c r="Z11">
-        <v>130.5421645021645</v>
+        <v>918.717520661157</v>
       </c>
       <c r="AA11">
         <v>50</v>
@@ -2103,111 +2181,111 @@
         <v>18</v>
       </c>
       <c r="AF11">
-        <v>18</v>
+        <v>162</v>
       </c>
       <c r="AG11">
-        <v>705</v>
+        <v>559.6799999999999</v>
       </c>
       <c r="AH11">
-        <v>1155.542164502164</v>
+        <v>1842.397520661157</v>
       </c>
       <c r="AI11">
-        <v>836.137600942232</v>
+        <v>122.8101266938513</v>
       </c>
       <c r="AJ11" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
       <c r="AK11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AL11" t="s">
-        <v>135</v>
+        <v>156</v>
       </c>
       <c r="AM11" t="s">
-        <v>140</v>
+        <v>162</v>
       </c>
       <c r="AN11" t="s">
-        <v>146</v>
+        <v>170</v>
       </c>
     </row>
     <row r="12" spans="1:40">
       <c r="A12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C12" t="s">
         <v>45</v>
       </c>
       <c r="D12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E12">
-        <v>7201</v>
+        <v>90220</v>
       </c>
       <c r="F12" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="G12" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="H12">
-        <v>21901</v>
+        <v>94561</v>
       </c>
       <c r="I12" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J12">
-        <v>10</v>
+        <v>374</v>
       </c>
       <c r="K12">
-        <v>1000</v>
+        <v>3366</v>
       </c>
       <c r="L12">
-        <v>1.382</v>
+        <v>15.54</v>
       </c>
       <c r="M12">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="N12" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="O12" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P12" t="s">
         <v>80</v>
       </c>
       <c r="Q12" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="R12" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="S12" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="T12" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="U12" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="V12" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="W12">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X12">
-        <v>70.84999999999999</v>
+        <v>70.33057851239668</v>
       </c>
       <c r="Y12">
-        <v>107.0294500723589</v>
+        <v>73.54808172989991</v>
       </c>
       <c r="Z12">
-        <v>97.91469999999998</v>
+        <v>1092.937190082645</v>
       </c>
       <c r="AA12">
         <v>50</v>
@@ -2225,39 +2303,39 @@
         <v>18</v>
       </c>
       <c r="AF12">
-        <v>18</v>
+        <v>162</v>
       </c>
       <c r="AG12">
-        <v>705</v>
+        <v>1334.82</v>
       </c>
       <c r="AH12">
-        <v>1122.9147</v>
+        <v>2791.757190082644</v>
       </c>
       <c r="AI12">
-        <v>812.5287264833576</v>
+        <v>179.649754831573</v>
       </c>
       <c r="AJ12" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="AK12" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="AL12" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
       <c r="AM12" t="s">
-        <v>140</v>
+        <v>163</v>
       </c>
       <c r="AN12" t="s">
-        <v>146</v>
+        <v>169</v>
       </c>
     </row>
     <row r="13" spans="1:40">
       <c r="A13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B13" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C13" t="s">
         <v>45</v>
@@ -2269,67 +2347,61 @@
         <v>7201</v>
       </c>
       <c r="F13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H13">
-        <v>21901</v>
+        <v>18447</v>
       </c>
       <c r="I13" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J13">
-        <v>7</v>
+        <v>192</v>
       </c>
       <c r="K13">
-        <v>1590.904</v>
+        <v>2880</v>
       </c>
       <c r="L13">
-        <v>2.871</v>
+        <v>16.727</v>
       </c>
       <c r="M13">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="N13" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="O13" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="P13" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="Q13" t="s">
-        <v>89</v>
-      </c>
-      <c r="R13" t="s">
-        <v>95</v>
-      </c>
-      <c r="S13" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="T13" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="U13" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="V13" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="W13">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X13">
-        <v>61.2396694214876</v>
+        <v>94.45887445887446</v>
       </c>
       <c r="Y13">
-        <v>78.65520407840157</v>
+        <v>97.44805363027399</v>
       </c>
       <c r="Z13">
-        <v>175.8190909090909</v>
+        <v>1580.013593073593</v>
       </c>
       <c r="AA13">
         <v>50</v>
@@ -2347,31 +2419,31 @@
         <v>18</v>
       </c>
       <c r="AF13">
-        <v>36</v>
+        <v>180</v>
       </c>
       <c r="AG13">
-        <v>721.3099999999999</v>
+        <v>0</v>
       </c>
       <c r="AH13">
-        <v>1235.129090909091</v>
+        <v>1962.013593073593</v>
       </c>
       <c r="AI13">
-        <v>430.2086697697982</v>
+        <v>117.2962033283669</v>
       </c>
       <c r="AJ13" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
       <c r="AK13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AL13" t="s">
-        <v>135</v>
+        <v>156</v>
       </c>
       <c r="AM13" t="s">
-        <v>141</v>
+        <v>164</v>
       </c>
       <c r="AN13" t="s">
-        <v>146</v>
+        <v>170</v>
       </c>
     </row>
     <row r="14" spans="1:40">
@@ -2391,61 +2463,67 @@
         <v>7201</v>
       </c>
       <c r="F14" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="G14" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="H14">
-        <v>18447</v>
+        <v>17225</v>
       </c>
       <c r="I14" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J14">
-        <v>170</v>
+        <v>138</v>
       </c>
       <c r="K14">
-        <v>3498.6</v>
+        <v>2070</v>
       </c>
       <c r="L14">
-        <v>15.002</v>
+        <v>10.016</v>
       </c>
       <c r="M14">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="N14" t="s">
         <v>75</v>
       </c>
       <c r="O14" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="P14" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="Q14" t="s">
-        <v>90</v>
+        <v>92</v>
+      </c>
+      <c r="R14" t="s">
+        <v>98</v>
+      </c>
+      <c r="S14" t="s">
+        <v>103</v>
       </c>
       <c r="T14" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="U14" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="V14" t="s">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="W14">
         <v>0</v>
       </c>
       <c r="X14">
-        <v>61.2396694214876</v>
+        <v>94.45887445887446</v>
       </c>
       <c r="Y14">
-        <v>64.57255836962784</v>
+        <v>99.45088723842717</v>
       </c>
       <c r="Z14">
-        <v>918.717520661157</v>
+        <v>946.1000865800866</v>
       </c>
       <c r="AA14">
         <v>50</v>
@@ -2463,39 +2541,39 @@
         <v>18</v>
       </c>
       <c r="AF14">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="AG14">
-        <v>559.6799999999999</v>
+        <v>732</v>
       </c>
       <c r="AH14">
-        <v>1842.397520661157</v>
+        <v>1988.100086580087</v>
       </c>
       <c r="AI14">
-        <v>122.8101266938513</v>
+        <v>198.4924207847531</v>
       </c>
       <c r="AJ14" t="s">
-        <v>133</v>
+        <v>152</v>
       </c>
       <c r="AK14" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="AL14" t="s">
-        <v>135</v>
+        <v>156</v>
       </c>
       <c r="AM14" t="s">
-        <v>142</v>
+        <v>164</v>
       </c>
       <c r="AN14" t="s">
-        <v>145</v>
+        <v>168</v>
       </c>
     </row>
     <row r="15" spans="1:40">
       <c r="A15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C15" t="s">
         <v>45</v>
@@ -2503,65 +2581,65 @@
       <c r="D15" t="s">
         <v>47</v>
       </c>
-      <c r="E15" t="s">
-        <v>49</v>
+      <c r="E15">
+        <v>7201</v>
       </c>
       <c r="F15" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="G15" t="s">
-        <v>61</v>
-      </c>
-      <c r="H15" t="s">
-        <v>68</v>
+        <v>66</v>
+      </c>
+      <c r="H15">
+        <v>18031</v>
       </c>
       <c r="I15" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J15">
-        <v>117</v>
+        <v>51</v>
       </c>
       <c r="K15">
-        <v>1525.68</v>
+        <v>961.35</v>
       </c>
       <c r="L15">
-        <v>3.983</v>
+        <v>4.493</v>
       </c>
       <c r="M15">
         <v>3</v>
       </c>
       <c r="N15" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="O15" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P15" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Q15" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="T15" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="U15" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="V15" t="s">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="W15">
-        <v>114</v>
+        <v>0</v>
       </c>
       <c r="X15">
-        <v>94.45887445887446</v>
+        <v>61.2396694214876</v>
       </c>
       <c r="Y15">
-        <v>107.0122262037903</v>
+        <v>72.36809141124945</v>
       </c>
       <c r="Z15">
-        <v>376.229696969697</v>
+        <v>275.1498347107438</v>
       </c>
       <c r="AA15">
         <v>50</v>
@@ -2582,28 +2660,28 @@
         <v>54</v>
       </c>
       <c r="AG15">
-        <v>0</v>
+        <v>502.87</v>
       </c>
       <c r="AH15">
-        <v>746.229696969697</v>
+        <v>1034.019834710744</v>
       </c>
       <c r="AI15">
-        <v>187.3536773712521</v>
+        <v>230.1401813288991</v>
       </c>
       <c r="AJ15" t="s">
-        <v>134</v>
+        <v>153</v>
       </c>
       <c r="AK15" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="AL15" t="s">
-        <v>135</v>
+        <v>156</v>
       </c>
       <c r="AM15" t="s">
-        <v>143</v>
+        <v>165</v>
       </c>
       <c r="AN15" t="s">
-        <v>144</v>
+        <v>168</v>
       </c>
     </row>
     <row r="16" spans="1:40">
@@ -2611,7 +2689,7 @@
         <v>41</v>
       </c>
       <c r="B16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C16" t="s">
         <v>45</v>
@@ -2619,71 +2697,65 @@
       <c r="D16" t="s">
         <v>47</v>
       </c>
-      <c r="E16" t="s">
-        <v>49</v>
+      <c r="E16">
+        <v>7201</v>
       </c>
       <c r="F16" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="G16" t="s">
-        <v>62</v>
-      </c>
-      <c r="H16" t="s">
-        <v>69</v>
+        <v>67</v>
+      </c>
+      <c r="H16">
+        <v>46143</v>
       </c>
       <c r="I16" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J16">
-        <v>66</v>
+        <v>117</v>
       </c>
       <c r="K16">
-        <v>858.66</v>
+        <v>1525.68</v>
       </c>
       <c r="L16">
-        <v>2.247</v>
+        <v>3.983</v>
       </c>
       <c r="M16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N16" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="O16" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P16" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Q16" t="s">
-        <v>84</v>
-      </c>
-      <c r="R16" t="s">
-        <v>93</v>
-      </c>
-      <c r="S16" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="T16" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="U16" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="V16" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="W16">
         <v>114</v>
       </c>
       <c r="X16">
-        <v>94.45887445887446</v>
+        <v>61.2396694214876</v>
       </c>
       <c r="Y16">
-        <v>116.7107658696444</v>
+        <v>73.79302116640349</v>
       </c>
       <c r="Z16">
-        <v>212.2490909090909</v>
+        <v>243.9176033057851</v>
       </c>
       <c r="AA16">
         <v>50</v>
@@ -2701,31 +2773,31 @@
         <v>18</v>
       </c>
       <c r="AF16">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="AG16">
-        <v>614</v>
+        <v>1049.96</v>
       </c>
       <c r="AH16">
-        <v>1178.249090909091</v>
+        <v>1663.877603305785</v>
       </c>
       <c r="AI16">
-        <v>524.3654165149493</v>
+        <v>417.744816295703</v>
       </c>
       <c r="AJ16" t="s">
-        <v>134</v>
+        <v>154</v>
       </c>
       <c r="AK16" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="AL16" t="s">
-        <v>135</v>
+        <v>156</v>
       </c>
       <c r="AM16" t="s">
-        <v>143</v>
+        <v>166</v>
       </c>
       <c r="AN16" t="s">
-        <v>144</v>
+        <v>168</v>
       </c>
     </row>
     <row r="17" spans="1:40">
@@ -2733,7 +2805,7 @@
         <v>41</v>
       </c>
       <c r="B17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C17" t="s">
         <v>45</v>
@@ -2741,65 +2813,71 @@
       <c r="D17" t="s">
         <v>47</v>
       </c>
-      <c r="E17" t="s">
-        <v>49</v>
+      <c r="E17">
+        <v>7201</v>
       </c>
       <c r="F17" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="G17" t="s">
-        <v>63</v>
-      </c>
-      <c r="H17" t="s">
-        <v>70</v>
+        <v>68</v>
+      </c>
+      <c r="H17">
+        <v>18202</v>
       </c>
       <c r="I17" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J17">
-        <v>142</v>
+        <v>66</v>
       </c>
       <c r="K17">
-        <v>1850.26</v>
+        <v>858.66</v>
       </c>
       <c r="L17">
-        <v>4.834</v>
+        <v>2.247</v>
       </c>
       <c r="M17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N17" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="O17" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P17" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Q17" t="s">
-        <v>85</v>
+        <v>95</v>
+      </c>
+      <c r="R17" t="s">
+        <v>101</v>
+      </c>
+      <c r="S17" t="s">
+        <v>106</v>
       </c>
       <c r="T17" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="U17" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="V17" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="W17">
         <v>114</v>
       </c>
       <c r="X17">
-        <v>94.45887445887446</v>
+        <v>61.2396694214876</v>
       </c>
       <c r="Y17">
-        <v>104.8022753690937</v>
+        <v>83.49156083225752</v>
       </c>
       <c r="Z17">
-        <v>456.6141991341991</v>
+        <v>137.6055371900826</v>
       </c>
       <c r="AA17">
         <v>50</v>
@@ -2817,31 +2895,501 @@
         <v>18</v>
       </c>
       <c r="AF17">
+        <v>36</v>
+      </c>
+      <c r="AG17">
+        <v>561.95</v>
+      </c>
+      <c r="AH17">
+        <v>1051.555537190083</v>
+      </c>
+      <c r="AI17">
+        <v>467.981992518951</v>
+      </c>
+      <c r="AJ17" t="s">
+        <v>154</v>
+      </c>
+      <c r="AK17" t="s">
+        <v>68</v>
+      </c>
+      <c r="AL17" t="s">
+        <v>156</v>
+      </c>
+      <c r="AM17" t="s">
+        <v>166</v>
+      </c>
+      <c r="AN17" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="18" spans="1:40">
+      <c r="A18" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" t="s">
+        <v>47</v>
+      </c>
+      <c r="E18">
+        <v>7201</v>
+      </c>
+      <c r="F18" t="s">
+        <v>59</v>
+      </c>
+      <c r="G18" t="s">
+        <v>69</v>
+      </c>
+      <c r="H18">
+        <v>46809</v>
+      </c>
+      <c r="I18" t="s">
+        <v>74</v>
+      </c>
+      <c r="J18">
+        <v>142</v>
+      </c>
+      <c r="K18">
+        <v>1850.26</v>
+      </c>
+      <c r="L18">
+        <v>4.834</v>
+      </c>
+      <c r="M18">
+        <v>3</v>
+      </c>
+      <c r="N18" t="s">
+        <v>76</v>
+      </c>
+      <c r="O18" t="s">
+        <v>78</v>
+      </c>
+      <c r="P18" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>96</v>
+      </c>
+      <c r="T18" t="s">
+        <v>119</v>
+      </c>
+      <c r="U18" t="s">
+        <v>132</v>
+      </c>
+      <c r="V18" t="s">
+        <v>144</v>
+      </c>
+      <c r="W18">
+        <v>114</v>
+      </c>
+      <c r="X18">
+        <v>61.2396694214876</v>
+      </c>
+      <c r="Y18">
+        <v>71.58307033170688</v>
+      </c>
+      <c r="Z18">
+        <v>296.032561983471</v>
+      </c>
+      <c r="AA18">
+        <v>50</v>
+      </c>
+      <c r="AB18">
+        <v>52</v>
+      </c>
+      <c r="AC18">
+        <v>100</v>
+      </c>
+      <c r="AD18">
+        <v>50</v>
+      </c>
+      <c r="AE18">
+        <v>18</v>
+      </c>
+      <c r="AF18">
         <v>54</v>
       </c>
-      <c r="AG17">
+      <c r="AG18">
+        <v>1193.44</v>
+      </c>
+      <c r="AH18">
+        <v>1859.472561983471</v>
+      </c>
+      <c r="AI18">
+        <v>384.6654038029523</v>
+      </c>
+      <c r="AJ18" t="s">
+        <v>154</v>
+      </c>
+      <c r="AK18" t="s">
+        <v>69</v>
+      </c>
+      <c r="AL18" t="s">
+        <v>156</v>
+      </c>
+      <c r="AM18" t="s">
+        <v>166</v>
+      </c>
+      <c r="AN18" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="19" spans="1:40">
+      <c r="A19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" t="s">
+        <v>47</v>
+      </c>
+      <c r="E19" t="s">
+        <v>49</v>
+      </c>
+      <c r="F19" t="s">
+        <v>57</v>
+      </c>
+      <c r="G19" t="s">
+        <v>67</v>
+      </c>
+      <c r="H19" t="s">
+        <v>70</v>
+      </c>
+      <c r="I19" t="s">
+        <v>74</v>
+      </c>
+      <c r="J19">
+        <v>117</v>
+      </c>
+      <c r="K19">
+        <v>1525.68</v>
+      </c>
+      <c r="L19">
+        <v>3.983</v>
+      </c>
+      <c r="M19">
+        <v>3</v>
+      </c>
+      <c r="N19" t="s">
+        <v>76</v>
+      </c>
+      <c r="O19" t="s">
+        <v>79</v>
+      </c>
+      <c r="P19" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>94</v>
+      </c>
+      <c r="T19" t="s">
+        <v>117</v>
+      </c>
+      <c r="U19" t="s">
+        <v>130</v>
+      </c>
+      <c r="V19" t="s">
+        <v>135</v>
+      </c>
+      <c r="W19">
+        <v>2</v>
+      </c>
+      <c r="X19">
+        <v>94.45887445887446</v>
+      </c>
+      <c r="Y19">
+        <v>107.0122262037903</v>
+      </c>
+      <c r="Z19">
+        <v>376.229696969697</v>
+      </c>
+      <c r="AA19">
+        <v>50</v>
+      </c>
+      <c r="AB19">
+        <v>52</v>
+      </c>
+      <c r="AC19">
+        <v>100</v>
+      </c>
+      <c r="AD19">
+        <v>50</v>
+      </c>
+      <c r="AE19">
+        <v>18</v>
+      </c>
+      <c r="AF19">
+        <v>54</v>
+      </c>
+      <c r="AG19">
         <v>0</v>
       </c>
-      <c r="AH17">
-        <v>826.6141991341991</v>
-      </c>
-      <c r="AI17">
-        <v>171.0000411944971</v>
-      </c>
-      <c r="AJ17" t="s">
-        <v>134</v>
-      </c>
-      <c r="AK17" t="s">
-        <v>63</v>
-      </c>
-      <c r="AL17" t="s">
+      <c r="AH19">
+        <v>634.229696969697</v>
+      </c>
+      <c r="AI19">
+        <v>159.2341694626405</v>
+      </c>
+      <c r="AJ19" t="s">
+        <v>155</v>
+      </c>
+      <c r="AK19" t="s">
+        <v>67</v>
+      </c>
+      <c r="AL19" t="s">
+        <v>156</v>
+      </c>
+      <c r="AM19" t="s">
+        <v>167</v>
+      </c>
+      <c r="AN19" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="20" spans="1:40">
+      <c r="A20" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20" t="s">
+        <v>47</v>
+      </c>
+      <c r="E20" t="s">
+        <v>49</v>
+      </c>
+      <c r="F20" t="s">
+        <v>58</v>
+      </c>
+      <c r="G20" t="s">
+        <v>68</v>
+      </c>
+      <c r="H20" t="s">
+        <v>71</v>
+      </c>
+      <c r="I20" t="s">
+        <v>74</v>
+      </c>
+      <c r="J20">
+        <v>66</v>
+      </c>
+      <c r="K20">
+        <v>858.66</v>
+      </c>
+      <c r="L20">
+        <v>2.247</v>
+      </c>
+      <c r="M20">
+        <v>2</v>
+      </c>
+      <c r="N20" t="s">
+        <v>76</v>
+      </c>
+      <c r="O20" t="s">
+        <v>79</v>
+      </c>
+      <c r="P20" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>95</v>
+      </c>
+      <c r="R20" t="s">
+        <v>101</v>
+      </c>
+      <c r="S20" t="s">
+        <v>106</v>
+      </c>
+      <c r="T20" t="s">
+        <v>118</v>
+      </c>
+      <c r="U20" t="s">
+        <v>131</v>
+      </c>
+      <c r="V20" t="s">
+        <v>145</v>
+      </c>
+      <c r="W20">
+        <v>2</v>
+      </c>
+      <c r="X20">
+        <v>94.45887445887446</v>
+      </c>
+      <c r="Y20">
+        <v>116.7107658696444</v>
+      </c>
+      <c r="Z20">
+        <v>212.2490909090909</v>
+      </c>
+      <c r="AA20">
+        <v>50</v>
+      </c>
+      <c r="AB20">
+        <v>52</v>
+      </c>
+      <c r="AC20">
+        <v>100</v>
+      </c>
+      <c r="AD20">
+        <v>50</v>
+      </c>
+      <c r="AE20">
+        <v>18</v>
+      </c>
+      <c r="AF20">
+        <v>36</v>
+      </c>
+      <c r="AG20">
+        <v>614</v>
+      </c>
+      <c r="AH20">
+        <v>1066.249090909091</v>
+      </c>
+      <c r="AI20">
+        <v>474.5211797548246</v>
+      </c>
+      <c r="AJ20" t="s">
+        <v>155</v>
+      </c>
+      <c r="AK20" t="s">
+        <v>68</v>
+      </c>
+      <c r="AL20" t="s">
+        <v>156</v>
+      </c>
+      <c r="AM20" t="s">
+        <v>167</v>
+      </c>
+      <c r="AN20" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="21" spans="1:40">
+      <c r="A21" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" t="s">
+        <v>47</v>
+      </c>
+      <c r="E21" t="s">
+        <v>49</v>
+      </c>
+      <c r="F21" t="s">
+        <v>59</v>
+      </c>
+      <c r="G21" t="s">
+        <v>69</v>
+      </c>
+      <c r="H21" t="s">
+        <v>72</v>
+      </c>
+      <c r="I21" t="s">
+        <v>74</v>
+      </c>
+      <c r="J21">
+        <v>142</v>
+      </c>
+      <c r="K21">
+        <v>1850.26</v>
+      </c>
+      <c r="L21">
+        <v>4.834</v>
+      </c>
+      <c r="M21">
+        <v>3</v>
+      </c>
+      <c r="N21" t="s">
+        <v>76</v>
+      </c>
+      <c r="O21" t="s">
+        <v>79</v>
+      </c>
+      <c r="P21" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>96</v>
+      </c>
+      <c r="T21" t="s">
+        <v>119</v>
+      </c>
+      <c r="U21" t="s">
+        <v>132</v>
+      </c>
+      <c r="V21" t="s">
         <v>135</v>
       </c>
-      <c r="AM17" t="s">
-        <v>143</v>
-      </c>
-      <c r="AN17" t="s">
-        <v>145</v>
+      <c r="W21">
+        <v>2</v>
+      </c>
+      <c r="X21">
+        <v>94.45887445887446</v>
+      </c>
+      <c r="Y21">
+        <v>104.8022753690937</v>
+      </c>
+      <c r="Z21">
+        <v>456.6141991341991</v>
+      </c>
+      <c r="AA21">
+        <v>50</v>
+      </c>
+      <c r="AB21">
+        <v>52</v>
+      </c>
+      <c r="AC21">
+        <v>100</v>
+      </c>
+      <c r="AD21">
+        <v>50</v>
+      </c>
+      <c r="AE21">
+        <v>18</v>
+      </c>
+      <c r="AF21">
+        <v>54</v>
+      </c>
+      <c r="AG21">
+        <v>0</v>
+      </c>
+      <c r="AH21">
+        <v>714.6141991341991</v>
+      </c>
+      <c r="AI21">
+        <v>147.8308231556059</v>
+      </c>
+      <c r="AJ21" t="s">
+        <v>155</v>
+      </c>
+      <c r="AK21" t="s">
+        <v>69</v>
+      </c>
+      <c r="AL21" t="s">
+        <v>156</v>
+      </c>
+      <c r="AM21" t="s">
+        <v>167</v>
+      </c>
+      <c r="AN21" t="s">
+        <v>170</v>
       </c>
     </row>
   </sheetData>

--- a/Logs/quotations.xlsx
+++ b/Logs/quotations.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="161">
   <si>
     <t>Shipment Scope</t>
   </si>
@@ -136,6 +136,9 @@
     <t>coast</t>
   </si>
   <si>
+    <t>LM Loadability</t>
+  </si>
+  <si>
     <t>Port-to-Door</t>
   </si>
   <si>
@@ -148,6 +151,12 @@
     <t>110020, Okhla Industrial Estate, South East Delhi, Delhi, India</t>
   </si>
   <si>
+    <t>Nhava Sheva, India(INNSA)</t>
+  </si>
+  <si>
+    <t>421601, Thane, Thane, Maharashtra, India</t>
+  </si>
+  <si>
     <t>Nhava Sheva</t>
   </si>
   <si>
@@ -160,6 +169,9 @@
     <t>Charleston</t>
   </si>
   <si>
+    <t>29483</t>
+  </si>
+  <si>
     <t>07201</t>
   </si>
   <si>
@@ -169,28 +181,82 @@
     <t>IUST</t>
   </si>
   <si>
+    <t>IUSL</t>
+  </si>
+  <si>
+    <t>RDU4</t>
+  </si>
+  <si>
+    <t>MQJ1</t>
+  </si>
+  <si>
+    <t>FTW1</t>
+  </si>
+  <si>
+    <t>GYR2</t>
+  </si>
+  <si>
+    <t>GYR3</t>
+  </si>
+  <si>
+    <t>IND9</t>
+  </si>
+  <si>
+    <t>AVP1</t>
+  </si>
+  <si>
+    <t>FWA4</t>
+  </si>
+  <si>
     <t>AGS2</t>
   </si>
   <si>
     <t>TEB9</t>
   </si>
   <si>
-    <t>IUSL</t>
-  </si>
-  <si>
     <t>SCK8 94561, Oakley, Oakley, California, United States</t>
   </si>
   <si>
     <t>IUST 17225, Greencastle, Greencastle, Pennsylvania, United States</t>
   </si>
   <si>
+    <t>IUSL 21901, North East, North East, Maryland, United States</t>
+  </si>
+  <si>
+    <t>RDU4 28303, Terry Sanford, Fayetteville, North Carolina, United States</t>
+  </si>
+  <si>
+    <t>MQJ1 46140, Greenfield, Greenfield, Indiana, United States</t>
+  </si>
+  <si>
+    <t>FTW1 75241, Dallas, Dallas, Texas, United States</t>
+  </si>
+  <si>
+    <t>GYR2 85395, Palm Valley, Goodyear, Arizona, United States</t>
+  </si>
+  <si>
+    <t>GYR3 85043, Estrella Village, Phoenix, Arizona, United States</t>
+  </si>
+  <si>
+    <t>IND9 46143, Greenwood, Greenwood, Indiana, United States</t>
+  </si>
+  <si>
+    <t>AVP1 18202, West Hazleton, West Hazleton, Pennsylvania, United States</t>
+  </si>
+  <si>
+    <t>FWA4 46818, Fort Wayne, Fort Wayne, Indiana, United States</t>
+  </si>
+  <si>
     <t>AGS2 30567, Pendergrass, Pendergrass, Georgia, United States</t>
   </si>
   <si>
     <t>TEB9 08873, Somerset, Franklin Township, New Jersey, United States</t>
   </si>
   <si>
-    <t>IUSL 21901, North East, North East, Maryland, United States</t>
+    <t>30567</t>
+  </si>
+  <si>
+    <t>08873</t>
   </si>
   <si>
     <t>21901</t>
@@ -205,15 +271,30 @@
     <t>HOT</t>
   </si>
   <si>
+    <t>WARM</t>
+  </si>
+  <si>
     <t>COLD</t>
   </si>
   <si>
+    <t>NON HOT</t>
+  </si>
+  <si>
     <t>['Drayage']</t>
   </si>
   <si>
     <t>['FTL']</t>
   </si>
   <si>
+    <t>['FTL', 'FTL53', 'LTL']</t>
+  </si>
+  <si>
+    <t>['FTL53']</t>
+  </si>
+  <si>
+    <t>['FTL', 'FTL53']</t>
+  </si>
+  <si>
     <t>condition3</t>
   </si>
   <si>
@@ -229,127 +310,193 @@
     <t>{'Rate': 460.0, 'Carrier Name': nan, 'Service Provider': 'AmznFrgt'}</t>
   </si>
   <si>
-    <t>{'Rate': 305.01, 'Carrier Name': 'Estes Express Lines', 'Service Provider': 'HeyPrimo'}</t>
-  </si>
-  <si>
-    <t>{'Rate': 97.0, 'Carrier Name': nan, 'Service Provider': 'AmznFrgt'}</t>
-  </si>
-  <si>
-    <t>{'Rate': 232.03, 'Carrier Name': 'Estes Express Lines', 'Service Provider': 'HeyPrimo'}</t>
-  </si>
-  <si>
     <t>{'Rate': 252.68, 'Carrier Name': 'Estes Express Lines', 'Service Provider': 'HeyPrimo'}</t>
   </si>
   <si>
+    <t>{'Rate': 547.81, 'Carrier Name': 'Estes Express Lines', 'Service Provider': 'Ex-Freight'}</t>
+  </si>
+  <si>
+    <t>{'Rate': 1784.96, 'Carrier Name': 'ABF Freight System VL', 'Service Provider': 'HeyPrimo'}</t>
+  </si>
+  <si>
+    <t>{'Rate': 1535.91, 'Carrier Name': 'Estes Express Lines', 'Service Provider': 'Ex-Freight'}</t>
+  </si>
+  <si>
+    <t>{'Rate': 2366.32, 'Carrier Name': 'Estes Express Lines', 'Service Provider': 'Ex-Freight'}</t>
+  </si>
+  <si>
+    <t>{'Rate': 4153.77, 'Carrier Name': 'ABF Freight', 'Service Provider': 'Ex-Freight'}</t>
+  </si>
+  <si>
+    <t>{'Rate': 673.11, 'Carrier Name': 'Estes Express Lines VL', 'Service Provider': 'HeyPrimo'}</t>
+  </si>
+  <si>
+    <t>{'Rate': 180.0, 'Carrier Name': nan, 'Service Provider': 'AmznFrgt'}</t>
+  </si>
+  <si>
+    <t>{'Rate': 609.56, 'Carrier Name': 'Estes Express Lines VL', 'Service Provider': 'HeyPrimo'}</t>
+  </si>
+  <si>
     <t>{'Rate': 1494.0, 'Carrier Name': nan, 'Service Provider': 'JB.Hunt'}</t>
   </si>
   <si>
     <t>{'Rate': 732.0, 'Carrier Name': nan, 'Service Provider': 'JB.Hunt'}</t>
   </si>
   <si>
-    <t>{'Rate': 465.0, 'Carrier Name': nan, 'Service Provider': 'JB.Hunt'}</t>
-  </si>
-  <si>
     <t>{'Rate': 705.0, 'Carrier Name': nan, 'Service Provider': 'JB.Hunt'}</t>
   </si>
   <si>
+    <t>{'Rate': 614.0, 'Carrier Name': nan, 'Service Provider': 'JB.Hunt'}</t>
+  </si>
+  <si>
+    <t>{'Rate': 22.142857142857142, 'Carrier Name': nan, 'Service Provider': 'JB.Hunt'}</t>
+  </si>
+  <si>
     <t>{'Rate': 1426.0, 'Carrier Name': nan, 'Service Provider': 'NTG'}</t>
   </si>
   <si>
     <t>{'Rate': 843.0, 'Carrier Name': nan, 'Service Provider': 'NTG'}</t>
   </si>
   <si>
-    <t>{'Rate': 372.0, 'Carrier Name': nan, 'Service Provider': 'NTG'}</t>
-  </si>
-  <si>
     <t>{'Rate': 645.0, 'Carrier Name': nan, 'Service Provider': 'NTG'}</t>
   </si>
   <si>
+    <t>{'Rate': 615.0, 'Carrier Name': nan, 'Service Provider': 'NTG'}</t>
+  </si>
+  <si>
+    <t>{'Rate': 7.75, 'Carrier Name': nan, 'Service Provider': 'NTG'}</t>
+  </si>
+  <si>
     <t>{'Rate': 1254.82, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt'}</t>
   </si>
   <si>
     <t>{'Rate': 828.36, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt'}</t>
   </si>
   <si>
-    <t>{'Rate': 718.44, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt'}</t>
-  </si>
-  <si>
-    <t>{'Rate': 435.9, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt'}</t>
-  </si>
-  <si>
-    <t>{'Lowest Rate': np.float64(241.21), 'Carrier Name': 'Estes Express Lines'}</t>
-  </si>
-  <si>
     <t>{'Rate': 721.31, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt'}</t>
   </si>
   <si>
+    <t>{'Rate': 929.37, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt'}</t>
+  </si>
+  <si>
+    <t>{'Rate': 1007.06, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt'}</t>
+  </si>
+  <si>
+    <t>{'Rate': 2386.85, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt'}</t>
+  </si>
+  <si>
+    <t>{'Rate': 3438.9, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt'}</t>
+  </si>
+  <si>
+    <t>{'Rate': 3419.82, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt'}</t>
+  </si>
+  <si>
+    <t>{'Rate Type': 'Drayage', 'Rate': 742.31, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt'}</t>
+  </si>
+  <si>
     <t>{'Rate Type': 'LTL', 'Rate': 726.98, 'Carrier Name': 'ABF Density VL', 'Service Provider': 'HeyPrimo'}</t>
   </si>
   <si>
     <t>{'Rate Type': 'LTL', 'Rate': 460.0, 'Carrier Name': nan, 'Service Provider': 'AmznFrgt'}</t>
   </si>
   <si>
-    <t>{'Rate Type': 'LTL', 'Rate': 305.01, 'Carrier Name': 'Estes Express Lines', 'Service Provider': 'HeyPrimo'}</t>
-  </si>
-  <si>
-    <t>{'Rate Type': 'LTL', 'Rate': 97.0, 'Carrier Name': nan, 'Service Provider': 'AmznFrgt'}</t>
-  </si>
-  <si>
-    <t>{'Rate Type': 'LTL', 'Rate': 232.03, 'Carrier Name': 'Estes Express Lines', 'Service Provider': 'HeyPrimo'}</t>
-  </si>
-  <si>
     <t>{'Rate Type': 'LTL', 'Rate': 252.68, 'Carrier Name': 'Estes Express Lines', 'Service Provider': 'HeyPrimo'}</t>
   </si>
   <si>
+    <t>{'Rate Type': 'LTL', 'Rate': 547.81, 'Carrier Name': 'Estes Express Lines', 'Service Provider': 'Ex-Freight'}</t>
+  </si>
+  <si>
+    <t>{'Rate Type': 'Drayage', 'Rate': 1007.06, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt'}</t>
+  </si>
+  <si>
+    <t>{'Rate Type': 'LTL', 'Rate': 1535.91, 'Carrier Name': 'Estes Express Lines', 'Service Provider': 'Ex-Freight'}</t>
+  </si>
+  <si>
+    <t>{'Rate Type': 'LTL', 'Rate': 2366.32, 'Carrier Name': 'Estes Express Lines', 'Service Provider': 'Ex-Freight'}</t>
+  </si>
+  <si>
+    <t>{'Rate Type': 'Drayage', 'Rate': 3419.82, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt'}</t>
+  </si>
+  <si>
+    <t>{'Rate Type': 'LTL', 'Rate': 673.11, 'Carrier Name': 'Estes Express Lines VL', 'Service Provider': 'HeyPrimo'}</t>
+  </si>
+  <si>
+    <t>{'Rate Type': 'LTL', 'Rate': 180.0, 'Carrier Name': nan, 'Service Provider': 'AmznFrgt'}</t>
+  </si>
+  <si>
+    <t>{'Rate Type': 'LTL', 'Rate': 609.56, 'Carrier Name': 'Estes Express Lines VL', 'Service Provider': 'HeyPrimo'}</t>
+  </si>
+  <si>
+    <t>{'Rate Type': 'FTL53', 'Rate': 0.0, 'Carrier Name': '', 'Service Provider': ''}</t>
+  </si>
+  <si>
+    <t>{'Rate Type': 'FTL53', 'Rate': 7.75, 'Carrier Name': nan, 'Service Provider': 'NTG'}</t>
+  </si>
+  <si>
     <t>{'Rate Type': 'Drayage', 'Rate': 1254.82, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt'}</t>
   </si>
   <si>
     <t>{'Rate Type': 'Drayage', 'Rate': 828.36, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt'}</t>
   </si>
   <si>
+    <t>{'Rate Type': 'Drayage', 'Rate': 721.31, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt'}</t>
+  </si>
+  <si>
     <t>{'Rate Type': 'N/A', 'Rate': 0.0, 'Carrier Name': '', 'Service Provider': ''}</t>
   </si>
   <si>
-    <t>{'Rate Type': 'FTL', 'Rate': 465.0, 'Carrier Name': nan, 'Service Provider': 'JB.Hunt'}</t>
-  </si>
-  <si>
-    <t>{'Rate Type': 'FTL', 'Rate': 705.0, 'Carrier Name': nan, 'Service Provider': 'JB.Hunt'}</t>
-  </si>
-  <si>
-    <t>{'Rate Type': 'Drayage', 'Rate': 721.31, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt'}</t>
-  </si>
-  <si>
     <t>CMM0575LCL0025</t>
   </si>
   <si>
     <t>CMM0575LCL0026</t>
   </si>
   <si>
+    <t>CMM0246LCL0040</t>
+  </si>
+  <si>
+    <t>CMM0246LCL0044</t>
+  </si>
+  <si>
+    <t>CMM0804LCL0053</t>
+  </si>
+  <si>
     <t>CMM0246LCL0039</t>
   </si>
   <si>
-    <t>CMM0246LCL0040</t>
-  </si>
-  <si>
     <t>Own Console</t>
   </si>
   <si>
+    <t>Coload</t>
+  </si>
+  <si>
     <t>2025-08-06 18:59:42</t>
   </si>
   <si>
     <t>2025-08-07 10:23:16</t>
   </si>
   <si>
-    <t>2025-08-08 13:11:36</t>
-  </si>
-  <si>
     <t>2025-08-08 13:18:43</t>
   </si>
   <si>
+    <t>2025-08-08 16:19:50</t>
+  </si>
+  <si>
+    <t>2025-08-09 14:54:53</t>
+  </si>
+  <si>
+    <t>2025-08-09 15:52:42</t>
+  </si>
+  <si>
+    <t>NORTH</t>
+  </si>
+  <si>
+    <t>WEST</t>
+  </si>
+  <si>
+    <t>EAST</t>
+  </si>
+  <si>
     <t>SOUTH</t>
-  </si>
-  <si>
-    <t>NORTH</t>
   </si>
 </sst>
 </file>
@@ -707,13 +854,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN7"/>
+  <dimension ref="A1:AO15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:41">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -834,34 +981,37 @@
       <c r="AN1" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AO1" s="1" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="2" spans="1:40">
+    <row r="2" spans="1:41">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E2">
         <v>90220</v>
       </c>
       <c r="F2" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="G2" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="H2">
         <v>94561</v>
       </c>
       <c r="I2" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="J2">
         <v>77</v>
@@ -876,31 +1026,31 @@
         <v>3</v>
       </c>
       <c r="N2" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="O2" t="s">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>66</v>
+        <v>93</v>
       </c>
       <c r="Q2" t="s">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="R2" t="s">
-        <v>75</v>
+        <v>107</v>
       </c>
       <c r="S2" t="s">
-        <v>79</v>
+        <v>112</v>
       </c>
       <c r="T2" t="s">
-        <v>83</v>
+        <v>117</v>
       </c>
       <c r="U2" t="s">
-        <v>89</v>
+        <v>126</v>
       </c>
       <c r="V2" t="s">
-        <v>95</v>
+        <v>139</v>
       </c>
       <c r="W2">
         <v>0</v>
@@ -942,45 +1092,45 @@
         <v>355.1759782107375</v>
       </c>
       <c r="AJ2" t="s">
-        <v>101</v>
+        <v>143</v>
       </c>
       <c r="AK2" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="AL2" t="s">
-        <v>105</v>
+        <v>149</v>
       </c>
       <c r="AM2" t="s">
-        <v>106</v>
+        <v>151</v>
       </c>
     </row>
-    <row r="3" spans="1:40">
+    <row r="3" spans="1:41">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C3" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D3" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E3">
         <v>7201</v>
       </c>
       <c r="F3" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="G3" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="H3">
         <v>17225</v>
       </c>
       <c r="I3" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="J3">
         <v>112</v>
@@ -995,31 +1145,31 @@
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="O3" t="s">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="P3" t="s">
-        <v>67</v>
+        <v>94</v>
       </c>
       <c r="Q3" t="s">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="R3" t="s">
-        <v>76</v>
+        <v>108</v>
       </c>
       <c r="S3" t="s">
-        <v>80</v>
+        <v>113</v>
       </c>
       <c r="T3" t="s">
-        <v>84</v>
+        <v>118</v>
       </c>
       <c r="U3" t="s">
-        <v>90</v>
+        <v>127</v>
       </c>
       <c r="V3" t="s">
-        <v>96</v>
+        <v>140</v>
       </c>
       <c r="W3">
         <v>0</v>
@@ -1061,90 +1211,96 @@
         <v>195.302132027686</v>
       </c>
       <c r="AJ3" t="s">
-        <v>102</v>
+        <v>144</v>
       </c>
       <c r="AK3" t="s">
+        <v>67</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>149</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="4" spans="1:41">
+      <c r="A4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4">
+        <v>7201</v>
+      </c>
+      <c r="F4" t="s">
         <v>55</v>
       </c>
-      <c r="AL3" t="s">
-        <v>105</v>
-      </c>
-      <c r="AM3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E4">
-        <v>29483</v>
-      </c>
-      <c r="F4" t="s">
-        <v>51</v>
-      </c>
       <c r="G4" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="H4">
-        <v>30567</v>
+        <v>21901</v>
       </c>
       <c r="I4" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="J4">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="K4">
-        <v>2000</v>
+        <v>1590.904</v>
       </c>
       <c r="L4">
-        <v>0.576</v>
+        <v>2.871</v>
       </c>
       <c r="M4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N4" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="O4" t="s">
-        <v>65</v>
+        <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>68</v>
+        <v>94</v>
       </c>
       <c r="Q4" t="s">
-        <v>71</v>
+        <v>98</v>
+      </c>
+      <c r="R4" t="s">
+        <v>109</v>
+      </c>
+      <c r="S4" t="s">
+        <v>114</v>
       </c>
       <c r="T4" t="s">
-        <v>85</v>
+        <v>119</v>
       </c>
       <c r="U4" t="s">
-        <v>91</v>
+        <v>128</v>
       </c>
       <c r="V4" t="s">
-        <v>97</v>
+        <v>141</v>
       </c>
       <c r="W4">
         <v>100</v>
       </c>
       <c r="X4">
-        <v>90.82251082251082</v>
+        <v>61.2396694214876</v>
       </c>
       <c r="Y4">
-        <v>177.6280663780664</v>
+        <v>78.65520407840157</v>
       </c>
       <c r="Z4">
-        <v>52.31376623376623</v>
+        <v>175.8190909090909</v>
       </c>
       <c r="AA4">
         <v>50</v>
@@ -1162,111 +1318,105 @@
         <v>18</v>
       </c>
       <c r="AF4">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="AG4">
-        <v>0</v>
+        <v>721.3099999999999</v>
       </c>
       <c r="AH4">
-        <v>372.3137662337662</v>
+        <v>1235.129090909091</v>
       </c>
       <c r="AI4">
-        <v>646.3780663780664</v>
+        <v>430.2086697697982</v>
       </c>
       <c r="AJ4" t="s">
-        <v>103</v>
+        <v>145</v>
       </c>
       <c r="AK4" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="AL4" t="s">
-        <v>105</v>
+        <v>149</v>
       </c>
       <c r="AM4" t="s">
-        <v>108</v>
+        <v>153</v>
       </c>
       <c r="AN4" t="s">
-        <v>110</v>
+        <v>157</v>
       </c>
     </row>
-    <row r="5" spans="1:40">
+    <row r="5" spans="1:41">
       <c r="A5" t="s">
         <v>41</v>
       </c>
       <c r="B5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C5" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D5" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E5">
-        <v>7201</v>
+        <v>29483</v>
       </c>
       <c r="F5" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="G5" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="H5">
-        <v>8873</v>
+        <v>28303</v>
       </c>
       <c r="I5" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="J5">
-        <v>9</v>
+        <v>288</v>
       </c>
       <c r="K5">
-        <v>660</v>
+        <v>2592</v>
       </c>
       <c r="L5">
-        <v>0.643</v>
+        <v>9.02</v>
       </c>
       <c r="M5">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="N5" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="O5" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>68</v>
+        <v>95</v>
       </c>
       <c r="Q5" t="s">
-        <v>72</v>
-      </c>
-      <c r="R5" t="s">
-        <v>77</v>
-      </c>
-      <c r="S5" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="T5" t="s">
-        <v>86</v>
+        <v>120</v>
       </c>
       <c r="U5" t="s">
-        <v>92</v>
+        <v>129</v>
       </c>
       <c r="V5" t="s">
-        <v>98</v>
+        <v>142</v>
       </c>
       <c r="W5">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>94.45887445887446</v>
+        <v>90.82251082251082</v>
       </c>
       <c r="Y5">
-        <v>172.2193721260595</v>
+        <v>96.36574807306515</v>
       </c>
       <c r="Z5">
-        <v>60.73705627705628</v>
+        <v>819.2190476190476</v>
       </c>
       <c r="AA5">
         <v>50</v>
@@ -1284,111 +1434,105 @@
         <v>18</v>
       </c>
       <c r="AF5">
-        <v>18</v>
+        <v>108</v>
       </c>
       <c r="AG5">
-        <v>465</v>
+        <v>0</v>
       </c>
       <c r="AH5">
-        <v>845.7370562770562</v>
+        <v>1129.219047619048</v>
       </c>
       <c r="AI5">
-        <v>1315.29868783368</v>
+        <v>125.1905817759476</v>
       </c>
       <c r="AJ5" t="s">
-        <v>103</v>
+        <v>146</v>
       </c>
       <c r="AK5" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="AL5" t="s">
-        <v>105</v>
+        <v>149</v>
       </c>
       <c r="AM5" t="s">
-        <v>108</v>
+        <v>154</v>
       </c>
       <c r="AN5" t="s">
-        <v>111</v>
+        <v>158</v>
       </c>
     </row>
-    <row r="6" spans="1:40">
+    <row r="6" spans="1:41">
       <c r="A6" t="s">
         <v>41</v>
       </c>
       <c r="B6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C6" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D6" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E6">
         <v>7201</v>
       </c>
       <c r="F6" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="G6" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="H6">
-        <v>21901</v>
+        <v>46140</v>
       </c>
       <c r="I6" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="J6">
+        <v>518</v>
+      </c>
+      <c r="K6">
+        <v>518</v>
+      </c>
+      <c r="L6">
+        <v>16.224</v>
+      </c>
+      <c r="M6">
         <v>10</v>
       </c>
-      <c r="K6">
-        <v>1000</v>
-      </c>
-      <c r="L6">
-        <v>1.382</v>
-      </c>
-      <c r="M6">
-        <v>1</v>
-      </c>
       <c r="N6" t="s">
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="O6" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>68</v>
+        <v>95</v>
       </c>
       <c r="Q6" t="s">
-        <v>73</v>
-      </c>
-      <c r="R6" t="s">
-        <v>78</v>
-      </c>
-      <c r="S6" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="T6" t="s">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="U6" t="s">
-        <v>93</v>
+        <v>130</v>
       </c>
       <c r="V6" t="s">
-        <v>99</v>
+        <v>142</v>
       </c>
       <c r="W6">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X6">
         <v>94.45887445887446</v>
       </c>
       <c r="Y6">
-        <v>130.6383245312334</v>
+        <v>97.54072850226697</v>
       </c>
       <c r="Z6">
-        <v>130.5421645021645</v>
+        <v>1532.500779220779</v>
       </c>
       <c r="AA6">
         <v>50</v>
@@ -1406,111 +1550,105 @@
         <v>18</v>
       </c>
       <c r="AF6">
-        <v>18</v>
+        <v>180</v>
       </c>
       <c r="AG6">
-        <v>705</v>
+        <v>0</v>
       </c>
       <c r="AH6">
-        <v>1155.542164502164</v>
+        <v>1914.500779220779</v>
       </c>
       <c r="AI6">
-        <v>836.137600942232</v>
+        <v>118.0042393503932</v>
       </c>
       <c r="AJ6" t="s">
-        <v>103</v>
+        <v>146</v>
       </c>
       <c r="AK6" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="AL6" t="s">
-        <v>105</v>
+        <v>149</v>
       </c>
       <c r="AM6" t="s">
-        <v>108</v>
+        <v>154</v>
       </c>
       <c r="AN6" t="s">
-        <v>111</v>
+        <v>159</v>
       </c>
     </row>
-    <row r="7" spans="1:40">
+    <row r="7" spans="1:41">
       <c r="A7" t="s">
         <v>41</v>
       </c>
       <c r="B7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C7" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E7" t="s">
-        <v>48</v>
+        <v>49</v>
+      </c>
+      <c r="E7">
+        <v>7201</v>
       </c>
       <c r="F7" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="G7" t="s">
-        <v>58</v>
-      </c>
-      <c r="H7" t="s">
-        <v>59</v>
+        <v>71</v>
+      </c>
+      <c r="H7">
+        <v>75241</v>
       </c>
       <c r="I7" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="J7">
-        <v>7</v>
+        <v>461</v>
       </c>
       <c r="K7">
-        <v>1590.904</v>
+        <v>461</v>
       </c>
       <c r="L7">
-        <v>2.871</v>
+        <v>14.439</v>
       </c>
       <c r="M7">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="N7" t="s">
-        <v>62</v>
+        <v>86</v>
       </c>
       <c r="O7" t="s">
-        <v>64</v>
+        <v>89</v>
       </c>
       <c r="P7" t="s">
-        <v>67</v>
+        <v>95</v>
       </c>
       <c r="Q7" t="s">
-        <v>74</v>
-      </c>
-      <c r="R7" t="s">
-        <v>78</v>
-      </c>
-      <c r="S7" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="T7" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="U7" t="s">
-        <v>94</v>
+        <v>131</v>
       </c>
       <c r="V7" t="s">
-        <v>100</v>
+        <v>142</v>
       </c>
       <c r="W7">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X7">
-        <v>61.2396694214876</v>
+        <v>94.45887445887446</v>
       </c>
       <c r="Y7">
-        <v>78.65520407840157</v>
+        <v>97.92171814611042</v>
       </c>
       <c r="Z7">
-        <v>175.8190909090909</v>
+        <v>1363.891688311688</v>
       </c>
       <c r="AA7">
         <v>50</v>
@@ -1528,31 +1666,947 @@
         <v>18</v>
       </c>
       <c r="AF7">
+        <v>162</v>
+      </c>
+      <c r="AG7">
+        <v>0</v>
+      </c>
+      <c r="AH7">
+        <v>1727.891688311688</v>
+      </c>
+      <c r="AI7">
+        <v>119.6683765019522</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>146</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>71</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>149</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>154</v>
+      </c>
+      <c r="AN7" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="8" spans="1:41">
+      <c r="A8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8">
+        <v>7201</v>
+      </c>
+      <c r="F8" t="s">
+        <v>59</v>
+      </c>
+      <c r="G8" t="s">
+        <v>72</v>
+      </c>
+      <c r="H8">
+        <v>85395</v>
+      </c>
+      <c r="I8" t="s">
+        <v>83</v>
+      </c>
+      <c r="J8">
+        <v>461</v>
+      </c>
+      <c r="K8">
+        <v>461</v>
+      </c>
+      <c r="L8">
+        <v>14.439</v>
+      </c>
+      <c r="M8">
+        <v>9</v>
+      </c>
+      <c r="N8" t="s">
+        <v>86</v>
+      </c>
+      <c r="O8" t="s">
+        <v>89</v>
+      </c>
+      <c r="P8" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>102</v>
+      </c>
+      <c r="T8" t="s">
+        <v>123</v>
+      </c>
+      <c r="U8" t="s">
+        <v>132</v>
+      </c>
+      <c r="V8" t="s">
+        <v>142</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>94.45887445887446</v>
+      </c>
+      <c r="Y8">
+        <v>97.92171814611042</v>
+      </c>
+      <c r="Z8">
+        <v>1363.891688311688</v>
+      </c>
+      <c r="AA8">
+        <v>50</v>
+      </c>
+      <c r="AB8">
+        <v>52</v>
+      </c>
+      <c r="AC8">
+        <v>100</v>
+      </c>
+      <c r="AD8">
+        <v>50</v>
+      </c>
+      <c r="AE8">
+        <v>18</v>
+      </c>
+      <c r="AF8">
+        <v>162</v>
+      </c>
+      <c r="AG8">
+        <v>0</v>
+      </c>
+      <c r="AH8">
+        <v>1727.891688311688</v>
+      </c>
+      <c r="AI8">
+        <v>119.6683765019522</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>146</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>149</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>154</v>
+      </c>
+      <c r="AN8" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="9" spans="1:41">
+      <c r="A9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9">
+        <v>7201</v>
+      </c>
+      <c r="F9" t="s">
+        <v>60</v>
+      </c>
+      <c r="G9" t="s">
+        <v>73</v>
+      </c>
+      <c r="H9">
+        <v>85043</v>
+      </c>
+      <c r="I9" t="s">
+        <v>83</v>
+      </c>
+      <c r="J9">
+        <v>576</v>
+      </c>
+      <c r="K9">
+        <v>576</v>
+      </c>
+      <c r="L9">
+        <v>18.04</v>
+      </c>
+      <c r="M9">
+        <v>11</v>
+      </c>
+      <c r="N9" t="s">
+        <v>85</v>
+      </c>
+      <c r="O9" t="s">
+        <v>89</v>
+      </c>
+      <c r="P9" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>103</v>
+      </c>
+      <c r="T9" t="s">
+        <v>124</v>
+      </c>
+      <c r="U9" t="s">
+        <v>133</v>
+      </c>
+      <c r="V9" t="s">
+        <v>142</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <v>94.45887445887446</v>
+      </c>
+      <c r="Y9">
+        <v>97.23049308415162</v>
+      </c>
+      <c r="Z9">
+        <v>1704.038095238095</v>
+      </c>
+      <c r="AA9">
+        <v>50</v>
+      </c>
+      <c r="AB9">
+        <v>52</v>
+      </c>
+      <c r="AC9">
+        <v>100</v>
+      </c>
+      <c r="AD9">
+        <v>50</v>
+      </c>
+      <c r="AE9">
+        <v>18</v>
+      </c>
+      <c r="AF9">
+        <v>198</v>
+      </c>
+      <c r="AG9">
+        <v>0</v>
+      </c>
+      <c r="AH9">
+        <v>2104.038095238095</v>
+      </c>
+      <c r="AI9">
+        <v>116.6318234610918</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>146</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL9" t="s">
+        <v>149</v>
+      </c>
+      <c r="AM9" t="s">
+        <v>154</v>
+      </c>
+      <c r="AN9" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="10" spans="1:41">
+      <c r="A10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10">
+        <v>7201</v>
+      </c>
+      <c r="F10" t="s">
+        <v>61</v>
+      </c>
+      <c r="G10" t="s">
+        <v>74</v>
+      </c>
+      <c r="H10">
+        <v>46143</v>
+      </c>
+      <c r="I10" t="s">
+        <v>83</v>
+      </c>
+      <c r="J10">
+        <v>117</v>
+      </c>
+      <c r="K10">
+        <v>1525.68</v>
+      </c>
+      <c r="L10">
+        <v>3.983</v>
+      </c>
+      <c r="M10">
+        <v>3</v>
+      </c>
+      <c r="N10" t="s">
+        <v>87</v>
+      </c>
+      <c r="O10" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>104</v>
+      </c>
+      <c r="U10" t="s">
+        <v>134</v>
+      </c>
+      <c r="V10" t="s">
+        <v>134</v>
+      </c>
+      <c r="W10">
+        <v>100</v>
+      </c>
+      <c r="X10">
+        <v>94.45887445887446</v>
+      </c>
+      <c r="Y10">
+        <v>107.0122262037903</v>
+      </c>
+      <c r="Z10">
+        <v>376.229696969697</v>
+      </c>
+      <c r="AA10">
+        <v>50</v>
+      </c>
+      <c r="AB10">
+        <v>52</v>
+      </c>
+      <c r="AC10">
+        <v>100</v>
+      </c>
+      <c r="AD10">
+        <v>50</v>
+      </c>
+      <c r="AE10">
+        <v>18</v>
+      </c>
+      <c r="AF10">
+        <v>54</v>
+      </c>
+      <c r="AG10">
+        <v>673.11</v>
+      </c>
+      <c r="AH10">
+        <v>1405.339696969697</v>
+      </c>
+      <c r="AI10">
+        <v>352.8344707430823</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>147</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>149</v>
+      </c>
+      <c r="AM10" t="s">
+        <v>155</v>
+      </c>
+      <c r="AN10" t="s">
+        <v>160</v>
+      </c>
+      <c r="AO10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:41">
+      <c r="A11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11">
+        <v>7201</v>
+      </c>
+      <c r="F11" t="s">
+        <v>62</v>
+      </c>
+      <c r="G11" t="s">
+        <v>75</v>
+      </c>
+      <c r="H11">
+        <v>18202</v>
+      </c>
+      <c r="I11" t="s">
+        <v>83</v>
+      </c>
+      <c r="J11">
+        <v>66</v>
+      </c>
+      <c r="K11">
+        <v>858.66</v>
+      </c>
+      <c r="L11">
+        <v>2.247</v>
+      </c>
+      <c r="M11">
+        <v>2</v>
+      </c>
+      <c r="N11" t="s">
+        <v>87</v>
+      </c>
+      <c r="O11" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>105</v>
+      </c>
+      <c r="R11" t="s">
+        <v>110</v>
+      </c>
+      <c r="S11" t="s">
+        <v>115</v>
+      </c>
+      <c r="U11" t="s">
+        <v>135</v>
+      </c>
+      <c r="V11" t="s">
+        <v>135</v>
+      </c>
+      <c r="W11">
+        <v>100</v>
+      </c>
+      <c r="X11">
+        <v>94.45887445887446</v>
+      </c>
+      <c r="Y11">
+        <v>116.7107658696444</v>
+      </c>
+      <c r="Z11">
+        <v>212.2490909090909</v>
+      </c>
+      <c r="AA11">
+        <v>50</v>
+      </c>
+      <c r="AB11">
+        <v>52</v>
+      </c>
+      <c r="AC11">
+        <v>100</v>
+      </c>
+      <c r="AD11">
+        <v>50</v>
+      </c>
+      <c r="AE11">
+        <v>18</v>
+      </c>
+      <c r="AF11">
         <v>36</v>
       </c>
-      <c r="AG7">
-        <v>721.3099999999999</v>
-      </c>
-      <c r="AH7">
-        <v>1235.129090909091</v>
-      </c>
-      <c r="AI7">
-        <v>430.2086697697982</v>
-      </c>
-      <c r="AJ7" t="s">
-        <v>104</v>
-      </c>
-      <c r="AK7" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL7" t="s">
-        <v>105</v>
-      </c>
-      <c r="AM7" t="s">
-        <v>109</v>
-      </c>
-      <c r="AN7" t="s">
+      <c r="AG11">
+        <v>180</v>
+      </c>
+      <c r="AH11">
+        <v>730.2490909090909</v>
+      </c>
+      <c r="AI11">
+        <v>324.9884694744508</v>
+      </c>
+      <c r="AJ11" t="s">
+        <v>147</v>
+      </c>
+      <c r="AK11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>149</v>
+      </c>
+      <c r="AM11" t="s">
+        <v>155</v>
+      </c>
+      <c r="AN11" t="s">
+        <v>160</v>
+      </c>
+      <c r="AO11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:41">
+      <c r="A12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12">
+        <v>7201</v>
+      </c>
+      <c r="F12" t="s">
+        <v>63</v>
+      </c>
+      <c r="G12" t="s">
+        <v>76</v>
+      </c>
+      <c r="H12">
+        <v>46809</v>
+      </c>
+      <c r="I12" t="s">
+        <v>83</v>
+      </c>
+      <c r="J12">
+        <v>142</v>
+      </c>
+      <c r="K12">
+        <v>1850.26</v>
+      </c>
+      <c r="L12">
+        <v>4.834</v>
+      </c>
+      <c r="M12">
+        <v>3</v>
+      </c>
+      <c r="N12" t="s">
+        <v>87</v>
+      </c>
+      <c r="O12" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>106</v>
+      </c>
+      <c r="U12" t="s">
+        <v>136</v>
+      </c>
+      <c r="V12" t="s">
+        <v>136</v>
+      </c>
+      <c r="W12">
+        <v>100</v>
+      </c>
+      <c r="X12">
+        <v>94.45887445887446</v>
+      </c>
+      <c r="Y12">
+        <v>104.8022753690937</v>
+      </c>
+      <c r="Z12">
+        <v>456.6141991341991</v>
+      </c>
+      <c r="AA12">
+        <v>50</v>
+      </c>
+      <c r="AB12">
+        <v>52</v>
+      </c>
+      <c r="AC12">
+        <v>100</v>
+      </c>
+      <c r="AD12">
+        <v>50</v>
+      </c>
+      <c r="AE12">
+        <v>18</v>
+      </c>
+      <c r="AF12">
+        <v>54</v>
+      </c>
+      <c r="AG12">
+        <v>609.5599999999999</v>
+      </c>
+      <c r="AH12">
+        <v>1422.174199134199</v>
+      </c>
+      <c r="AI12">
+        <v>294.2023581163011</v>
+      </c>
+      <c r="AJ12" t="s">
+        <v>147</v>
+      </c>
+      <c r="AK12" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL12" t="s">
+        <v>149</v>
+      </c>
+      <c r="AM12" t="s">
+        <v>155</v>
+      </c>
+      <c r="AN12" t="s">
+        <v>158</v>
+      </c>
+      <c r="AO12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:41">
+      <c r="A13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" t="s">
+        <v>64</v>
+      </c>
+      <c r="G13" t="s">
+        <v>77</v>
+      </c>
+      <c r="H13" t="s">
+        <v>79</v>
+      </c>
+      <c r="I13" t="s">
+        <v>83</v>
+      </c>
+      <c r="J13">
+        <v>10</v>
+      </c>
+      <c r="K13">
+        <v>2000</v>
+      </c>
+      <c r="L13">
+        <v>0.576</v>
+      </c>
+      <c r="M13">
+        <v>1</v>
+      </c>
+      <c r="N13" t="s">
+        <v>87</v>
+      </c>
+      <c r="O13" t="s">
+        <v>91</v>
+      </c>
+      <c r="U13" t="s">
+        <v>137</v>
+      </c>
+      <c r="V13" t="s">
+        <v>137</v>
+      </c>
+      <c r="W13">
+        <v>100</v>
+      </c>
+      <c r="X13">
+        <v>90.5</v>
+      </c>
+      <c r="Y13">
+        <v>177.3055555555555</v>
+      </c>
+      <c r="Z13">
+        <v>52.12799999999999</v>
+      </c>
+      <c r="AA13">
+        <v>50</v>
+      </c>
+      <c r="AB13">
+        <v>52</v>
+      </c>
+      <c r="AC13">
+        <v>100</v>
+      </c>
+      <c r="AD13">
+        <v>50</v>
+      </c>
+      <c r="AE13">
+        <v>18</v>
+      </c>
+      <c r="AF13">
+        <v>18</v>
+      </c>
+      <c r="AG13">
+        <v>0</v>
+      </c>
+      <c r="AH13">
+        <v>372.128</v>
+      </c>
+      <c r="AI13">
+        <v>646.0555555555555</v>
+      </c>
+      <c r="AJ13" t="s">
+        <v>148</v>
+      </c>
+      <c r="AK13" t="s">
+        <v>77</v>
+      </c>
+      <c r="AL13" t="s">
+        <v>150</v>
+      </c>
+      <c r="AM13" t="s">
+        <v>156</v>
+      </c>
+      <c r="AN13" t="s">
+        <v>160</v>
+      </c>
+      <c r="AO13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:41">
+      <c r="A14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" t="s">
+        <v>52</v>
+      </c>
+      <c r="F14" t="s">
+        <v>65</v>
+      </c>
+      <c r="G14" t="s">
+        <v>78</v>
+      </c>
+      <c r="H14" t="s">
+        <v>80</v>
+      </c>
+      <c r="I14" t="s">
+        <v>83</v>
+      </c>
+      <c r="J14">
+        <v>9</v>
+      </c>
+      <c r="K14">
+        <v>660</v>
+      </c>
+      <c r="L14">
+        <v>0.643</v>
+      </c>
+      <c r="M14">
+        <v>1</v>
+      </c>
+      <c r="N14" t="s">
+        <v>87</v>
+      </c>
+      <c r="O14" t="s">
+        <v>92</v>
+      </c>
+      <c r="R14" t="s">
         <v>111</v>
+      </c>
+      <c r="S14" t="s">
+        <v>116</v>
+      </c>
+      <c r="U14" t="s">
+        <v>138</v>
+      </c>
+      <c r="V14" t="s">
+        <v>138</v>
+      </c>
+      <c r="W14">
+        <v>100</v>
+      </c>
+      <c r="X14">
+        <v>70.84999999999999</v>
+      </c>
+      <c r="Y14">
+        <v>148.6104976671851</v>
+      </c>
+      <c r="Z14">
+        <v>45.55654999999999</v>
+      </c>
+      <c r="AA14">
+        <v>50</v>
+      </c>
+      <c r="AB14">
+        <v>52</v>
+      </c>
+      <c r="AC14">
+        <v>100</v>
+      </c>
+      <c r="AD14">
+        <v>50</v>
+      </c>
+      <c r="AE14">
+        <v>18</v>
+      </c>
+      <c r="AF14">
+        <v>18</v>
+      </c>
+      <c r="AG14">
+        <v>7.75</v>
+      </c>
+      <c r="AH14">
+        <v>373.30655</v>
+      </c>
+      <c r="AI14">
+        <v>580.5700622083981</v>
+      </c>
+      <c r="AJ14" t="s">
+        <v>148</v>
+      </c>
+      <c r="AK14" t="s">
+        <v>78</v>
+      </c>
+      <c r="AL14" t="s">
+        <v>150</v>
+      </c>
+      <c r="AM14" t="s">
+        <v>156</v>
+      </c>
+      <c r="AN14" t="s">
+        <v>157</v>
+      </c>
+      <c r="AO14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:41">
+      <c r="A15" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" t="s">
+        <v>52</v>
+      </c>
+      <c r="F15" t="s">
+        <v>55</v>
+      </c>
+      <c r="G15" t="s">
+        <v>68</v>
+      </c>
+      <c r="H15" t="s">
+        <v>81</v>
+      </c>
+      <c r="I15" t="s">
+        <v>83</v>
+      </c>
+      <c r="J15">
+        <v>10</v>
+      </c>
+      <c r="K15">
+        <v>1000</v>
+      </c>
+      <c r="L15">
+        <v>1.382</v>
+      </c>
+      <c r="M15">
+        <v>1</v>
+      </c>
+      <c r="N15" t="s">
+        <v>84</v>
+      </c>
+      <c r="O15" t="s">
+        <v>88</v>
+      </c>
+      <c r="T15" t="s">
+        <v>125</v>
+      </c>
+      <c r="U15" t="s">
+        <v>125</v>
+      </c>
+      <c r="V15" t="s">
+        <v>125</v>
+      </c>
+      <c r="W15">
+        <v>100</v>
+      </c>
+      <c r="X15">
+        <v>70.84999999999999</v>
+      </c>
+      <c r="Y15">
+        <v>107.0294500723589</v>
+      </c>
+      <c r="Z15">
+        <v>97.91469999999998</v>
+      </c>
+      <c r="AA15">
+        <v>50</v>
+      </c>
+      <c r="AB15">
+        <v>52</v>
+      </c>
+      <c r="AC15">
+        <v>100</v>
+      </c>
+      <c r="AD15">
+        <v>50</v>
+      </c>
+      <c r="AE15">
+        <v>18</v>
+      </c>
+      <c r="AF15">
+        <v>18</v>
+      </c>
+      <c r="AG15">
+        <v>742.3099999999999</v>
+      </c>
+      <c r="AH15">
+        <v>1160.2247</v>
+      </c>
+      <c r="AI15">
+        <v>839.5258321273517</v>
+      </c>
+      <c r="AJ15" t="s">
+        <v>148</v>
+      </c>
+      <c r="AK15" t="s">
+        <v>68</v>
+      </c>
+      <c r="AL15" t="s">
+        <v>150</v>
+      </c>
+      <c r="AM15" t="s">
+        <v>156</v>
+      </c>
+      <c r="AN15" t="s">
+        <v>157</v>
+      </c>
+      <c r="AO15">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/Logs/quotations.xlsx
+++ b/Logs/quotations.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="160">
   <si>
     <t>Shipment Scope</t>
   </si>
@@ -364,7 +364,7 @@
     <t>{'Rate': 615.0, 'Carrier Name': nan, 'Service Provider': 'NTG'}</t>
   </si>
   <si>
-    <t>{'Rate': 7.75, 'Carrier Name': nan, 'Service Provider': 'NTG'}</t>
+    <t>{'Rate': 17.714285714285715, 'Carrier Name': nan, 'Service Provider': 'NTG'}</t>
   </si>
   <si>
     <t>{'Rate': 1254.82, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt'}</t>
@@ -430,7 +430,7 @@
     <t>{'Rate Type': 'FTL53', 'Rate': 0.0, 'Carrier Name': '', 'Service Provider': ''}</t>
   </si>
   <si>
-    <t>{'Rate Type': 'FTL53', 'Rate': 7.75, 'Carrier Name': nan, 'Service Provider': 'NTG'}</t>
+    <t>{'Rate Type': 'FTL53', 'Rate': 17.714285714285715, 'Carrier Name': nan, 'Service Provider': 'NTG'}</t>
   </si>
   <si>
     <t>{'Rate Type': 'Drayage', 'Rate': 1254.82, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt'}</t>
@@ -466,9 +466,6 @@
     <t>Own Console</t>
   </si>
   <si>
-    <t>Coload</t>
-  </si>
-  <si>
     <t>2025-08-06 18:59:42</t>
   </si>
   <si>
@@ -484,7 +481,7 @@
     <t>2025-08-09 14:54:53</t>
   </si>
   <si>
-    <t>2025-08-09 15:52:42</t>
+    <t>2025-08-09 16:23:40</t>
   </si>
   <si>
     <t>NORTH</t>
@@ -1101,7 +1098,7 @@
         <v>149</v>
       </c>
       <c r="AM2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:41">
@@ -1220,7 +1217,7 @@
         <v>149</v>
       </c>
       <c r="AM3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4" spans="1:41">
@@ -1339,10 +1336,10 @@
         <v>149</v>
       </c>
       <c r="AM4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AN4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:41">
@@ -1455,10 +1452,10 @@
         <v>149</v>
       </c>
       <c r="AM5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AN5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="6" spans="1:41">
@@ -1571,10 +1568,10 @@
         <v>149</v>
       </c>
       <c r="AM6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AN6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="7" spans="1:41">
@@ -1687,10 +1684,10 @@
         <v>149</v>
       </c>
       <c r="AM7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AN7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="8" spans="1:41">
@@ -1803,10 +1800,10 @@
         <v>149</v>
       </c>
       <c r="AM8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AN8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="9" spans="1:41">
@@ -1919,10 +1916,10 @@
         <v>149</v>
       </c>
       <c r="AM9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AN9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="10" spans="1:41">
@@ -2029,10 +2026,10 @@
         <v>149</v>
       </c>
       <c r="AM10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AN10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AO10">
         <v>0</v>
@@ -2148,10 +2145,10 @@
         <v>149</v>
       </c>
       <c r="AM11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AN11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AO11">
         <v>0</v>
@@ -2261,10 +2258,10 @@
         <v>149</v>
       </c>
       <c r="AM12" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AN12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AO12">
         <v>0</v>
@@ -2326,13 +2323,13 @@
         <v>100</v>
       </c>
       <c r="X13">
-        <v>90.5</v>
+        <v>90.82251082251082</v>
       </c>
       <c r="Y13">
-        <v>177.3055555555555</v>
+        <v>177.6280663780664</v>
       </c>
       <c r="Z13">
-        <v>52.12799999999999</v>
+        <v>52.31376623376623</v>
       </c>
       <c r="AA13">
         <v>50</v>
@@ -2356,10 +2353,10 @@
         <v>0</v>
       </c>
       <c r="AH13">
-        <v>372.128</v>
+        <v>372.3137662337662</v>
       </c>
       <c r="AI13">
-        <v>646.0555555555555</v>
+        <v>646.3780663780664</v>
       </c>
       <c r="AJ13" t="s">
         <v>148</v>
@@ -2368,13 +2365,13 @@
         <v>77</v>
       </c>
       <c r="AL13" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AM13" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AN13" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AO13">
         <v>0</v>
@@ -2442,13 +2439,13 @@
         <v>100</v>
       </c>
       <c r="X14">
-        <v>70.84999999999999</v>
+        <v>94.45887445887446</v>
       </c>
       <c r="Y14">
-        <v>148.6104976671851</v>
+        <v>172.2193721260595</v>
       </c>
       <c r="Z14">
-        <v>45.55654999999999</v>
+        <v>60.73705627705628</v>
       </c>
       <c r="AA14">
         <v>50</v>
@@ -2469,13 +2466,13 @@
         <v>18</v>
       </c>
       <c r="AG14">
-        <v>7.75</v>
+        <v>17.71428571428572</v>
       </c>
       <c r="AH14">
-        <v>373.30655</v>
+        <v>398.451341991342</v>
       </c>
       <c r="AI14">
-        <v>580.5700622083981</v>
+        <v>619.6754929880902</v>
       </c>
       <c r="AJ14" t="s">
         <v>148</v>
@@ -2484,13 +2481,13 @@
         <v>78</v>
       </c>
       <c r="AL14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AM14" t="s">
+        <v>155</v>
+      </c>
+      <c r="AN14" t="s">
         <v>156</v>
-      </c>
-      <c r="AN14" t="s">
-        <v>157</v>
       </c>
       <c r="AO14">
         <v>0</v>
@@ -2555,13 +2552,13 @@
         <v>100</v>
       </c>
       <c r="X15">
-        <v>70.84999999999999</v>
+        <v>61.2396694214876</v>
       </c>
       <c r="Y15">
-        <v>107.0294500723589</v>
+        <v>97.41911949384649</v>
       </c>
       <c r="Z15">
-        <v>97.91469999999998</v>
+        <v>84.63322314049586</v>
       </c>
       <c r="AA15">
         <v>50</v>
@@ -2585,10 +2582,10 @@
         <v>742.3099999999999</v>
       </c>
       <c r="AH15">
-        <v>1160.2247</v>
+        <v>1146.943223140496</v>
       </c>
       <c r="AI15">
-        <v>839.5258321273517</v>
+        <v>829.9155015488393</v>
       </c>
       <c r="AJ15" t="s">
         <v>148</v>
@@ -2597,13 +2594,13 @@
         <v>68</v>
       </c>
       <c r="AL15" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AM15" t="s">
+        <v>155</v>
+      </c>
+      <c r="AN15" t="s">
         <v>156</v>
-      </c>
-      <c r="AN15" t="s">
-        <v>157</v>
       </c>
       <c r="AO15">
         <v>50</v>

--- a/Logs/quotations.xlsx
+++ b/Logs/quotations.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="75">
   <si>
     <t>Shipment Scope</t>
   </si>
@@ -52,9 +52,15 @@
     <t>Total Weight</t>
   </si>
   <si>
+    <t>Quotation Total Weight</t>
+  </si>
+  <si>
     <t>Total CBM</t>
   </si>
   <si>
+    <t>Quotation Total CBM</t>
+  </si>
+  <si>
     <t>Total Pallets</t>
   </si>
   <si>
@@ -136,10 +142,10 @@
     <t>Quoted Date/Time</t>
   </si>
   <si>
-    <t>Port-to-Door</t>
-  </si>
-  <si>
-    <t>Nhava Sheva, India(INNSA)</t>
+    <t>Door-to-Door</t>
+  </si>
+  <si>
+    <t>110020, Okhla Industrial Estate, South East Delhi, Delhi, India</t>
   </si>
   <si>
     <t>Nhava Sheva</t>
@@ -157,127 +163,82 @@
     <t>07201</t>
   </si>
   <si>
-    <t>RDU4</t>
-  </si>
-  <si>
-    <t>MQJ1</t>
-  </si>
-  <si>
-    <t>FTW1</t>
-  </si>
-  <si>
-    <t>GYR2</t>
-  </si>
-  <si>
-    <t>GYR3</t>
-  </si>
-  <si>
-    <t>RDU4 28303, Terry Sanford, Fayetteville, North Carolina, United States</t>
-  </si>
-  <si>
-    <t>MQJ1 46140, Greenfield, Greenfield, Indiana, United States</t>
-  </si>
-  <si>
-    <t>FTW1 75241, Dallas, Dallas, Texas, United States</t>
-  </si>
-  <si>
-    <t>GYR2 85395, Palm Valley, Goodyear, Arizona, United States</t>
-  </si>
-  <si>
-    <t>GYR3 85043, Estrella Village, Phoenix, Arizona, United States</t>
-  </si>
-  <si>
-    <t>28303</t>
-  </si>
-  <si>
-    <t>46140</t>
-  </si>
-  <si>
-    <t>75241</t>
-  </si>
-  <si>
-    <t>85395</t>
-  </si>
-  <si>
-    <t>85043</t>
+    <t>AGS2</t>
+  </si>
+  <si>
+    <t>TEB9</t>
+  </si>
+  <si>
+    <t>IUSL</t>
+  </si>
+  <si>
+    <t>AGS2 30567, Pendergrass, Pendergrass, Georgia, United States</t>
+  </si>
+  <si>
+    <t>TEB9 08873, Somerset, Franklin Township, New Jersey, United States</t>
+  </si>
+  <si>
+    <t>IUSL 21901, North East, North East, Maryland, United States</t>
+  </si>
+  <si>
+    <t>30567</t>
+  </si>
+  <si>
+    <t>08873</t>
+  </si>
+  <si>
+    <t>21901</t>
   </si>
   <si>
     <t>Agraga</t>
   </si>
   <si>
-    <t>WEST</t>
-  </si>
-  <si>
-    <t>EAST</t>
-  </si>
-  <si>
     <t>SOUTH</t>
   </si>
   <si>
     <t>NORTH</t>
   </si>
   <si>
+    <t>NON HOT</t>
+  </si>
+  <si>
     <t>HOT</t>
   </si>
   <si>
-    <t>NON HOT</t>
+    <t>['FTL53']</t>
+  </si>
+  <si>
+    <t>['FTL', 'FTL53']</t>
   </si>
   <si>
     <t>['Drayage']</t>
   </si>
   <si>
-    <t>['FTL', 'FTL53', 'LTL']</t>
-  </si>
-  <si>
-    <t>{'Rate': 1784.96, 'Carrier Name': 'ABF Freight System VL', 'Service Provider': 'HeyPrimo'}</t>
-  </si>
-  <si>
-    <t>{'Rate': 1535.91, 'Carrier Name': 'Estes Express Lines', 'Service Provider': 'Ex-Freight'}</t>
-  </si>
-  <si>
-    <t>{'Rate': 2366.32, 'Carrier Name': 'Estes Express Lines', 'Service Provider': 'Ex-Freight'}</t>
-  </si>
-  <si>
-    <t>{'Rate': 3251.9, 'Carrier Name': 'ABF Freight', 'Service Provider': 'Ex-Freight'}</t>
-  </si>
-  <si>
-    <t>{'Rate': 1026.06, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt'}</t>
-  </si>
-  <si>
-    <t>{'Rate': 2470.85, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt'}</t>
-  </si>
-  <si>
-    <t>{'Rate': 3512.9, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt'}</t>
-  </si>
-  <si>
-    <t>{'Rate': 0, 'Carrier Name': 'Jb Hunt API Failed :No valid rates returned', 'Service Provider': 'J.B. Hunt'}</t>
-  </si>
-  <si>
-    <t>{'Rate': 3493.82, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt'}</t>
-  </si>
-  <si>
-    <t>{'Rate Type': 'Drayage', 'Rate': 872.37, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt'}</t>
-  </si>
-  <si>
-    <t>{'Rate Type': 'FTL', 'Rate': 1026.06, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt'}</t>
-  </si>
-  <si>
-    <t>{'Rate Type': 'LTL', 'Rate': 1535.91, 'Carrier Name': 'Estes Express Lines', 'Service Provider': 'Ex-Freight'}</t>
-  </si>
-  <si>
-    <t>{'Rate Type': 'LTL', 'Rate': 2366.32, 'Carrier Name': 'Estes Express Lines', 'Service Provider': 'Ex-Freight'}</t>
-  </si>
-  <si>
-    <t>{'Rate Type': 'LTL', 'Rate': 3251.9, 'Carrier Name': 'ABF Freight', 'Service Provider': 'Ex-Freight'}</t>
-  </si>
-  <si>
-    <t>CMM0246LCL0044</t>
+    <t>{'Rate': 20.423809523809524, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt'}</t>
+  </si>
+  <si>
+    <t>{'Rate': 14.446666666666667, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt'}</t>
+  </si>
+  <si>
+    <t>{'Rate': 17.714285714285715, 'Carrier Name': '', 'Service Provider': 'NTG'}</t>
+  </si>
+  <si>
+    <t>{'Rate Type': 'Drayage', 'Rate': 714.31, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt'}</t>
+  </si>
+  <si>
+    <t>{'Rate Type': 'FTL53', 'Rate': 14.446666666666667, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt'}</t>
+  </si>
+  <si>
+    <t>{'Rate Type': 'FTL53', 'Rate': 17.714285714285715, 'Carrier Name': '', 'Service Provider': 'NTG'}</t>
+  </si>
+  <si>
+    <t>CMM0246LCL0039</t>
   </si>
   <si>
     <t>Own Console</t>
   </si>
   <si>
-    <t>2025-08-10 14:23:33</t>
+    <t>2025-08-11 12:53:50</t>
   </si>
 </sst>
 </file>
@@ -635,13 +596,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN6"/>
+  <dimension ref="A1:AP4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:42">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -762,594 +723,371 @@
       <c r="AN1" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AO1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>41</v>
+      </c>
     </row>
-    <row r="2" spans="1:40">
+    <row r="2" spans="1:42">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G2" t="s">
         <v>52</v>
       </c>
       <c r="H2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="J2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K2">
+        <v>10</v>
+      </c>
+      <c r="L2">
+        <v>2000</v>
+      </c>
+      <c r="M2">
+        <v>3660</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="O2">
+        <v>2.6016</v>
+      </c>
+      <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>61</v>
+      </c>
+      <c r="R2" t="s">
         <v>63</v>
       </c>
-      <c r="K2">
-        <v>288</v>
-      </c>
-      <c r="L2">
-        <v>2592</v>
-      </c>
-      <c r="M2">
-        <v>9.02</v>
-      </c>
-      <c r="N2">
-        <v>6</v>
-      </c>
-      <c r="O2" t="s">
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="V2" t="s">
         <v>67</v>
       </c>
-      <c r="P2" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q2">
-        <v>45</v>
-      </c>
-      <c r="U2" t="s">
-        <v>80</v>
-      </c>
-      <c r="V2" t="s">
-        <v>80</v>
-      </c>
-      <c r="W2" t="s">
-        <v>80</v>
-      </c>
-      <c r="X2">
-        <v>0</v>
-      </c>
-      <c r="Y2">
-        <v>63.05785123966942</v>
+      <c r="X2" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>70</v>
       </c>
       <c r="Z2">
-        <v>68.60108849022374</v>
+        <v>100</v>
       </c>
       <c r="AA2">
-        <v>568.7818181818182</v>
+        <v>90.82251082251082</v>
       </c>
       <c r="AB2">
+        <v>140.8225108225108</v>
+      </c>
+      <c r="AC2">
+        <v>90.82251082251082</v>
+      </c>
+      <c r="AD2">
         <v>50</v>
       </c>
-      <c r="AC2">
+      <c r="AE2">
         <v>52</v>
       </c>
-      <c r="AD2">
+      <c r="AF2">
         <v>100</v>
       </c>
-      <c r="AE2">
+      <c r="AG2">
         <v>50</v>
       </c>
-      <c r="AF2">
+      <c r="AH2">
         <v>18</v>
       </c>
-      <c r="AG2">
-        <v>108</v>
-      </c>
-      <c r="AH2">
-        <v>872.37</v>
-      </c>
       <c r="AI2">
-        <v>1751.151818181818</v>
+        <v>18</v>
       </c>
       <c r="AJ2">
-        <v>194.1409997984277</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>85</v>
-      </c>
-      <c r="AL2" t="s">
+        <v>14.44666666666667</v>
+      </c>
+      <c r="AK2">
+        <v>425.2691774891775</v>
+      </c>
+      <c r="AL2">
+        <v>425.2691774891775</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AN2" t="s">
         <v>52</v>
       </c>
-      <c r="AM2" t="s">
-        <v>86</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>87</v>
+      <c r="AO2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:40">
+    <row r="3" spans="1:42">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G3" t="s">
         <v>53</v>
       </c>
       <c r="H3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I3" t="s">
         <v>58</v>
       </c>
-      <c r="I3" t="s">
-        <v>62</v>
-      </c>
       <c r="J3" t="s">
+        <v>60</v>
+      </c>
+      <c r="K3">
+        <v>9</v>
+      </c>
+      <c r="L3">
+        <v>660</v>
+      </c>
+      <c r="M3">
+        <v>3660</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <v>2.6016</v>
+      </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>61</v>
+      </c>
+      <c r="R3" t="s">
         <v>64</v>
       </c>
-      <c r="K3">
-        <v>518</v>
-      </c>
-      <c r="L3">
-        <v>518</v>
-      </c>
-      <c r="M3">
-        <v>16.224</v>
-      </c>
-      <c r="N3">
-        <v>10</v>
-      </c>
-      <c r="O3" t="s">
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="U3" t="s">
+        <v>66</v>
+      </c>
+      <c r="V3" t="s">
         <v>68</v>
       </c>
-      <c r="P3" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-      <c r="R3" t="s">
+      <c r="X3" t="s">
         <v>71</v>
       </c>
-      <c r="S3" t="s">
-        <v>75</v>
-      </c>
-      <c r="T3" t="s">
-        <v>75</v>
-      </c>
-      <c r="V3" t="s">
-        <v>81</v>
-      </c>
-      <c r="W3" t="s">
-        <v>81</v>
-      </c>
-      <c r="X3">
-        <v>0</v>
-      </c>
-      <c r="Y3">
+      <c r="Y3" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z3">
+        <v>100</v>
+      </c>
+      <c r="AA3">
         <v>94.45887445887446</v>
       </c>
-      <c r="Z3">
-        <v>97.54072850226697</v>
-      </c>
-      <c r="AA3">
-        <v>1532.500779220779</v>
-      </c>
       <c r="AB3">
+        <v>144.4588744588744</v>
+      </c>
+      <c r="AC3">
+        <v>94.45887445887446</v>
+      </c>
+      <c r="AD3">
         <v>50</v>
       </c>
-      <c r="AC3">
+      <c r="AE3">
         <v>52</v>
       </c>
-      <c r="AD3">
+      <c r="AF3">
         <v>100</v>
       </c>
-      <c r="AE3">
+      <c r="AG3">
         <v>50</v>
       </c>
-      <c r="AF3">
+      <c r="AH3">
         <v>18</v>
       </c>
-      <c r="AG3">
-        <v>180</v>
-      </c>
-      <c r="AH3">
-        <v>1026.06</v>
-      </c>
       <c r="AI3">
-        <v>2940.560779220779</v>
+        <v>18</v>
       </c>
       <c r="AJ3">
-        <v>181.2475825456595</v>
-      </c>
-      <c r="AK3" t="s">
-        <v>85</v>
-      </c>
-      <c r="AL3" t="s">
+        <v>17.71428571428572</v>
+      </c>
+      <c r="AK3">
+        <v>432.1731601731602</v>
+      </c>
+      <c r="AL3">
+        <v>432.1731601731602</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AN3" t="s">
         <v>53</v>
       </c>
-      <c r="AM3" t="s">
-        <v>86</v>
-      </c>
-      <c r="AN3" t="s">
-        <v>87</v>
+      <c r="AO3" t="s">
+        <v>73</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>74</v>
       </c>
     </row>
-    <row r="4" spans="1:40">
+    <row r="4" spans="1:42">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G4" t="s">
         <v>54</v>
       </c>
       <c r="H4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I4" t="s">
+        <v>58</v>
+      </c>
+      <c r="J4" t="s">
+        <v>60</v>
+      </c>
+      <c r="K4">
+        <v>10</v>
+      </c>
+      <c r="L4">
+        <v>1000</v>
+      </c>
+      <c r="M4">
+        <v>3660</v>
+      </c>
+      <c r="N4">
+        <v>1.382</v>
+      </c>
+      <c r="O4">
+        <v>2.6016</v>
+      </c>
+      <c r="P4">
+        <v>1</v>
+      </c>
+      <c r="Q4" t="s">
         <v>62</v>
       </c>
-      <c r="J4" t="s">
+      <c r="R4" t="s">
         <v>65</v>
       </c>
-      <c r="K4">
-        <v>461</v>
-      </c>
-      <c r="L4">
-        <v>461</v>
-      </c>
-      <c r="M4">
-        <v>14.439</v>
-      </c>
-      <c r="N4">
-        <v>9</v>
-      </c>
-      <c r="O4" t="s">
-        <v>68</v>
-      </c>
-      <c r="P4" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-      <c r="R4" t="s">
+      <c r="S4">
+        <v>50</v>
+      </c>
+      <c r="W4" t="s">
+        <v>69</v>
+      </c>
+      <c r="X4" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z4">
+        <v>100</v>
+      </c>
+      <c r="AA4">
+        <v>61.2396694214876</v>
+      </c>
+      <c r="AB4">
+        <v>97.41911949384649</v>
+      </c>
+      <c r="AC4">
+        <v>84.63322314049586</v>
+      </c>
+      <c r="AD4">
+        <v>50</v>
+      </c>
+      <c r="AE4">
+        <v>52</v>
+      </c>
+      <c r="AF4">
+        <v>100</v>
+      </c>
+      <c r="AG4">
+        <v>50</v>
+      </c>
+      <c r="AH4">
+        <v>18</v>
+      </c>
+      <c r="AI4">
+        <v>18</v>
+      </c>
+      <c r="AJ4">
+        <v>714.3099999999999</v>
+      </c>
+      <c r="AK4">
+        <v>1118.943223140496</v>
+      </c>
+      <c r="AL4">
+        <v>809.6550095083182</v>
+      </c>
+      <c r="AM4" t="s">
         <v>72</v>
       </c>
-      <c r="S4" t="s">
-        <v>76</v>
-      </c>
-      <c r="T4" t="s">
-        <v>76</v>
-      </c>
-      <c r="V4" t="s">
-        <v>82</v>
-      </c>
-      <c r="W4" t="s">
-        <v>82</v>
-      </c>
-      <c r="X4">
-        <v>0</v>
-      </c>
-      <c r="Y4">
-        <v>94.45887445887446</v>
-      </c>
-      <c r="Z4">
-        <v>97.92171814611042</v>
-      </c>
-      <c r="AA4">
-        <v>1363.891688311688</v>
-      </c>
-      <c r="AB4">
-        <v>50</v>
-      </c>
-      <c r="AC4">
-        <v>52</v>
-      </c>
-      <c r="AD4">
-        <v>100</v>
-      </c>
-      <c r="AE4">
-        <v>50</v>
-      </c>
-      <c r="AF4">
-        <v>18</v>
-      </c>
-      <c r="AG4">
-        <v>162</v>
-      </c>
-      <c r="AH4">
-        <v>1535.91</v>
-      </c>
-      <c r="AI4">
-        <v>3263.801688311688</v>
-      </c>
-      <c r="AJ4">
-        <v>226.0407014552038</v>
-      </c>
-      <c r="AK4" t="s">
-        <v>85</v>
-      </c>
-      <c r="AL4" t="s">
+      <c r="AN4" t="s">
         <v>54</v>
       </c>
-      <c r="AM4" t="s">
-        <v>86</v>
-      </c>
-      <c r="AN4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E5" t="s">
-        <v>46</v>
-      </c>
-      <c r="F5" t="s">
-        <v>50</v>
-      </c>
-      <c r="G5" t="s">
-        <v>55</v>
-      </c>
-      <c r="H5" t="s">
-        <v>60</v>
-      </c>
-      <c r="I5" t="s">
-        <v>62</v>
-      </c>
-      <c r="J5" t="s">
-        <v>63</v>
-      </c>
-      <c r="K5">
-        <v>461</v>
-      </c>
-      <c r="L5">
-        <v>461</v>
-      </c>
-      <c r="M5">
-        <v>14.439</v>
-      </c>
-      <c r="N5">
-        <v>9</v>
-      </c>
-      <c r="O5" t="s">
-        <v>68</v>
-      </c>
-      <c r="P5" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-      <c r="R5" t="s">
+      <c r="AO4" t="s">
         <v>73</v>
       </c>
-      <c r="S5" t="s">
-        <v>77</v>
-      </c>
-      <c r="T5" t="s">
-        <v>77</v>
-      </c>
-      <c r="V5" t="s">
-        <v>83</v>
-      </c>
-      <c r="W5" t="s">
-        <v>83</v>
-      </c>
-      <c r="X5">
-        <v>0</v>
-      </c>
-      <c r="Y5">
-        <v>94.45887445887446</v>
-      </c>
-      <c r="Z5">
-        <v>97.92171814611042</v>
-      </c>
-      <c r="AA5">
-        <v>1363.891688311688</v>
-      </c>
-      <c r="AB5">
-        <v>50</v>
-      </c>
-      <c r="AC5">
-        <v>52</v>
-      </c>
-      <c r="AD5">
-        <v>100</v>
-      </c>
-      <c r="AE5">
-        <v>50</v>
-      </c>
-      <c r="AF5">
-        <v>18</v>
-      </c>
-      <c r="AG5">
-        <v>162</v>
-      </c>
-      <c r="AH5">
-        <v>2366.32</v>
-      </c>
-      <c r="AI5">
-        <v>4094.211688311689</v>
-      </c>
-      <c r="AJ5">
-        <v>283.5523019815561</v>
-      </c>
-      <c r="AK5" t="s">
-        <v>85</v>
-      </c>
-      <c r="AL5" t="s">
-        <v>55</v>
-      </c>
-      <c r="AM5" t="s">
-        <v>86</v>
-      </c>
-      <c r="AN5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E6" t="s">
-        <v>46</v>
-      </c>
-      <c r="F6" t="s">
-        <v>51</v>
-      </c>
-      <c r="G6" t="s">
-        <v>56</v>
-      </c>
-      <c r="H6" t="s">
-        <v>61</v>
-      </c>
-      <c r="I6" t="s">
-        <v>62</v>
-      </c>
-      <c r="J6" t="s">
-        <v>66</v>
-      </c>
-      <c r="K6">
-        <v>576</v>
-      </c>
-      <c r="L6">
-        <v>576</v>
-      </c>
-      <c r="M6">
-        <v>18.04</v>
-      </c>
-      <c r="N6">
-        <v>11</v>
-      </c>
-      <c r="O6" t="s">
-        <v>68</v>
-      </c>
-      <c r="P6" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q6">
-        <v>0</v>
-      </c>
-      <c r="R6" t="s">
+      <c r="AP4" t="s">
         <v>74</v>
-      </c>
-      <c r="S6" t="s">
-        <v>78</v>
-      </c>
-      <c r="T6" t="s">
-        <v>79</v>
-      </c>
-      <c r="V6" t="s">
-        <v>84</v>
-      </c>
-      <c r="W6" t="s">
-        <v>84</v>
-      </c>
-      <c r="X6">
-        <v>0</v>
-      </c>
-      <c r="Y6">
-        <v>94.45887445887446</v>
-      </c>
-      <c r="Z6">
-        <v>97.23049308415162</v>
-      </c>
-      <c r="AA6">
-        <v>1704.038095238095</v>
-      </c>
-      <c r="AB6">
-        <v>50</v>
-      </c>
-      <c r="AC6">
-        <v>52</v>
-      </c>
-      <c r="AD6">
-        <v>100</v>
-      </c>
-      <c r="AE6">
-        <v>50</v>
-      </c>
-      <c r="AF6">
-        <v>18</v>
-      </c>
-      <c r="AG6">
-        <v>198</v>
-      </c>
-      <c r="AH6">
-        <v>3251.9</v>
-      </c>
-      <c r="AI6">
-        <v>5355.938095238095</v>
-      </c>
-      <c r="AJ6">
-        <v>296.8923556118678</v>
-      </c>
-      <c r="AK6" t="s">
-        <v>85</v>
-      </c>
-      <c r="AL6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AM6" t="s">
-        <v>86</v>
-      </c>
-      <c r="AN6" t="s">
-        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/Logs/quotations.xlsx
+++ b/Logs/quotations.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="116">
   <si>
     <t>Shipment Scope</t>
   </si>
@@ -145,9 +145,18 @@
     <t>Door-to-Door</t>
   </si>
   <si>
+    <t>Port-to-Door</t>
+  </si>
+  <si>
     <t>110020, Okhla Industrial Estate, South East Delhi, Delhi, India</t>
   </si>
   <si>
+    <t>583229, Koppal, Koppal, Karnataka, India</t>
+  </si>
+  <si>
+    <t>Nhava Sheva, India(INNSA)</t>
+  </si>
+  <si>
     <t>Nhava Sheva</t>
   </si>
   <si>
@@ -157,12 +166,18 @@
     <t>New York</t>
   </si>
   <si>
+    <t>Los Angeles</t>
+  </si>
+  <si>
     <t>29483</t>
   </si>
   <si>
     <t>07201</t>
   </si>
   <si>
+    <t>90220</t>
+  </si>
+  <si>
     <t>AGS2</t>
   </si>
   <si>
@@ -172,6 +187,24 @@
     <t>IUSL</t>
   </si>
   <si>
+    <t>AVP1</t>
+  </si>
+  <si>
+    <t>RDU4</t>
+  </si>
+  <si>
+    <t>MQJ1</t>
+  </si>
+  <si>
+    <t>FTW1</t>
+  </si>
+  <si>
+    <t>GYR2</t>
+  </si>
+  <si>
+    <t>GYR3</t>
+  </si>
+  <si>
     <t>AGS2 30567, Pendergrass, Pendergrass, Georgia, United States</t>
   </si>
   <si>
@@ -181,13 +214,37 @@
     <t>IUSL 21901, North East, North East, Maryland, United States</t>
   </si>
   <si>
-    <t>30567</t>
-  </si>
-  <si>
-    <t>08873</t>
-  </si>
-  <si>
-    <t>21901</t>
+    <t>AVP1 18202, West Hazleton, West Hazleton, Pennsylvania, United States</t>
+  </si>
+  <si>
+    <t>RDU4 28303, Terry Sanford, Fayetteville, North Carolina, United States</t>
+  </si>
+  <si>
+    <t>MQJ1 46140, Greenfield, Greenfield, Indiana, United States</t>
+  </si>
+  <si>
+    <t>FTW1 75241, Dallas, Dallas, Texas, United States</t>
+  </si>
+  <si>
+    <t>GYR2 85395, Palm Valley, Goodyear, Arizona, United States</t>
+  </si>
+  <si>
+    <t>GYR3 85043, Estrella Village, Phoenix, Arizona, United States</t>
+  </si>
+  <si>
+    <t>28303</t>
+  </si>
+  <si>
+    <t>46140</t>
+  </si>
+  <si>
+    <t>75241</t>
+  </si>
+  <si>
+    <t>85395</t>
+  </si>
+  <si>
+    <t>85043</t>
   </si>
   <si>
     <t>Agraga</t>
@@ -199,6 +256,12 @@
     <t>NORTH</t>
   </si>
   <si>
+    <t>WEST</t>
+  </si>
+  <si>
+    <t>EAST</t>
+  </si>
+  <si>
     <t>NON HOT</t>
   </si>
   <si>
@@ -214,9 +277,36 @@
     <t>['Drayage']</t>
   </si>
   <si>
+    <t>['FTL', 'FTL53', 'LTL']</t>
+  </si>
+  <si>
+    <t>{'Rate': 1784.96, 'Carrier Name': 'ABF Freight System VL', 'Service Provider': 'HeyPrimo'}</t>
+  </si>
+  <si>
+    <t>{'Rate': 1535.91, 'Carrier Name': 'Estes Express Lines', 'Service Provider': 'Ex-Freight'}</t>
+  </si>
+  <si>
+    <t>{'Rate': 640.12, 'Carrier Name': 'Estes Express Lines', 'Service Provider': 'Ex-Freight'}</t>
+  </si>
+  <si>
+    <t>{'Rate': 3447.12, 'Carrier Name': 'ABF Freight', 'Service Provider': 'Ex-Freight'}</t>
+  </si>
+  <si>
     <t>{'Rate': 20.423809523809524, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt'}</t>
   </si>
   <si>
+    <t>{'Rate': 1036.06, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt'}</t>
+  </si>
+  <si>
+    <t>{'Rate': 2496.85, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt'}</t>
+  </si>
+  <si>
+    <t>{'Rate': 1302.11, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt'}</t>
+  </si>
+  <si>
+    <t>{'Rate': 3531.82, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt'}</t>
+  </si>
+  <si>
     <t>{'Rate': 14.446666666666667, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt'}</t>
   </si>
   <si>
@@ -226,19 +316,52 @@
     <t>{'Rate Type': 'Drayage', 'Rate': 714.31, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt'}</t>
   </si>
   <si>
+    <t>{'Rate Type': 'Drayage', 'Rate': 598.95, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt'}</t>
+  </si>
+  <si>
+    <t>{'Rate Type': 'Drayage', 'Rate': 881.37, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt'}</t>
+  </si>
+  <si>
     <t>{'Rate Type': 'FTL53', 'Rate': 14.446666666666667, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt'}</t>
   </si>
   <si>
     <t>{'Rate Type': 'FTL53', 'Rate': 17.714285714285715, 'Carrier Name': '', 'Service Provider': 'NTG'}</t>
   </si>
   <si>
+    <t>{'Rate Type': 'FTL', 'Rate': 1036.06, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt'}</t>
+  </si>
+  <si>
+    <t>{'Rate Type': 'LTL', 'Rate': 1535.91, 'Carrier Name': 'Estes Express Lines', 'Service Provider': 'Ex-Freight'}</t>
+  </si>
+  <si>
+    <t>{'Rate Type': 'LTL', 'Rate': 640.12, 'Carrier Name': 'Estes Express Lines', 'Service Provider': 'Ex-Freight'}</t>
+  </si>
+  <si>
+    <t>{'Rate Type': 'LTL', 'Rate': 3447.12, 'Carrier Name': 'ABF Freight', 'Service Provider': 'Ex-Freight'}</t>
+  </si>
+  <si>
     <t>CMM0246LCL0039</t>
   </si>
   <si>
+    <t>CMM0246LCL0045</t>
+  </si>
+  <si>
+    <t>CMM0246LCL0044</t>
+  </si>
+  <si>
     <t>Own Console</t>
   </si>
   <si>
+    <t>Coload</t>
+  </si>
+  <si>
     <t>2025-08-11 12:53:50</t>
+  </si>
+  <si>
+    <t>2025-08-11 13:08:13</t>
+  </si>
+  <si>
+    <t>2025-08-11 14:55:35</t>
   </si>
 </sst>
 </file>
@@ -596,7 +719,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AP4"/>
+  <dimension ref="A1:AP10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -735,31 +858,31 @@
         <v>42</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E2" t="s">
-        <v>47</v>
+        <v>48</v>
+      </c>
+      <c r="E2">
+        <v>29483</v>
       </c>
       <c r="F2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="G2" t="s">
-        <v>52</v>
-      </c>
-      <c r="H2" t="s">
-        <v>55</v>
+        <v>63</v>
+      </c>
+      <c r="H2">
+        <v>30567</v>
       </c>
       <c r="I2" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="J2" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="K2">
         <v>10</v>
@@ -780,22 +903,22 @@
         <v>1</v>
       </c>
       <c r="Q2" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="R2" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="S2">
         <v>0</v>
       </c>
       <c r="V2" t="s">
-        <v>67</v>
+        <v>97</v>
       </c>
       <c r="X2" t="s">
-        <v>70</v>
+        <v>102</v>
       </c>
       <c r="Y2" t="s">
-        <v>70</v>
+        <v>102</v>
       </c>
       <c r="Z2">
         <v>100</v>
@@ -837,16 +960,16 @@
         <v>425.2691774891775</v>
       </c>
       <c r="AM2" t="s">
-        <v>72</v>
+        <v>108</v>
       </c>
       <c r="AN2" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="AO2" t="s">
-        <v>73</v>
+        <v>111</v>
       </c>
       <c r="AP2" t="s">
-        <v>74</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:42">
@@ -854,31 +977,31 @@
         <v>42</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C3" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E3" t="s">
-        <v>48</v>
+        <v>49</v>
+      </c>
+      <c r="E3">
+        <v>7201</v>
       </c>
       <c r="F3" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="G3" t="s">
-        <v>53</v>
-      </c>
-      <c r="H3" t="s">
-        <v>56</v>
+        <v>64</v>
+      </c>
+      <c r="H3">
+        <v>8873</v>
       </c>
       <c r="I3" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="J3" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="K3">
         <v>9</v>
@@ -899,25 +1022,25 @@
         <v>1</v>
       </c>
       <c r="Q3" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="R3" t="s">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="U3" t="s">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="V3" t="s">
-        <v>68</v>
+        <v>98</v>
       </c>
       <c r="X3" t="s">
-        <v>71</v>
+        <v>103</v>
       </c>
       <c r="Y3" t="s">
-        <v>71</v>
+        <v>103</v>
       </c>
       <c r="Z3">
         <v>100</v>
@@ -959,16 +1082,16 @@
         <v>432.1731601731602</v>
       </c>
       <c r="AM3" t="s">
-        <v>72</v>
+        <v>108</v>
       </c>
       <c r="AN3" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="AO3" t="s">
-        <v>73</v>
+        <v>111</v>
       </c>
       <c r="AP3" t="s">
-        <v>74</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:42">
@@ -976,31 +1099,31 @@
         <v>42</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C4" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E4" t="s">
-        <v>48</v>
+        <v>49</v>
+      </c>
+      <c r="E4">
+        <v>7201</v>
       </c>
       <c r="F4" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="G4" t="s">
-        <v>54</v>
-      </c>
-      <c r="H4" t="s">
-        <v>57</v>
+        <v>65</v>
+      </c>
+      <c r="H4">
+        <v>21901</v>
       </c>
       <c r="I4" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="J4" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="K4">
         <v>10</v>
@@ -1021,22 +1144,22 @@
         <v>1</v>
       </c>
       <c r="Q4" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="R4" t="s">
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="S4">
         <v>50</v>
       </c>
       <c r="W4" t="s">
-        <v>69</v>
+        <v>99</v>
       </c>
       <c r="X4" t="s">
-        <v>69</v>
+        <v>99</v>
       </c>
       <c r="Y4" t="s">
-        <v>69</v>
+        <v>99</v>
       </c>
       <c r="Z4">
         <v>100</v>
@@ -1078,16 +1201,754 @@
         <v>809.6550095083182</v>
       </c>
       <c r="AM4" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>111</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="5" spans="1:42">
+      <c r="A5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5">
+        <v>7201</v>
+      </c>
+      <c r="F5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G5" t="s">
+        <v>66</v>
+      </c>
+      <c r="H5">
+        <v>18202</v>
+      </c>
+      <c r="I5" t="s">
+        <v>77</v>
+      </c>
+      <c r="J5" t="s">
+        <v>78</v>
+      </c>
+      <c r="K5">
+        <v>500</v>
+      </c>
+      <c r="L5">
+        <v>50000</v>
+      </c>
+      <c r="M5">
+        <v>50000</v>
+      </c>
+      <c r="N5">
+        <v>69.12</v>
+      </c>
+      <c r="O5">
+        <v>69.12</v>
+      </c>
+      <c r="P5">
+        <v>39</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>83</v>
+      </c>
+      <c r="R5" t="s">
+        <v>86</v>
+      </c>
+      <c r="S5">
+        <v>69.12</v>
+      </c>
+      <c r="W5" t="s">
+        <v>100</v>
+      </c>
+      <c r="X5" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>100</v>
+      </c>
+      <c r="Z5">
+        <v>100</v>
+      </c>
+      <c r="AA5">
+        <v>61.2396694214876</v>
+      </c>
+      <c r="AB5">
+        <v>61.96304905111722</v>
+      </c>
+      <c r="AC5">
+        <v>4232.885950413223</v>
+      </c>
+      <c r="AD5">
+        <v>50</v>
+      </c>
+      <c r="AE5">
+        <v>52</v>
+      </c>
+      <c r="AF5">
+        <v>100</v>
+      </c>
+      <c r="AG5">
+        <v>50</v>
+      </c>
+      <c r="AH5">
+        <v>18</v>
+      </c>
+      <c r="AI5">
+        <v>702</v>
+      </c>
+      <c r="AJ5">
+        <v>598.95</v>
+      </c>
+      <c r="AK5">
+        <v>5835.835950413223</v>
+      </c>
+      <c r="AL5">
+        <v>84.4304969677839</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>109</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>111</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="6" spans="1:42">
+      <c r="A6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" t="s">
+        <v>67</v>
+      </c>
+      <c r="H6" t="s">
         <v>72</v>
       </c>
-      <c r="AN4" t="s">
-        <v>54</v>
-      </c>
-      <c r="AO4" t="s">
+      <c r="I6" t="s">
+        <v>77</v>
+      </c>
+      <c r="J6" t="s">
+        <v>80</v>
+      </c>
+      <c r="K6">
+        <v>288</v>
+      </c>
+      <c r="L6">
+        <v>2592</v>
+      </c>
+      <c r="M6">
+        <v>4608</v>
+      </c>
+      <c r="N6">
+        <v>9.02</v>
+      </c>
+      <c r="O6">
+        <v>72.16128</v>
+      </c>
+      <c r="P6">
+        <v>6</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>83</v>
+      </c>
+      <c r="R6" t="s">
+        <v>86</v>
+      </c>
+      <c r="S6">
+        <v>45</v>
+      </c>
+      <c r="W6" t="s">
+        <v>101</v>
+      </c>
+      <c r="X6" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <v>63.05785123966942</v>
+      </c>
+      <c r="AB6">
+        <v>68.60108849022374</v>
+      </c>
+      <c r="AC6">
+        <v>568.7818181818182</v>
+      </c>
+      <c r="AD6">
+        <v>50</v>
+      </c>
+      <c r="AE6">
+        <v>52</v>
+      </c>
+      <c r="AF6">
+        <v>100</v>
+      </c>
+      <c r="AG6">
+        <v>50</v>
+      </c>
+      <c r="AH6">
+        <v>18</v>
+      </c>
+      <c r="AI6">
+        <v>108</v>
+      </c>
+      <c r="AJ6">
+        <v>881.37</v>
+      </c>
+      <c r="AK6">
+        <v>1760.151818181818</v>
+      </c>
+      <c r="AL6">
+        <v>195.1387825035275</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>110</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>67</v>
+      </c>
+      <c r="AO6" t="s">
+        <v>111</v>
+      </c>
+      <c r="AP6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="7" spans="1:42">
+      <c r="A7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G7" t="s">
+        <v>68</v>
+      </c>
+      <c r="H7" t="s">
         <v>73</v>
       </c>
-      <c r="AP4" t="s">
+      <c r="I7" t="s">
+        <v>77</v>
+      </c>
+      <c r="J7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K7">
+        <v>518</v>
+      </c>
+      <c r="L7">
+        <v>518</v>
+      </c>
+      <c r="M7">
+        <v>4608</v>
+      </c>
+      <c r="N7">
+        <v>16.224</v>
+      </c>
+      <c r="O7">
+        <v>72.16128</v>
+      </c>
+      <c r="P7">
+        <v>10</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>82</v>
+      </c>
+      <c r="R7" t="s">
+        <v>87</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7" t="s">
+        <v>88</v>
+      </c>
+      <c r="U7" t="s">
+        <v>93</v>
+      </c>
+      <c r="V7" t="s">
+        <v>93</v>
+      </c>
+      <c r="X7" t="s">
+        <v>104</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <v>94.45887445887446</v>
+      </c>
+      <c r="AB7">
+        <v>97.54072850226697</v>
+      </c>
+      <c r="AC7">
+        <v>1532.500779220779</v>
+      </c>
+      <c r="AD7">
+        <v>50</v>
+      </c>
+      <c r="AE7">
+        <v>52</v>
+      </c>
+      <c r="AF7">
+        <v>100</v>
+      </c>
+      <c r="AG7">
+        <v>50</v>
+      </c>
+      <c r="AH7">
+        <v>18</v>
+      </c>
+      <c r="AI7">
+        <v>180</v>
+      </c>
+      <c r="AJ7">
+        <v>1036.06</v>
+      </c>
+      <c r="AK7">
+        <v>2950.560779220779</v>
+      </c>
+      <c r="AL7">
+        <v>181.863953354338</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>110</v>
+      </c>
+      <c r="AN7" t="s">
+        <v>68</v>
+      </c>
+      <c r="AO7" t="s">
+        <v>111</v>
+      </c>
+      <c r="AP7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="8" spans="1:42">
+      <c r="A8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G8" t="s">
+        <v>69</v>
+      </c>
+      <c r="H8" t="s">
         <v>74</v>
+      </c>
+      <c r="I8" t="s">
+        <v>77</v>
+      </c>
+      <c r="J8" t="s">
+        <v>78</v>
+      </c>
+      <c r="K8">
+        <v>461</v>
+      </c>
+      <c r="L8">
+        <v>461</v>
+      </c>
+      <c r="M8">
+        <v>4608</v>
+      </c>
+      <c r="N8">
+        <v>14.439</v>
+      </c>
+      <c r="O8">
+        <v>72.16128</v>
+      </c>
+      <c r="P8">
+        <v>9</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>82</v>
+      </c>
+      <c r="R8" t="s">
+        <v>87</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8" t="s">
+        <v>89</v>
+      </c>
+      <c r="U8" t="s">
+        <v>94</v>
+      </c>
+      <c r="V8" t="s">
+        <v>94</v>
+      </c>
+      <c r="X8" t="s">
+        <v>105</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>105</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <v>94.45887445887446</v>
+      </c>
+      <c r="AB8">
+        <v>97.92171814611042</v>
+      </c>
+      <c r="AC8">
+        <v>1363.891688311688</v>
+      </c>
+      <c r="AD8">
+        <v>50</v>
+      </c>
+      <c r="AE8">
+        <v>52</v>
+      </c>
+      <c r="AF8">
+        <v>100</v>
+      </c>
+      <c r="AG8">
+        <v>50</v>
+      </c>
+      <c r="AH8">
+        <v>18</v>
+      </c>
+      <c r="AI8">
+        <v>162</v>
+      </c>
+      <c r="AJ8">
+        <v>1535.91</v>
+      </c>
+      <c r="AK8">
+        <v>3263.801688311688</v>
+      </c>
+      <c r="AL8">
+        <v>226.0407014552038</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>110</v>
+      </c>
+      <c r="AN8" t="s">
+        <v>69</v>
+      </c>
+      <c r="AO8" t="s">
+        <v>111</v>
+      </c>
+      <c r="AP8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="9" spans="1:42">
+      <c r="A9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9" t="s">
+        <v>61</v>
+      </c>
+      <c r="G9" t="s">
+        <v>70</v>
+      </c>
+      <c r="H9" t="s">
+        <v>75</v>
+      </c>
+      <c r="I9" t="s">
+        <v>77</v>
+      </c>
+      <c r="J9" t="s">
+        <v>80</v>
+      </c>
+      <c r="K9">
+        <v>461</v>
+      </c>
+      <c r="L9">
+        <v>461</v>
+      </c>
+      <c r="M9">
+        <v>4608</v>
+      </c>
+      <c r="N9">
+        <v>14.439</v>
+      </c>
+      <c r="O9">
+        <v>72.16128</v>
+      </c>
+      <c r="P9">
+        <v>9</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>82</v>
+      </c>
+      <c r="R9" t="s">
+        <v>87</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9" t="s">
+        <v>90</v>
+      </c>
+      <c r="U9" t="s">
+        <v>95</v>
+      </c>
+      <c r="V9" t="s">
+        <v>95</v>
+      </c>
+      <c r="X9" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>106</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+      <c r="AA9">
+        <v>250</v>
+      </c>
+      <c r="AB9">
+        <v>253.462843687236</v>
+      </c>
+      <c r="AC9">
+        <v>3609.75</v>
+      </c>
+      <c r="AD9">
+        <v>50</v>
+      </c>
+      <c r="AE9">
+        <v>52</v>
+      </c>
+      <c r="AF9">
+        <v>100</v>
+      </c>
+      <c r="AG9">
+        <v>50</v>
+      </c>
+      <c r="AH9">
+        <v>18</v>
+      </c>
+      <c r="AI9">
+        <v>162</v>
+      </c>
+      <c r="AJ9">
+        <v>640.12</v>
+      </c>
+      <c r="AK9">
+        <v>4613.87</v>
+      </c>
+      <c r="AL9">
+        <v>319.5422120645474</v>
+      </c>
+      <c r="AM9" t="s">
+        <v>110</v>
+      </c>
+      <c r="AN9" t="s">
+        <v>70</v>
+      </c>
+      <c r="AO9" t="s">
+        <v>112</v>
+      </c>
+      <c r="AP9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10" spans="1:42">
+      <c r="A10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" t="s">
+        <v>62</v>
+      </c>
+      <c r="G10" t="s">
+        <v>71</v>
+      </c>
+      <c r="H10" t="s">
+        <v>76</v>
+      </c>
+      <c r="I10" t="s">
+        <v>77</v>
+      </c>
+      <c r="J10" t="s">
+        <v>79</v>
+      </c>
+      <c r="K10">
+        <v>576</v>
+      </c>
+      <c r="L10">
+        <v>576</v>
+      </c>
+      <c r="M10">
+        <v>4608</v>
+      </c>
+      <c r="N10">
+        <v>18.04</v>
+      </c>
+      <c r="O10">
+        <v>72.16128</v>
+      </c>
+      <c r="P10">
+        <v>11</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>82</v>
+      </c>
+      <c r="R10" t="s">
+        <v>87</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10" t="s">
+        <v>91</v>
+      </c>
+      <c r="U10" t="s">
+        <v>96</v>
+      </c>
+      <c r="V10" t="s">
+        <v>96</v>
+      </c>
+      <c r="X10" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>107</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+      <c r="AA10">
+        <v>94.45887445887446</v>
+      </c>
+      <c r="AB10">
+        <v>97.23049308415162</v>
+      </c>
+      <c r="AC10">
+        <v>1704.038095238095</v>
+      </c>
+      <c r="AD10">
+        <v>50</v>
+      </c>
+      <c r="AE10">
+        <v>52</v>
+      </c>
+      <c r="AF10">
+        <v>100</v>
+      </c>
+      <c r="AG10">
+        <v>50</v>
+      </c>
+      <c r="AH10">
+        <v>18</v>
+      </c>
+      <c r="AI10">
+        <v>198</v>
+      </c>
+      <c r="AJ10">
+        <v>3447.12</v>
+      </c>
+      <c r="AK10">
+        <v>5551.158095238095</v>
+      </c>
+      <c r="AL10">
+        <v>307.7138633724</v>
+      </c>
+      <c r="AM10" t="s">
+        <v>110</v>
+      </c>
+      <c r="AN10" t="s">
+        <v>71</v>
+      </c>
+      <c r="AO10" t="s">
+        <v>111</v>
+      </c>
+      <c r="AP10" t="s">
+        <v>115</v>
       </c>
     </row>
   </sheetData>

--- a/Logs/quotations.xlsx
+++ b/Logs/quotations.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="106">
   <si>
     <t>Shipment Scope</t>
   </si>
@@ -52,111 +52,108 @@
     <t>Total Weight</t>
   </si>
   <si>
+    <t>Total CBM</t>
+  </si>
+  <si>
+    <t>Total Pallets</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>Service Modes</t>
+  </si>
+  <si>
+    <t>LM Loadability</t>
+  </si>
+  <si>
+    <t>LTL</t>
+  </si>
+  <si>
+    <t>FTL</t>
+  </si>
+  <si>
+    <t>FTL53</t>
+  </si>
+  <si>
+    <t>Drayage</t>
+  </si>
+  <si>
+    <t>lowest lm</t>
+  </si>
+  <si>
+    <t>Selected lm</t>
+  </si>
+  <si>
+    <t>Pick-Up Charges</t>
+  </si>
+  <si>
+    <t>PER CBM P2P</t>
+  </si>
+  <si>
+    <t>PER CBM P2P &amp; Doc</t>
+  </si>
+  <si>
+    <t>P2P Charge</t>
+  </si>
+  <si>
+    <t>Destination Doc</t>
+  </si>
+  <si>
+    <t>OCC</t>
+  </si>
+  <si>
+    <t>DCC</t>
+  </si>
+  <si>
+    <t>Documentation</t>
+  </si>
+  <si>
+    <t>Palletization (Per Pallet)</t>
+  </si>
+  <si>
+    <t>Palletization Cost</t>
+  </si>
+  <si>
+    <t>Last Mile Rate</t>
+  </si>
+  <si>
+    <t>Total Cost</t>
+  </si>
+  <si>
+    <t>Total per cbm</t>
+  </si>
+  <si>
+    <t>Agquote ID</t>
+  </si>
+  <si>
+    <t>Destination</t>
+  </si>
+  <si>
+    <t>Console Type</t>
+  </si>
+  <si>
+    <t>Quoted Date/Time</t>
+  </si>
+  <si>
     <t>Quotation Total Weight</t>
   </si>
   <si>
-    <t>Total CBM</t>
-  </si>
-  <si>
     <t>Quotation Total CBM</t>
   </si>
   <si>
-    <t>Total Pallets</t>
-  </si>
-  <si>
-    <t>category</t>
-  </si>
-  <si>
-    <t>Service Modes</t>
-  </si>
-  <si>
-    <t>LM Loadability</t>
-  </si>
-  <si>
-    <t>LTL</t>
-  </si>
-  <si>
-    <t>FTL</t>
-  </si>
-  <si>
-    <t>FTL53</t>
-  </si>
-  <si>
-    <t>Drayage</t>
-  </si>
-  <si>
-    <t>lowest lm</t>
-  </si>
-  <si>
-    <t>Selected lm</t>
-  </si>
-  <si>
-    <t>Pick-Up Charges</t>
-  </si>
-  <si>
-    <t>PER CBM P2P</t>
-  </si>
-  <si>
-    <t>PER CBM P2P &amp; Doc</t>
-  </si>
-  <si>
-    <t>P2P Charge</t>
-  </si>
-  <si>
-    <t>Destination Doc</t>
-  </si>
-  <si>
-    <t>OCC</t>
-  </si>
-  <si>
-    <t>DCC</t>
-  </si>
-  <si>
-    <t>Documentation</t>
-  </si>
-  <si>
-    <t>Palletization (Per Pallet)</t>
-  </si>
-  <si>
-    <t>Palletization Cost</t>
-  </si>
-  <si>
-    <t>Last Mile Rate</t>
-  </si>
-  <si>
-    <t>Total Cost</t>
-  </si>
-  <si>
-    <t>Total per cbm</t>
-  </si>
-  <si>
-    <t>Agquote ID</t>
-  </si>
-  <si>
-    <t>Destination</t>
-  </si>
-  <si>
-    <t>Console Type</t>
-  </si>
-  <si>
-    <t>Quoted Date/Time</t>
+    <t>Port-to-Door</t>
   </si>
   <si>
     <t>Door-to-Door</t>
   </si>
   <si>
-    <t>Port-to-Door</t>
+    <t>Nhava Sheva, India(INNSA)</t>
   </si>
   <si>
     <t>110020, Okhla Industrial Estate, South East Delhi, Delhi, India</t>
   </si>
   <si>
-    <t>583229, Koppal, Koppal, Karnataka, India</t>
-  </si>
-  <si>
-    <t>Nhava Sheva, India(INNSA)</t>
-  </si>
-  <si>
     <t>Nhava Sheva</t>
   </si>
   <si>
@@ -166,16 +163,25 @@
     <t>New York</t>
   </si>
   <si>
-    <t>Los Angeles</t>
-  </si>
-  <si>
     <t>29483</t>
   </si>
   <si>
     <t>07201</t>
   </si>
   <si>
-    <t>90220</t>
+    <t>RDU4</t>
+  </si>
+  <si>
+    <t>MQJ1</t>
+  </si>
+  <si>
+    <t>FTW1</t>
+  </si>
+  <si>
+    <t>GYR2</t>
+  </si>
+  <si>
+    <t>GYR3</t>
   </si>
   <si>
     <t>AGS2</t>
@@ -187,22 +193,19 @@
     <t>IUSL</t>
   </si>
   <si>
-    <t>AVP1</t>
-  </si>
-  <si>
-    <t>RDU4</t>
-  </si>
-  <si>
-    <t>MQJ1</t>
-  </si>
-  <si>
-    <t>FTW1</t>
-  </si>
-  <si>
-    <t>GYR2</t>
-  </si>
-  <si>
-    <t>GYR3</t>
+    <t>RDU4 28303, Terry Sanford, Fayetteville, North Carolina, United States</t>
+  </si>
+  <si>
+    <t>MQJ1 46140, Greenfield, Greenfield, Indiana, United States</t>
+  </si>
+  <si>
+    <t>FTW1 75241, Dallas, Dallas, Texas, United States</t>
+  </si>
+  <si>
+    <t>GYR2 85395, Palm Valley, Goodyear, Arizona, United States</t>
+  </si>
+  <si>
+    <t>GYR3 85043, Estrella Village, Phoenix, Arizona, United States</t>
   </si>
   <si>
     <t>AGS2 30567, Pendergrass, Pendergrass, Georgia, United States</t>
@@ -214,58 +217,40 @@
     <t>IUSL 21901, North East, North East, Maryland, United States</t>
   </si>
   <si>
-    <t>AVP1 18202, West Hazleton, West Hazleton, Pennsylvania, United States</t>
-  </si>
-  <si>
-    <t>RDU4 28303, Terry Sanford, Fayetteville, North Carolina, United States</t>
-  </si>
-  <si>
-    <t>MQJ1 46140, Greenfield, Greenfield, Indiana, United States</t>
-  </si>
-  <si>
-    <t>FTW1 75241, Dallas, Dallas, Texas, United States</t>
-  </si>
-  <si>
-    <t>GYR2 85395, Palm Valley, Goodyear, Arizona, United States</t>
-  </si>
-  <si>
-    <t>GYR3 85043, Estrella Village, Phoenix, Arizona, United States</t>
-  </si>
-  <si>
-    <t>28303</t>
-  </si>
-  <si>
-    <t>46140</t>
-  </si>
-  <si>
-    <t>75241</t>
-  </si>
-  <si>
-    <t>85395</t>
-  </si>
-  <si>
-    <t>85043</t>
+    <t>30567</t>
+  </si>
+  <si>
+    <t>08873</t>
+  </si>
+  <si>
+    <t>21901</t>
   </si>
   <si>
     <t>Agraga</t>
   </si>
   <si>
+    <t>WEST</t>
+  </si>
+  <si>
+    <t>EAST</t>
+  </si>
+  <si>
     <t>SOUTH</t>
   </si>
   <si>
     <t>NORTH</t>
   </si>
   <si>
-    <t>WEST</t>
-  </si>
-  <si>
-    <t>EAST</t>
+    <t>HOT</t>
   </si>
   <si>
     <t>NON HOT</t>
   </si>
   <si>
-    <t>HOT</t>
+    <t>['Drayage']</t>
+  </si>
+  <si>
+    <t>['FTL', 'FTL53', 'LTL']</t>
   </si>
   <si>
     <t>['FTL53']</t>
@@ -274,37 +259,34 @@
     <t>['FTL', 'FTL53']</t>
   </si>
   <si>
-    <t>['Drayage']</t>
-  </si>
-  <si>
-    <t>['FTL', 'FTL53', 'LTL']</t>
-  </si>
-  <si>
     <t>{'Rate': 1784.96, 'Carrier Name': 'ABF Freight System VL', 'Service Provider': 'HeyPrimo'}</t>
   </si>
   <si>
     <t>{'Rate': 1535.91, 'Carrier Name': 'Estes Express Lines', 'Service Provider': 'Ex-Freight'}</t>
   </si>
   <si>
-    <t>{'Rate': 640.12, 'Carrier Name': 'Estes Express Lines', 'Service Provider': 'Ex-Freight'}</t>
-  </si>
-  <si>
-    <t>{'Rate': 3447.12, 'Carrier Name': 'ABF Freight', 'Service Provider': 'Ex-Freight'}</t>
+    <t>{'Rate': 2366.32, 'Carrier Name': 'Estes Express Lines', 'Service Provider': 'Ex-Freight'}</t>
+  </si>
+  <si>
+    <t>{'Rate': 3251.9, 'Carrier Name': 'ABF Freight', 'Service Provider': 'Ex-Freight'}</t>
+  </si>
+  <si>
+    <t>{'Rate': 1026.06, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt'}</t>
+  </si>
+  <si>
+    <t>{'Rate': 2470.85, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt'}</t>
+  </si>
+  <si>
+    <t>{'Rate': 3512.9, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt'}</t>
+  </si>
+  <si>
+    <t>{'Rate': 0, 'Carrier Name': 'Jb Hunt API Failed :No valid rates returned', 'Service Provider': 'J.B. Hunt'}</t>
   </si>
   <si>
     <t>{'Rate': 20.423809523809524, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt'}</t>
   </si>
   <si>
-    <t>{'Rate': 1036.06, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt'}</t>
-  </si>
-  <si>
-    <t>{'Rate': 2496.85, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt'}</t>
-  </si>
-  <si>
-    <t>{'Rate': 1302.11, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt'}</t>
-  </si>
-  <si>
-    <t>{'Rate': 3531.82, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt'}</t>
+    <t>{'Rate': 3493.82, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt'}</t>
   </si>
   <si>
     <t>{'Rate': 14.446666666666667, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt'}</t>
@@ -313,13 +295,22 @@
     <t>{'Rate': 17.714285714285715, 'Carrier Name': '', 'Service Provider': 'NTG'}</t>
   </si>
   <si>
+    <t>{'Rate Type': 'Drayage', 'Rate': 872.37, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt'}</t>
+  </si>
+  <si>
     <t>{'Rate Type': 'Drayage', 'Rate': 714.31, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt'}</t>
   </si>
   <si>
-    <t>{'Rate Type': 'Drayage', 'Rate': 598.95, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt'}</t>
-  </si>
-  <si>
-    <t>{'Rate Type': 'Drayage', 'Rate': 881.37, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt'}</t>
+    <t>{'Rate Type': 'FTL', 'Rate': 1026.06, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt'}</t>
+  </si>
+  <si>
+    <t>{'Rate Type': 'LTL', 'Rate': 1535.91, 'Carrier Name': 'Estes Express Lines', 'Service Provider': 'Ex-Freight'}</t>
+  </si>
+  <si>
+    <t>{'Rate Type': 'LTL', 'Rate': 2366.32, 'Carrier Name': 'Estes Express Lines', 'Service Provider': 'Ex-Freight'}</t>
+  </si>
+  <si>
+    <t>{'Rate Type': 'LTL', 'Rate': 3251.9, 'Carrier Name': 'ABF Freight', 'Service Provider': 'Ex-Freight'}</t>
   </si>
   <si>
     <t>{'Rate Type': 'FTL53', 'Rate': 14.446666666666667, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt'}</t>
@@ -328,40 +319,19 @@
     <t>{'Rate Type': 'FTL53', 'Rate': 17.714285714285715, 'Carrier Name': '', 'Service Provider': 'NTG'}</t>
   </si>
   <si>
-    <t>{'Rate Type': 'FTL', 'Rate': 1036.06, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt'}</t>
-  </si>
-  <si>
-    <t>{'Rate Type': 'LTL', 'Rate': 1535.91, 'Carrier Name': 'Estes Express Lines', 'Service Provider': 'Ex-Freight'}</t>
-  </si>
-  <si>
-    <t>{'Rate Type': 'LTL', 'Rate': 640.12, 'Carrier Name': 'Estes Express Lines', 'Service Provider': 'Ex-Freight'}</t>
-  </si>
-  <si>
-    <t>{'Rate Type': 'LTL', 'Rate': 3447.12, 'Carrier Name': 'ABF Freight', 'Service Provider': 'Ex-Freight'}</t>
+    <t>CMM0246LCL0044</t>
   </si>
   <si>
     <t>CMM0246LCL0039</t>
   </si>
   <si>
-    <t>CMM0246LCL0045</t>
-  </si>
-  <si>
-    <t>CMM0246LCL0044</t>
-  </si>
-  <si>
     <t>Own Console</t>
   </si>
   <si>
-    <t>Coload</t>
-  </si>
-  <si>
-    <t>2025-08-11 12:53:50</t>
-  </si>
-  <si>
-    <t>2025-08-11 13:08:13</t>
-  </si>
-  <si>
-    <t>2025-08-11 14:55:35</t>
+    <t>2025-08-10 14:23:33</t>
+  </si>
+  <si>
+    <t>2025-08-11 12:43:13</t>
   </si>
 </sst>
 </file>
@@ -719,7 +689,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AP10"/>
+  <dimension ref="A1:AP9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -861,115 +831,109 @@
         <v>44</v>
       </c>
       <c r="C2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" t="s">
         <v>47</v>
-      </c>
-      <c r="D2" t="s">
-        <v>48</v>
       </c>
       <c r="E2">
         <v>29483</v>
       </c>
       <c r="F2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="H2">
-        <v>30567</v>
+        <v>28303</v>
       </c>
       <c r="I2" t="s">
+        <v>70</v>
+      </c>
+      <c r="J2" t="s">
+        <v>71</v>
+      </c>
+      <c r="K2">
+        <v>288</v>
+      </c>
+      <c r="L2">
+        <v>2592</v>
+      </c>
+      <c r="M2">
+        <v>9.02</v>
+      </c>
+      <c r="N2">
+        <v>6</v>
+      </c>
+      <c r="O2" t="s">
+        <v>75</v>
+      </c>
+      <c r="P2" t="s">
         <v>77</v>
       </c>
-      <c r="J2" t="s">
-        <v>78</v>
-      </c>
-      <c r="K2">
-        <v>10</v>
-      </c>
-      <c r="L2">
-        <v>2000</v>
-      </c>
-      <c r="M2">
-        <v>3660</v>
-      </c>
-      <c r="N2">
-        <v>1</v>
-      </c>
-      <c r="O2">
-        <v>2.6016</v>
-      </c>
-      <c r="P2">
-        <v>1</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>82</v>
-      </c>
-      <c r="R2" t="s">
-        <v>84</v>
-      </c>
-      <c r="S2">
+      <c r="Q2">
+        <v>45</v>
+      </c>
+      <c r="U2" t="s">
+        <v>93</v>
+      </c>
+      <c r="V2" t="s">
+        <v>93</v>
+      </c>
+      <c r="W2" t="s">
+        <v>93</v>
+      </c>
+      <c r="X2">
         <v>0</v>
       </c>
-      <c r="V2" t="s">
-        <v>97</v>
-      </c>
-      <c r="X2" t="s">
-        <v>102</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>102</v>
+      <c r="Y2">
+        <v>63.05785123966942</v>
       </c>
       <c r="Z2">
+        <v>68.60108849022374</v>
+      </c>
+      <c r="AA2">
+        <v>568.7818181818182</v>
+      </c>
+      <c r="AB2">
+        <v>50</v>
+      </c>
+      <c r="AC2">
+        <v>52</v>
+      </c>
+      <c r="AD2">
         <v>100</v>
       </c>
-      <c r="AA2">
-        <v>90.82251082251082</v>
-      </c>
-      <c r="AB2">
-        <v>140.8225108225108</v>
-      </c>
-      <c r="AC2">
-        <v>90.82251082251082</v>
-      </c>
-      <c r="AD2">
-        <v>50</v>
-      </c>
       <c r="AE2">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AF2">
-        <v>100</v>
+        <v>18</v>
       </c>
       <c r="AG2">
-        <v>50</v>
+        <v>108</v>
       </c>
       <c r="AH2">
-        <v>18</v>
+        <v>872.37</v>
       </c>
       <c r="AI2">
-        <v>18</v>
+        <v>1751.151818181818</v>
       </c>
       <c r="AJ2">
-        <v>14.44666666666667</v>
-      </c>
-      <c r="AK2">
-        <v>425.2691774891775</v>
-      </c>
-      <c r="AL2">
-        <v>425.2691774891775</v>
+        <v>194.1409997984277</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>101</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>59</v>
       </c>
       <c r="AM2" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="AN2" t="s">
-        <v>63</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>111</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:42">
@@ -980,118 +944,115 @@
         <v>44</v>
       </c>
       <c r="C3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E3">
         <v>7201</v>
       </c>
       <c r="F3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="H3">
-        <v>8873</v>
+        <v>46140</v>
       </c>
       <c r="I3" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="J3" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="K3">
-        <v>9</v>
+        <v>518</v>
       </c>
       <c r="L3">
-        <v>660</v>
+        <v>518</v>
       </c>
       <c r="M3">
-        <v>3660</v>
+        <v>16.224</v>
       </c>
       <c r="N3">
-        <v>1</v>
-      </c>
-      <c r="O3">
-        <v>2.6016</v>
-      </c>
-      <c r="P3">
-        <v>1</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>82</v>
+        <v>10</v>
+      </c>
+      <c r="O3" t="s">
+        <v>76</v>
+      </c>
+      <c r="P3" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
       </c>
       <c r="R3" t="s">
+        <v>81</v>
+      </c>
+      <c r="S3" t="s">
         <v>85</v>
       </c>
-      <c r="S3">
+      <c r="T3" t="s">
+        <v>85</v>
+      </c>
+      <c r="V3" t="s">
+        <v>95</v>
+      </c>
+      <c r="W3" t="s">
+        <v>95</v>
+      </c>
+      <c r="X3">
         <v>0</v>
       </c>
-      <c r="U3" t="s">
-        <v>92</v>
-      </c>
-      <c r="V3" t="s">
-        <v>98</v>
-      </c>
-      <c r="X3" t="s">
+      <c r="Y3">
+        <v>94.45887445887446</v>
+      </c>
+      <c r="Z3">
+        <v>97.54072850226697</v>
+      </c>
+      <c r="AA3">
+        <v>1532.500779220779</v>
+      </c>
+      <c r="AB3">
+        <v>50</v>
+      </c>
+      <c r="AC3">
+        <v>52</v>
+      </c>
+      <c r="AD3">
+        <v>100</v>
+      </c>
+      <c r="AE3">
+        <v>50</v>
+      </c>
+      <c r="AF3">
+        <v>18</v>
+      </c>
+      <c r="AG3">
+        <v>180</v>
+      </c>
+      <c r="AH3">
+        <v>1026.06</v>
+      </c>
+      <c r="AI3">
+        <v>2940.560779220779</v>
+      </c>
+      <c r="AJ3">
+        <v>181.2475825456595</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>101</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM3" t="s">
         <v>103</v>
       </c>
-      <c r="Y3" t="s">
-        <v>103</v>
-      </c>
-      <c r="Z3">
-        <v>100</v>
-      </c>
-      <c r="AA3">
-        <v>94.45887445887446</v>
-      </c>
-      <c r="AB3">
-        <v>144.4588744588744</v>
-      </c>
-      <c r="AC3">
-        <v>94.45887445887446</v>
-      </c>
-      <c r="AD3">
-        <v>50</v>
-      </c>
-      <c r="AE3">
-        <v>52</v>
-      </c>
-      <c r="AF3">
-        <v>100</v>
-      </c>
-      <c r="AG3">
-        <v>50</v>
-      </c>
-      <c r="AH3">
-        <v>18</v>
-      </c>
-      <c r="AI3">
-        <v>18</v>
-      </c>
-      <c r="AJ3">
-        <v>17.71428571428572</v>
-      </c>
-      <c r="AK3">
-        <v>432.1731601731602</v>
-      </c>
-      <c r="AL3">
-        <v>432.1731601731602</v>
-      </c>
-      <c r="AM3" t="s">
-        <v>108</v>
-      </c>
       <c r="AN3" t="s">
-        <v>64</v>
-      </c>
-      <c r="AO3" t="s">
-        <v>111</v>
-      </c>
-      <c r="AP3" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:42">
@@ -1102,115 +1063,115 @@
         <v>44</v>
       </c>
       <c r="C4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E4">
         <v>7201</v>
       </c>
       <c r="F4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G4" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="H4">
-        <v>21901</v>
+        <v>75241</v>
       </c>
       <c r="I4" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="J4" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="K4">
-        <v>10</v>
+        <v>461</v>
       </c>
       <c r="L4">
-        <v>1000</v>
+        <v>461</v>
       </c>
       <c r="M4">
-        <v>3660</v>
+        <v>14.439</v>
       </c>
       <c r="N4">
-        <v>1.382</v>
-      </c>
-      <c r="O4">
-        <v>2.6016</v>
-      </c>
-      <c r="P4">
-        <v>1</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>83</v>
+        <v>9</v>
+      </c>
+      <c r="O4" t="s">
+        <v>76</v>
+      </c>
+      <c r="P4" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
       </c>
       <c r="R4" t="s">
+        <v>82</v>
+      </c>
+      <c r="S4" t="s">
         <v>86</v>
       </c>
-      <c r="S4">
-        <v>50</v>
+      <c r="T4" t="s">
+        <v>86</v>
+      </c>
+      <c r="V4" t="s">
+        <v>96</v>
       </c>
       <c r="W4" t="s">
-        <v>99</v>
-      </c>
-      <c r="X4" t="s">
-        <v>99</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>99</v>
+        <v>96</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>94.45887445887446</v>
       </c>
       <c r="Z4">
+        <v>97.92171814611042</v>
+      </c>
+      <c r="AA4">
+        <v>1363.891688311688</v>
+      </c>
+      <c r="AB4">
+        <v>50</v>
+      </c>
+      <c r="AC4">
+        <v>52</v>
+      </c>
+      <c r="AD4">
         <v>100</v>
       </c>
-      <c r="AA4">
-        <v>61.2396694214876</v>
-      </c>
-      <c r="AB4">
-        <v>97.41911949384649</v>
-      </c>
-      <c r="AC4">
-        <v>84.63322314049586</v>
-      </c>
-      <c r="AD4">
-        <v>50</v>
-      </c>
       <c r="AE4">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AF4">
-        <v>100</v>
+        <v>18</v>
       </c>
       <c r="AG4">
-        <v>50</v>
+        <v>162</v>
       </c>
       <c r="AH4">
-        <v>18</v>
+        <v>1535.91</v>
       </c>
       <c r="AI4">
-        <v>18</v>
+        <v>3263.801688311688</v>
       </c>
       <c r="AJ4">
-        <v>714.3099999999999</v>
-      </c>
-      <c r="AK4">
-        <v>1118.943223140496</v>
-      </c>
-      <c r="AL4">
-        <v>809.6550095083182</v>
+        <v>226.0407014552038</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>101</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>61</v>
       </c>
       <c r="AM4" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="AN4" t="s">
-        <v>65</v>
-      </c>
-      <c r="AO4" t="s">
-        <v>111</v>
-      </c>
-      <c r="AP4" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:42">
@@ -1218,237 +1179,237 @@
         <v>42</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E5">
         <v>7201</v>
       </c>
       <c r="F5" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G5" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="H5">
-        <v>18202</v>
+        <v>85395</v>
       </c>
       <c r="I5" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="J5" t="s">
+        <v>71</v>
+      </c>
+      <c r="K5">
+        <v>461</v>
+      </c>
+      <c r="L5">
+        <v>461</v>
+      </c>
+      <c r="M5">
+        <v>14.439</v>
+      </c>
+      <c r="N5">
+        <v>9</v>
+      </c>
+      <c r="O5" t="s">
+        <v>76</v>
+      </c>
+      <c r="P5" t="s">
         <v>78</v>
       </c>
-      <c r="K5">
-        <v>500</v>
-      </c>
-      <c r="L5">
-        <v>50000</v>
-      </c>
-      <c r="M5">
-        <v>50000</v>
-      </c>
-      <c r="N5">
-        <v>69.12</v>
-      </c>
-      <c r="O5">
-        <v>69.12</v>
-      </c>
-      <c r="P5">
-        <v>39</v>
-      </c>
-      <c r="Q5" t="s">
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5" t="s">
         <v>83</v>
       </c>
-      <c r="R5" t="s">
-        <v>86</v>
-      </c>
-      <c r="S5">
-        <v>69.12</v>
+      <c r="S5" t="s">
+        <v>87</v>
+      </c>
+      <c r="T5" t="s">
+        <v>87</v>
+      </c>
+      <c r="V5" t="s">
+        <v>97</v>
       </c>
       <c r="W5" t="s">
+        <v>97</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>94.45887445887446</v>
+      </c>
+      <c r="Z5">
+        <v>97.92171814611042</v>
+      </c>
+      <c r="AA5">
+        <v>1363.891688311688</v>
+      </c>
+      <c r="AB5">
+        <v>50</v>
+      </c>
+      <c r="AC5">
+        <v>52</v>
+      </c>
+      <c r="AD5">
         <v>100</v>
       </c>
-      <c r="X5" t="s">
-        <v>100</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>100</v>
-      </c>
-      <c r="Z5">
-        <v>100</v>
-      </c>
-      <c r="AA5">
-        <v>61.2396694214876</v>
-      </c>
-      <c r="AB5">
-        <v>61.96304905111722</v>
-      </c>
-      <c r="AC5">
-        <v>4232.885950413223</v>
-      </c>
-      <c r="AD5">
-        <v>50</v>
-      </c>
       <c r="AE5">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AF5">
-        <v>100</v>
+        <v>18</v>
       </c>
       <c r="AG5">
-        <v>50</v>
+        <v>162</v>
       </c>
       <c r="AH5">
-        <v>18</v>
+        <v>2366.32</v>
       </c>
       <c r="AI5">
-        <v>702</v>
+        <v>4094.211688311689</v>
       </c>
       <c r="AJ5">
-        <v>598.95</v>
-      </c>
-      <c r="AK5">
-        <v>5835.835950413223</v>
-      </c>
-      <c r="AL5">
-        <v>84.4304969677839</v>
+        <v>283.5523019815561</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>101</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>62</v>
       </c>
       <c r="AM5" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="AN5" t="s">
-        <v>66</v>
-      </c>
-      <c r="AO5" t="s">
-        <v>111</v>
-      </c>
-      <c r="AP5" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:42">
       <c r="A6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" t="s">
         <v>46</v>
-      </c>
-      <c r="C6" t="s">
-        <v>47</v>
       </c>
       <c r="D6" t="s">
         <v>48</v>
       </c>
-      <c r="E6" t="s">
-        <v>51</v>
+      <c r="E6">
+        <v>7201</v>
       </c>
       <c r="F6" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G6" t="s">
-        <v>67</v>
-      </c>
-      <c r="H6" t="s">
-        <v>72</v>
+        <v>63</v>
+      </c>
+      <c r="H6">
+        <v>85043</v>
       </c>
       <c r="I6" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="J6" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="K6">
-        <v>288</v>
+        <v>576</v>
       </c>
       <c r="L6">
-        <v>2592</v>
+        <v>576</v>
       </c>
       <c r="M6">
-        <v>4608</v>
+        <v>18.04</v>
       </c>
       <c r="N6">
-        <v>9.02</v>
-      </c>
-      <c r="O6">
-        <v>72.16128</v>
-      </c>
-      <c r="P6">
-        <v>6</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>83</v>
+        <v>11</v>
+      </c>
+      <c r="O6" t="s">
+        <v>76</v>
+      </c>
+      <c r="P6" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
       </c>
       <c r="R6" t="s">
-        <v>86</v>
-      </c>
-      <c r="S6">
-        <v>45</v>
+        <v>84</v>
+      </c>
+      <c r="S6" t="s">
+        <v>88</v>
+      </c>
+      <c r="T6" t="s">
+        <v>90</v>
+      </c>
+      <c r="V6" t="s">
+        <v>98</v>
       </c>
       <c r="W6" t="s">
+        <v>98</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>94.45887445887446</v>
+      </c>
+      <c r="Z6">
+        <v>97.23049308415162</v>
+      </c>
+      <c r="AA6">
+        <v>1704.038095238095</v>
+      </c>
+      <c r="AB6">
+        <v>50</v>
+      </c>
+      <c r="AC6">
+        <v>52</v>
+      </c>
+      <c r="AD6">
+        <v>100</v>
+      </c>
+      <c r="AE6">
+        <v>50</v>
+      </c>
+      <c r="AF6">
+        <v>18</v>
+      </c>
+      <c r="AG6">
+        <v>198</v>
+      </c>
+      <c r="AH6">
+        <v>3251.9</v>
+      </c>
+      <c r="AI6">
+        <v>5355.938095238095</v>
+      </c>
+      <c r="AJ6">
+        <v>296.8923556118678</v>
+      </c>
+      <c r="AK6" t="s">
         <v>101</v>
       </c>
-      <c r="X6" t="s">
-        <v>101</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>101</v>
-      </c>
-      <c r="Z6">
-        <v>0</v>
-      </c>
-      <c r="AA6">
-        <v>63.05785123966942</v>
-      </c>
-      <c r="AB6">
-        <v>68.60108849022374</v>
-      </c>
-      <c r="AC6">
-        <v>568.7818181818182</v>
-      </c>
-      <c r="AD6">
-        <v>50</v>
-      </c>
-      <c r="AE6">
-        <v>52</v>
-      </c>
-      <c r="AF6">
-        <v>100</v>
-      </c>
-      <c r="AG6">
-        <v>50</v>
-      </c>
-      <c r="AH6">
-        <v>18</v>
-      </c>
-      <c r="AI6">
-        <v>108</v>
-      </c>
-      <c r="AJ6">
-        <v>881.37</v>
-      </c>
-      <c r="AK6">
-        <v>1760.151818181818</v>
-      </c>
-      <c r="AL6">
-        <v>195.1387825035275</v>
+      <c r="AL6" t="s">
+        <v>63</v>
       </c>
       <c r="AM6" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="AN6" t="s">
-        <v>67</v>
-      </c>
-      <c r="AO6" t="s">
-        <v>111</v>
-      </c>
-      <c r="AP6" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:42">
@@ -1456,124 +1417,118 @@
         <v>43</v>
       </c>
       <c r="B7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" t="s">
         <v>46</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>47</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>49</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G7" t="s">
+        <v>64</v>
+      </c>
+      <c r="H7" t="s">
+        <v>67</v>
+      </c>
+      <c r="I7" t="s">
+        <v>70</v>
+      </c>
+      <c r="J7" t="s">
+        <v>73</v>
+      </c>
+      <c r="K7">
+        <v>10</v>
+      </c>
+      <c r="L7">
+        <v>2000</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7" t="s">
+        <v>76</v>
+      </c>
+      <c r="P7" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="T7" t="s">
+        <v>91</v>
+      </c>
+      <c r="V7" t="s">
+        <v>99</v>
+      </c>
+      <c r="W7" t="s">
+        <v>99</v>
+      </c>
+      <c r="X7">
+        <v>100</v>
+      </c>
+      <c r="Y7">
+        <v>90.82251082251082</v>
+      </c>
+      <c r="Z7">
+        <v>140.8225108225108</v>
+      </c>
+      <c r="AA7">
+        <v>90.82251082251082</v>
+      </c>
+      <c r="AB7">
+        <v>50</v>
+      </c>
+      <c r="AC7">
         <v>52</v>
       </c>
-      <c r="F7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G7" t="s">
-        <v>68</v>
-      </c>
-      <c r="H7" t="s">
-        <v>73</v>
-      </c>
-      <c r="I7" t="s">
-        <v>77</v>
-      </c>
-      <c r="J7" t="s">
-        <v>81</v>
-      </c>
-      <c r="K7">
-        <v>518</v>
-      </c>
-      <c r="L7">
-        <v>518</v>
-      </c>
-      <c r="M7">
-        <v>4608</v>
-      </c>
-      <c r="N7">
-        <v>16.224</v>
-      </c>
-      <c r="O7">
-        <v>72.16128</v>
-      </c>
-      <c r="P7">
-        <v>10</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>82</v>
-      </c>
-      <c r="R7" t="s">
-        <v>87</v>
-      </c>
-      <c r="S7">
-        <v>0</v>
-      </c>
-      <c r="T7" t="s">
-        <v>88</v>
-      </c>
-      <c r="U7" t="s">
-        <v>93</v>
-      </c>
-      <c r="V7" t="s">
-        <v>93</v>
-      </c>
-      <c r="X7" t="s">
-        <v>104</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>104</v>
-      </c>
-      <c r="Z7">
-        <v>0</v>
-      </c>
-      <c r="AA7">
-        <v>94.45887445887446</v>
-      </c>
-      <c r="AB7">
-        <v>97.54072850226697</v>
-      </c>
-      <c r="AC7">
-        <v>1532.500779220779</v>
-      </c>
       <c r="AD7">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="AE7">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AF7">
-        <v>100</v>
+        <v>18</v>
       </c>
       <c r="AG7">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="AH7">
-        <v>18</v>
+        <v>14.44666666666667</v>
       </c>
       <c r="AI7">
-        <v>180</v>
+        <v>425.2691774891775</v>
       </c>
       <c r="AJ7">
-        <v>1036.06</v>
-      </c>
-      <c r="AK7">
-        <v>2950.560779220779</v>
-      </c>
-      <c r="AL7">
-        <v>181.863953354338</v>
+        <v>425.2691774891775</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>102</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>64</v>
       </c>
       <c r="AM7" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="AN7" t="s">
-        <v>68</v>
-      </c>
-      <c r="AO7" t="s">
-        <v>111</v>
-      </c>
-      <c r="AP7" t="s">
-        <v>115</v>
+        <v>105</v>
+      </c>
+      <c r="AO7">
+        <v>2.6016</v>
+      </c>
+      <c r="AP7">
+        <v>3660</v>
       </c>
     </row>
     <row r="8" spans="1:42">
@@ -1581,124 +1536,121 @@
         <v>43</v>
       </c>
       <c r="B8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" t="s">
         <v>46</v>
       </c>
-      <c r="C8" t="s">
-        <v>47</v>
-      </c>
       <c r="D8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F8" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G8" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="H8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I8" t="s">
+        <v>70</v>
+      </c>
+      <c r="J8" t="s">
         <v>74</v>
       </c>
-      <c r="I8" t="s">
-        <v>77</v>
-      </c>
-      <c r="J8" t="s">
-        <v>78</v>
-      </c>
       <c r="K8">
-        <v>461</v>
+        <v>9</v>
       </c>
       <c r="L8">
-        <v>461</v>
+        <v>660</v>
       </c>
       <c r="M8">
-        <v>4608</v>
+        <v>1</v>
       </c>
       <c r="N8">
-        <v>14.439</v>
-      </c>
-      <c r="O8">
-        <v>72.16128</v>
-      </c>
-      <c r="P8">
-        <v>9</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>82</v>
-      </c>
-      <c r="R8" t="s">
-        <v>87</v>
-      </c>
-      <c r="S8">
+        <v>1</v>
+      </c>
+      <c r="O8" t="s">
+        <v>76</v>
+      </c>
+      <c r="P8" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q8">
         <v>0</v>
       </c>
+      <c r="S8" t="s">
+        <v>89</v>
+      </c>
       <c r="T8" t="s">
-        <v>89</v>
-      </c>
-      <c r="U8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="V8" t="s">
-        <v>94</v>
-      </c>
-      <c r="X8" t="s">
-        <v>105</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>105</v>
+        <v>100</v>
+      </c>
+      <c r="W8" t="s">
+        <v>100</v>
+      </c>
+      <c r="X8">
+        <v>100</v>
+      </c>
+      <c r="Y8">
+        <v>94.45887445887446</v>
       </c>
       <c r="Z8">
-        <v>0</v>
+        <v>144.4588744588744</v>
       </c>
       <c r="AA8">
         <v>94.45887445887446</v>
       </c>
       <c r="AB8">
-        <v>97.92171814611042</v>
+        <v>50</v>
       </c>
       <c r="AC8">
-        <v>1363.891688311688</v>
+        <v>52</v>
       </c>
       <c r="AD8">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="AE8">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AF8">
-        <v>100</v>
+        <v>18</v>
       </c>
       <c r="AG8">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="AH8">
-        <v>18</v>
+        <v>17.71428571428572</v>
       </c>
       <c r="AI8">
-        <v>162</v>
+        <v>432.1731601731602</v>
       </c>
       <c r="AJ8">
-        <v>1535.91</v>
-      </c>
-      <c r="AK8">
-        <v>3263.801688311688</v>
-      </c>
-      <c r="AL8">
-        <v>226.0407014552038</v>
+        <v>432.1731601731602</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>102</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>65</v>
       </c>
       <c r="AM8" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="AN8" t="s">
-        <v>69</v>
-      </c>
-      <c r="AO8" t="s">
-        <v>111</v>
-      </c>
-      <c r="AP8" t="s">
-        <v>115</v>
+        <v>105</v>
+      </c>
+      <c r="AO8">
+        <v>2.6016</v>
+      </c>
+      <c r="AP8">
+        <v>3660</v>
       </c>
     </row>
     <row r="9" spans="1:42">
@@ -1706,249 +1658,118 @@
         <v>43</v>
       </c>
       <c r="B9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" t="s">
         <v>46</v>
       </c>
-      <c r="C9" t="s">
-        <v>47</v>
-      </c>
       <c r="D9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E9" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F9" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G9" t="s">
+        <v>66</v>
+      </c>
+      <c r="H9" t="s">
+        <v>69</v>
+      </c>
+      <c r="I9" t="s">
         <v>70</v>
       </c>
-      <c r="H9" t="s">
+      <c r="J9" t="s">
+        <v>74</v>
+      </c>
+      <c r="K9">
+        <v>10</v>
+      </c>
+      <c r="L9">
+        <v>1000</v>
+      </c>
+      <c r="M9">
+        <v>1.382</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9" t="s">
         <v>75</v>
       </c>
-      <c r="I9" t="s">
+      <c r="P9" t="s">
         <v>77</v>
       </c>
-      <c r="J9" t="s">
-        <v>80</v>
-      </c>
-      <c r="K9">
-        <v>461</v>
-      </c>
-      <c r="L9">
-        <v>461</v>
-      </c>
-      <c r="M9">
-        <v>4608</v>
-      </c>
-      <c r="N9">
-        <v>14.439</v>
-      </c>
-      <c r="O9">
-        <v>72.16128</v>
-      </c>
-      <c r="P9">
-        <v>9</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>82</v>
-      </c>
-      <c r="R9" t="s">
-        <v>87</v>
-      </c>
-      <c r="S9">
-        <v>0</v>
-      </c>
-      <c r="T9" t="s">
-        <v>90</v>
+      <c r="Q9">
+        <v>50</v>
       </c>
       <c r="U9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="V9" t="s">
-        <v>95</v>
-      </c>
-      <c r="X9" t="s">
-        <v>106</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>106</v>
+        <v>94</v>
+      </c>
+      <c r="W9" t="s">
+        <v>94</v>
+      </c>
+      <c r="X9">
+        <v>100</v>
+      </c>
+      <c r="Y9">
+        <v>61.2396694214876</v>
       </c>
       <c r="Z9">
-        <v>0</v>
+        <v>97.41911949384649</v>
       </c>
       <c r="AA9">
-        <v>250</v>
+        <v>84.63322314049586</v>
       </c>
       <c r="AB9">
-        <v>253.462843687236</v>
+        <v>50</v>
       </c>
       <c r="AC9">
-        <v>3609.75</v>
+        <v>52</v>
       </c>
       <c r="AD9">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="AE9">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AF9">
-        <v>100</v>
+        <v>18</v>
       </c>
       <c r="AG9">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="AH9">
-        <v>18</v>
+        <v>714.3099999999999</v>
       </c>
       <c r="AI9">
-        <v>162</v>
+        <v>1118.943223140496</v>
       </c>
       <c r="AJ9">
-        <v>640.12</v>
-      </c>
-      <c r="AK9">
-        <v>4613.87</v>
-      </c>
-      <c r="AL9">
-        <v>319.5422120645474</v>
+        <v>809.6550095083182</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>102</v>
+      </c>
+      <c r="AL9" t="s">
+        <v>66</v>
       </c>
       <c r="AM9" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="AN9" t="s">
-        <v>70</v>
-      </c>
-      <c r="AO9" t="s">
-        <v>112</v>
-      </c>
-      <c r="AP9" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="10" spans="1:42">
-      <c r="A10" t="s">
-        <v>43</v>
-      </c>
-      <c r="B10" t="s">
-        <v>46</v>
-      </c>
-      <c r="C10" t="s">
-        <v>47</v>
-      </c>
-      <c r="D10" t="s">
-        <v>49</v>
-      </c>
-      <c r="E10" t="s">
-        <v>52</v>
-      </c>
-      <c r="F10" t="s">
-        <v>62</v>
-      </c>
-      <c r="G10" t="s">
-        <v>71</v>
-      </c>
-      <c r="H10" t="s">
-        <v>76</v>
-      </c>
-      <c r="I10" t="s">
-        <v>77</v>
-      </c>
-      <c r="J10" t="s">
-        <v>79</v>
-      </c>
-      <c r="K10">
-        <v>576</v>
-      </c>
-      <c r="L10">
-        <v>576</v>
-      </c>
-      <c r="M10">
-        <v>4608</v>
-      </c>
-      <c r="N10">
-        <v>18.04</v>
-      </c>
-      <c r="O10">
-        <v>72.16128</v>
-      </c>
-      <c r="P10">
-        <v>11</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>82</v>
-      </c>
-      <c r="R10" t="s">
-        <v>87</v>
-      </c>
-      <c r="S10">
-        <v>0</v>
-      </c>
-      <c r="T10" t="s">
-        <v>91</v>
-      </c>
-      <c r="U10" t="s">
-        <v>96</v>
-      </c>
-      <c r="V10" t="s">
-        <v>96</v>
-      </c>
-      <c r="X10" t="s">
-        <v>107</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>107</v>
-      </c>
-      <c r="Z10">
-        <v>0</v>
-      </c>
-      <c r="AA10">
-        <v>94.45887445887446</v>
-      </c>
-      <c r="AB10">
-        <v>97.23049308415162</v>
-      </c>
-      <c r="AC10">
-        <v>1704.038095238095</v>
-      </c>
-      <c r="AD10">
-        <v>50</v>
-      </c>
-      <c r="AE10">
-        <v>52</v>
-      </c>
-      <c r="AF10">
-        <v>100</v>
-      </c>
-      <c r="AG10">
-        <v>50</v>
-      </c>
-      <c r="AH10">
-        <v>18</v>
-      </c>
-      <c r="AI10">
-        <v>198</v>
-      </c>
-      <c r="AJ10">
-        <v>3447.12</v>
-      </c>
-      <c r="AK10">
-        <v>5551.158095238095</v>
-      </c>
-      <c r="AL10">
-        <v>307.7138633724</v>
-      </c>
-      <c r="AM10" t="s">
-        <v>110</v>
-      </c>
-      <c r="AN10" t="s">
-        <v>71</v>
-      </c>
-      <c r="AO10" t="s">
-        <v>111</v>
-      </c>
-      <c r="AP10" t="s">
-        <v>115</v>
+        <v>105</v>
+      </c>
+      <c r="AO9">
+        <v>2.6016</v>
+      </c>
+      <c r="AP9">
+        <v>3660</v>
       </c>
     </row>
   </sheetData>

--- a/Logs/quotations.xlsx
+++ b/Logs/quotations.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="121">
   <si>
     <t>Shipment Scope</t>
   </si>
@@ -142,6 +142,9 @@
     <t>Quotation Total CBM</t>
   </si>
   <si>
+    <t>Pick-Up Charges(INR)</t>
+  </si>
+  <si>
     <t>Port-to-Door</t>
   </si>
   <si>
@@ -151,6 +154,12 @@
     <t>Nhava Sheva, India(INNSA)</t>
   </si>
   <si>
+    <t>583229, Koppal, Koppal, Karnataka, India</t>
+  </si>
+  <si>
+    <t>Nhava Sheva, India (INNSA)</t>
+  </si>
+  <si>
     <t>110020, Okhla Industrial Estate, South East Delhi, Delhi, India</t>
   </si>
   <si>
@@ -184,6 +193,12 @@
     <t>GYR3</t>
   </si>
   <si>
+    <t>AVP1</t>
+  </si>
+  <si>
+    <t>IUST</t>
+  </si>
+  <si>
     <t>AGS2</t>
   </si>
   <si>
@@ -208,6 +223,12 @@
     <t>GYR3 85043, Estrella Village, Phoenix, Arizona, United States</t>
   </si>
   <si>
+    <t>AVP1 18202, West Hazleton, West Hazleton, Pennsylvania, United States</t>
+  </si>
+  <si>
+    <t>IUST 17225, Greencastle, Greencastle, Pennsylvania, United States</t>
+  </si>
+  <si>
     <t>AGS2 30567, Pendergrass, Pendergrass, Georgia, United States</t>
   </si>
   <si>
@@ -241,6 +262,12 @@
     <t>NORTH</t>
   </si>
   <si>
+    <t>East Coast</t>
+  </si>
+  <si>
+    <t>_NotAvailable</t>
+  </si>
+  <si>
     <t>HOT</t>
   </si>
   <si>
@@ -253,12 +280,6 @@
     <t>['FTL', 'FTL53', 'LTL']</t>
   </si>
   <si>
-    <t>['FTL53']</t>
-  </si>
-  <si>
-    <t>['FTL', 'FTL53']</t>
-  </si>
-  <si>
     <t>{'Rate': 1784.96, 'Carrier Name': 'ABF Freight System VL', 'Service Provider': 'HeyPrimo'}</t>
   </si>
   <si>
@@ -271,6 +292,12 @@
     <t>{'Rate': 3251.9, 'Carrier Name': 'ABF Freight', 'Service Provider': 'Ex-Freight'}</t>
   </si>
   <si>
+    <t>{'Rate': 305.01, 'Carrier Name': 'Estes Express Lines', 'Service Provider': 'HeyPrimo'}</t>
+  </si>
+  <si>
+    <t>{'Rate': 97.0, 'Carrier Name': '', 'Service Provider': 'AmznFrgt'}</t>
+  </si>
+  <si>
     <t>{'Rate': 1026.06, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt'}</t>
   </si>
   <si>
@@ -283,22 +310,28 @@
     <t>{'Rate': 0, 'Carrier Name': 'Jb Hunt API Failed :No valid rates returned', 'Service Provider': 'J.B. Hunt'}</t>
   </si>
   <si>
-    <t>{'Rate': 20.423809523809524, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt'}</t>
+    <t>{'Rate': 711.44, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt'}</t>
+  </si>
+  <si>
+    <t>{'Rate': 417.9, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt'}</t>
   </si>
   <si>
     <t>{'Rate': 3493.82, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt'}</t>
   </si>
   <si>
-    <t>{'Rate': 14.446666666666667, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt'}</t>
-  </si>
-  <si>
-    <t>{'Rate': 17.714285714285715, 'Carrier Name': '', 'Service Provider': 'NTG'}</t>
+    <t>{'Rate': 372.0, 'Carrier Name': '', 'Service Provider': 'NTG'}</t>
   </si>
   <si>
     <t>{'Rate Type': 'Drayage', 'Rate': 872.37, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt'}</t>
   </si>
   <si>
-    <t>{'Rate Type': 'Drayage', 'Rate': 714.31, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt'}</t>
+    <t>{'Rate Type': 'Drayage', 'Rate': 581.95, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt'}</t>
+  </si>
+  <si>
+    <t>{'Rate Type': 'Drayage', 'Rate': 800.36, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt'}</t>
+  </si>
+  <si>
+    <t>{'Rate Type': 'Drayage', 'Rate': 681.31, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt'}</t>
   </si>
   <si>
     <t>{'Rate Type': 'FTL', 'Rate': 1026.06, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt'}</t>
@@ -313,15 +346,21 @@
     <t>{'Rate Type': 'LTL', 'Rate': 3251.9, 'Carrier Name': 'ABF Freight', 'Service Provider': 'Ex-Freight'}</t>
   </si>
   <si>
-    <t>{'Rate Type': 'FTL53', 'Rate': 14.446666666666667, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt'}</t>
-  </si>
-  <si>
-    <t>{'Rate Type': 'FTL53', 'Rate': 17.714285714285715, 'Carrier Name': '', 'Service Provider': 'NTG'}</t>
+    <t>{'Rate Type': 'LTL', 'Rate': 305.01, 'Carrier Name': 'Estes Express Lines', 'Service Provider': 'HeyPrimo'}</t>
+  </si>
+  <si>
+    <t>{'Rate Type': 'LTL', 'Rate': 97.0, 'Carrier Name': '', 'Service Provider': 'AmznFrgt'}</t>
   </si>
   <si>
     <t>CMM0246LCL0044</t>
   </si>
   <si>
+    <t>CMM0246LCL0045</t>
+  </si>
+  <si>
+    <t>CMM0246LCL0046</t>
+  </si>
+  <si>
     <t>CMM0246LCL0039</t>
   </si>
   <si>
@@ -331,7 +370,13 @@
     <t>2025-08-10 14:23:33</t>
   </si>
   <si>
-    <t>2025-08-11 12:43:13</t>
+    <t>2025-08-12 11:54:01</t>
+  </si>
+  <si>
+    <t>2025-08-12 12:51:25</t>
+  </si>
+  <si>
+    <t>2025-08-12 13:47:57</t>
   </si>
 </sst>
 </file>
@@ -689,13 +734,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AP9"/>
+  <dimension ref="A1:AQ11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:42">
+    <row r="1" spans="1:43">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -822,37 +867,40 @@
       <c r="AP1" s="1" t="s">
         <v>41</v>
       </c>
+      <c r="AQ1" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="2" spans="1:42">
+    <row r="2" spans="1:43">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E2">
         <v>29483</v>
       </c>
       <c r="F2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="H2">
         <v>28303</v>
       </c>
       <c r="I2" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="J2" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="K2">
         <v>288</v>
@@ -867,22 +915,22 @@
         <v>6</v>
       </c>
       <c r="O2" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="P2" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="Q2">
         <v>45</v>
       </c>
       <c r="U2" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="V2" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="W2" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="X2">
         <v>0</v>
@@ -924,48 +972,48 @@
         <v>194.1409997984277</v>
       </c>
       <c r="AK2" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="AL2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="AM2" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="AN2" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:42">
+    <row r="3" spans="1:43">
       <c r="A3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C3" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D3" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E3">
         <v>7201</v>
       </c>
       <c r="F3" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G3" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="H3">
         <v>46140</v>
       </c>
       <c r="I3" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="J3" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="K3">
         <v>518</v>
@@ -980,28 +1028,28 @@
         <v>10</v>
       </c>
       <c r="O3" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="P3" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
       <c r="R3" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="S3" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="T3" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="V3" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="W3" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="X3">
         <v>0</v>
@@ -1043,48 +1091,48 @@
         <v>181.2475825456595</v>
       </c>
       <c r="AK3" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="AL3" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AM3" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="AN3" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
     </row>
-    <row r="4" spans="1:42">
+    <row r="4" spans="1:43">
       <c r="A4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C4" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D4" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E4">
         <v>7201</v>
       </c>
       <c r="F4" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G4" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="H4">
         <v>75241</v>
       </c>
       <c r="I4" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="J4" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="K4">
         <v>461</v>
@@ -1099,28 +1147,28 @@
         <v>9</v>
       </c>
       <c r="O4" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="P4" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
       <c r="R4" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="S4" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="T4" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="V4" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="W4" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="X4">
         <v>0</v>
@@ -1162,48 +1210,48 @@
         <v>226.0407014552038</v>
       </c>
       <c r="AK4" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="AL4" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="AM4" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="AN4" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
     </row>
-    <row r="5" spans="1:42">
+    <row r="5" spans="1:43">
       <c r="A5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C5" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D5" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E5">
         <v>7201</v>
       </c>
       <c r="F5" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="G5" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="H5">
         <v>85395</v>
       </c>
       <c r="I5" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="J5" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="K5">
         <v>461</v>
@@ -1218,28 +1266,28 @@
         <v>9</v>
       </c>
       <c r="O5" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
       <c r="R5" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="S5" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="T5" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="V5" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="W5" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="X5">
         <v>0</v>
@@ -1281,48 +1329,48 @@
         <v>283.5523019815561</v>
       </c>
       <c r="AK5" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="AL5" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="AM5" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="AN5" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
     </row>
-    <row r="6" spans="1:42">
+    <row r="6" spans="1:43">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C6" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D6" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E6">
         <v>7201</v>
       </c>
       <c r="F6" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="G6" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="H6">
         <v>85043</v>
       </c>
       <c r="I6" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="J6" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="K6">
         <v>576</v>
@@ -1337,28 +1385,28 @@
         <v>11</v>
       </c>
       <c r="O6" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="P6" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
       <c r="R6" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="S6" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="T6" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="V6" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="W6" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="X6">
         <v>0</v>
@@ -1400,96 +1448,96 @@
         <v>296.8923556118678</v>
       </c>
       <c r="AK6" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="AL6" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="AM6" t="s">
+        <v>116</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="7" spans="1:43">
+      <c r="A7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7">
+        <v>7201</v>
+      </c>
+      <c r="F7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H7">
+        <v>18202</v>
+      </c>
+      <c r="I7" t="s">
+        <v>77</v>
+      </c>
+      <c r="J7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K7">
+        <v>500</v>
+      </c>
+      <c r="L7">
+        <v>50000</v>
+      </c>
+      <c r="M7">
+        <v>69.12</v>
+      </c>
+      <c r="N7">
+        <v>39</v>
+      </c>
+      <c r="O7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P7" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q7">
+        <v>69.12</v>
+      </c>
+      <c r="U7" t="s">
         <v>103</v>
       </c>
-      <c r="AN6" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="7" spans="1:42">
-      <c r="A7" t="s">
-        <v>43</v>
-      </c>
-      <c r="B7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F7" t="s">
-        <v>56</v>
-      </c>
-      <c r="G7" t="s">
-        <v>64</v>
-      </c>
-      <c r="H7" t="s">
-        <v>67</v>
-      </c>
-      <c r="I7" t="s">
-        <v>70</v>
-      </c>
-      <c r="J7" t="s">
-        <v>73</v>
-      </c>
-      <c r="K7">
-        <v>10</v>
-      </c>
-      <c r="L7">
-        <v>2000</v>
-      </c>
-      <c r="M7">
-        <v>1</v>
-      </c>
-      <c r="N7">
-        <v>1</v>
-      </c>
-      <c r="O7" t="s">
-        <v>76</v>
-      </c>
-      <c r="P7" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-      <c r="T7" t="s">
-        <v>91</v>
-      </c>
       <c r="V7" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="W7" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="X7">
         <v>100</v>
       </c>
       <c r="Y7">
-        <v>90.82251082251082</v>
+        <v>51.60984848484848</v>
       </c>
       <c r="Z7">
-        <v>140.8225108225108</v>
+        <v>52.33322811447811</v>
       </c>
       <c r="AA7">
-        <v>90.82251082251082</v>
+        <v>3567.272727272727</v>
       </c>
       <c r="AB7">
         <v>50</v>
       </c>
       <c r="AC7">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AD7">
         <v>100</v>
@@ -1501,117 +1549,114 @@
         <v>18</v>
       </c>
       <c r="AG7">
-        <v>18</v>
+        <v>702</v>
       </c>
       <c r="AH7">
-        <v>14.44666666666667</v>
+        <v>581.95</v>
       </c>
       <c r="AI7">
-        <v>425.2691774891775</v>
+        <v>5154.222727272728</v>
       </c>
       <c r="AJ7">
-        <v>425.2691774891775</v>
+        <v>74.56919454966331</v>
       </c>
       <c r="AK7" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="AL7" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="AM7" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="AN7" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="AO7">
-        <v>2.6016</v>
+        <v>50000</v>
       </c>
       <c r="AP7">
-        <v>3660</v>
+        <v>69.12</v>
       </c>
     </row>
-    <row r="8" spans="1:42">
+    <row r="8" spans="1:43">
       <c r="A8" t="s">
         <v>43</v>
       </c>
       <c r="B8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C8" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D8" t="s">
-        <v>48</v>
-      </c>
-      <c r="E8" t="s">
-        <v>50</v>
+        <v>51</v>
+      </c>
+      <c r="E8">
+        <v>7201</v>
       </c>
       <c r="F8" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G8" t="s">
-        <v>65</v>
-      </c>
-      <c r="H8" t="s">
-        <v>68</v>
+        <v>70</v>
+      </c>
+      <c r="H8">
+        <v>17225</v>
       </c>
       <c r="I8" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="J8" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="K8">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="L8">
-        <v>660</v>
+        <v>320</v>
       </c>
       <c r="M8">
-        <v>1</v>
+        <v>1.002</v>
       </c>
       <c r="N8">
         <v>1</v>
       </c>
       <c r="O8" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="P8" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="Q8">
+        <v>55</v>
+      </c>
+      <c r="U8" t="s">
+        <v>104</v>
+      </c>
+      <c r="V8" t="s">
+        <v>104</v>
+      </c>
+      <c r="W8" t="s">
+        <v>104</v>
+      </c>
+      <c r="X8">
         <v>0</v>
       </c>
-      <c r="S8" t="s">
-        <v>89</v>
-      </c>
-      <c r="T8" t="s">
-        <v>92</v>
-      </c>
-      <c r="V8" t="s">
-        <v>100</v>
-      </c>
-      <c r="W8" t="s">
-        <v>100</v>
-      </c>
-      <c r="X8">
-        <v>100</v>
-      </c>
       <c r="Y8">
-        <v>94.45887445887446</v>
+        <v>51.60984848484848</v>
       </c>
       <c r="Z8">
-        <v>144.4588744588744</v>
+        <v>101.5100480856469</v>
       </c>
       <c r="AA8">
-        <v>94.45887445887446</v>
+        <v>51.71306818181818</v>
       </c>
       <c r="AB8">
         <v>50</v>
       </c>
       <c r="AC8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AD8">
         <v>100</v>
@@ -1626,111 +1671,117 @@
         <v>18</v>
       </c>
       <c r="AH8">
-        <v>17.71428571428572</v>
+        <v>800.36</v>
       </c>
       <c r="AI8">
-        <v>432.1731601731602</v>
+        <v>1073.073068181818</v>
       </c>
       <c r="AJ8">
-        <v>432.1731601731602</v>
+        <v>1070.931205770278</v>
       </c>
       <c r="AK8" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="AL8" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AM8" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="AN8" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="AO8">
-        <v>2.6016</v>
+        <v>320</v>
       </c>
       <c r="AP8">
-        <v>3660</v>
+        <v>1.00224</v>
       </c>
     </row>
-    <row r="9" spans="1:42">
+    <row r="9" spans="1:43">
       <c r="A9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B9" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C9" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D9" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E9" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F9" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G9" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="H9" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="I9" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="J9" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="K9">
         <v>10</v>
       </c>
       <c r="L9">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="M9">
-        <v>1.382</v>
+        <v>1</v>
       </c>
       <c r="N9">
         <v>1</v>
       </c>
       <c r="O9" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="P9" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="Q9">
-        <v>50</v>
-      </c>
-      <c r="U9" t="s">
-        <v>94</v>
+        <v>0</v>
+      </c>
+      <c r="R9" t="s">
+        <v>92</v>
+      </c>
+      <c r="S9" t="s">
+        <v>98</v>
+      </c>
+      <c r="T9" t="s">
+        <v>98</v>
       </c>
       <c r="V9" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="W9" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="X9">
-        <v>100</v>
+        <v>113.6363636363636</v>
       </c>
       <c r="Y9">
-        <v>61.2396694214876</v>
+        <v>71.60984848484848</v>
       </c>
       <c r="Z9">
-        <v>97.41911949384649</v>
+        <v>121.6098484848485</v>
       </c>
       <c r="AA9">
-        <v>84.63322314049586</v>
+        <v>71.60984848484848</v>
       </c>
       <c r="AB9">
         <v>50</v>
       </c>
       <c r="AC9">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AD9">
         <v>100</v>
@@ -1739,37 +1790,290 @@
         <v>50</v>
       </c>
       <c r="AF9">
+        <v>20</v>
+      </c>
+      <c r="AG9">
+        <v>20</v>
+      </c>
+      <c r="AH9">
+        <v>305.01</v>
+      </c>
+      <c r="AI9">
+        <v>713.2562121212121</v>
+      </c>
+      <c r="AJ9">
+        <v>713.2562121212121</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL9" t="s">
+        <v>71</v>
+      </c>
+      <c r="AM9" t="s">
+        <v>116</v>
+      </c>
+      <c r="AN9" t="s">
+        <v>120</v>
+      </c>
+      <c r="AO9">
+        <v>3660</v>
+      </c>
+      <c r="AP9">
+        <v>2.6016</v>
+      </c>
+      <c r="AQ9">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:43">
+      <c r="A10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10" t="s">
+        <v>53</v>
+      </c>
+      <c r="F10" t="s">
+        <v>62</v>
+      </c>
+      <c r="G10" t="s">
+        <v>72</v>
+      </c>
+      <c r="H10" t="s">
+        <v>75</v>
+      </c>
+      <c r="I10" t="s">
+        <v>77</v>
+      </c>
+      <c r="J10" t="s">
+        <v>82</v>
+      </c>
+      <c r="K10">
+        <v>9</v>
+      </c>
+      <c r="L10">
+        <v>660</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10" t="s">
+        <v>85</v>
+      </c>
+      <c r="P10" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10" t="s">
+        <v>93</v>
+      </c>
+      <c r="S10" t="s">
+        <v>99</v>
+      </c>
+      <c r="T10" t="s">
+        <v>101</v>
+      </c>
+      <c r="V10" t="s">
+        <v>111</v>
+      </c>
+      <c r="W10" t="s">
+        <v>111</v>
+      </c>
+      <c r="X10">
+        <v>113.6363636363636</v>
+      </c>
+      <c r="Y10">
+        <v>71.35984848484848</v>
+      </c>
+      <c r="Z10">
+        <v>121.3598484848485</v>
+      </c>
+      <c r="AA10">
+        <v>71.35984848484848</v>
+      </c>
+      <c r="AB10">
+        <v>50</v>
+      </c>
+      <c r="AC10">
+        <v>53</v>
+      </c>
+      <c r="AD10">
+        <v>100</v>
+      </c>
+      <c r="AE10">
+        <v>50</v>
+      </c>
+      <c r="AF10">
         <v>18</v>
       </c>
-      <c r="AG9">
+      <c r="AG10">
         <v>18</v>
       </c>
-      <c r="AH9">
-        <v>714.3099999999999</v>
-      </c>
-      <c r="AI9">
-        <v>1118.943223140496</v>
-      </c>
-      <c r="AJ9">
-        <v>809.6550095083182</v>
-      </c>
-      <c r="AK9" t="s">
-        <v>102</v>
-      </c>
-      <c r="AL9" t="s">
-        <v>66</v>
-      </c>
-      <c r="AM9" t="s">
-        <v>103</v>
-      </c>
-      <c r="AN9" t="s">
+      <c r="AH10">
+        <v>97</v>
+      </c>
+      <c r="AI10">
+        <v>502.9962121212121</v>
+      </c>
+      <c r="AJ10">
+        <v>502.9962121212121</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>72</v>
+      </c>
+      <c r="AM10" t="s">
+        <v>116</v>
+      </c>
+      <c r="AN10" t="s">
+        <v>120</v>
+      </c>
+      <c r="AO10">
+        <v>3660</v>
+      </c>
+      <c r="AP10">
+        <v>2.6016</v>
+      </c>
+      <c r="AQ10">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:43">
+      <c r="A11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" t="s">
+        <v>53</v>
+      </c>
+      <c r="F11" t="s">
+        <v>63</v>
+      </c>
+      <c r="G11" t="s">
+        <v>73</v>
+      </c>
+      <c r="H11" t="s">
+        <v>76</v>
+      </c>
+      <c r="I11" t="s">
+        <v>77</v>
+      </c>
+      <c r="J11" t="s">
+        <v>83</v>
+      </c>
+      <c r="K11">
+        <v>10</v>
+      </c>
+      <c r="L11">
+        <v>1000</v>
+      </c>
+      <c r="M11">
+        <v>1.382</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11" t="s">
+        <v>84</v>
+      </c>
+      <c r="P11" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q11">
+        <v>55</v>
+      </c>
+      <c r="U11" t="s">
         <v>105</v>
       </c>
-      <c r="AO9">
+      <c r="V11" t="s">
+        <v>105</v>
+      </c>
+      <c r="W11" t="s">
+        <v>105</v>
+      </c>
+      <c r="X11">
+        <v>113.6363636363636</v>
+      </c>
+      <c r="Y11">
+        <v>51.60984848484848</v>
+      </c>
+      <c r="Z11">
+        <v>87.78929855720739</v>
+      </c>
+      <c r="AA11">
+        <v>71.32481060606059</v>
+      </c>
+      <c r="AB11">
+        <v>50</v>
+      </c>
+      <c r="AC11">
+        <v>53</v>
+      </c>
+      <c r="AD11">
+        <v>100</v>
+      </c>
+      <c r="AE11">
+        <v>50</v>
+      </c>
+      <c r="AF11">
+        <v>18</v>
+      </c>
+      <c r="AG11">
+        <v>18</v>
+      </c>
+      <c r="AH11">
+        <v>681.3099999999999</v>
+      </c>
+      <c r="AI11">
+        <v>1087.271174242424</v>
+      </c>
+      <c r="AJ11">
+        <v>786.7374632723764</v>
+      </c>
+      <c r="AK11" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AM11" t="s">
+        <v>116</v>
+      </c>
+      <c r="AN11" t="s">
+        <v>120</v>
+      </c>
+      <c r="AO11">
+        <v>3660</v>
+      </c>
+      <c r="AP11">
         <v>2.6016</v>
       </c>
-      <c r="AP9">
-        <v>3660</v>
+      <c r="AQ11">
+        <v>10000</v>
       </c>
     </row>
   </sheetData>

--- a/Logs/quotations.xlsx
+++ b/Logs/quotations.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="147">
   <si>
     <t>Shipment Scope</t>
   </si>
@@ -157,6 +157,9 @@
     <t>583229, Koppal, Koppal, Karnataka, India</t>
   </si>
   <si>
+    <t>303905, Jaipur, Jaipur, Rajasthan, India</t>
+  </si>
+  <si>
     <t>Nhava Sheva, India (INNSA)</t>
   </si>
   <si>
@@ -172,10 +175,13 @@
     <t>New York</t>
   </si>
   <si>
-    <t>29483</t>
-  </si>
-  <si>
-    <t>07201</t>
+    <t>Los Angeles</t>
+  </si>
+  <si>
+    <t>Jacksonville</t>
+  </si>
+  <si>
+    <t>32226</t>
   </si>
   <si>
     <t>RDU4</t>
@@ -205,7 +211,7 @@
     <t>TEB9</t>
   </si>
   <si>
-    <t>IUSL</t>
+    <t>TMB8</t>
   </si>
   <si>
     <t>RDU4 28303, Terry Sanford, Fayetteville, North Carolina, United States</t>
@@ -235,21 +241,18 @@
     <t>TEB9 08873, Somerset, Franklin Township, New Jersey, United States</t>
   </si>
   <si>
-    <t>IUSL 21901, North East, North East, Maryland, United States</t>
-  </si>
-  <si>
-    <t>30567</t>
-  </si>
-  <si>
-    <t>08873</t>
-  </si>
-  <si>
-    <t>21901</t>
+    <t>TMB8 33032, Princeton, Princeton, Florida, United States</t>
+  </si>
+  <si>
+    <t>33032</t>
   </si>
   <si>
     <t>Agraga</t>
   </si>
   <si>
+    <t>_NotAvailable</t>
+  </si>
+  <si>
     <t>WEST</t>
   </si>
   <si>
@@ -265,7 +268,10 @@
     <t>East Coast</t>
   </si>
   <si>
-    <t>_NotAvailable</t>
+    <t>Gulf Coast</t>
+  </si>
+  <si>
+    <t>West Coast</t>
   </si>
   <si>
     <t>HOT</t>
@@ -292,10 +298,28 @@
     <t>{'Rate': 3251.9, 'Carrier Name': 'ABF Freight', 'Service Provider': 'Ex-Freight'}</t>
   </si>
   <si>
+    <t>{'Rate': 180.0, 'Carrier Name': '', 'Service Provider': 'AmznFrgt'}</t>
+  </si>
+  <si>
     <t>{'Rate': 305.01, 'Carrier Name': 'Estes Express Lines', 'Service Provider': 'HeyPrimo'}</t>
   </si>
   <si>
-    <t>{'Rate': 97.0, 'Carrier Name': '', 'Service Provider': 'AmznFrgt'}</t>
+    <t>{'Rate': 322.38, 'Carrier Name': 'Estes Express Lines', 'Service Provider': 'Ex-Freight'}</t>
+  </si>
+  <si>
+    <t>{'Rate': 337.33, 'Carrier Name': 'ABF Density', 'Service Provider': 'HeyPrimo'}</t>
+  </si>
+  <si>
+    <t>{'Rate': 781.24, 'Carrier Name': 'Estes Express Lines VL', 'Service Provider': 'HeyPrimo'}</t>
+  </si>
+  <si>
+    <t>{'Rate': 574.67, 'Carrier Name': 'Frontline Freight', 'Service Provider': 'Ex-Freight'}</t>
+  </si>
+  <si>
+    <t>{'Rate': 384.33, 'Carrier Name': 'Estes Express Lines', 'Service Provider': 'Ex-Freight'}</t>
+  </si>
+  <si>
+    <t>{'Rate': 473.09, 'Carrier Name': 'Estes Express Lines', 'Service Provider': 'Ex-Freight'}</t>
   </si>
   <si>
     <t>{'Rate': 1026.06, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt'}</t>
@@ -310,18 +334,33 @@
     <t>{'Rate': 0, 'Carrier Name': 'Jb Hunt API Failed :No valid rates returned', 'Service Provider': 'J.B. Hunt'}</t>
   </si>
   <si>
-    <t>{'Rate': 711.44, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt'}</t>
-  </si>
-  <si>
-    <t>{'Rate': 417.9, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt'}</t>
+    <t>{'Rate': 581.95, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt'}</t>
+  </si>
+  <si>
+    <t>{'Rate': 705.01, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt'}</t>
+  </si>
+  <si>
+    <t>{'Rate': 1937.76, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt'}</t>
+  </si>
+  <si>
+    <t>{'Rate': 883.51, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt'}</t>
+  </si>
+  <si>
+    <t>{'Rate': 998.38, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt'}</t>
+  </si>
+  <si>
+    <t>{'Rate': 3300.72, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt'}</t>
+  </si>
+  <si>
+    <t>{'Rate': 1378.53, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt'}</t>
+  </si>
+  <si>
+    <t>{'Rate': 1477.49, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt'}</t>
   </si>
   <si>
     <t>{'Rate': 3493.82, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt'}</t>
   </si>
   <si>
-    <t>{'Rate': 372.0, 'Carrier Name': '', 'Service Provider': 'NTG'}</t>
-  </si>
-  <si>
     <t>{'Rate Type': 'Drayage', 'Rate': 872.37, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt'}</t>
   </si>
   <si>
@@ -331,7 +370,10 @@
     <t>{'Rate Type': 'Drayage', 'Rate': 800.36, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt'}</t>
   </si>
   <si>
-    <t>{'Rate Type': 'Drayage', 'Rate': 681.31, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt'}</t>
+    <t>{'Rate Type': 'Drayage', 'Rate': 793.17, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt'}</t>
+  </si>
+  <si>
+    <t>{'Rate Type': 'Drayage', 'Rate': 1677.2400000000002, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt'}</t>
   </si>
   <si>
     <t>{'Rate Type': 'FTL', 'Rate': 1026.06, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt'}</t>
@@ -346,10 +388,28 @@
     <t>{'Rate Type': 'LTL', 'Rate': 3251.9, 'Carrier Name': 'ABF Freight', 'Service Provider': 'Ex-Freight'}</t>
   </si>
   <si>
+    <t>{'Rate Type': 'LTL', 'Rate': 180.0, 'Carrier Name': '', 'Service Provider': 'AmznFrgt'}</t>
+  </si>
+  <si>
     <t>{'Rate Type': 'LTL', 'Rate': 305.01, 'Carrier Name': 'Estes Express Lines', 'Service Provider': 'HeyPrimo'}</t>
   </si>
   <si>
-    <t>{'Rate Type': 'LTL', 'Rate': 97.0, 'Carrier Name': '', 'Service Provider': 'AmznFrgt'}</t>
+    <t>{'Rate Type': 'LTL', 'Rate': 322.38, 'Carrier Name': 'Estes Express Lines', 'Service Provider': 'Ex-Freight'}</t>
+  </si>
+  <si>
+    <t>{'Rate Type': 'LTL', 'Rate': 337.33, 'Carrier Name': 'ABF Density', 'Service Provider': 'HeyPrimo'}</t>
+  </si>
+  <si>
+    <t>{'Rate Type': 'LTL', 'Rate': 781.24, 'Carrier Name': 'Estes Express Lines VL', 'Service Provider': 'HeyPrimo'}</t>
+  </si>
+  <si>
+    <t>{'Rate Type': 'LTL', 'Rate': 574.67, 'Carrier Name': 'Frontline Freight', 'Service Provider': 'Ex-Freight'}</t>
+  </si>
+  <si>
+    <t>{'Rate Type': 'LTL', 'Rate': 384.33, 'Carrier Name': 'Estes Express Lines', 'Service Provider': 'Ex-Freight'}</t>
+  </si>
+  <si>
+    <t>{'Rate Type': 'LTL', 'Rate': 473.09, 'Carrier Name': 'Estes Express Lines', 'Service Provider': 'Ex-Freight'}</t>
   </si>
   <si>
     <t>CMM0246LCL0044</t>
@@ -358,12 +418,21 @@
     <t>CMM0246LCL0045</t>
   </si>
   <si>
+    <t>CMM0246LCL0048</t>
+  </si>
+  <si>
     <t>CMM0246LCL0046</t>
   </si>
   <si>
     <t>CMM0246LCL0039</t>
   </si>
   <si>
+    <t>CMM0246LCL0049</t>
+  </si>
+  <si>
+    <t>CMM0613LCL0008</t>
+  </si>
+  <si>
     <t>Own Console</t>
   </si>
   <si>
@@ -373,10 +442,19 @@
     <t>2025-08-12 11:54:01</t>
   </si>
   <si>
-    <t>2025-08-12 12:51:25</t>
-  </si>
-  <si>
-    <t>2025-08-12 13:47:57</t>
+    <t>2025-08-12 14:45:28</t>
+  </si>
+  <si>
+    <t>2025-08-13 07:43:45</t>
+  </si>
+  <si>
+    <t>2025-08-13 07:50:03</t>
+  </si>
+  <si>
+    <t>2025-08-13 08:01:38</t>
+  </si>
+  <si>
+    <t>2025-08-13 08:06:41</t>
   </si>
 </sst>
 </file>
@@ -734,7 +812,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ11"/>
+  <dimension ref="A1:AQ18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -879,19 +957,19 @@
         <v>45</v>
       </c>
       <c r="C2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E2">
         <v>29483</v>
       </c>
       <c r="F2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H2">
         <v>28303</v>
@@ -900,7 +978,7 @@
         <v>77</v>
       </c>
       <c r="J2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K2">
         <v>288</v>
@@ -915,22 +993,22 @@
         <v>6</v>
       </c>
       <c r="O2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="Q2">
         <v>45</v>
       </c>
       <c r="U2" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="V2" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="W2" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="X2">
         <v>0</v>
@@ -972,16 +1050,16 @@
         <v>194.1409997984277</v>
       </c>
       <c r="AK2" t="s">
-        <v>112</v>
+        <v>132</v>
       </c>
       <c r="AL2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AM2" t="s">
-        <v>116</v>
+        <v>139</v>
       </c>
       <c r="AN2" t="s">
-        <v>117</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -992,19 +1070,19 @@
         <v>45</v>
       </c>
       <c r="C3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E3">
         <v>7201</v>
       </c>
       <c r="F3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H3">
         <v>46140</v>
@@ -1013,7 +1091,7 @@
         <v>77</v>
       </c>
       <c r="J3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K3">
         <v>518</v>
@@ -1028,28 +1106,28 @@
         <v>10</v>
       </c>
       <c r="O3" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
       <c r="R3" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="S3" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="T3" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="V3" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="W3" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="X3">
         <v>0</v>
@@ -1091,16 +1169,16 @@
         <v>181.2475825456595</v>
       </c>
       <c r="AK3" t="s">
-        <v>112</v>
+        <v>132</v>
       </c>
       <c r="AL3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AM3" t="s">
-        <v>116</v>
+        <v>139</v>
       </c>
       <c r="AN3" t="s">
-        <v>117</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -1111,19 +1189,19 @@
         <v>45</v>
       </c>
       <c r="C4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E4">
         <v>7201</v>
       </c>
       <c r="F4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H4">
         <v>75241</v>
@@ -1132,7 +1210,7 @@
         <v>77</v>
       </c>
       <c r="J4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K4">
         <v>461</v>
@@ -1147,28 +1225,28 @@
         <v>9</v>
       </c>
       <c r="O4" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="P4" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
       <c r="R4" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="S4" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="T4" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="V4" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="W4" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="X4">
         <v>0</v>
@@ -1210,16 +1288,16 @@
         <v>226.0407014552038</v>
       </c>
       <c r="AK4" t="s">
-        <v>112</v>
+        <v>132</v>
       </c>
       <c r="AL4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="AM4" t="s">
-        <v>116</v>
+        <v>139</v>
       </c>
       <c r="AN4" t="s">
-        <v>117</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:43">
@@ -1230,19 +1308,19 @@
         <v>45</v>
       </c>
       <c r="C5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E5">
         <v>7201</v>
       </c>
       <c r="F5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H5">
         <v>85395</v>
@@ -1251,7 +1329,7 @@
         <v>77</v>
       </c>
       <c r="J5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K5">
         <v>461</v>
@@ -1266,28 +1344,28 @@
         <v>9</v>
       </c>
       <c r="O5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="P5" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
       <c r="R5" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="S5" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="T5" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="V5" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="W5" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="X5">
         <v>0</v>
@@ -1329,16 +1407,16 @@
         <v>283.5523019815561</v>
       </c>
       <c r="AK5" t="s">
-        <v>112</v>
+        <v>132</v>
       </c>
       <c r="AL5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="AM5" t="s">
-        <v>116</v>
+        <v>139</v>
       </c>
       <c r="AN5" t="s">
-        <v>117</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:43">
@@ -1349,19 +1427,19 @@
         <v>45</v>
       </c>
       <c r="C6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E6">
         <v>7201</v>
       </c>
       <c r="F6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G6" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H6">
         <v>85043</v>
@@ -1370,7 +1448,7 @@
         <v>77</v>
       </c>
       <c r="J6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K6">
         <v>576</v>
@@ -1385,28 +1463,28 @@
         <v>11</v>
       </c>
       <c r="O6" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="P6" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
       <c r="R6" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="S6" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="T6" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="V6" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="W6" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="X6">
         <v>0</v>
@@ -1448,16 +1526,16 @@
         <v>296.8923556118678</v>
       </c>
       <c r="AK6" t="s">
-        <v>112</v>
+        <v>132</v>
       </c>
       <c r="AL6" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="AM6" t="s">
-        <v>116</v>
+        <v>139</v>
       </c>
       <c r="AN6" t="s">
-        <v>117</v>
+        <v>140</v>
       </c>
     </row>
     <row r="7" spans="1:43">
@@ -1468,19 +1546,19 @@
         <v>46</v>
       </c>
       <c r="C7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E7">
         <v>7201</v>
       </c>
       <c r="F7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H7">
         <v>18202</v>
@@ -1489,7 +1567,7 @@
         <v>77</v>
       </c>
       <c r="J7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K7">
         <v>500</v>
@@ -1504,22 +1582,22 @@
         <v>39</v>
       </c>
       <c r="O7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="Q7">
         <v>69.12</v>
       </c>
       <c r="U7" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="V7" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="W7" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="X7">
         <v>100</v>
@@ -1561,16 +1639,16 @@
         <v>74.56919454966331</v>
       </c>
       <c r="AK7" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="AL7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="AM7" t="s">
-        <v>116</v>
+        <v>139</v>
       </c>
       <c r="AN7" t="s">
-        <v>118</v>
+        <v>141</v>
       </c>
       <c r="AO7">
         <v>50000</v>
@@ -1581,28 +1659,28 @@
     </row>
     <row r="8" spans="1:43">
       <c r="A8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B8" t="s">
         <v>47</v>
       </c>
       <c r="C8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E8">
         <v>7201</v>
       </c>
       <c r="F8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H8">
-        <v>17225</v>
+        <v>18202</v>
       </c>
       <c r="I8" t="s">
         <v>77</v>
@@ -1611,46 +1689,52 @@
         <v>83</v>
       </c>
       <c r="K8">
-        <v>32</v>
+        <v>96</v>
       </c>
       <c r="L8">
-        <v>320</v>
+        <v>1152</v>
       </c>
       <c r="M8">
-        <v>1.002</v>
+        <v>3.007</v>
       </c>
       <c r="N8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O8" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="P8" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="Q8">
-        <v>55</v>
-      </c>
-      <c r="U8" t="s">
-        <v>104</v>
+        <v>0</v>
+      </c>
+      <c r="R8" t="s">
+        <v>94</v>
+      </c>
+      <c r="S8" t="s">
+        <v>106</v>
+      </c>
+      <c r="T8" t="s">
+        <v>106</v>
       </c>
       <c r="V8" t="s">
-        <v>104</v>
+        <v>124</v>
       </c>
       <c r="W8" t="s">
-        <v>104</v>
+        <v>124</v>
       </c>
       <c r="X8">
-        <v>0</v>
+        <v>113.6363636363636</v>
       </c>
       <c r="Y8">
-        <v>51.60984848484848</v>
+        <v>71.35984848484848</v>
       </c>
       <c r="Z8">
-        <v>101.5100480856469</v>
+        <v>87.98771679213149</v>
       </c>
       <c r="AA8">
-        <v>51.71306818181818</v>
+        <v>214.5790643939394</v>
       </c>
       <c r="AB8">
         <v>50</v>
@@ -1668,34 +1752,37 @@
         <v>18</v>
       </c>
       <c r="AG8">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="AH8">
-        <v>800.36</v>
+        <v>180</v>
       </c>
       <c r="AI8">
-        <v>1073.073068181818</v>
+        <v>747.2154280303031</v>
       </c>
       <c r="AJ8">
-        <v>1070.931205770278</v>
+        <v>248.4919946891596</v>
       </c>
       <c r="AK8" t="s">
-        <v>114</v>
+        <v>134</v>
       </c>
       <c r="AL8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AM8" t="s">
-        <v>116</v>
+        <v>139</v>
       </c>
       <c r="AN8" t="s">
-        <v>119</v>
+        <v>142</v>
       </c>
       <c r="AO8">
-        <v>320</v>
+        <v>2944</v>
       </c>
       <c r="AP8">
-        <v>1.00224</v>
+        <v>7.01568</v>
+      </c>
+      <c r="AQ8">
+        <v>10000</v>
       </c>
     </row>
     <row r="9" spans="1:43">
@@ -1703,79 +1790,73 @@
         <v>44</v>
       </c>
       <c r="B9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D9" t="s">
-        <v>50</v>
-      </c>
-      <c r="E9" t="s">
         <v>52</v>
       </c>
+      <c r="E9">
+        <v>7201</v>
+      </c>
       <c r="F9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G9" t="s">
-        <v>71</v>
-      </c>
-      <c r="H9" t="s">
-        <v>74</v>
+        <v>72</v>
+      </c>
+      <c r="H9">
+        <v>17225</v>
       </c>
       <c r="I9" t="s">
         <v>77</v>
       </c>
       <c r="J9" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="K9">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="L9">
-        <v>2000</v>
+        <v>1792</v>
       </c>
       <c r="M9">
-        <v>1</v>
+        <v>4.009</v>
       </c>
       <c r="N9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O9" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-      <c r="R9" t="s">
-        <v>92</v>
-      </c>
-      <c r="S9" t="s">
-        <v>98</v>
-      </c>
-      <c r="T9" t="s">
-        <v>98</v>
+        <v>55</v>
+      </c>
+      <c r="U9" t="s">
+        <v>117</v>
       </c>
       <c r="V9" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="W9" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="X9">
         <v>113.6363636363636</v>
       </c>
       <c r="Y9">
-        <v>71.60984848484848</v>
+        <v>51.60984848484848</v>
       </c>
       <c r="Z9">
-        <v>121.6098484848485</v>
+        <v>64.08178662403532</v>
       </c>
       <c r="AA9">
-        <v>71.60984848484848</v>
+        <v>206.9038825757576</v>
       </c>
       <c r="AB9">
         <v>50</v>
@@ -1790,37 +1871,37 @@
         <v>50</v>
       </c>
       <c r="AF9">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AG9">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="AH9">
-        <v>305.01</v>
+        <v>800.36</v>
       </c>
       <c r="AI9">
-        <v>713.2562121212121</v>
+        <v>1377.900246212121</v>
       </c>
       <c r="AJ9">
-        <v>713.2562121212121</v>
+        <v>343.7017326545575</v>
       </c>
       <c r="AK9" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="AL9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AM9" t="s">
-        <v>116</v>
+        <v>139</v>
       </c>
       <c r="AN9" t="s">
-        <v>120</v>
+        <v>142</v>
       </c>
       <c r="AO9">
-        <v>3660</v>
+        <v>2944</v>
       </c>
       <c r="AP9">
-        <v>2.6016</v>
+        <v>7.01568</v>
       </c>
       <c r="AQ9">
         <v>10000</v>
@@ -1828,19 +1909,19 @@
     </row>
     <row r="10" spans="1:43">
       <c r="A10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B10" t="s">
         <v>48</v>
       </c>
       <c r="C10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D10" t="s">
-        <v>51</v>
-      </c>
-      <c r="E10" t="s">
-        <v>53</v>
+        <v>52</v>
+      </c>
+      <c r="E10">
+        <v>7201</v>
       </c>
       <c r="F10" t="s">
         <v>62</v>
@@ -1848,62 +1929,56 @@
       <c r="G10" t="s">
         <v>72</v>
       </c>
-      <c r="H10" t="s">
-        <v>75</v>
+      <c r="H10">
+        <v>17225</v>
       </c>
       <c r="I10" t="s">
         <v>77</v>
       </c>
       <c r="J10" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="K10">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="L10">
-        <v>660</v>
+        <v>320</v>
       </c>
       <c r="M10">
-        <v>1</v>
+        <v>1.002</v>
       </c>
       <c r="N10">
         <v>1</v>
       </c>
       <c r="O10" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P10" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-      <c r="R10" t="s">
-        <v>93</v>
-      </c>
-      <c r="S10" t="s">
-        <v>99</v>
-      </c>
-      <c r="T10" t="s">
-        <v>101</v>
+        <v>55</v>
+      </c>
+      <c r="U10" t="s">
+        <v>118</v>
       </c>
       <c r="V10" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="W10" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="X10">
-        <v>113.6363636363636</v>
+        <v>0</v>
       </c>
       <c r="Y10">
-        <v>71.35984848484848</v>
+        <v>51.60984848484848</v>
       </c>
       <c r="Z10">
-        <v>121.3598484848485</v>
+        <v>101.5100480856469</v>
       </c>
       <c r="AA10">
-        <v>71.35984848484848</v>
+        <v>51.71306818181818</v>
       </c>
       <c r="AB10">
         <v>50</v>
@@ -1924,34 +1999,34 @@
         <v>18</v>
       </c>
       <c r="AH10">
-        <v>97</v>
+        <v>793.17</v>
       </c>
       <c r="AI10">
-        <v>502.9962121212121</v>
+        <v>1065.883068181818</v>
       </c>
       <c r="AJ10">
-        <v>502.9962121212121</v>
+        <v>1063.755557067683</v>
       </c>
       <c r="AK10" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="AL10" t="s">
         <v>72</v>
       </c>
       <c r="AM10" t="s">
-        <v>116</v>
+        <v>139</v>
       </c>
       <c r="AN10" t="s">
-        <v>120</v>
+        <v>143</v>
       </c>
       <c r="AO10">
-        <v>3660</v>
+        <v>320</v>
       </c>
       <c r="AP10">
-        <v>2.6016</v>
+        <v>1.00224</v>
       </c>
       <c r="AQ10">
-        <v>10000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:43">
@@ -1959,16 +2034,16 @@
         <v>44</v>
       </c>
       <c r="B11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D11" t="s">
         <v>51</v>
       </c>
-      <c r="E11" t="s">
-        <v>53</v>
+      <c r="E11">
+        <v>29483</v>
       </c>
       <c r="F11" t="s">
         <v>63</v>
@@ -1976,56 +2051,62 @@
       <c r="G11" t="s">
         <v>73</v>
       </c>
-      <c r="H11" t="s">
-        <v>76</v>
+      <c r="H11">
+        <v>30567</v>
       </c>
       <c r="I11" t="s">
         <v>77</v>
       </c>
       <c r="J11" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="K11">
         <v>10</v>
       </c>
       <c r="L11">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="M11">
-        <v>1.382</v>
+        <v>1</v>
       </c>
       <c r="N11">
         <v>1</v>
       </c>
       <c r="O11" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="P11" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="Q11">
-        <v>55</v>
-      </c>
-      <c r="U11" t="s">
-        <v>105</v>
+        <v>0</v>
+      </c>
+      <c r="R11" t="s">
+        <v>95</v>
+      </c>
+      <c r="S11" t="s">
+        <v>107</v>
+      </c>
+      <c r="T11" t="s">
+        <v>107</v>
       </c>
       <c r="V11" t="s">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="W11" t="s">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="X11">
         <v>113.6363636363636</v>
       </c>
       <c r="Y11">
-        <v>51.60984848484848</v>
+        <v>71.60984848484848</v>
       </c>
       <c r="Z11">
-        <v>87.78929855720739</v>
+        <v>121.6098484848485</v>
       </c>
       <c r="AA11">
-        <v>71.32481060606059</v>
+        <v>71.60984848484848</v>
       </c>
       <c r="AB11">
         <v>50</v>
@@ -2040,31 +2121,31 @@
         <v>50</v>
       </c>
       <c r="AF11">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AG11">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AH11">
-        <v>681.3099999999999</v>
+        <v>305.01</v>
       </c>
       <c r="AI11">
-        <v>1087.271174242424</v>
+        <v>713.2562121212121</v>
       </c>
       <c r="AJ11">
-        <v>786.7374632723764</v>
+        <v>713.2562121212121</v>
       </c>
       <c r="AK11" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="AL11" t="s">
         <v>73</v>
       </c>
       <c r="AM11" t="s">
-        <v>116</v>
+        <v>139</v>
       </c>
       <c r="AN11" t="s">
-        <v>120</v>
+        <v>144</v>
       </c>
       <c r="AO11">
         <v>3660</v>
@@ -2074,6 +2155,896 @@
       </c>
       <c r="AQ11">
         <v>10000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:43">
+      <c r="A12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12">
+        <v>29483</v>
+      </c>
+      <c r="F12" t="s">
+        <v>64</v>
+      </c>
+      <c r="G12" t="s">
+        <v>74</v>
+      </c>
+      <c r="H12">
+        <v>8873</v>
+      </c>
+      <c r="I12" t="s">
+        <v>77</v>
+      </c>
+      <c r="J12" t="s">
+        <v>83</v>
+      </c>
+      <c r="K12">
+        <v>9</v>
+      </c>
+      <c r="L12">
+        <v>660</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12" t="s">
+        <v>87</v>
+      </c>
+      <c r="P12" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12" t="s">
+        <v>96</v>
+      </c>
+      <c r="S12" t="s">
+        <v>108</v>
+      </c>
+      <c r="T12" t="s">
+        <v>108</v>
+      </c>
+      <c r="V12" t="s">
+        <v>126</v>
+      </c>
+      <c r="W12" t="s">
+        <v>126</v>
+      </c>
+      <c r="X12">
+        <v>113.6363636363636</v>
+      </c>
+      <c r="Y12">
+        <v>71.60984848484848</v>
+      </c>
+      <c r="Z12">
+        <v>121.6098484848485</v>
+      </c>
+      <c r="AA12">
+        <v>71.60984848484848</v>
+      </c>
+      <c r="AB12">
+        <v>50</v>
+      </c>
+      <c r="AC12">
+        <v>53</v>
+      </c>
+      <c r="AD12">
+        <v>100</v>
+      </c>
+      <c r="AE12">
+        <v>50</v>
+      </c>
+      <c r="AF12">
+        <v>20</v>
+      </c>
+      <c r="AG12">
+        <v>20</v>
+      </c>
+      <c r="AH12">
+        <v>322.38</v>
+      </c>
+      <c r="AI12">
+        <v>730.6262121212121</v>
+      </c>
+      <c r="AJ12">
+        <v>730.6262121212121</v>
+      </c>
+      <c r="AK12" t="s">
+        <v>136</v>
+      </c>
+      <c r="AL12" t="s">
+        <v>74</v>
+      </c>
+      <c r="AM12" t="s">
+        <v>139</v>
+      </c>
+      <c r="AN12" t="s">
+        <v>144</v>
+      </c>
+      <c r="AO12">
+        <v>3660</v>
+      </c>
+      <c r="AP12">
+        <v>2.6016</v>
+      </c>
+      <c r="AQ12">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:43">
+      <c r="A13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13">
+        <v>29483</v>
+      </c>
+      <c r="F13" t="s">
+        <v>56</v>
+      </c>
+      <c r="G13" t="s">
+        <v>66</v>
+      </c>
+      <c r="H13">
+        <v>28303</v>
+      </c>
+      <c r="I13" t="s">
+        <v>77</v>
+      </c>
+      <c r="J13" t="s">
+        <v>78</v>
+      </c>
+      <c r="K13">
+        <v>100</v>
+      </c>
+      <c r="L13">
+        <v>900</v>
+      </c>
+      <c r="M13">
+        <v>3.132</v>
+      </c>
+      <c r="N13">
+        <v>2</v>
+      </c>
+      <c r="O13" t="s">
+        <v>87</v>
+      </c>
+      <c r="P13" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13" t="s">
+        <v>97</v>
+      </c>
+      <c r="S13" t="s">
+        <v>109</v>
+      </c>
+      <c r="T13" t="s">
+        <v>109</v>
+      </c>
+      <c r="V13" t="s">
+        <v>127</v>
+      </c>
+      <c r="W13" t="s">
+        <v>127</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
+      </c>
+      <c r="Y13">
+        <v>78.1198347107438</v>
+      </c>
+      <c r="Z13">
+        <v>94.08407481291493</v>
+      </c>
+      <c r="AA13">
+        <v>244.6713223140496</v>
+      </c>
+      <c r="AB13">
+        <v>50</v>
+      </c>
+      <c r="AC13">
+        <v>53</v>
+      </c>
+      <c r="AD13">
+        <v>100</v>
+      </c>
+      <c r="AE13">
+        <v>50</v>
+      </c>
+      <c r="AF13">
+        <v>20</v>
+      </c>
+      <c r="AG13">
+        <v>40</v>
+      </c>
+      <c r="AH13">
+        <v>337.33</v>
+      </c>
+      <c r="AI13">
+        <v>825.0013223140496</v>
+      </c>
+      <c r="AJ13">
+        <v>263.4103838806033</v>
+      </c>
+      <c r="AK13" t="s">
+        <v>137</v>
+      </c>
+      <c r="AL13" t="s">
+        <v>66</v>
+      </c>
+      <c r="AM13" t="s">
+        <v>139</v>
+      </c>
+      <c r="AN13" t="s">
+        <v>145</v>
+      </c>
+      <c r="AO13">
+        <v>1710</v>
+      </c>
+      <c r="AP13">
+        <v>28.5012</v>
+      </c>
+      <c r="AQ13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:43">
+      <c r="A14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14">
+        <v>7201</v>
+      </c>
+      <c r="F14" t="s">
+        <v>57</v>
+      </c>
+      <c r="G14" t="s">
+        <v>67</v>
+      </c>
+      <c r="H14">
+        <v>46140</v>
+      </c>
+      <c r="I14" t="s">
+        <v>77</v>
+      </c>
+      <c r="J14" t="s">
+        <v>78</v>
+      </c>
+      <c r="K14">
+        <v>190</v>
+      </c>
+      <c r="L14">
+        <v>190</v>
+      </c>
+      <c r="M14">
+        <v>5.951</v>
+      </c>
+      <c r="N14">
+        <v>4</v>
+      </c>
+      <c r="O14" t="s">
+        <v>87</v>
+      </c>
+      <c r="P14" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14" t="s">
+        <v>98</v>
+      </c>
+      <c r="S14" t="s">
+        <v>110</v>
+      </c>
+      <c r="T14" t="s">
+        <v>110</v>
+      </c>
+      <c r="V14" t="s">
+        <v>128</v>
+      </c>
+      <c r="W14" t="s">
+        <v>128</v>
+      </c>
+      <c r="X14">
+        <v>0</v>
+      </c>
+      <c r="Y14">
+        <v>71.35984848484848</v>
+      </c>
+      <c r="Z14">
+        <v>79.761797737075</v>
+      </c>
+      <c r="AA14">
+        <v>424.6624583333333</v>
+      </c>
+      <c r="AB14">
+        <v>50</v>
+      </c>
+      <c r="AC14">
+        <v>53</v>
+      </c>
+      <c r="AD14">
+        <v>100</v>
+      </c>
+      <c r="AE14">
+        <v>50</v>
+      </c>
+      <c r="AF14">
+        <v>18</v>
+      </c>
+      <c r="AG14">
+        <v>72</v>
+      </c>
+      <c r="AH14">
+        <v>781.24</v>
+      </c>
+      <c r="AI14">
+        <v>1480.902458333333</v>
+      </c>
+      <c r="AJ14">
+        <v>248.8493460482832</v>
+      </c>
+      <c r="AK14" t="s">
+        <v>137</v>
+      </c>
+      <c r="AL14" t="s">
+        <v>67</v>
+      </c>
+      <c r="AM14" t="s">
+        <v>139</v>
+      </c>
+      <c r="AN14" t="s">
+        <v>145</v>
+      </c>
+      <c r="AO14">
+        <v>1710</v>
+      </c>
+      <c r="AP14">
+        <v>28.5012</v>
+      </c>
+      <c r="AQ14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:43">
+      <c r="A15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" t="s">
+        <v>53</v>
+      </c>
+      <c r="E15">
+        <v>90220</v>
+      </c>
+      <c r="F15" t="s">
+        <v>58</v>
+      </c>
+      <c r="G15" t="s">
+        <v>68</v>
+      </c>
+      <c r="H15">
+        <v>75241</v>
+      </c>
+      <c r="I15" t="s">
+        <v>78</v>
+      </c>
+      <c r="J15" t="s">
+        <v>84</v>
+      </c>
+      <c r="K15">
+        <v>190</v>
+      </c>
+      <c r="L15">
+        <v>190</v>
+      </c>
+      <c r="M15">
+        <v>5.951</v>
+      </c>
+      <c r="N15">
+        <v>4</v>
+      </c>
+      <c r="O15" t="s">
+        <v>87</v>
+      </c>
+      <c r="P15" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15" t="s">
+        <v>99</v>
+      </c>
+      <c r="S15" t="s">
+        <v>111</v>
+      </c>
+      <c r="T15" t="s">
+        <v>111</v>
+      </c>
+      <c r="V15" t="s">
+        <v>129</v>
+      </c>
+      <c r="W15" t="s">
+        <v>129</v>
+      </c>
+      <c r="X15">
+        <v>0</v>
+      </c>
+      <c r="Y15">
+        <v>81.02892561983471</v>
+      </c>
+      <c r="Z15">
+        <v>89.43087487206122</v>
+      </c>
+      <c r="AA15">
+        <v>482.2031363636363</v>
+      </c>
+      <c r="AB15">
+        <v>50</v>
+      </c>
+      <c r="AC15">
+        <v>53</v>
+      </c>
+      <c r="AD15">
+        <v>100</v>
+      </c>
+      <c r="AE15">
+        <v>50</v>
+      </c>
+      <c r="AF15">
+        <v>20</v>
+      </c>
+      <c r="AG15">
+        <v>80</v>
+      </c>
+      <c r="AH15">
+        <v>574.67</v>
+      </c>
+      <c r="AI15">
+        <v>1339.873136363636</v>
+      </c>
+      <c r="AJ15">
+        <v>225.150921922977</v>
+      </c>
+      <c r="AK15" t="s">
+        <v>137</v>
+      </c>
+      <c r="AL15" t="s">
+        <v>68</v>
+      </c>
+      <c r="AM15" t="s">
+        <v>139</v>
+      </c>
+      <c r="AN15" t="s">
+        <v>145</v>
+      </c>
+      <c r="AO15">
+        <v>1710</v>
+      </c>
+      <c r="AP15">
+        <v>28.5012</v>
+      </c>
+      <c r="AQ15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:43">
+      <c r="A16" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" t="s">
+        <v>53</v>
+      </c>
+      <c r="E16">
+        <v>90220</v>
+      </c>
+      <c r="F16" t="s">
+        <v>59</v>
+      </c>
+      <c r="G16" t="s">
+        <v>69</v>
+      </c>
+      <c r="H16">
+        <v>85395</v>
+      </c>
+      <c r="I16" t="s">
+        <v>77</v>
+      </c>
+      <c r="J16" t="s">
+        <v>85</v>
+      </c>
+      <c r="K16">
+        <v>190</v>
+      </c>
+      <c r="L16">
+        <v>190</v>
+      </c>
+      <c r="M16">
+        <v>5.951</v>
+      </c>
+      <c r="N16">
+        <v>4</v>
+      </c>
+      <c r="O16" t="s">
+        <v>87</v>
+      </c>
+      <c r="P16" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16" t="s">
+        <v>100</v>
+      </c>
+      <c r="S16" t="s">
+        <v>112</v>
+      </c>
+      <c r="T16" t="s">
+        <v>112</v>
+      </c>
+      <c r="V16" t="s">
+        <v>130</v>
+      </c>
+      <c r="W16" t="s">
+        <v>130</v>
+      </c>
+      <c r="X16">
+        <v>0</v>
+      </c>
+      <c r="Y16">
+        <v>81.02892561983471</v>
+      </c>
+      <c r="Z16">
+        <v>89.43087487206122</v>
+      </c>
+      <c r="AA16">
+        <v>482.2031363636363</v>
+      </c>
+      <c r="AB16">
+        <v>50</v>
+      </c>
+      <c r="AC16">
+        <v>53</v>
+      </c>
+      <c r="AD16">
+        <v>100</v>
+      </c>
+      <c r="AE16">
+        <v>50</v>
+      </c>
+      <c r="AF16">
+        <v>20</v>
+      </c>
+      <c r="AG16">
+        <v>80</v>
+      </c>
+      <c r="AH16">
+        <v>384.33</v>
+      </c>
+      <c r="AI16">
+        <v>1149.533136363636</v>
+      </c>
+      <c r="AJ16">
+        <v>193.1663815096011</v>
+      </c>
+      <c r="AK16" t="s">
+        <v>137</v>
+      </c>
+      <c r="AL16" t="s">
+        <v>69</v>
+      </c>
+      <c r="AM16" t="s">
+        <v>139</v>
+      </c>
+      <c r="AN16" t="s">
+        <v>145</v>
+      </c>
+      <c r="AO16">
+        <v>1710</v>
+      </c>
+      <c r="AP16">
+        <v>28.5012</v>
+      </c>
+      <c r="AQ16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:43">
+      <c r="A17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" t="s">
+        <v>53</v>
+      </c>
+      <c r="E17">
+        <v>90220</v>
+      </c>
+      <c r="F17" t="s">
+        <v>60</v>
+      </c>
+      <c r="G17" t="s">
+        <v>70</v>
+      </c>
+      <c r="H17">
+        <v>85043</v>
+      </c>
+      <c r="I17" t="s">
+        <v>77</v>
+      </c>
+      <c r="J17" t="s">
+        <v>85</v>
+      </c>
+      <c r="K17">
+        <v>240</v>
+      </c>
+      <c r="L17">
+        <v>240</v>
+      </c>
+      <c r="M17">
+        <v>7.517</v>
+      </c>
+      <c r="N17">
+        <v>5</v>
+      </c>
+      <c r="O17" t="s">
+        <v>87</v>
+      </c>
+      <c r="P17" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17" t="s">
+        <v>101</v>
+      </c>
+      <c r="S17" t="s">
+        <v>113</v>
+      </c>
+      <c r="T17" t="s">
+        <v>113</v>
+      </c>
+      <c r="V17" t="s">
+        <v>131</v>
+      </c>
+      <c r="W17" t="s">
+        <v>131</v>
+      </c>
+      <c r="X17">
+        <v>0</v>
+      </c>
+      <c r="Y17">
+        <v>81.02892561983471</v>
+      </c>
+      <c r="Z17">
+        <v>87.68051534978017</v>
+      </c>
+      <c r="AA17">
+        <v>609.0944338842976</v>
+      </c>
+      <c r="AB17">
+        <v>50</v>
+      </c>
+      <c r="AC17">
+        <v>53</v>
+      </c>
+      <c r="AD17">
+        <v>100</v>
+      </c>
+      <c r="AE17">
+        <v>50</v>
+      </c>
+      <c r="AF17">
+        <v>20</v>
+      </c>
+      <c r="AG17">
+        <v>100</v>
+      </c>
+      <c r="AH17">
+        <v>473.09</v>
+      </c>
+      <c r="AI17">
+        <v>1385.184433884298</v>
+      </c>
+      <c r="AJ17">
+        <v>184.2735710901021</v>
+      </c>
+      <c r="AK17" t="s">
+        <v>137</v>
+      </c>
+      <c r="AL17" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM17" t="s">
+        <v>139</v>
+      </c>
+      <c r="AN17" t="s">
+        <v>145</v>
+      </c>
+      <c r="AO17">
+        <v>1710</v>
+      </c>
+      <c r="AP17">
+        <v>28.5012</v>
+      </c>
+      <c r="AQ17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:43">
+      <c r="A18" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" t="s">
+        <v>54</v>
+      </c>
+      <c r="E18" t="s">
+        <v>55</v>
+      </c>
+      <c r="F18" t="s">
+        <v>65</v>
+      </c>
+      <c r="G18" t="s">
+        <v>75</v>
+      </c>
+      <c r="H18" t="s">
+        <v>76</v>
+      </c>
+      <c r="I18" t="s">
+        <v>77</v>
+      </c>
+      <c r="J18" t="s">
+        <v>83</v>
+      </c>
+      <c r="K18">
+        <v>220</v>
+      </c>
+      <c r="L18">
+        <v>3300</v>
+      </c>
+      <c r="M18">
+        <v>15.002</v>
+      </c>
+      <c r="N18">
+        <v>9</v>
+      </c>
+      <c r="O18" t="s">
+        <v>86</v>
+      </c>
+      <c r="P18" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q18">
+        <v>55</v>
+      </c>
+      <c r="U18" t="s">
+        <v>119</v>
+      </c>
+      <c r="V18" t="s">
+        <v>119</v>
+      </c>
+      <c r="W18" t="s">
+        <v>119</v>
+      </c>
+      <c r="X18">
+        <v>0</v>
+      </c>
+      <c r="Y18">
+        <v>65.39256198347107</v>
+      </c>
+      <c r="Z18">
+        <v>68.72545093161132</v>
+      </c>
+      <c r="AA18">
+        <v>981.0192148760331</v>
+      </c>
+      <c r="AB18">
+        <v>50</v>
+      </c>
+      <c r="AC18">
+        <v>53</v>
+      </c>
+      <c r="AD18">
+        <v>100</v>
+      </c>
+      <c r="AE18">
+        <v>50</v>
+      </c>
+      <c r="AF18">
+        <v>20</v>
+      </c>
+      <c r="AG18">
+        <v>180</v>
+      </c>
+      <c r="AH18">
+        <v>1677.24</v>
+      </c>
+      <c r="AI18">
+        <v>3041.259214876033</v>
+      </c>
+      <c r="AJ18">
+        <v>202.7235845138004</v>
+      </c>
+      <c r="AK18" t="s">
+        <v>138</v>
+      </c>
+      <c r="AL18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM18" t="s">
+        <v>139</v>
+      </c>
+      <c r="AN18" t="s">
+        <v>146</v>
+      </c>
+      <c r="AO18">
+        <v>3300</v>
+      </c>
+      <c r="AP18">
+        <v>15.0018</v>
+      </c>
+      <c r="AQ18">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Logs/quotations.xlsx
+++ b/Logs/quotations.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="147">
   <si>
     <t>Shipment Scope</t>
   </si>
@@ -157,15 +157,15 @@
     <t>583229, Koppal, Koppal, Karnataka, India</t>
   </si>
   <si>
+    <t>Nhava Sheva, India (INNSA)</t>
+  </si>
+  <si>
+    <t>110020, Okhla Industrial Estate, South East Delhi, Delhi, India</t>
+  </si>
+  <si>
     <t>303905, Jaipur, Jaipur, Rajasthan, India</t>
   </si>
   <si>
-    <t>Nhava Sheva, India (INNSA)</t>
-  </si>
-  <si>
-    <t>110020, Okhla Industrial Estate, South East Delhi, Delhi, India</t>
-  </si>
-  <si>
     <t>Nhava Sheva</t>
   </si>
   <si>
@@ -181,7 +181,7 @@
     <t>Jacksonville</t>
   </si>
   <si>
-    <t>32226</t>
+    <t>07201</t>
   </si>
   <si>
     <t>RDU4</t>
@@ -244,7 +244,7 @@
     <t>TMB8 33032, Princeton, Princeton, Florida, United States</t>
   </si>
   <si>
-    <t>33032</t>
+    <t>18202</t>
   </si>
   <si>
     <t>Agraga</t>
@@ -298,30 +298,30 @@
     <t>{'Rate': 3251.9, 'Carrier Name': 'ABF Freight', 'Service Provider': 'Ex-Freight'}</t>
   </si>
   <si>
+    <t>{'Rate': 305.01, 'Carrier Name': 'Estes Express Lines', 'Service Provider': 'HeyPrimo'}</t>
+  </si>
+  <si>
+    <t>{'Rate': 322.38, 'Carrier Name': 'Estes Express Lines', 'Service Provider': 'Ex-Freight'}</t>
+  </si>
+  <si>
+    <t>{'Rate': 337.33, 'Carrier Name': 'ABF Density', 'Service Provider': 'HeyPrimo'}</t>
+  </si>
+  <si>
+    <t>{'Rate': 781.24, 'Carrier Name': 'Estes Express Lines VL', 'Service Provider': 'HeyPrimo'}</t>
+  </si>
+  <si>
+    <t>{'Rate': 574.67, 'Carrier Name': 'Frontline Freight', 'Service Provider': 'Ex-Freight'}</t>
+  </si>
+  <si>
+    <t>{'Rate': 384.33, 'Carrier Name': 'Estes Express Lines', 'Service Provider': 'Ex-Freight'}</t>
+  </si>
+  <si>
+    <t>{'Rate': 473.09, 'Carrier Name': 'Estes Express Lines', 'Service Provider': 'Ex-Freight'}</t>
+  </si>
+  <si>
     <t>{'Rate': 180.0, 'Carrier Name': '', 'Service Provider': 'AmznFrgt'}</t>
   </si>
   <si>
-    <t>{'Rate': 305.01, 'Carrier Name': 'Estes Express Lines', 'Service Provider': 'HeyPrimo'}</t>
-  </si>
-  <si>
-    <t>{'Rate': 322.38, 'Carrier Name': 'Estes Express Lines', 'Service Provider': 'Ex-Freight'}</t>
-  </si>
-  <si>
-    <t>{'Rate': 337.33, 'Carrier Name': 'ABF Density', 'Service Provider': 'HeyPrimo'}</t>
-  </si>
-  <si>
-    <t>{'Rate': 781.24, 'Carrier Name': 'Estes Express Lines VL', 'Service Provider': 'HeyPrimo'}</t>
-  </si>
-  <si>
-    <t>{'Rate': 574.67, 'Carrier Name': 'Frontline Freight', 'Service Provider': 'Ex-Freight'}</t>
-  </si>
-  <si>
-    <t>{'Rate': 384.33, 'Carrier Name': 'Estes Express Lines', 'Service Provider': 'Ex-Freight'}</t>
-  </si>
-  <si>
-    <t>{'Rate': 473.09, 'Carrier Name': 'Estes Express Lines', 'Service Provider': 'Ex-Freight'}</t>
-  </si>
-  <si>
     <t>{'Rate': 1026.06, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt'}</t>
   </si>
   <si>
@@ -334,9 +334,6 @@
     <t>{'Rate': 0, 'Carrier Name': 'Jb Hunt API Failed :No valid rates returned', 'Service Provider': 'J.B. Hunt'}</t>
   </si>
   <si>
-    <t>{'Rate': 581.95, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt'}</t>
-  </si>
-  <si>
     <t>{'Rate': 705.01, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt'}</t>
   </si>
   <si>
@@ -358,18 +355,21 @@
     <t>{'Rate': 1477.49, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt'}</t>
   </si>
   <si>
+    <t>{'Rate': 614.0, 'Carrier Name': '', 'Service Provider': 'JB.Hunt'}</t>
+  </si>
+  <si>
     <t>{'Rate': 3493.82, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt'}</t>
   </si>
   <si>
+    <t>{'Rate': 615.0, 'Carrier Name': '', 'Service Provider': 'NTG'}</t>
+  </si>
+  <si>
     <t>{'Rate Type': 'Drayage', 'Rate': 872.37, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt'}</t>
   </si>
   <si>
     <t>{'Rate Type': 'Drayage', 'Rate': 581.95, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt'}</t>
   </si>
   <si>
-    <t>{'Rate Type': 'Drayage', 'Rate': 800.36, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt'}</t>
-  </si>
-  <si>
     <t>{'Rate Type': 'Drayage', 'Rate': 793.17, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt'}</t>
   </si>
   <si>
@@ -388,51 +388,51 @@
     <t>{'Rate Type': 'LTL', 'Rate': 3251.9, 'Carrier Name': 'ABF Freight', 'Service Provider': 'Ex-Freight'}</t>
   </si>
   <si>
+    <t>{'Rate Type': 'LTL', 'Rate': 305.01, 'Carrier Name': 'Estes Express Lines', 'Service Provider': 'HeyPrimo'}</t>
+  </si>
+  <si>
+    <t>{'Rate Type': 'LTL', 'Rate': 322.38, 'Carrier Name': 'Estes Express Lines', 'Service Provider': 'Ex-Freight'}</t>
+  </si>
+  <si>
+    <t>{'Rate Type': 'LTL', 'Rate': 337.33, 'Carrier Name': 'ABF Density', 'Service Provider': 'HeyPrimo'}</t>
+  </si>
+  <si>
+    <t>{'Rate Type': 'LTL', 'Rate': 781.24, 'Carrier Name': 'Estes Express Lines VL', 'Service Provider': 'HeyPrimo'}</t>
+  </si>
+  <si>
+    <t>{'Rate Type': 'LTL', 'Rate': 574.67, 'Carrier Name': 'Frontline Freight', 'Service Provider': 'Ex-Freight'}</t>
+  </si>
+  <si>
+    <t>{'Rate Type': 'LTL', 'Rate': 384.33, 'Carrier Name': 'Estes Express Lines', 'Service Provider': 'Ex-Freight'}</t>
+  </si>
+  <si>
+    <t>{'Rate Type': 'LTL', 'Rate': 473.09, 'Carrier Name': 'Estes Express Lines', 'Service Provider': 'Ex-Freight'}</t>
+  </si>
+  <si>
     <t>{'Rate Type': 'LTL', 'Rate': 180.0, 'Carrier Name': '', 'Service Provider': 'AmznFrgt'}</t>
   </si>
   <si>
-    <t>{'Rate Type': 'LTL', 'Rate': 305.01, 'Carrier Name': 'Estes Express Lines', 'Service Provider': 'HeyPrimo'}</t>
-  </si>
-  <si>
-    <t>{'Rate Type': 'LTL', 'Rate': 322.38, 'Carrier Name': 'Estes Express Lines', 'Service Provider': 'Ex-Freight'}</t>
-  </si>
-  <si>
-    <t>{'Rate Type': 'LTL', 'Rate': 337.33, 'Carrier Name': 'ABF Density', 'Service Provider': 'HeyPrimo'}</t>
-  </si>
-  <si>
-    <t>{'Rate Type': 'LTL', 'Rate': 781.24, 'Carrier Name': 'Estes Express Lines VL', 'Service Provider': 'HeyPrimo'}</t>
-  </si>
-  <si>
-    <t>{'Rate Type': 'LTL', 'Rate': 574.67, 'Carrier Name': 'Frontline Freight', 'Service Provider': 'Ex-Freight'}</t>
-  </si>
-  <si>
-    <t>{'Rate Type': 'LTL', 'Rate': 384.33, 'Carrier Name': 'Estes Express Lines', 'Service Provider': 'Ex-Freight'}</t>
-  </si>
-  <si>
-    <t>{'Rate Type': 'LTL', 'Rate': 473.09, 'Carrier Name': 'Estes Express Lines', 'Service Provider': 'Ex-Freight'}</t>
-  </si>
-  <si>
     <t>CMM0246LCL0044</t>
   </si>
   <si>
     <t>CMM0246LCL0045</t>
   </si>
   <si>
+    <t>CMM0246LCL0046</t>
+  </si>
+  <si>
+    <t>CMM0246LCL0039</t>
+  </si>
+  <si>
+    <t>CMM0246LCL0049</t>
+  </si>
+  <si>
+    <t>CMM0613LCL0008</t>
+  </si>
+  <si>
     <t>CMM0246LCL0048</t>
   </si>
   <si>
-    <t>CMM0246LCL0046</t>
-  </si>
-  <si>
-    <t>CMM0246LCL0039</t>
-  </si>
-  <si>
-    <t>CMM0246LCL0049</t>
-  </si>
-  <si>
-    <t>CMM0613LCL0008</t>
-  </si>
-  <si>
     <t>Own Console</t>
   </si>
   <si>
@@ -442,9 +442,6 @@
     <t>2025-08-12 11:54:01</t>
   </si>
   <si>
-    <t>2025-08-12 14:45:28</t>
-  </si>
-  <si>
     <t>2025-08-13 07:43:45</t>
   </si>
   <si>
@@ -455,6 +452,9 @@
   </si>
   <si>
     <t>2025-08-13 08:06:41</t>
+  </si>
+  <si>
+    <t>2025-08-13 03:17:32</t>
   </si>
 </sst>
 </file>
@@ -812,7 +812,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ18"/>
+  <dimension ref="A1:AQ17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1002,13 +1002,13 @@
         <v>45</v>
       </c>
       <c r="U2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="V2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="W2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="X2">
         <v>0</v>
@@ -1591,13 +1591,13 @@
         <v>69.12</v>
       </c>
       <c r="U7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="V7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="W7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="X7">
         <v>100</v>
@@ -1659,7 +1659,7 @@
     </row>
     <row r="8" spans="1:43">
       <c r="A8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B8" t="s">
         <v>47</v>
@@ -1674,67 +1674,61 @@
         <v>7201</v>
       </c>
       <c r="F8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H8">
-        <v>18202</v>
+        <v>17225</v>
       </c>
       <c r="I8" t="s">
         <v>77</v>
       </c>
       <c r="J8" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="K8">
-        <v>96</v>
+        <v>32</v>
       </c>
       <c r="L8">
-        <v>1152</v>
+        <v>320</v>
       </c>
       <c r="M8">
-        <v>3.007</v>
+        <v>1.002</v>
       </c>
       <c r="N8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="P8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-      <c r="R8" t="s">
-        <v>94</v>
-      </c>
-      <c r="S8" t="s">
-        <v>106</v>
-      </c>
-      <c r="T8" t="s">
-        <v>106</v>
+        <v>55</v>
+      </c>
+      <c r="U8" t="s">
+        <v>118</v>
       </c>
       <c r="V8" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="W8" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="X8">
-        <v>113.6363636363636</v>
+        <v>0</v>
       </c>
       <c r="Y8">
-        <v>71.35984848484848</v>
+        <v>51.60984848484848</v>
       </c>
       <c r="Z8">
-        <v>87.98771679213149</v>
+        <v>101.5100480856469</v>
       </c>
       <c r="AA8">
-        <v>214.5790643939394</v>
+        <v>51.71306818181818</v>
       </c>
       <c r="AB8">
         <v>50</v>
@@ -1752,22 +1746,22 @@
         <v>18</v>
       </c>
       <c r="AG8">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="AH8">
-        <v>180</v>
+        <v>793.17</v>
       </c>
       <c r="AI8">
-        <v>747.2154280303031</v>
+        <v>1065.883068181818</v>
       </c>
       <c r="AJ8">
-        <v>248.4919946891596</v>
+        <v>1063.755557067683</v>
       </c>
       <c r="AK8" t="s">
         <v>134</v>
       </c>
       <c r="AL8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AM8" t="s">
         <v>139</v>
@@ -1776,13 +1770,13 @@
         <v>142</v>
       </c>
       <c r="AO8">
-        <v>2944</v>
+        <v>320</v>
       </c>
       <c r="AP8">
-        <v>7.01568</v>
+        <v>1.00224</v>
       </c>
       <c r="AQ8">
-        <v>10000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:43">
@@ -1790,25 +1784,25 @@
         <v>44</v>
       </c>
       <c r="B9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C9" t="s">
         <v>50</v>
       </c>
       <c r="D9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E9">
-        <v>7201</v>
+        <v>29483</v>
       </c>
       <c r="F9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H9">
-        <v>17225</v>
+        <v>30567</v>
       </c>
       <c r="I9" t="s">
         <v>77</v>
@@ -1817,46 +1811,52 @@
         <v>78</v>
       </c>
       <c r="K9">
-        <v>128</v>
+        <v>10</v>
       </c>
       <c r="L9">
-        <v>1792</v>
+        <v>2000</v>
       </c>
       <c r="M9">
-        <v>4.009</v>
+        <v>1</v>
       </c>
       <c r="N9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O9" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="P9" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Q9">
-        <v>55</v>
-      </c>
-      <c r="U9" t="s">
-        <v>117</v>
+        <v>0</v>
+      </c>
+      <c r="R9" t="s">
+        <v>94</v>
+      </c>
+      <c r="S9" t="s">
+        <v>106</v>
+      </c>
+      <c r="T9" t="s">
+        <v>106</v>
       </c>
       <c r="V9" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="W9" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="X9">
         <v>113.6363636363636</v>
       </c>
       <c r="Y9">
-        <v>51.60984848484848</v>
+        <v>71.60984848484848</v>
       </c>
       <c r="Z9">
-        <v>64.08178662403532</v>
+        <v>121.6098484848485</v>
       </c>
       <c r="AA9">
-        <v>206.9038825757576</v>
+        <v>71.60984848484848</v>
       </c>
       <c r="AB9">
         <v>50</v>
@@ -1871,37 +1871,37 @@
         <v>50</v>
       </c>
       <c r="AF9">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AG9">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="AH9">
-        <v>800.36</v>
+        <v>305.01</v>
       </c>
       <c r="AI9">
-        <v>1377.900246212121</v>
+        <v>713.2562121212121</v>
       </c>
       <c r="AJ9">
-        <v>343.7017326545575</v>
+        <v>713.2562121212121</v>
       </c>
       <c r="AK9" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AL9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AM9" t="s">
         <v>139</v>
       </c>
       <c r="AN9" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AO9">
-        <v>2944</v>
+        <v>3660</v>
       </c>
       <c r="AP9">
-        <v>7.01568</v>
+        <v>2.6016</v>
       </c>
       <c r="AQ9">
         <v>10000</v>
@@ -1909,7 +1909,7 @@
     </row>
     <row r="10" spans="1:43">
       <c r="A10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B10" t="s">
         <v>48</v>
@@ -1918,67 +1918,73 @@
         <v>50</v>
       </c>
       <c r="D10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E10">
-        <v>7201</v>
+        <v>29483</v>
       </c>
       <c r="F10" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G10" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H10">
-        <v>17225</v>
+        <v>8873</v>
       </c>
       <c r="I10" t="s">
         <v>77</v>
       </c>
       <c r="J10" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="K10">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="L10">
-        <v>320</v>
+        <v>660</v>
       </c>
       <c r="M10">
-        <v>1.002</v>
+        <v>1</v>
       </c>
       <c r="N10">
         <v>1</v>
       </c>
       <c r="O10" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="P10" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Q10">
-        <v>55</v>
-      </c>
-      <c r="U10" t="s">
-        <v>118</v>
+        <v>0</v>
+      </c>
+      <c r="R10" t="s">
+        <v>95</v>
+      </c>
+      <c r="S10" t="s">
+        <v>107</v>
+      </c>
+      <c r="T10" t="s">
+        <v>107</v>
       </c>
       <c r="V10" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="W10" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="X10">
-        <v>0</v>
+        <v>113.6363636363636</v>
       </c>
       <c r="Y10">
-        <v>51.60984848484848</v>
+        <v>71.60984848484848</v>
       </c>
       <c r="Z10">
-        <v>101.5100480856469</v>
+        <v>121.6098484848485</v>
       </c>
       <c r="AA10">
-        <v>51.71306818181818</v>
+        <v>71.60984848484848</v>
       </c>
       <c r="AB10">
         <v>50</v>
@@ -1993,25 +1999,25 @@
         <v>50</v>
       </c>
       <c r="AF10">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AG10">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AH10">
-        <v>793.17</v>
+        <v>322.38</v>
       </c>
       <c r="AI10">
-        <v>1065.883068181818</v>
+        <v>730.6262121212121</v>
       </c>
       <c r="AJ10">
-        <v>1063.755557067683</v>
+        <v>730.6262121212121</v>
       </c>
       <c r="AK10" t="s">
         <v>135</v>
       </c>
       <c r="AL10" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AM10" t="s">
         <v>139</v>
@@ -2020,21 +2026,21 @@
         <v>143</v>
       </c>
       <c r="AO10">
-        <v>320</v>
+        <v>3660</v>
       </c>
       <c r="AP10">
-        <v>1.00224</v>
+        <v>2.6016</v>
       </c>
       <c r="AQ10">
-        <v>0</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="11" spans="1:43">
       <c r="A11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B11" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C11" t="s">
         <v>50</v>
@@ -2046,13 +2052,13 @@
         <v>29483</v>
       </c>
       <c r="F11" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="G11" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="H11">
-        <v>30567</v>
+        <v>28303</v>
       </c>
       <c r="I11" t="s">
         <v>77</v>
@@ -2061,16 +2067,16 @@
         <v>78</v>
       </c>
       <c r="K11">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="L11">
-        <v>2000</v>
+        <v>900</v>
       </c>
       <c r="M11">
-        <v>1</v>
+        <v>3.132</v>
       </c>
       <c r="N11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O11" t="s">
         <v>87</v>
@@ -2082,31 +2088,31 @@
         <v>0</v>
       </c>
       <c r="R11" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="S11" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="T11" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="V11" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="W11" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="X11">
-        <v>113.6363636363636</v>
+        <v>0</v>
       </c>
       <c r="Y11">
-        <v>71.60984848484848</v>
+        <v>78.1198347107438</v>
       </c>
       <c r="Z11">
-        <v>121.6098484848485</v>
+        <v>94.08407481291493</v>
       </c>
       <c r="AA11">
-        <v>71.60984848484848</v>
+        <v>244.6713223140496</v>
       </c>
       <c r="AB11">
         <v>50</v>
@@ -2124,22 +2130,22 @@
         <v>20</v>
       </c>
       <c r="AG11">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="AH11">
-        <v>305.01</v>
+        <v>337.33</v>
       </c>
       <c r="AI11">
-        <v>713.2562121212121</v>
+        <v>825.0013223140496</v>
       </c>
       <c r="AJ11">
-        <v>713.2562121212121</v>
+        <v>263.4103838806033</v>
       </c>
       <c r="AK11" t="s">
         <v>136</v>
       </c>
       <c r="AL11" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="AM11" t="s">
         <v>139</v>
@@ -2148,57 +2154,57 @@
         <v>144</v>
       </c>
       <c r="AO11">
-        <v>3660</v>
+        <v>1710</v>
       </c>
       <c r="AP11">
-        <v>2.6016</v>
+        <v>28.5012</v>
       </c>
       <c r="AQ11">
-        <v>10000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:43">
       <c r="A12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B12" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C12" t="s">
         <v>50</v>
       </c>
       <c r="D12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E12">
-        <v>29483</v>
+        <v>7201</v>
       </c>
       <c r="F12" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="G12" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="H12">
-        <v>8873</v>
+        <v>46140</v>
       </c>
       <c r="I12" t="s">
         <v>77</v>
       </c>
       <c r="J12" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="K12">
-        <v>9</v>
+        <v>190</v>
       </c>
       <c r="L12">
-        <v>660</v>
+        <v>190</v>
       </c>
       <c r="M12">
-        <v>1</v>
+        <v>5.951</v>
       </c>
       <c r="N12">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O12" t="s">
         <v>87</v>
@@ -2210,31 +2216,31 @@
         <v>0</v>
       </c>
       <c r="R12" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="S12" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="T12" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="V12" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="W12" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="X12">
-        <v>113.6363636363636</v>
+        <v>0</v>
       </c>
       <c r="Y12">
-        <v>71.60984848484848</v>
+        <v>71.35984848484848</v>
       </c>
       <c r="Z12">
-        <v>121.6098484848485</v>
+        <v>79.761797737075</v>
       </c>
       <c r="AA12">
-        <v>71.60984848484848</v>
+        <v>424.6624583333333</v>
       </c>
       <c r="AB12">
         <v>50</v>
@@ -2249,25 +2255,25 @@
         <v>50</v>
       </c>
       <c r="AF12">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AG12">
-        <v>20</v>
+        <v>72</v>
       </c>
       <c r="AH12">
-        <v>322.38</v>
+        <v>781.24</v>
       </c>
       <c r="AI12">
-        <v>730.6262121212121</v>
+        <v>1480.902458333333</v>
       </c>
       <c r="AJ12">
-        <v>730.6262121212121</v>
+        <v>248.8493460482832</v>
       </c>
       <c r="AK12" t="s">
         <v>136</v>
       </c>
       <c r="AL12" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="AM12" t="s">
         <v>139</v>
@@ -2276,13 +2282,13 @@
         <v>144</v>
       </c>
       <c r="AO12">
-        <v>3660</v>
+        <v>1710</v>
       </c>
       <c r="AP12">
-        <v>2.6016</v>
+        <v>28.5012</v>
       </c>
       <c r="AQ12">
-        <v>10000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:43">
@@ -2296,37 +2302,37 @@
         <v>50</v>
       </c>
       <c r="D13" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E13">
-        <v>29483</v>
+        <v>90220</v>
       </c>
       <c r="F13" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G13" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H13">
-        <v>28303</v>
+        <v>75241</v>
       </c>
       <c r="I13" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J13" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="K13">
-        <v>100</v>
+        <v>190</v>
       </c>
       <c r="L13">
-        <v>900</v>
+        <v>190</v>
       </c>
       <c r="M13">
-        <v>3.132</v>
+        <v>5.951</v>
       </c>
       <c r="N13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O13" t="s">
         <v>87</v>
@@ -2338,31 +2344,31 @@
         <v>0</v>
       </c>
       <c r="R13" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="S13" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="T13" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="V13" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="W13" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="X13">
         <v>0</v>
       </c>
       <c r="Y13">
-        <v>78.1198347107438</v>
+        <v>81.02892561983471</v>
       </c>
       <c r="Z13">
-        <v>94.08407481291493</v>
+        <v>89.43087487206122</v>
       </c>
       <c r="AA13">
-        <v>244.6713223140496</v>
+        <v>482.2031363636363</v>
       </c>
       <c r="AB13">
         <v>50</v>
@@ -2380,28 +2386,28 @@
         <v>20</v>
       </c>
       <c r="AG13">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="AH13">
-        <v>337.33</v>
+        <v>574.67</v>
       </c>
       <c r="AI13">
-        <v>825.0013223140496</v>
+        <v>1339.873136363636</v>
       </c>
       <c r="AJ13">
-        <v>263.4103838806033</v>
+        <v>225.150921922977</v>
       </c>
       <c r="AK13" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AL13" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="AM13" t="s">
         <v>139</v>
       </c>
       <c r="AN13" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AO13">
         <v>1710</v>
@@ -2424,25 +2430,25 @@
         <v>50</v>
       </c>
       <c r="D14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E14">
-        <v>7201</v>
+        <v>90220</v>
       </c>
       <c r="F14" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G14" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H14">
-        <v>46140</v>
+        <v>85395</v>
       </c>
       <c r="I14" t="s">
         <v>77</v>
       </c>
       <c r="J14" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="K14">
         <v>190</v>
@@ -2466,31 +2472,31 @@
         <v>0</v>
       </c>
       <c r="R14" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="S14" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="T14" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="V14" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="W14" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="X14">
         <v>0</v>
       </c>
       <c r="Y14">
-        <v>71.35984848484848</v>
+        <v>81.02892561983471</v>
       </c>
       <c r="Z14">
-        <v>79.761797737075</v>
+        <v>89.43087487206122</v>
       </c>
       <c r="AA14">
-        <v>424.6624583333333</v>
+        <v>482.2031363636363</v>
       </c>
       <c r="AB14">
         <v>50</v>
@@ -2505,31 +2511,31 @@
         <v>50</v>
       </c>
       <c r="AF14">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AG14">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="AH14">
-        <v>781.24</v>
+        <v>384.33</v>
       </c>
       <c r="AI14">
-        <v>1480.902458333333</v>
+        <v>1149.533136363636</v>
       </c>
       <c r="AJ14">
-        <v>248.8493460482832</v>
+        <v>193.1663815096011</v>
       </c>
       <c r="AK14" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AL14" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="AM14" t="s">
         <v>139</v>
       </c>
       <c r="AN14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AO14">
         <v>1710</v>
@@ -2558,31 +2564,31 @@
         <v>90220</v>
       </c>
       <c r="F15" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G15" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H15">
-        <v>75241</v>
+        <v>85043</v>
       </c>
       <c r="I15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J15" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K15">
-        <v>190</v>
+        <v>240</v>
       </c>
       <c r="L15">
-        <v>190</v>
+        <v>240</v>
       </c>
       <c r="M15">
-        <v>5.951</v>
+        <v>7.517</v>
       </c>
       <c r="N15">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O15" t="s">
         <v>87</v>
@@ -2594,19 +2600,19 @@
         <v>0</v>
       </c>
       <c r="R15" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="S15" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="T15" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="V15" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="W15" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="X15">
         <v>0</v>
@@ -2615,10 +2621,10 @@
         <v>81.02892561983471</v>
       </c>
       <c r="Z15">
-        <v>89.43087487206122</v>
+        <v>87.68051534978017</v>
       </c>
       <c r="AA15">
-        <v>482.2031363636363</v>
+        <v>609.0944338842976</v>
       </c>
       <c r="AB15">
         <v>50</v>
@@ -2636,28 +2642,28 @@
         <v>20</v>
       </c>
       <c r="AG15">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AH15">
-        <v>574.67</v>
+        <v>473.09</v>
       </c>
       <c r="AI15">
-        <v>1339.873136363636</v>
+        <v>1385.184433884298</v>
       </c>
       <c r="AJ15">
-        <v>225.150921922977</v>
+        <v>184.2735710901021</v>
       </c>
       <c r="AK15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AL15" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="AM15" t="s">
         <v>139</v>
       </c>
       <c r="AN15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AO15">
         <v>1710</v>
@@ -2674,79 +2680,73 @@
         <v>43</v>
       </c>
       <c r="B16" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C16" t="s">
         <v>50</v>
       </c>
       <c r="D16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E16">
-        <v>90220</v>
+        <v>32226</v>
       </c>
       <c r="F16" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="G16" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="H16">
-        <v>85395</v>
+        <v>33032</v>
       </c>
       <c r="I16" t="s">
         <v>77</v>
       </c>
       <c r="J16" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K16">
-        <v>190</v>
+        <v>220</v>
       </c>
       <c r="L16">
-        <v>190</v>
+        <v>3300</v>
       </c>
       <c r="M16">
-        <v>5.951</v>
+        <v>15.002</v>
       </c>
       <c r="N16">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="O16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="P16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-      <c r="R16" t="s">
-        <v>100</v>
-      </c>
-      <c r="S16" t="s">
-        <v>112</v>
-      </c>
-      <c r="T16" t="s">
-        <v>112</v>
+        <v>55</v>
+      </c>
+      <c r="U16" t="s">
+        <v>119</v>
       </c>
       <c r="V16" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="W16" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="X16">
         <v>0</v>
       </c>
       <c r="Y16">
-        <v>81.02892561983471</v>
+        <v>65.39256198347107</v>
       </c>
       <c r="Z16">
-        <v>89.43087487206122</v>
+        <v>68.72545093161132</v>
       </c>
       <c r="AA16">
-        <v>482.2031363636363</v>
+        <v>981.0192148760331</v>
       </c>
       <c r="AB16">
         <v>50</v>
@@ -2764,22 +2764,22 @@
         <v>20</v>
       </c>
       <c r="AG16">
-        <v>80</v>
+        <v>180</v>
       </c>
       <c r="AH16">
-        <v>384.33</v>
+        <v>1677.24</v>
       </c>
       <c r="AI16">
-        <v>1149.533136363636</v>
+        <v>3041.259214876033</v>
       </c>
       <c r="AJ16">
-        <v>193.1663815096011</v>
+        <v>202.7235845138004</v>
       </c>
       <c r="AK16" t="s">
         <v>137</v>
       </c>
       <c r="AL16" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="AM16" t="s">
         <v>139</v>
@@ -2788,10 +2788,10 @@
         <v>145</v>
       </c>
       <c r="AO16">
-        <v>1710</v>
+        <v>3300</v>
       </c>
       <c r="AP16">
-        <v>28.5012</v>
+        <v>15.0018</v>
       </c>
       <c r="AQ16">
         <v>0</v>
@@ -2799,46 +2799,46 @@
     </row>
     <row r="17" spans="1:43">
       <c r="A17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B17" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C17" t="s">
         <v>50</v>
       </c>
       <c r="D17" t="s">
-        <v>53</v>
-      </c>
-      <c r="E17">
-        <v>90220</v>
+        <v>52</v>
+      </c>
+      <c r="E17" t="s">
+        <v>55</v>
       </c>
       <c r="F17" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G17" t="s">
-        <v>70</v>
-      </c>
-      <c r="H17">
-        <v>85043</v>
+        <v>71</v>
+      </c>
+      <c r="H17" t="s">
+        <v>76</v>
       </c>
       <c r="I17" t="s">
         <v>77</v>
       </c>
       <c r="J17" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K17">
-        <v>240</v>
+        <v>96</v>
       </c>
       <c r="L17">
-        <v>240</v>
+        <v>1152</v>
       </c>
       <c r="M17">
-        <v>7.517</v>
+        <v>3.007</v>
       </c>
       <c r="N17">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O17" t="s">
         <v>87</v>
@@ -2856,7 +2856,7 @@
         <v>113</v>
       </c>
       <c r="T17" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="V17" t="s">
         <v>131</v>
@@ -2865,16 +2865,16 @@
         <v>131</v>
       </c>
       <c r="X17">
-        <v>0</v>
+        <v>0.1136363636363636</v>
       </c>
       <c r="Y17">
-        <v>81.02892561983471</v>
+        <v>71.35984848484848</v>
       </c>
       <c r="Z17">
-        <v>87.68051534978017</v>
+        <v>87.98771679213149</v>
       </c>
       <c r="AA17">
-        <v>609.0944338842976</v>
+        <v>214.5790643939394</v>
       </c>
       <c r="AB17">
         <v>50</v>
@@ -2889,162 +2889,40 @@
         <v>50</v>
       </c>
       <c r="AF17">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AG17">
-        <v>100</v>
+        <v>36</v>
       </c>
       <c r="AH17">
-        <v>473.09</v>
+        <v>180</v>
       </c>
       <c r="AI17">
-        <v>1385.184433884298</v>
+        <v>633.6927007575758</v>
       </c>
       <c r="AJ17">
-        <v>184.2735710901021</v>
+        <v>210.7391755096694</v>
       </c>
       <c r="AK17" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AL17" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AM17" t="s">
         <v>139</v>
       </c>
       <c r="AN17" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AO17">
-        <v>1710</v>
+        <v>2944</v>
       </c>
       <c r="AP17">
-        <v>28.5012</v>
+        <v>7.01568</v>
       </c>
       <c r="AQ17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:43">
-      <c r="A18" t="s">
-        <v>43</v>
-      </c>
-      <c r="B18" t="s">
-        <v>48</v>
-      </c>
-      <c r="C18" t="s">
-        <v>50</v>
-      </c>
-      <c r="D18" t="s">
-        <v>54</v>
-      </c>
-      <c r="E18" t="s">
-        <v>55</v>
-      </c>
-      <c r="F18" t="s">
-        <v>65</v>
-      </c>
-      <c r="G18" t="s">
-        <v>75</v>
-      </c>
-      <c r="H18" t="s">
-        <v>76</v>
-      </c>
-      <c r="I18" t="s">
-        <v>77</v>
-      </c>
-      <c r="J18" t="s">
-        <v>83</v>
-      </c>
-      <c r="K18">
-        <v>220</v>
-      </c>
-      <c r="L18">
-        <v>3300</v>
-      </c>
-      <c r="M18">
-        <v>15.002</v>
-      </c>
-      <c r="N18">
-        <v>9</v>
-      </c>
-      <c r="O18" t="s">
-        <v>86</v>
-      </c>
-      <c r="P18" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q18">
-        <v>55</v>
-      </c>
-      <c r="U18" t="s">
-        <v>119</v>
-      </c>
-      <c r="V18" t="s">
-        <v>119</v>
-      </c>
-      <c r="W18" t="s">
-        <v>119</v>
-      </c>
-      <c r="X18">
-        <v>0</v>
-      </c>
-      <c r="Y18">
-        <v>65.39256198347107</v>
-      </c>
-      <c r="Z18">
-        <v>68.72545093161132</v>
-      </c>
-      <c r="AA18">
-        <v>981.0192148760331</v>
-      </c>
-      <c r="AB18">
-        <v>50</v>
-      </c>
-      <c r="AC18">
-        <v>53</v>
-      </c>
-      <c r="AD18">
-        <v>100</v>
-      </c>
-      <c r="AE18">
-        <v>50</v>
-      </c>
-      <c r="AF18">
-        <v>20</v>
-      </c>
-      <c r="AG18">
-        <v>180</v>
-      </c>
-      <c r="AH18">
-        <v>1677.24</v>
-      </c>
-      <c r="AI18">
-        <v>3041.259214876033</v>
-      </c>
-      <c r="AJ18">
-        <v>202.7235845138004</v>
-      </c>
-      <c r="AK18" t="s">
-        <v>138</v>
-      </c>
-      <c r="AL18" t="s">
-        <v>75</v>
-      </c>
-      <c r="AM18" t="s">
-        <v>139</v>
-      </c>
-      <c r="AN18" t="s">
-        <v>146</v>
-      </c>
-      <c r="AO18">
-        <v>3300</v>
-      </c>
-      <c r="AP18">
-        <v>15.0018</v>
-      </c>
-      <c r="AQ18">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Logs/quotations.xlsx
+++ b/Logs/quotations.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="144">
   <si>
     <t>Shipment Scope</t>
   </si>
@@ -145,36 +145,36 @@
     <t>Pick-Up Charges(INR)</t>
   </si>
   <si>
+    <t>Door-to-Door</t>
+  </si>
+  <si>
     <t>Port-to-Door</t>
   </si>
   <si>
-    <t>Door-to-Door</t>
+    <t>583229, Koppal, Koppal, Karnataka, India</t>
+  </si>
+  <si>
+    <t>Nhava Sheva, India (INNSA)</t>
+  </si>
+  <si>
+    <t>110020, Okhla Industrial Estate, South East Delhi, Delhi, India</t>
   </si>
   <si>
     <t>Nhava Sheva, India(INNSA)</t>
   </si>
   <si>
-    <t>583229, Koppal, Koppal, Karnataka, India</t>
-  </si>
-  <si>
-    <t>Nhava Sheva, India (INNSA)</t>
-  </si>
-  <si>
-    <t>110020, Okhla Industrial Estate, South East Delhi, Delhi, India</t>
-  </si>
-  <si>
     <t>303905, Jaipur, Jaipur, Rajasthan, India</t>
   </si>
   <si>
     <t>Nhava Sheva</t>
   </si>
   <si>
+    <t>New York</t>
+  </si>
+  <si>
     <t>Charleston</t>
   </si>
   <si>
-    <t>New York</t>
-  </si>
-  <si>
     <t>Los Angeles</t>
   </si>
   <si>
@@ -184,6 +184,18 @@
     <t>07201</t>
   </si>
   <si>
+    <t>AVP1</t>
+  </si>
+  <si>
+    <t>IUST</t>
+  </si>
+  <si>
+    <t>AGS2</t>
+  </si>
+  <si>
+    <t>TEB9</t>
+  </si>
+  <si>
     <t>RDU4</t>
   </si>
   <si>
@@ -199,21 +211,21 @@
     <t>GYR3</t>
   </si>
   <si>
-    <t>AVP1</t>
-  </si>
-  <si>
-    <t>IUST</t>
-  </si>
-  <si>
-    <t>AGS2</t>
-  </si>
-  <si>
-    <t>TEB9</t>
-  </si>
-  <si>
     <t>TMB8</t>
   </si>
   <si>
+    <t>AVP1 18202, West Hazleton, West Hazleton, Pennsylvania, United States</t>
+  </si>
+  <si>
+    <t>IUST 17225, Greencastle, Greencastle, Pennsylvania, United States</t>
+  </si>
+  <si>
+    <t>AGS2 30567, Pendergrass, Pendergrass, Georgia, United States</t>
+  </si>
+  <si>
+    <t>TEB9 08873, Somerset, Franklin Township, New Jersey, United States</t>
+  </si>
+  <si>
     <t>RDU4 28303, Terry Sanford, Fayetteville, North Carolina, United States</t>
   </si>
   <si>
@@ -229,18 +241,6 @@
     <t>GYR3 85043, Estrella Village, Phoenix, Arizona, United States</t>
   </si>
   <si>
-    <t>AVP1 18202, West Hazleton, West Hazleton, Pennsylvania, United States</t>
-  </si>
-  <si>
-    <t>IUST 17225, Greencastle, Greencastle, Pennsylvania, United States</t>
-  </si>
-  <si>
-    <t>AGS2 30567, Pendergrass, Pendergrass, Georgia, United States</t>
-  </si>
-  <si>
-    <t>TEB9 08873, Somerset, Franklin Township, New Jersey, United States</t>
-  </si>
-  <si>
     <t>TMB8 33032, Princeton, Princeton, Florida, United States</t>
   </si>
   <si>
@@ -253,18 +253,6 @@
     <t>_NotAvailable</t>
   </si>
   <si>
-    <t>WEST</t>
-  </si>
-  <si>
-    <t>EAST</t>
-  </si>
-  <si>
-    <t>SOUTH</t>
-  </si>
-  <si>
-    <t>NORTH</t>
-  </si>
-  <si>
     <t>East Coast</t>
   </si>
   <si>
@@ -286,18 +274,6 @@
     <t>['FTL', 'FTL53', 'LTL']</t>
   </si>
   <si>
-    <t>{'Rate': 1784.96, 'Carrier Name': 'ABF Freight System VL', 'Service Provider': 'HeyPrimo'}</t>
-  </si>
-  <si>
-    <t>{'Rate': 1535.91, 'Carrier Name': 'Estes Express Lines', 'Service Provider': 'Ex-Freight'}</t>
-  </si>
-  <si>
-    <t>{'Rate': 2366.32, 'Carrier Name': 'Estes Express Lines', 'Service Provider': 'Ex-Freight'}</t>
-  </si>
-  <si>
-    <t>{'Rate': 3251.9, 'Carrier Name': 'ABF Freight', 'Service Provider': 'Ex-Freight'}</t>
-  </si>
-  <si>
     <t>{'Rate': 305.01, 'Carrier Name': 'Estes Express Lines', 'Service Provider': 'HeyPrimo'}</t>
   </si>
   <si>
@@ -319,21 +295,24 @@
     <t>{'Rate': 473.09, 'Carrier Name': 'Estes Express Lines', 'Service Provider': 'Ex-Freight'}</t>
   </si>
   <si>
+    <t>{'Rate': 546.16, 'Carrier Name': 'Estes Express Lines', 'Service Provider': 'Ex-Freight'}</t>
+  </si>
+  <si>
+    <t>{'Rate': 1597.27, 'Carrier Name': 'ABF Freight System VL', 'Service Provider': 'HeyPrimo'}</t>
+  </si>
+  <si>
+    <t>{'Rate': 1314.23, 'Carrier Name': 'Estes Express Lines', 'Service Provider': 'Ex-Freight'}</t>
+  </si>
+  <si>
+    <t>{'Rate': 638.28, 'Carrier Name': 'Estes Express Lines', 'Service Provider': 'Ex-Freight'}</t>
+  </si>
+  <si>
+    <t>{'Rate': 1089.06, 'Carrier Name': 'Estes Express Lines VL', 'Service Provider': 'HeyPrimo'}</t>
+  </si>
+  <si>
     <t>{'Rate': 180.0, 'Carrier Name': '', 'Service Provider': 'AmznFrgt'}</t>
   </si>
   <si>
-    <t>{'Rate': 1026.06, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt'}</t>
-  </si>
-  <si>
-    <t>{'Rate': 2470.85, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt'}</t>
-  </si>
-  <si>
-    <t>{'Rate': 3512.9, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt'}</t>
-  </si>
-  <si>
-    <t>{'Rate': 0, 'Carrier Name': 'Jb Hunt API Failed :No valid rates returned', 'Service Provider': 'J.B. Hunt'}</t>
-  </si>
-  <si>
     <t>{'Rate': 705.01, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt'}</t>
   </si>
   <si>
@@ -355,18 +334,27 @@
     <t>{'Rate': 1477.49, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt'}</t>
   </si>
   <si>
+    <t>{'Rate': 1301.2649999999999, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt'}</t>
+  </si>
+  <si>
+    <t>{'Rate': 1497.57, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt'}</t>
+  </si>
+  <si>
+    <t>{'Rate': 4951.08, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt'}</t>
+  </si>
+  <si>
+    <t>{'Rate': 2087.295, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt'}</t>
+  </si>
+  <si>
+    <t>{'Rate': 2228.235, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt'}</t>
+  </si>
+  <si>
     <t>{'Rate': 614.0, 'Carrier Name': '', 'Service Provider': 'JB.Hunt'}</t>
   </si>
   <si>
-    <t>{'Rate': 3493.82, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt'}</t>
-  </si>
-  <si>
     <t>{'Rate': 615.0, 'Carrier Name': '', 'Service Provider': 'NTG'}</t>
   </si>
   <si>
-    <t>{'Rate Type': 'Drayage', 'Rate': 872.37, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt'}</t>
-  </si>
-  <si>
     <t>{'Rate Type': 'Drayage', 'Rate': 581.95, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt'}</t>
   </si>
   <si>
@@ -376,18 +364,6 @@
     <t>{'Rate Type': 'Drayage', 'Rate': 1677.2400000000002, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt'}</t>
   </si>
   <si>
-    <t>{'Rate Type': 'FTL', 'Rate': 1026.06, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt'}</t>
-  </si>
-  <si>
-    <t>{'Rate Type': 'LTL', 'Rate': 1535.91, 'Carrier Name': 'Estes Express Lines', 'Service Provider': 'Ex-Freight'}</t>
-  </si>
-  <si>
-    <t>{'Rate Type': 'LTL', 'Rate': 2366.32, 'Carrier Name': 'Estes Express Lines', 'Service Provider': 'Ex-Freight'}</t>
-  </si>
-  <si>
-    <t>{'Rate Type': 'LTL', 'Rate': 3251.9, 'Carrier Name': 'ABF Freight', 'Service Provider': 'Ex-Freight'}</t>
-  </si>
-  <si>
     <t>{'Rate Type': 'LTL', 'Rate': 305.01, 'Carrier Name': 'Estes Express Lines', 'Service Provider': 'HeyPrimo'}</t>
   </si>
   <si>
@@ -409,36 +385,48 @@
     <t>{'Rate Type': 'LTL', 'Rate': 473.09, 'Carrier Name': 'Estes Express Lines', 'Service Provider': 'Ex-Freight'}</t>
   </si>
   <si>
+    <t>{'Rate Type': 'LTL', 'Rate': 546.16, 'Carrier Name': 'Estes Express Lines', 'Service Provider': 'Ex-Freight'}</t>
+  </si>
+  <si>
+    <t>{'Rate Type': 'FTL', 'Rate': 1497.57, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt'}</t>
+  </si>
+  <si>
+    <t>{'Rate Type': 'LTL', 'Rate': 1314.23, 'Carrier Name': 'Estes Express Lines', 'Service Provider': 'Ex-Freight'}</t>
+  </si>
+  <si>
+    <t>{'Rate Type': 'LTL', 'Rate': 638.28, 'Carrier Name': 'Estes Express Lines', 'Service Provider': 'Ex-Freight'}</t>
+  </si>
+  <si>
+    <t>{'Rate Type': 'LTL', 'Rate': 1089.06, 'Carrier Name': 'Estes Express Lines VL', 'Service Provider': 'HeyPrimo'}</t>
+  </si>
+  <si>
     <t>{'Rate Type': 'LTL', 'Rate': 180.0, 'Carrier Name': '', 'Service Provider': 'AmznFrgt'}</t>
   </si>
   <si>
+    <t>CMM0246LCL0045</t>
+  </si>
+  <si>
+    <t>CMM0246LCL0046</t>
+  </si>
+  <si>
+    <t>CMM0246LCL0039</t>
+  </si>
+  <si>
+    <t>CMM0246LCL0049</t>
+  </si>
+  <si>
+    <t>CMM0613LCL0008</t>
+  </si>
+  <si>
     <t>CMM0246LCL0044</t>
   </si>
   <si>
-    <t>CMM0246LCL0045</t>
-  </si>
-  <si>
-    <t>CMM0246LCL0046</t>
-  </si>
-  <si>
-    <t>CMM0246LCL0039</t>
-  </si>
-  <si>
-    <t>CMM0246LCL0049</t>
-  </si>
-  <si>
-    <t>CMM0613LCL0008</t>
-  </si>
-  <si>
     <t>CMM0246LCL0048</t>
   </si>
   <si>
     <t>Own Console</t>
   </si>
   <si>
-    <t>2025-08-10 14:23:33</t>
-  </si>
-  <si>
     <t>2025-08-12 11:54:01</t>
   </si>
   <si>
@@ -454,7 +442,10 @@
     <t>2025-08-13 08:06:41</t>
   </si>
   <si>
-    <t>2025-08-13 03:17:32</t>
+    <t>2025-08-13 11:37:13</t>
+  </si>
+  <si>
+    <t>2025-08-13 11:39:31</t>
   </si>
 </sst>
 </file>
@@ -963,7 +954,7 @@
         <v>51</v>
       </c>
       <c r="E2">
-        <v>29483</v>
+        <v>7201</v>
       </c>
       <c r="F2" t="s">
         <v>56</v>
@@ -972,7 +963,7 @@
         <v>66</v>
       </c>
       <c r="H2">
-        <v>28303</v>
+        <v>18202</v>
       </c>
       <c r="I2" t="s">
         <v>77</v>
@@ -981,52 +972,52 @@
         <v>79</v>
       </c>
       <c r="K2">
-        <v>288</v>
+        <v>500</v>
       </c>
       <c r="L2">
-        <v>2592</v>
+        <v>50000</v>
       </c>
       <c r="M2">
-        <v>9.02</v>
+        <v>69.12</v>
       </c>
       <c r="N2">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="O2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="Q2">
-        <v>45</v>
+        <v>69.12</v>
       </c>
       <c r="U2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="V2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="W2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y2">
-        <v>63.05785123966942</v>
+        <v>51.60984848484848</v>
       </c>
       <c r="Z2">
-        <v>68.60108849022374</v>
+        <v>52.33322811447811</v>
       </c>
       <c r="AA2">
-        <v>568.7818181818182</v>
+        <v>3567.272727272727</v>
       </c>
       <c r="AB2">
         <v>50</v>
       </c>
       <c r="AC2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AD2">
         <v>100</v>
@@ -1038,42 +1029,48 @@
         <v>18</v>
       </c>
       <c r="AG2">
-        <v>108</v>
+        <v>702</v>
       </c>
       <c r="AH2">
-        <v>872.37</v>
+        <v>581.95</v>
       </c>
       <c r="AI2">
-        <v>1751.151818181818</v>
+        <v>5154.222727272728</v>
       </c>
       <c r="AJ2">
-        <v>194.1409997984277</v>
+        <v>74.56919454966331</v>
       </c>
       <c r="AK2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="AL2" t="s">
         <v>66</v>
       </c>
       <c r="AM2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="AN2" t="s">
-        <v>140</v>
+        <v>137</v>
+      </c>
+      <c r="AO2">
+        <v>50000</v>
+      </c>
+      <c r="AP2">
+        <v>69.12</v>
       </c>
     </row>
     <row r="3" spans="1:43">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C3" t="s">
         <v>50</v>
       </c>
       <c r="D3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E3">
         <v>7201</v>
@@ -1085,67 +1082,61 @@
         <v>67</v>
       </c>
       <c r="H3">
-        <v>46140</v>
+        <v>17225</v>
       </c>
       <c r="I3" t="s">
         <v>77</v>
       </c>
       <c r="J3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K3">
-        <v>518</v>
+        <v>32</v>
       </c>
       <c r="L3">
-        <v>518</v>
+        <v>320</v>
       </c>
       <c r="M3">
-        <v>16.224</v>
+        <v>1.002</v>
       </c>
       <c r="N3">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="O3" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="P3" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-      <c r="R3" t="s">
-        <v>90</v>
-      </c>
-      <c r="S3" t="s">
-        <v>102</v>
-      </c>
-      <c r="T3" t="s">
-        <v>102</v>
+        <v>55</v>
+      </c>
+      <c r="U3" t="s">
+        <v>114</v>
       </c>
       <c r="V3" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="W3" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="X3">
         <v>0</v>
       </c>
       <c r="Y3">
-        <v>94.45887445887446</v>
+        <v>51.60984848484848</v>
       </c>
       <c r="Z3">
-        <v>97.54072850226697</v>
+        <v>101.5100480856469</v>
       </c>
       <c r="AA3">
-        <v>1532.500779220779</v>
+        <v>51.71306818181818</v>
       </c>
       <c r="AB3">
         <v>50</v>
       </c>
       <c r="AC3">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AD3">
         <v>100</v>
@@ -1157,28 +1148,37 @@
         <v>18</v>
       </c>
       <c r="AG3">
-        <v>180</v>
+        <v>18</v>
       </c>
       <c r="AH3">
-        <v>1026.06</v>
+        <v>793.17</v>
       </c>
       <c r="AI3">
-        <v>2940.560779220779</v>
+        <v>1065.883068181818</v>
       </c>
       <c r="AJ3">
-        <v>181.2475825456595</v>
+        <v>1063.755557067683</v>
       </c>
       <c r="AK3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="AL3" t="s">
         <v>67</v>
       </c>
       <c r="AM3" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="AN3" t="s">
-        <v>140</v>
+        <v>138</v>
+      </c>
+      <c r="AO3">
+        <v>320</v>
+      </c>
+      <c r="AP3">
+        <v>1.00224</v>
+      </c>
+      <c r="AQ3">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -1186,7 +1186,7 @@
         <v>43</v>
       </c>
       <c r="B4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C4" t="s">
         <v>50</v>
@@ -1195,7 +1195,7 @@
         <v>52</v>
       </c>
       <c r="E4">
-        <v>7201</v>
+        <v>29483</v>
       </c>
       <c r="F4" t="s">
         <v>58</v>
@@ -1204,67 +1204,67 @@
         <v>68</v>
       </c>
       <c r="H4">
-        <v>75241</v>
+        <v>30567</v>
       </c>
       <c r="I4" t="s">
         <v>77</v>
       </c>
       <c r="J4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="K4">
-        <v>461</v>
+        <v>10</v>
       </c>
       <c r="L4">
-        <v>461</v>
+        <v>2000</v>
       </c>
       <c r="M4">
-        <v>14.439</v>
+        <v>1</v>
       </c>
       <c r="N4">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="O4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="P4" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
       <c r="R4" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="S4" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="T4" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="V4" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="W4" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="X4">
-        <v>0</v>
+        <v>113.6363636363636</v>
       </c>
       <c r="Y4">
-        <v>94.45887445887446</v>
+        <v>71.60984848484848</v>
       </c>
       <c r="Z4">
-        <v>97.92171814611042</v>
+        <v>121.6098484848485</v>
       </c>
       <c r="AA4">
-        <v>1363.891688311688</v>
+        <v>71.60984848484848</v>
       </c>
       <c r="AB4">
         <v>50</v>
       </c>
       <c r="AC4">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AD4">
         <v>100</v>
@@ -1273,31 +1273,40 @@
         <v>50</v>
       </c>
       <c r="AF4">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AG4">
-        <v>162</v>
+        <v>20</v>
       </c>
       <c r="AH4">
-        <v>1535.91</v>
+        <v>305.01</v>
       </c>
       <c r="AI4">
-        <v>3263.801688311688</v>
+        <v>713.2562121212121</v>
       </c>
       <c r="AJ4">
-        <v>226.0407014552038</v>
+        <v>713.2562121212121</v>
       </c>
       <c r="AK4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL4" t="s">
         <v>68</v>
       </c>
       <c r="AM4" t="s">
+        <v>136</v>
+      </c>
+      <c r="AN4" t="s">
         <v>139</v>
       </c>
-      <c r="AN4" t="s">
-        <v>140</v>
+      <c r="AO4">
+        <v>3660</v>
+      </c>
+      <c r="AP4">
+        <v>2.6016</v>
+      </c>
+      <c r="AQ4">
+        <v>10000</v>
       </c>
     </row>
     <row r="5" spans="1:43">
@@ -1305,7 +1314,7 @@
         <v>43</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C5" t="s">
         <v>50</v>
@@ -1314,7 +1323,7 @@
         <v>52</v>
       </c>
       <c r="E5">
-        <v>7201</v>
+        <v>29483</v>
       </c>
       <c r="F5" t="s">
         <v>59</v>
@@ -1323,7 +1332,7 @@
         <v>69</v>
       </c>
       <c r="H5">
-        <v>85395</v>
+        <v>8873</v>
       </c>
       <c r="I5" t="s">
         <v>77</v>
@@ -1332,58 +1341,58 @@
         <v>79</v>
       </c>
       <c r="K5">
-        <v>461</v>
+        <v>9</v>
       </c>
       <c r="L5">
-        <v>461</v>
+        <v>660</v>
       </c>
       <c r="M5">
-        <v>14.439</v>
+        <v>1</v>
       </c>
       <c r="N5">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="O5" t="s">
+        <v>83</v>
+      </c>
+      <c r="P5" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5" t="s">
         <v>87</v>
       </c>
-      <c r="P5" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-      <c r="R5" t="s">
-        <v>92</v>
-      </c>
       <c r="S5" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="T5" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="V5" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="W5" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="X5">
-        <v>0</v>
+        <v>113.6363636363636</v>
       </c>
       <c r="Y5">
-        <v>94.45887445887446</v>
+        <v>71.60984848484848</v>
       </c>
       <c r="Z5">
-        <v>97.92171814611042</v>
+        <v>121.6098484848485</v>
       </c>
       <c r="AA5">
-        <v>1363.891688311688</v>
+        <v>71.60984848484848</v>
       </c>
       <c r="AB5">
         <v>50</v>
       </c>
       <c r="AC5">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AD5">
         <v>100</v>
@@ -1392,39 +1401,48 @@
         <v>50</v>
       </c>
       <c r="AF5">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AG5">
-        <v>162</v>
+        <v>20</v>
       </c>
       <c r="AH5">
-        <v>2366.32</v>
+        <v>322.38</v>
       </c>
       <c r="AI5">
-        <v>4094.211688311689</v>
+        <v>730.6262121212121</v>
       </c>
       <c r="AJ5">
-        <v>283.5523019815561</v>
+        <v>730.6262121212121</v>
       </c>
       <c r="AK5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL5" t="s">
         <v>69</v>
       </c>
       <c r="AM5" t="s">
+        <v>136</v>
+      </c>
+      <c r="AN5" t="s">
         <v>139</v>
       </c>
-      <c r="AN5" t="s">
-        <v>140</v>
+      <c r="AO5">
+        <v>3660</v>
+      </c>
+      <c r="AP5">
+        <v>2.6016</v>
+      </c>
+      <c r="AQ5">
+        <v>10000</v>
       </c>
     </row>
     <row r="6" spans="1:43">
       <c r="A6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B6" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C6" t="s">
         <v>50</v>
@@ -1433,7 +1451,7 @@
         <v>52</v>
       </c>
       <c r="E6">
-        <v>7201</v>
+        <v>29483</v>
       </c>
       <c r="F6" t="s">
         <v>60</v>
@@ -1442,67 +1460,67 @@
         <v>70</v>
       </c>
       <c r="H6">
-        <v>85043</v>
+        <v>28303</v>
       </c>
       <c r="I6" t="s">
         <v>77</v>
       </c>
       <c r="J6" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="K6">
-        <v>576</v>
+        <v>100</v>
       </c>
       <c r="L6">
-        <v>576</v>
+        <v>900</v>
       </c>
       <c r="M6">
-        <v>18.04</v>
+        <v>3.132</v>
       </c>
       <c r="N6">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="O6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="P6" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
       <c r="R6" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="S6" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="T6" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="V6" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="W6" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="X6">
         <v>0</v>
       </c>
       <c r="Y6">
-        <v>94.45887445887446</v>
+        <v>78.1198347107438</v>
       </c>
       <c r="Z6">
-        <v>97.23049308415162</v>
+        <v>94.08407481291493</v>
       </c>
       <c r="AA6">
-        <v>1704.038095238095</v>
+        <v>244.6713223140496</v>
       </c>
       <c r="AB6">
         <v>50</v>
       </c>
       <c r="AC6">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AD6">
         <v>100</v>
@@ -1511,19 +1529,19 @@
         <v>50</v>
       </c>
       <c r="AF6">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AG6">
-        <v>198</v>
+        <v>40</v>
       </c>
       <c r="AH6">
-        <v>3251.9</v>
+        <v>337.33</v>
       </c>
       <c r="AI6">
-        <v>5355.938095238095</v>
+        <v>825.0013223140496</v>
       </c>
       <c r="AJ6">
-        <v>296.8923556118678</v>
+        <v>263.4103838806033</v>
       </c>
       <c r="AK6" t="s">
         <v>132</v>
@@ -1532,10 +1550,19 @@
         <v>70</v>
       </c>
       <c r="AM6" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="AN6" t="s">
         <v>140</v>
+      </c>
+      <c r="AO6">
+        <v>1710</v>
+      </c>
+      <c r="AP6">
+        <v>28.5012</v>
+      </c>
+      <c r="AQ6">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:43">
@@ -1543,13 +1570,13 @@
         <v>44</v>
       </c>
       <c r="B7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C7" t="s">
         <v>50</v>
       </c>
       <c r="D7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E7">
         <v>7201</v>
@@ -1561,55 +1588,61 @@
         <v>71</v>
       </c>
       <c r="H7">
-        <v>18202</v>
+        <v>46140</v>
       </c>
       <c r="I7" t="s">
         <v>77</v>
       </c>
       <c r="J7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K7">
+        <v>190</v>
+      </c>
+      <c r="L7">
+        <v>190</v>
+      </c>
+      <c r="M7">
+        <v>5.951</v>
+      </c>
+      <c r="N7">
+        <v>4</v>
+      </c>
+      <c r="O7" t="s">
         <v>83</v>
       </c>
-      <c r="K7">
-        <v>500</v>
-      </c>
-      <c r="L7">
-        <v>50000</v>
-      </c>
-      <c r="M7">
-        <v>69.12</v>
-      </c>
-      <c r="N7">
-        <v>39</v>
-      </c>
-      <c r="O7" t="s">
-        <v>86</v>
-      </c>
       <c r="P7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="Q7">
-        <v>69.12</v>
-      </c>
-      <c r="U7" t="s">
-        <v>117</v>
+        <v>0</v>
+      </c>
+      <c r="R7" t="s">
+        <v>89</v>
+      </c>
+      <c r="S7" t="s">
+        <v>102</v>
+      </c>
+      <c r="T7" t="s">
+        <v>102</v>
       </c>
       <c r="V7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="W7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="X7">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y7">
-        <v>51.60984848484848</v>
+        <v>71.35984848484848</v>
       </c>
       <c r="Z7">
-        <v>52.33322811447811</v>
+        <v>79.761797737075</v>
       </c>
       <c r="AA7">
-        <v>3567.272727272727</v>
+        <v>424.6624583333333</v>
       </c>
       <c r="AB7">
         <v>50</v>
@@ -1627,51 +1660,54 @@
         <v>18</v>
       </c>
       <c r="AG7">
-        <v>702</v>
+        <v>72</v>
       </c>
       <c r="AH7">
-        <v>581.95</v>
+        <v>781.24</v>
       </c>
       <c r="AI7">
-        <v>5154.222727272728</v>
+        <v>1480.902458333333</v>
       </c>
       <c r="AJ7">
-        <v>74.56919454966331</v>
+        <v>248.8493460482832</v>
       </c>
       <c r="AK7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AL7" t="s">
         <v>71</v>
       </c>
       <c r="AM7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="AN7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AO7">
-        <v>50000</v>
+        <v>1710</v>
       </c>
       <c r="AP7">
-        <v>69.12</v>
+        <v>28.5012</v>
+      </c>
+      <c r="AQ7">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:43">
       <c r="A8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C8" t="s">
         <v>50</v>
       </c>
       <c r="D8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E8">
-        <v>7201</v>
+        <v>90220</v>
       </c>
       <c r="F8" t="s">
         <v>62</v>
@@ -1680,55 +1716,61 @@
         <v>72</v>
       </c>
       <c r="H8">
-        <v>17225</v>
+        <v>75241</v>
       </c>
       <c r="I8" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J8" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K8">
-        <v>32</v>
+        <v>190</v>
       </c>
       <c r="L8">
-        <v>320</v>
+        <v>190</v>
       </c>
       <c r="M8">
-        <v>1.002</v>
+        <v>5.951</v>
       </c>
       <c r="N8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O8" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="P8" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="Q8">
-        <v>55</v>
-      </c>
-      <c r="U8" t="s">
-        <v>118</v>
+        <v>0</v>
+      </c>
+      <c r="R8" t="s">
+        <v>90</v>
+      </c>
+      <c r="S8" t="s">
+        <v>103</v>
+      </c>
+      <c r="T8" t="s">
+        <v>103</v>
       </c>
       <c r="V8" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="W8" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="X8">
         <v>0</v>
       </c>
       <c r="Y8">
-        <v>51.60984848484848</v>
+        <v>81.02892561983471</v>
       </c>
       <c r="Z8">
-        <v>101.5100480856469</v>
+        <v>89.43087487206122</v>
       </c>
       <c r="AA8">
-        <v>51.71306818181818</v>
+        <v>482.2031363636363</v>
       </c>
       <c r="AB8">
         <v>50</v>
@@ -1743,37 +1785,37 @@
         <v>50</v>
       </c>
       <c r="AF8">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AG8">
-        <v>18</v>
+        <v>80</v>
       </c>
       <c r="AH8">
-        <v>793.17</v>
+        <v>574.67</v>
       </c>
       <c r="AI8">
-        <v>1065.883068181818</v>
+        <v>1339.873136363636</v>
       </c>
       <c r="AJ8">
-        <v>1063.755557067683</v>
+        <v>225.150921922977</v>
       </c>
       <c r="AK8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="AL8" t="s">
         <v>72</v>
       </c>
       <c r="AM8" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="AN8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="AO8">
-        <v>320</v>
+        <v>1710</v>
       </c>
       <c r="AP8">
-        <v>1.00224</v>
+        <v>28.5012</v>
       </c>
       <c r="AQ8">
         <v>0</v>
@@ -1790,10 +1832,10 @@
         <v>50</v>
       </c>
       <c r="D9" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E9">
-        <v>29483</v>
+        <v>90220</v>
       </c>
       <c r="F9" t="s">
         <v>63</v>
@@ -1802,61 +1844,61 @@
         <v>73</v>
       </c>
       <c r="H9">
-        <v>30567</v>
+        <v>85395</v>
       </c>
       <c r="I9" t="s">
         <v>77</v>
       </c>
       <c r="J9" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="K9">
-        <v>10</v>
+        <v>190</v>
       </c>
       <c r="L9">
-        <v>2000</v>
+        <v>190</v>
       </c>
       <c r="M9">
-        <v>1</v>
+        <v>5.951</v>
       </c>
       <c r="N9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O9" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="P9" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
       <c r="R9" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="S9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="T9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="V9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="W9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="X9">
-        <v>113.6363636363636</v>
+        <v>0</v>
       </c>
       <c r="Y9">
-        <v>71.60984848484848</v>
+        <v>81.02892561983471</v>
       </c>
       <c r="Z9">
-        <v>121.6098484848485</v>
+        <v>89.43087487206122</v>
       </c>
       <c r="AA9">
-        <v>71.60984848484848</v>
+        <v>482.2031363636363</v>
       </c>
       <c r="AB9">
         <v>50</v>
@@ -1874,37 +1916,37 @@
         <v>20</v>
       </c>
       <c r="AG9">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="AH9">
-        <v>305.01</v>
+        <v>384.33</v>
       </c>
       <c r="AI9">
-        <v>713.2562121212121</v>
+        <v>1149.533136363636</v>
       </c>
       <c r="AJ9">
-        <v>713.2562121212121</v>
+        <v>193.1663815096011</v>
       </c>
       <c r="AK9" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="AL9" t="s">
         <v>73</v>
       </c>
       <c r="AM9" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="AN9" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="AO9">
-        <v>3660</v>
+        <v>1710</v>
       </c>
       <c r="AP9">
-        <v>2.6016</v>
+        <v>28.5012</v>
       </c>
       <c r="AQ9">
-        <v>10000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:43">
@@ -1918,10 +1960,10 @@
         <v>50</v>
       </c>
       <c r="D10" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E10">
-        <v>29483</v>
+        <v>90220</v>
       </c>
       <c r="F10" t="s">
         <v>64</v>
@@ -1930,61 +1972,61 @@
         <v>74</v>
       </c>
       <c r="H10">
-        <v>8873</v>
+        <v>85043</v>
       </c>
       <c r="I10" t="s">
         <v>77</v>
       </c>
       <c r="J10" t="s">
+        <v>81</v>
+      </c>
+      <c r="K10">
+        <v>240</v>
+      </c>
+      <c r="L10">
+        <v>240</v>
+      </c>
+      <c r="M10">
+        <v>7.517</v>
+      </c>
+      <c r="N10">
+        <v>5</v>
+      </c>
+      <c r="O10" t="s">
         <v>83</v>
       </c>
-      <c r="K10">
-        <v>9</v>
-      </c>
-      <c r="L10">
-        <v>660</v>
-      </c>
-      <c r="M10">
-        <v>1</v>
-      </c>
-      <c r="N10">
-        <v>1</v>
-      </c>
-      <c r="O10" t="s">
-        <v>87</v>
-      </c>
       <c r="P10" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
       <c r="R10" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="S10" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="T10" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="V10" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="W10" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="X10">
-        <v>113.6363636363636</v>
+        <v>0</v>
       </c>
       <c r="Y10">
-        <v>71.60984848484848</v>
+        <v>81.02892561983471</v>
       </c>
       <c r="Z10">
-        <v>121.6098484848485</v>
+        <v>87.68051534978017</v>
       </c>
       <c r="AA10">
-        <v>71.60984848484848</v>
+        <v>609.0944338842976</v>
       </c>
       <c r="AB10">
         <v>50</v>
@@ -2002,117 +2044,111 @@
         <v>20</v>
       </c>
       <c r="AG10">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="AH10">
-        <v>322.38</v>
+        <v>473.09</v>
       </c>
       <c r="AI10">
-        <v>730.6262121212121</v>
+        <v>1385.184433884298</v>
       </c>
       <c r="AJ10">
-        <v>730.6262121212121</v>
+        <v>184.2735710901021</v>
       </c>
       <c r="AK10" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="AL10" t="s">
         <v>74</v>
       </c>
       <c r="AM10" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="AN10" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="AO10">
-        <v>3660</v>
+        <v>1710</v>
       </c>
       <c r="AP10">
-        <v>2.6016</v>
+        <v>28.5012</v>
       </c>
       <c r="AQ10">
-        <v>10000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:43">
       <c r="A11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C11" t="s">
         <v>50</v>
       </c>
       <c r="D11" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E11">
-        <v>29483</v>
+        <v>32226</v>
       </c>
       <c r="F11" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="G11" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="H11">
-        <v>28303</v>
+        <v>33032</v>
       </c>
       <c r="I11" t="s">
         <v>77</v>
       </c>
       <c r="J11" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K11">
-        <v>100</v>
+        <v>220</v>
       </c>
       <c r="L11">
-        <v>900</v>
+        <v>3300</v>
       </c>
       <c r="M11">
-        <v>3.132</v>
+        <v>15.002</v>
       </c>
       <c r="N11">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="O11" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="P11" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-      <c r="R11" t="s">
-        <v>96</v>
-      </c>
-      <c r="S11" t="s">
-        <v>108</v>
-      </c>
-      <c r="T11" t="s">
-        <v>108</v>
+        <v>55</v>
+      </c>
+      <c r="U11" t="s">
+        <v>115</v>
       </c>
       <c r="V11" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="W11" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="X11">
         <v>0</v>
       </c>
       <c r="Y11">
-        <v>78.1198347107438</v>
+        <v>65.39256198347107</v>
       </c>
       <c r="Z11">
-        <v>94.08407481291493</v>
+        <v>68.72545093161132</v>
       </c>
       <c r="AA11">
-        <v>244.6713223140496</v>
+        <v>981.0192148760331</v>
       </c>
       <c r="AB11">
         <v>50</v>
@@ -2130,34 +2166,34 @@
         <v>20</v>
       </c>
       <c r="AG11">
-        <v>40</v>
+        <v>180</v>
       </c>
       <c r="AH11">
-        <v>337.33</v>
+        <v>1677.24</v>
       </c>
       <c r="AI11">
-        <v>825.0013223140496</v>
+        <v>3041.259214876033</v>
       </c>
       <c r="AJ11">
-        <v>263.4103838806033</v>
+        <v>202.7235845138004</v>
       </c>
       <c r="AK11" t="s">
+        <v>133</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM11" t="s">
         <v>136</v>
       </c>
-      <c r="AL11" t="s">
-        <v>66</v>
-      </c>
-      <c r="AM11" t="s">
-        <v>139</v>
-      </c>
       <c r="AN11" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="AO11">
-        <v>1710</v>
+        <v>3300</v>
       </c>
       <c r="AP11">
-        <v>28.5012</v>
+        <v>15.0018</v>
       </c>
       <c r="AQ11">
         <v>0</v>
@@ -2165,10 +2201,10 @@
     </row>
     <row r="12" spans="1:43">
       <c r="A12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B12" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C12" t="s">
         <v>50</v>
@@ -2177,16 +2213,16 @@
         <v>52</v>
       </c>
       <c r="E12">
-        <v>7201</v>
+        <v>29483</v>
       </c>
       <c r="F12" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G12" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="H12">
-        <v>46140</v>
+        <v>28303</v>
       </c>
       <c r="I12" t="s">
         <v>77</v>
@@ -2195,52 +2231,52 @@
         <v>78</v>
       </c>
       <c r="K12">
-        <v>190</v>
+        <v>288</v>
       </c>
       <c r="L12">
-        <v>190</v>
+        <v>2592</v>
       </c>
       <c r="M12">
-        <v>5.951</v>
+        <v>9.02</v>
       </c>
       <c r="N12">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="O12" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="P12" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
       <c r="R12" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="S12" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="T12" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="V12" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="W12" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="X12">
         <v>0</v>
       </c>
       <c r="Y12">
-        <v>71.35984848484848</v>
+        <v>78.1198347107438</v>
       </c>
       <c r="Z12">
-        <v>79.761797737075</v>
+        <v>83.66307196129813</v>
       </c>
       <c r="AA12">
-        <v>424.6624583333333</v>
+        <v>704.6409090909091</v>
       </c>
       <c r="AB12">
         <v>50</v>
@@ -2255,37 +2291,37 @@
         <v>50</v>
       </c>
       <c r="AF12">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AG12">
-        <v>72</v>
+        <v>120</v>
       </c>
       <c r="AH12">
-        <v>781.24</v>
+        <v>546.16</v>
       </c>
       <c r="AI12">
-        <v>1480.902458333333</v>
+        <v>1573.800909090909</v>
       </c>
       <c r="AJ12">
-        <v>248.8493460482832</v>
+        <v>174.4790364845797</v>
       </c>
       <c r="AK12" t="s">
+        <v>134</v>
+      </c>
+      <c r="AL12" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM12" t="s">
         <v>136</v>
       </c>
-      <c r="AL12" t="s">
-        <v>67</v>
-      </c>
-      <c r="AM12" t="s">
-        <v>139</v>
-      </c>
       <c r="AN12" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AO12">
-        <v>1710</v>
+        <v>4608</v>
       </c>
       <c r="AP12">
-        <v>28.5012</v>
+        <v>72.16128</v>
       </c>
       <c r="AQ12">
         <v>0</v>
@@ -2293,82 +2329,82 @@
     </row>
     <row r="13" spans="1:43">
       <c r="A13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B13" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C13" t="s">
         <v>50</v>
       </c>
       <c r="D13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E13">
-        <v>90220</v>
+        <v>7201</v>
       </c>
       <c r="F13" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G13" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="H13">
-        <v>75241</v>
+        <v>46140</v>
       </c>
       <c r="I13" t="s">
+        <v>77</v>
+      </c>
+      <c r="J13" t="s">
         <v>78</v>
       </c>
-      <c r="J13" t="s">
-        <v>84</v>
-      </c>
       <c r="K13">
-        <v>190</v>
+        <v>518</v>
       </c>
       <c r="L13">
-        <v>190</v>
+        <v>518</v>
       </c>
       <c r="M13">
-        <v>5.951</v>
+        <v>16.224</v>
       </c>
       <c r="N13">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="O13" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="P13" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
       <c r="R13" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="S13" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="T13" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="V13" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="W13" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="X13">
         <v>0</v>
       </c>
       <c r="Y13">
-        <v>81.02892561983471</v>
+        <v>71.35984848484848</v>
       </c>
       <c r="Z13">
-        <v>89.43087487206122</v>
+        <v>74.441702528241</v>
       </c>
       <c r="AA13">
-        <v>482.2031363636363</v>
+        <v>1157.742181818182</v>
       </c>
       <c r="AB13">
         <v>50</v>
@@ -2383,37 +2419,37 @@
         <v>50</v>
       </c>
       <c r="AF13">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AG13">
-        <v>80</v>
+        <v>180</v>
       </c>
       <c r="AH13">
-        <v>574.67</v>
+        <v>1497.57</v>
       </c>
       <c r="AI13">
-        <v>1339.873136363636</v>
+        <v>3038.312181818182</v>
       </c>
       <c r="AJ13">
-        <v>225.150921922977</v>
+        <v>187.2726936525013</v>
       </c>
       <c r="AK13" t="s">
+        <v>134</v>
+      </c>
+      <c r="AL13" t="s">
+        <v>71</v>
+      </c>
+      <c r="AM13" t="s">
         <v>136</v>
       </c>
-      <c r="AL13" t="s">
-        <v>68</v>
-      </c>
-      <c r="AM13" t="s">
-        <v>139</v>
-      </c>
       <c r="AN13" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AO13">
-        <v>1710</v>
+        <v>4608</v>
       </c>
       <c r="AP13">
-        <v>28.5012</v>
+        <v>72.16128</v>
       </c>
       <c r="AQ13">
         <v>0</v>
@@ -2421,10 +2457,10 @@
     </row>
     <row r="14" spans="1:43">
       <c r="A14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B14" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C14" t="s">
         <v>50</v>
@@ -2436,55 +2472,55 @@
         <v>90220</v>
       </c>
       <c r="F14" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="G14" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="H14">
-        <v>85395</v>
+        <v>75241</v>
       </c>
       <c r="I14" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J14" t="s">
+        <v>80</v>
+      </c>
+      <c r="K14">
+        <v>461</v>
+      </c>
+      <c r="L14">
+        <v>461</v>
+      </c>
+      <c r="M14">
+        <v>14.439</v>
+      </c>
+      <c r="N14">
+        <v>9</v>
+      </c>
+      <c r="O14" t="s">
+        <v>83</v>
+      </c>
+      <c r="P14" t="s">
         <v>85</v>
       </c>
-      <c r="K14">
-        <v>190</v>
-      </c>
-      <c r="L14">
-        <v>190</v>
-      </c>
-      <c r="M14">
-        <v>5.951</v>
-      </c>
-      <c r="N14">
-        <v>4</v>
-      </c>
-      <c r="O14" t="s">
-        <v>87</v>
-      </c>
-      <c r="P14" t="s">
-        <v>89</v>
-      </c>
       <c r="Q14">
         <v>0</v>
       </c>
       <c r="R14" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="S14" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="T14" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="V14" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="W14" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="X14">
         <v>0</v>
@@ -2493,10 +2529,10 @@
         <v>81.02892561983471</v>
       </c>
       <c r="Z14">
-        <v>89.43087487206122</v>
+        <v>84.49176930707067</v>
       </c>
       <c r="AA14">
-        <v>482.2031363636363</v>
+        <v>1169.976657024793</v>
       </c>
       <c r="AB14">
         <v>50</v>
@@ -2514,34 +2550,34 @@
         <v>20</v>
       </c>
       <c r="AG14">
-        <v>80</v>
+        <v>180</v>
       </c>
       <c r="AH14">
-        <v>384.33</v>
+        <v>1314.23</v>
       </c>
       <c r="AI14">
-        <v>1149.533136363636</v>
+        <v>2867.206657024793</v>
       </c>
       <c r="AJ14">
-        <v>193.1663815096011</v>
+        <v>198.5737694455844</v>
       </c>
       <c r="AK14" t="s">
+        <v>134</v>
+      </c>
+      <c r="AL14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AM14" t="s">
         <v>136</v>
       </c>
-      <c r="AL14" t="s">
-        <v>69</v>
-      </c>
-      <c r="AM14" t="s">
-        <v>139</v>
-      </c>
       <c r="AN14" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AO14">
-        <v>1710</v>
+        <v>4608</v>
       </c>
       <c r="AP14">
-        <v>28.5012</v>
+        <v>72.16128</v>
       </c>
       <c r="AQ14">
         <v>0</v>
@@ -2549,10 +2585,10 @@
     </row>
     <row r="15" spans="1:43">
       <c r="A15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B15" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C15" t="s">
         <v>50</v>
@@ -2564,55 +2600,55 @@
         <v>90220</v>
       </c>
       <c r="F15" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G15" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H15">
-        <v>85043</v>
+        <v>85395</v>
       </c>
       <c r="I15" t="s">
         <v>77</v>
       </c>
       <c r="J15" t="s">
+        <v>81</v>
+      </c>
+      <c r="K15">
+        <v>461</v>
+      </c>
+      <c r="L15">
+        <v>461</v>
+      </c>
+      <c r="M15">
+        <v>14.439</v>
+      </c>
+      <c r="N15">
+        <v>9</v>
+      </c>
+      <c r="O15" t="s">
+        <v>83</v>
+      </c>
+      <c r="P15" t="s">
         <v>85</v>
       </c>
-      <c r="K15">
-        <v>240</v>
-      </c>
-      <c r="L15">
-        <v>240</v>
-      </c>
-      <c r="M15">
-        <v>7.517</v>
-      </c>
-      <c r="N15">
-        <v>5</v>
-      </c>
-      <c r="O15" t="s">
-        <v>87</v>
-      </c>
-      <c r="P15" t="s">
-        <v>89</v>
-      </c>
       <c r="Q15">
         <v>0</v>
       </c>
       <c r="R15" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="S15" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="T15" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="V15" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="W15" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="X15">
         <v>0</v>
@@ -2621,10 +2657,10 @@
         <v>81.02892561983471</v>
       </c>
       <c r="Z15">
-        <v>87.68051534978017</v>
+        <v>84.49176930707067</v>
       </c>
       <c r="AA15">
-        <v>609.0944338842976</v>
+        <v>1169.976657024793</v>
       </c>
       <c r="AB15">
         <v>50</v>
@@ -2642,34 +2678,34 @@
         <v>20</v>
       </c>
       <c r="AG15">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="AH15">
-        <v>473.09</v>
+        <v>638.28</v>
       </c>
       <c r="AI15">
-        <v>1385.184433884298</v>
+        <v>2191.256657024794</v>
       </c>
       <c r="AJ15">
-        <v>184.2735710901021</v>
+        <v>151.7595856378415</v>
       </c>
       <c r="AK15" t="s">
+        <v>134</v>
+      </c>
+      <c r="AL15" t="s">
+        <v>73</v>
+      </c>
+      <c r="AM15" t="s">
         <v>136</v>
       </c>
-      <c r="AL15" t="s">
-        <v>70</v>
-      </c>
-      <c r="AM15" t="s">
-        <v>139</v>
-      </c>
       <c r="AN15" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AO15">
-        <v>1710</v>
+        <v>4608</v>
       </c>
       <c r="AP15">
-        <v>28.5012</v>
+        <v>72.16128</v>
       </c>
       <c r="AQ15">
         <v>0</v>
@@ -2677,76 +2713,82 @@
     </row>
     <row r="16" spans="1:43">
       <c r="A16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C16" t="s">
         <v>50</v>
       </c>
       <c r="D16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E16">
-        <v>32226</v>
+        <v>90220</v>
       </c>
       <c r="F16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H16">
-        <v>33032</v>
+        <v>85043</v>
       </c>
       <c r="I16" t="s">
         <v>77</v>
       </c>
       <c r="J16" t="s">
+        <v>81</v>
+      </c>
+      <c r="K16">
+        <v>576</v>
+      </c>
+      <c r="L16">
+        <v>576</v>
+      </c>
+      <c r="M16">
+        <v>18.04</v>
+      </c>
+      <c r="N16">
+        <v>11</v>
+      </c>
+      <c r="O16" t="s">
         <v>83</v>
       </c>
-      <c r="K16">
-        <v>220</v>
-      </c>
-      <c r="L16">
-        <v>3300</v>
-      </c>
-      <c r="M16">
-        <v>15.002</v>
-      </c>
-      <c r="N16">
-        <v>9</v>
-      </c>
-      <c r="O16" t="s">
-        <v>86</v>
-      </c>
       <c r="P16" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="Q16">
-        <v>55</v>
-      </c>
-      <c r="U16" t="s">
-        <v>119</v>
+        <v>0</v>
+      </c>
+      <c r="R16" t="s">
+        <v>97</v>
+      </c>
+      <c r="S16" t="s">
+        <v>110</v>
+      </c>
+      <c r="T16" t="s">
+        <v>110</v>
       </c>
       <c r="V16" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="W16" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="X16">
         <v>0</v>
       </c>
       <c r="Y16">
-        <v>65.39256198347107</v>
+        <v>81.02892561983471</v>
       </c>
       <c r="Z16">
-        <v>68.72545093161132</v>
+        <v>83.80054424511187</v>
       </c>
       <c r="AA16">
-        <v>981.0192148760331</v>
+        <v>1461.761818181818</v>
       </c>
       <c r="AB16">
         <v>50</v>
@@ -2764,34 +2806,34 @@
         <v>20</v>
       </c>
       <c r="AG16">
-        <v>180</v>
+        <v>220</v>
       </c>
       <c r="AH16">
-        <v>1677.24</v>
+        <v>1089.06</v>
       </c>
       <c r="AI16">
-        <v>3041.259214876033</v>
+        <v>2973.821818181818</v>
       </c>
       <c r="AJ16">
-        <v>202.7235845138004</v>
+        <v>164.8459987905664</v>
       </c>
       <c r="AK16" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="AL16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AM16" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="AN16" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="AO16">
-        <v>3300</v>
+        <v>4608</v>
       </c>
       <c r="AP16">
-        <v>15.0018</v>
+        <v>72.16128</v>
       </c>
       <c r="AQ16">
         <v>0</v>
@@ -2799,7 +2841,7 @@
     </row>
     <row r="17" spans="1:43">
       <c r="A17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B17" t="s">
         <v>49</v>
@@ -2808,16 +2850,16 @@
         <v>50</v>
       </c>
       <c r="D17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E17" t="s">
         <v>55</v>
       </c>
       <c r="F17" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="G17" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="H17" t="s">
         <v>76</v>
@@ -2826,7 +2868,7 @@
         <v>77</v>
       </c>
       <c r="J17" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="K17">
         <v>96</v>
@@ -2841,31 +2883,31 @@
         <v>2</v>
       </c>
       <c r="O17" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="P17" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
       <c r="R17" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="S17" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="T17" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="V17" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="W17" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="X17">
-        <v>0.1136363636363636</v>
+        <v>113.6363636363636</v>
       </c>
       <c r="Y17">
         <v>71.35984848484848</v>
@@ -2898,22 +2940,22 @@
         <v>180</v>
       </c>
       <c r="AI17">
-        <v>633.6927007575758</v>
+        <v>747.2154280303031</v>
       </c>
       <c r="AJ17">
-        <v>210.7391755096694</v>
+        <v>248.4919946891596</v>
       </c>
       <c r="AK17" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="AL17" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="AM17" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="AN17" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="AO17">
         <v>2944</v>
@@ -2922,7 +2964,7 @@
         <v>7.01568</v>
       </c>
       <c r="AQ17">
-        <v>10</v>
+        <v>10000</v>
       </c>
     </row>
   </sheetData>

--- a/Logs/quotations.xlsx
+++ b/Logs/quotations.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="151">
   <si>
     <t>Shipment Scope</t>
   </si>
@@ -175,9 +175,6 @@
     <t>Houston</t>
   </si>
   <si>
-    <t>77020</t>
-  </si>
-  <si>
     <t>07201</t>
   </si>
   <si>
@@ -202,6 +199,9 @@
     <t>TEB9</t>
   </si>
   <si>
+    <t>AVP1</t>
+  </si>
+  <si>
     <t>ADS1</t>
   </si>
   <si>
@@ -211,6 +211,12 @@
     <t>ABE5</t>
   </si>
   <si>
+    <t>IUSR</t>
+  </si>
+  <si>
+    <t>PPO4</t>
+  </si>
+  <si>
     <t>RDU4 28303, Terry Sanford, Fayetteville, North Carolina, United States</t>
   </si>
   <si>
@@ -232,6 +238,9 @@
     <t>TEB9 08873, Somerset, Franklin Township, New Jersey, United States</t>
   </si>
   <si>
+    <t>AVP1 18202, West Hazleton, West Hazleton, Pennsylvania, United States</t>
+  </si>
+  <si>
     <t>ADS1 75007, North Central, Carrollton, Texas, United States</t>
   </si>
   <si>
@@ -241,13 +250,13 @@
     <t>ABE5 17112, Linglestown, Linglestown, Pennsylvania, United States</t>
   </si>
   <si>
-    <t>75007</t>
-  </si>
-  <si>
-    <t>18105</t>
-  </si>
-  <si>
-    <t>17112</t>
+    <t>IUSR 29330, Cowpens, Cowpens, South Carolina, United States</t>
+  </si>
+  <si>
+    <t>PPO4 46410, Merrillville, Merrillville, Indiana, United States</t>
+  </si>
+  <si>
+    <t>46410</t>
   </si>
   <si>
     <t>Agraga</t>
@@ -265,6 +274,9 @@
     <t>East Coast</t>
   </si>
   <si>
+    <t>Central</t>
+  </si>
+  <si>
     <t>NON HOT</t>
   </si>
   <si>
@@ -292,6 +304,21 @@
     <t>{'Rate': 97.0, 'Carrier Name': '', 'Service Provider': 'AmznFrgt'}</t>
   </si>
   <si>
+    <t>{'Rate': 180.0, 'Carrier Name': '', 'Service Provider': 'AmznFrgt'}</t>
+  </si>
+  <si>
+    <t>{'Rate': 1148.94, 'Carrier Name': 'Estes Express Lines', 'Service Provider': 'Ex-Freight'}</t>
+  </si>
+  <si>
+    <t>{'Rate': 2094.3, 'Carrier Name': 'Estes Express Lines', 'Service Provider': 'Ex-Freight'}</t>
+  </si>
+  <si>
+    <t>{'Rate': 1220.31, 'Carrier Name': 'Estes Express Lines', 'Service Provider': 'Ex-Freight'}</t>
+  </si>
+  <si>
+    <t>{'Rate': 2285.01, 'Carrier Name': 'Estes Express Lines', 'Service Provider': 'Ex-Freight'}</t>
+  </si>
+  <si>
     <t>{'Rate': 1358.2649999999999, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt'}</t>
   </si>
   <si>
@@ -313,6 +340,9 @@
     <t>{'Rate': 465.0, 'Carrier Name': '', 'Service Provider': 'JB.Hunt'}</t>
   </si>
   <si>
+    <t>{'Rate': 614.0, 'Carrier Name': '', 'Service Provider': 'JB.Hunt'}</t>
+  </si>
+  <si>
     <t>{'Rate': 1168.44, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt'}</t>
   </si>
   <si>
@@ -322,9 +352,24 @@
     <t>{'Rate': 1171.5, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt'}</t>
   </si>
   <si>
+    <t>{'Rate': 1132.68, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt'}</t>
+  </si>
+  <si>
+    <t>{'Rate': 1890.0, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt'}</t>
+  </si>
+  <si>
+    <t>{'Rate': 1144.68, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt'}</t>
+  </si>
+  <si>
+    <t>{'Rate': 1909.5, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt'}</t>
+  </si>
+  <si>
     <t>{'Rate': 372.0, 'Carrier Name': '', 'Service Provider': 'NTG'}</t>
   </si>
   <si>
+    <t>{'Rate': 615.0, 'Carrier Name': '', 'Service Provider': 'NTG'}</t>
+  </si>
+  <si>
     <t>{'Rate Type': 'LTL', 'Rate': 546.16, 'Carrier Name': 'Estes Express Lines', 'Service Provider': 'Ex-Freight'}</t>
   </si>
   <si>
@@ -346,6 +391,9 @@
     <t>{'Rate Type': 'LTL', 'Rate': 97.0, 'Carrier Name': '', 'Service Provider': 'AmznFrgt'}</t>
   </si>
   <si>
+    <t>{'Rate Type': 'LTL', 'Rate': 180.0, 'Carrier Name': '', 'Service Provider': 'AmznFrgt'}</t>
+  </si>
+  <si>
     <t>{'Rate Type': 'FTL', 'Rate': 1168.44, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt'}</t>
   </si>
   <si>
@@ -355,15 +403,42 @@
     <t>{'Rate Type': 'FTL', 'Rate': 1171.5, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt'}</t>
   </si>
   <si>
+    <t>{'Rate Type': 'FTL', 'Rate': 1132.68, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt'}</t>
+  </si>
+  <si>
+    <t>{'Rate Type': 'FTL', 'Rate': 1890.0, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt'}</t>
+  </si>
+  <si>
+    <t>{'Rate Type': 'FTL', 'Rate': 1144.68, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt'}</t>
+  </si>
+  <si>
+    <t>{'Rate Type': 'FTL', 'Rate': 1909.5, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt'}</t>
+  </si>
+  <si>
     <t>CMM0246LCL0044</t>
   </si>
   <si>
     <t>CMM0246LCL0039</t>
   </si>
   <si>
+    <t>CMM0246LCL0043</t>
+  </si>
+  <si>
     <t>CMM0246LCL0052</t>
   </si>
   <si>
+    <t>CMM0246LCL0053</t>
+  </si>
+  <si>
+    <t>CMM0246LCL0054</t>
+  </si>
+  <si>
+    <t>CMM0829LCL0007</t>
+  </si>
+  <si>
+    <t>CMM0829LCL0008</t>
+  </si>
+  <si>
     <t>Own Console</t>
   </si>
   <si>
@@ -376,7 +451,22 @@
     <t>2025-08-14 15:34:17</t>
   </si>
   <si>
-    <t>2025-08-14 15:40:08</t>
+    <t>2025-08-14 10:25:34</t>
+  </si>
+  <si>
+    <t>2025-08-14 10:28:20</t>
+  </si>
+  <si>
+    <t>2025-08-15 06:21:43</t>
+  </si>
+  <si>
+    <t>2025-08-15 10:12:45</t>
+  </si>
+  <si>
+    <t>2025-08-16 04:29:40</t>
+  </si>
+  <si>
+    <t>2025-08-16 04:38:34</t>
   </si>
 </sst>
 </file>
@@ -734,7 +824,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ11"/>
+  <dimension ref="A1:AQ16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -888,19 +978,19 @@
         <v>29483</v>
       </c>
       <c r="F2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H2">
         <v>28303</v>
       </c>
       <c r="I2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="J2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="K2">
         <v>288</v>
@@ -921,28 +1011,28 @@
         <v>6</v>
       </c>
       <c r="Q2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="R2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="S2">
         <v>0</v>
       </c>
       <c r="T2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="U2" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="V2" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="X2" t="s">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="Y2" t="s">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -987,16 +1077,16 @@
         <v>174.4790364845797</v>
       </c>
       <c r="AN2" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="AO2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AP2" t="s">
-        <v>116</v>
+        <v>141</v>
       </c>
       <c r="AQ2" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -1016,19 +1106,19 @@
         <v>7201</v>
       </c>
       <c r="F3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H3">
         <v>46140</v>
       </c>
       <c r="I3" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="J3" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="K3">
         <v>518</v>
@@ -1049,28 +1139,28 @@
         <v>10</v>
       </c>
       <c r="Q3" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="R3" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="U3" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="V3" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="X3" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
       <c r="Y3" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -1115,16 +1205,16 @@
         <v>188.3821611081226</v>
       </c>
       <c r="AN3" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="AO3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="AP3" t="s">
-        <v>116</v>
+        <v>141</v>
       </c>
       <c r="AQ3" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -1144,19 +1234,19 @@
         <v>90220</v>
       </c>
       <c r="F4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H4">
         <v>75241</v>
       </c>
       <c r="I4" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="J4" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="K4">
         <v>461</v>
@@ -1177,28 +1267,28 @@
         <v>9</v>
       </c>
       <c r="Q4" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="R4" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="U4" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="V4" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="X4" t="s">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="Y4" t="s">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -1243,16 +1333,16 @@
         <v>198.5737694455844</v>
       </c>
       <c r="AN4" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="AO4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="AP4" t="s">
-        <v>116</v>
+        <v>141</v>
       </c>
       <c r="AQ4" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:43">
@@ -1272,19 +1362,19 @@
         <v>90220</v>
       </c>
       <c r="F5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H5">
         <v>85395</v>
       </c>
       <c r="I5" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="J5" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="K5">
         <v>461</v>
@@ -1305,28 +1395,28 @@
         <v>9</v>
       </c>
       <c r="Q5" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="R5" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="U5" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="V5" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="X5" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="Y5" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="Z5">
         <v>0</v>
@@ -1371,16 +1461,16 @@
         <v>151.7595856378415</v>
       </c>
       <c r="AN5" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="AO5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="AP5" t="s">
-        <v>116</v>
+        <v>141</v>
       </c>
       <c r="AQ5" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
     </row>
     <row r="6" spans="1:43">
@@ -1400,19 +1490,19 @@
         <v>90220</v>
       </c>
       <c r="F6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G6" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H6">
         <v>85043</v>
       </c>
       <c r="I6" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="J6" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="K6">
         <v>576</v>
@@ -1433,28 +1523,28 @@
         <v>11</v>
       </c>
       <c r="Q6" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="R6" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="S6">
         <v>0</v>
       </c>
       <c r="T6" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="U6" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="V6" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="X6" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="Y6" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="Z6">
         <v>0</v>
@@ -1499,16 +1589,16 @@
         <v>164.8459987905664</v>
       </c>
       <c r="AN6" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="AO6" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="AP6" t="s">
-        <v>116</v>
+        <v>141</v>
       </c>
       <c r="AQ6" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
     </row>
     <row r="7" spans="1:43">
@@ -1528,19 +1618,19 @@
         <v>29483</v>
       </c>
       <c r="F7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H7">
         <v>30567</v>
       </c>
       <c r="I7" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="J7" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="K7">
         <v>10</v>
@@ -1561,28 +1651,28 @@
         <v>1</v>
       </c>
       <c r="Q7" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="R7" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
       <c r="T7" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="U7" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="V7" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="X7" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="Y7" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="Z7">
         <v>10000</v>
@@ -1627,16 +1717,16 @@
         <v>719.1061983471075</v>
       </c>
       <c r="AN7" t="s">
-        <v>114</v>
+        <v>134</v>
       </c>
       <c r="AO7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AP7" t="s">
-        <v>116</v>
+        <v>141</v>
       </c>
       <c r="AQ7" t="s">
-        <v>119</v>
+        <v>144</v>
       </c>
     </row>
     <row r="8" spans="1:43">
@@ -1656,19 +1746,19 @@
         <v>7201</v>
       </c>
       <c r="F8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G8" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H8">
         <v>8873</v>
       </c>
       <c r="I8" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="J8" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="K8">
         <v>9</v>
@@ -1689,28 +1779,28 @@
         <v>1</v>
       </c>
       <c r="Q8" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="R8" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
       <c r="T8" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="U8" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="V8" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="X8" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="Y8" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="Z8">
         <v>10000</v>
@@ -1755,16 +1845,16 @@
         <v>502.9962121212121</v>
       </c>
       <c r="AN8" t="s">
-        <v>114</v>
+        <v>134</v>
       </c>
       <c r="AO8" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AP8" t="s">
-        <v>116</v>
+        <v>141</v>
       </c>
       <c r="AQ8" t="s">
-        <v>119</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:43">
@@ -1778,85 +1868,88 @@
         <v>48</v>
       </c>
       <c r="D9" t="s">
-        <v>52</v>
-      </c>
-      <c r="E9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9">
+        <v>7201</v>
+      </c>
+      <c r="F9" t="s">
+        <v>61</v>
+      </c>
+      <c r="G9" t="s">
+        <v>74</v>
+      </c>
+      <c r="H9">
+        <v>18202</v>
+      </c>
+      <c r="I9" t="s">
+        <v>81</v>
+      </c>
+      <c r="J9" t="s">
+        <v>85</v>
+      </c>
+      <c r="K9">
+        <v>72</v>
+      </c>
+      <c r="L9">
+        <v>720</v>
+      </c>
+      <c r="M9">
+        <v>720</v>
+      </c>
+      <c r="N9">
+        <v>2.255</v>
+      </c>
+      <c r="O9">
+        <v>2.25504</v>
+      </c>
+      <c r="P9">
+        <v>2</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>87</v>
+      </c>
+      <c r="R9" t="s">
+        <v>88</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9" t="s">
+        <v>96</v>
+      </c>
+      <c r="U9" t="s">
+        <v>108</v>
+      </c>
+      <c r="V9" t="s">
+        <v>117</v>
+      </c>
+      <c r="X9" t="s">
+        <v>125</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>125</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+      <c r="AA9">
+        <v>0</v>
+      </c>
+      <c r="AB9">
+        <v>71.35984848484848</v>
+      </c>
+      <c r="AC9">
+        <v>93.53279748706578</v>
+      </c>
+      <c r="AD9">
+        <v>160.9164583333333</v>
+      </c>
+      <c r="AE9">
+        <v>50</v>
+      </c>
+      <c r="AF9">
         <v>53</v>
-      </c>
-      <c r="F9" t="s">
-        <v>62</v>
-      </c>
-      <c r="G9" t="s">
-        <v>72</v>
-      </c>
-      <c r="H9" t="s">
-        <v>75</v>
-      </c>
-      <c r="I9" t="s">
-        <v>79</v>
-      </c>
-      <c r="J9" t="s">
-        <v>80</v>
-      </c>
-      <c r="K9">
-        <v>50</v>
-      </c>
-      <c r="L9">
-        <v>5000</v>
-      </c>
-      <c r="M9">
-        <v>125000</v>
-      </c>
-      <c r="N9">
-        <v>6.912</v>
-      </c>
-      <c r="O9">
-        <v>34.56</v>
-      </c>
-      <c r="P9">
-        <v>50</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>83</v>
-      </c>
-      <c r="R9" t="s">
-        <v>84</v>
-      </c>
-      <c r="S9">
-        <v>0</v>
-      </c>
-      <c r="U9" t="s">
-        <v>99</v>
-      </c>
-      <c r="V9" t="s">
-        <v>99</v>
-      </c>
-      <c r="X9" t="s">
-        <v>110</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>110</v>
-      </c>
-      <c r="Z9">
-        <v>0</v>
-      </c>
-      <c r="AA9">
-        <v>0</v>
-      </c>
-      <c r="AB9">
-        <v>90</v>
-      </c>
-      <c r="AC9">
-        <v>97.23379629629629</v>
-      </c>
-      <c r="AD9">
-        <v>622.08</v>
-      </c>
-      <c r="AE9">
-        <v>50</v>
-      </c>
-      <c r="AF9">
-        <v>0</v>
       </c>
       <c r="AG9">
         <v>100</v>
@@ -1865,31 +1958,31 @@
         <v>50</v>
       </c>
       <c r="AI9">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AJ9">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AK9">
-        <v>1168.44</v>
+        <v>180</v>
       </c>
       <c r="AL9">
-        <v>1940.52</v>
+        <v>579.9164583333334</v>
       </c>
       <c r="AM9">
-        <v>280.7465277777778</v>
+        <v>257.1691611234294</v>
       </c>
       <c r="AN9" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="AO9" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AP9" t="s">
-        <v>117</v>
+        <v>141</v>
       </c>
       <c r="AQ9" t="s">
-        <v>120</v>
+        <v>145</v>
       </c>
     </row>
     <row r="10" spans="1:43">
@@ -1903,64 +1996,64 @@
         <v>48</v>
       </c>
       <c r="D10" t="s">
-        <v>50</v>
-      </c>
-      <c r="E10" t="s">
-        <v>54</v>
+        <v>52</v>
+      </c>
+      <c r="E10">
+        <v>77020</v>
       </c>
       <c r="F10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G10" t="s">
-        <v>73</v>
-      </c>
-      <c r="H10" t="s">
-        <v>76</v>
+        <v>75</v>
+      </c>
+      <c r="H10">
+        <v>75007</v>
       </c>
       <c r="I10" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="J10" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="K10">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="L10">
-        <v>20000</v>
+        <v>5000</v>
       </c>
       <c r="M10">
         <v>125000</v>
       </c>
       <c r="N10">
-        <v>13.824</v>
+        <v>6.912</v>
       </c>
       <c r="O10">
         <v>34.56</v>
       </c>
       <c r="P10">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="Q10" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="R10" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="S10">
         <v>0</v>
       </c>
       <c r="U10" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="V10" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="X10" t="s">
-        <v>111</v>
+        <v>126</v>
       </c>
       <c r="Y10" t="s">
-        <v>111</v>
+        <v>126</v>
       </c>
       <c r="Z10">
         <v>0</v>
@@ -1969,13 +2062,13 @@
         <v>0</v>
       </c>
       <c r="AB10">
-        <v>71.35984848484848</v>
+        <v>90</v>
       </c>
       <c r="AC10">
-        <v>74.97674663299664</v>
+        <v>97.23379629629629</v>
       </c>
       <c r="AD10">
-        <v>986.4785454545454</v>
+        <v>622.08</v>
       </c>
       <c r="AE10">
         <v>50</v>
@@ -1990,31 +2083,31 @@
         <v>50</v>
       </c>
       <c r="AI10">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AJ10">
         <v>0</v>
       </c>
       <c r="AK10">
-        <v>831.405</v>
+        <v>1168.44</v>
       </c>
       <c r="AL10">
-        <v>1967.883545454545</v>
+        <v>1940.52</v>
       </c>
       <c r="AM10">
-        <v>142.3526870265152</v>
+        <v>280.7465277777778</v>
       </c>
       <c r="AN10" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="AO10" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AP10" t="s">
-        <v>116</v>
+        <v>142</v>
       </c>
       <c r="AQ10" t="s">
-        <v>120</v>
+        <v>146</v>
       </c>
     </row>
     <row r="11" spans="1:43">
@@ -2030,29 +2123,29 @@
       <c r="D11" t="s">
         <v>50</v>
       </c>
-      <c r="E11" t="s">
-        <v>54</v>
+      <c r="E11">
+        <v>7201</v>
       </c>
       <c r="F11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G11" t="s">
-        <v>74</v>
-      </c>
-      <c r="H11" t="s">
-        <v>77</v>
+        <v>76</v>
+      </c>
+      <c r="H11">
+        <v>18105</v>
       </c>
       <c r="I11" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="J11" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="K11">
         <v>100</v>
       </c>
       <c r="L11">
-        <v>100000</v>
+        <v>20000</v>
       </c>
       <c r="M11">
         <v>125000</v>
@@ -2067,25 +2160,25 @@
         <v>100</v>
       </c>
       <c r="Q11" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="R11" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
       <c r="U11" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="V11" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="X11" t="s">
-        <v>112</v>
+        <v>127</v>
       </c>
       <c r="Y11" t="s">
-        <v>112</v>
+        <v>127</v>
       </c>
       <c r="Z11">
         <v>0</v>
@@ -2121,25 +2214,662 @@
         <v>0</v>
       </c>
       <c r="AK11">
+        <v>831.405</v>
+      </c>
+      <c r="AL11">
+        <v>1967.883545454545</v>
+      </c>
+      <c r="AM11">
+        <v>142.3526870265152</v>
+      </c>
+      <c r="AN11" t="s">
+        <v>136</v>
+      </c>
+      <c r="AO11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AP11" t="s">
+        <v>141</v>
+      </c>
+      <c r="AQ11" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="12" spans="1:43">
+      <c r="A12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12">
+        <v>7201</v>
+      </c>
+      <c r="F12" t="s">
+        <v>64</v>
+      </c>
+      <c r="G12" t="s">
+        <v>77</v>
+      </c>
+      <c r="H12">
+        <v>17112</v>
+      </c>
+      <c r="I12" t="s">
+        <v>81</v>
+      </c>
+      <c r="J12" t="s">
+        <v>82</v>
+      </c>
+      <c r="K12">
+        <v>100</v>
+      </c>
+      <c r="L12">
+        <v>100000</v>
+      </c>
+      <c r="M12">
+        <v>125000</v>
+      </c>
+      <c r="N12">
+        <v>13.824</v>
+      </c>
+      <c r="O12">
+        <v>34.56</v>
+      </c>
+      <c r="P12">
+        <v>100</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>87</v>
+      </c>
+      <c r="R12" t="s">
+        <v>88</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="U12" t="s">
+        <v>111</v>
+      </c>
+      <c r="V12" t="s">
+        <v>111</v>
+      </c>
+      <c r="X12" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>128</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+      <c r="AA12">
+        <v>0</v>
+      </c>
+      <c r="AB12">
+        <v>71.35984848484848</v>
+      </c>
+      <c r="AC12">
+        <v>74.97674663299664</v>
+      </c>
+      <c r="AD12">
+        <v>986.4785454545454</v>
+      </c>
+      <c r="AE12">
+        <v>50</v>
+      </c>
+      <c r="AF12">
+        <v>0</v>
+      </c>
+      <c r="AG12">
+        <v>100</v>
+      </c>
+      <c r="AH12">
+        <v>50</v>
+      </c>
+      <c r="AI12">
+        <v>18</v>
+      </c>
+      <c r="AJ12">
+        <v>0</v>
+      </c>
+      <c r="AK12">
         <v>1171.5</v>
       </c>
-      <c r="AL11">
+      <c r="AL12">
         <v>2307.978545454545</v>
       </c>
-      <c r="AM11">
+      <c r="AM12">
         <v>166.954466540404</v>
       </c>
-      <c r="AN11" t="s">
+      <c r="AN12" t="s">
+        <v>136</v>
+      </c>
+      <c r="AO12" t="s">
+        <v>77</v>
+      </c>
+      <c r="AP12" t="s">
+        <v>141</v>
+      </c>
+      <c r="AQ12" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="13" spans="1:43">
+      <c r="A13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13">
+        <v>29483</v>
+      </c>
+      <c r="F13" t="s">
+        <v>65</v>
+      </c>
+      <c r="G13" t="s">
+        <v>78</v>
+      </c>
+      <c r="H13">
+        <v>29330</v>
+      </c>
+      <c r="I13" t="s">
+        <v>81</v>
+      </c>
+      <c r="J13" t="s">
+        <v>82</v>
+      </c>
+      <c r="K13">
+        <v>390</v>
+      </c>
+      <c r="L13">
+        <v>5460</v>
+      </c>
+      <c r="M13">
+        <v>5460</v>
+      </c>
+      <c r="N13">
+        <v>29.515</v>
+      </c>
+      <c r="O13">
+        <v>29.5152</v>
+      </c>
+      <c r="P13">
+        <v>17</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>87</v>
+      </c>
+      <c r="R13" t="s">
+        <v>88</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13" t="s">
+        <v>97</v>
+      </c>
+      <c r="U13" t="s">
+        <v>112</v>
+      </c>
+      <c r="V13" t="s">
+        <v>112</v>
+      </c>
+      <c r="X13" t="s">
+        <v>129</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>129</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+      <c r="AA13">
+        <v>0</v>
+      </c>
+      <c r="AB13">
+        <v>78.1198347107438</v>
+      </c>
+      <c r="AC13">
+        <v>79.8138885816569</v>
+      </c>
+      <c r="AD13">
+        <v>2305.706921487603</v>
+      </c>
+      <c r="AE13">
+        <v>50</v>
+      </c>
+      <c r="AF13">
+        <v>0</v>
+      </c>
+      <c r="AG13">
+        <v>100</v>
+      </c>
+      <c r="AH13">
+        <v>50</v>
+      </c>
+      <c r="AI13">
+        <v>20</v>
+      </c>
+      <c r="AJ13">
+        <v>340</v>
+      </c>
+      <c r="AK13">
+        <v>1132.68</v>
+      </c>
+      <c r="AL13">
+        <v>3928.386921487603</v>
+      </c>
+      <c r="AM13">
+        <v>133.097981415809</v>
+      </c>
+      <c r="AN13" t="s">
+        <v>137</v>
+      </c>
+      <c r="AO13" t="s">
+        <v>78</v>
+      </c>
+      <c r="AP13" t="s">
+        <v>141</v>
+      </c>
+      <c r="AQ13" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="14" spans="1:43">
+      <c r="A14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14">
+        <v>7201</v>
+      </c>
+      <c r="F14" t="s">
+        <v>66</v>
+      </c>
+      <c r="G14" t="s">
+        <v>79</v>
+      </c>
+      <c r="H14">
+        <v>46410</v>
+      </c>
+      <c r="I14" t="s">
+        <v>81</v>
+      </c>
+      <c r="J14" t="s">
+        <v>86</v>
+      </c>
+      <c r="K14">
+        <v>390</v>
+      </c>
+      <c r="L14">
+        <v>5460</v>
+      </c>
+      <c r="M14">
+        <v>5460</v>
+      </c>
+      <c r="N14">
+        <v>29.515</v>
+      </c>
+      <c r="O14">
+        <v>29.5152</v>
+      </c>
+      <c r="P14">
+        <v>17</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>87</v>
+      </c>
+      <c r="R14" t="s">
+        <v>88</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14" t="s">
+        <v>98</v>
+      </c>
+      <c r="U14" t="s">
+        <v>113</v>
+      </c>
+      <c r="V14" t="s">
+        <v>113</v>
+      </c>
+      <c r="X14" t="s">
+        <v>130</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>130</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+      <c r="AA14">
+        <v>0</v>
+      </c>
+      <c r="AB14">
+        <v>71.35984848484848</v>
+      </c>
+      <c r="AC14">
+        <v>73.05390235576158</v>
+      </c>
+      <c r="AD14">
+        <v>2106.185928030303</v>
+      </c>
+      <c r="AE14">
+        <v>50</v>
+      </c>
+      <c r="AF14">
+        <v>0</v>
+      </c>
+      <c r="AG14">
+        <v>100</v>
+      </c>
+      <c r="AH14">
+        <v>50</v>
+      </c>
+      <c r="AI14">
+        <v>18</v>
+      </c>
+      <c r="AJ14">
+        <v>306</v>
+      </c>
+      <c r="AK14">
+        <v>1890</v>
+      </c>
+      <c r="AL14">
+        <v>4452.185928030303</v>
+      </c>
+      <c r="AM14">
+        <v>150.8448561080909</v>
+      </c>
+      <c r="AN14" t="s">
+        <v>138</v>
+      </c>
+      <c r="AO14" t="s">
+        <v>79</v>
+      </c>
+      <c r="AP14" t="s">
+        <v>141</v>
+      </c>
+      <c r="AQ14" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="15" spans="1:43">
+      <c r="A15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15">
+        <v>29483</v>
+      </c>
+      <c r="F15" t="s">
+        <v>65</v>
+      </c>
+      <c r="G15" t="s">
+        <v>78</v>
+      </c>
+      <c r="H15">
+        <v>29330</v>
+      </c>
+      <c r="I15" t="s">
+        <v>81</v>
+      </c>
+      <c r="J15" t="s">
+        <v>82</v>
+      </c>
+      <c r="K15">
+        <v>436</v>
+      </c>
+      <c r="L15">
+        <v>6300.2</v>
+      </c>
+      <c r="M15">
+        <v>6300.2</v>
+      </c>
+      <c r="N15">
+        <v>32.996</v>
+      </c>
+      <c r="O15">
+        <v>32.99648</v>
+      </c>
+      <c r="P15">
+        <v>19</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>87</v>
+      </c>
+      <c r="R15" t="s">
+        <v>88</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15" t="s">
+        <v>99</v>
+      </c>
+      <c r="U15" t="s">
+        <v>114</v>
+      </c>
+      <c r="V15" t="s">
+        <v>114</v>
+      </c>
+      <c r="X15" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>131</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+      <c r="AA15">
+        <v>0</v>
+      </c>
+      <c r="AB15">
+        <v>78.1198347107438</v>
+      </c>
+      <c r="AC15">
+        <v>79.63516990288831</v>
+      </c>
+      <c r="AD15">
+        <v>2577.642066115703</v>
+      </c>
+      <c r="AE15">
+        <v>50</v>
+      </c>
+      <c r="AF15">
+        <v>53</v>
+      </c>
+      <c r="AG15">
+        <v>100</v>
+      </c>
+      <c r="AH15">
+        <v>50</v>
+      </c>
+      <c r="AI15">
+        <v>20</v>
+      </c>
+      <c r="AJ15">
+        <v>380</v>
+      </c>
+      <c r="AK15">
+        <v>1144.68</v>
+      </c>
+      <c r="AL15">
+        <v>4305.322066115703</v>
+      </c>
+      <c r="AM15">
+        <v>130.4801208060281</v>
+      </c>
+      <c r="AN15" t="s">
+        <v>139</v>
+      </c>
+      <c r="AO15" t="s">
+        <v>78</v>
+      </c>
+      <c r="AP15" t="s">
+        <v>141</v>
+      </c>
+      <c r="AQ15" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="16" spans="1:43">
+      <c r="A16" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" t="s">
+        <v>50</v>
+      </c>
+      <c r="E16" t="s">
+        <v>53</v>
+      </c>
+      <c r="F16" t="s">
+        <v>66</v>
+      </c>
+      <c r="G16" t="s">
+        <v>79</v>
+      </c>
+      <c r="H16" t="s">
+        <v>80</v>
+      </c>
+      <c r="I16" t="s">
+        <v>81</v>
+      </c>
+      <c r="J16" t="s">
+        <v>86</v>
+      </c>
+      <c r="K16">
+        <v>436</v>
+      </c>
+      <c r="L16">
+        <v>6300.2</v>
+      </c>
+      <c r="M16">
+        <v>6300.2</v>
+      </c>
+      <c r="N16">
+        <v>32.996</v>
+      </c>
+      <c r="O16">
+        <v>32.99648</v>
+      </c>
+      <c r="P16">
+        <v>19</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>87</v>
+      </c>
+      <c r="R16" t="s">
+        <v>88</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16" t="s">
+        <v>100</v>
+      </c>
+      <c r="U16" t="s">
         <v>115</v>
       </c>
-      <c r="AO11" t="s">
-        <v>74</v>
-      </c>
-      <c r="AP11" t="s">
-        <v>116</v>
-      </c>
-      <c r="AQ11" t="s">
-        <v>120</v>
+      <c r="V16" t="s">
+        <v>115</v>
+      </c>
+      <c r="X16" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>132</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+      <c r="AA16">
+        <v>0</v>
+      </c>
+      <c r="AB16">
+        <v>71.35984848484848</v>
+      </c>
+      <c r="AC16">
+        <v>72.87518367699299</v>
+      </c>
+      <c r="AD16">
+        <v>2354.589560606061</v>
+      </c>
+      <c r="AE16">
+        <v>50</v>
+      </c>
+      <c r="AF16">
+        <v>53</v>
+      </c>
+      <c r="AG16">
+        <v>100</v>
+      </c>
+      <c r="AH16">
+        <v>50</v>
+      </c>
+      <c r="AI16">
+        <v>18</v>
+      </c>
+      <c r="AJ16">
+        <v>342</v>
+      </c>
+      <c r="AK16">
+        <v>1909.5</v>
+      </c>
+      <c r="AL16">
+        <v>4809.08956060606</v>
+      </c>
+      <c r="AM16">
+        <v>145.7476530672221</v>
+      </c>
+      <c r="AN16" t="s">
+        <v>140</v>
+      </c>
+      <c r="AO16" t="s">
+        <v>79</v>
+      </c>
+      <c r="AP16" t="s">
+        <v>141</v>
+      </c>
+      <c r="AQ16" t="s">
+        <v>150</v>
       </c>
     </row>
   </sheetData>

--- a/Logs/quotations.xlsx
+++ b/Logs/quotations.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="171">
   <si>
     <t>Shipment Scope</t>
   </si>
@@ -175,7 +175,10 @@
     <t>Houston</t>
   </si>
   <si>
-    <t>07201</t>
+    <t>Chicago</t>
+  </si>
+  <si>
+    <t>00000</t>
   </si>
   <si>
     <t>RDU4</t>
@@ -217,6 +220,15 @@
     <t>PPO4</t>
   </si>
   <si>
+    <t>LAN2</t>
+  </si>
+  <si>
+    <t>MDW2</t>
+  </si>
+  <si>
+    <t>FWA4</t>
+  </si>
+  <si>
     <t>RDU4 28303, Terry Sanford, Fayetteville, North Carolina, United States</t>
   </si>
   <si>
@@ -256,7 +268,16 @@
     <t>PPO4 46410, Merrillville, Merrillville, Indiana, United States</t>
   </si>
   <si>
-    <t>46410</t>
+    <t>LAN2 48917, Lansing, Lansing, Michigan, United States</t>
+  </si>
+  <si>
+    <t>MDW2 60433, Joliet, Joliet, Illinois, United States</t>
+  </si>
+  <si>
+    <t>FWA4 46818, Fort Wayne, Fort Wayne, Indiana, United States</t>
+  </si>
+  <si>
+    <t>60433</t>
   </si>
   <si>
     <t>Agraga</t>
@@ -277,6 +298,9 @@
     <t>Central</t>
   </si>
   <si>
+    <t>Great Lakes</t>
+  </si>
+  <si>
     <t>NON HOT</t>
   </si>
   <si>
@@ -319,6 +343,12 @@
     <t>{'Rate': 2285.01, 'Carrier Name': 'Estes Express Lines', 'Service Provider': 'Ex-Freight'}</t>
   </si>
   <si>
+    <t>{'Rate': 736.96, 'Carrier Name': 'Estes Express Lines VL', 'Service Provider': 'HeyPrimo'}</t>
+  </si>
+  <si>
+    <t>{'Rate': 1428.77, 'Carrier Name': 'ABF Freight System VL', 'Service Provider': 'HeyPrimo'}</t>
+  </si>
+  <si>
     <t>{'Rate': 1358.2649999999999, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt'}</t>
   </si>
   <si>
@@ -364,6 +394,15 @@
     <t>{'Rate': 1909.5, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt'}</t>
   </si>
   <si>
+    <t>{'Rate': 1742.67, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt'}</t>
+  </si>
+  <si>
+    <t>{'Rate': 0, 'Carrier Name': 'Jb Hunt API Failed :No valid rates returned', 'Service Provider': 'J.B. Hunt'}</t>
+  </si>
+  <si>
+    <t>{'Rate': 1684.5149999999999, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt'}</t>
+  </si>
+  <si>
     <t>{'Rate': 372.0, 'Carrier Name': '', 'Service Provider': 'NTG'}</t>
   </si>
   <si>
@@ -415,6 +454,15 @@
     <t>{'Rate Type': 'FTL', 'Rate': 1909.5, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt'}</t>
   </si>
   <si>
+    <t>{'Rate Type': 'LTL', 'Rate': 736.96, 'Carrier Name': 'Estes Express Lines VL', 'Service Provider': 'HeyPrimo'}</t>
+  </si>
+  <si>
+    <t>{'Rate Type': 'N/A', 'Rate': 0.0, 'Carrier Name': '', 'Service Provider': ''}</t>
+  </si>
+  <si>
+    <t>{'Rate Type': 'LTL', 'Rate': 1428.77, 'Carrier Name': 'ABF Freight System VL', 'Service Provider': 'HeyPrimo'}</t>
+  </si>
+  <si>
     <t>CMM0246LCL0044</t>
   </si>
   <si>
@@ -439,6 +487,12 @@
     <t>CMM0829LCL0008</t>
   </si>
   <si>
+    <t>CMM0800LCL0062</t>
+  </si>
+  <si>
+    <t>CMM0800LCL0069</t>
+  </si>
+  <si>
     <t>Own Console</t>
   </si>
   <si>
@@ -467,6 +521,12 @@
   </si>
   <si>
     <t>2025-08-16 04:38:34</t>
+  </si>
+  <si>
+    <t>2025-08-18 07:03:53</t>
+  </si>
+  <si>
+    <t>2025-08-18 07:04:04</t>
   </si>
 </sst>
 </file>
@@ -824,7 +884,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ16"/>
+  <dimension ref="A1:AQ20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -978,19 +1038,19 @@
         <v>29483</v>
       </c>
       <c r="F2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="H2">
         <v>28303</v>
       </c>
       <c r="I2" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="J2" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="K2">
         <v>288</v>
@@ -1011,28 +1071,28 @@
         <v>6</v>
       </c>
       <c r="Q2" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="R2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="S2">
         <v>0</v>
       </c>
       <c r="T2" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="U2" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="V2" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="X2" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="Y2" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -1077,16 +1137,16 @@
         <v>174.4790364845797</v>
       </c>
       <c r="AN2" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="AO2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="AP2" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="AQ2" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -1106,19 +1166,19 @@
         <v>7201</v>
       </c>
       <c r="F3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G3" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="H3">
         <v>46140</v>
       </c>
       <c r="I3" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="J3" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="K3">
         <v>518</v>
@@ -1139,28 +1199,28 @@
         <v>10</v>
       </c>
       <c r="Q3" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="R3" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="U3" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="V3" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="X3" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="Y3" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -1205,16 +1265,16 @@
         <v>188.3821611081226</v>
       </c>
       <c r="AN3" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="AO3" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="AP3" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="AQ3" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -1234,19 +1294,19 @@
         <v>90220</v>
       </c>
       <c r="F4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G4" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="H4">
         <v>75241</v>
       </c>
       <c r="I4" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="J4" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="K4">
         <v>461</v>
@@ -1267,28 +1327,28 @@
         <v>9</v>
       </c>
       <c r="Q4" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="R4" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="U4" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="V4" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="X4" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="Y4" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -1333,16 +1393,16 @@
         <v>198.5737694455844</v>
       </c>
       <c r="AN4" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="AO4" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="AP4" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="AQ4" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5" spans="1:43">
@@ -1362,19 +1422,19 @@
         <v>90220</v>
       </c>
       <c r="F5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="H5">
         <v>85395</v>
       </c>
       <c r="I5" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="J5" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="K5">
         <v>461</v>
@@ -1395,28 +1455,28 @@
         <v>9</v>
       </c>
       <c r="Q5" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="R5" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="U5" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="V5" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="X5" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="Y5" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="Z5">
         <v>0</v>
@@ -1461,16 +1521,16 @@
         <v>151.7595856378415</v>
       </c>
       <c r="AN5" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="AO5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="AP5" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="AQ5" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:43">
@@ -1490,19 +1550,19 @@
         <v>90220</v>
       </c>
       <c r="F6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G6" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="H6">
         <v>85043</v>
       </c>
       <c r="I6" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="J6" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="K6">
         <v>576</v>
@@ -1523,28 +1583,28 @@
         <v>11</v>
       </c>
       <c r="Q6" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="R6" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="S6">
         <v>0</v>
       </c>
       <c r="T6" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="U6" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="V6" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="X6" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="Y6" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="Z6">
         <v>0</v>
@@ -1589,16 +1649,16 @@
         <v>164.8459987905664</v>
       </c>
       <c r="AN6" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="AO6" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="AP6" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="AQ6" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
     </row>
     <row r="7" spans="1:43">
@@ -1618,19 +1678,19 @@
         <v>29483</v>
       </c>
       <c r="F7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G7" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="H7">
         <v>30567</v>
       </c>
       <c r="I7" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="J7" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="K7">
         <v>10</v>
@@ -1651,28 +1711,28 @@
         <v>1</v>
       </c>
       <c r="Q7" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="R7" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
       <c r="T7" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="U7" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="V7" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="X7" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="Y7" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="Z7">
         <v>10000</v>
@@ -1717,16 +1777,16 @@
         <v>719.1061983471075</v>
       </c>
       <c r="AN7" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="AO7" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AP7" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="AQ7" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
     </row>
     <row r="8" spans="1:43">
@@ -1746,19 +1806,19 @@
         <v>7201</v>
       </c>
       <c r="F8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G8" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="H8">
         <v>8873</v>
       </c>
       <c r="I8" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="J8" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="K8">
         <v>9</v>
@@ -1779,28 +1839,28 @@
         <v>1</v>
       </c>
       <c r="Q8" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="R8" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
       <c r="T8" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="U8" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="V8" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="X8" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="Y8" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="Z8">
         <v>10000</v>
@@ -1845,16 +1905,16 @@
         <v>502.9962121212121</v>
       </c>
       <c r="AN8" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="AO8" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AP8" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="AQ8" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:43">
@@ -1874,19 +1934,19 @@
         <v>7201</v>
       </c>
       <c r="F9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G9" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="H9">
         <v>18202</v>
       </c>
       <c r="I9" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="J9" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="K9">
         <v>72</v>
@@ -1907,28 +1967,28 @@
         <v>2</v>
       </c>
       <c r="Q9" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="R9" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
       <c r="T9" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="U9" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="V9" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="X9" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="Y9" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="Z9">
         <v>0</v>
@@ -1973,16 +2033,16 @@
         <v>257.1691611234294</v>
       </c>
       <c r="AN9" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="AO9" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AP9" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="AQ9" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
     </row>
     <row r="10" spans="1:43">
@@ -2002,19 +2062,19 @@
         <v>77020</v>
       </c>
       <c r="F10" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G10" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H10">
         <v>75007</v>
       </c>
       <c r="I10" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="J10" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="K10">
         <v>50</v>
@@ -2035,25 +2095,25 @@
         <v>50</v>
       </c>
       <c r="Q10" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="R10" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="S10">
         <v>0</v>
       </c>
       <c r="U10" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="V10" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="X10" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="Y10" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="Z10">
         <v>0</v>
@@ -2098,16 +2158,16 @@
         <v>280.7465277777778</v>
       </c>
       <c r="AN10" t="s">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="AO10" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AP10" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="AQ10" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
     </row>
     <row r="11" spans="1:43">
@@ -2127,19 +2187,19 @@
         <v>7201</v>
       </c>
       <c r="F11" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G11" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="H11">
         <v>18105</v>
       </c>
       <c r="I11" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="J11" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="K11">
         <v>100</v>
@@ -2160,25 +2220,25 @@
         <v>100</v>
       </c>
       <c r="Q11" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="R11" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
       <c r="U11" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="V11" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="X11" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="Y11" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="Z11">
         <v>0</v>
@@ -2223,16 +2283,16 @@
         <v>142.3526870265152</v>
       </c>
       <c r="AN11" t="s">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="AO11" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AP11" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="AQ11" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
     </row>
     <row r="12" spans="1:43">
@@ -2252,19 +2312,19 @@
         <v>7201</v>
       </c>
       <c r="F12" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G12" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="H12">
         <v>17112</v>
       </c>
       <c r="I12" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="J12" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="K12">
         <v>100</v>
@@ -2285,25 +2345,25 @@
         <v>100</v>
       </c>
       <c r="Q12" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="R12" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="S12">
         <v>0</v>
       </c>
       <c r="U12" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="V12" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="X12" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="Y12" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="Z12">
         <v>0</v>
@@ -2348,16 +2408,16 @@
         <v>166.954466540404</v>
       </c>
       <c r="AN12" t="s">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="AO12" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="AP12" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="AQ12" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
     </row>
     <row r="13" spans="1:43">
@@ -2377,19 +2437,19 @@
         <v>29483</v>
       </c>
       <c r="F13" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G13" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="H13">
         <v>29330</v>
       </c>
       <c r="I13" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="J13" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="K13">
         <v>390</v>
@@ -2410,28 +2470,28 @@
         <v>17</v>
       </c>
       <c r="Q13" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="R13" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="S13">
         <v>0</v>
       </c>
       <c r="T13" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="U13" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="V13" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="X13" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="Y13" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="Z13">
         <v>0</v>
@@ -2476,16 +2536,16 @@
         <v>133.097981415809</v>
       </c>
       <c r="AN13" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
       <c r="AO13" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="AP13" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="AQ13" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
     </row>
     <row r="14" spans="1:43">
@@ -2505,19 +2565,19 @@
         <v>7201</v>
       </c>
       <c r="F14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G14" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="H14">
         <v>46410</v>
       </c>
       <c r="I14" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="J14" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="K14">
         <v>390</v>
@@ -2538,28 +2598,28 @@
         <v>17</v>
       </c>
       <c r="Q14" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="R14" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="S14">
         <v>0</v>
       </c>
       <c r="T14" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="U14" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="V14" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="X14" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="Y14" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="Z14">
         <v>0</v>
@@ -2604,16 +2664,16 @@
         <v>150.8448561080909</v>
       </c>
       <c r="AN14" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="AO14" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="AP14" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="AQ14" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
     </row>
     <row r="15" spans="1:43">
@@ -2633,19 +2693,19 @@
         <v>29483</v>
       </c>
       <c r="F15" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G15" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="H15">
         <v>29330</v>
       </c>
       <c r="I15" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="J15" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="K15">
         <v>436</v>
@@ -2666,28 +2726,28 @@
         <v>19</v>
       </c>
       <c r="Q15" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="R15" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="S15">
         <v>0</v>
       </c>
       <c r="T15" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="U15" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="V15" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="X15" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="Y15" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="Z15">
         <v>0</v>
@@ -2732,16 +2792,16 @@
         <v>130.4801208060281</v>
       </c>
       <c r="AN15" t="s">
-        <v>139</v>
+        <v>155</v>
       </c>
       <c r="AO15" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="AP15" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="AQ15" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
     </row>
     <row r="16" spans="1:43">
@@ -2757,23 +2817,23 @@
       <c r="D16" t="s">
         <v>50</v>
       </c>
-      <c r="E16" t="s">
-        <v>53</v>
+      <c r="E16">
+        <v>7201</v>
       </c>
       <c r="F16" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G16" t="s">
-        <v>79</v>
-      </c>
-      <c r="H16" t="s">
-        <v>80</v>
+        <v>83</v>
+      </c>
+      <c r="H16">
+        <v>46410</v>
       </c>
       <c r="I16" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="J16" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="K16">
         <v>436</v>
@@ -2794,28 +2854,28 @@
         <v>19</v>
       </c>
       <c r="Q16" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="R16" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="S16">
         <v>0</v>
       </c>
       <c r="T16" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="U16" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="V16" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="X16" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="Y16" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="Z16">
         <v>0</v>
@@ -2860,16 +2920,522 @@
         <v>145.7476530672221</v>
       </c>
       <c r="AN16" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="AO16" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="AP16" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="AQ16" t="s">
-        <v>150</v>
+        <v>168</v>
+      </c>
+    </row>
+    <row r="17" spans="1:43">
+      <c r="A17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" t="s">
+        <v>50</v>
+      </c>
+      <c r="E17">
+        <v>7201</v>
+      </c>
+      <c r="F17" t="s">
+        <v>68</v>
+      </c>
+      <c r="G17" t="s">
+        <v>84</v>
+      </c>
+      <c r="H17">
+        <v>48917</v>
+      </c>
+      <c r="I17" t="s">
+        <v>88</v>
+      </c>
+      <c r="J17" t="s">
+        <v>93</v>
+      </c>
+      <c r="K17">
+        <v>4</v>
+      </c>
+      <c r="L17">
+        <v>2086</v>
+      </c>
+      <c r="M17">
+        <v>10878</v>
+      </c>
+      <c r="N17">
+        <v>6.98007</v>
+      </c>
+      <c r="O17">
+        <v>43.07883</v>
+      </c>
+      <c r="P17">
+        <v>4</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>95</v>
+      </c>
+      <c r="R17" t="s">
+        <v>96</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17" t="s">
+        <v>109</v>
+      </c>
+      <c r="U17" t="s">
+        <v>126</v>
+      </c>
+      <c r="V17" t="s">
+        <v>126</v>
+      </c>
+      <c r="X17" t="s">
+        <v>146</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>146</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+      <c r="AA17">
+        <v>0</v>
+      </c>
+      <c r="AB17">
+        <v>71.35984848484848</v>
+      </c>
+      <c r="AC17">
+        <v>78.52310042931323</v>
+      </c>
+      <c r="AD17">
+        <v>498.0967376136363</v>
+      </c>
+      <c r="AE17">
+        <v>50</v>
+      </c>
+      <c r="AF17">
+        <v>53</v>
+      </c>
+      <c r="AG17">
+        <v>100</v>
+      </c>
+      <c r="AH17">
+        <v>50</v>
+      </c>
+      <c r="AI17">
+        <v>18</v>
+      </c>
+      <c r="AJ17">
+        <v>0</v>
+      </c>
+      <c r="AK17">
+        <v>736.96</v>
+      </c>
+      <c r="AL17">
+        <v>1438.056737613636</v>
+      </c>
+      <c r="AM17">
+        <v>206.02325443923</v>
+      </c>
+      <c r="AN17" t="s">
+        <v>157</v>
+      </c>
+      <c r="AO17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AP17" t="s">
+        <v>159</v>
+      </c>
+      <c r="AQ17" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="18" spans="1:43">
+      <c r="A18" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" t="s">
+        <v>48</v>
+      </c>
+      <c r="D18" t="s">
+        <v>53</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18" t="s">
+        <v>69</v>
+      </c>
+      <c r="G18" t="s">
+        <v>85</v>
+      </c>
+      <c r="H18">
+        <v>60433</v>
+      </c>
+      <c r="I18" t="s">
+        <v>89</v>
+      </c>
+      <c r="J18" t="s">
+        <v>94</v>
+      </c>
+      <c r="K18">
+        <v>9</v>
+      </c>
+      <c r="L18">
+        <v>4184</v>
+      </c>
+      <c r="M18">
+        <v>10878</v>
+      </c>
+      <c r="N18">
+        <v>15.20924</v>
+      </c>
+      <c r="O18">
+        <v>43.07883</v>
+      </c>
+      <c r="P18">
+        <v>9</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>95</v>
+      </c>
+      <c r="R18" t="s">
+        <v>96</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="U18" t="s">
+        <v>127</v>
+      </c>
+      <c r="V18" t="s">
+        <v>127</v>
+      </c>
+      <c r="X18" t="s">
+        <v>147</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>147</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+      <c r="AA18">
+        <v>0</v>
+      </c>
+      <c r="AB18">
+        <v>90</v>
+      </c>
+      <c r="AC18">
+        <v>93.2874752453114</v>
+      </c>
+      <c r="AD18">
+        <v>1368.8316</v>
+      </c>
+      <c r="AE18">
+        <v>50</v>
+      </c>
+      <c r="AF18">
+        <v>53</v>
+      </c>
+      <c r="AG18">
+        <v>100</v>
+      </c>
+      <c r="AH18">
+        <v>50</v>
+      </c>
+      <c r="AI18">
+        <v>18</v>
+      </c>
+      <c r="AJ18">
+        <v>0</v>
+      </c>
+      <c r="AK18">
+        <v>0</v>
+      </c>
+      <c r="AL18">
+        <v>1571.8316</v>
+      </c>
+      <c r="AM18">
+        <v>103.3471494959643</v>
+      </c>
+      <c r="AN18" t="s">
+        <v>157</v>
+      </c>
+      <c r="AO18" t="s">
+        <v>85</v>
+      </c>
+      <c r="AP18" t="s">
+        <v>160</v>
+      </c>
+      <c r="AQ18" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="19" spans="1:43">
+      <c r="A19" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" t="s">
+        <v>50</v>
+      </c>
+      <c r="E19">
+        <v>7201</v>
+      </c>
+      <c r="F19" t="s">
+        <v>70</v>
+      </c>
+      <c r="G19" t="s">
+        <v>86</v>
+      </c>
+      <c r="H19">
+        <v>46809</v>
+      </c>
+      <c r="I19" t="s">
+        <v>88</v>
+      </c>
+      <c r="J19" t="s">
+        <v>94</v>
+      </c>
+      <c r="K19">
+        <v>10</v>
+      </c>
+      <c r="L19">
+        <v>4608</v>
+      </c>
+      <c r="M19">
+        <v>10878</v>
+      </c>
+      <c r="N19">
+        <v>20.88952</v>
+      </c>
+      <c r="O19">
+        <v>43.07883</v>
+      </c>
+      <c r="P19">
+        <v>10</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>95</v>
+      </c>
+      <c r="R19" t="s">
+        <v>96</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19" t="s">
+        <v>110</v>
+      </c>
+      <c r="U19" t="s">
+        <v>128</v>
+      </c>
+      <c r="V19" t="s">
+        <v>128</v>
+      </c>
+      <c r="X19" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>148</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+      <c r="AA19">
+        <v>0</v>
+      </c>
+      <c r="AB19">
+        <v>71.35984848484848</v>
+      </c>
+      <c r="AC19">
+        <v>73.75339319051908</v>
+      </c>
+      <c r="AD19">
+        <v>1490.672982121212</v>
+      </c>
+      <c r="AE19">
+        <v>50</v>
+      </c>
+      <c r="AF19">
+        <v>53</v>
+      </c>
+      <c r="AG19">
+        <v>100</v>
+      </c>
+      <c r="AH19">
+        <v>50</v>
+      </c>
+      <c r="AI19">
+        <v>18</v>
+      </c>
+      <c r="AJ19">
+        <v>0</v>
+      </c>
+      <c r="AK19">
+        <v>1428.77</v>
+      </c>
+      <c r="AL19">
+        <v>3122.442982121212</v>
+      </c>
+      <c r="AM19">
+        <v>149.4741373722906</v>
+      </c>
+      <c r="AN19" t="s">
+        <v>157</v>
+      </c>
+      <c r="AO19" t="s">
+        <v>86</v>
+      </c>
+      <c r="AP19" t="s">
+        <v>159</v>
+      </c>
+      <c r="AQ19" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="20" spans="1:43">
+      <c r="A20" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" t="s">
+        <v>48</v>
+      </c>
+      <c r="D20" t="s">
+        <v>53</v>
+      </c>
+      <c r="E20" t="s">
+        <v>54</v>
+      </c>
+      <c r="F20" t="s">
+        <v>69</v>
+      </c>
+      <c r="G20" t="s">
+        <v>85</v>
+      </c>
+      <c r="H20" t="s">
+        <v>87</v>
+      </c>
+      <c r="I20" t="s">
+        <v>89</v>
+      </c>
+      <c r="J20" t="s">
+        <v>94</v>
+      </c>
+      <c r="K20">
+        <v>9</v>
+      </c>
+      <c r="L20">
+        <v>4184</v>
+      </c>
+      <c r="M20">
+        <v>4184</v>
+      </c>
+      <c r="N20">
+        <v>15.21</v>
+      </c>
+      <c r="O20">
+        <v>15.20924</v>
+      </c>
+      <c r="P20">
+        <v>9</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>95</v>
+      </c>
+      <c r="R20" t="s">
+        <v>96</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="U20" t="s">
+        <v>127</v>
+      </c>
+      <c r="V20" t="s">
+        <v>127</v>
+      </c>
+      <c r="X20" t="s">
+        <v>147</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>147</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+      <c r="AA20">
+        <v>0</v>
+      </c>
+      <c r="AB20">
+        <v>90</v>
+      </c>
+      <c r="AC20">
+        <v>93.28731097961867</v>
+      </c>
+      <c r="AD20">
+        <v>1368.9</v>
+      </c>
+      <c r="AE20">
+        <v>50</v>
+      </c>
+      <c r="AF20">
+        <v>53</v>
+      </c>
+      <c r="AG20">
+        <v>100</v>
+      </c>
+      <c r="AH20">
+        <v>50</v>
+      </c>
+      <c r="AI20">
+        <v>18</v>
+      </c>
+      <c r="AJ20">
+        <v>0</v>
+      </c>
+      <c r="AK20">
+        <v>0</v>
+      </c>
+      <c r="AL20">
+        <v>1571.9</v>
+      </c>
+      <c r="AM20">
+        <v>103.3464825772518</v>
+      </c>
+      <c r="AN20" t="s">
+        <v>158</v>
+      </c>
+      <c r="AO20" t="s">
+        <v>85</v>
+      </c>
+      <c r="AP20" t="s">
+        <v>160</v>
+      </c>
+      <c r="AQ20" t="s">
+        <v>170</v>
       </c>
     </row>
   </sheetData>

--- a/Logs/quotations.xlsx
+++ b/Logs/quotations.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="202">
   <si>
     <t>Shipment Scope</t>
   </si>
@@ -178,7 +178,7 @@
     <t>Chicago</t>
   </si>
   <si>
-    <t>00000</t>
+    <t>29483</t>
   </si>
   <si>
     <t>RDU4</t>
@@ -229,6 +229,12 @@
     <t>FWA4</t>
   </si>
   <si>
+    <t>LAS1</t>
+  </si>
+  <si>
+    <t>LBE1</t>
+  </si>
+  <si>
     <t>RDU4 28303, Terry Sanford, Fayetteville, North Carolina, United States</t>
   </si>
   <si>
@@ -277,7 +283,13 @@
     <t>FWA4 46818, Fort Wayne, Fort Wayne, Indiana, United States</t>
   </si>
   <si>
-    <t>60433</t>
+    <t>LAS1 89044, Henderson, Henderson, Nevada, United States</t>
+  </si>
+  <si>
+    <t>LBE1 15672, New Stanton, New Stanton, Pennsylvania, United States</t>
+  </si>
+  <si>
+    <t>29330</t>
   </si>
   <si>
     <t>Agraga</t>
@@ -349,6 +361,21 @@
     <t>{'Rate': 1428.77, 'Carrier Name': 'ABF Freight System VL', 'Service Provider': 'HeyPrimo'}</t>
   </si>
   <si>
+    <t>{'Rate': 1391.13, 'Carrier Name': 'Estes Express Lines', 'Service Provider': 'Ex-Freight'}</t>
+  </si>
+  <si>
+    <t>{'Rate': 905.52, 'Carrier Name': 'Estes Express Lines', 'Service Provider': 'Ex-Freight'}</t>
+  </si>
+  <si>
+    <t>{'Rate': 121.0, 'Carrier Name': '', 'Service Provider': 'AmznFrgt'}</t>
+  </si>
+  <si>
+    <t>{'Rate': 401.77, 'Carrier Name': 'Estes Express Lines', 'Service Provider': 'Ex-Freight'}</t>
+  </si>
+  <si>
+    <t>{'Rate': 299.88, 'Carrier Name': 'Estes Express Lines', 'Service Provider': 'Ex-Freight'}</t>
+  </si>
+  <si>
     <t>{'Rate': 1358.2649999999999, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt'}</t>
   </si>
   <si>
@@ -403,12 +430,27 @@
     <t>{'Rate': 1684.5149999999999, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt'}</t>
   </si>
   <si>
+    <t>{'Rate': 1820.4900000000002, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt'}</t>
+  </si>
+  <si>
+    <t>{'Rate': 2067.795, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt'}</t>
+  </si>
+  <si>
+    <t>{'Rate': 928.0, 'Carrier Name': '', 'Service Provider': 'JB.Hunt'}</t>
+  </si>
+  <si>
+    <t>{'Rate': 1137.18, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt'}</t>
+  </si>
+  <si>
     <t>{'Rate': 372.0, 'Carrier Name': '', 'Service Provider': 'NTG'}</t>
   </si>
   <si>
     <t>{'Rate': 615.0, 'Carrier Name': '', 'Service Provider': 'NTG'}</t>
   </si>
   <si>
+    <t>{'Rate': 877.0, 'Carrier Name': '', 'Service Provider': 'NTG'}</t>
+  </si>
+  <si>
     <t>{'Rate Type': 'LTL', 'Rate': 546.16, 'Carrier Name': 'Estes Express Lines', 'Service Provider': 'Ex-Freight'}</t>
   </si>
   <si>
@@ -463,6 +505,21 @@
     <t>{'Rate Type': 'LTL', 'Rate': 1428.77, 'Carrier Name': 'ABF Freight System VL', 'Service Provider': 'HeyPrimo'}</t>
   </si>
   <si>
+    <t>{'Rate Type': 'LTL', 'Rate': 1391.13, 'Carrier Name': 'Estes Express Lines', 'Service Provider': 'Ex-Freight'}</t>
+  </si>
+  <si>
+    <t>{'Rate Type': 'LTL', 'Rate': 905.52, 'Carrier Name': 'Estes Express Lines', 'Service Provider': 'Ex-Freight'}</t>
+  </si>
+  <si>
+    <t>{'Rate Type': 'LTL', 'Rate': 121.0, 'Carrier Name': '', 'Service Provider': 'AmznFrgt'}</t>
+  </si>
+  <si>
+    <t>{'Rate Type': 'LTL', 'Rate': 401.77, 'Carrier Name': 'Estes Express Lines', 'Service Provider': 'Ex-Freight'}</t>
+  </si>
+  <si>
+    <t>{'Rate Type': 'LTL', 'Rate': 299.88, 'Carrier Name': 'Estes Express Lines', 'Service Provider': 'Ex-Freight'}</t>
+  </si>
+  <si>
     <t>CMM0246LCL0044</t>
   </si>
   <si>
@@ -490,9 +547,27 @@
     <t>CMM0800LCL0062</t>
   </si>
   <si>
+    <t>CMM0800LCL0064</t>
+  </si>
+  <si>
+    <t>CMM0800LCL0063</t>
+  </si>
+  <si>
     <t>CMM0800LCL0069</t>
   </si>
   <si>
+    <t>CMM0246LCL0055</t>
+  </si>
+  <si>
+    <t>CMM0637LCL0005</t>
+  </si>
+  <si>
+    <t>CMM0827LCL0039</t>
+  </si>
+  <si>
+    <t>CMM0827LCL0038</t>
+  </si>
+  <si>
     <t>Own Console</t>
   </si>
   <si>
@@ -526,7 +601,25 @@
     <t>2025-08-18 07:03:53</t>
   </si>
   <si>
-    <t>2025-08-18 07:04:04</t>
+    <t>2025-08-18 07:49:06</t>
+  </si>
+  <si>
+    <t>2025-08-18 07:49:19</t>
+  </si>
+  <si>
+    <t>2025-08-18 07:54:05</t>
+  </si>
+  <si>
+    <t>2025-08-19 05:48:54</t>
+  </si>
+  <si>
+    <t>2025-08-19 07:50:21</t>
+  </si>
+  <si>
+    <t>2025-08-19 10:44:51</t>
+  </si>
+  <si>
+    <t>2025-08-19 12:09:20</t>
   </si>
 </sst>
 </file>
@@ -884,7 +977,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ20"/>
+  <dimension ref="A1:AQ26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1041,16 +1134,16 @@
         <v>55</v>
       </c>
       <c r="G2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H2">
         <v>28303</v>
       </c>
       <c r="I2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="J2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="K2">
         <v>288</v>
@@ -1071,28 +1164,28 @@
         <v>6</v>
       </c>
       <c r="Q2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="R2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="S2">
         <v>0</v>
       </c>
       <c r="T2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="U2" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="V2" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="X2" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="Y2" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -1137,16 +1230,16 @@
         <v>174.4790364845797</v>
       </c>
       <c r="AN2" t="s">
-        <v>149</v>
+        <v>168</v>
       </c>
       <c r="AO2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AP2" t="s">
-        <v>159</v>
+        <v>184</v>
       </c>
       <c r="AQ2" t="s">
-        <v>161</v>
+        <v>186</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -1169,16 +1262,16 @@
         <v>56</v>
       </c>
       <c r="G3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H3">
         <v>46140</v>
       </c>
       <c r="I3" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="J3" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="K3">
         <v>518</v>
@@ -1199,28 +1292,28 @@
         <v>10</v>
       </c>
       <c r="Q3" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="R3" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="U3" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="V3" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="X3" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="Y3" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -1265,16 +1358,16 @@
         <v>188.3821611081226</v>
       </c>
       <c r="AN3" t="s">
-        <v>149</v>
+        <v>168</v>
       </c>
       <c r="AO3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AP3" t="s">
-        <v>159</v>
+        <v>184</v>
       </c>
       <c r="AQ3" t="s">
-        <v>161</v>
+        <v>186</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -1297,16 +1390,16 @@
         <v>57</v>
       </c>
       <c r="G4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H4">
         <v>75241</v>
       </c>
       <c r="I4" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="J4" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="K4">
         <v>461</v>
@@ -1327,28 +1420,28 @@
         <v>9</v>
       </c>
       <c r="Q4" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="R4" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="U4" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="V4" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="X4" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="Y4" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -1393,16 +1486,16 @@
         <v>198.5737694455844</v>
       </c>
       <c r="AN4" t="s">
-        <v>149</v>
+        <v>168</v>
       </c>
       <c r="AO4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AP4" t="s">
-        <v>159</v>
+        <v>184</v>
       </c>
       <c r="AQ4" t="s">
-        <v>161</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5" spans="1:43">
@@ -1425,16 +1518,16 @@
         <v>58</v>
       </c>
       <c r="G5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H5">
         <v>85395</v>
       </c>
       <c r="I5" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="J5" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="K5">
         <v>461</v>
@@ -1455,28 +1548,28 @@
         <v>9</v>
       </c>
       <c r="Q5" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="R5" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="U5" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="V5" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="X5" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="Y5" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="Z5">
         <v>0</v>
@@ -1521,16 +1614,16 @@
         <v>151.7595856378415</v>
       </c>
       <c r="AN5" t="s">
-        <v>149</v>
+        <v>168</v>
       </c>
       <c r="AO5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AP5" t="s">
-        <v>159</v>
+        <v>184</v>
       </c>
       <c r="AQ5" t="s">
-        <v>161</v>
+        <v>186</v>
       </c>
     </row>
     <row r="6" spans="1:43">
@@ -1553,16 +1646,16 @@
         <v>59</v>
       </c>
       <c r="G6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H6">
         <v>85043</v>
       </c>
       <c r="I6" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="J6" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="K6">
         <v>576</v>
@@ -1583,28 +1676,28 @@
         <v>11</v>
       </c>
       <c r="Q6" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="R6" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="S6">
         <v>0</v>
       </c>
       <c r="T6" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="U6" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="V6" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="X6" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="Y6" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="Z6">
         <v>0</v>
@@ -1649,16 +1742,16 @@
         <v>164.8459987905664</v>
       </c>
       <c r="AN6" t="s">
-        <v>149</v>
+        <v>168</v>
       </c>
       <c r="AO6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AP6" t="s">
-        <v>159</v>
+        <v>184</v>
       </c>
       <c r="AQ6" t="s">
-        <v>161</v>
+        <v>186</v>
       </c>
     </row>
     <row r="7" spans="1:43">
@@ -1681,16 +1774,16 @@
         <v>60</v>
       </c>
       <c r="G7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H7">
         <v>30567</v>
       </c>
       <c r="I7" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="J7" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="K7">
         <v>10</v>
@@ -1711,28 +1804,28 @@
         <v>1</v>
       </c>
       <c r="Q7" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="R7" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
       <c r="T7" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="U7" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="V7" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="X7" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="Y7" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="Z7">
         <v>10000</v>
@@ -1777,16 +1870,16 @@
         <v>719.1061983471075</v>
       </c>
       <c r="AN7" t="s">
-        <v>150</v>
+        <v>169</v>
       </c>
       <c r="AO7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AP7" t="s">
-        <v>159</v>
+        <v>184</v>
       </c>
       <c r="AQ7" t="s">
-        <v>162</v>
+        <v>187</v>
       </c>
     </row>
     <row r="8" spans="1:43">
@@ -1809,16 +1902,16 @@
         <v>61</v>
       </c>
       <c r="G8" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H8">
         <v>8873</v>
       </c>
       <c r="I8" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="J8" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="K8">
         <v>9</v>
@@ -1839,28 +1932,28 @@
         <v>1</v>
       </c>
       <c r="Q8" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="R8" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
       <c r="T8" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="U8" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="V8" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="X8" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="Y8" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="Z8">
         <v>10000</v>
@@ -1905,16 +1998,16 @@
         <v>502.9962121212121</v>
       </c>
       <c r="AN8" t="s">
-        <v>150</v>
+        <v>169</v>
       </c>
       <c r="AO8" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AP8" t="s">
-        <v>159</v>
+        <v>184</v>
       </c>
       <c r="AQ8" t="s">
-        <v>162</v>
+        <v>187</v>
       </c>
     </row>
     <row r="9" spans="1:43">
@@ -1937,16 +2030,16 @@
         <v>62</v>
       </c>
       <c r="G9" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H9">
         <v>18202</v>
       </c>
       <c r="I9" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="J9" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="K9">
         <v>72</v>
@@ -1967,28 +2060,28 @@
         <v>2</v>
       </c>
       <c r="Q9" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="R9" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
       <c r="T9" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="U9" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="V9" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="X9" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="Y9" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="Z9">
         <v>0</v>
@@ -2033,16 +2126,16 @@
         <v>257.1691611234294</v>
       </c>
       <c r="AN9" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
       <c r="AO9" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AP9" t="s">
-        <v>159</v>
+        <v>184</v>
       </c>
       <c r="AQ9" t="s">
-        <v>163</v>
+        <v>188</v>
       </c>
     </row>
     <row r="10" spans="1:43">
@@ -2065,16 +2158,16 @@
         <v>63</v>
       </c>
       <c r="G10" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H10">
         <v>75007</v>
       </c>
       <c r="I10" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="J10" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="K10">
         <v>50</v>
@@ -2095,25 +2188,25 @@
         <v>50</v>
       </c>
       <c r="Q10" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="R10" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="S10">
         <v>0</v>
       </c>
       <c r="U10" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="V10" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="X10" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="Y10" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="Z10">
         <v>0</v>
@@ -2158,16 +2251,16 @@
         <v>280.7465277777778</v>
       </c>
       <c r="AN10" t="s">
-        <v>152</v>
+        <v>171</v>
       </c>
       <c r="AO10" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AP10" t="s">
-        <v>160</v>
+        <v>185</v>
       </c>
       <c r="AQ10" t="s">
-        <v>164</v>
+        <v>189</v>
       </c>
     </row>
     <row r="11" spans="1:43">
@@ -2190,16 +2283,16 @@
         <v>64</v>
       </c>
       <c r="G11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H11">
         <v>18105</v>
       </c>
       <c r="I11" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="J11" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="K11">
         <v>100</v>
@@ -2220,25 +2313,25 @@
         <v>100</v>
       </c>
       <c r="Q11" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="R11" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
       <c r="U11" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="V11" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="X11" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="Y11" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="Z11">
         <v>0</v>
@@ -2283,16 +2376,16 @@
         <v>142.3526870265152</v>
       </c>
       <c r="AN11" t="s">
-        <v>152</v>
+        <v>171</v>
       </c>
       <c r="AO11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AP11" t="s">
-        <v>159</v>
+        <v>184</v>
       </c>
       <c r="AQ11" t="s">
-        <v>164</v>
+        <v>189</v>
       </c>
     </row>
     <row r="12" spans="1:43">
@@ -2315,16 +2408,16 @@
         <v>65</v>
       </c>
       <c r="G12" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H12">
         <v>17112</v>
       </c>
       <c r="I12" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="J12" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="K12">
         <v>100</v>
@@ -2345,25 +2438,25 @@
         <v>100</v>
       </c>
       <c r="Q12" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="R12" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="S12">
         <v>0</v>
       </c>
       <c r="U12" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="V12" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="X12" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="Y12" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="Z12">
         <v>0</v>
@@ -2408,16 +2501,16 @@
         <v>166.954466540404</v>
       </c>
       <c r="AN12" t="s">
-        <v>152</v>
+        <v>171</v>
       </c>
       <c r="AO12" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AP12" t="s">
-        <v>159</v>
+        <v>184</v>
       </c>
       <c r="AQ12" t="s">
-        <v>164</v>
+        <v>189</v>
       </c>
     </row>
     <row r="13" spans="1:43">
@@ -2440,16 +2533,16 @@
         <v>66</v>
       </c>
       <c r="G13" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H13">
         <v>29330</v>
       </c>
       <c r="I13" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="J13" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="K13">
         <v>390</v>
@@ -2470,28 +2563,28 @@
         <v>17</v>
       </c>
       <c r="Q13" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="R13" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="S13">
         <v>0</v>
       </c>
       <c r="T13" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="U13" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="V13" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="X13" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="Y13" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="Z13">
         <v>0</v>
@@ -2536,16 +2629,16 @@
         <v>133.097981415809</v>
       </c>
       <c r="AN13" t="s">
-        <v>153</v>
+        <v>172</v>
       </c>
       <c r="AO13" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AP13" t="s">
-        <v>159</v>
+        <v>184</v>
       </c>
       <c r="AQ13" t="s">
-        <v>165</v>
+        <v>190</v>
       </c>
     </row>
     <row r="14" spans="1:43">
@@ -2568,16 +2661,16 @@
         <v>67</v>
       </c>
       <c r="G14" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="H14">
         <v>46410</v>
       </c>
       <c r="I14" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="J14" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="K14">
         <v>390</v>
@@ -2598,28 +2691,28 @@
         <v>17</v>
       </c>
       <c r="Q14" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="R14" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="S14">
         <v>0</v>
       </c>
       <c r="T14" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="U14" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="V14" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="X14" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="Y14" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="Z14">
         <v>0</v>
@@ -2664,16 +2757,16 @@
         <v>150.8448561080909</v>
       </c>
       <c r="AN14" t="s">
-        <v>154</v>
+        <v>173</v>
       </c>
       <c r="AO14" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="AP14" t="s">
-        <v>159</v>
+        <v>184</v>
       </c>
       <c r="AQ14" t="s">
-        <v>166</v>
+        <v>191</v>
       </c>
     </row>
     <row r="15" spans="1:43">
@@ -2696,16 +2789,16 @@
         <v>66</v>
       </c>
       <c r="G15" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H15">
         <v>29330</v>
       </c>
       <c r="I15" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="J15" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="K15">
         <v>436</v>
@@ -2726,28 +2819,28 @@
         <v>19</v>
       </c>
       <c r="Q15" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="R15" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="S15">
         <v>0</v>
       </c>
       <c r="T15" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="U15" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="V15" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="X15" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="Y15" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="Z15">
         <v>0</v>
@@ -2792,16 +2885,16 @@
         <v>130.4801208060281</v>
       </c>
       <c r="AN15" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="AO15" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AP15" t="s">
-        <v>159</v>
+        <v>184</v>
       </c>
       <c r="AQ15" t="s">
-        <v>167</v>
+        <v>192</v>
       </c>
     </row>
     <row r="16" spans="1:43">
@@ -2824,16 +2917,16 @@
         <v>67</v>
       </c>
       <c r="G16" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="H16">
         <v>46410</v>
       </c>
       <c r="I16" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="J16" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="K16">
         <v>436</v>
@@ -2854,28 +2947,28 @@
         <v>19</v>
       </c>
       <c r="Q16" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="R16" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="S16">
         <v>0</v>
       </c>
       <c r="T16" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="U16" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="V16" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="X16" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="Y16" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="Z16">
         <v>0</v>
@@ -2920,16 +3013,16 @@
         <v>145.7476530672221</v>
       </c>
       <c r="AN16" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
       <c r="AO16" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="AP16" t="s">
-        <v>159</v>
+        <v>184</v>
       </c>
       <c r="AQ16" t="s">
-        <v>168</v>
+        <v>193</v>
       </c>
     </row>
     <row r="17" spans="1:43">
@@ -2952,16 +3045,16 @@
         <v>68</v>
       </c>
       <c r="G17" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H17">
         <v>48917</v>
       </c>
       <c r="I17" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="J17" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="K17">
         <v>4</v>
@@ -2982,28 +3075,28 @@
         <v>4</v>
       </c>
       <c r="Q17" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="R17" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="S17">
         <v>0</v>
       </c>
       <c r="T17" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="U17" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="V17" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="X17" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="Y17" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="Z17">
         <v>0</v>
@@ -3048,16 +3141,16 @@
         <v>206.02325443923</v>
       </c>
       <c r="AN17" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
       <c r="AO17" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="AP17" t="s">
-        <v>159</v>
+        <v>184</v>
       </c>
       <c r="AQ17" t="s">
-        <v>169</v>
+        <v>194</v>
       </c>
     </row>
     <row r="18" spans="1:43">
@@ -3080,16 +3173,16 @@
         <v>69</v>
       </c>
       <c r="G18" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H18">
         <v>60433</v>
       </c>
       <c r="I18" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="J18" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="K18">
         <v>9</v>
@@ -3110,25 +3203,25 @@
         <v>9</v>
       </c>
       <c r="Q18" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="R18" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="S18">
         <v>0</v>
       </c>
       <c r="U18" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="V18" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="X18" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="Y18" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="Z18">
         <v>0</v>
@@ -3173,16 +3266,16 @@
         <v>103.3471494959643</v>
       </c>
       <c r="AN18" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
       <c r="AO18" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="AP18" t="s">
-        <v>160</v>
+        <v>185</v>
       </c>
       <c r="AQ18" t="s">
-        <v>169</v>
+        <v>194</v>
       </c>
     </row>
     <row r="19" spans="1:43">
@@ -3205,16 +3298,16 @@
         <v>70</v>
       </c>
       <c r="G19" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H19">
         <v>46809</v>
       </c>
       <c r="I19" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="J19" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="K19">
         <v>10</v>
@@ -3235,28 +3328,28 @@
         <v>10</v>
       </c>
       <c r="Q19" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="R19" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="S19">
         <v>0</v>
       </c>
       <c r="T19" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="U19" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="V19" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="X19" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="Y19" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="Z19">
         <v>0</v>
@@ -3301,16 +3394,16 @@
         <v>149.4741373722906</v>
       </c>
       <c r="AN19" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
       <c r="AO19" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AP19" t="s">
-        <v>159</v>
+        <v>184</v>
       </c>
       <c r="AQ19" t="s">
-        <v>169</v>
+        <v>194</v>
       </c>
     </row>
     <row r="20" spans="1:43">
@@ -3324,64 +3417,67 @@
         <v>48</v>
       </c>
       <c r="D20" t="s">
-        <v>53</v>
-      </c>
-      <c r="E20" t="s">
-        <v>54</v>
+        <v>51</v>
+      </c>
+      <c r="E20">
+        <v>90220</v>
       </c>
       <c r="F20" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G20" t="s">
-        <v>85</v>
-      </c>
-      <c r="H20" t="s">
-        <v>87</v>
+        <v>89</v>
+      </c>
+      <c r="H20">
+        <v>89044</v>
       </c>
       <c r="I20" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="J20" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K20">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L20">
-        <v>4184</v>
+        <v>4677</v>
       </c>
       <c r="M20">
-        <v>4184</v>
+        <v>4677</v>
       </c>
       <c r="N20">
-        <v>15.21</v>
+        <v>20.87</v>
       </c>
       <c r="O20">
-        <v>15.20924</v>
+        <v>20.86965</v>
       </c>
       <c r="P20">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Q20" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="R20" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="S20">
         <v>0</v>
       </c>
+      <c r="T20" t="s">
+        <v>115</v>
+      </c>
       <c r="U20" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="V20" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="X20" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="Y20" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="Z20">
         <v>0</v>
@@ -3390,13 +3486,13 @@
         <v>0</v>
       </c>
       <c r="AB20">
-        <v>90</v>
+        <v>81.02892561983471</v>
       </c>
       <c r="AC20">
-        <v>93.28731097961867</v>
+        <v>83.42470904101343</v>
       </c>
       <c r="AD20">
-        <v>1368.9</v>
+        <v>1691.073677685951</v>
       </c>
       <c r="AE20">
         <v>50</v>
@@ -3411,31 +3507,796 @@
         <v>50</v>
       </c>
       <c r="AI20">
+        <v>20</v>
+      </c>
+      <c r="AJ20">
+        <v>0</v>
+      </c>
+      <c r="AK20">
+        <v>1391.13</v>
+      </c>
+      <c r="AL20">
+        <v>3285.20367768595</v>
+      </c>
+      <c r="AM20">
+        <v>157.4127301239075</v>
+      </c>
+      <c r="AN20" t="s">
+        <v>177</v>
+      </c>
+      <c r="AO20" t="s">
+        <v>89</v>
+      </c>
+      <c r="AP20" t="s">
+        <v>184</v>
+      </c>
+      <c r="AQ20" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="21" spans="1:43">
+      <c r="A21" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" t="s">
+        <v>51</v>
+      </c>
+      <c r="E21">
+        <v>90220</v>
+      </c>
+      <c r="F21" t="s">
+        <v>58</v>
+      </c>
+      <c r="G21" t="s">
+        <v>76</v>
+      </c>
+      <c r="H21">
+        <v>85395</v>
+      </c>
+      <c r="I21" t="s">
+        <v>92</v>
+      </c>
+      <c r="J21" t="s">
+        <v>95</v>
+      </c>
+      <c r="K21">
+        <v>9</v>
+      </c>
+      <c r="L21">
+        <v>3998</v>
+      </c>
+      <c r="M21">
+        <v>3998</v>
+      </c>
+      <c r="N21">
+        <v>18.79274</v>
+      </c>
+      <c r="O21">
+        <v>18.79274</v>
+      </c>
+      <c r="P21">
+        <v>9</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>99</v>
+      </c>
+      <c r="R21" t="s">
+        <v>100</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21" t="s">
+        <v>116</v>
+      </c>
+      <c r="U21" t="s">
+        <v>139</v>
+      </c>
+      <c r="V21" t="s">
+        <v>139</v>
+      </c>
+      <c r="X21" t="s">
+        <v>164</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>164</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+      <c r="AA21">
+        <v>0</v>
+      </c>
+      <c r="AB21">
+        <v>81.02892561983471</v>
+      </c>
+      <c r="AC21">
+        <v>83.68952753312675</v>
+      </c>
+      <c r="AD21">
+        <v>1522.755531652892</v>
+      </c>
+      <c r="AE21">
+        <v>50</v>
+      </c>
+      <c r="AF21">
+        <v>53</v>
+      </c>
+      <c r="AG21">
+        <v>100</v>
+      </c>
+      <c r="AH21">
+        <v>50</v>
+      </c>
+      <c r="AI21">
+        <v>20</v>
+      </c>
+      <c r="AJ21">
+        <v>0</v>
+      </c>
+      <c r="AK21">
+        <v>905.52</v>
+      </c>
+      <c r="AL21">
+        <v>2631.275531652892</v>
+      </c>
+      <c r="AM21">
+        <v>140.0155342782847</v>
+      </c>
+      <c r="AN21" t="s">
+        <v>178</v>
+      </c>
+      <c r="AO21" t="s">
+        <v>76</v>
+      </c>
+      <c r="AP21" t="s">
+        <v>184</v>
+      </c>
+      <c r="AQ21" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="22" spans="1:43">
+      <c r="A22" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" t="s">
+        <v>48</v>
+      </c>
+      <c r="D22" t="s">
+        <v>53</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22" t="s">
+        <v>69</v>
+      </c>
+      <c r="G22" t="s">
+        <v>87</v>
+      </c>
+      <c r="H22">
+        <v>60433</v>
+      </c>
+      <c r="I22" t="s">
+        <v>93</v>
+      </c>
+      <c r="J22" t="s">
+        <v>98</v>
+      </c>
+      <c r="K22">
+        <v>9</v>
+      </c>
+      <c r="L22">
+        <v>4184</v>
+      </c>
+      <c r="M22">
+        <v>4184</v>
+      </c>
+      <c r="N22">
+        <v>15.21</v>
+      </c>
+      <c r="O22">
+        <v>15.20924</v>
+      </c>
+      <c r="P22">
+        <v>9</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>99</v>
+      </c>
+      <c r="R22" t="s">
+        <v>100</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="U22" t="s">
+        <v>136</v>
+      </c>
+      <c r="V22" t="s">
+        <v>136</v>
+      </c>
+      <c r="X22" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>161</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+      <c r="AA22">
+        <v>0</v>
+      </c>
+      <c r="AB22">
+        <v>90</v>
+      </c>
+      <c r="AC22">
+        <v>93.28731097961867</v>
+      </c>
+      <c r="AD22">
+        <v>1368.9</v>
+      </c>
+      <c r="AE22">
+        <v>50</v>
+      </c>
+      <c r="AF22">
+        <v>53</v>
+      </c>
+      <c r="AG22">
+        <v>100</v>
+      </c>
+      <c r="AH22">
+        <v>50</v>
+      </c>
+      <c r="AI22">
         <v>18</v>
       </c>
-      <c r="AJ20">
-        <v>0</v>
-      </c>
-      <c r="AK20">
-        <v>0</v>
-      </c>
-      <c r="AL20">
+      <c r="AJ22">
+        <v>0</v>
+      </c>
+      <c r="AK22">
+        <v>0</v>
+      </c>
+      <c r="AL22">
         <v>1571.9</v>
       </c>
-      <c r="AM20">
+      <c r="AM22">
         <v>103.3464825772518</v>
       </c>
-      <c r="AN20" t="s">
-        <v>158</v>
-      </c>
-      <c r="AO20" t="s">
-        <v>85</v>
-      </c>
-      <c r="AP20" t="s">
-        <v>160</v>
-      </c>
-      <c r="AQ20" t="s">
-        <v>170</v>
+      <c r="AN22" t="s">
+        <v>179</v>
+      </c>
+      <c r="AO22" t="s">
+        <v>87</v>
+      </c>
+      <c r="AP22" t="s">
+        <v>185</v>
+      </c>
+      <c r="AQ22" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="23" spans="1:43">
+      <c r="A23" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D23" t="s">
+        <v>50</v>
+      </c>
+      <c r="E23">
+        <v>7201</v>
+      </c>
+      <c r="F23" t="s">
+        <v>72</v>
+      </c>
+      <c r="G23" t="s">
+        <v>90</v>
+      </c>
+      <c r="H23">
+        <v>15672</v>
+      </c>
+      <c r="I23" t="s">
+        <v>92</v>
+      </c>
+      <c r="J23" t="s">
+        <v>93</v>
+      </c>
+      <c r="K23">
+        <v>5</v>
+      </c>
+      <c r="L23">
+        <v>110</v>
+      </c>
+      <c r="M23">
+        <v>440</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>1.575</v>
+      </c>
+      <c r="P23">
+        <v>1</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>99</v>
+      </c>
+      <c r="R23" t="s">
+        <v>100</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="T23" t="s">
+        <v>117</v>
+      </c>
+      <c r="U23" t="s">
+        <v>140</v>
+      </c>
+      <c r="V23" t="s">
+        <v>144</v>
+      </c>
+      <c r="X23" t="s">
+        <v>165</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>165</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+      <c r="AA23">
+        <v>0</v>
+      </c>
+      <c r="AB23">
+        <v>71.35984848484848</v>
+      </c>
+      <c r="AC23">
+        <v>121.3598484848485</v>
+      </c>
+      <c r="AD23">
+        <v>71.35984848484848</v>
+      </c>
+      <c r="AE23">
+        <v>50</v>
+      </c>
+      <c r="AF23">
+        <v>53</v>
+      </c>
+      <c r="AG23">
+        <v>100</v>
+      </c>
+      <c r="AH23">
+        <v>50</v>
+      </c>
+      <c r="AI23">
+        <v>18</v>
+      </c>
+      <c r="AJ23">
+        <v>18</v>
+      </c>
+      <c r="AK23">
+        <v>121</v>
+      </c>
+      <c r="AL23">
+        <v>413.3598484848485</v>
+      </c>
+      <c r="AM23">
+        <v>413.3598484848485</v>
+      </c>
+      <c r="AN23" t="s">
+        <v>180</v>
+      </c>
+      <c r="AO23" t="s">
+        <v>90</v>
+      </c>
+      <c r="AP23" t="s">
+        <v>184</v>
+      </c>
+      <c r="AQ23" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="24" spans="1:43">
+      <c r="A24" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" t="s">
+        <v>48</v>
+      </c>
+      <c r="D24" t="s">
+        <v>50</v>
+      </c>
+      <c r="E24">
+        <v>7201</v>
+      </c>
+      <c r="F24" t="s">
+        <v>72</v>
+      </c>
+      <c r="G24" t="s">
+        <v>90</v>
+      </c>
+      <c r="H24">
+        <v>15672</v>
+      </c>
+      <c r="I24" t="s">
+        <v>92</v>
+      </c>
+      <c r="J24" t="s">
+        <v>93</v>
+      </c>
+      <c r="K24">
+        <v>5</v>
+      </c>
+      <c r="L24">
+        <v>110</v>
+      </c>
+      <c r="M24">
+        <v>440</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>1.575</v>
+      </c>
+      <c r="P24">
+        <v>1</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>99</v>
+      </c>
+      <c r="R24" t="s">
+        <v>100</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+      <c r="T24" t="s">
+        <v>117</v>
+      </c>
+      <c r="U24" t="s">
+        <v>140</v>
+      </c>
+      <c r="V24" t="s">
+        <v>144</v>
+      </c>
+      <c r="X24" t="s">
+        <v>165</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>165</v>
+      </c>
+      <c r="Z24">
+        <v>0</v>
+      </c>
+      <c r="AA24">
+        <v>0</v>
+      </c>
+      <c r="AB24">
+        <v>71.35984848484848</v>
+      </c>
+      <c r="AC24">
+        <v>121.3598484848485</v>
+      </c>
+      <c r="AD24">
+        <v>71.35984848484848</v>
+      </c>
+      <c r="AE24">
+        <v>50</v>
+      </c>
+      <c r="AF24">
+        <v>53</v>
+      </c>
+      <c r="AG24">
+        <v>100</v>
+      </c>
+      <c r="AH24">
+        <v>50</v>
+      </c>
+      <c r="AI24">
+        <v>18</v>
+      </c>
+      <c r="AJ24">
+        <v>18</v>
+      </c>
+      <c r="AK24">
+        <v>121</v>
+      </c>
+      <c r="AL24">
+        <v>413.3598484848485</v>
+      </c>
+      <c r="AM24">
+        <v>413.3598484848485</v>
+      </c>
+      <c r="AN24" t="s">
+        <v>181</v>
+      </c>
+      <c r="AO24" t="s">
+        <v>90</v>
+      </c>
+      <c r="AP24" t="s">
+        <v>184</v>
+      </c>
+      <c r="AQ24" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="25" spans="1:43">
+      <c r="A25" t="s">
+        <v>43</v>
+      </c>
+      <c r="B25" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" t="s">
+        <v>48</v>
+      </c>
+      <c r="D25" t="s">
+        <v>49</v>
+      </c>
+      <c r="E25">
+        <v>29483</v>
+      </c>
+      <c r="F25" t="s">
+        <v>66</v>
+      </c>
+      <c r="G25" t="s">
+        <v>84</v>
+      </c>
+      <c r="H25">
+        <v>29330</v>
+      </c>
+      <c r="I25" t="s">
+        <v>92</v>
+      </c>
+      <c r="J25" t="s">
+        <v>93</v>
+      </c>
+      <c r="K25">
+        <v>291</v>
+      </c>
+      <c r="L25">
+        <v>2901.27</v>
+      </c>
+      <c r="M25">
+        <v>2901.27</v>
+      </c>
+      <c r="N25">
+        <v>7.294</v>
+      </c>
+      <c r="O25">
+        <v>7.29381</v>
+      </c>
+      <c r="P25">
+        <v>5</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>99</v>
+      </c>
+      <c r="R25" t="s">
+        <v>100</v>
+      </c>
+      <c r="S25">
+        <v>0</v>
+      </c>
+      <c r="T25" t="s">
+        <v>118</v>
+      </c>
+      <c r="U25" t="s">
+        <v>141</v>
+      </c>
+      <c r="V25" t="s">
+        <v>141</v>
+      </c>
+      <c r="X25" t="s">
+        <v>166</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>166</v>
+      </c>
+      <c r="Z25">
+        <v>0</v>
+      </c>
+      <c r="AA25">
+        <v>0</v>
+      </c>
+      <c r="AB25">
+        <v>78.1198347107438</v>
+      </c>
+      <c r="AC25">
+        <v>84.97478398411918</v>
+      </c>
+      <c r="AD25">
+        <v>569.8060743801652</v>
+      </c>
+      <c r="AE25">
+        <v>50</v>
+      </c>
+      <c r="AF25">
+        <v>53</v>
+      </c>
+      <c r="AG25">
+        <v>100</v>
+      </c>
+      <c r="AH25">
+        <v>50</v>
+      </c>
+      <c r="AI25">
+        <v>20</v>
+      </c>
+      <c r="AJ25">
+        <v>100</v>
+      </c>
+      <c r="AK25">
+        <v>401.77</v>
+      </c>
+      <c r="AL25">
+        <v>1274.576074380165</v>
+      </c>
+      <c r="AM25">
+        <v>174.7430866986791</v>
+      </c>
+      <c r="AN25" t="s">
+        <v>182</v>
+      </c>
+      <c r="AO25" t="s">
+        <v>84</v>
+      </c>
+      <c r="AP25" t="s">
+        <v>184</v>
+      </c>
+      <c r="AQ25" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="26" spans="1:43">
+      <c r="A26" t="s">
+        <v>43</v>
+      </c>
+      <c r="B26" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" t="s">
+        <v>48</v>
+      </c>
+      <c r="D26" t="s">
+        <v>49</v>
+      </c>
+      <c r="E26" t="s">
+        <v>54</v>
+      </c>
+      <c r="F26" t="s">
+        <v>66</v>
+      </c>
+      <c r="G26" t="s">
+        <v>84</v>
+      </c>
+      <c r="H26" t="s">
+        <v>91</v>
+      </c>
+      <c r="I26" t="s">
+        <v>92</v>
+      </c>
+      <c r="J26" t="s">
+        <v>93</v>
+      </c>
+      <c r="K26">
+        <v>149</v>
+      </c>
+      <c r="L26">
+        <v>1527.25</v>
+      </c>
+      <c r="M26">
+        <v>1527.25</v>
+      </c>
+      <c r="N26">
+        <v>4.261</v>
+      </c>
+      <c r="O26">
+        <v>4.26106</v>
+      </c>
+      <c r="P26">
+        <v>3</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>99</v>
+      </c>
+      <c r="R26" t="s">
+        <v>100</v>
+      </c>
+      <c r="S26">
+        <v>0</v>
+      </c>
+      <c r="T26" t="s">
+        <v>119</v>
+      </c>
+      <c r="U26" t="s">
+        <v>141</v>
+      </c>
+      <c r="V26" t="s">
+        <v>141</v>
+      </c>
+      <c r="X26" t="s">
+        <v>167</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>167</v>
+      </c>
+      <c r="Z26">
+        <v>0</v>
+      </c>
+      <c r="AA26">
+        <v>0</v>
+      </c>
+      <c r="AB26">
+        <v>78.1198347107438</v>
+      </c>
+      <c r="AC26">
+        <v>89.8541693739684</v>
+      </c>
+      <c r="AD26">
+        <v>332.8686157024794</v>
+      </c>
+      <c r="AE26">
+        <v>50</v>
+      </c>
+      <c r="AF26">
+        <v>53</v>
+      </c>
+      <c r="AG26">
+        <v>100</v>
+      </c>
+      <c r="AH26">
+        <v>50</v>
+      </c>
+      <c r="AI26">
+        <v>20</v>
+      </c>
+      <c r="AJ26">
+        <v>60</v>
+      </c>
+      <c r="AK26">
+        <v>299.88</v>
+      </c>
+      <c r="AL26">
+        <v>895.7486157024794</v>
+      </c>
+      <c r="AM26">
+        <v>210.220280615461</v>
+      </c>
+      <c r="AN26" t="s">
+        <v>183</v>
+      </c>
+      <c r="AO26" t="s">
+        <v>84</v>
+      </c>
+      <c r="AP26" t="s">
+        <v>184</v>
+      </c>
+      <c r="AQ26" t="s">
+        <v>201</v>
       </c>
     </row>
   </sheetData>

--- a/Logs/quotations.xlsx
+++ b/Logs/quotations.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="270">
   <si>
     <t>Shipment Scope</t>
   </si>
@@ -160,6 +160,9 @@
     <t>Nhava Sheva, India (INNSA)</t>
   </si>
   <si>
+    <t>421601, Thane, Thane, Maharashtra, India</t>
+  </si>
+  <si>
     <t>Nhava Sheva</t>
   </si>
   <si>
@@ -235,6 +238,27 @@
     <t>LBE1</t>
   </si>
   <si>
+    <t>RMN3</t>
+  </si>
+  <si>
+    <t>ABE7</t>
+  </si>
+  <si>
+    <t>XLX1</t>
+  </si>
+  <si>
+    <t>MEM6</t>
+  </si>
+  <si>
+    <t>WBW2</t>
+  </si>
+  <si>
+    <t>XLX6</t>
+  </si>
+  <si>
+    <t>ATL9</t>
+  </si>
+  <si>
     <t>RDU4 28303, Terry Sanford, Fayetteville, North Carolina, United States</t>
   </si>
   <si>
@@ -289,7 +313,28 @@
     <t>LBE1 15672, New Stanton, New Stanton, Pennsylvania, United States</t>
   </si>
   <si>
-    <t>29330</t>
+    <t>RMN3 22406, Paynes Corner, Paynes Corner, Virginia, United States</t>
+  </si>
+  <si>
+    <t>ABE7 91752, Mira Loma, Jurupa Valley, California, United States</t>
+  </si>
+  <si>
+    <t>XLX1 21740, Hagerstown, Hagerstown, Maryland, United States</t>
+  </si>
+  <si>
+    <t>MEM6 38654, Olive Branch, Olive Branch, Mississippi, United States</t>
+  </si>
+  <si>
+    <t>WBW2 18447, Archbald, Archbald, Pennsylvania, United States</t>
+  </si>
+  <si>
+    <t>XLX6 28134, Pineville, Pineville, North Carolina, United States</t>
+  </si>
+  <si>
+    <t>ATL9 30096, North Metro, Duluth, Georgia, United States</t>
+  </si>
+  <si>
+    <t>30096</t>
   </si>
   <si>
     <t>Agraga</t>
@@ -313,6 +358,9 @@
     <t>Great Lakes</t>
   </si>
   <si>
+    <t>East</t>
+  </si>
+  <si>
     <t>NON HOT</t>
   </si>
   <si>
@@ -376,6 +424,33 @@
     <t>{'Rate': 299.88, 'Carrier Name': 'Estes Express Lines', 'Service Provider': 'Ex-Freight'}</t>
   </si>
   <si>
+    <t>{'Rate': 643.77, 'Carrier Name': 'Estes Express Lines', 'Service Provider': 'Ex-Freight'}</t>
+  </si>
+  <si>
+    <t>{'Rate': 463.08, 'Carrier Name': 'Estes Express Lines VL', 'Service Provider': 'HeyPrimo'}</t>
+  </si>
+  <si>
+    <t>{'Rate': 469.74, 'Carrier Name': 'Estes Express Lines VL', 'Service Provider': 'HeyPrimo'}</t>
+  </si>
+  <si>
+    <t>{'Rate': 824.79, 'Carrier Name': 'Frontline Freight', 'Service Provider': 'Ex-Freight'}</t>
+  </si>
+  <si>
+    <t>{'Rate': 458.27, 'Carrier Name': 'Estes Express Lines VL', 'Service Provider': 'HeyPrimo'}</t>
+  </si>
+  <si>
+    <t>{'Rate': 625.19, 'Carrier Name': 'Estes Express Lines VL', 'Service Provider': 'HeyPrimo'}</t>
+  </si>
+  <si>
+    <t>{'Rate': 833.58, 'Carrier Name': 'Estes Express Lines', 'Service Provider': 'Ex-Freight'}</t>
+  </si>
+  <si>
+    <t>{'Rate': 1009.71, 'Carrier Name': 'Estes Express Lines', 'Service Provider': 'Ex-Freight'}</t>
+  </si>
+  <si>
+    <t>{'Rate': 350.66, 'Carrier Name': 'Estes Express Lines', 'Service Provider': 'Ex-Freight'}</t>
+  </si>
+  <si>
     <t>{'Rate': 1358.2649999999999, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt'}</t>
   </si>
   <si>
@@ -442,6 +517,39 @@
     <t>{'Rate': 1137.18, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt'}</t>
   </si>
   <si>
+    <t>{'Rate': 1074.345, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt'}</t>
+  </si>
+  <si>
+    <t>{'Rate': 2150.67, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt'}</t>
+  </si>
+  <si>
+    <t>{'Rate': 2221.425, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt'}</t>
+  </si>
+  <si>
+    <t>{'Rate': 5311.200000000001, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt'}</t>
+  </si>
+  <si>
+    <t>{'Rate': 1309.1999999999998, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt'}</t>
+  </si>
+  <si>
+    <t>{'Rate': 822.375, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt'}</t>
+  </si>
+  <si>
+    <t>{'Rate': 1272.345, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt'}</t>
+  </si>
+  <si>
+    <t>{'Rate': 1713.5700000000002, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt'}</t>
+  </si>
+  <si>
+    <t>{'Rate': 947.0699999999999, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt'}</t>
+  </si>
+  <si>
+    <t>{'Rate': 1124.67, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt'}</t>
+  </si>
+  <si>
+    <t>{'Rate': 1105.695, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt'}</t>
+  </si>
+  <si>
     <t>{'Rate': 372.0, 'Carrier Name': '', 'Service Provider': 'NTG'}</t>
   </si>
   <si>
@@ -520,6 +628,42 @@
     <t>{'Rate Type': 'LTL', 'Rate': 299.88, 'Carrier Name': 'Estes Express Lines', 'Service Provider': 'Ex-Freight'}</t>
   </si>
   <si>
+    <t>{'Rate Type': 'LTL', 'Rate': 643.77, 'Carrier Name': 'Estes Express Lines', 'Service Provider': 'Ex-Freight'}</t>
+  </si>
+  <si>
+    <t>{'Rate Type': 'FTL53', 'Rate': 877.0, 'Carrier Name': '', 'Service Provider': 'NTG'}</t>
+  </si>
+  <si>
+    <t>{'Rate Type': 'LTL', 'Rate': 463.08, 'Carrier Name': 'Estes Express Lines VL', 'Service Provider': 'HeyPrimo'}</t>
+  </si>
+  <si>
+    <t>{'Rate Type': 'LTL', 'Rate': 469.74, 'Carrier Name': 'Estes Express Lines VL', 'Service Provider': 'HeyPrimo'}</t>
+  </si>
+  <si>
+    <t>{'Rate Type': 'LTL', 'Rate': 824.79, 'Carrier Name': 'Frontline Freight', 'Service Provider': 'Ex-Freight'}</t>
+  </si>
+  <si>
+    <t>{'Rate Type': 'LTL', 'Rate': 458.27, 'Carrier Name': 'Estes Express Lines VL', 'Service Provider': 'HeyPrimo'}</t>
+  </si>
+  <si>
+    <t>{'Rate Type': 'FTL', 'Rate': 822.375, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt'}</t>
+  </si>
+  <si>
+    <t>{'Rate Type': 'LTL', 'Rate': 625.19, 'Carrier Name': 'Estes Express Lines VL', 'Service Provider': 'HeyPrimo'}</t>
+  </si>
+  <si>
+    <t>{'Rate Type': 'LTL', 'Rate': 833.58, 'Carrier Name': 'Estes Express Lines', 'Service Provider': 'Ex-Freight'}</t>
+  </si>
+  <si>
+    <t>{'Rate Type': 'FTL', 'Rate': 947.0699999999999, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt'}</t>
+  </si>
+  <si>
+    <t>{'Rate Type': 'LTL', 'Rate': 350.66, 'Carrier Name': 'Estes Express Lines', 'Service Provider': 'Ex-Freight'}</t>
+  </si>
+  <si>
+    <t>{'Rate Type': 'FTL', 'Rate': 1105.695, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt'}</t>
+  </si>
+  <si>
     <t>CMM0246LCL0044</t>
   </si>
   <si>
@@ -559,13 +703,43 @@
     <t>CMM0246LCL0055</t>
   </si>
   <si>
+    <t>CMM0827LCL0039</t>
+  </si>
+  <si>
+    <t>CMM0827LCL0038</t>
+  </si>
+  <si>
     <t>CMM0637LCL0005</t>
   </si>
   <si>
-    <t>CMM0827LCL0039</t>
-  </si>
-  <si>
-    <t>CMM0827LCL0038</t>
+    <t>CMM0014LCL0005</t>
+  </si>
+  <si>
+    <t>CMM0637LCL0006</t>
+  </si>
+  <si>
+    <t>CMM0804LCL0063</t>
+  </si>
+  <si>
+    <t>CMM0804LCL0062</t>
+  </si>
+  <si>
+    <t>CMM0246LCL0057</t>
+  </si>
+  <si>
+    <t>CEN0479LCL0072</t>
+  </si>
+  <si>
+    <t>CEN0479LCL0073</t>
+  </si>
+  <si>
+    <t>CMM0077LCL0002</t>
+  </si>
+  <si>
+    <t>CMM0657LCL0117</t>
+  </si>
+  <si>
+    <t>CMM0246LCL0056</t>
   </si>
   <si>
     <t>Own Console</t>
@@ -613,13 +787,43 @@
     <t>2025-08-19 05:48:54</t>
   </si>
   <si>
-    <t>2025-08-19 07:50:21</t>
-  </si>
-  <si>
     <t>2025-08-19 10:44:51</t>
   </si>
   <si>
     <t>2025-08-19 12:09:20</t>
+  </si>
+  <si>
+    <t>2025-08-20 07:27:36</t>
+  </si>
+  <si>
+    <t>2025-08-21 13:06:23</t>
+  </si>
+  <si>
+    <t>2025-08-22 09:56:01</t>
+  </si>
+  <si>
+    <t>2025-08-23 07:34:04</t>
+  </si>
+  <si>
+    <t>2025-08-23 07:38:08</t>
+  </si>
+  <si>
+    <t>2025-08-23 09:48:12</t>
+  </si>
+  <si>
+    <t>2025-08-25 05:52:23</t>
+  </si>
+  <si>
+    <t>2025-08-25 06:10:17</t>
+  </si>
+  <si>
+    <t>2025-08-25 07:50:47</t>
+  </si>
+  <si>
+    <t>2025-08-25 10:22:35</t>
+  </si>
+  <si>
+    <t>2025-08-26 05:42:04</t>
   </si>
 </sst>
 </file>
@@ -977,7 +1181,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ26"/>
+  <dimension ref="A1:AQ39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1122,28 +1326,28 @@
         <v>45</v>
       </c>
       <c r="C2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E2">
         <v>29483</v>
       </c>
       <c r="F2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G2" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="H2">
         <v>28303</v>
       </c>
       <c r="I2" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="J2" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="K2">
         <v>288</v>
@@ -1164,28 +1368,28 @@
         <v>6</v>
       </c>
       <c r="Q2" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="R2" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="S2">
         <v>0</v>
       </c>
       <c r="T2" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="U2" t="s">
-        <v>120</v>
+        <v>145</v>
       </c>
       <c r="V2" t="s">
-        <v>120</v>
+        <v>145</v>
       </c>
       <c r="X2" t="s">
-        <v>145</v>
+        <v>181</v>
       </c>
       <c r="Y2" t="s">
-        <v>145</v>
+        <v>181</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -1230,16 +1434,16 @@
         <v>174.4790364845797</v>
       </c>
       <c r="AN2" t="s">
-        <v>168</v>
+        <v>216</v>
       </c>
       <c r="AO2" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="AP2" t="s">
-        <v>184</v>
+        <v>242</v>
       </c>
       <c r="AQ2" t="s">
-        <v>186</v>
+        <v>244</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -1250,28 +1454,28 @@
         <v>45</v>
       </c>
       <c r="C3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E3">
         <v>7201</v>
       </c>
       <c r="F3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G3" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="H3">
         <v>46140</v>
       </c>
       <c r="I3" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="J3" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="K3">
         <v>518</v>
@@ -1292,28 +1496,28 @@
         <v>10</v>
       </c>
       <c r="Q3" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="R3" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="U3" t="s">
-        <v>121</v>
+        <v>146</v>
       </c>
       <c r="V3" t="s">
-        <v>121</v>
+        <v>146</v>
       </c>
       <c r="X3" t="s">
-        <v>146</v>
+        <v>182</v>
       </c>
       <c r="Y3" t="s">
-        <v>146</v>
+        <v>182</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -1358,16 +1562,16 @@
         <v>188.3821611081226</v>
       </c>
       <c r="AN3" t="s">
-        <v>168</v>
+        <v>216</v>
       </c>
       <c r="AO3" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="AP3" t="s">
-        <v>184</v>
+        <v>242</v>
       </c>
       <c r="AQ3" t="s">
-        <v>186</v>
+        <v>244</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -1378,28 +1582,28 @@
         <v>45</v>
       </c>
       <c r="C4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E4">
         <v>90220</v>
       </c>
       <c r="F4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G4" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="H4">
         <v>75241</v>
       </c>
       <c r="I4" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="J4" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="K4">
         <v>461</v>
@@ -1420,28 +1624,28 @@
         <v>9</v>
       </c>
       <c r="Q4" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="R4" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="U4" t="s">
-        <v>122</v>
+        <v>147</v>
       </c>
       <c r="V4" t="s">
-        <v>122</v>
+        <v>147</v>
       </c>
       <c r="X4" t="s">
-        <v>147</v>
+        <v>183</v>
       </c>
       <c r="Y4" t="s">
-        <v>147</v>
+        <v>183</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -1486,16 +1690,16 @@
         <v>198.5737694455844</v>
       </c>
       <c r="AN4" t="s">
-        <v>168</v>
+        <v>216</v>
       </c>
       <c r="AO4" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AP4" t="s">
-        <v>184</v>
+        <v>242</v>
       </c>
       <c r="AQ4" t="s">
-        <v>186</v>
+        <v>244</v>
       </c>
     </row>
     <row r="5" spans="1:43">
@@ -1506,28 +1710,28 @@
         <v>45</v>
       </c>
       <c r="C5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E5">
         <v>90220</v>
       </c>
       <c r="F5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G5" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H5">
         <v>85395</v>
       </c>
       <c r="I5" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="J5" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="K5">
         <v>461</v>
@@ -1548,28 +1752,28 @@
         <v>9</v>
       </c>
       <c r="Q5" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="R5" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="U5" t="s">
-        <v>123</v>
+        <v>148</v>
       </c>
       <c r="V5" t="s">
-        <v>123</v>
+        <v>148</v>
       </c>
       <c r="X5" t="s">
-        <v>148</v>
+        <v>184</v>
       </c>
       <c r="Y5" t="s">
-        <v>148</v>
+        <v>184</v>
       </c>
       <c r="Z5">
         <v>0</v>
@@ -1614,16 +1818,16 @@
         <v>151.7595856378415</v>
       </c>
       <c r="AN5" t="s">
-        <v>168</v>
+        <v>216</v>
       </c>
       <c r="AO5" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AP5" t="s">
-        <v>184</v>
+        <v>242</v>
       </c>
       <c r="AQ5" t="s">
-        <v>186</v>
+        <v>244</v>
       </c>
     </row>
     <row r="6" spans="1:43">
@@ -1634,28 +1838,28 @@
         <v>45</v>
       </c>
       <c r="C6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E6">
         <v>90220</v>
       </c>
       <c r="F6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G6" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H6">
         <v>85043</v>
       </c>
       <c r="I6" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="J6" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="K6">
         <v>576</v>
@@ -1676,28 +1880,28 @@
         <v>11</v>
       </c>
       <c r="Q6" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="R6" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="S6">
         <v>0</v>
       </c>
       <c r="T6" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="U6" t="s">
-        <v>124</v>
+        <v>149</v>
       </c>
       <c r="V6" t="s">
-        <v>124</v>
+        <v>149</v>
       </c>
       <c r="X6" t="s">
-        <v>149</v>
+        <v>185</v>
       </c>
       <c r="Y6" t="s">
-        <v>149</v>
+        <v>185</v>
       </c>
       <c r="Z6">
         <v>0</v>
@@ -1742,16 +1946,16 @@
         <v>164.8459987905664</v>
       </c>
       <c r="AN6" t="s">
-        <v>168</v>
+        <v>216</v>
       </c>
       <c r="AO6" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AP6" t="s">
-        <v>184</v>
+        <v>242</v>
       </c>
       <c r="AQ6" t="s">
-        <v>186</v>
+        <v>244</v>
       </c>
     </row>
     <row r="7" spans="1:43">
@@ -1762,28 +1966,28 @@
         <v>46</v>
       </c>
       <c r="C7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E7">
         <v>29483</v>
       </c>
       <c r="F7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G7" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H7">
         <v>30567</v>
       </c>
       <c r="I7" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="J7" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="K7">
         <v>10</v>
@@ -1804,28 +2008,28 @@
         <v>1</v>
       </c>
       <c r="Q7" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="R7" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
       <c r="T7" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="U7" t="s">
-        <v>125</v>
+        <v>150</v>
       </c>
       <c r="V7" t="s">
-        <v>125</v>
+        <v>150</v>
       </c>
       <c r="X7" t="s">
-        <v>150</v>
+        <v>186</v>
       </c>
       <c r="Y7" t="s">
-        <v>150</v>
+        <v>186</v>
       </c>
       <c r="Z7">
         <v>10000</v>
@@ -1870,16 +2074,16 @@
         <v>719.1061983471075</v>
       </c>
       <c r="AN7" t="s">
-        <v>169</v>
+        <v>217</v>
       </c>
       <c r="AO7" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AP7" t="s">
-        <v>184</v>
+        <v>242</v>
       </c>
       <c r="AQ7" t="s">
-        <v>187</v>
+        <v>245</v>
       </c>
     </row>
     <row r="8" spans="1:43">
@@ -1890,28 +2094,28 @@
         <v>46</v>
       </c>
       <c r="C8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E8">
         <v>7201</v>
       </c>
       <c r="F8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G8" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H8">
         <v>8873</v>
       </c>
       <c r="I8" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="J8" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="K8">
         <v>9</v>
@@ -1932,28 +2136,28 @@
         <v>1</v>
       </c>
       <c r="Q8" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="R8" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
       <c r="T8" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="U8" t="s">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="V8" t="s">
-        <v>142</v>
+        <v>178</v>
       </c>
       <c r="X8" t="s">
-        <v>151</v>
+        <v>187</v>
       </c>
       <c r="Y8" t="s">
-        <v>151</v>
+        <v>187</v>
       </c>
       <c r="Z8">
         <v>10000</v>
@@ -1998,16 +2202,16 @@
         <v>502.9962121212121</v>
       </c>
       <c r="AN8" t="s">
-        <v>169</v>
+        <v>217</v>
       </c>
       <c r="AO8" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AP8" t="s">
-        <v>184</v>
+        <v>242</v>
       </c>
       <c r="AQ8" t="s">
-        <v>187</v>
+        <v>245</v>
       </c>
     </row>
     <row r="9" spans="1:43">
@@ -2018,28 +2222,28 @@
         <v>47</v>
       </c>
       <c r="C9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E9">
         <v>7201</v>
       </c>
       <c r="F9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G9" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H9">
         <v>18202</v>
       </c>
       <c r="I9" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="J9" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="K9">
         <v>72</v>
@@ -2060,28 +2264,28 @@
         <v>2</v>
       </c>
       <c r="Q9" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="R9" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
       <c r="T9" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="U9" t="s">
-        <v>127</v>
+        <v>152</v>
       </c>
       <c r="V9" t="s">
-        <v>143</v>
+        <v>179</v>
       </c>
       <c r="X9" t="s">
-        <v>152</v>
+        <v>188</v>
       </c>
       <c r="Y9" t="s">
-        <v>152</v>
+        <v>188</v>
       </c>
       <c r="Z9">
         <v>0</v>
@@ -2126,16 +2330,16 @@
         <v>257.1691611234294</v>
       </c>
       <c r="AN9" t="s">
-        <v>170</v>
+        <v>218</v>
       </c>
       <c r="AO9" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AP9" t="s">
-        <v>184</v>
+        <v>242</v>
       </c>
       <c r="AQ9" t="s">
-        <v>188</v>
+        <v>246</v>
       </c>
     </row>
     <row r="10" spans="1:43">
@@ -2146,28 +2350,28 @@
         <v>47</v>
       </c>
       <c r="C10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E10">
         <v>77020</v>
       </c>
       <c r="F10" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G10" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="H10">
         <v>75007</v>
       </c>
       <c r="I10" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="J10" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="K10">
         <v>50</v>
@@ -2188,25 +2392,25 @@
         <v>50</v>
       </c>
       <c r="Q10" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="R10" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="S10">
         <v>0</v>
       </c>
       <c r="U10" t="s">
-        <v>128</v>
+        <v>153</v>
       </c>
       <c r="V10" t="s">
-        <v>128</v>
+        <v>153</v>
       </c>
       <c r="X10" t="s">
-        <v>153</v>
+        <v>189</v>
       </c>
       <c r="Y10" t="s">
-        <v>153</v>
+        <v>189</v>
       </c>
       <c r="Z10">
         <v>0</v>
@@ -2251,16 +2455,16 @@
         <v>280.7465277777778</v>
       </c>
       <c r="AN10" t="s">
-        <v>171</v>
+        <v>219</v>
       </c>
       <c r="AO10" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="AP10" t="s">
-        <v>185</v>
+        <v>243</v>
       </c>
       <c r="AQ10" t="s">
-        <v>189</v>
+        <v>247</v>
       </c>
     </row>
     <row r="11" spans="1:43">
@@ -2271,28 +2475,28 @@
         <v>47</v>
       </c>
       <c r="C11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E11">
         <v>7201</v>
       </c>
       <c r="F11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G11" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="H11">
         <v>18105</v>
       </c>
       <c r="I11" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="J11" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="K11">
         <v>100</v>
@@ -2313,25 +2517,25 @@
         <v>100</v>
       </c>
       <c r="Q11" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="R11" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
       <c r="U11" t="s">
-        <v>129</v>
+        <v>154</v>
       </c>
       <c r="V11" t="s">
-        <v>129</v>
+        <v>154</v>
       </c>
       <c r="X11" t="s">
-        <v>154</v>
+        <v>190</v>
       </c>
       <c r="Y11" t="s">
-        <v>154</v>
+        <v>190</v>
       </c>
       <c r="Z11">
         <v>0</v>
@@ -2376,16 +2580,16 @@
         <v>142.3526870265152</v>
       </c>
       <c r="AN11" t="s">
-        <v>171</v>
+        <v>219</v>
       </c>
       <c r="AO11" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="AP11" t="s">
-        <v>184</v>
+        <v>242</v>
       </c>
       <c r="AQ11" t="s">
-        <v>189</v>
+        <v>247</v>
       </c>
     </row>
     <row r="12" spans="1:43">
@@ -2396,28 +2600,28 @@
         <v>47</v>
       </c>
       <c r="C12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E12">
         <v>7201</v>
       </c>
       <c r="F12" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G12" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="H12">
         <v>17112</v>
       </c>
       <c r="I12" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="J12" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="K12">
         <v>100</v>
@@ -2438,25 +2642,25 @@
         <v>100</v>
       </c>
       <c r="Q12" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="R12" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="S12">
         <v>0</v>
       </c>
       <c r="U12" t="s">
-        <v>130</v>
+        <v>155</v>
       </c>
       <c r="V12" t="s">
-        <v>130</v>
+        <v>155</v>
       </c>
       <c r="X12" t="s">
-        <v>155</v>
+        <v>191</v>
       </c>
       <c r="Y12" t="s">
-        <v>155</v>
+        <v>191</v>
       </c>
       <c r="Z12">
         <v>0</v>
@@ -2501,16 +2705,16 @@
         <v>166.954466540404</v>
       </c>
       <c r="AN12" t="s">
-        <v>171</v>
+        <v>219</v>
       </c>
       <c r="AO12" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="AP12" t="s">
-        <v>184</v>
+        <v>242</v>
       </c>
       <c r="AQ12" t="s">
-        <v>189</v>
+        <v>247</v>
       </c>
     </row>
     <row r="13" spans="1:43">
@@ -2521,28 +2725,28 @@
         <v>45</v>
       </c>
       <c r="C13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D13" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E13">
         <v>29483</v>
       </c>
       <c r="F13" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G13" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="H13">
         <v>29330</v>
       </c>
       <c r="I13" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="J13" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="K13">
         <v>390</v>
@@ -2563,28 +2767,28 @@
         <v>17</v>
       </c>
       <c r="Q13" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="R13" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="S13">
         <v>0</v>
       </c>
       <c r="T13" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="U13" t="s">
-        <v>131</v>
+        <v>156</v>
       </c>
       <c r="V13" t="s">
-        <v>131</v>
+        <v>156</v>
       </c>
       <c r="X13" t="s">
-        <v>156</v>
+        <v>192</v>
       </c>
       <c r="Y13" t="s">
-        <v>156</v>
+        <v>192</v>
       </c>
       <c r="Z13">
         <v>0</v>
@@ -2629,16 +2833,16 @@
         <v>133.097981415809</v>
       </c>
       <c r="AN13" t="s">
-        <v>172</v>
+        <v>220</v>
       </c>
       <c r="AO13" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="AP13" t="s">
-        <v>184</v>
+        <v>242</v>
       </c>
       <c r="AQ13" t="s">
-        <v>190</v>
+        <v>248</v>
       </c>
     </row>
     <row r="14" spans="1:43">
@@ -2649,28 +2853,28 @@
         <v>45</v>
       </c>
       <c r="C14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E14">
         <v>7201</v>
       </c>
       <c r="F14" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G14" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="H14">
         <v>46410</v>
       </c>
       <c r="I14" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="J14" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="K14">
         <v>390</v>
@@ -2691,28 +2895,28 @@
         <v>17</v>
       </c>
       <c r="Q14" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="R14" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="S14">
         <v>0</v>
       </c>
       <c r="T14" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="U14" t="s">
-        <v>132</v>
+        <v>157</v>
       </c>
       <c r="V14" t="s">
-        <v>132</v>
+        <v>157</v>
       </c>
       <c r="X14" t="s">
-        <v>157</v>
+        <v>193</v>
       </c>
       <c r="Y14" t="s">
-        <v>157</v>
+        <v>193</v>
       </c>
       <c r="Z14">
         <v>0</v>
@@ -2757,16 +2961,16 @@
         <v>150.8448561080909</v>
       </c>
       <c r="AN14" t="s">
-        <v>173</v>
+        <v>221</v>
       </c>
       <c r="AO14" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="AP14" t="s">
-        <v>184</v>
+        <v>242</v>
       </c>
       <c r="AQ14" t="s">
-        <v>191</v>
+        <v>249</v>
       </c>
     </row>
     <row r="15" spans="1:43">
@@ -2777,28 +2981,28 @@
         <v>47</v>
       </c>
       <c r="C15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E15">
         <v>29483</v>
       </c>
       <c r="F15" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G15" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="H15">
         <v>29330</v>
       </c>
       <c r="I15" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="J15" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="K15">
         <v>436</v>
@@ -2819,28 +3023,28 @@
         <v>19</v>
       </c>
       <c r="Q15" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="R15" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="S15">
         <v>0</v>
       </c>
       <c r="T15" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="U15" t="s">
-        <v>133</v>
+        <v>158</v>
       </c>
       <c r="V15" t="s">
-        <v>133</v>
+        <v>158</v>
       </c>
       <c r="X15" t="s">
-        <v>158</v>
+        <v>194</v>
       </c>
       <c r="Y15" t="s">
-        <v>158</v>
+        <v>194</v>
       </c>
       <c r="Z15">
         <v>0</v>
@@ -2885,16 +3089,16 @@
         <v>130.4801208060281</v>
       </c>
       <c r="AN15" t="s">
-        <v>174</v>
+        <v>222</v>
       </c>
       <c r="AO15" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="AP15" t="s">
-        <v>184</v>
+        <v>242</v>
       </c>
       <c r="AQ15" t="s">
-        <v>192</v>
+        <v>250</v>
       </c>
     </row>
     <row r="16" spans="1:43">
@@ -2905,28 +3109,28 @@
         <v>47</v>
       </c>
       <c r="C16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D16" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E16">
         <v>7201</v>
       </c>
       <c r="F16" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G16" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="H16">
         <v>46410</v>
       </c>
       <c r="I16" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="J16" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="K16">
         <v>436</v>
@@ -2947,28 +3151,28 @@
         <v>19</v>
       </c>
       <c r="Q16" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="R16" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="S16">
         <v>0</v>
       </c>
       <c r="T16" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="U16" t="s">
-        <v>134</v>
+        <v>159</v>
       </c>
       <c r="V16" t="s">
-        <v>134</v>
+        <v>159</v>
       </c>
       <c r="X16" t="s">
-        <v>159</v>
+        <v>195</v>
       </c>
       <c r="Y16" t="s">
-        <v>159</v>
+        <v>195</v>
       </c>
       <c r="Z16">
         <v>0</v>
@@ -3013,16 +3217,16 @@
         <v>145.7476530672221</v>
       </c>
       <c r="AN16" t="s">
-        <v>175</v>
+        <v>223</v>
       </c>
       <c r="AO16" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="AP16" t="s">
-        <v>184</v>
+        <v>242</v>
       </c>
       <c r="AQ16" t="s">
-        <v>193</v>
+        <v>251</v>
       </c>
     </row>
     <row r="17" spans="1:43">
@@ -3033,28 +3237,28 @@
         <v>47</v>
       </c>
       <c r="C17" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E17">
         <v>7201</v>
       </c>
       <c r="F17" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G17" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="H17">
         <v>48917</v>
       </c>
       <c r="I17" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="J17" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="K17">
         <v>4</v>
@@ -3075,28 +3279,28 @@
         <v>4</v>
       </c>
       <c r="Q17" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="R17" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="S17">
         <v>0</v>
       </c>
       <c r="T17" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="U17" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="V17" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="X17" t="s">
-        <v>160</v>
+        <v>196</v>
       </c>
       <c r="Y17" t="s">
-        <v>160</v>
+        <v>196</v>
       </c>
       <c r="Z17">
         <v>0</v>
@@ -3141,16 +3345,16 @@
         <v>206.02325443923</v>
       </c>
       <c r="AN17" t="s">
-        <v>176</v>
+        <v>224</v>
       </c>
       <c r="AO17" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="AP17" t="s">
-        <v>184</v>
+        <v>242</v>
       </c>
       <c r="AQ17" t="s">
-        <v>194</v>
+        <v>252</v>
       </c>
     </row>
     <row r="18" spans="1:43">
@@ -3161,28 +3365,28 @@
         <v>47</v>
       </c>
       <c r="C18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G18" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="H18">
         <v>60433</v>
       </c>
       <c r="I18" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="J18" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="K18">
         <v>9</v>
@@ -3203,25 +3407,25 @@
         <v>9</v>
       </c>
       <c r="Q18" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="R18" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="S18">
         <v>0</v>
       </c>
       <c r="U18" t="s">
-        <v>136</v>
+        <v>161</v>
       </c>
       <c r="V18" t="s">
-        <v>136</v>
+        <v>161</v>
       </c>
       <c r="X18" t="s">
-        <v>161</v>
+        <v>197</v>
       </c>
       <c r="Y18" t="s">
-        <v>161</v>
+        <v>197</v>
       </c>
       <c r="Z18">
         <v>0</v>
@@ -3266,16 +3470,16 @@
         <v>103.3471494959643</v>
       </c>
       <c r="AN18" t="s">
-        <v>176</v>
+        <v>224</v>
       </c>
       <c r="AO18" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="AP18" t="s">
-        <v>185</v>
+        <v>243</v>
       </c>
       <c r="AQ18" t="s">
-        <v>194</v>
+        <v>252</v>
       </c>
     </row>
     <row r="19" spans="1:43">
@@ -3286,28 +3490,28 @@
         <v>47</v>
       </c>
       <c r="C19" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D19" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E19">
         <v>7201</v>
       </c>
       <c r="F19" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G19" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="H19">
         <v>46809</v>
       </c>
       <c r="I19" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="J19" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="K19">
         <v>10</v>
@@ -3328,28 +3532,28 @@
         <v>10</v>
       </c>
       <c r="Q19" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="R19" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="S19">
         <v>0</v>
       </c>
       <c r="T19" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="U19" t="s">
-        <v>137</v>
+        <v>162</v>
       </c>
       <c r="V19" t="s">
-        <v>137</v>
+        <v>162</v>
       </c>
       <c r="X19" t="s">
-        <v>162</v>
+        <v>198</v>
       </c>
       <c r="Y19" t="s">
-        <v>162</v>
+        <v>198</v>
       </c>
       <c r="Z19">
         <v>0</v>
@@ -3394,16 +3598,16 @@
         <v>149.4741373722906</v>
       </c>
       <c r="AN19" t="s">
-        <v>176</v>
+        <v>224</v>
       </c>
       <c r="AO19" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="AP19" t="s">
-        <v>184</v>
+        <v>242</v>
       </c>
       <c r="AQ19" t="s">
-        <v>194</v>
+        <v>252</v>
       </c>
     </row>
     <row r="20" spans="1:43">
@@ -3414,28 +3618,28 @@
         <v>47</v>
       </c>
       <c r="C20" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D20" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E20">
         <v>90220</v>
       </c>
       <c r="F20" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G20" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="H20">
         <v>89044</v>
       </c>
       <c r="I20" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="J20" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="K20">
         <v>10</v>
@@ -3456,28 +3660,28 @@
         <v>10</v>
       </c>
       <c r="Q20" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="R20" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="S20">
         <v>0</v>
       </c>
       <c r="T20" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="U20" t="s">
-        <v>138</v>
+        <v>163</v>
       </c>
       <c r="V20" t="s">
-        <v>138</v>
+        <v>163</v>
       </c>
       <c r="X20" t="s">
-        <v>163</v>
+        <v>199</v>
       </c>
       <c r="Y20" t="s">
-        <v>163</v>
+        <v>199</v>
       </c>
       <c r="Z20">
         <v>0</v>
@@ -3522,16 +3726,16 @@
         <v>157.4127301239075</v>
       </c>
       <c r="AN20" t="s">
-        <v>177</v>
+        <v>225</v>
       </c>
       <c r="AO20" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="AP20" t="s">
-        <v>184</v>
+        <v>242</v>
       </c>
       <c r="AQ20" t="s">
-        <v>195</v>
+        <v>253</v>
       </c>
     </row>
     <row r="21" spans="1:43">
@@ -3542,28 +3746,28 @@
         <v>47</v>
       </c>
       <c r="C21" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D21" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E21">
         <v>90220</v>
       </c>
       <c r="F21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G21" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H21">
         <v>85395</v>
       </c>
       <c r="I21" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="J21" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="K21">
         <v>9</v>
@@ -3584,28 +3788,28 @@
         <v>9</v>
       </c>
       <c r="Q21" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="R21" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="S21">
         <v>0</v>
       </c>
       <c r="T21" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="U21" t="s">
-        <v>139</v>
+        <v>164</v>
       </c>
       <c r="V21" t="s">
-        <v>139</v>
+        <v>164</v>
       </c>
       <c r="X21" t="s">
-        <v>164</v>
+        <v>200</v>
       </c>
       <c r="Y21" t="s">
-        <v>164</v>
+        <v>200</v>
       </c>
       <c r="Z21">
         <v>0</v>
@@ -3650,16 +3854,16 @@
         <v>140.0155342782847</v>
       </c>
       <c r="AN21" t="s">
-        <v>178</v>
+        <v>226</v>
       </c>
       <c r="AO21" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AP21" t="s">
-        <v>184</v>
+        <v>242</v>
       </c>
       <c r="AQ21" t="s">
-        <v>196</v>
+        <v>254</v>
       </c>
     </row>
     <row r="22" spans="1:43">
@@ -3670,28 +3874,28 @@
         <v>47</v>
       </c>
       <c r="C22" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D22" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G22" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="H22">
         <v>60433</v>
       </c>
       <c r="I22" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="J22" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="K22">
         <v>9</v>
@@ -3712,25 +3916,25 @@
         <v>9</v>
       </c>
       <c r="Q22" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="R22" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="S22">
         <v>0</v>
       </c>
       <c r="U22" t="s">
-        <v>136</v>
+        <v>161</v>
       </c>
       <c r="V22" t="s">
-        <v>136</v>
+        <v>161</v>
       </c>
       <c r="X22" t="s">
-        <v>161</v>
+        <v>197</v>
       </c>
       <c r="Y22" t="s">
-        <v>161</v>
+        <v>197</v>
       </c>
       <c r="Z22">
         <v>0</v>
@@ -3775,16 +3979,16 @@
         <v>103.3464825772518</v>
       </c>
       <c r="AN22" t="s">
-        <v>179</v>
+        <v>227</v>
       </c>
       <c r="AO22" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="AP22" t="s">
-        <v>185</v>
+        <v>243</v>
       </c>
       <c r="AQ22" t="s">
-        <v>197</v>
+        <v>255</v>
       </c>
     </row>
     <row r="23" spans="1:43">
@@ -3795,28 +3999,28 @@
         <v>45</v>
       </c>
       <c r="C23" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D23" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E23">
         <v>7201</v>
       </c>
       <c r="F23" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G23" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="H23">
         <v>15672</v>
       </c>
       <c r="I23" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="J23" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="K23">
         <v>5</v>
@@ -3837,28 +4041,28 @@
         <v>1</v>
       </c>
       <c r="Q23" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="R23" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="S23">
         <v>0</v>
       </c>
       <c r="T23" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="U23" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="V23" t="s">
-        <v>144</v>
+        <v>180</v>
       </c>
       <c r="X23" t="s">
-        <v>165</v>
+        <v>201</v>
       </c>
       <c r="Y23" t="s">
-        <v>165</v>
+        <v>201</v>
       </c>
       <c r="Z23">
         <v>0</v>
@@ -3903,16 +4107,16 @@
         <v>413.3598484848485</v>
       </c>
       <c r="AN23" t="s">
-        <v>180</v>
+        <v>228</v>
       </c>
       <c r="AO23" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="AP23" t="s">
-        <v>184</v>
+        <v>242</v>
       </c>
       <c r="AQ23" t="s">
-        <v>198</v>
+        <v>256</v>
       </c>
     </row>
     <row r="24" spans="1:43">
@@ -3920,73 +4124,73 @@
         <v>43</v>
       </c>
       <c r="B24" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C24" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D24" t="s">
         <v>50</v>
       </c>
       <c r="E24">
-        <v>7201</v>
+        <v>29483</v>
       </c>
       <c r="F24" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="G24" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H24">
-        <v>15672</v>
+        <v>29330</v>
       </c>
       <c r="I24" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="J24" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="K24">
+        <v>291</v>
+      </c>
+      <c r="L24">
+        <v>2901.27</v>
+      </c>
+      <c r="M24">
+        <v>2901.27</v>
+      </c>
+      <c r="N24">
+        <v>7.294</v>
+      </c>
+      <c r="O24">
+        <v>7.29381</v>
+      </c>
+      <c r="P24">
         <v>5</v>
       </c>
-      <c r="L24">
-        <v>110</v>
-      </c>
-      <c r="M24">
-        <v>440</v>
-      </c>
-      <c r="N24">
-        <v>1</v>
-      </c>
-      <c r="O24">
-        <v>1.575</v>
-      </c>
-      <c r="P24">
-        <v>1</v>
-      </c>
       <c r="Q24" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="R24" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="S24">
         <v>0</v>
       </c>
       <c r="T24" t="s">
-        <v>117</v>
+        <v>134</v>
       </c>
       <c r="U24" t="s">
-        <v>140</v>
+        <v>166</v>
       </c>
       <c r="V24" t="s">
-        <v>144</v>
+        <v>166</v>
       </c>
       <c r="X24" t="s">
-        <v>165</v>
+        <v>202</v>
       </c>
       <c r="Y24" t="s">
-        <v>165</v>
+        <v>202</v>
       </c>
       <c r="Z24">
         <v>0</v>
@@ -3995,13 +4199,13 @@
         <v>0</v>
       </c>
       <c r="AB24">
-        <v>71.35984848484848</v>
+        <v>78.1198347107438</v>
       </c>
       <c r="AC24">
-        <v>121.3598484848485</v>
+        <v>84.97478398411918</v>
       </c>
       <c r="AD24">
-        <v>71.35984848484848</v>
+        <v>569.8060743801652</v>
       </c>
       <c r="AE24">
         <v>50</v>
@@ -4016,31 +4220,31 @@
         <v>50</v>
       </c>
       <c r="AI24">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AJ24">
-        <v>18</v>
+        <v>100</v>
       </c>
       <c r="AK24">
-        <v>121</v>
+        <v>401.77</v>
       </c>
       <c r="AL24">
-        <v>413.3598484848485</v>
+        <v>1274.576074380165</v>
       </c>
       <c r="AM24">
-        <v>413.3598484848485</v>
+        <v>174.7430866986791</v>
       </c>
       <c r="AN24" t="s">
-        <v>181</v>
+        <v>229</v>
       </c>
       <c r="AO24" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="AP24" t="s">
-        <v>184</v>
+        <v>242</v>
       </c>
       <c r="AQ24" t="s">
-        <v>199</v>
+        <v>257</v>
       </c>
     </row>
     <row r="25" spans="1:43">
@@ -4051,70 +4255,70 @@
         <v>47</v>
       </c>
       <c r="C25" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D25" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E25">
         <v>29483</v>
       </c>
       <c r="F25" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G25" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="H25">
         <v>29330</v>
       </c>
       <c r="I25" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="J25" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="K25">
-        <v>291</v>
+        <v>149</v>
       </c>
       <c r="L25">
-        <v>2901.27</v>
+        <v>1527.25</v>
       </c>
       <c r="M25">
-        <v>2901.27</v>
+        <v>1527.25</v>
       </c>
       <c r="N25">
-        <v>7.294</v>
+        <v>4.261</v>
       </c>
       <c r="O25">
-        <v>7.29381</v>
+        <v>4.26106</v>
       </c>
       <c r="P25">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q25" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="R25" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="S25">
         <v>0</v>
       </c>
       <c r="T25" t="s">
-        <v>118</v>
+        <v>135</v>
       </c>
       <c r="U25" t="s">
-        <v>141</v>
+        <v>166</v>
       </c>
       <c r="V25" t="s">
-        <v>141</v>
+        <v>166</v>
       </c>
       <c r="X25" t="s">
-        <v>166</v>
+        <v>203</v>
       </c>
       <c r="Y25" t="s">
-        <v>166</v>
+        <v>203</v>
       </c>
       <c r="Z25">
         <v>0</v>
@@ -4126,10 +4330,10 @@
         <v>78.1198347107438</v>
       </c>
       <c r="AC25">
-        <v>84.97478398411918</v>
+        <v>89.8541693739684</v>
       </c>
       <c r="AD25">
-        <v>569.8060743801652</v>
+        <v>332.8686157024794</v>
       </c>
       <c r="AE25">
         <v>50</v>
@@ -4147,28 +4351,28 @@
         <v>20</v>
       </c>
       <c r="AJ25">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="AK25">
-        <v>401.77</v>
+        <v>299.88</v>
       </c>
       <c r="AL25">
-        <v>1274.576074380165</v>
+        <v>895.7486157024794</v>
       </c>
       <c r="AM25">
-        <v>174.7430866986791</v>
+        <v>210.220280615461</v>
       </c>
       <c r="AN25" t="s">
-        <v>182</v>
+        <v>230</v>
       </c>
       <c r="AO25" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="AP25" t="s">
-        <v>184</v>
+        <v>242</v>
       </c>
       <c r="AQ25" t="s">
-        <v>200</v>
+        <v>258</v>
       </c>
     </row>
     <row r="26" spans="1:43">
@@ -4176,73 +4380,73 @@
         <v>43</v>
       </c>
       <c r="B26" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C26" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D26" t="s">
-        <v>49</v>
-      </c>
-      <c r="E26" t="s">
-        <v>54</v>
+        <v>51</v>
+      </c>
+      <c r="E26">
+        <v>7201</v>
       </c>
       <c r="F26" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="G26" t="s">
-        <v>84</v>
-      </c>
-      <c r="H26" t="s">
-        <v>91</v>
+        <v>98</v>
+      </c>
+      <c r="H26">
+        <v>15672</v>
       </c>
       <c r="I26" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="J26" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="K26">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="L26">
-        <v>1527.25</v>
+        <v>110</v>
       </c>
       <c r="M26">
-        <v>1527.25</v>
+        <v>440</v>
       </c>
       <c r="N26">
-        <v>4.261</v>
+        <v>1</v>
       </c>
       <c r="O26">
-        <v>4.26106</v>
+        <v>1.575</v>
       </c>
       <c r="P26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q26" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="R26" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="S26">
         <v>0</v>
       </c>
       <c r="T26" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="U26" t="s">
-        <v>141</v>
+        <v>165</v>
       </c>
       <c r="V26" t="s">
-        <v>141</v>
+        <v>180</v>
       </c>
       <c r="X26" t="s">
-        <v>167</v>
+        <v>201</v>
       </c>
       <c r="Y26" t="s">
-        <v>167</v>
+        <v>201</v>
       </c>
       <c r="Z26">
         <v>0</v>
@@ -4251,13 +4455,13 @@
         <v>0</v>
       </c>
       <c r="AB26">
-        <v>78.1198347107438</v>
+        <v>71.35984848484848</v>
       </c>
       <c r="AC26">
-        <v>89.8541693739684</v>
+        <v>121.3598484848485</v>
       </c>
       <c r="AD26">
-        <v>332.8686157024794</v>
+        <v>71.35984848484848</v>
       </c>
       <c r="AE26">
         <v>50</v>
@@ -4272,31 +4476,1686 @@
         <v>50</v>
       </c>
       <c r="AI26">
+        <v>18</v>
+      </c>
+      <c r="AJ26">
+        <v>18</v>
+      </c>
+      <c r="AK26">
+        <v>121</v>
+      </c>
+      <c r="AL26">
+        <v>413.3598484848485</v>
+      </c>
+      <c r="AM26">
+        <v>413.3598484848485</v>
+      </c>
+      <c r="AN26" t="s">
+        <v>231</v>
+      </c>
+      <c r="AO26" t="s">
+        <v>98</v>
+      </c>
+      <c r="AP26" t="s">
+        <v>242</v>
+      </c>
+      <c r="AQ26" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="27" spans="1:43">
+      <c r="A27" t="s">
+        <v>43</v>
+      </c>
+      <c r="B27" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27" t="s">
+        <v>49</v>
+      </c>
+      <c r="D27" t="s">
+        <v>50</v>
+      </c>
+      <c r="E27">
+        <v>29483</v>
+      </c>
+      <c r="F27" t="s">
+        <v>67</v>
+      </c>
+      <c r="G27" t="s">
+        <v>92</v>
+      </c>
+      <c r="H27">
+        <v>29330</v>
+      </c>
+      <c r="I27" t="s">
+        <v>107</v>
+      </c>
+      <c r="J27" t="s">
+        <v>108</v>
+      </c>
+      <c r="K27">
+        <v>530</v>
+      </c>
+      <c r="L27">
+        <v>5432.5</v>
+      </c>
+      <c r="M27">
+        <v>5432.5</v>
+      </c>
+      <c r="N27">
+        <v>15.179</v>
+      </c>
+      <c r="O27">
+        <v>15.1792</v>
+      </c>
+      <c r="P27">
+        <v>9</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>115</v>
+      </c>
+      <c r="R27" t="s">
+        <v>116</v>
+      </c>
+      <c r="S27">
+        <v>0</v>
+      </c>
+      <c r="T27" t="s">
+        <v>136</v>
+      </c>
+      <c r="U27" t="s">
+        <v>167</v>
+      </c>
+      <c r="V27" t="s">
+        <v>167</v>
+      </c>
+      <c r="X27" t="s">
+        <v>204</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>204</v>
+      </c>
+      <c r="Z27">
+        <v>0</v>
+      </c>
+      <c r="AA27">
+        <v>0</v>
+      </c>
+      <c r="AB27">
+        <v>78.1198347107438</v>
+      </c>
+      <c r="AC27">
+        <v>81.4138593500481</v>
+      </c>
+      <c r="AD27">
+        <v>1185.78097107438</v>
+      </c>
+      <c r="AE27">
+        <v>50</v>
+      </c>
+      <c r="AF27">
+        <v>53</v>
+      </c>
+      <c r="AG27">
+        <v>100</v>
+      </c>
+      <c r="AH27">
+        <v>50</v>
+      </c>
+      <c r="AI27">
         <v>20</v>
       </c>
-      <c r="AJ26">
+      <c r="AJ27">
+        <v>180</v>
+      </c>
+      <c r="AK27">
+        <v>643.77</v>
+      </c>
+      <c r="AL27">
+        <v>2212.55097107438</v>
+      </c>
+      <c r="AM27">
+        <v>145.7639482887134</v>
+      </c>
+      <c r="AN27" t="s">
+        <v>232</v>
+      </c>
+      <c r="AO27" t="s">
+        <v>92</v>
+      </c>
+      <c r="AP27" t="s">
+        <v>242</v>
+      </c>
+      <c r="AQ27" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="28" spans="1:43">
+      <c r="A28" t="s">
+        <v>43</v>
+      </c>
+      <c r="B28" t="s">
+        <v>45</v>
+      </c>
+      <c r="C28" t="s">
+        <v>49</v>
+      </c>
+      <c r="D28" t="s">
+        <v>51</v>
+      </c>
+      <c r="E28">
+        <v>7201</v>
+      </c>
+      <c r="F28" t="s">
+        <v>73</v>
+      </c>
+      <c r="G28" t="s">
+        <v>98</v>
+      </c>
+      <c r="H28">
+        <v>15672</v>
+      </c>
+      <c r="I28" t="s">
+        <v>107</v>
+      </c>
+      <c r="J28" t="s">
+        <v>108</v>
+      </c>
+      <c r="K28">
+        <v>30</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>570</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>1.68</v>
+      </c>
+      <c r="P28">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>115</v>
+      </c>
+      <c r="R28" t="s">
+        <v>116</v>
+      </c>
+      <c r="S28">
+        <v>0</v>
+      </c>
+      <c r="U28" t="s">
+        <v>165</v>
+      </c>
+      <c r="V28" t="s">
+        <v>180</v>
+      </c>
+      <c r="X28" t="s">
+        <v>205</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>205</v>
+      </c>
+      <c r="Z28">
+        <v>0</v>
+      </c>
+      <c r="AA28">
+        <v>0</v>
+      </c>
+      <c r="AB28">
+        <v>71.35984848484848</v>
+      </c>
+      <c r="AC28">
+        <v>121.3598484848485</v>
+      </c>
+      <c r="AD28">
+        <v>71.35984848484848</v>
+      </c>
+      <c r="AE28">
+        <v>50</v>
+      </c>
+      <c r="AF28">
+        <v>53</v>
+      </c>
+      <c r="AG28">
+        <v>100</v>
+      </c>
+      <c r="AH28">
+        <v>50</v>
+      </c>
+      <c r="AI28">
+        <v>18</v>
+      </c>
+      <c r="AJ28">
+        <v>0</v>
+      </c>
+      <c r="AK28">
+        <v>877</v>
+      </c>
+      <c r="AL28">
+        <v>1151.359848484848</v>
+      </c>
+      <c r="AM28">
+        <v>1151.359848484848</v>
+      </c>
+      <c r="AN28" t="s">
+        <v>233</v>
+      </c>
+      <c r="AO28" t="s">
+        <v>98</v>
+      </c>
+      <c r="AP28" t="s">
+        <v>242</v>
+      </c>
+      <c r="AQ28" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="29" spans="1:43">
+      <c r="A29" t="s">
+        <v>44</v>
+      </c>
+      <c r="B29" t="s">
+        <v>48</v>
+      </c>
+      <c r="C29" t="s">
+        <v>49</v>
+      </c>
+      <c r="D29" t="s">
+        <v>52</v>
+      </c>
+      <c r="E29">
+        <v>90220</v>
+      </c>
+      <c r="F29" t="s">
         <v>60</v>
       </c>
-      <c r="AK26">
-        <v>299.88</v>
-      </c>
-      <c r="AL26">
-        <v>895.7486157024794</v>
-      </c>
-      <c r="AM26">
-        <v>210.220280615461</v>
-      </c>
-      <c r="AN26" t="s">
-        <v>183</v>
-      </c>
-      <c r="AO26" t="s">
+      <c r="G29" t="s">
+        <v>85</v>
+      </c>
+      <c r="H29">
+        <v>85043</v>
+      </c>
+      <c r="I29" t="s">
+        <v>107</v>
+      </c>
+      <c r="J29" t="s">
+        <v>110</v>
+      </c>
+      <c r="K29">
+        <v>156</v>
+      </c>
+      <c r="L29">
+        <v>2012.088</v>
+      </c>
+      <c r="M29">
+        <v>5701.175999999999</v>
+      </c>
+      <c r="N29">
+        <v>5.31</v>
+      </c>
+      <c r="O29">
+        <v>15.04568</v>
+      </c>
+      <c r="P29">
+        <v>3</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>115</v>
+      </c>
+      <c r="R29" t="s">
+        <v>116</v>
+      </c>
+      <c r="S29">
+        <v>0</v>
+      </c>
+      <c r="T29" t="s">
+        <v>137</v>
+      </c>
+      <c r="U29" t="s">
+        <v>168</v>
+      </c>
+      <c r="V29" t="s">
+        <v>168</v>
+      </c>
+      <c r="X29" t="s">
+        <v>206</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>206</v>
+      </c>
+      <c r="Z29">
+        <v>10000</v>
+      </c>
+      <c r="AA29">
+        <v>113.6363636363636</v>
+      </c>
+      <c r="AB29">
+        <v>81.02892561983471</v>
+      </c>
+      <c r="AC29">
+        <v>90.44512147670854</v>
+      </c>
+      <c r="AD29">
+        <v>430.2635950413223</v>
+      </c>
+      <c r="AE29">
+        <v>50</v>
+      </c>
+      <c r="AF29">
+        <v>53</v>
+      </c>
+      <c r="AG29">
+        <v>100</v>
+      </c>
+      <c r="AH29">
+        <v>50</v>
+      </c>
+      <c r="AI29">
+        <v>20</v>
+      </c>
+      <c r="AJ29">
+        <v>60</v>
+      </c>
+      <c r="AK29">
+        <v>463.08</v>
+      </c>
+      <c r="AL29">
+        <v>1269.979958677686</v>
+      </c>
+      <c r="AM29">
+        <v>239.1676005042723</v>
+      </c>
+      <c r="AN29" t="s">
+        <v>234</v>
+      </c>
+      <c r="AO29" t="s">
+        <v>85</v>
+      </c>
+      <c r="AP29" t="s">
+        <v>242</v>
+      </c>
+      <c r="AQ29" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="30" spans="1:43">
+      <c r="A30" t="s">
+        <v>44</v>
+      </c>
+      <c r="B30" t="s">
+        <v>48</v>
+      </c>
+      <c r="C30" t="s">
+        <v>49</v>
+      </c>
+      <c r="D30" t="s">
+        <v>52</v>
+      </c>
+      <c r="E30">
+        <v>90220</v>
+      </c>
+      <c r="F30" t="s">
+        <v>59</v>
+      </c>
+      <c r="G30" t="s">
         <v>84</v>
       </c>
-      <c r="AP26" t="s">
-        <v>184</v>
-      </c>
-      <c r="AQ26" t="s">
-        <v>201</v>
+      <c r="H30">
+        <v>85395</v>
+      </c>
+      <c r="I30" t="s">
+        <v>107</v>
+      </c>
+      <c r="J30" t="s">
+        <v>110</v>
+      </c>
+      <c r="K30">
+        <v>156</v>
+      </c>
+      <c r="L30">
+        <v>2012.088</v>
+      </c>
+      <c r="M30">
+        <v>5701.175999999999</v>
+      </c>
+      <c r="N30">
+        <v>5.31</v>
+      </c>
+      <c r="O30">
+        <v>15.04568</v>
+      </c>
+      <c r="P30">
+        <v>3</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>115</v>
+      </c>
+      <c r="R30" t="s">
+        <v>116</v>
+      </c>
+      <c r="S30">
+        <v>0</v>
+      </c>
+      <c r="T30" t="s">
+        <v>138</v>
+      </c>
+      <c r="U30" t="s">
+        <v>169</v>
+      </c>
+      <c r="V30" t="s">
+        <v>169</v>
+      </c>
+      <c r="X30" t="s">
+        <v>207</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>207</v>
+      </c>
+      <c r="Z30">
+        <v>10000</v>
+      </c>
+      <c r="AA30">
+        <v>113.6363636363636</v>
+      </c>
+      <c r="AB30">
+        <v>81.02892561983471</v>
+      </c>
+      <c r="AC30">
+        <v>90.44512147670854</v>
+      </c>
+      <c r="AD30">
+        <v>430.2635950413223</v>
+      </c>
+      <c r="AE30">
+        <v>50</v>
+      </c>
+      <c r="AF30">
+        <v>53</v>
+      </c>
+      <c r="AG30">
+        <v>100</v>
+      </c>
+      <c r="AH30">
+        <v>50</v>
+      </c>
+      <c r="AI30">
+        <v>20</v>
+      </c>
+      <c r="AJ30">
+        <v>60</v>
+      </c>
+      <c r="AK30">
+        <v>469.74</v>
+      </c>
+      <c r="AL30">
+        <v>1276.639958677686</v>
+      </c>
+      <c r="AM30">
+        <v>240.421837792408</v>
+      </c>
+      <c r="AN30" t="s">
+        <v>234</v>
+      </c>
+      <c r="AO30" t="s">
+        <v>84</v>
+      </c>
+      <c r="AP30" t="s">
+        <v>242</v>
+      </c>
+      <c r="AQ30" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="31" spans="1:43">
+      <c r="A31" t="s">
+        <v>44</v>
+      </c>
+      <c r="B31" t="s">
+        <v>48</v>
+      </c>
+      <c r="C31" t="s">
+        <v>49</v>
+      </c>
+      <c r="D31" t="s">
+        <v>52</v>
+      </c>
+      <c r="E31">
+        <v>90220</v>
+      </c>
+      <c r="F31" t="s">
+        <v>58</v>
+      </c>
+      <c r="G31" t="s">
+        <v>83</v>
+      </c>
+      <c r="H31">
+        <v>75241</v>
+      </c>
+      <c r="I31" t="s">
+        <v>108</v>
+      </c>
+      <c r="J31" t="s">
+        <v>109</v>
+      </c>
+      <c r="K31">
+        <v>130</v>
+      </c>
+      <c r="L31">
+        <v>1677</v>
+      </c>
+      <c r="M31">
+        <v>5701.175999999999</v>
+      </c>
+      <c r="N31">
+        <v>4.425</v>
+      </c>
+      <c r="O31">
+        <v>15.04568</v>
+      </c>
+      <c r="P31">
+        <v>3</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>115</v>
+      </c>
+      <c r="R31" t="s">
+        <v>116</v>
+      </c>
+      <c r="S31">
+        <v>0</v>
+      </c>
+      <c r="T31" t="s">
+        <v>139</v>
+      </c>
+      <c r="U31" t="s">
+        <v>170</v>
+      </c>
+      <c r="V31" t="s">
+        <v>170</v>
+      </c>
+      <c r="X31" t="s">
+        <v>208</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>208</v>
+      </c>
+      <c r="Z31">
+        <v>10000</v>
+      </c>
+      <c r="AA31">
+        <v>113.6363636363636</v>
+      </c>
+      <c r="AB31">
+        <v>81.02892561983471</v>
+      </c>
+      <c r="AC31">
+        <v>92.3283606480833</v>
+      </c>
+      <c r="AD31">
+        <v>358.5529958677686</v>
+      </c>
+      <c r="AE31">
+        <v>50</v>
+      </c>
+      <c r="AF31">
+        <v>53</v>
+      </c>
+      <c r="AG31">
+        <v>100</v>
+      </c>
+      <c r="AH31">
+        <v>50</v>
+      </c>
+      <c r="AI31">
+        <v>20</v>
+      </c>
+      <c r="AJ31">
+        <v>60</v>
+      </c>
+      <c r="AK31">
+        <v>824.79</v>
+      </c>
+      <c r="AL31">
+        <v>1559.979359504132</v>
+      </c>
+      <c r="AM31">
+        <v>352.5377083625157</v>
+      </c>
+      <c r="AN31" t="s">
+        <v>234</v>
+      </c>
+      <c r="AO31" t="s">
+        <v>83</v>
+      </c>
+      <c r="AP31" t="s">
+        <v>242</v>
+      </c>
+      <c r="AQ31" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="32" spans="1:43">
+      <c r="A32" t="s">
+        <v>44</v>
+      </c>
+      <c r="B32" t="s">
+        <v>48</v>
+      </c>
+      <c r="C32" t="s">
+        <v>49</v>
+      </c>
+      <c r="D32" t="s">
+        <v>51</v>
+      </c>
+      <c r="E32">
+        <v>7201</v>
+      </c>
+      <c r="F32" t="s">
+        <v>63</v>
+      </c>
+      <c r="G32" t="s">
+        <v>88</v>
+      </c>
+      <c r="H32">
+        <v>18202</v>
+      </c>
+      <c r="I32" t="s">
+        <v>107</v>
+      </c>
+      <c r="J32" t="s">
+        <v>111</v>
+      </c>
+      <c r="K32">
+        <v>79</v>
+      </c>
+      <c r="L32">
+        <v>1019.021</v>
+      </c>
+      <c r="M32">
+        <v>3057.063</v>
+      </c>
+      <c r="N32">
+        <v>2.689</v>
+      </c>
+      <c r="O32">
+        <v>8.06748</v>
+      </c>
+      <c r="P32">
+        <v>2</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>115</v>
+      </c>
+      <c r="R32" t="s">
+        <v>116</v>
+      </c>
+      <c r="S32">
+        <v>0</v>
+      </c>
+      <c r="T32" t="s">
+        <v>124</v>
+      </c>
+      <c r="U32" t="s">
+        <v>152</v>
+      </c>
+      <c r="V32" t="s">
+        <v>179</v>
+      </c>
+      <c r="X32" t="s">
+        <v>188</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>188</v>
+      </c>
+      <c r="Z32">
+        <v>10000</v>
+      </c>
+      <c r="AA32">
+        <v>113.6363636363636</v>
+      </c>
+      <c r="AB32">
+        <v>71.35984848484848</v>
+      </c>
+      <c r="AC32">
+        <v>89.9541214487756</v>
+      </c>
+      <c r="AD32">
+        <v>191.8866325757576</v>
+      </c>
+      <c r="AE32">
+        <v>50</v>
+      </c>
+      <c r="AF32">
+        <v>53</v>
+      </c>
+      <c r="AG32">
+        <v>100</v>
+      </c>
+      <c r="AH32">
+        <v>50</v>
+      </c>
+      <c r="AI32">
+        <v>18</v>
+      </c>
+      <c r="AJ32">
+        <v>36</v>
+      </c>
+      <c r="AK32">
+        <v>180</v>
+      </c>
+      <c r="AL32">
+        <v>724.5229962121213</v>
+      </c>
+      <c r="AM32">
+        <v>269.4395672042102</v>
+      </c>
+      <c r="AN32" t="s">
+        <v>235</v>
+      </c>
+      <c r="AO32" t="s">
+        <v>88</v>
+      </c>
+      <c r="AP32" t="s">
+        <v>242</v>
+      </c>
+      <c r="AQ32" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="33" spans="1:43">
+      <c r="A33" t="s">
+        <v>44</v>
+      </c>
+      <c r="B33" t="s">
+        <v>48</v>
+      </c>
+      <c r="C33" t="s">
+        <v>49</v>
+      </c>
+      <c r="D33" t="s">
+        <v>51</v>
+      </c>
+      <c r="E33">
+        <v>7201</v>
+      </c>
+      <c r="F33" t="s">
+        <v>74</v>
+      </c>
+      <c r="G33" t="s">
+        <v>99</v>
+      </c>
+      <c r="H33">
+        <v>22406</v>
+      </c>
+      <c r="I33" t="s">
+        <v>107</v>
+      </c>
+      <c r="J33" t="s">
+        <v>114</v>
+      </c>
+      <c r="K33">
+        <v>158</v>
+      </c>
+      <c r="L33">
+        <v>2038.042</v>
+      </c>
+      <c r="M33">
+        <v>3057.063</v>
+      </c>
+      <c r="N33">
+        <v>5.378</v>
+      </c>
+      <c r="O33">
+        <v>8.06748</v>
+      </c>
+      <c r="P33">
+        <v>3</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>115</v>
+      </c>
+      <c r="R33" t="s">
+        <v>116</v>
+      </c>
+      <c r="S33">
+        <v>0</v>
+      </c>
+      <c r="T33" t="s">
+        <v>140</v>
+      </c>
+      <c r="U33" t="s">
+        <v>171</v>
+      </c>
+      <c r="V33" t="s">
+        <v>171</v>
+      </c>
+      <c r="X33" t="s">
+        <v>209</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>209</v>
+      </c>
+      <c r="Z33">
+        <v>10000</v>
+      </c>
+      <c r="AA33">
+        <v>113.6363636363636</v>
+      </c>
+      <c r="AB33">
+        <v>71.35984848484848</v>
+      </c>
+      <c r="AC33">
+        <v>80.65698496681205</v>
+      </c>
+      <c r="AD33">
+        <v>383.7732651515151</v>
+      </c>
+      <c r="AE33">
+        <v>50</v>
+      </c>
+      <c r="AF33">
+        <v>53</v>
+      </c>
+      <c r="AG33">
+        <v>100</v>
+      </c>
+      <c r="AH33">
+        <v>50</v>
+      </c>
+      <c r="AI33">
+        <v>18</v>
+      </c>
+      <c r="AJ33">
+        <v>54</v>
+      </c>
+      <c r="AK33">
+        <v>458.27</v>
+      </c>
+      <c r="AL33">
+        <v>1212.679628787879</v>
+      </c>
+      <c r="AM33">
+        <v>225.4889603547562</v>
+      </c>
+      <c r="AN33" t="s">
+        <v>235</v>
+      </c>
+      <c r="AO33" t="s">
+        <v>99</v>
+      </c>
+      <c r="AP33" t="s">
+        <v>242</v>
+      </c>
+      <c r="AQ33" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="34" spans="1:43">
+      <c r="A34" t="s">
+        <v>43</v>
+      </c>
+      <c r="B34" t="s">
+        <v>45</v>
+      </c>
+      <c r="C34" t="s">
+        <v>49</v>
+      </c>
+      <c r="D34" t="s">
+        <v>52</v>
+      </c>
+      <c r="E34">
+        <v>90220</v>
+      </c>
+      <c r="F34" t="s">
+        <v>75</v>
+      </c>
+      <c r="G34" t="s">
+        <v>100</v>
+      </c>
+      <c r="H34">
+        <v>91752</v>
+      </c>
+      <c r="I34" t="s">
+        <v>107</v>
+      </c>
+      <c r="J34" t="s">
+        <v>110</v>
+      </c>
+      <c r="K34">
+        <v>950</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <v>4750</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
+      <c r="O34">
+        <v>29.754</v>
+      </c>
+      <c r="P34">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>115</v>
+      </c>
+      <c r="R34" t="s">
+        <v>116</v>
+      </c>
+      <c r="S34">
+        <v>0</v>
+      </c>
+      <c r="U34" t="s">
+        <v>172</v>
+      </c>
+      <c r="V34" t="s">
+        <v>172</v>
+      </c>
+      <c r="X34" t="s">
+        <v>210</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>210</v>
+      </c>
+      <c r="Z34">
+        <v>0</v>
+      </c>
+      <c r="AA34">
+        <v>0</v>
+      </c>
+      <c r="AB34">
+        <v>81.02892561983471</v>
+      </c>
+      <c r="AC34">
+        <v>131.0289256198347</v>
+      </c>
+      <c r="AD34">
+        <v>81.02892561983471</v>
+      </c>
+      <c r="AE34">
+        <v>50</v>
+      </c>
+      <c r="AF34">
+        <v>53</v>
+      </c>
+      <c r="AG34">
+        <v>100</v>
+      </c>
+      <c r="AH34">
+        <v>50</v>
+      </c>
+      <c r="AI34">
+        <v>20</v>
+      </c>
+      <c r="AJ34">
+        <v>0</v>
+      </c>
+      <c r="AK34">
+        <v>822.375</v>
+      </c>
+      <c r="AL34">
+        <v>1106.403925619835</v>
+      </c>
+      <c r="AM34">
+        <v>1106.403925619835</v>
+      </c>
+      <c r="AN34" t="s">
+        <v>236</v>
+      </c>
+      <c r="AO34" t="s">
+        <v>100</v>
+      </c>
+      <c r="AP34" t="s">
+        <v>242</v>
+      </c>
+      <c r="AQ34" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="35" spans="1:43">
+      <c r="A35" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35" t="s">
+        <v>47</v>
+      </c>
+      <c r="C35" t="s">
+        <v>49</v>
+      </c>
+      <c r="D35" t="s">
+        <v>51</v>
+      </c>
+      <c r="E35">
+        <v>7201</v>
+      </c>
+      <c r="F35" t="s">
+        <v>76</v>
+      </c>
+      <c r="G35" t="s">
+        <v>101</v>
+      </c>
+      <c r="H35">
+        <v>21740</v>
+      </c>
+      <c r="I35" t="s">
+        <v>107</v>
+      </c>
+      <c r="J35" t="s">
+        <v>108</v>
+      </c>
+      <c r="K35">
+        <v>51</v>
+      </c>
+      <c r="L35">
+        <v>1530</v>
+      </c>
+      <c r="M35">
+        <v>1530</v>
+      </c>
+      <c r="N35">
+        <v>7.405</v>
+      </c>
+      <c r="O35">
+        <v>7.4052</v>
+      </c>
+      <c r="P35">
+        <v>5</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>115</v>
+      </c>
+      <c r="R35" t="s">
+        <v>116</v>
+      </c>
+      <c r="S35">
+        <v>0</v>
+      </c>
+      <c r="T35" t="s">
+        <v>141</v>
+      </c>
+      <c r="U35" t="s">
+        <v>173</v>
+      </c>
+      <c r="V35" t="s">
+        <v>173</v>
+      </c>
+      <c r="X35" t="s">
+        <v>211</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>211</v>
+      </c>
+      <c r="Z35">
+        <v>0</v>
+      </c>
+      <c r="AA35">
+        <v>0</v>
+      </c>
+      <c r="AB35">
+        <v>71.35984848484848</v>
+      </c>
+      <c r="AC35">
+        <v>78.11204294804902</v>
+      </c>
+      <c r="AD35">
+        <v>528.4196780303031</v>
+      </c>
+      <c r="AE35">
+        <v>50</v>
+      </c>
+      <c r="AF35">
+        <v>0</v>
+      </c>
+      <c r="AG35">
+        <v>100</v>
+      </c>
+      <c r="AH35">
+        <v>50</v>
+      </c>
+      <c r="AI35">
+        <v>18</v>
+      </c>
+      <c r="AJ35">
+        <v>90</v>
+      </c>
+      <c r="AK35">
+        <v>625.1900000000001</v>
+      </c>
+      <c r="AL35">
+        <v>1393.609678030303</v>
+      </c>
+      <c r="AM35">
+        <v>188.198471037178</v>
+      </c>
+      <c r="AN35" t="s">
+        <v>237</v>
+      </c>
+      <c r="AO35" t="s">
+        <v>101</v>
+      </c>
+      <c r="AP35" t="s">
+        <v>242</v>
+      </c>
+      <c r="AQ35" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="36" spans="1:43">
+      <c r="A36" t="s">
+        <v>43</v>
+      </c>
+      <c r="B36" t="s">
+        <v>47</v>
+      </c>
+      <c r="C36" t="s">
+        <v>49</v>
+      </c>
+      <c r="D36" t="s">
+        <v>50</v>
+      </c>
+      <c r="E36">
+        <v>29483</v>
+      </c>
+      <c r="F36" t="s">
+        <v>77</v>
+      </c>
+      <c r="G36" t="s">
+        <v>102</v>
+      </c>
+      <c r="H36">
+        <v>38654</v>
+      </c>
+      <c r="I36" t="s">
+        <v>107</v>
+      </c>
+      <c r="J36" t="s">
+        <v>108</v>
+      </c>
+      <c r="K36">
+        <v>83</v>
+      </c>
+      <c r="L36">
+        <v>1374</v>
+      </c>
+      <c r="M36">
+        <v>1374</v>
+      </c>
+      <c r="N36">
+        <v>10.433</v>
+      </c>
+      <c r="O36">
+        <v>10.43301</v>
+      </c>
+      <c r="P36">
+        <v>6</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>115</v>
+      </c>
+      <c r="R36" t="s">
+        <v>116</v>
+      </c>
+      <c r="S36">
+        <v>0</v>
+      </c>
+      <c r="T36" t="s">
+        <v>142</v>
+      </c>
+      <c r="U36" t="s">
+        <v>174</v>
+      </c>
+      <c r="V36" t="s">
+        <v>174</v>
+      </c>
+      <c r="X36" t="s">
+        <v>212</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>212</v>
+      </c>
+      <c r="Z36">
+        <v>0</v>
+      </c>
+      <c r="AA36">
+        <v>0</v>
+      </c>
+      <c r="AB36">
+        <v>78.1198347107438</v>
+      </c>
+      <c r="AC36">
+        <v>82.91232009366338</v>
+      </c>
+      <c r="AD36">
+        <v>815.0242355371901</v>
+      </c>
+      <c r="AE36">
+        <v>50</v>
+      </c>
+      <c r="AF36">
+        <v>0</v>
+      </c>
+      <c r="AG36">
+        <v>100</v>
+      </c>
+      <c r="AH36">
+        <v>50</v>
+      </c>
+      <c r="AI36">
+        <v>20</v>
+      </c>
+      <c r="AJ36">
+        <v>120</v>
+      </c>
+      <c r="AK36">
+        <v>833.58</v>
+      </c>
+      <c r="AL36">
+        <v>1918.60423553719</v>
+      </c>
+      <c r="AM36">
+        <v>183.8976550883916</v>
+      </c>
+      <c r="AN36" t="s">
+        <v>238</v>
+      </c>
+      <c r="AO36" t="s">
+        <v>102</v>
+      </c>
+      <c r="AP36" t="s">
+        <v>242</v>
+      </c>
+      <c r="AQ36" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="37" spans="1:43">
+      <c r="A37" t="s">
+        <v>43</v>
+      </c>
+      <c r="B37" t="s">
+        <v>47</v>
+      </c>
+      <c r="C37" t="s">
+        <v>49</v>
+      </c>
+      <c r="D37" t="s">
+        <v>51</v>
+      </c>
+      <c r="E37">
+        <v>7201</v>
+      </c>
+      <c r="F37" t="s">
+        <v>78</v>
+      </c>
+      <c r="G37" t="s">
+        <v>103</v>
+      </c>
+      <c r="H37">
+        <v>18447</v>
+      </c>
+      <c r="I37" t="s">
+        <v>107</v>
+      </c>
+      <c r="J37" t="s">
+        <v>108</v>
+      </c>
+      <c r="K37">
+        <v>397</v>
+      </c>
+      <c r="L37">
+        <v>4970.44</v>
+      </c>
+      <c r="M37">
+        <v>4970.44</v>
+      </c>
+      <c r="N37">
+        <v>30.764</v>
+      </c>
+      <c r="O37">
+        <v>30.76353</v>
+      </c>
+      <c r="P37">
+        <v>18</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>115</v>
+      </c>
+      <c r="R37" t="s">
+        <v>116</v>
+      </c>
+      <c r="S37">
+        <v>0</v>
+      </c>
+      <c r="T37" t="s">
+        <v>143</v>
+      </c>
+      <c r="U37" t="s">
+        <v>175</v>
+      </c>
+      <c r="V37" t="s">
+        <v>175</v>
+      </c>
+      <c r="X37" t="s">
+        <v>213</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>213</v>
+      </c>
+      <c r="Z37">
+        <v>0</v>
+      </c>
+      <c r="AA37">
+        <v>0</v>
+      </c>
+      <c r="AB37">
+        <v>71.35984848484848</v>
+      </c>
+      <c r="AC37">
+        <v>72.98512478181897</v>
+      </c>
+      <c r="AD37">
+        <v>2195.314378787879</v>
+      </c>
+      <c r="AE37">
+        <v>50</v>
+      </c>
+      <c r="AF37">
+        <v>53</v>
+      </c>
+      <c r="AG37">
+        <v>100</v>
+      </c>
+      <c r="AH37">
+        <v>50</v>
+      </c>
+      <c r="AI37">
+        <v>18</v>
+      </c>
+      <c r="AJ37">
+        <v>324</v>
+      </c>
+      <c r="AK37">
+        <v>947.0699999999999</v>
+      </c>
+      <c r="AL37">
+        <v>3669.384378787879</v>
+      </c>
+      <c r="AM37">
+        <v>119.2752691063541</v>
+      </c>
+      <c r="AN37" t="s">
+        <v>239</v>
+      </c>
+      <c r="AO37" t="s">
+        <v>103</v>
+      </c>
+      <c r="AP37" t="s">
+        <v>242</v>
+      </c>
+      <c r="AQ37" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="38" spans="1:43">
+      <c r="A38" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38" t="s">
+        <v>47</v>
+      </c>
+      <c r="C38" t="s">
+        <v>49</v>
+      </c>
+      <c r="D38" t="s">
+        <v>50</v>
+      </c>
+      <c r="E38">
+        <v>29483</v>
+      </c>
+      <c r="F38" t="s">
+        <v>79</v>
+      </c>
+      <c r="G38" t="s">
+        <v>104</v>
+      </c>
+      <c r="H38">
+        <v>28134</v>
+      </c>
+      <c r="I38" t="s">
+        <v>107</v>
+      </c>
+      <c r="J38" t="s">
+        <v>108</v>
+      </c>
+      <c r="K38">
+        <v>44</v>
+      </c>
+      <c r="L38">
+        <v>1358.28</v>
+      </c>
+      <c r="M38">
+        <v>1358.28</v>
+      </c>
+      <c r="N38">
+        <v>6.359</v>
+      </c>
+      <c r="O38">
+        <v>6.359319999999999</v>
+      </c>
+      <c r="P38">
+        <v>4</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>115</v>
+      </c>
+      <c r="R38" t="s">
+        <v>116</v>
+      </c>
+      <c r="S38">
+        <v>0</v>
+      </c>
+      <c r="T38" t="s">
+        <v>144</v>
+      </c>
+      <c r="U38" t="s">
+        <v>176</v>
+      </c>
+      <c r="V38" t="s">
+        <v>176</v>
+      </c>
+      <c r="X38" t="s">
+        <v>214</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>214</v>
+      </c>
+      <c r="Z38">
+        <v>0</v>
+      </c>
+      <c r="AA38">
+        <v>0</v>
+      </c>
+      <c r="AB38">
+        <v>78.1198347107438</v>
+      </c>
+      <c r="AC38">
+        <v>85.98270623142315</v>
+      </c>
+      <c r="AD38">
+        <v>496.7640289256198</v>
+      </c>
+      <c r="AE38">
+        <v>50</v>
+      </c>
+      <c r="AF38">
+        <v>53</v>
+      </c>
+      <c r="AG38">
+        <v>100</v>
+      </c>
+      <c r="AH38">
+        <v>50</v>
+      </c>
+      <c r="AI38">
+        <v>20</v>
+      </c>
+      <c r="AJ38">
+        <v>80</v>
+      </c>
+      <c r="AK38">
+        <v>350.66</v>
+      </c>
+      <c r="AL38">
+        <v>1130.42402892562</v>
+      </c>
+      <c r="AM38">
+        <v>177.7675780666174</v>
+      </c>
+      <c r="AN38" t="s">
+        <v>240</v>
+      </c>
+      <c r="AO38" t="s">
+        <v>104</v>
+      </c>
+      <c r="AP38" t="s">
+        <v>242</v>
+      </c>
+      <c r="AQ38" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="39" spans="1:43">
+      <c r="A39" t="s">
+        <v>43</v>
+      </c>
+      <c r="B39" t="s">
+        <v>45</v>
+      </c>
+      <c r="C39" t="s">
+        <v>49</v>
+      </c>
+      <c r="D39" t="s">
+        <v>50</v>
+      </c>
+      <c r="E39" t="s">
+        <v>55</v>
+      </c>
+      <c r="F39" t="s">
+        <v>80</v>
+      </c>
+      <c r="G39" t="s">
+        <v>105</v>
+      </c>
+      <c r="H39" t="s">
+        <v>106</v>
+      </c>
+      <c r="I39" t="s">
+        <v>107</v>
+      </c>
+      <c r="J39" t="s">
+        <v>108</v>
+      </c>
+      <c r="K39">
+        <v>896</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+      <c r="M39">
+        <v>4480</v>
+      </c>
+      <c r="N39">
+        <v>1</v>
+      </c>
+      <c r="O39">
+        <v>28.06272</v>
+      </c>
+      <c r="P39">
+        <v>0</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>115</v>
+      </c>
+      <c r="R39" t="s">
+        <v>116</v>
+      </c>
+      <c r="S39">
+        <v>0</v>
+      </c>
+      <c r="U39" t="s">
+        <v>177</v>
+      </c>
+      <c r="V39" t="s">
+        <v>177</v>
+      </c>
+      <c r="X39" t="s">
+        <v>215</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>215</v>
+      </c>
+      <c r="Z39">
+        <v>0</v>
+      </c>
+      <c r="AA39">
+        <v>0</v>
+      </c>
+      <c r="AB39">
+        <v>78.1198347107438</v>
+      </c>
+      <c r="AC39">
+        <v>128.1198347107438</v>
+      </c>
+      <c r="AD39">
+        <v>78.1198347107438</v>
+      </c>
+      <c r="AE39">
+        <v>50</v>
+      </c>
+      <c r="AF39">
+        <v>53</v>
+      </c>
+      <c r="AG39">
+        <v>100</v>
+      </c>
+      <c r="AH39">
+        <v>50</v>
+      </c>
+      <c r="AI39">
+        <v>20</v>
+      </c>
+      <c r="AJ39">
+        <v>0</v>
+      </c>
+      <c r="AK39">
+        <v>1105.695</v>
+      </c>
+      <c r="AL39">
+        <v>1386.814834710744</v>
+      </c>
+      <c r="AM39">
+        <v>1386.814834710744</v>
+      </c>
+      <c r="AN39" t="s">
+        <v>241</v>
+      </c>
+      <c r="AO39" t="s">
+        <v>105</v>
+      </c>
+      <c r="AP39" t="s">
+        <v>242</v>
+      </c>
+      <c r="AQ39" t="s">
+        <v>269</v>
       </c>
     </row>
   </sheetData>

--- a/Logs/quotations.xlsx
+++ b/Logs/quotations.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="276">
   <si>
     <t>Shipment Scope</t>
   </si>
@@ -181,7 +181,7 @@
     <t>Chicago</t>
   </si>
   <si>
-    <t>29483</t>
+    <t>07201</t>
   </si>
   <si>
     <t>RDU4</t>
@@ -334,7 +334,7 @@
     <t>ATL9 30096, North Metro, Duluth, Georgia, United States</t>
   </si>
   <si>
-    <t>30096</t>
+    <t>15672</t>
   </si>
   <si>
     <t>Agraga</t>
@@ -451,6 +451,9 @@
     <t>{'Rate': 350.66, 'Carrier Name': 'Estes Express Lines', 'Service Provider': 'Ex-Freight'}</t>
   </si>
   <si>
+    <t>{'Rate': 291.0, 'Carrier Name': '', 'Service Provider': 'AmznFrgt'}</t>
+  </si>
+  <si>
     <t>{'Rate': 1358.2649999999999, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt'}</t>
   </si>
   <si>
@@ -664,6 +667,9 @@
     <t>{'Rate Type': 'FTL', 'Rate': 1105.695, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt'}</t>
   </si>
   <si>
+    <t>{'Rate Type': 'LTL', 'Rate': 291.0, 'Carrier Name': '', 'Service Provider': 'AmznFrgt'}</t>
+  </si>
+  <si>
     <t>CMM0246LCL0044</t>
   </si>
   <si>
@@ -742,6 +748,12 @@
     <t>CMM0246LCL0056</t>
   </si>
   <si>
+    <t>CMM0910LCL0002</t>
+  </si>
+  <si>
+    <t>CMM0911LCL0001</t>
+  </si>
+  <si>
     <t>Own Console</t>
   </si>
   <si>
@@ -823,7 +835,13 @@
     <t>2025-08-25 10:22:35</t>
   </si>
   <si>
-    <t>2025-08-26 05:42:04</t>
+    <t>2025-08-26 06:01:54</t>
+  </si>
+  <si>
+    <t>2025-08-28 08:59:32</t>
+  </si>
+  <si>
+    <t>2025-08-28 09:53:59</t>
   </si>
 </sst>
 </file>
@@ -1181,7 +1199,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ39"/>
+  <dimension ref="A1:AQ41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1380,16 +1398,16 @@
         <v>117</v>
       </c>
       <c r="U2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="V2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="X2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Y2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -1434,16 +1452,16 @@
         <v>174.4790364845797</v>
       </c>
       <c r="AN2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="AO2" t="s">
         <v>81</v>
       </c>
       <c r="AP2" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="AQ2" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -1508,16 +1526,16 @@
         <v>118</v>
       </c>
       <c r="U3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="V3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="X3" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Y3" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -1562,16 +1580,16 @@
         <v>188.3821611081226</v>
       </c>
       <c r="AN3" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="AO3" t="s">
         <v>82</v>
       </c>
       <c r="AP3" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="AQ3" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -1636,16 +1654,16 @@
         <v>119</v>
       </c>
       <c r="U4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="V4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="X4" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Y4" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -1690,16 +1708,16 @@
         <v>198.5737694455844</v>
       </c>
       <c r="AN4" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="AO4" t="s">
         <v>83</v>
       </c>
       <c r="AP4" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="AQ4" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
     </row>
     <row r="5" spans="1:43">
@@ -1764,16 +1782,16 @@
         <v>120</v>
       </c>
       <c r="U5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="V5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="X5" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Y5" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Z5">
         <v>0</v>
@@ -1818,16 +1836,16 @@
         <v>151.7595856378415</v>
       </c>
       <c r="AN5" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="AO5" t="s">
         <v>84</v>
       </c>
       <c r="AP5" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="AQ5" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
     </row>
     <row r="6" spans="1:43">
@@ -1892,16 +1910,16 @@
         <v>121</v>
       </c>
       <c r="U6" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="V6" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="X6" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Y6" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Z6">
         <v>0</v>
@@ -1946,16 +1964,16 @@
         <v>164.8459987905664</v>
       </c>
       <c r="AN6" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="AO6" t="s">
         <v>85</v>
       </c>
       <c r="AP6" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="AQ6" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
     </row>
     <row r="7" spans="1:43">
@@ -2020,16 +2038,16 @@
         <v>122</v>
       </c>
       <c r="U7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="V7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="X7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Y7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Z7">
         <v>10000</v>
@@ -2074,16 +2092,16 @@
         <v>719.1061983471075</v>
       </c>
       <c r="AN7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="AO7" t="s">
         <v>86</v>
       </c>
       <c r="AP7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="AQ7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="8" spans="1:43">
@@ -2148,16 +2166,16 @@
         <v>123</v>
       </c>
       <c r="U8" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="V8" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="X8" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Y8" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Z8">
         <v>10000</v>
@@ -2202,16 +2220,16 @@
         <v>502.9962121212121</v>
       </c>
       <c r="AN8" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="AO8" t="s">
         <v>87</v>
       </c>
       <c r="AP8" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="AQ8" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="9" spans="1:43">
@@ -2276,16 +2294,16 @@
         <v>124</v>
       </c>
       <c r="U9" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="V9" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="X9" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Y9" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Z9">
         <v>0</v>
@@ -2330,16 +2348,16 @@
         <v>257.1691611234294</v>
       </c>
       <c r="AN9" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="AO9" t="s">
         <v>88</v>
       </c>
       <c r="AP9" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="AQ9" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
     </row>
     <row r="10" spans="1:43">
@@ -2401,16 +2419,16 @@
         <v>0</v>
       </c>
       <c r="U10" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="V10" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="X10" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Y10" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Z10">
         <v>0</v>
@@ -2455,16 +2473,16 @@
         <v>280.7465277777778</v>
       </c>
       <c r="AN10" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="AO10" t="s">
         <v>89</v>
       </c>
       <c r="AP10" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="AQ10" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="11" spans="1:43">
@@ -2526,16 +2544,16 @@
         <v>0</v>
       </c>
       <c r="U11" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="V11" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="X11" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Y11" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Z11">
         <v>0</v>
@@ -2580,16 +2598,16 @@
         <v>142.3526870265152</v>
       </c>
       <c r="AN11" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="AO11" t="s">
         <v>90</v>
       </c>
       <c r="AP11" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="AQ11" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="12" spans="1:43">
@@ -2651,16 +2669,16 @@
         <v>0</v>
       </c>
       <c r="U12" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="V12" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="X12" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Y12" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Z12">
         <v>0</v>
@@ -2705,16 +2723,16 @@
         <v>166.954466540404</v>
       </c>
       <c r="AN12" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="AO12" t="s">
         <v>91</v>
       </c>
       <c r="AP12" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="AQ12" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="13" spans="1:43">
@@ -2779,16 +2797,16 @@
         <v>125</v>
       </c>
       <c r="U13" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="V13" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="X13" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Y13" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Z13">
         <v>0</v>
@@ -2833,16 +2851,16 @@
         <v>133.097981415809</v>
       </c>
       <c r="AN13" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="AO13" t="s">
         <v>92</v>
       </c>
       <c r="AP13" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="AQ13" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="14" spans="1:43">
@@ -2907,16 +2925,16 @@
         <v>126</v>
       </c>
       <c r="U14" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="V14" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="X14" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Y14" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Z14">
         <v>0</v>
@@ -2961,16 +2979,16 @@
         <v>150.8448561080909</v>
       </c>
       <c r="AN14" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="AO14" t="s">
         <v>93</v>
       </c>
       <c r="AP14" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="AQ14" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
     </row>
     <row r="15" spans="1:43">
@@ -3035,16 +3053,16 @@
         <v>127</v>
       </c>
       <c r="U15" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="V15" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="X15" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Y15" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Z15">
         <v>0</v>
@@ -3089,16 +3107,16 @@
         <v>130.4801208060281</v>
       </c>
       <c r="AN15" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="AO15" t="s">
         <v>92</v>
       </c>
       <c r="AP15" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="AQ15" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="16" spans="1:43">
@@ -3163,16 +3181,16 @@
         <v>128</v>
       </c>
       <c r="U16" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="V16" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="X16" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Y16" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Z16">
         <v>0</v>
@@ -3217,16 +3235,16 @@
         <v>145.7476530672221</v>
       </c>
       <c r="AN16" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="AO16" t="s">
         <v>93</v>
       </c>
       <c r="AP16" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="AQ16" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
     </row>
     <row r="17" spans="1:43">
@@ -3291,16 +3309,16 @@
         <v>129</v>
       </c>
       <c r="U17" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="V17" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="X17" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Y17" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Z17">
         <v>0</v>
@@ -3345,16 +3363,16 @@
         <v>206.02325443923</v>
       </c>
       <c r="AN17" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="AO17" t="s">
         <v>94</v>
       </c>
       <c r="AP17" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="AQ17" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
     </row>
     <row r="18" spans="1:43">
@@ -3416,16 +3434,16 @@
         <v>0</v>
       </c>
       <c r="U18" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="V18" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="X18" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Y18" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Z18">
         <v>0</v>
@@ -3470,16 +3488,16 @@
         <v>103.3471494959643</v>
       </c>
       <c r="AN18" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="AO18" t="s">
         <v>95</v>
       </c>
       <c r="AP18" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="AQ18" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
     </row>
     <row r="19" spans="1:43">
@@ -3544,16 +3562,16 @@
         <v>130</v>
       </c>
       <c r="U19" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="V19" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="X19" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Y19" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Z19">
         <v>0</v>
@@ -3598,16 +3616,16 @@
         <v>149.4741373722906</v>
       </c>
       <c r="AN19" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="AO19" t="s">
         <v>96</v>
       </c>
       <c r="AP19" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="AQ19" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
     </row>
     <row r="20" spans="1:43">
@@ -3672,16 +3690,16 @@
         <v>131</v>
       </c>
       <c r="U20" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="V20" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="X20" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Y20" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Z20">
         <v>0</v>
@@ -3726,16 +3744,16 @@
         <v>157.4127301239075</v>
       </c>
       <c r="AN20" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="AO20" t="s">
         <v>97</v>
       </c>
       <c r="AP20" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="AQ20" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
     </row>
     <row r="21" spans="1:43">
@@ -3800,16 +3818,16 @@
         <v>132</v>
       </c>
       <c r="U21" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="V21" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="X21" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Y21" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Z21">
         <v>0</v>
@@ -3854,16 +3872,16 @@
         <v>140.0155342782847</v>
       </c>
       <c r="AN21" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="AO21" t="s">
         <v>84</v>
       </c>
       <c r="AP21" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="AQ21" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
     </row>
     <row r="22" spans="1:43">
@@ -3925,16 +3943,16 @@
         <v>0</v>
       </c>
       <c r="U22" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="V22" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="X22" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Y22" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Z22">
         <v>0</v>
@@ -3979,16 +3997,16 @@
         <v>103.3464825772518</v>
       </c>
       <c r="AN22" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="AO22" t="s">
         <v>95</v>
       </c>
       <c r="AP22" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="AQ22" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
     </row>
     <row r="23" spans="1:43">
@@ -4053,16 +4071,16 @@
         <v>133</v>
       </c>
       <c r="U23" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="V23" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="X23" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Y23" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Z23">
         <v>0</v>
@@ -4107,16 +4125,16 @@
         <v>413.3598484848485</v>
       </c>
       <c r="AN23" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="AO23" t="s">
         <v>98</v>
       </c>
       <c r="AP23" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="AQ23" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
     </row>
     <row r="24" spans="1:43">
@@ -4181,16 +4199,16 @@
         <v>134</v>
       </c>
       <c r="U24" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="V24" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="X24" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Y24" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Z24">
         <v>0</v>
@@ -4235,16 +4253,16 @@
         <v>174.7430866986791</v>
       </c>
       <c r="AN24" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="AO24" t="s">
         <v>92</v>
       </c>
       <c r="AP24" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="AQ24" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
     </row>
     <row r="25" spans="1:43">
@@ -4309,16 +4327,16 @@
         <v>135</v>
       </c>
       <c r="U25" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="V25" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="X25" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Y25" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Z25">
         <v>0</v>
@@ -4363,16 +4381,16 @@
         <v>210.220280615461</v>
       </c>
       <c r="AN25" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="AO25" t="s">
         <v>92</v>
       </c>
       <c r="AP25" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="AQ25" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
     </row>
     <row r="26" spans="1:43">
@@ -4437,16 +4455,16 @@
         <v>133</v>
       </c>
       <c r="U26" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="V26" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="X26" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Y26" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Z26">
         <v>0</v>
@@ -4491,16 +4509,16 @@
         <v>413.3598484848485</v>
       </c>
       <c r="AN26" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="AO26" t="s">
         <v>98</v>
       </c>
       <c r="AP26" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="AQ26" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
     </row>
     <row r="27" spans="1:43">
@@ -4565,16 +4583,16 @@
         <v>136</v>
       </c>
       <c r="U27" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="V27" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="X27" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Y27" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Z27">
         <v>0</v>
@@ -4619,16 +4637,16 @@
         <v>145.7639482887134</v>
       </c>
       <c r="AN27" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="AO27" t="s">
         <v>92</v>
       </c>
       <c r="AP27" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="AQ27" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
     </row>
     <row r="28" spans="1:43">
@@ -4690,16 +4708,16 @@
         <v>0</v>
       </c>
       <c r="U28" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="V28" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="X28" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Y28" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Z28">
         <v>0</v>
@@ -4744,16 +4762,16 @@
         <v>1151.359848484848</v>
       </c>
       <c r="AN28" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="AO28" t="s">
         <v>98</v>
       </c>
       <c r="AP28" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="AQ28" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
     </row>
     <row r="29" spans="1:43">
@@ -4818,16 +4836,16 @@
         <v>137</v>
       </c>
       <c r="U29" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="V29" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="X29" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Y29" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Z29">
         <v>10000</v>
@@ -4872,16 +4890,16 @@
         <v>239.1676005042723</v>
       </c>
       <c r="AN29" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="AO29" t="s">
         <v>85</v>
       </c>
       <c r="AP29" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="AQ29" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
     </row>
     <row r="30" spans="1:43">
@@ -4946,16 +4964,16 @@
         <v>138</v>
       </c>
       <c r="U30" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="V30" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="X30" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Y30" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Z30">
         <v>10000</v>
@@ -5000,16 +5018,16 @@
         <v>240.421837792408</v>
       </c>
       <c r="AN30" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="AO30" t="s">
         <v>84</v>
       </c>
       <c r="AP30" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="AQ30" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
     </row>
     <row r="31" spans="1:43">
@@ -5074,16 +5092,16 @@
         <v>139</v>
       </c>
       <c r="U31" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="V31" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="X31" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Y31" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Z31">
         <v>10000</v>
@@ -5128,16 +5146,16 @@
         <v>352.5377083625157</v>
       </c>
       <c r="AN31" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="AO31" t="s">
         <v>83</v>
       </c>
       <c r="AP31" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="AQ31" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
     </row>
     <row r="32" spans="1:43">
@@ -5202,16 +5220,16 @@
         <v>124</v>
       </c>
       <c r="U32" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="V32" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="X32" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Y32" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Z32">
         <v>10000</v>
@@ -5256,16 +5274,16 @@
         <v>269.4395672042102</v>
       </c>
       <c r="AN32" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="AO32" t="s">
         <v>88</v>
       </c>
       <c r="AP32" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="AQ32" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
     </row>
     <row r="33" spans="1:43">
@@ -5330,16 +5348,16 @@
         <v>140</v>
       </c>
       <c r="U33" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="V33" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="X33" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Y33" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Z33">
         <v>10000</v>
@@ -5384,16 +5402,16 @@
         <v>225.4889603547562</v>
       </c>
       <c r="AN33" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="AO33" t="s">
         <v>99</v>
       </c>
       <c r="AP33" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="AQ33" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
     </row>
     <row r="34" spans="1:43">
@@ -5455,16 +5473,16 @@
         <v>0</v>
       </c>
       <c r="U34" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="V34" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="X34" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Y34" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Z34">
         <v>0</v>
@@ -5509,16 +5527,16 @@
         <v>1106.403925619835</v>
       </c>
       <c r="AN34" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="AO34" t="s">
         <v>100</v>
       </c>
       <c r="AP34" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="AQ34" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
     </row>
     <row r="35" spans="1:43">
@@ -5583,16 +5601,16 @@
         <v>141</v>
       </c>
       <c r="U35" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="V35" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="X35" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Y35" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Z35">
         <v>0</v>
@@ -5637,16 +5655,16 @@
         <v>188.198471037178</v>
       </c>
       <c r="AN35" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="AO35" t="s">
         <v>101</v>
       </c>
       <c r="AP35" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="AQ35" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
     </row>
     <row r="36" spans="1:43">
@@ -5711,16 +5729,16 @@
         <v>142</v>
       </c>
       <c r="U36" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="V36" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="X36" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Y36" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Z36">
         <v>0</v>
@@ -5765,16 +5783,16 @@
         <v>183.8976550883916</v>
       </c>
       <c r="AN36" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="AO36" t="s">
         <v>102</v>
       </c>
       <c r="AP36" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="AQ36" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
     </row>
     <row r="37" spans="1:43">
@@ -5839,16 +5857,16 @@
         <v>143</v>
       </c>
       <c r="U37" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="V37" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="X37" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Y37" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Z37">
         <v>0</v>
@@ -5893,16 +5911,16 @@
         <v>119.2752691063541</v>
       </c>
       <c r="AN37" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="AO37" t="s">
         <v>103</v>
       </c>
       <c r="AP37" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="AQ37" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
     </row>
     <row r="38" spans="1:43">
@@ -5967,16 +5985,16 @@
         <v>144</v>
       </c>
       <c r="U38" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="V38" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="X38" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Y38" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Z38">
         <v>0</v>
@@ -6021,16 +6039,16 @@
         <v>177.7675780666174</v>
       </c>
       <c r="AN38" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="AO38" t="s">
         <v>104</v>
       </c>
       <c r="AP38" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="AQ38" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
     </row>
     <row r="39" spans="1:43">
@@ -6046,8 +6064,8 @@
       <c r="D39" t="s">
         <v>50</v>
       </c>
-      <c r="E39" t="s">
-        <v>55</v>
+      <c r="E39">
+        <v>29483</v>
       </c>
       <c r="F39" t="s">
         <v>80</v>
@@ -6055,8 +6073,8 @@
       <c r="G39" t="s">
         <v>105</v>
       </c>
-      <c r="H39" t="s">
-        <v>106</v>
+      <c r="H39">
+        <v>30096</v>
       </c>
       <c r="I39" t="s">
         <v>107</v>
@@ -6074,13 +6092,13 @@
         <v>4480</v>
       </c>
       <c r="N39">
-        <v>1</v>
+        <v>28.06272</v>
       </c>
       <c r="O39">
         <v>28.06272</v>
       </c>
       <c r="P39">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="Q39" t="s">
         <v>115</v>
@@ -6092,16 +6110,16 @@
         <v>0</v>
       </c>
       <c r="U39" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="V39" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="X39" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Y39" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Z39">
         <v>0</v>
@@ -6113,10 +6131,10 @@
         <v>78.1198347107438</v>
       </c>
       <c r="AC39">
-        <v>128.1198347107438</v>
+        <v>79.90155793643254</v>
       </c>
       <c r="AD39">
-        <v>78.1198347107438</v>
+        <v>2192.255047933884</v>
       </c>
       <c r="AE39">
         <v>50</v>
@@ -6134,28 +6152,284 @@
         <v>20</v>
       </c>
       <c r="AJ39">
-        <v>0</v>
+        <v>320</v>
       </c>
       <c r="AK39">
         <v>1105.695</v>
       </c>
       <c r="AL39">
-        <v>1386.814834710744</v>
+        <v>3820.950047933884</v>
       </c>
       <c r="AM39">
-        <v>1386.814834710744</v>
+        <v>136.1575088920063</v>
       </c>
       <c r="AN39" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="AO39" t="s">
         <v>105</v>
       </c>
       <c r="AP39" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="AQ39" t="s">
-        <v>269</v>
+        <v>273</v>
+      </c>
+    </row>
+    <row r="40" spans="1:43">
+      <c r="A40" t="s">
+        <v>43</v>
+      </c>
+      <c r="B40" t="s">
+        <v>47</v>
+      </c>
+      <c r="C40" t="s">
+        <v>49</v>
+      </c>
+      <c r="D40" t="s">
+        <v>51</v>
+      </c>
+      <c r="E40">
+        <v>7201</v>
+      </c>
+      <c r="F40" t="s">
+        <v>73</v>
+      </c>
+      <c r="G40" t="s">
+        <v>98</v>
+      </c>
+      <c r="H40">
+        <v>15672</v>
+      </c>
+      <c r="I40" t="s">
+        <v>107</v>
+      </c>
+      <c r="J40" t="s">
+        <v>108</v>
+      </c>
+      <c r="K40">
+        <v>50</v>
+      </c>
+      <c r="L40">
+        <v>750</v>
+      </c>
+      <c r="M40">
+        <v>750</v>
+      </c>
+      <c r="N40">
+        <v>3.687</v>
+      </c>
+      <c r="O40">
+        <v>3.6865</v>
+      </c>
+      <c r="P40">
+        <v>3</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>115</v>
+      </c>
+      <c r="R40" t="s">
+        <v>116</v>
+      </c>
+      <c r="S40">
+        <v>0</v>
+      </c>
+      <c r="T40" t="s">
+        <v>145</v>
+      </c>
+      <c r="U40" t="s">
+        <v>166</v>
+      </c>
+      <c r="V40" t="s">
+        <v>181</v>
+      </c>
+      <c r="X40" t="s">
+        <v>217</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>217</v>
+      </c>
+      <c r="Z40">
+        <v>0</v>
+      </c>
+      <c r="AA40">
+        <v>0</v>
+      </c>
+      <c r="AB40">
+        <v>71.35984848484848</v>
+      </c>
+      <c r="AC40">
+        <v>84.92100932021599</v>
+      </c>
+      <c r="AD40">
+        <v>263.1037613636364</v>
+      </c>
+      <c r="AE40">
+        <v>50</v>
+      </c>
+      <c r="AF40">
+        <v>53</v>
+      </c>
+      <c r="AG40">
+        <v>100</v>
+      </c>
+      <c r="AH40">
+        <v>50</v>
+      </c>
+      <c r="AI40">
+        <v>18</v>
+      </c>
+      <c r="AJ40">
+        <v>54</v>
+      </c>
+      <c r="AK40">
+        <v>291</v>
+      </c>
+      <c r="AL40">
+        <v>811.1037613636363</v>
+      </c>
+      <c r="AM40">
+        <v>219.9901712404764</v>
+      </c>
+      <c r="AN40" t="s">
+        <v>244</v>
+      </c>
+      <c r="AO40" t="s">
+        <v>98</v>
+      </c>
+      <c r="AP40" t="s">
+        <v>246</v>
+      </c>
+      <c r="AQ40" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="41" spans="1:43">
+      <c r="A41" t="s">
+        <v>43</v>
+      </c>
+      <c r="B41" t="s">
+        <v>47</v>
+      </c>
+      <c r="C41" t="s">
+        <v>49</v>
+      </c>
+      <c r="D41" t="s">
+        <v>51</v>
+      </c>
+      <c r="E41" t="s">
+        <v>55</v>
+      </c>
+      <c r="F41" t="s">
+        <v>73</v>
+      </c>
+      <c r="G41" t="s">
+        <v>98</v>
+      </c>
+      <c r="H41" t="s">
+        <v>106</v>
+      </c>
+      <c r="I41" t="s">
+        <v>107</v>
+      </c>
+      <c r="J41" t="s">
+        <v>108</v>
+      </c>
+      <c r="K41">
+        <v>15</v>
+      </c>
+      <c r="L41">
+        <v>225</v>
+      </c>
+      <c r="M41">
+        <v>225</v>
+      </c>
+      <c r="N41">
+        <v>1.728</v>
+      </c>
+      <c r="O41">
+        <v>1.728</v>
+      </c>
+      <c r="P41">
+        <v>1</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>115</v>
+      </c>
+      <c r="R41" t="s">
+        <v>116</v>
+      </c>
+      <c r="S41">
+        <v>0</v>
+      </c>
+      <c r="T41" t="s">
+        <v>133</v>
+      </c>
+      <c r="U41" t="s">
+        <v>166</v>
+      </c>
+      <c r="V41" t="s">
+        <v>181</v>
+      </c>
+      <c r="X41" t="s">
+        <v>202</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>202</v>
+      </c>
+      <c r="Z41">
+        <v>0</v>
+      </c>
+      <c r="AA41">
+        <v>0</v>
+      </c>
+      <c r="AB41">
+        <v>71.35984848484848</v>
+      </c>
+      <c r="AC41">
+        <v>100.2950336700337</v>
+      </c>
+      <c r="AD41">
+        <v>123.3098181818182</v>
+      </c>
+      <c r="AE41">
+        <v>50</v>
+      </c>
+      <c r="AF41">
+        <v>0</v>
+      </c>
+      <c r="AG41">
+        <v>100</v>
+      </c>
+      <c r="AH41">
+        <v>50</v>
+      </c>
+      <c r="AI41">
+        <v>18</v>
+      </c>
+      <c r="AJ41">
+        <v>18</v>
+      </c>
+      <c r="AK41">
+        <v>121</v>
+      </c>
+      <c r="AL41">
+        <v>412.3098181818182</v>
+      </c>
+      <c r="AM41">
+        <v>238.6052188552189</v>
+      </c>
+      <c r="AN41" t="s">
+        <v>245</v>
+      </c>
+      <c r="AO41" t="s">
+        <v>98</v>
+      </c>
+      <c r="AP41" t="s">
+        <v>246</v>
+      </c>
+      <c r="AQ41" t="s">
+        <v>275</v>
       </c>
     </row>
   </sheetData>

--- a/Logs/quotations.xlsx
+++ b/Logs/quotations.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="923" uniqueCount="317">
   <si>
     <t>Shipment Scope</t>
   </si>
@@ -145,6 +145,24 @@
     <t>Quoted Date/Time</t>
   </si>
   <si>
+    <t>Unique ID</t>
+  </si>
+  <si>
+    <t>P2P Origin charges per Container(INR)</t>
+  </si>
+  <si>
+    <t>P2P Ocean Freight (USD)</t>
+  </si>
+  <si>
+    <t>P2P Drayage &amp; Devanning(USD)</t>
+  </si>
+  <si>
+    <t>P2P Total cost (USD)</t>
+  </si>
+  <si>
+    <t>P2P Loadability</t>
+  </si>
+  <si>
     <t>Port-to-Door</t>
   </si>
   <si>
@@ -259,6 +277,9 @@
     <t>ATL9</t>
   </si>
   <si>
+    <t>HIA1</t>
+  </si>
+  <si>
     <t>RDU4 28303, Terry Sanford, Fayetteville, North Carolina, United States</t>
   </si>
   <si>
@@ -334,7 +355,10 @@
     <t>ATL9 30096, North Metro, Duluth, Georgia, United States</t>
   </si>
   <si>
-    <t>15672</t>
+    <t>HIA1 17057, Middletown, Middletown, Pennsylvania, United States</t>
+  </si>
+  <si>
+    <t>18447</t>
   </si>
   <si>
     <t>Agraga</t>
@@ -454,6 +478,24 @@
     <t>{'Rate': 291.0, 'Carrier Name': '', 'Service Provider': 'AmznFrgt'}</t>
   </si>
   <si>
+    <t>{'Rate Type': 'LTL', 'Rate': 1047.15, 'Carrier Name': 'Estes Express Lines', 'Service Provider': 'Ex-Freight', 'Source': 'API', 'Date': '28-08-2025'}</t>
+  </si>
+  <si>
+    <t>{'Rate Type': 'LTL', 'Rate': 275.96, 'Carrier Name': 'Estes Express Lines', 'Service Provider': 'Ex-Freight', 'Source': 'API', 'Date': '29-08-2025'}</t>
+  </si>
+  <si>
+    <t>{'Rate Type': 'LTL', 'Rate': 317.68, 'Carrier Name': 'Estes Express Lines', 'Service Provider': 'Ex-Freight', 'Source': 'API', 'Date': '30-08-2025'}</t>
+  </si>
+  <si>
+    <t>{'Rate Type': 'LTL', 'Rate': 384.0, 'Carrier Name': '', 'Service Provider': 'AmznFrgt', 'Source': 'No API STATIC DATA', 'Date': Timestamp('2025-08-28 00:00:00')}</t>
+  </si>
+  <si>
+    <t>{'Rate Type': 'LTL', 'Rate': 1173.88, 'Carrier Name': 'Estes Express Lines VL', 'Service Provider': 'HeyPrimo', 'Source': 'API', 'Date': '02-09-2025'}</t>
+  </si>
+  <si>
+    <t>{'Rate Type': 'LTL', 'Rate': 1009.71, 'Carrier Name': 'Estes Express Lines', 'Service Provider': 'Ex-Freight', 'Source': 'API', 'Date': '02-09-2025'}</t>
+  </si>
+  <si>
     <t>{'Rate': 1358.2649999999999, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt'}</t>
   </si>
   <si>
@@ -553,6 +595,24 @@
     <t>{'Rate': 1105.695, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt'}</t>
   </si>
   <si>
+    <t>{'Rate Type': 'FTL', 'Rate': 1221.195, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt', 'Source': 'API', 'Date': '28-08-2025'}</t>
+  </si>
+  <si>
+    <t>{'Rate Type': 'FTL', 'Rate': 1168.5749999999998, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt', 'Source': 'API', 'Date': '29-08-2025'}</t>
+  </si>
+  <si>
+    <t>{'Rate Type': 'FTL', 'Rate': 1038.345, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt', 'Source': 'API', 'Date': '30-08-2025'}</t>
+  </si>
+  <si>
+    <t>{'Rate Type': 'FTL', 'Rate': 928.0, 'Carrier Name': '', 'Service Provider': 'JB.Hunt', 'Source': 'No API STATIC DATA', 'Date': Timestamp('2025-08-28 00:00:00')}</t>
+  </si>
+  <si>
+    <t>{'Rate Type': 'FTL', 'Rate': 1571.0700000000002, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt', 'Source': 'API', 'Date': '02-09-2025'}</t>
+  </si>
+  <si>
+    <t>{'Rate Type': 'FTL', 'Rate': 963.5699999999999, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt', 'Source': 'API', 'Date': '02-09-2025'}</t>
+  </si>
+  <si>
     <t>{'Rate': 372.0, 'Carrier Name': '', 'Service Provider': 'NTG'}</t>
   </si>
   <si>
@@ -562,6 +622,24 @@
     <t>{'Rate': 877.0, 'Carrier Name': '', 'Service Provider': 'NTG'}</t>
   </si>
   <si>
+    <t>{'Rate Type': 'FTL53', 'Rate': 1221.195, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt', 'Source': 'API', 'Date': '28-08-2025'}</t>
+  </si>
+  <si>
+    <t>{'Rate Type': 'FTL53', 'Rate': 1168.5749999999998, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt', 'Source': 'API', 'Date': '29-08-2025'}</t>
+  </si>
+  <si>
+    <t>{'Rate Type': 'FTL53', 'Rate': 1038.345, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt', 'Source': 'API', 'Date': '30-08-2025'}</t>
+  </si>
+  <si>
+    <t>{'Rate Type': 'FTL53', 'Rate': 877.0, 'Carrier Name': '', 'Service Provider': 'NTG', 'Source': 'No API STATIC DATA', 'Date': Timestamp('2025-08-28 00:00:00')}</t>
+  </si>
+  <si>
+    <t>{'Rate Type': 'FTL53', 'Rate': 0, 'Carrier Name': 'Jb Hunt API Failed :No valid rates returned', 'Service Provider': 'J.B. Hunt', 'Source': 'API', 'Date': '02-09-2025'}</t>
+  </si>
+  <si>
+    <t>{'Rate Type': 'FTL53', 'Rate': 963.5699999999999, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt', 'Source': 'API', 'Date': '02-09-2025'}</t>
+  </si>
+  <si>
     <t>{'Rate Type': 'LTL', 'Rate': 546.16, 'Carrier Name': 'Estes Express Lines', 'Service Provider': 'Ex-Freight'}</t>
   </si>
   <si>
@@ -754,6 +832,15 @@
     <t>CMM0911LCL0001</t>
   </si>
   <si>
+    <t>CMM0914LCL0001</t>
+  </si>
+  <si>
+    <t>CMM0916LCL0002</t>
+  </si>
+  <si>
+    <t>CMM0878LCL0003</t>
+  </si>
+  <si>
     <t>Own Console</t>
   </si>
   <si>
@@ -842,6 +929,42 @@
   </si>
   <si>
     <t>2025-08-28 09:53:59</t>
+  </si>
+  <si>
+    <t>2025-08-28 12:07:46</t>
+  </si>
+  <si>
+    <t>2025-08-29 11:18:57</t>
+  </si>
+  <si>
+    <t>2025-08-30 11:02:27</t>
+  </si>
+  <si>
+    <t>2025-09-01 08:15:19</t>
+  </si>
+  <si>
+    <t>2025-09-02 07:11:39</t>
+  </si>
+  <si>
+    <t>2025-09-02 07:17:13</t>
+  </si>
+  <si>
+    <t>CMM0246LCL0056_20250828120709</t>
+  </si>
+  <si>
+    <t>CMM0914LCL0001_20250829111820</t>
+  </si>
+  <si>
+    <t>CMM0916LCL0002_20250830110140</t>
+  </si>
+  <si>
+    <t>CMM0878LCL0003_20250901081446</t>
+  </si>
+  <si>
+    <t>CEN0479LCL0073_20250902071052</t>
+  </si>
+  <si>
+    <t>CMM0077LCL0002_20250902071644</t>
   </si>
 </sst>
 </file>
@@ -1199,13 +1322,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ41"/>
+  <dimension ref="A1:AW47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:43">
+    <row r="1" spans="1:49">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1335,37 +1458,55 @@
       <c r="AQ1" s="1" t="s">
         <v>42</v>
       </c>
+      <c r="AR1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="2" spans="1:43">
+    <row r="2" spans="1:49">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B2" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C2" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D2" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="E2">
         <v>29483</v>
       </c>
       <c r="F2" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="G2" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="H2">
         <v>28303</v>
       </c>
       <c r="I2" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="J2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="K2">
         <v>288</v>
@@ -1386,28 +1527,28 @@
         <v>6</v>
       </c>
       <c r="Q2" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="R2" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="S2">
         <v>0</v>
       </c>
       <c r="T2" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="U2" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="V2" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="X2" t="s">
-        <v>182</v>
+        <v>208</v>
       </c>
       <c r="Y2" t="s">
-        <v>182</v>
+        <v>208</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -1452,48 +1593,48 @@
         <v>174.4790364845797</v>
       </c>
       <c r="AN2" t="s">
-        <v>218</v>
+        <v>244</v>
       </c>
       <c r="AO2" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="AP2" t="s">
-        <v>246</v>
+        <v>275</v>
       </c>
       <c r="AQ2" t="s">
-        <v>248</v>
+        <v>277</v>
       </c>
     </row>
-    <row r="3" spans="1:43">
+    <row r="3" spans="1:49">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B3" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C3" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D3" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="E3">
         <v>7201</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="G3" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="H3">
         <v>46140</v>
       </c>
       <c r="I3" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="J3" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="K3">
         <v>518</v>
@@ -1514,28 +1655,28 @@
         <v>10</v>
       </c>
       <c r="Q3" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="R3" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="U3" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="V3" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="X3" t="s">
-        <v>183</v>
+        <v>209</v>
       </c>
       <c r="Y3" t="s">
-        <v>183</v>
+        <v>209</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -1580,48 +1721,48 @@
         <v>188.3821611081226</v>
       </c>
       <c r="AN3" t="s">
-        <v>218</v>
+        <v>244</v>
       </c>
       <c r="AO3" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="AP3" t="s">
-        <v>246</v>
+        <v>275</v>
       </c>
       <c r="AQ3" t="s">
-        <v>248</v>
+        <v>277</v>
       </c>
     </row>
-    <row r="4" spans="1:43">
+    <row r="4" spans="1:49">
       <c r="A4" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B4" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C4" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D4" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="E4">
         <v>90220</v>
       </c>
       <c r="F4" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="G4" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="H4">
         <v>75241</v>
       </c>
       <c r="I4" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="J4" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="K4">
         <v>461</v>
@@ -1642,28 +1783,28 @@
         <v>9</v>
       </c>
       <c r="Q4" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="R4" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="U4" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="V4" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="X4" t="s">
-        <v>184</v>
+        <v>210</v>
       </c>
       <c r="Y4" t="s">
-        <v>184</v>
+        <v>210</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -1708,48 +1849,48 @@
         <v>198.5737694455844</v>
       </c>
       <c r="AN4" t="s">
-        <v>218</v>
+        <v>244</v>
       </c>
       <c r="AO4" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="AP4" t="s">
-        <v>246</v>
+        <v>275</v>
       </c>
       <c r="AQ4" t="s">
-        <v>248</v>
+        <v>277</v>
       </c>
     </row>
-    <row r="5" spans="1:43">
+    <row r="5" spans="1:49">
       <c r="A5" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C5" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D5" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="E5">
         <v>90220</v>
       </c>
       <c r="F5" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="G5" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="H5">
         <v>85395</v>
       </c>
       <c r="I5" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="J5" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="K5">
         <v>461</v>
@@ -1770,28 +1911,28 @@
         <v>9</v>
       </c>
       <c r="Q5" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="R5" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="U5" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="V5" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="X5" t="s">
-        <v>185</v>
+        <v>211</v>
       </c>
       <c r="Y5" t="s">
-        <v>185</v>
+        <v>211</v>
       </c>
       <c r="Z5">
         <v>0</v>
@@ -1836,48 +1977,48 @@
         <v>151.7595856378415</v>
       </c>
       <c r="AN5" t="s">
-        <v>218</v>
+        <v>244</v>
       </c>
       <c r="AO5" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="AP5" t="s">
-        <v>246</v>
+        <v>275</v>
       </c>
       <c r="AQ5" t="s">
-        <v>248</v>
+        <v>277</v>
       </c>
     </row>
-    <row r="6" spans="1:43">
+    <row r="6" spans="1:49">
       <c r="A6" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B6" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C6" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D6" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="E6">
         <v>90220</v>
       </c>
       <c r="F6" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="G6" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="H6">
         <v>85043</v>
       </c>
       <c r="I6" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="J6" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="K6">
         <v>576</v>
@@ -1898,28 +2039,28 @@
         <v>11</v>
       </c>
       <c r="Q6" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="R6" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="S6">
         <v>0</v>
       </c>
       <c r="T6" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="U6" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="V6" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="X6" t="s">
-        <v>186</v>
+        <v>212</v>
       </c>
       <c r="Y6" t="s">
-        <v>186</v>
+        <v>212</v>
       </c>
       <c r="Z6">
         <v>0</v>
@@ -1964,48 +2105,48 @@
         <v>164.8459987905664</v>
       </c>
       <c r="AN6" t="s">
-        <v>218</v>
+        <v>244</v>
       </c>
       <c r="AO6" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="AP6" t="s">
-        <v>246</v>
+        <v>275</v>
       </c>
       <c r="AQ6" t="s">
-        <v>248</v>
+        <v>277</v>
       </c>
     </row>
-    <row r="7" spans="1:43">
+    <row r="7" spans="1:49">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B7" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C7" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D7" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="E7">
         <v>29483</v>
       </c>
       <c r="F7" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="G7" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="H7">
         <v>30567</v>
       </c>
       <c r="I7" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="J7" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="K7">
         <v>10</v>
@@ -2026,28 +2167,28 @@
         <v>1</v>
       </c>
       <c r="Q7" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="R7" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
       <c r="T7" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="U7" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="V7" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="X7" t="s">
-        <v>187</v>
+        <v>213</v>
       </c>
       <c r="Y7" t="s">
-        <v>187</v>
+        <v>213</v>
       </c>
       <c r="Z7">
         <v>10000</v>
@@ -2092,48 +2233,48 @@
         <v>719.1061983471075</v>
       </c>
       <c r="AN7" t="s">
-        <v>219</v>
+        <v>245</v>
       </c>
       <c r="AO7" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="AP7" t="s">
-        <v>246</v>
+        <v>275</v>
       </c>
       <c r="AQ7" t="s">
-        <v>249</v>
+        <v>278</v>
       </c>
     </row>
-    <row r="8" spans="1:43">
+    <row r="8" spans="1:49">
       <c r="A8" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B8" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C8" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D8" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="E8">
         <v>7201</v>
       </c>
       <c r="F8" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="G8" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="H8">
         <v>8873</v>
       </c>
       <c r="I8" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="J8" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="K8">
         <v>9</v>
@@ -2154,28 +2295,28 @@
         <v>1</v>
       </c>
       <c r="Q8" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="R8" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
       <c r="T8" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="U8" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="V8" t="s">
-        <v>179</v>
+        <v>199</v>
       </c>
       <c r="X8" t="s">
-        <v>188</v>
+        <v>214</v>
       </c>
       <c r="Y8" t="s">
-        <v>188</v>
+        <v>214</v>
       </c>
       <c r="Z8">
         <v>10000</v>
@@ -2220,48 +2361,48 @@
         <v>502.9962121212121</v>
       </c>
       <c r="AN8" t="s">
-        <v>219</v>
+        <v>245</v>
       </c>
       <c r="AO8" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="AP8" t="s">
-        <v>246</v>
+        <v>275</v>
       </c>
       <c r="AQ8" t="s">
-        <v>249</v>
+        <v>278</v>
       </c>
     </row>
-    <row r="9" spans="1:43">
+    <row r="9" spans="1:49">
       <c r="A9" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B9" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C9" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D9" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="E9">
         <v>7201</v>
       </c>
       <c r="F9" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="G9" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="H9">
         <v>18202</v>
       </c>
       <c r="I9" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="J9" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="K9">
         <v>72</v>
@@ -2282,28 +2423,28 @@
         <v>2</v>
       </c>
       <c r="Q9" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="R9" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
       <c r="T9" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="U9" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="V9" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="X9" t="s">
-        <v>189</v>
+        <v>215</v>
       </c>
       <c r="Y9" t="s">
-        <v>189</v>
+        <v>215</v>
       </c>
       <c r="Z9">
         <v>0</v>
@@ -2348,48 +2489,48 @@
         <v>257.1691611234294</v>
       </c>
       <c r="AN9" t="s">
-        <v>220</v>
+        <v>246</v>
       </c>
       <c r="AO9" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="AP9" t="s">
-        <v>246</v>
+        <v>275</v>
       </c>
       <c r="AQ9" t="s">
-        <v>250</v>
+        <v>279</v>
       </c>
     </row>
-    <row r="10" spans="1:43">
+    <row r="10" spans="1:49">
       <c r="A10" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B10" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C10" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D10" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="E10">
         <v>77020</v>
       </c>
       <c r="F10" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="G10" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="H10">
         <v>75007</v>
       </c>
       <c r="I10" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="J10" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="K10">
         <v>50</v>
@@ -2410,25 +2551,25 @@
         <v>50</v>
       </c>
       <c r="Q10" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="R10" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="S10">
         <v>0</v>
       </c>
       <c r="U10" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="V10" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="X10" t="s">
-        <v>190</v>
+        <v>216</v>
       </c>
       <c r="Y10" t="s">
-        <v>190</v>
+        <v>216</v>
       </c>
       <c r="Z10">
         <v>0</v>
@@ -2473,48 +2614,48 @@
         <v>280.7465277777778</v>
       </c>
       <c r="AN10" t="s">
-        <v>221</v>
+        <v>247</v>
       </c>
       <c r="AO10" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="AP10" t="s">
-        <v>247</v>
+        <v>276</v>
       </c>
       <c r="AQ10" t="s">
-        <v>251</v>
+        <v>280</v>
       </c>
     </row>
-    <row r="11" spans="1:43">
+    <row r="11" spans="1:49">
       <c r="A11" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B11" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C11" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D11" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="E11">
         <v>7201</v>
       </c>
       <c r="F11" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="G11" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="H11">
         <v>18105</v>
       </c>
       <c r="I11" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="J11" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="K11">
         <v>100</v>
@@ -2535,25 +2676,25 @@
         <v>100</v>
       </c>
       <c r="Q11" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="R11" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
       <c r="U11" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="V11" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="X11" t="s">
-        <v>191</v>
+        <v>217</v>
       </c>
       <c r="Y11" t="s">
-        <v>191</v>
+        <v>217</v>
       </c>
       <c r="Z11">
         <v>0</v>
@@ -2598,48 +2739,48 @@
         <v>142.3526870265152</v>
       </c>
       <c r="AN11" t="s">
-        <v>221</v>
+        <v>247</v>
       </c>
       <c r="AO11" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="AP11" t="s">
-        <v>246</v>
+        <v>275</v>
       </c>
       <c r="AQ11" t="s">
-        <v>251</v>
+        <v>280</v>
       </c>
     </row>
-    <row r="12" spans="1:43">
+    <row r="12" spans="1:49">
       <c r="A12" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B12" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C12" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D12" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="E12">
         <v>7201</v>
       </c>
       <c r="F12" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G12" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="H12">
         <v>17112</v>
       </c>
       <c r="I12" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="J12" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="K12">
         <v>100</v>
@@ -2660,25 +2801,25 @@
         <v>100</v>
       </c>
       <c r="Q12" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="R12" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="S12">
         <v>0</v>
       </c>
       <c r="U12" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="V12" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="X12" t="s">
-        <v>192</v>
+        <v>218</v>
       </c>
       <c r="Y12" t="s">
-        <v>192</v>
+        <v>218</v>
       </c>
       <c r="Z12">
         <v>0</v>
@@ -2723,48 +2864,48 @@
         <v>166.954466540404</v>
       </c>
       <c r="AN12" t="s">
-        <v>221</v>
+        <v>247</v>
       </c>
       <c r="AO12" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="AP12" t="s">
-        <v>246</v>
+        <v>275</v>
       </c>
       <c r="AQ12" t="s">
-        <v>251</v>
+        <v>280</v>
       </c>
     </row>
-    <row r="13" spans="1:43">
+    <row r="13" spans="1:49">
       <c r="A13" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B13" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C13" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D13" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="E13">
         <v>29483</v>
       </c>
       <c r="F13" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="G13" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="H13">
         <v>29330</v>
       </c>
       <c r="I13" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="J13" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="K13">
         <v>390</v>
@@ -2785,28 +2926,28 @@
         <v>17</v>
       </c>
       <c r="Q13" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="R13" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="S13">
         <v>0</v>
       </c>
       <c r="T13" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="U13" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="V13" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="X13" t="s">
-        <v>193</v>
+        <v>219</v>
       </c>
       <c r="Y13" t="s">
-        <v>193</v>
+        <v>219</v>
       </c>
       <c r="Z13">
         <v>0</v>
@@ -2851,48 +2992,48 @@
         <v>133.097981415809</v>
       </c>
       <c r="AN13" t="s">
-        <v>222</v>
+        <v>248</v>
       </c>
       <c r="AO13" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="AP13" t="s">
-        <v>246</v>
+        <v>275</v>
       </c>
       <c r="AQ13" t="s">
-        <v>252</v>
+        <v>281</v>
       </c>
     </row>
-    <row r="14" spans="1:43">
+    <row r="14" spans="1:49">
       <c r="A14" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B14" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C14" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D14" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="E14">
         <v>7201</v>
       </c>
       <c r="F14" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="G14" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="H14">
         <v>46410</v>
       </c>
       <c r="I14" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="J14" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="K14">
         <v>390</v>
@@ -2913,28 +3054,28 @@
         <v>17</v>
       </c>
       <c r="Q14" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="R14" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="S14">
         <v>0</v>
       </c>
       <c r="T14" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="U14" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="V14" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="X14" t="s">
-        <v>194</v>
+        <v>220</v>
       </c>
       <c r="Y14" t="s">
-        <v>194</v>
+        <v>220</v>
       </c>
       <c r="Z14">
         <v>0</v>
@@ -2979,48 +3120,48 @@
         <v>150.8448561080909</v>
       </c>
       <c r="AN14" t="s">
-        <v>223</v>
+        <v>249</v>
       </c>
       <c r="AO14" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="AP14" t="s">
-        <v>246</v>
+        <v>275</v>
       </c>
       <c r="AQ14" t="s">
-        <v>253</v>
+        <v>282</v>
       </c>
     </row>
-    <row r="15" spans="1:43">
+    <row r="15" spans="1:49">
       <c r="A15" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B15" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C15" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D15" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="E15">
         <v>29483</v>
       </c>
       <c r="F15" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="G15" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="H15">
         <v>29330</v>
       </c>
       <c r="I15" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="J15" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="K15">
         <v>436</v>
@@ -3041,28 +3182,28 @@
         <v>19</v>
       </c>
       <c r="Q15" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="R15" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="S15">
         <v>0</v>
       </c>
       <c r="T15" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="U15" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="V15" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="X15" t="s">
-        <v>195</v>
+        <v>221</v>
       </c>
       <c r="Y15" t="s">
-        <v>195</v>
+        <v>221</v>
       </c>
       <c r="Z15">
         <v>0</v>
@@ -3107,48 +3248,48 @@
         <v>130.4801208060281</v>
       </c>
       <c r="AN15" t="s">
-        <v>224</v>
+        <v>250</v>
       </c>
       <c r="AO15" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="AP15" t="s">
-        <v>246</v>
+        <v>275</v>
       </c>
       <c r="AQ15" t="s">
-        <v>254</v>
+        <v>283</v>
       </c>
     </row>
-    <row r="16" spans="1:43">
+    <row r="16" spans="1:49">
       <c r="A16" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B16" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C16" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D16" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="E16">
         <v>7201</v>
       </c>
       <c r="F16" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="G16" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="H16">
         <v>46410</v>
       </c>
       <c r="I16" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="J16" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="K16">
         <v>436</v>
@@ -3169,28 +3310,28 @@
         <v>19</v>
       </c>
       <c r="Q16" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="R16" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="S16">
         <v>0</v>
       </c>
       <c r="T16" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="U16" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="V16" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="X16" t="s">
-        <v>196</v>
+        <v>222</v>
       </c>
       <c r="Y16" t="s">
-        <v>196</v>
+        <v>222</v>
       </c>
       <c r="Z16">
         <v>0</v>
@@ -3235,48 +3376,48 @@
         <v>145.7476530672221</v>
       </c>
       <c r="AN16" t="s">
-        <v>225</v>
+        <v>251</v>
       </c>
       <c r="AO16" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="AP16" t="s">
-        <v>246</v>
+        <v>275</v>
       </c>
       <c r="AQ16" t="s">
-        <v>255</v>
+        <v>284</v>
       </c>
     </row>
     <row r="17" spans="1:43">
       <c r="A17" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B17" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C17" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D17" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="E17">
         <v>7201</v>
       </c>
       <c r="F17" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="G17" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="H17">
         <v>48917</v>
       </c>
       <c r="I17" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="J17" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="K17">
         <v>4</v>
@@ -3297,28 +3438,28 @@
         <v>4</v>
       </c>
       <c r="Q17" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="R17" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="S17">
         <v>0</v>
       </c>
       <c r="T17" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="U17" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="V17" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="X17" t="s">
-        <v>197</v>
+        <v>223</v>
       </c>
       <c r="Y17" t="s">
-        <v>197</v>
+        <v>223</v>
       </c>
       <c r="Z17">
         <v>0</v>
@@ -3363,48 +3504,48 @@
         <v>206.02325443923</v>
       </c>
       <c r="AN17" t="s">
-        <v>226</v>
+        <v>252</v>
       </c>
       <c r="AO17" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="AP17" t="s">
-        <v>246</v>
+        <v>275</v>
       </c>
       <c r="AQ17" t="s">
-        <v>256</v>
+        <v>285</v>
       </c>
     </row>
     <row r="18" spans="1:43">
       <c r="A18" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B18" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C18" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D18" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="G18" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="H18">
         <v>60433</v>
       </c>
       <c r="I18" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="J18" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="K18">
         <v>9</v>
@@ -3425,25 +3566,25 @@
         <v>9</v>
       </c>
       <c r="Q18" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="R18" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="S18">
         <v>0</v>
       </c>
       <c r="U18" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="V18" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="X18" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="Y18" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="Z18">
         <v>0</v>
@@ -3488,48 +3629,48 @@
         <v>103.3471494959643</v>
       </c>
       <c r="AN18" t="s">
-        <v>226</v>
+        <v>252</v>
       </c>
       <c r="AO18" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="AP18" t="s">
-        <v>247</v>
+        <v>276</v>
       </c>
       <c r="AQ18" t="s">
-        <v>256</v>
+        <v>285</v>
       </c>
     </row>
     <row r="19" spans="1:43">
       <c r="A19" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B19" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C19" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D19" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="E19">
         <v>7201</v>
       </c>
       <c r="F19" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="G19" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="H19">
         <v>46809</v>
       </c>
       <c r="I19" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="J19" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="K19">
         <v>10</v>
@@ -3550,28 +3691,28 @@
         <v>10</v>
       </c>
       <c r="Q19" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="R19" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="S19">
         <v>0</v>
       </c>
       <c r="T19" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="U19" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="V19" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="X19" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="Y19" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="Z19">
         <v>0</v>
@@ -3616,48 +3757,48 @@
         <v>149.4741373722906</v>
       </c>
       <c r="AN19" t="s">
-        <v>226</v>
+        <v>252</v>
       </c>
       <c r="AO19" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="AP19" t="s">
-        <v>246</v>
+        <v>275</v>
       </c>
       <c r="AQ19" t="s">
-        <v>256</v>
+        <v>285</v>
       </c>
     </row>
     <row r="20" spans="1:43">
       <c r="A20" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B20" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C20" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D20" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="E20">
         <v>90220</v>
       </c>
       <c r="F20" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="G20" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="H20">
         <v>89044</v>
       </c>
       <c r="I20" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="J20" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="K20">
         <v>10</v>
@@ -3678,28 +3819,28 @@
         <v>10</v>
       </c>
       <c r="Q20" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="R20" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="S20">
         <v>0</v>
       </c>
       <c r="T20" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="U20" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="V20" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="X20" t="s">
-        <v>200</v>
+        <v>226</v>
       </c>
       <c r="Y20" t="s">
-        <v>200</v>
+        <v>226</v>
       </c>
       <c r="Z20">
         <v>0</v>
@@ -3744,48 +3885,48 @@
         <v>157.4127301239075</v>
       </c>
       <c r="AN20" t="s">
-        <v>227</v>
+        <v>253</v>
       </c>
       <c r="AO20" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="AP20" t="s">
-        <v>246</v>
+        <v>275</v>
       </c>
       <c r="AQ20" t="s">
-        <v>257</v>
+        <v>286</v>
       </c>
     </row>
     <row r="21" spans="1:43">
       <c r="A21" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B21" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C21" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D21" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="E21">
         <v>90220</v>
       </c>
       <c r="F21" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="G21" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="H21">
         <v>85395</v>
       </c>
       <c r="I21" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="J21" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="K21">
         <v>9</v>
@@ -3806,28 +3947,28 @@
         <v>9</v>
       </c>
       <c r="Q21" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="R21" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="S21">
         <v>0</v>
       </c>
       <c r="T21" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="U21" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="V21" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="X21" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="Y21" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="Z21">
         <v>0</v>
@@ -3872,48 +4013,48 @@
         <v>140.0155342782847</v>
       </c>
       <c r="AN21" t="s">
-        <v>228</v>
+        <v>254</v>
       </c>
       <c r="AO21" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="AP21" t="s">
-        <v>246</v>
+        <v>275</v>
       </c>
       <c r="AQ21" t="s">
-        <v>258</v>
+        <v>287</v>
       </c>
     </row>
     <row r="22" spans="1:43">
       <c r="A22" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B22" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C22" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D22" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="G22" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="H22">
         <v>60433</v>
       </c>
       <c r="I22" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="J22" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="K22">
         <v>9</v>
@@ -3934,25 +4075,25 @@
         <v>9</v>
       </c>
       <c r="Q22" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="R22" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="S22">
         <v>0</v>
       </c>
       <c r="U22" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="V22" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="X22" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="Y22" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="Z22">
         <v>0</v>
@@ -3997,48 +4138,48 @@
         <v>103.3464825772518</v>
       </c>
       <c r="AN22" t="s">
-        <v>229</v>
+        <v>255</v>
       </c>
       <c r="AO22" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="AP22" t="s">
-        <v>247</v>
+        <v>276</v>
       </c>
       <c r="AQ22" t="s">
-        <v>259</v>
+        <v>288</v>
       </c>
     </row>
     <row r="23" spans="1:43">
       <c r="A23" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B23" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C23" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D23" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="E23">
         <v>7201</v>
       </c>
       <c r="F23" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="G23" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="H23">
         <v>15672</v>
       </c>
       <c r="I23" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="J23" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="K23">
         <v>5</v>
@@ -4059,28 +4200,28 @@
         <v>1</v>
       </c>
       <c r="Q23" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="R23" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="S23">
         <v>0</v>
       </c>
       <c r="T23" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="U23" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="V23" t="s">
-        <v>181</v>
+        <v>201</v>
       </c>
       <c r="X23" t="s">
-        <v>202</v>
+        <v>228</v>
       </c>
       <c r="Y23" t="s">
-        <v>202</v>
+        <v>228</v>
       </c>
       <c r="Z23">
         <v>0</v>
@@ -4125,48 +4266,48 @@
         <v>413.3598484848485</v>
       </c>
       <c r="AN23" t="s">
-        <v>230</v>
+        <v>256</v>
       </c>
       <c r="AO23" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="AP23" t="s">
-        <v>246</v>
+        <v>275</v>
       </c>
       <c r="AQ23" t="s">
-        <v>260</v>
+        <v>289</v>
       </c>
     </row>
     <row r="24" spans="1:43">
       <c r="A24" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B24" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C24" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D24" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="E24">
         <v>29483</v>
       </c>
       <c r="F24" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="G24" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="H24">
         <v>29330</v>
       </c>
       <c r="I24" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="J24" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="K24">
         <v>291</v>
@@ -4187,28 +4328,28 @@
         <v>5</v>
       </c>
       <c r="Q24" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="R24" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="S24">
         <v>0</v>
       </c>
       <c r="T24" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="U24" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="V24" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="X24" t="s">
-        <v>203</v>
+        <v>229</v>
       </c>
       <c r="Y24" t="s">
-        <v>203</v>
+        <v>229</v>
       </c>
       <c r="Z24">
         <v>0</v>
@@ -4253,48 +4394,48 @@
         <v>174.7430866986791</v>
       </c>
       <c r="AN24" t="s">
-        <v>231</v>
+        <v>257</v>
       </c>
       <c r="AO24" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="AP24" t="s">
-        <v>246</v>
+        <v>275</v>
       </c>
       <c r="AQ24" t="s">
-        <v>261</v>
+        <v>290</v>
       </c>
     </row>
     <row r="25" spans="1:43">
       <c r="A25" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B25" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C25" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D25" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="E25">
         <v>29483</v>
       </c>
       <c r="F25" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="G25" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="H25">
         <v>29330</v>
       </c>
       <c r="I25" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="J25" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="K25">
         <v>149</v>
@@ -4315,28 +4456,28 @@
         <v>3</v>
       </c>
       <c r="Q25" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="R25" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="S25">
         <v>0</v>
       </c>
       <c r="T25" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="U25" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="V25" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="X25" t="s">
-        <v>204</v>
+        <v>230</v>
       </c>
       <c r="Y25" t="s">
-        <v>204</v>
+        <v>230</v>
       </c>
       <c r="Z25">
         <v>0</v>
@@ -4381,48 +4522,48 @@
         <v>210.220280615461</v>
       </c>
       <c r="AN25" t="s">
-        <v>232</v>
+        <v>258</v>
       </c>
       <c r="AO25" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="AP25" t="s">
-        <v>246</v>
+        <v>275</v>
       </c>
       <c r="AQ25" t="s">
-        <v>262</v>
+        <v>291</v>
       </c>
     </row>
     <row r="26" spans="1:43">
       <c r="A26" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B26" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C26" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D26" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="E26">
         <v>7201</v>
       </c>
       <c r="F26" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="G26" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="H26">
         <v>15672</v>
       </c>
       <c r="I26" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="J26" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="K26">
         <v>5</v>
@@ -4443,28 +4584,28 @@
         <v>1</v>
       </c>
       <c r="Q26" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="R26" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="S26">
         <v>0</v>
       </c>
       <c r="T26" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="U26" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="V26" t="s">
-        <v>181</v>
+        <v>201</v>
       </c>
       <c r="X26" t="s">
-        <v>202</v>
+        <v>228</v>
       </c>
       <c r="Y26" t="s">
-        <v>202</v>
+        <v>228</v>
       </c>
       <c r="Z26">
         <v>0</v>
@@ -4509,48 +4650,48 @@
         <v>413.3598484848485</v>
       </c>
       <c r="AN26" t="s">
-        <v>233</v>
+        <v>259</v>
       </c>
       <c r="AO26" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="AP26" t="s">
-        <v>246</v>
+        <v>275</v>
       </c>
       <c r="AQ26" t="s">
-        <v>263</v>
+        <v>292</v>
       </c>
     </row>
     <row r="27" spans="1:43">
       <c r="A27" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B27" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C27" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D27" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="E27">
         <v>29483</v>
       </c>
       <c r="F27" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="G27" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="H27">
         <v>29330</v>
       </c>
       <c r="I27" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="J27" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="K27">
         <v>530</v>
@@ -4571,28 +4712,28 @@
         <v>9</v>
       </c>
       <c r="Q27" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="R27" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="S27">
         <v>0</v>
       </c>
       <c r="T27" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="U27" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="V27" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="X27" t="s">
-        <v>205</v>
+        <v>231</v>
       </c>
       <c r="Y27" t="s">
-        <v>205</v>
+        <v>231</v>
       </c>
       <c r="Z27">
         <v>0</v>
@@ -4637,48 +4778,48 @@
         <v>145.7639482887134</v>
       </c>
       <c r="AN27" t="s">
-        <v>234</v>
+        <v>260</v>
       </c>
       <c r="AO27" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="AP27" t="s">
-        <v>246</v>
+        <v>275</v>
       </c>
       <c r="AQ27" t="s">
-        <v>264</v>
+        <v>293</v>
       </c>
     </row>
     <row r="28" spans="1:43">
       <c r="A28" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B28" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C28" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D28" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="E28">
         <v>7201</v>
       </c>
       <c r="F28" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="G28" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="H28">
         <v>15672</v>
       </c>
       <c r="I28" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="J28" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="K28">
         <v>30</v>
@@ -4699,25 +4840,25 @@
         <v>0</v>
       </c>
       <c r="Q28" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="R28" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="S28">
         <v>0</v>
       </c>
       <c r="U28" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="V28" t="s">
-        <v>181</v>
+        <v>201</v>
       </c>
       <c r="X28" t="s">
-        <v>206</v>
+        <v>232</v>
       </c>
       <c r="Y28" t="s">
-        <v>206</v>
+        <v>232</v>
       </c>
       <c r="Z28">
         <v>0</v>
@@ -4762,48 +4903,48 @@
         <v>1151.359848484848</v>
       </c>
       <c r="AN28" t="s">
-        <v>235</v>
+        <v>261</v>
       </c>
       <c r="AO28" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="AP28" t="s">
-        <v>246</v>
+        <v>275</v>
       </c>
       <c r="AQ28" t="s">
-        <v>265</v>
+        <v>294</v>
       </c>
     </row>
     <row r="29" spans="1:43">
       <c r="A29" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B29" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C29" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D29" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="E29">
         <v>90220</v>
       </c>
       <c r="F29" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="G29" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="H29">
         <v>85043</v>
       </c>
       <c r="I29" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="J29" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="K29">
         <v>156</v>
@@ -4824,28 +4965,28 @@
         <v>3</v>
       </c>
       <c r="Q29" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="R29" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="S29">
         <v>0</v>
       </c>
       <c r="T29" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="U29" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
       <c r="V29" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
       <c r="X29" t="s">
-        <v>207</v>
+        <v>233</v>
       </c>
       <c r="Y29" t="s">
-        <v>207</v>
+        <v>233</v>
       </c>
       <c r="Z29">
         <v>10000</v>
@@ -4890,48 +5031,48 @@
         <v>239.1676005042723</v>
       </c>
       <c r="AN29" t="s">
-        <v>236</v>
+        <v>262</v>
       </c>
       <c r="AO29" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="AP29" t="s">
-        <v>246</v>
+        <v>275</v>
       </c>
       <c r="AQ29" t="s">
-        <v>266</v>
+        <v>295</v>
       </c>
     </row>
     <row r="30" spans="1:43">
       <c r="A30" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B30" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C30" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D30" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="E30">
         <v>90220</v>
       </c>
       <c r="F30" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="G30" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="H30">
         <v>85395</v>
       </c>
       <c r="I30" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="J30" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="K30">
         <v>156</v>
@@ -4952,28 +5093,28 @@
         <v>3</v>
       </c>
       <c r="Q30" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="R30" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="S30">
         <v>0</v>
       </c>
       <c r="T30" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="U30" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="V30" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="X30" t="s">
-        <v>208</v>
+        <v>234</v>
       </c>
       <c r="Y30" t="s">
-        <v>208</v>
+        <v>234</v>
       </c>
       <c r="Z30">
         <v>10000</v>
@@ -5018,48 +5159,48 @@
         <v>240.421837792408</v>
       </c>
       <c r="AN30" t="s">
-        <v>236</v>
+        <v>262</v>
       </c>
       <c r="AO30" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="AP30" t="s">
-        <v>246</v>
+        <v>275</v>
       </c>
       <c r="AQ30" t="s">
-        <v>266</v>
+        <v>295</v>
       </c>
     </row>
     <row r="31" spans="1:43">
       <c r="A31" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B31" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C31" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D31" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="E31">
         <v>90220</v>
       </c>
       <c r="F31" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="G31" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="H31">
         <v>75241</v>
       </c>
       <c r="I31" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="J31" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="K31">
         <v>130</v>
@@ -5080,28 +5221,28 @@
         <v>3</v>
       </c>
       <c r="Q31" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="R31" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="S31">
         <v>0</v>
       </c>
       <c r="T31" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="U31" t="s">
-        <v>171</v>
+        <v>185</v>
       </c>
       <c r="V31" t="s">
-        <v>171</v>
+        <v>185</v>
       </c>
       <c r="X31" t="s">
-        <v>209</v>
+        <v>235</v>
       </c>
       <c r="Y31" t="s">
-        <v>209</v>
+        <v>235</v>
       </c>
       <c r="Z31">
         <v>10000</v>
@@ -5146,48 +5287,48 @@
         <v>352.5377083625157</v>
       </c>
       <c r="AN31" t="s">
-        <v>236</v>
+        <v>262</v>
       </c>
       <c r="AO31" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="AP31" t="s">
-        <v>246</v>
+        <v>275</v>
       </c>
       <c r="AQ31" t="s">
-        <v>266</v>
+        <v>295</v>
       </c>
     </row>
     <row r="32" spans="1:43">
       <c r="A32" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B32" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C32" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D32" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="E32">
         <v>7201</v>
       </c>
       <c r="F32" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="G32" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="H32">
         <v>18202</v>
       </c>
       <c r="I32" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="J32" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="K32">
         <v>79</v>
@@ -5208,28 +5349,28 @@
         <v>2</v>
       </c>
       <c r="Q32" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="R32" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="S32">
         <v>0</v>
       </c>
       <c r="T32" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="U32" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="V32" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="X32" t="s">
-        <v>189</v>
+        <v>215</v>
       </c>
       <c r="Y32" t="s">
-        <v>189</v>
+        <v>215</v>
       </c>
       <c r="Z32">
         <v>10000</v>
@@ -5274,48 +5415,48 @@
         <v>269.4395672042102</v>
       </c>
       <c r="AN32" t="s">
-        <v>237</v>
+        <v>263</v>
       </c>
       <c r="AO32" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="AP32" t="s">
-        <v>246</v>
+        <v>275</v>
       </c>
       <c r="AQ32" t="s">
-        <v>267</v>
+        <v>296</v>
       </c>
     </row>
-    <row r="33" spans="1:43">
+    <row r="33" spans="1:49">
       <c r="A33" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B33" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C33" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D33" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="E33">
         <v>7201</v>
       </c>
       <c r="F33" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="G33" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="H33">
         <v>22406</v>
       </c>
       <c r="I33" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="J33" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="K33">
         <v>158</v>
@@ -5336,28 +5477,28 @@
         <v>3</v>
       </c>
       <c r="Q33" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="R33" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="S33">
         <v>0</v>
       </c>
       <c r="T33" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="U33" t="s">
-        <v>172</v>
+        <v>186</v>
       </c>
       <c r="V33" t="s">
-        <v>172</v>
+        <v>186</v>
       </c>
       <c r="X33" t="s">
-        <v>210</v>
+        <v>236</v>
       </c>
       <c r="Y33" t="s">
-        <v>210</v>
+        <v>236</v>
       </c>
       <c r="Z33">
         <v>10000</v>
@@ -5402,48 +5543,48 @@
         <v>225.4889603547562</v>
       </c>
       <c r="AN33" t="s">
-        <v>237</v>
+        <v>263</v>
       </c>
       <c r="AO33" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="AP33" t="s">
-        <v>246</v>
+        <v>275</v>
       </c>
       <c r="AQ33" t="s">
-        <v>267</v>
+        <v>296</v>
       </c>
     </row>
-    <row r="34" spans="1:43">
+    <row r="34" spans="1:49">
       <c r="A34" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B34" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C34" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D34" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="E34">
         <v>90220</v>
       </c>
       <c r="F34" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="G34" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="H34">
         <v>91752</v>
       </c>
       <c r="I34" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="J34" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="K34">
         <v>950</v>
@@ -5464,25 +5605,25 @@
         <v>0</v>
       </c>
       <c r="Q34" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="R34" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="S34">
         <v>0</v>
       </c>
       <c r="U34" t="s">
-        <v>173</v>
+        <v>187</v>
       </c>
       <c r="V34" t="s">
-        <v>173</v>
+        <v>187</v>
       </c>
       <c r="X34" t="s">
-        <v>211</v>
+        <v>237</v>
       </c>
       <c r="Y34" t="s">
-        <v>211</v>
+        <v>237</v>
       </c>
       <c r="Z34">
         <v>0</v>
@@ -5527,48 +5668,48 @@
         <v>1106.403925619835</v>
       </c>
       <c r="AN34" t="s">
-        <v>238</v>
+        <v>264</v>
       </c>
       <c r="AO34" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="AP34" t="s">
-        <v>246</v>
+        <v>275</v>
       </c>
       <c r="AQ34" t="s">
-        <v>268</v>
+        <v>297</v>
       </c>
     </row>
-    <row r="35" spans="1:43">
+    <row r="35" spans="1:49">
       <c r="A35" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B35" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C35" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D35" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="E35">
         <v>7201</v>
       </c>
       <c r="F35" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G35" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="H35">
         <v>21740</v>
       </c>
       <c r="I35" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="J35" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="K35">
         <v>51</v>
@@ -5589,28 +5730,28 @@
         <v>5</v>
       </c>
       <c r="Q35" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="R35" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="S35">
         <v>0</v>
       </c>
       <c r="T35" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="U35" t="s">
-        <v>174</v>
+        <v>188</v>
       </c>
       <c r="V35" t="s">
-        <v>174</v>
+        <v>188</v>
       </c>
       <c r="X35" t="s">
-        <v>212</v>
+        <v>238</v>
       </c>
       <c r="Y35" t="s">
-        <v>212</v>
+        <v>238</v>
       </c>
       <c r="Z35">
         <v>0</v>
@@ -5655,48 +5796,48 @@
         <v>188.198471037178</v>
       </c>
       <c r="AN35" t="s">
-        <v>239</v>
+        <v>265</v>
       </c>
       <c r="AO35" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="AP35" t="s">
-        <v>246</v>
+        <v>275</v>
       </c>
       <c r="AQ35" t="s">
-        <v>269</v>
+        <v>298</v>
       </c>
     </row>
-    <row r="36" spans="1:43">
+    <row r="36" spans="1:49">
       <c r="A36" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B36" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C36" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D36" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="E36">
         <v>29483</v>
       </c>
       <c r="F36" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="G36" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="H36">
         <v>38654</v>
       </c>
       <c r="I36" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="J36" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="K36">
         <v>83</v>
@@ -5717,28 +5858,28 @@
         <v>6</v>
       </c>
       <c r="Q36" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="R36" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="S36">
         <v>0</v>
       </c>
       <c r="T36" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="U36" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="V36" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="X36" t="s">
-        <v>213</v>
+        <v>239</v>
       </c>
       <c r="Y36" t="s">
-        <v>213</v>
+        <v>239</v>
       </c>
       <c r="Z36">
         <v>0</v>
@@ -5783,48 +5924,48 @@
         <v>183.8976550883916</v>
       </c>
       <c r="AN36" t="s">
-        <v>240</v>
+        <v>266</v>
       </c>
       <c r="AO36" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="AP36" t="s">
-        <v>246</v>
+        <v>275</v>
       </c>
       <c r="AQ36" t="s">
-        <v>270</v>
+        <v>299</v>
       </c>
     </row>
-    <row r="37" spans="1:43">
+    <row r="37" spans="1:49">
       <c r="A37" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B37" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C37" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D37" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="E37">
         <v>7201</v>
       </c>
       <c r="F37" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="G37" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="H37">
         <v>18447</v>
       </c>
       <c r="I37" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="J37" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="K37">
         <v>397</v>
@@ -5845,28 +5986,28 @@
         <v>18</v>
       </c>
       <c r="Q37" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="R37" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="S37">
         <v>0</v>
       </c>
       <c r="T37" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="U37" t="s">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="V37" t="s">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="X37" t="s">
-        <v>214</v>
+        <v>240</v>
       </c>
       <c r="Y37" t="s">
-        <v>214</v>
+        <v>240</v>
       </c>
       <c r="Z37">
         <v>0</v>
@@ -5911,48 +6052,48 @@
         <v>119.2752691063541</v>
       </c>
       <c r="AN37" t="s">
-        <v>241</v>
+        <v>267</v>
       </c>
       <c r="AO37" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="AP37" t="s">
-        <v>246</v>
+        <v>275</v>
       </c>
       <c r="AQ37" t="s">
-        <v>271</v>
+        <v>300</v>
       </c>
     </row>
-    <row r="38" spans="1:43">
+    <row r="38" spans="1:49">
       <c r="A38" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B38" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C38" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D38" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="E38">
         <v>29483</v>
       </c>
       <c r="F38" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="G38" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="H38">
         <v>28134</v>
       </c>
       <c r="I38" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="J38" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="K38">
         <v>44</v>
@@ -5973,28 +6114,28 @@
         <v>4</v>
       </c>
       <c r="Q38" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="R38" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="S38">
         <v>0</v>
       </c>
       <c r="T38" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="U38" t="s">
-        <v>177</v>
+        <v>191</v>
       </c>
       <c r="V38" t="s">
-        <v>177</v>
+        <v>191</v>
       </c>
       <c r="X38" t="s">
-        <v>215</v>
+        <v>241</v>
       </c>
       <c r="Y38" t="s">
-        <v>215</v>
+        <v>241</v>
       </c>
       <c r="Z38">
         <v>0</v>
@@ -6039,48 +6180,48 @@
         <v>177.7675780666174</v>
       </c>
       <c r="AN38" t="s">
-        <v>242</v>
+        <v>268</v>
       </c>
       <c r="AO38" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="AP38" t="s">
-        <v>246</v>
+        <v>275</v>
       </c>
       <c r="AQ38" t="s">
-        <v>272</v>
+        <v>301</v>
       </c>
     </row>
-    <row r="39" spans="1:43">
+    <row r="39" spans="1:49">
       <c r="A39" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B39" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C39" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D39" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="E39">
         <v>29483</v>
       </c>
       <c r="F39" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="G39" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="H39">
         <v>30096</v>
       </c>
       <c r="I39" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="J39" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="K39">
         <v>896</v>
@@ -6101,25 +6242,25 @@
         <v>16</v>
       </c>
       <c r="Q39" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="R39" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="S39">
         <v>0</v>
       </c>
       <c r="U39" t="s">
-        <v>178</v>
+        <v>192</v>
       </c>
       <c r="V39" t="s">
-        <v>178</v>
+        <v>192</v>
       </c>
       <c r="X39" t="s">
-        <v>216</v>
+        <v>242</v>
       </c>
       <c r="Y39" t="s">
-        <v>216</v>
+        <v>242</v>
       </c>
       <c r="Z39">
         <v>0</v>
@@ -6164,48 +6305,48 @@
         <v>136.1575088920063</v>
       </c>
       <c r="AN39" t="s">
-        <v>243</v>
+        <v>269</v>
       </c>
       <c r="AO39" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="AP39" t="s">
-        <v>246</v>
+        <v>275</v>
       </c>
       <c r="AQ39" t="s">
-        <v>273</v>
+        <v>302</v>
       </c>
     </row>
-    <row r="40" spans="1:43">
+    <row r="40" spans="1:49">
       <c r="A40" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B40" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C40" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D40" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="E40">
         <v>7201</v>
       </c>
       <c r="F40" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="G40" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="H40">
         <v>15672</v>
       </c>
       <c r="I40" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="J40" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="K40">
         <v>50</v>
@@ -6226,28 +6367,28 @@
         <v>3</v>
       </c>
       <c r="Q40" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="R40" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="S40">
         <v>0</v>
       </c>
       <c r="T40" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="U40" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="V40" t="s">
-        <v>181</v>
+        <v>201</v>
       </c>
       <c r="X40" t="s">
-        <v>217</v>
+        <v>243</v>
       </c>
       <c r="Y40" t="s">
-        <v>217</v>
+        <v>243</v>
       </c>
       <c r="Z40">
         <v>0</v>
@@ -6292,48 +6433,48 @@
         <v>219.9901712404764</v>
       </c>
       <c r="AN40" t="s">
-        <v>244</v>
+        <v>270</v>
       </c>
       <c r="AO40" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="AP40" t="s">
-        <v>246</v>
+        <v>275</v>
       </c>
       <c r="AQ40" t="s">
-        <v>274</v>
+        <v>303</v>
       </c>
     </row>
-    <row r="41" spans="1:43">
+    <row r="41" spans="1:49">
       <c r="A41" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B41" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C41" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D41" t="s">
-        <v>51</v>
-      </c>
-      <c r="E41" t="s">
-        <v>55</v>
+        <v>57</v>
+      </c>
+      <c r="E41">
+        <v>7201</v>
       </c>
       <c r="F41" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="G41" t="s">
-        <v>98</v>
-      </c>
-      <c r="H41" t="s">
-        <v>106</v>
+        <v>105</v>
+      </c>
+      <c r="H41">
+        <v>15672</v>
       </c>
       <c r="I41" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="J41" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="K41">
         <v>15</v>
@@ -6354,28 +6495,28 @@
         <v>1</v>
       </c>
       <c r="Q41" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="R41" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="S41">
         <v>0</v>
       </c>
       <c r="T41" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="U41" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="V41" t="s">
-        <v>181</v>
+        <v>201</v>
       </c>
       <c r="X41" t="s">
-        <v>202</v>
+        <v>228</v>
       </c>
       <c r="Y41" t="s">
-        <v>202</v>
+        <v>228</v>
       </c>
       <c r="Z41">
         <v>0</v>
@@ -6420,16 +6561,892 @@
         <v>238.6052188552189</v>
       </c>
       <c r="AN41" t="s">
-        <v>245</v>
+        <v>271</v>
       </c>
       <c r="AO41" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="AP41" t="s">
-        <v>246</v>
+        <v>275</v>
       </c>
       <c r="AQ41" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="42" spans="1:49">
+      <c r="A42" t="s">
+        <v>49</v>
+      </c>
+      <c r="B42" t="s">
+        <v>51</v>
+      </c>
+      <c r="C42" t="s">
+        <v>55</v>
+      </c>
+      <c r="D42" t="s">
+        <v>56</v>
+      </c>
+      <c r="E42">
+        <v>29483</v>
+      </c>
+      <c r="F42" t="s">
+        <v>86</v>
+      </c>
+      <c r="G42" t="s">
+        <v>112</v>
+      </c>
+      <c r="H42">
+        <v>30096</v>
+      </c>
+      <c r="I42" t="s">
+        <v>115</v>
+      </c>
+      <c r="J42" t="s">
+        <v>116</v>
+      </c>
+      <c r="K42">
+        <v>896</v>
+      </c>
+      <c r="L42">
+        <v>4480</v>
+      </c>
+      <c r="M42">
+        <v>4480</v>
+      </c>
+      <c r="N42">
+        <v>28.06272</v>
+      </c>
+      <c r="O42">
+        <v>28.06272</v>
+      </c>
+      <c r="P42">
+        <v>16</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>123</v>
+      </c>
+      <c r="R42" t="s">
+        <v>124</v>
+      </c>
+      <c r="S42">
+        <v>0</v>
+      </c>
+      <c r="T42" t="s">
+        <v>154</v>
+      </c>
+      <c r="U42" t="s">
+        <v>193</v>
+      </c>
+      <c r="V42" t="s">
+        <v>202</v>
+      </c>
+      <c r="X42" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>154</v>
+      </c>
+      <c r="Z42">
+        <v>0</v>
+      </c>
+      <c r="AA42">
+        <v>0</v>
+      </c>
+      <c r="AB42">
+        <v>78.1198347107438</v>
+      </c>
+      <c r="AC42">
+        <v>79.90155793643254</v>
+      </c>
+      <c r="AD42">
+        <v>2192.255047933884</v>
+      </c>
+      <c r="AE42">
+        <v>50</v>
+      </c>
+      <c r="AF42">
+        <v>53</v>
+      </c>
+      <c r="AG42">
+        <v>100</v>
+      </c>
+      <c r="AH42">
+        <v>50</v>
+      </c>
+      <c r="AI42">
+        <v>20</v>
+      </c>
+      <c r="AJ42">
+        <v>320</v>
+      </c>
+      <c r="AK42">
+        <v>1047.15</v>
+      </c>
+      <c r="AL42">
+        <v>3762.405047933884</v>
+      </c>
+      <c r="AM42">
+        <v>134.0712891670474</v>
+      </c>
+      <c r="AN42" t="s">
+        <v>269</v>
+      </c>
+      <c r="AO42" t="s">
+        <v>112</v>
+      </c>
+      <c r="AP42" t="s">
         <v>275</v>
+      </c>
+      <c r="AQ42" t="s">
+        <v>305</v>
+      </c>
+      <c r="AR42" t="s">
+        <v>311</v>
+      </c>
+      <c r="AS42">
+        <v>52500</v>
+      </c>
+      <c r="AT42">
+        <v>2500</v>
+      </c>
+      <c r="AU42">
+        <v>1200</v>
+      </c>
+      <c r="AV42">
+        <v>4296.590909090909</v>
+      </c>
+      <c r="AW42">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="43" spans="1:49">
+      <c r="A43" t="s">
+        <v>49</v>
+      </c>
+      <c r="B43" t="s">
+        <v>53</v>
+      </c>
+      <c r="C43" t="s">
+        <v>55</v>
+      </c>
+      <c r="D43" t="s">
+        <v>57</v>
+      </c>
+      <c r="E43">
+        <v>7201</v>
+      </c>
+      <c r="F43" t="s">
+        <v>87</v>
+      </c>
+      <c r="G43" t="s">
+        <v>113</v>
+      </c>
+      <c r="H43">
+        <v>17057</v>
+      </c>
+      <c r="I43" t="s">
+        <v>115</v>
+      </c>
+      <c r="J43" t="s">
+        <v>116</v>
+      </c>
+      <c r="K43">
+        <v>30</v>
+      </c>
+      <c r="L43">
+        <v>565.5</v>
+      </c>
+      <c r="M43">
+        <v>565.5</v>
+      </c>
+      <c r="N43">
+        <v>1.75</v>
+      </c>
+      <c r="O43">
+        <v>1.7496</v>
+      </c>
+      <c r="P43">
+        <v>1</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>123</v>
+      </c>
+      <c r="R43" t="s">
+        <v>124</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43" t="s">
+        <v>155</v>
+      </c>
+      <c r="U43" t="s">
+        <v>194</v>
+      </c>
+      <c r="V43" t="s">
+        <v>203</v>
+      </c>
+      <c r="X43" t="s">
+        <v>155</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>155</v>
+      </c>
+      <c r="Z43">
+        <v>0</v>
+      </c>
+      <c r="AA43">
+        <v>0</v>
+      </c>
+      <c r="AB43">
+        <v>71.35984848484848</v>
+      </c>
+      <c r="AC43">
+        <v>99.93127705627705</v>
+      </c>
+      <c r="AD43">
+        <v>124.8797348484848</v>
+      </c>
+      <c r="AE43">
+        <v>50</v>
+      </c>
+      <c r="AF43">
+        <v>0</v>
+      </c>
+      <c r="AG43">
+        <v>100</v>
+      </c>
+      <c r="AH43">
+        <v>50</v>
+      </c>
+      <c r="AI43">
+        <v>18</v>
+      </c>
+      <c r="AJ43">
+        <v>18</v>
+      </c>
+      <c r="AK43">
+        <v>275.96</v>
+      </c>
+      <c r="AL43">
+        <v>568.8397348484848</v>
+      </c>
+      <c r="AM43">
+        <v>325.051277056277</v>
+      </c>
+      <c r="AN43" t="s">
+        <v>272</v>
+      </c>
+      <c r="AO43" t="s">
+        <v>113</v>
+      </c>
+      <c r="AP43" t="s">
+        <v>275</v>
+      </c>
+      <c r="AQ43" t="s">
+        <v>306</v>
+      </c>
+      <c r="AR43" t="s">
+        <v>312</v>
+      </c>
+      <c r="AS43">
+        <v>52500</v>
+      </c>
+      <c r="AT43">
+        <v>2500</v>
+      </c>
+      <c r="AU43">
+        <v>1185</v>
+      </c>
+      <c r="AV43">
+        <v>4281.590909090909</v>
+      </c>
+      <c r="AW43">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="44" spans="1:49">
+      <c r="A44" t="s">
+        <v>49</v>
+      </c>
+      <c r="B44" t="s">
+        <v>53</v>
+      </c>
+      <c r="C44" t="s">
+        <v>55</v>
+      </c>
+      <c r="D44" t="s">
+        <v>56</v>
+      </c>
+      <c r="E44">
+        <v>29483</v>
+      </c>
+      <c r="F44" t="s">
+        <v>73</v>
+      </c>
+      <c r="G44" t="s">
+        <v>99</v>
+      </c>
+      <c r="H44">
+        <v>29330</v>
+      </c>
+      <c r="I44" t="s">
+        <v>115</v>
+      </c>
+      <c r="J44" t="s">
+        <v>116</v>
+      </c>
+      <c r="K44">
+        <v>176</v>
+      </c>
+      <c r="L44">
+        <v>1804</v>
+      </c>
+      <c r="M44">
+        <v>1804</v>
+      </c>
+      <c r="N44">
+        <v>5.026</v>
+      </c>
+      <c r="O44">
+        <v>5.02624</v>
+      </c>
+      <c r="P44">
+        <v>3</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>123</v>
+      </c>
+      <c r="R44" t="s">
+        <v>124</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44" t="s">
+        <v>156</v>
+      </c>
+      <c r="U44" t="s">
+        <v>195</v>
+      </c>
+      <c r="V44" t="s">
+        <v>204</v>
+      </c>
+      <c r="X44" t="s">
+        <v>156</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>156</v>
+      </c>
+      <c r="Z44">
+        <v>0</v>
+      </c>
+      <c r="AA44">
+        <v>0</v>
+      </c>
+      <c r="AB44">
+        <v>78.1198347107438</v>
+      </c>
+      <c r="AC44">
+        <v>88.0681037119376</v>
+      </c>
+      <c r="AD44">
+        <v>392.6302892561984</v>
+      </c>
+      <c r="AE44">
+        <v>50</v>
+      </c>
+      <c r="AF44">
+        <v>0</v>
+      </c>
+      <c r="AG44">
+        <v>100</v>
+      </c>
+      <c r="AH44">
+        <v>50</v>
+      </c>
+      <c r="AI44">
+        <v>20</v>
+      </c>
+      <c r="AJ44">
+        <v>60</v>
+      </c>
+      <c r="AK44">
+        <v>317.68</v>
+      </c>
+      <c r="AL44">
+        <v>920.3102892561983</v>
+      </c>
+      <c r="AM44">
+        <v>183.1098864417426</v>
+      </c>
+      <c r="AN44" t="s">
+        <v>273</v>
+      </c>
+      <c r="AO44" t="s">
+        <v>99</v>
+      </c>
+      <c r="AP44" t="s">
+        <v>275</v>
+      </c>
+      <c r="AQ44" t="s">
+        <v>307</v>
+      </c>
+      <c r="AR44" t="s">
+        <v>313</v>
+      </c>
+      <c r="AS44">
+        <v>52500</v>
+      </c>
+      <c r="AT44">
+        <v>2500</v>
+      </c>
+      <c r="AU44">
+        <v>1200</v>
+      </c>
+      <c r="AV44">
+        <v>4296.590909090909</v>
+      </c>
+      <c r="AW44">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="45" spans="1:49">
+      <c r="A45" t="s">
+        <v>49</v>
+      </c>
+      <c r="B45" t="s">
+        <v>53</v>
+      </c>
+      <c r="C45" t="s">
+        <v>55</v>
+      </c>
+      <c r="D45" t="s">
+        <v>57</v>
+      </c>
+      <c r="E45">
+        <v>7201</v>
+      </c>
+      <c r="F45" t="s">
+        <v>79</v>
+      </c>
+      <c r="G45" t="s">
+        <v>105</v>
+      </c>
+      <c r="H45">
+        <v>15672</v>
+      </c>
+      <c r="I45" t="s">
+        <v>115</v>
+      </c>
+      <c r="J45" t="s">
+        <v>116</v>
+      </c>
+      <c r="K45">
+        <v>53</v>
+      </c>
+      <c r="L45">
+        <v>795</v>
+      </c>
+      <c r="M45">
+        <v>795</v>
+      </c>
+      <c r="N45">
+        <v>6.106</v>
+      </c>
+      <c r="O45">
+        <v>6.1056</v>
+      </c>
+      <c r="P45">
+        <v>4</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>123</v>
+      </c>
+      <c r="R45" t="s">
+        <v>124</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45" t="s">
+        <v>157</v>
+      </c>
+      <c r="U45" t="s">
+        <v>196</v>
+      </c>
+      <c r="V45" t="s">
+        <v>205</v>
+      </c>
+      <c r="X45" t="s">
+        <v>157</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>157</v>
+      </c>
+      <c r="Z45">
+        <v>0</v>
+      </c>
+      <c r="AA45">
+        <v>0</v>
+      </c>
+      <c r="AB45">
+        <v>71.35984848484848</v>
+      </c>
+      <c r="AC45">
+        <v>79.5485153698796</v>
+      </c>
+      <c r="AD45">
+        <v>435.7232348484848</v>
+      </c>
+      <c r="AE45">
+        <v>50</v>
+      </c>
+      <c r="AF45">
+        <v>0</v>
+      </c>
+      <c r="AG45">
+        <v>100</v>
+      </c>
+      <c r="AH45">
+        <v>50</v>
+      </c>
+      <c r="AI45">
+        <v>18</v>
+      </c>
+      <c r="AJ45">
+        <v>72</v>
+      </c>
+      <c r="AK45">
+        <v>384</v>
+      </c>
+      <c r="AL45">
+        <v>1041.723234848485</v>
+      </c>
+      <c r="AM45">
+        <v>170.6064911314256</v>
+      </c>
+      <c r="AN45" t="s">
+        <v>274</v>
+      </c>
+      <c r="AO45" t="s">
+        <v>105</v>
+      </c>
+      <c r="AP45" t="s">
+        <v>275</v>
+      </c>
+      <c r="AQ45" t="s">
+        <v>308</v>
+      </c>
+      <c r="AR45" t="s">
+        <v>314</v>
+      </c>
+      <c r="AS45">
+        <v>52500</v>
+      </c>
+      <c r="AT45">
+        <v>2500</v>
+      </c>
+      <c r="AU45">
+        <v>1185</v>
+      </c>
+      <c r="AV45">
+        <v>4281.590909090909</v>
+      </c>
+      <c r="AW45">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="46" spans="1:49">
+      <c r="A46" t="s">
+        <v>49</v>
+      </c>
+      <c r="B46" t="s">
+        <v>53</v>
+      </c>
+      <c r="C46" t="s">
+        <v>55</v>
+      </c>
+      <c r="D46" t="s">
+        <v>56</v>
+      </c>
+      <c r="E46">
+        <v>29483</v>
+      </c>
+      <c r="F46" t="s">
+        <v>83</v>
+      </c>
+      <c r="G46" t="s">
+        <v>109</v>
+      </c>
+      <c r="H46">
+        <v>38654</v>
+      </c>
+      <c r="I46" t="s">
+        <v>115</v>
+      </c>
+      <c r="J46" t="s">
+        <v>116</v>
+      </c>
+      <c r="K46">
+        <v>83</v>
+      </c>
+      <c r="L46">
+        <v>1374</v>
+      </c>
+      <c r="M46">
+        <v>1374</v>
+      </c>
+      <c r="N46">
+        <v>10.433</v>
+      </c>
+      <c r="O46">
+        <v>10.43301</v>
+      </c>
+      <c r="P46">
+        <v>6</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>123</v>
+      </c>
+      <c r="R46" t="s">
+        <v>124</v>
+      </c>
+      <c r="S46">
+        <v>0</v>
+      </c>
+      <c r="T46" t="s">
+        <v>158</v>
+      </c>
+      <c r="U46" t="s">
+        <v>197</v>
+      </c>
+      <c r="V46" t="s">
+        <v>206</v>
+      </c>
+      <c r="X46" t="s">
+        <v>158</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>158</v>
+      </c>
+      <c r="Z46">
+        <v>0</v>
+      </c>
+      <c r="AA46">
+        <v>0</v>
+      </c>
+      <c r="AB46">
+        <v>73.57438016528926</v>
+      </c>
+      <c r="AC46">
+        <v>78.36686554820884</v>
+      </c>
+      <c r="AD46">
+        <v>767.6015082644628</v>
+      </c>
+      <c r="AE46">
+        <v>50</v>
+      </c>
+      <c r="AF46">
+        <v>0</v>
+      </c>
+      <c r="AG46">
+        <v>100</v>
+      </c>
+      <c r="AH46">
+        <v>50</v>
+      </c>
+      <c r="AI46">
+        <v>20</v>
+      </c>
+      <c r="AJ46">
+        <v>120</v>
+      </c>
+      <c r="AK46">
+        <v>1173.88</v>
+      </c>
+      <c r="AL46">
+        <v>2211.481508264463</v>
+      </c>
+      <c r="AM46">
+        <v>211.9698560590878</v>
+      </c>
+      <c r="AN46" t="s">
+        <v>266</v>
+      </c>
+      <c r="AO46" t="s">
+        <v>109</v>
+      </c>
+      <c r="AP46" t="s">
+        <v>275</v>
+      </c>
+      <c r="AQ46" t="s">
+        <v>309</v>
+      </c>
+      <c r="AR46" t="s">
+        <v>315</v>
+      </c>
+      <c r="AS46">
+        <v>52500</v>
+      </c>
+      <c r="AT46">
+        <v>2250</v>
+      </c>
+      <c r="AU46">
+        <v>1200</v>
+      </c>
+      <c r="AV46">
+        <v>4046.590909090909</v>
+      </c>
+      <c r="AW46">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="47" spans="1:49">
+      <c r="A47" t="s">
+        <v>49</v>
+      </c>
+      <c r="B47" t="s">
+        <v>53</v>
+      </c>
+      <c r="C47" t="s">
+        <v>55</v>
+      </c>
+      <c r="D47" t="s">
+        <v>57</v>
+      </c>
+      <c r="E47" t="s">
+        <v>61</v>
+      </c>
+      <c r="F47" t="s">
+        <v>84</v>
+      </c>
+      <c r="G47" t="s">
+        <v>110</v>
+      </c>
+      <c r="H47" t="s">
+        <v>114</v>
+      </c>
+      <c r="I47" t="s">
+        <v>115</v>
+      </c>
+      <c r="J47" t="s">
+        <v>116</v>
+      </c>
+      <c r="K47">
+        <v>397</v>
+      </c>
+      <c r="L47">
+        <v>4970.44</v>
+      </c>
+      <c r="M47">
+        <v>4970.44</v>
+      </c>
+      <c r="N47">
+        <v>30.764</v>
+      </c>
+      <c r="O47">
+        <v>30.76353</v>
+      </c>
+      <c r="P47">
+        <v>18</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>123</v>
+      </c>
+      <c r="R47" t="s">
+        <v>124</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47" t="s">
+        <v>159</v>
+      </c>
+      <c r="U47" t="s">
+        <v>198</v>
+      </c>
+      <c r="V47" t="s">
+        <v>207</v>
+      </c>
+      <c r="X47" t="s">
+        <v>198</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>198</v>
+      </c>
+      <c r="Z47">
+        <v>0</v>
+      </c>
+      <c r="AA47">
+        <v>0</v>
+      </c>
+      <c r="AB47">
+        <v>67.19318181818181</v>
+      </c>
+      <c r="AC47">
+        <v>68.8184581151523</v>
+      </c>
+      <c r="AD47">
+        <v>2067.131045454545</v>
+      </c>
+      <c r="AE47">
+        <v>50</v>
+      </c>
+      <c r="AF47">
+        <v>53</v>
+      </c>
+      <c r="AG47">
+        <v>100</v>
+      </c>
+      <c r="AH47">
+        <v>50</v>
+      </c>
+      <c r="AI47">
+        <v>18</v>
+      </c>
+      <c r="AJ47">
+        <v>324</v>
+      </c>
+      <c r="AK47">
+        <v>963.5699999999999</v>
+      </c>
+      <c r="AL47">
+        <v>3557.701045454545</v>
+      </c>
+      <c r="AM47">
+        <v>115.6449436176877</v>
+      </c>
+      <c r="AN47" t="s">
+        <v>267</v>
+      </c>
+      <c r="AO47" t="s">
+        <v>110</v>
+      </c>
+      <c r="AP47" t="s">
+        <v>275</v>
+      </c>
+      <c r="AQ47" t="s">
+        <v>310</v>
+      </c>
+      <c r="AR47" t="s">
+        <v>316</v>
+      </c>
+      <c r="AS47">
+        <v>52500</v>
+      </c>
+      <c r="AT47">
+        <v>2250</v>
+      </c>
+      <c r="AU47">
+        <v>1185</v>
+      </c>
+      <c r="AV47">
+        <v>4031.590909090909</v>
+      </c>
+      <c r="AW47">
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/Logs/quotations.xlsx
+++ b/Logs/quotations.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ayyanagouda\Last Mile Rates\Logs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEE8077F-F682-4565-ADBE-5B97F911C5C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -487,9 +493,6 @@
     <t>{'Rate Type': 'LTL', 'Rate': 317.68, 'Carrier Name': 'Estes Express Lines', 'Service Provider': 'Ex-Freight', 'Source': 'API', 'Date': '30-08-2025'}</t>
   </si>
   <si>
-    <t>{'Rate Type': 'LTL', 'Rate': 384.0, 'Carrier Name': '', 'Service Provider': 'AmznFrgt', 'Source': 'No API STATIC DATA', 'Date': Timestamp('2025-08-28 00:00:00')}</t>
-  </si>
-  <si>
     <t>{'Rate Type': 'LTL', 'Rate': 1173.88, 'Carrier Name': 'Estes Express Lines VL', 'Service Provider': 'HeyPrimo', 'Source': 'API', 'Date': '02-09-2025'}</t>
   </si>
   <si>
@@ -604,9 +607,6 @@
     <t>{'Rate Type': 'FTL', 'Rate': 1038.345, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt', 'Source': 'API', 'Date': '30-08-2025'}</t>
   </si>
   <si>
-    <t>{'Rate Type': 'FTL', 'Rate': 928.0, 'Carrier Name': '', 'Service Provider': 'JB.Hunt', 'Source': 'No API STATIC DATA', 'Date': Timestamp('2025-08-28 00:00:00')}</t>
-  </si>
-  <si>
     <t>{'Rate Type': 'FTL', 'Rate': 1571.0700000000002, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt', 'Source': 'API', 'Date': '02-09-2025'}</t>
   </si>
   <si>
@@ -631,9 +631,6 @@
     <t>{'Rate Type': 'FTL53', 'Rate': 1038.345, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt', 'Source': 'API', 'Date': '30-08-2025'}</t>
   </si>
   <si>
-    <t>{'Rate Type': 'FTL53', 'Rate': 877.0, 'Carrier Name': '', 'Service Provider': 'NTG', 'Source': 'No API STATIC DATA', 'Date': Timestamp('2025-08-28 00:00:00')}</t>
-  </si>
-  <si>
     <t>{'Rate Type': 'FTL53', 'Rate': 0, 'Carrier Name': 'Jb Hunt API Failed :No valid rates returned', 'Service Provider': 'J.B. Hunt', 'Source': 'API', 'Date': '02-09-2025'}</t>
   </si>
   <si>
@@ -965,13 +962,22 @@
   </si>
   <si>
     <t>CMM0077LCL0002_20250902071644</t>
+  </si>
+  <si>
+    <t>{'Rate Type': 'LTL', 'Rate': 384.0, 'Carrier Name': '', 'Service Provider': 'AmznFrgt', 'Source': 'No API STATIC DATA', 'Date': '28-08-2025'}</t>
+  </si>
+  <si>
+    <t>{'Rate Type': 'FTL53', 'Rate': 877.0, 'Carrier Name': '', 'Service Provider': 'NTG', 'Source': 'No API STATIC DATA', 'Date': '28-08-2025'}</t>
+  </si>
+  <si>
+    <t>{'Rate Type': 'FTL', 'Rate': 928.0, 'Carrier Name': '', 'Service Provider': 'JB.Hunt', 'Source': 'No API STATIC DATA', 'Date': '28-08-2025'}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1034,13 +1040,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1078,7 +1092,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1112,6 +1126,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1146,9 +1161,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1321,14 +1337,65 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AW47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="Y35" workbookViewId="0">
+      <selection activeCell="S45" sqref="S45"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="51.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="60.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="129.44140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="128" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="130" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="129.44140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="19.21875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="12" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="4.5546875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="4.44140625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="12" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="60.6640625" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="31.88671875" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="33.33203125" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="28.21875" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="14" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:49">
+    <row r="1" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1477,7 +1544,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:49">
+    <row r="2" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>49</v>
       </c>
@@ -1521,7 +1588,7 @@
         <v>9.02</v>
       </c>
       <c r="O2">
-        <v>72.16128</v>
+        <v>72.161280000000005</v>
       </c>
       <c r="P2">
         <v>6</v>
@@ -1539,16 +1606,16 @@
         <v>125</v>
       </c>
       <c r="U2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="V2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="X2" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="Y2" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -1557,13 +1624,13 @@
         <v>0</v>
       </c>
       <c r="AB2">
-        <v>78.1198347107438</v>
+        <v>78.119834710743802</v>
       </c>
       <c r="AC2">
         <v>83.66307196129813</v>
       </c>
       <c r="AD2">
-        <v>704.6409090909091</v>
+        <v>704.64090909090908</v>
       </c>
       <c r="AE2">
         <v>50</v>
@@ -1590,22 +1657,22 @@
         <v>1573.800909090909</v>
       </c>
       <c r="AM2">
-        <v>174.4790364845797</v>
+        <v>174.47903648457969</v>
       </c>
       <c r="AN2" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="AO2" t="s">
         <v>88</v>
       </c>
       <c r="AP2" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="AQ2" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
-    <row r="3" spans="1:49">
+    <row r="3" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>49</v>
       </c>
@@ -1649,7 +1716,7 @@
         <v>16.224</v>
       </c>
       <c r="O3">
-        <v>72.16128</v>
+        <v>72.161280000000005</v>
       </c>
       <c r="P3">
         <v>10</v>
@@ -1667,16 +1734,16 @@
         <v>126</v>
       </c>
       <c r="U3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="V3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="X3" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="Y3" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -1685,10 +1752,10 @@
         <v>0</v>
       </c>
       <c r="AB3">
-        <v>71.35984848484848</v>
+        <v>71.359848484848484</v>
       </c>
       <c r="AC3">
-        <v>74.441702528241</v>
+        <v>74.441702528240995</v>
       </c>
       <c r="AD3">
         <v>1157.742181818182</v>
@@ -1715,25 +1782,25 @@
         <v>1515.57</v>
       </c>
       <c r="AL3">
-        <v>3056.312181818182</v>
+        <v>3056.3121818181821</v>
       </c>
       <c r="AM3">
         <v>188.3821611081226</v>
       </c>
       <c r="AN3" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="AO3" t="s">
         <v>89</v>
       </c>
       <c r="AP3" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="AQ3" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
-    <row r="4" spans="1:49">
+    <row r="4" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>49</v>
       </c>
@@ -1777,7 +1844,7 @@
         <v>14.439</v>
       </c>
       <c r="O4">
-        <v>72.16128</v>
+        <v>72.161280000000005</v>
       </c>
       <c r="P4">
         <v>9</v>
@@ -1795,16 +1862,16 @@
         <v>127</v>
       </c>
       <c r="U4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="V4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="X4" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="Y4" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -1813,10 +1880,10 @@
         <v>0</v>
       </c>
       <c r="AB4">
-        <v>81.02892561983471</v>
+        <v>81.028925619834709</v>
       </c>
       <c r="AC4">
-        <v>84.49176930707067</v>
+        <v>84.491769307070669</v>
       </c>
       <c r="AD4">
         <v>1169.976657024793</v>
@@ -1846,22 +1913,22 @@
         <v>2867.206657024793</v>
       </c>
       <c r="AM4">
-        <v>198.5737694455844</v>
+        <v>198.57376944558439</v>
       </c>
       <c r="AN4" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="AO4" t="s">
         <v>90</v>
       </c>
       <c r="AP4" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="AQ4" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
-    <row r="5" spans="1:49">
+    <row r="5" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>49</v>
       </c>
@@ -1905,7 +1972,7 @@
         <v>14.439</v>
       </c>
       <c r="O5">
-        <v>72.16128</v>
+        <v>72.161280000000005</v>
       </c>
       <c r="P5">
         <v>9</v>
@@ -1923,16 +1990,16 @@
         <v>128</v>
       </c>
       <c r="U5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="V5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="X5" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="Y5" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="Z5">
         <v>0</v>
@@ -1941,10 +2008,10 @@
         <v>0</v>
       </c>
       <c r="AB5">
-        <v>81.02892561983471</v>
+        <v>81.028925619834709</v>
       </c>
       <c r="AC5">
-        <v>84.49176930707067</v>
+        <v>84.491769307070669</v>
       </c>
       <c r="AD5">
         <v>1169.976657024793</v>
@@ -1971,25 +2038,25 @@
         <v>638.28</v>
       </c>
       <c r="AL5">
-        <v>2191.256657024794</v>
+        <v>2191.2566570247941</v>
       </c>
       <c r="AM5">
         <v>151.7595856378415</v>
       </c>
       <c r="AN5" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="AO5" t="s">
         <v>91</v>
       </c>
       <c r="AP5" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="AQ5" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
-    <row r="6" spans="1:49">
+    <row r="6" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>49</v>
       </c>
@@ -2033,7 +2100,7 @@
         <v>18.04</v>
       </c>
       <c r="O6">
-        <v>72.16128</v>
+        <v>72.161280000000005</v>
       </c>
       <c r="P6">
         <v>11</v>
@@ -2051,16 +2118,16 @@
         <v>129</v>
       </c>
       <c r="U6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="V6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="X6" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="Y6" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="Z6">
         <v>0</v>
@@ -2069,13 +2136,13 @@
         <v>0</v>
       </c>
       <c r="AB6">
-        <v>81.02892561983471</v>
+        <v>81.028925619834709</v>
       </c>
       <c r="AC6">
-        <v>83.80054424511187</v>
+        <v>83.800544245111865</v>
       </c>
       <c r="AD6">
-        <v>1461.761818181818</v>
+        <v>1461.7618181818179</v>
       </c>
       <c r="AE6">
         <v>50</v>
@@ -2099,25 +2166,25 @@
         <v>1089.06</v>
       </c>
       <c r="AL6">
-        <v>2973.821818181818</v>
+        <v>2973.8218181818179</v>
       </c>
       <c r="AM6">
         <v>164.8459987905664</v>
       </c>
       <c r="AN6" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="AO6" t="s">
         <v>92</v>
       </c>
       <c r="AP6" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="AQ6" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
-    <row r="7" spans="1:49">
+    <row r="7" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -2161,7 +2228,7 @@
         <v>1</v>
       </c>
       <c r="O7">
-        <v>2.6016</v>
+        <v>2.6015999999999999</v>
       </c>
       <c r="P7">
         <v>1</v>
@@ -2179,16 +2246,16 @@
         <v>130</v>
       </c>
       <c r="U7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="V7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="X7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="Y7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="Z7">
         <v>10000</v>
@@ -2197,13 +2264,13 @@
         <v>113.6363636363636</v>
       </c>
       <c r="AB7">
-        <v>78.1198347107438</v>
+        <v>78.119834710743802</v>
       </c>
       <c r="AC7">
-        <v>128.1198347107438</v>
+        <v>128.11983471074379</v>
       </c>
       <c r="AD7">
-        <v>78.1198347107438</v>
+        <v>78.119834710743802</v>
       </c>
       <c r="AE7">
         <v>50</v>
@@ -2224,28 +2291,28 @@
         <v>20</v>
       </c>
       <c r="AK7">
-        <v>304.35</v>
+        <v>304.35000000000002</v>
       </c>
       <c r="AL7">
-        <v>719.1061983471075</v>
+        <v>719.10619834710747</v>
       </c>
       <c r="AM7">
-        <v>719.1061983471075</v>
+        <v>719.10619834710747</v>
       </c>
       <c r="AN7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="AO7" t="s">
         <v>93</v>
       </c>
       <c r="AP7" t="s">
+        <v>272</v>
+      </c>
+      <c r="AQ7" t="s">
         <v>275</v>
       </c>
-      <c r="AQ7" t="s">
-        <v>278</v>
-      </c>
     </row>
-    <row r="8" spans="1:49">
+    <row r="8" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>50</v>
       </c>
@@ -2289,7 +2356,7 @@
         <v>1</v>
       </c>
       <c r="O8">
-        <v>2.6016</v>
+        <v>2.6015999999999999</v>
       </c>
       <c r="P8">
         <v>1</v>
@@ -2307,16 +2374,16 @@
         <v>131</v>
       </c>
       <c r="U8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="V8" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="X8" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="Y8" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="Z8">
         <v>10000</v>
@@ -2325,13 +2392,13 @@
         <v>113.6363636363636</v>
       </c>
       <c r="AB8">
-        <v>71.35984848484848</v>
+        <v>71.359848484848484</v>
       </c>
       <c r="AC8">
         <v>121.3598484848485</v>
       </c>
       <c r="AD8">
-        <v>71.35984848484848</v>
+        <v>71.359848484848484</v>
       </c>
       <c r="AE8">
         <v>50</v>
@@ -2355,25 +2422,25 @@
         <v>97</v>
       </c>
       <c r="AL8">
-        <v>502.9962121212121</v>
+        <v>502.99621212121212</v>
       </c>
       <c r="AM8">
-        <v>502.9962121212121</v>
+        <v>502.99621212121212</v>
       </c>
       <c r="AN8" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="AO8" t="s">
         <v>94</v>
       </c>
       <c r="AP8" t="s">
+        <v>272</v>
+      </c>
+      <c r="AQ8" t="s">
         <v>275</v>
       </c>
-      <c r="AQ8" t="s">
-        <v>278</v>
-      </c>
     </row>
-    <row r="9" spans="1:49">
+    <row r="9" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>49</v>
       </c>
@@ -2414,10 +2481,10 @@
         <v>720</v>
       </c>
       <c r="N9">
-        <v>2.255</v>
+        <v>2.2549999999999999</v>
       </c>
       <c r="O9">
-        <v>2.25504</v>
+        <v>2.2550400000000002</v>
       </c>
       <c r="P9">
         <v>2</v>
@@ -2435,16 +2502,16 @@
         <v>132</v>
       </c>
       <c r="U9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="V9" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="X9" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="Y9" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="Z9">
         <v>0</v>
@@ -2453,13 +2520,13 @@
         <v>0</v>
       </c>
       <c r="AB9">
-        <v>71.35984848484848</v>
+        <v>71.359848484848484</v>
       </c>
       <c r="AC9">
-        <v>93.53279748706578</v>
+        <v>93.532797487065778</v>
       </c>
       <c r="AD9">
-        <v>160.9164583333333</v>
+        <v>160.91645833333331</v>
       </c>
       <c r="AE9">
         <v>50</v>
@@ -2483,25 +2550,25 @@
         <v>180</v>
       </c>
       <c r="AL9">
-        <v>579.9164583333334</v>
+        <v>579.91645833333337</v>
       </c>
       <c r="AM9">
-        <v>257.1691611234294</v>
+        <v>257.16916112342938</v>
       </c>
       <c r="AN9" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="AO9" t="s">
         <v>95</v>
       </c>
       <c r="AP9" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="AQ9" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
-    <row r="10" spans="1:49">
+    <row r="10" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>49</v>
       </c>
@@ -2542,7 +2609,7 @@
         <v>125000</v>
       </c>
       <c r="N10">
-        <v>6.912</v>
+        <v>6.9119999999999999</v>
       </c>
       <c r="O10">
         <v>34.56</v>
@@ -2560,16 +2627,16 @@
         <v>0</v>
       </c>
       <c r="U10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="V10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="X10" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="Y10" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="Z10">
         <v>0</v>
@@ -2581,10 +2648,10 @@
         <v>90</v>
       </c>
       <c r="AC10">
-        <v>97.23379629629629</v>
+        <v>97.233796296296291</v>
       </c>
       <c r="AD10">
-        <v>622.08</v>
+        <v>622.08000000000004</v>
       </c>
       <c r="AE10">
         <v>50</v>
@@ -2611,22 +2678,22 @@
         <v>1940.52</v>
       </c>
       <c r="AM10">
-        <v>280.7465277777778</v>
+        <v>280.74652777777783</v>
       </c>
       <c r="AN10" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="AO10" t="s">
         <v>96</v>
       </c>
       <c r="AP10" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="AQ10" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
-    <row r="11" spans="1:49">
+    <row r="11" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>49</v>
       </c>
@@ -2685,16 +2752,16 @@
         <v>0</v>
       </c>
       <c r="U11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="V11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="X11" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="Y11" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="Z11">
         <v>0</v>
@@ -2703,13 +2770,13 @@
         <v>0</v>
       </c>
       <c r="AB11">
-        <v>71.35984848484848</v>
+        <v>71.359848484848484</v>
       </c>
       <c r="AC11">
-        <v>74.97674663299664</v>
+        <v>74.976746632996637</v>
       </c>
       <c r="AD11">
-        <v>986.4785454545454</v>
+        <v>986.47854545454538</v>
       </c>
       <c r="AE11">
         <v>50</v>
@@ -2730,28 +2797,28 @@
         <v>0</v>
       </c>
       <c r="AK11">
-        <v>831.405</v>
+        <v>831.40499999999997</v>
       </c>
       <c r="AL11">
-        <v>1967.883545454545</v>
+        <v>1967.8835454545449</v>
       </c>
       <c r="AM11">
-        <v>142.3526870265152</v>
+        <v>142.35268702651521</v>
       </c>
       <c r="AN11" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="AO11" t="s">
         <v>97</v>
       </c>
       <c r="AP11" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="AQ11" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
-    <row r="12" spans="1:49">
+    <row r="12" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>49</v>
       </c>
@@ -2810,16 +2877,16 @@
         <v>0</v>
       </c>
       <c r="U12" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="V12" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="X12" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="Y12" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="Z12">
         <v>0</v>
@@ -2828,13 +2895,13 @@
         <v>0</v>
       </c>
       <c r="AB12">
-        <v>71.35984848484848</v>
+        <v>71.359848484848484</v>
       </c>
       <c r="AC12">
-        <v>74.97674663299664</v>
+        <v>74.976746632996637</v>
       </c>
       <c r="AD12">
-        <v>986.4785454545454</v>
+        <v>986.47854545454538</v>
       </c>
       <c r="AE12">
         <v>50</v>
@@ -2858,25 +2925,25 @@
         <v>1171.5</v>
       </c>
       <c r="AL12">
-        <v>2307.978545454545</v>
+        <v>2307.9785454545449</v>
       </c>
       <c r="AM12">
-        <v>166.954466540404</v>
+        <v>166.95446654040401</v>
       </c>
       <c r="AN12" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="AO12" t="s">
         <v>98</v>
       </c>
       <c r="AP12" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="AQ12" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
-    <row r="13" spans="1:49">
+    <row r="13" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>49</v>
       </c>
@@ -2917,7 +2984,7 @@
         <v>5460</v>
       </c>
       <c r="N13">
-        <v>29.515</v>
+        <v>29.515000000000001</v>
       </c>
       <c r="O13">
         <v>29.5152</v>
@@ -2938,16 +3005,16 @@
         <v>133</v>
       </c>
       <c r="U13" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="V13" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="X13" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="Y13" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="Z13">
         <v>0</v>
@@ -2956,13 +3023,13 @@
         <v>0</v>
       </c>
       <c r="AB13">
-        <v>78.1198347107438</v>
+        <v>78.119834710743802</v>
       </c>
       <c r="AC13">
-        <v>79.8138885816569</v>
+        <v>79.813888581656897</v>
       </c>
       <c r="AD13">
-        <v>2305.706921487603</v>
+        <v>2305.7069214876028</v>
       </c>
       <c r="AE13">
         <v>50</v>
@@ -2986,25 +3053,25 @@
         <v>1132.68</v>
       </c>
       <c r="AL13">
-        <v>3928.386921487603</v>
+        <v>3928.3869214876031</v>
       </c>
       <c r="AM13">
-        <v>133.097981415809</v>
+        <v>133.09798141580899</v>
       </c>
       <c r="AN13" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AO13" t="s">
         <v>99</v>
       </c>
       <c r="AP13" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="AQ13" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
-    <row r="14" spans="1:49">
+    <row r="14" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>49</v>
       </c>
@@ -3045,7 +3112,7 @@
         <v>5460</v>
       </c>
       <c r="N14">
-        <v>29.515</v>
+        <v>29.515000000000001</v>
       </c>
       <c r="O14">
         <v>29.5152</v>
@@ -3066,16 +3133,16 @@
         <v>134</v>
       </c>
       <c r="U14" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="V14" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="X14" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="Y14" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="Z14">
         <v>0</v>
@@ -3084,13 +3151,13 @@
         <v>0</v>
       </c>
       <c r="AB14">
-        <v>71.35984848484848</v>
+        <v>71.359848484848484</v>
       </c>
       <c r="AC14">
-        <v>73.05390235576158</v>
+        <v>73.053902355761579</v>
       </c>
       <c r="AD14">
-        <v>2106.185928030303</v>
+        <v>2106.1859280303029</v>
       </c>
       <c r="AE14">
         <v>50</v>
@@ -3114,25 +3181,25 @@
         <v>1890</v>
       </c>
       <c r="AL14">
-        <v>4452.185928030303</v>
+        <v>4452.1859280303033</v>
       </c>
       <c r="AM14">
-        <v>150.8448561080909</v>
+        <v>150.84485610809091</v>
       </c>
       <c r="AN14" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="AO14" t="s">
         <v>100</v>
       </c>
       <c r="AP14" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="AQ14" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
-    <row r="15" spans="1:49">
+    <row r="15" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>49</v>
       </c>
@@ -3173,10 +3240,10 @@
         <v>6300.2</v>
       </c>
       <c r="N15">
-        <v>32.996</v>
+        <v>32.996000000000002</v>
       </c>
       <c r="O15">
-        <v>32.99648</v>
+        <v>32.996479999999998</v>
       </c>
       <c r="P15">
         <v>19</v>
@@ -3194,16 +3261,16 @@
         <v>135</v>
       </c>
       <c r="U15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="V15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="X15" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="Y15" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="Z15">
         <v>0</v>
@@ -3212,13 +3279,13 @@
         <v>0</v>
       </c>
       <c r="AB15">
-        <v>78.1198347107438</v>
+        <v>78.119834710743802</v>
       </c>
       <c r="AC15">
-        <v>79.63516990288831</v>
+        <v>79.635169902888308</v>
       </c>
       <c r="AD15">
-        <v>2577.642066115703</v>
+        <v>2577.6420661157031</v>
       </c>
       <c r="AE15">
         <v>50</v>
@@ -3242,25 +3309,25 @@
         <v>1144.68</v>
       </c>
       <c r="AL15">
-        <v>4305.322066115703</v>
+        <v>4305.3220661157029</v>
       </c>
       <c r="AM15">
-        <v>130.4801208060281</v>
+        <v>130.48012080602811</v>
       </c>
       <c r="AN15" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="AO15" t="s">
         <v>99</v>
       </c>
       <c r="AP15" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="AQ15" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
-    <row r="16" spans="1:49">
+    <row r="16" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>49</v>
       </c>
@@ -3301,10 +3368,10 @@
         <v>6300.2</v>
       </c>
       <c r="N16">
-        <v>32.996</v>
+        <v>32.996000000000002</v>
       </c>
       <c r="O16">
-        <v>32.99648</v>
+        <v>32.996479999999998</v>
       </c>
       <c r="P16">
         <v>19</v>
@@ -3322,16 +3389,16 @@
         <v>136</v>
       </c>
       <c r="U16" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="V16" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="X16" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="Y16" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="Z16">
         <v>0</v>
@@ -3340,13 +3407,13 @@
         <v>0</v>
       </c>
       <c r="AB16">
-        <v>71.35984848484848</v>
+        <v>71.359848484848484</v>
       </c>
       <c r="AC16">
-        <v>72.87518367699299</v>
+        <v>72.875183676992989</v>
       </c>
       <c r="AD16">
-        <v>2354.589560606061</v>
+        <v>2354.5895606060608</v>
       </c>
       <c r="AE16">
         <v>50</v>
@@ -3370,25 +3437,25 @@
         <v>1909.5</v>
       </c>
       <c r="AL16">
-        <v>4809.08956060606</v>
+        <v>4809.0895606060603</v>
       </c>
       <c r="AM16">
         <v>145.7476530672221</v>
       </c>
       <c r="AN16" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="AO16" t="s">
         <v>100</v>
       </c>
       <c r="AP16" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="AQ16" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
-    <row r="17" spans="1:43">
+    <row r="17" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>49</v>
       </c>
@@ -3429,10 +3496,10 @@
         <v>10878</v>
       </c>
       <c r="N17">
-        <v>6.98007</v>
+        <v>6.9800700000000004</v>
       </c>
       <c r="O17">
-        <v>43.07883</v>
+        <v>43.078830000000004</v>
       </c>
       <c r="P17">
         <v>4</v>
@@ -3450,16 +3517,16 @@
         <v>137</v>
       </c>
       <c r="U17" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="V17" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="X17" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="Y17" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="Z17">
         <v>0</v>
@@ -3468,13 +3535,13 @@
         <v>0</v>
       </c>
       <c r="AB17">
-        <v>71.35984848484848</v>
+        <v>71.359848484848484</v>
       </c>
       <c r="AC17">
-        <v>78.52310042931323</v>
+        <v>78.523100429313232</v>
       </c>
       <c r="AD17">
-        <v>498.0967376136363</v>
+        <v>498.09673761363632</v>
       </c>
       <c r="AE17">
         <v>50</v>
@@ -3501,22 +3568,22 @@
         <v>1438.056737613636</v>
       </c>
       <c r="AM17">
-        <v>206.02325443923</v>
+        <v>206.02325443922999</v>
       </c>
       <c r="AN17" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="AO17" t="s">
         <v>101</v>
       </c>
       <c r="AP17" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="AQ17" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
-    <row r="18" spans="1:43">
+    <row r="18" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>49</v>
       </c>
@@ -3557,10 +3624,10 @@
         <v>10878</v>
       </c>
       <c r="N18">
-        <v>15.20924</v>
+        <v>15.209239999999999</v>
       </c>
       <c r="O18">
-        <v>43.07883</v>
+        <v>43.078830000000004</v>
       </c>
       <c r="P18">
         <v>9</v>
@@ -3575,16 +3642,16 @@
         <v>0</v>
       </c>
       <c r="U18" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="V18" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="X18" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="Y18" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="Z18">
         <v>0</v>
@@ -3596,7 +3663,7 @@
         <v>90</v>
       </c>
       <c r="AC18">
-        <v>93.2874752453114</v>
+        <v>93.287475245311398</v>
       </c>
       <c r="AD18">
         <v>1368.8316</v>
@@ -3629,19 +3696,19 @@
         <v>103.3471494959643</v>
       </c>
       <c r="AN18" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="AO18" t="s">
         <v>102</v>
       </c>
       <c r="AP18" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="AQ18" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
-    <row r="19" spans="1:43">
+    <row r="19" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>49</v>
       </c>
@@ -3682,10 +3749,10 @@
         <v>10878</v>
       </c>
       <c r="N19">
-        <v>20.88952</v>
+        <v>20.889520000000001</v>
       </c>
       <c r="O19">
-        <v>43.07883</v>
+        <v>43.078830000000004</v>
       </c>
       <c r="P19">
         <v>10</v>
@@ -3703,16 +3770,16 @@
         <v>138</v>
       </c>
       <c r="U19" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="V19" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="X19" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="Y19" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="Z19">
         <v>0</v>
@@ -3721,10 +3788,10 @@
         <v>0</v>
       </c>
       <c r="AB19">
-        <v>71.35984848484848</v>
+        <v>71.359848484848484</v>
       </c>
       <c r="AC19">
-        <v>73.75339319051908</v>
+        <v>73.753393190519077</v>
       </c>
       <c r="AD19">
         <v>1490.672982121212</v>
@@ -3754,22 +3821,22 @@
         <v>3122.442982121212</v>
       </c>
       <c r="AM19">
-        <v>149.4741373722906</v>
+        <v>149.47413737229061</v>
       </c>
       <c r="AN19" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="AO19" t="s">
         <v>103</v>
       </c>
       <c r="AP19" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="AQ19" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
-    <row r="20" spans="1:43">
+    <row r="20" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>49</v>
       </c>
@@ -3831,16 +3898,16 @@
         <v>139</v>
       </c>
       <c r="U20" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="V20" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="X20" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="Y20" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="Z20">
         <v>0</v>
@@ -3849,10 +3916,10 @@
         <v>0</v>
       </c>
       <c r="AB20">
-        <v>81.02892561983471</v>
+        <v>81.028925619834709</v>
       </c>
       <c r="AC20">
-        <v>83.42470904101343</v>
+        <v>83.424709041013429</v>
       </c>
       <c r="AD20">
         <v>1691.073677685951</v>
@@ -3882,22 +3949,22 @@
         <v>3285.20367768595</v>
       </c>
       <c r="AM20">
-        <v>157.4127301239075</v>
+        <v>157.41273012390749</v>
       </c>
       <c r="AN20" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AO20" t="s">
         <v>104</v>
       </c>
       <c r="AP20" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="AQ20" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
-    <row r="21" spans="1:43">
+    <row r="21" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>49</v>
       </c>
@@ -3938,10 +4005,10 @@
         <v>3998</v>
       </c>
       <c r="N21">
-        <v>18.79274</v>
+        <v>18.792739999999998</v>
       </c>
       <c r="O21">
-        <v>18.79274</v>
+        <v>18.792739999999998</v>
       </c>
       <c r="P21">
         <v>9</v>
@@ -3959,16 +4026,16 @@
         <v>140</v>
       </c>
       <c r="U21" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="V21" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="X21" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="Y21" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="Z21">
         <v>0</v>
@@ -3977,13 +4044,13 @@
         <v>0</v>
       </c>
       <c r="AB21">
-        <v>81.02892561983471</v>
+        <v>81.028925619834709</v>
       </c>
       <c r="AC21">
         <v>83.68952753312675</v>
       </c>
       <c r="AD21">
-        <v>1522.755531652892</v>
+        <v>1522.7555316528919</v>
       </c>
       <c r="AE21">
         <v>50</v>
@@ -4007,25 +4074,25 @@
         <v>905.52</v>
       </c>
       <c r="AL21">
-        <v>2631.275531652892</v>
+        <v>2631.2755316528919</v>
       </c>
       <c r="AM21">
-        <v>140.0155342782847</v>
+        <v>140.01553427828469</v>
       </c>
       <c r="AN21" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="AO21" t="s">
         <v>91</v>
       </c>
       <c r="AP21" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="AQ21" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
-    <row r="22" spans="1:43">
+    <row r="22" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>49</v>
       </c>
@@ -4069,7 +4136,7 @@
         <v>15.21</v>
       </c>
       <c r="O22">
-        <v>15.20924</v>
+        <v>15.209239999999999</v>
       </c>
       <c r="P22">
         <v>9</v>
@@ -4084,16 +4151,16 @@
         <v>0</v>
       </c>
       <c r="U22" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="V22" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="X22" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="Y22" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="Z22">
         <v>0</v>
@@ -4105,7 +4172,7 @@
         <v>90</v>
       </c>
       <c r="AC22">
-        <v>93.28731097961867</v>
+        <v>93.287310979618667</v>
       </c>
       <c r="AD22">
         <v>1368.9</v>
@@ -4135,22 +4202,22 @@
         <v>1571.9</v>
       </c>
       <c r="AM22">
-        <v>103.3464825772518</v>
+        <v>103.34648257725181</v>
       </c>
       <c r="AN22" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="AO22" t="s">
         <v>102</v>
       </c>
       <c r="AP22" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="AQ22" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
-    <row r="23" spans="1:43">
+    <row r="23" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>49</v>
       </c>
@@ -4212,16 +4279,16 @@
         <v>141</v>
       </c>
       <c r="U23" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="V23" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="X23" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="Y23" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="Z23">
         <v>0</v>
@@ -4230,13 +4297,13 @@
         <v>0</v>
       </c>
       <c r="AB23">
-        <v>71.35984848484848</v>
+        <v>71.359848484848484</v>
       </c>
       <c r="AC23">
         <v>121.3598484848485</v>
       </c>
       <c r="AD23">
-        <v>71.35984848484848</v>
+        <v>71.359848484848484</v>
       </c>
       <c r="AE23">
         <v>50</v>
@@ -4266,19 +4333,19 @@
         <v>413.3598484848485</v>
       </c>
       <c r="AN23" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="AO23" t="s">
         <v>105</v>
       </c>
       <c r="AP23" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="AQ23" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
-    <row r="24" spans="1:43">
+    <row r="24" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>49</v>
       </c>
@@ -4319,10 +4386,10 @@
         <v>2901.27</v>
       </c>
       <c r="N24">
-        <v>7.294</v>
+        <v>7.2939999999999996</v>
       </c>
       <c r="O24">
-        <v>7.29381</v>
+        <v>7.2938099999999997</v>
       </c>
       <c r="P24">
         <v>5</v>
@@ -4340,16 +4407,16 @@
         <v>142</v>
       </c>
       <c r="U24" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="V24" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="X24" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="Y24" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="Z24">
         <v>0</v>
@@ -4358,13 +4425,13 @@
         <v>0</v>
       </c>
       <c r="AB24">
-        <v>78.1198347107438</v>
+        <v>78.119834710743802</v>
       </c>
       <c r="AC24">
-        <v>84.97478398411918</v>
+        <v>84.974783984119185</v>
       </c>
       <c r="AD24">
-        <v>569.8060743801652</v>
+        <v>569.80607438016523</v>
       </c>
       <c r="AE24">
         <v>50</v>
@@ -4391,22 +4458,22 @@
         <v>1274.576074380165</v>
       </c>
       <c r="AM24">
-        <v>174.7430866986791</v>
+        <v>174.74308669867909</v>
       </c>
       <c r="AN24" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="AO24" t="s">
         <v>99</v>
       </c>
       <c r="AP24" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="AQ24" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
-    <row r="25" spans="1:43">
+    <row r="25" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>49</v>
       </c>
@@ -4447,10 +4514,10 @@
         <v>1527.25</v>
       </c>
       <c r="N25">
-        <v>4.261</v>
+        <v>4.2610000000000001</v>
       </c>
       <c r="O25">
-        <v>4.26106</v>
+        <v>4.2610599999999996</v>
       </c>
       <c r="P25">
         <v>3</v>
@@ -4468,16 +4535,16 @@
         <v>143</v>
       </c>
       <c r="U25" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="V25" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="X25" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="Y25" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="Z25">
         <v>0</v>
@@ -4486,13 +4553,13 @@
         <v>0</v>
       </c>
       <c r="AB25">
-        <v>78.1198347107438</v>
+        <v>78.119834710743802</v>
       </c>
       <c r="AC25">
-        <v>89.8541693739684</v>
+        <v>89.854169373968404</v>
       </c>
       <c r="AD25">
-        <v>332.8686157024794</v>
+        <v>332.86861570247942</v>
       </c>
       <c r="AE25">
         <v>50</v>
@@ -4516,25 +4583,25 @@
         <v>299.88</v>
       </c>
       <c r="AL25">
-        <v>895.7486157024794</v>
+        <v>895.74861570247936</v>
       </c>
       <c r="AM25">
-        <v>210.220280615461</v>
+        <v>210.22028061546101</v>
       </c>
       <c r="AN25" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="AO25" t="s">
         <v>99</v>
       </c>
       <c r="AP25" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="AQ25" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
-    <row r="26" spans="1:43">
+    <row r="26" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>49</v>
       </c>
@@ -4596,16 +4663,16 @@
         <v>141</v>
       </c>
       <c r="U26" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="V26" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="X26" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="Y26" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="Z26">
         <v>0</v>
@@ -4614,13 +4681,13 @@
         <v>0</v>
       </c>
       <c r="AB26">
-        <v>71.35984848484848</v>
+        <v>71.359848484848484</v>
       </c>
       <c r="AC26">
         <v>121.3598484848485</v>
       </c>
       <c r="AD26">
-        <v>71.35984848484848</v>
+        <v>71.359848484848484</v>
       </c>
       <c r="AE26">
         <v>50</v>
@@ -4650,19 +4717,19 @@
         <v>413.3598484848485</v>
       </c>
       <c r="AN26" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="AO26" t="s">
         <v>105</v>
       </c>
       <c r="AP26" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="AQ26" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
-    <row r="27" spans="1:43">
+    <row r="27" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>49</v>
       </c>
@@ -4724,16 +4791,16 @@
         <v>144</v>
       </c>
       <c r="U27" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="V27" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="X27" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="Y27" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="Z27">
         <v>0</v>
@@ -4742,10 +4809,10 @@
         <v>0</v>
       </c>
       <c r="AB27">
-        <v>78.1198347107438</v>
+        <v>78.119834710743802</v>
       </c>
       <c r="AC27">
-        <v>81.4138593500481</v>
+        <v>81.413859350048099</v>
       </c>
       <c r="AD27">
         <v>1185.78097107438</v>
@@ -4775,22 +4842,22 @@
         <v>2212.55097107438</v>
       </c>
       <c r="AM27">
-        <v>145.7639482887134</v>
+        <v>145.76394828871341</v>
       </c>
       <c r="AN27" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="AO27" t="s">
         <v>99</v>
       </c>
       <c r="AP27" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="AQ27" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
-    <row r="28" spans="1:43">
+    <row r="28" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>49</v>
       </c>
@@ -4849,16 +4916,16 @@
         <v>0</v>
       </c>
       <c r="U28" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="V28" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="X28" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="Y28" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="Z28">
         <v>0</v>
@@ -4867,13 +4934,13 @@
         <v>0</v>
       </c>
       <c r="AB28">
-        <v>71.35984848484848</v>
+        <v>71.359848484848484</v>
       </c>
       <c r="AC28">
         <v>121.3598484848485</v>
       </c>
       <c r="AD28">
-        <v>71.35984848484848</v>
+        <v>71.359848484848484</v>
       </c>
       <c r="AE28">
         <v>50</v>
@@ -4903,19 +4970,19 @@
         <v>1151.359848484848</v>
       </c>
       <c r="AN28" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="AO28" t="s">
         <v>105</v>
       </c>
       <c r="AP28" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="AQ28" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
-    <row r="29" spans="1:43">
+    <row r="29" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>50</v>
       </c>
@@ -4953,13 +5020,13 @@
         <v>2012.088</v>
       </c>
       <c r="M29">
-        <v>5701.175999999999</v>
+        <v>5701.1759999999986</v>
       </c>
       <c r="N29">
         <v>5.31</v>
       </c>
       <c r="O29">
-        <v>15.04568</v>
+        <v>15.045680000000001</v>
       </c>
       <c r="P29">
         <v>3</v>
@@ -4977,16 +5044,16 @@
         <v>145</v>
       </c>
       <c r="U29" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="V29" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="X29" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="Y29" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="Z29">
         <v>10000</v>
@@ -4995,13 +5062,13 @@
         <v>113.6363636363636</v>
       </c>
       <c r="AB29">
-        <v>81.02892561983471</v>
+        <v>81.028925619834709</v>
       </c>
       <c r="AC29">
-        <v>90.44512147670854</v>
+        <v>90.445121476708536</v>
       </c>
       <c r="AD29">
-        <v>430.2635950413223</v>
+        <v>430.26359504132228</v>
       </c>
       <c r="AE29">
         <v>50</v>
@@ -5028,22 +5095,22 @@
         <v>1269.979958677686</v>
       </c>
       <c r="AM29">
-        <v>239.1676005042723</v>
+        <v>239.16760050427229</v>
       </c>
       <c r="AN29" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="AO29" t="s">
         <v>92</v>
       </c>
       <c r="AP29" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="AQ29" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
-    <row r="30" spans="1:43">
+    <row r="30" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>50</v>
       </c>
@@ -5081,13 +5148,13 @@
         <v>2012.088</v>
       </c>
       <c r="M30">
-        <v>5701.175999999999</v>
+        <v>5701.1759999999986</v>
       </c>
       <c r="N30">
         <v>5.31</v>
       </c>
       <c r="O30">
-        <v>15.04568</v>
+        <v>15.045680000000001</v>
       </c>
       <c r="P30">
         <v>3</v>
@@ -5105,16 +5172,16 @@
         <v>146</v>
       </c>
       <c r="U30" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="V30" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="X30" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="Y30" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="Z30">
         <v>10000</v>
@@ -5123,13 +5190,13 @@
         <v>113.6363636363636</v>
       </c>
       <c r="AB30">
-        <v>81.02892561983471</v>
+        <v>81.028925619834709</v>
       </c>
       <c r="AC30">
-        <v>90.44512147670854</v>
+        <v>90.445121476708536</v>
       </c>
       <c r="AD30">
-        <v>430.2635950413223</v>
+        <v>430.26359504132228</v>
       </c>
       <c r="AE30">
         <v>50</v>
@@ -5153,25 +5220,25 @@
         <v>469.74</v>
       </c>
       <c r="AL30">
-        <v>1276.639958677686</v>
+        <v>1276.6399586776861</v>
       </c>
       <c r="AM30">
-        <v>240.421837792408</v>
+        <v>240.42183779240801</v>
       </c>
       <c r="AN30" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="AO30" t="s">
         <v>91</v>
       </c>
       <c r="AP30" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="AQ30" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
-    <row r="31" spans="1:43">
+    <row r="31" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>50</v>
       </c>
@@ -5209,13 +5276,13 @@
         <v>1677</v>
       </c>
       <c r="M31">
-        <v>5701.175999999999</v>
+        <v>5701.1759999999986</v>
       </c>
       <c r="N31">
-        <v>4.425</v>
+        <v>4.4249999999999998</v>
       </c>
       <c r="O31">
-        <v>15.04568</v>
+        <v>15.045680000000001</v>
       </c>
       <c r="P31">
         <v>3</v>
@@ -5233,16 +5300,16 @@
         <v>147</v>
       </c>
       <c r="U31" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="V31" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="X31" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="Y31" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="Z31">
         <v>10000</v>
@@ -5251,13 +5318,13 @@
         <v>113.6363636363636</v>
       </c>
       <c r="AB31">
-        <v>81.02892561983471</v>
+        <v>81.028925619834709</v>
       </c>
       <c r="AC31">
-        <v>92.3283606480833</v>
+        <v>92.328360648083304</v>
       </c>
       <c r="AD31">
-        <v>358.5529958677686</v>
+        <v>358.55299586776857</v>
       </c>
       <c r="AE31">
         <v>50</v>
@@ -5281,25 +5348,25 @@
         <v>824.79</v>
       </c>
       <c r="AL31">
-        <v>1559.979359504132</v>
+        <v>1559.9793595041319</v>
       </c>
       <c r="AM31">
-        <v>352.5377083625157</v>
+        <v>352.53770836251567</v>
       </c>
       <c r="AN31" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="AO31" t="s">
         <v>90</v>
       </c>
       <c r="AP31" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="AQ31" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
-    <row r="32" spans="1:43">
+    <row r="32" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>50</v>
       </c>
@@ -5337,13 +5404,13 @@
         <v>1019.021</v>
       </c>
       <c r="M32">
-        <v>3057.063</v>
+        <v>3057.0630000000001</v>
       </c>
       <c r="N32">
-        <v>2.689</v>
+        <v>2.6890000000000001</v>
       </c>
       <c r="O32">
-        <v>8.06748</v>
+        <v>8.0674799999999998</v>
       </c>
       <c r="P32">
         <v>2</v>
@@ -5361,16 +5428,16 @@
         <v>132</v>
       </c>
       <c r="U32" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="V32" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="X32" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="Y32" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="Z32">
         <v>10000</v>
@@ -5379,10 +5446,10 @@
         <v>113.6363636363636</v>
       </c>
       <c r="AB32">
-        <v>71.35984848484848</v>
+        <v>71.359848484848484</v>
       </c>
       <c r="AC32">
-        <v>89.9541214487756</v>
+        <v>89.954121448775595</v>
       </c>
       <c r="AD32">
         <v>191.8866325757576</v>
@@ -5409,25 +5476,25 @@
         <v>180</v>
       </c>
       <c r="AL32">
-        <v>724.5229962121213</v>
+        <v>724.52299621212126</v>
       </c>
       <c r="AM32">
-        <v>269.4395672042102</v>
+        <v>269.43956720421022</v>
       </c>
       <c r="AN32" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="AO32" t="s">
         <v>95</v>
       </c>
       <c r="AP32" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="AQ32" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
-    <row r="33" spans="1:49">
+    <row r="33" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>50</v>
       </c>
@@ -5462,16 +5529,16 @@
         <v>158</v>
       </c>
       <c r="L33">
-        <v>2038.042</v>
+        <v>2038.0419999999999</v>
       </c>
       <c r="M33">
-        <v>3057.063</v>
+        <v>3057.0630000000001</v>
       </c>
       <c r="N33">
-        <v>5.378</v>
+        <v>5.3780000000000001</v>
       </c>
       <c r="O33">
-        <v>8.06748</v>
+        <v>8.0674799999999998</v>
       </c>
       <c r="P33">
         <v>3</v>
@@ -5489,16 +5556,16 @@
         <v>148</v>
       </c>
       <c r="U33" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="V33" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="X33" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="Y33" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="Z33">
         <v>10000</v>
@@ -5507,13 +5574,13 @@
         <v>113.6363636363636</v>
       </c>
       <c r="AB33">
-        <v>71.35984848484848</v>
+        <v>71.359848484848484</v>
       </c>
       <c r="AC33">
-        <v>80.65698496681205</v>
+        <v>80.656984966812047</v>
       </c>
       <c r="AD33">
-        <v>383.7732651515151</v>
+        <v>383.77326515151509</v>
       </c>
       <c r="AE33">
         <v>50</v>
@@ -5540,22 +5607,22 @@
         <v>1212.679628787879</v>
       </c>
       <c r="AM33">
-        <v>225.4889603547562</v>
+        <v>225.48896035475619</v>
       </c>
       <c r="AN33" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="AO33" t="s">
         <v>106</v>
       </c>
       <c r="AP33" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="AQ33" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
-    <row r="34" spans="1:49">
+    <row r="34" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>49</v>
       </c>
@@ -5599,7 +5666,7 @@
         <v>1</v>
       </c>
       <c r="O34">
-        <v>29.754</v>
+        <v>29.754000000000001</v>
       </c>
       <c r="P34">
         <v>0</v>
@@ -5614,16 +5681,16 @@
         <v>0</v>
       </c>
       <c r="U34" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="V34" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="X34" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="Y34" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="Z34">
         <v>0</v>
@@ -5632,13 +5699,13 @@
         <v>0</v>
       </c>
       <c r="AB34">
-        <v>81.02892561983471</v>
+        <v>81.028925619834709</v>
       </c>
       <c r="AC34">
-        <v>131.0289256198347</v>
+        <v>131.02892561983469</v>
       </c>
       <c r="AD34">
-        <v>81.02892561983471</v>
+        <v>81.028925619834709</v>
       </c>
       <c r="AE34">
         <v>50</v>
@@ -5668,19 +5735,19 @@
         <v>1106.403925619835</v>
       </c>
       <c r="AN34" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="AO34" t="s">
         <v>107</v>
       </c>
       <c r="AP34" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="AQ34" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
-    <row r="35" spans="1:49">
+    <row r="35" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>49</v>
       </c>
@@ -5721,10 +5788,10 @@
         <v>1530</v>
       </c>
       <c r="N35">
-        <v>7.405</v>
+        <v>7.4050000000000002</v>
       </c>
       <c r="O35">
-        <v>7.4052</v>
+        <v>7.4051999999999998</v>
       </c>
       <c r="P35">
         <v>5</v>
@@ -5742,16 +5809,16 @@
         <v>149</v>
       </c>
       <c r="U35" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="V35" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="X35" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="Y35" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="Z35">
         <v>0</v>
@@ -5760,13 +5827,13 @@
         <v>0</v>
       </c>
       <c r="AB35">
-        <v>71.35984848484848</v>
+        <v>71.359848484848484</v>
       </c>
       <c r="AC35">
-        <v>78.11204294804902</v>
+        <v>78.112042948049023</v>
       </c>
       <c r="AD35">
-        <v>528.4196780303031</v>
+        <v>528.41967803030309</v>
       </c>
       <c r="AE35">
         <v>50</v>
@@ -5787,7 +5854,7 @@
         <v>90</v>
       </c>
       <c r="AK35">
-        <v>625.1900000000001</v>
+        <v>625.19000000000005</v>
       </c>
       <c r="AL35">
         <v>1393.609678030303</v>
@@ -5796,19 +5863,19 @@
         <v>188.198471037178</v>
       </c>
       <c r="AN35" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="AO35" t="s">
         <v>108</v>
       </c>
       <c r="AP35" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="AQ35" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
-    <row r="36" spans="1:49">
+    <row r="36" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>49</v>
       </c>
@@ -5852,7 +5919,7 @@
         <v>10.433</v>
       </c>
       <c r="O36">
-        <v>10.43301</v>
+        <v>10.433009999999999</v>
       </c>
       <c r="P36">
         <v>6</v>
@@ -5870,16 +5937,16 @@
         <v>150</v>
       </c>
       <c r="U36" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V36" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="X36" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="Y36" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="Z36">
         <v>0</v>
@@ -5888,13 +5955,13 @@
         <v>0</v>
       </c>
       <c r="AB36">
-        <v>78.1198347107438</v>
+        <v>78.119834710743802</v>
       </c>
       <c r="AC36">
-        <v>82.91232009366338</v>
+        <v>82.912320093663382</v>
       </c>
       <c r="AD36">
-        <v>815.0242355371901</v>
+        <v>815.02423553719007</v>
       </c>
       <c r="AE36">
         <v>50</v>
@@ -5918,25 +5985,25 @@
         <v>833.58</v>
       </c>
       <c r="AL36">
-        <v>1918.60423553719</v>
+        <v>1918.6042355371901</v>
       </c>
       <c r="AM36">
-        <v>183.8976550883916</v>
+        <v>183.89765508839159</v>
       </c>
       <c r="AN36" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="AO36" t="s">
         <v>109</v>
       </c>
       <c r="AP36" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="AQ36" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
-    <row r="37" spans="1:49">
+    <row r="37" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>49</v>
       </c>
@@ -5971,16 +6038,16 @@
         <v>397</v>
       </c>
       <c r="L37">
-        <v>4970.44</v>
+        <v>4970.4399999999996</v>
       </c>
       <c r="M37">
-        <v>4970.44</v>
+        <v>4970.4399999999996</v>
       </c>
       <c r="N37">
-        <v>30.764</v>
+        <v>30.763999999999999</v>
       </c>
       <c r="O37">
-        <v>30.76353</v>
+        <v>30.763529999999999</v>
       </c>
       <c r="P37">
         <v>18</v>
@@ -5998,16 +6065,16 @@
         <v>151</v>
       </c>
       <c r="U37" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="V37" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="X37" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="Y37" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="Z37">
         <v>0</v>
@@ -6016,13 +6083,13 @@
         <v>0</v>
       </c>
       <c r="AB37">
-        <v>71.35984848484848</v>
+        <v>71.359848484848484</v>
       </c>
       <c r="AC37">
-        <v>72.98512478181897</v>
+        <v>72.985124781818968</v>
       </c>
       <c r="AD37">
-        <v>2195.314378787879</v>
+        <v>2195.3143787878789</v>
       </c>
       <c r="AE37">
         <v>50</v>
@@ -6043,28 +6110,28 @@
         <v>324</v>
       </c>
       <c r="AK37">
-        <v>947.0699999999999</v>
+        <v>947.06999999999994</v>
       </c>
       <c r="AL37">
-        <v>3669.384378787879</v>
+        <v>3669.3843787878791</v>
       </c>
       <c r="AM37">
         <v>119.2752691063541</v>
       </c>
       <c r="AN37" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="AO37" t="s">
         <v>110</v>
       </c>
       <c r="AP37" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="AQ37" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
-    <row r="38" spans="1:49">
+    <row r="38" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>49</v>
       </c>
@@ -6108,7 +6175,7 @@
         <v>6.359</v>
       </c>
       <c r="O38">
-        <v>6.359319999999999</v>
+        <v>6.3593199999999994</v>
       </c>
       <c r="P38">
         <v>4</v>
@@ -6126,16 +6193,16 @@
         <v>152</v>
       </c>
       <c r="U38" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="V38" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="X38" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="Y38" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="Z38">
         <v>0</v>
@@ -6144,13 +6211,13 @@
         <v>0</v>
       </c>
       <c r="AB38">
-        <v>78.1198347107438</v>
+        <v>78.119834710743802</v>
       </c>
       <c r="AC38">
-        <v>85.98270623142315</v>
+        <v>85.982706231423151</v>
       </c>
       <c r="AD38">
-        <v>496.7640289256198</v>
+        <v>496.76402892561981</v>
       </c>
       <c r="AE38">
         <v>50</v>
@@ -6180,19 +6247,19 @@
         <v>177.7675780666174</v>
       </c>
       <c r="AN38" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="AO38" t="s">
         <v>111</v>
       </c>
       <c r="AP38" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="AQ38" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
-    <row r="39" spans="1:49">
+    <row r="39" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>49</v>
       </c>
@@ -6233,10 +6300,10 @@
         <v>4480</v>
       </c>
       <c r="N39">
-        <v>28.06272</v>
+        <v>28.062719999999999</v>
       </c>
       <c r="O39">
-        <v>28.06272</v>
+        <v>28.062719999999999</v>
       </c>
       <c r="P39">
         <v>16</v>
@@ -6251,16 +6318,16 @@
         <v>0</v>
       </c>
       <c r="U39" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="V39" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="X39" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="Y39" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="Z39">
         <v>0</v>
@@ -6269,13 +6336,13 @@
         <v>0</v>
       </c>
       <c r="AB39">
-        <v>78.1198347107438</v>
+        <v>78.119834710743802</v>
       </c>
       <c r="AC39">
-        <v>79.90155793643254</v>
+        <v>79.901557936432539</v>
       </c>
       <c r="AD39">
-        <v>2192.255047933884</v>
+        <v>2192.2550479338838</v>
       </c>
       <c r="AE39">
         <v>50</v>
@@ -6296,28 +6363,28 @@
         <v>320</v>
       </c>
       <c r="AK39">
-        <v>1105.695</v>
+        <v>1105.6949999999999</v>
       </c>
       <c r="AL39">
         <v>3820.950047933884</v>
       </c>
       <c r="AM39">
-        <v>136.1575088920063</v>
+        <v>136.15750889200629</v>
       </c>
       <c r="AN39" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="AO39" t="s">
         <v>112</v>
       </c>
       <c r="AP39" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="AQ39" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
-    <row r="40" spans="1:49">
+    <row r="40" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>49</v>
       </c>
@@ -6358,10 +6425,10 @@
         <v>750</v>
       </c>
       <c r="N40">
-        <v>3.687</v>
+        <v>3.6869999999999998</v>
       </c>
       <c r="O40">
-        <v>3.6865</v>
+        <v>3.6865000000000001</v>
       </c>
       <c r="P40">
         <v>3</v>
@@ -6379,16 +6446,16 @@
         <v>153</v>
       </c>
       <c r="U40" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="V40" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="X40" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="Y40" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="Z40">
         <v>0</v>
@@ -6397,13 +6464,13 @@
         <v>0</v>
       </c>
       <c r="AB40">
-        <v>71.35984848484848</v>
+        <v>71.359848484848484</v>
       </c>
       <c r="AC40">
-        <v>84.92100932021599</v>
+        <v>84.921009320215987</v>
       </c>
       <c r="AD40">
-        <v>263.1037613636364</v>
+        <v>263.10376136363641</v>
       </c>
       <c r="AE40">
         <v>50</v>
@@ -6427,25 +6494,25 @@
         <v>291</v>
       </c>
       <c r="AL40">
-        <v>811.1037613636363</v>
+        <v>811.10376136363629</v>
       </c>
       <c r="AM40">
         <v>219.9901712404764</v>
       </c>
       <c r="AN40" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="AO40" t="s">
         <v>105</v>
       </c>
       <c r="AP40" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="AQ40" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
-    <row r="41" spans="1:49">
+    <row r="41" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>49</v>
       </c>
@@ -6507,16 +6574,16 @@
         <v>141</v>
       </c>
       <c r="U41" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="V41" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="X41" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="Y41" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="Z41">
         <v>0</v>
@@ -6525,7 +6592,7 @@
         <v>0</v>
       </c>
       <c r="AB41">
-        <v>71.35984848484848</v>
+        <v>71.359848484848484</v>
       </c>
       <c r="AC41">
         <v>100.2950336700337</v>
@@ -6555,25 +6622,25 @@
         <v>121</v>
       </c>
       <c r="AL41">
-        <v>412.3098181818182</v>
+        <v>412.30981818181817</v>
       </c>
       <c r="AM41">
-        <v>238.6052188552189</v>
+        <v>238.60521885521891</v>
       </c>
       <c r="AN41" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="AO41" t="s">
         <v>105</v>
       </c>
       <c r="AP41" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="AQ41" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
-    <row r="42" spans="1:49">
+    <row r="42" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>49</v>
       </c>
@@ -6614,10 +6681,10 @@
         <v>4480</v>
       </c>
       <c r="N42">
-        <v>28.06272</v>
+        <v>28.062719999999999</v>
       </c>
       <c r="O42">
-        <v>28.06272</v>
+        <v>28.062719999999999</v>
       </c>
       <c r="P42">
         <v>16</v>
@@ -6635,10 +6702,10 @@
         <v>154</v>
       </c>
       <c r="U42" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="V42" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="X42" t="s">
         <v>154</v>
@@ -6653,13 +6720,13 @@
         <v>0</v>
       </c>
       <c r="AB42">
-        <v>78.1198347107438</v>
+        <v>78.119834710743802</v>
       </c>
       <c r="AC42">
-        <v>79.90155793643254</v>
+        <v>79.901557936432539</v>
       </c>
       <c r="AD42">
-        <v>2192.255047933884</v>
+        <v>2192.2550479338838</v>
       </c>
       <c r="AE42">
         <v>50</v>
@@ -6680,28 +6747,28 @@
         <v>320</v>
       </c>
       <c r="AK42">
-        <v>1047.15</v>
+        <v>1047.1500000000001</v>
       </c>
       <c r="AL42">
-        <v>3762.405047933884</v>
+        <v>3762.4050479338839</v>
       </c>
       <c r="AM42">
-        <v>134.0712891670474</v>
+        <v>134.07128916704741</v>
       </c>
       <c r="AN42" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="AO42" t="s">
         <v>112</v>
       </c>
       <c r="AP42" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="AQ42" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="AR42" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="AS42">
         <v>52500</v>
@@ -6719,7 +6786,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="43" spans="1:49">
+    <row r="43" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>49</v>
       </c>
@@ -6781,10 +6848,10 @@
         <v>155</v>
       </c>
       <c r="U43" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="V43" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="X43" t="s">
         <v>155</v>
@@ -6799,10 +6866,10 @@
         <v>0</v>
       </c>
       <c r="AB43">
-        <v>71.35984848484848</v>
+        <v>71.359848484848484</v>
       </c>
       <c r="AC43">
-        <v>99.93127705627705</v>
+        <v>99.931277056277054</v>
       </c>
       <c r="AD43">
         <v>124.8797348484848</v>
@@ -6826,7 +6893,7 @@
         <v>18</v>
       </c>
       <c r="AK43">
-        <v>275.96</v>
+        <v>275.95999999999998</v>
       </c>
       <c r="AL43">
         <v>568.8397348484848</v>
@@ -6835,19 +6902,19 @@
         <v>325.051277056277</v>
       </c>
       <c r="AN43" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="AO43" t="s">
         <v>113</v>
       </c>
       <c r="AP43" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="AQ43" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="AR43" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="AS43">
         <v>52500</v>
@@ -6865,7 +6932,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="44" spans="1:49">
+    <row r="44" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>49</v>
       </c>
@@ -6906,10 +6973,10 @@
         <v>1804</v>
       </c>
       <c r="N44">
-        <v>5.026</v>
+        <v>5.0259999999999998</v>
       </c>
       <c r="O44">
-        <v>5.02624</v>
+        <v>5.0262399999999996</v>
       </c>
       <c r="P44">
         <v>3</v>
@@ -6927,10 +6994,10 @@
         <v>156</v>
       </c>
       <c r="U44" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="V44" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="X44" t="s">
         <v>156</v>
@@ -6945,13 +7012,13 @@
         <v>0</v>
       </c>
       <c r="AB44">
-        <v>78.1198347107438</v>
+        <v>78.119834710743802</v>
       </c>
       <c r="AC44">
-        <v>88.0681037119376</v>
+        <v>88.068103711937596</v>
       </c>
       <c r="AD44">
-        <v>392.6302892561984</v>
+        <v>392.63028925619841</v>
       </c>
       <c r="AE44">
         <v>50</v>
@@ -6978,22 +7045,22 @@
         <v>920.3102892561983</v>
       </c>
       <c r="AM44">
-        <v>183.1098864417426</v>
+        <v>183.10988644174259</v>
       </c>
       <c r="AN44" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="AO44" t="s">
         <v>99</v>
       </c>
       <c r="AP44" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="AQ44" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="AR44" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="AS44">
         <v>52500</v>
@@ -7011,7 +7078,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="45" spans="1:49">
+    <row r="45" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>49</v>
       </c>
@@ -7052,10 +7119,10 @@
         <v>795</v>
       </c>
       <c r="N45">
-        <v>6.106</v>
+        <v>6.1059999999999999</v>
       </c>
       <c r="O45">
-        <v>6.1056</v>
+        <v>6.1055999999999999</v>
       </c>
       <c r="P45">
         <v>4</v>
@@ -7070,19 +7137,19 @@
         <v>0</v>
       </c>
       <c r="T45" t="s">
-        <v>157</v>
+        <v>314</v>
       </c>
       <c r="U45" t="s">
-        <v>196</v>
+        <v>316</v>
       </c>
       <c r="V45" t="s">
-        <v>205</v>
+        <v>315</v>
       </c>
       <c r="X45" t="s">
-        <v>157</v>
+        <v>314</v>
       </c>
       <c r="Y45" t="s">
-        <v>157</v>
+        <v>314</v>
       </c>
       <c r="Z45">
         <v>0</v>
@@ -7091,13 +7158,13 @@
         <v>0</v>
       </c>
       <c r="AB45">
-        <v>71.35984848484848</v>
+        <v>71.359848484848484</v>
       </c>
       <c r="AC45">
-        <v>79.5485153698796</v>
+        <v>79.548515369879595</v>
       </c>
       <c r="AD45">
-        <v>435.7232348484848</v>
+        <v>435.72323484848482</v>
       </c>
       <c r="AE45">
         <v>50</v>
@@ -7121,25 +7188,25 @@
         <v>384</v>
       </c>
       <c r="AL45">
-        <v>1041.723234848485</v>
+        <v>1041.7232348484849</v>
       </c>
       <c r="AM45">
         <v>170.6064911314256</v>
       </c>
       <c r="AN45" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="AO45" t="s">
         <v>105</v>
       </c>
       <c r="AP45" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="AQ45" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="AR45" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="AS45">
         <v>52500</v>
@@ -7157,7 +7224,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="46" spans="1:49">
+    <row r="46" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>49</v>
       </c>
@@ -7201,7 +7268,7 @@
         <v>10.433</v>
       </c>
       <c r="O46">
-        <v>10.43301</v>
+        <v>10.433009999999999</v>
       </c>
       <c r="P46">
         <v>6</v>
@@ -7216,19 +7283,19 @@
         <v>0</v>
       </c>
       <c r="T46" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="U46" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="V46" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="X46" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="Y46" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="Z46">
         <v>0</v>
@@ -7237,13 +7304,13 @@
         <v>0</v>
       </c>
       <c r="AB46">
-        <v>73.57438016528926</v>
+        <v>73.574380165289256</v>
       </c>
       <c r="AC46">
-        <v>78.36686554820884</v>
+        <v>78.366865548208835</v>
       </c>
       <c r="AD46">
-        <v>767.6015082644628</v>
+        <v>767.60150826446284</v>
       </c>
       <c r="AE46">
         <v>50</v>
@@ -7264,28 +7331,28 @@
         <v>120</v>
       </c>
       <c r="AK46">
-        <v>1173.88</v>
+        <v>1173.8800000000001</v>
       </c>
       <c r="AL46">
-        <v>2211.481508264463</v>
+        <v>2211.4815082644632</v>
       </c>
       <c r="AM46">
-        <v>211.9698560590878</v>
+        <v>211.96985605908779</v>
       </c>
       <c r="AN46" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="AO46" t="s">
         <v>109</v>
       </c>
       <c r="AP46" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="AQ46" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="AR46" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="AS46">
         <v>52500</v>
@@ -7303,7 +7370,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="47" spans="1:49">
+    <row r="47" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>49</v>
       </c>
@@ -7338,16 +7405,16 @@
         <v>397</v>
       </c>
       <c r="L47">
-        <v>4970.44</v>
+        <v>4970.4399999999996</v>
       </c>
       <c r="M47">
-        <v>4970.44</v>
+        <v>4970.4399999999996</v>
       </c>
       <c r="N47">
-        <v>30.764</v>
+        <v>30.763999999999999</v>
       </c>
       <c r="O47">
-        <v>30.76353</v>
+        <v>30.763529999999999</v>
       </c>
       <c r="P47">
         <v>18</v>
@@ -7362,19 +7429,19 @@
         <v>0</v>
       </c>
       <c r="T47" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="U47" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="V47" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="X47" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="Y47" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="Z47">
         <v>0</v>
@@ -7383,13 +7450,13 @@
         <v>0</v>
       </c>
       <c r="AB47">
-        <v>67.19318181818181</v>
+        <v>67.193181818181813</v>
       </c>
       <c r="AC47">
-        <v>68.8184581151523</v>
+        <v>68.818458115152296</v>
       </c>
       <c r="AD47">
-        <v>2067.131045454545</v>
+        <v>2067.1310454545451</v>
       </c>
       <c r="AE47">
         <v>50</v>
@@ -7410,28 +7477,28 @@
         <v>324</v>
       </c>
       <c r="AK47">
-        <v>963.5699999999999</v>
+        <v>963.56999999999994</v>
       </c>
       <c r="AL47">
-        <v>3557.701045454545</v>
+        <v>3557.7010454545448</v>
       </c>
       <c r="AM47">
         <v>115.6449436176877</v>
       </c>
       <c r="AN47" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="AO47" t="s">
         <v>110</v>
       </c>
       <c r="AP47" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="AQ47" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="AR47" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="AS47">
         <v>52500</v>

--- a/Logs/quotations.xlsx
+++ b/Logs/quotations.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ayyanagouda\Last Mile Rates\Logs\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEE8077F-F682-4565-ADBE-5B97F911C5C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="923" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1383" uniqueCount="414">
   <si>
     <t>Shipment Scope</t>
   </si>
@@ -187,6 +181,9 @@
     <t>421601, Thane, Thane, Maharashtra, India</t>
   </si>
   <si>
+    <t>110025, Okhla, South East Delhi, Delhi, India</t>
+  </si>
+  <si>
     <t>Nhava Sheva</t>
   </si>
   <si>
@@ -286,6 +283,18 @@
     <t>HIA1</t>
   </si>
   <si>
+    <t>SMF3</t>
+  </si>
+  <si>
+    <t>MEM1</t>
+  </si>
+  <si>
+    <t>HEA2</t>
+  </si>
+  <si>
+    <t>ABE8</t>
+  </si>
+  <si>
     <t>RDU4 28303, Terry Sanford, Fayetteville, North Carolina, United States</t>
   </si>
   <si>
@@ -364,7 +373,19 @@
     <t>HIA1 17057, Middletown, Middletown, Pennsylvania, United States</t>
   </si>
   <si>
-    <t>18447</t>
+    <t>SMF3 95215, Stockton, Stockton, California, United States</t>
+  </si>
+  <si>
+    <t>MEM1 38118, Capleville, Memphis, Tennessee, United States</t>
+  </si>
+  <si>
+    <t>HEA2 18031, Breinigsville, Breinigsville, Pennsylvania, United States</t>
+  </si>
+  <si>
+    <t>ABE8 08518, Florence, Florence, New Jersey, United States</t>
+  </si>
+  <si>
+    <t>15672</t>
   </si>
   <si>
     <t>Agraga</t>
@@ -493,12 +514,60 @@
     <t>{'Rate Type': 'LTL', 'Rate': 317.68, 'Carrier Name': 'Estes Express Lines', 'Service Provider': 'Ex-Freight', 'Source': 'API', 'Date': '30-08-2025'}</t>
   </si>
   <si>
+    <t>{'Rate Type': 'LTL', 'Rate': 384.0, 'Carrier Name': '', 'Service Provider': 'AmznFrgt', 'Source': 'No API STATIC DATA', 'Date': '28-08-2025'}</t>
+  </si>
+  <si>
     <t>{'Rate Type': 'LTL', 'Rate': 1173.88, 'Carrier Name': 'Estes Express Lines VL', 'Service Provider': 'HeyPrimo', 'Source': 'API', 'Date': '02-09-2025'}</t>
   </si>
   <si>
     <t>{'Rate Type': 'LTL', 'Rate': 1009.71, 'Carrier Name': 'Estes Express Lines', 'Service Provider': 'Ex-Freight', 'Source': 'API', 'Date': '02-09-2025'}</t>
   </si>
   <si>
+    <t>{'Rate Type': 'LTL', 'Rate': 309.61, 'Carrier Name': 'Estes Express Lines', 'Service Provider': 'HeyPrimo', 'Source': 'API', 'Date': '03-09-2025'}</t>
+  </si>
+  <si>
+    <t>{'Rate Type': 'LTL', 'Rate': 97.0, 'Carrier Name': '', 'Service Provider': 'AmznFrgt', 'Source': 'No API STATIC DATA', 'Date': '28-08-2025'}</t>
+  </si>
+  <si>
+    <t>{'Rate Type': 'LTL', 'Rate': 720.76, 'Carrier Name': 'Frontline Freight', 'Service Provider': 'Ex-Freight', 'Source': 'API', 'Date': '03-09-2025'}</t>
+  </si>
+  <si>
+    <t>{'Rate Type': 'LTL', 'Rate': 855.2, 'Carrier Name': 'Estes Express Lines VL', 'Service Provider': 'HeyPrimo', 'Source': 'API', 'Date': '03-09-2025'}</t>
+  </si>
+  <si>
+    <t>{'Rate Type': 'LTL', 'Rate': 496.08, 'Carrier Name': 'Estes Express', 'Service Provider': 'Ex-Freight', 'Source': 'API', 'Date': '03-09-2025'}</t>
+  </si>
+  <si>
+    <t>{'Rate Type': 'LTL', 'Rate': 820.15, 'Carrier Name': 'Estes Express Lines VL', 'Service Provider': 'HeyPrimo', 'Source': 'API STATIC DATA', 'Date': Timestamp('2025-08-28 00:00:00')}</t>
+  </si>
+  <si>
+    <t>{'Rate Type': 'LTL', 'Rate': 633.41, 'Carrier Name': 'Estes Express Lines VL', 'Service Provider': 'HeyPrimo', 'Source': 'API STATIC DATA', 'Date': Timestamp('2025-08-28 00:00:00')}</t>
+  </si>
+  <si>
+    <t>{'Rate Type': 'LTL', 'Rate': 227.44, 'Carrier Name': 'Estes Express', 'Service Provider': 'Ex-Freight', 'Source': 'API', 'Date': '04-09-2025'}</t>
+  </si>
+  <si>
+    <t>{'Rate Type': 'LTL', 'Rate': 322.62, 'Carrier Name': 'Estes Express Lines VL', 'Service Provider': 'HeyPrimo', 'Source': 'API', 'Date': '04-09-2025'}</t>
+  </si>
+  <si>
+    <t>{'Rate Type': 'LTL', 'Rate': 291.0, 'Carrier Name': '', 'Service Provider': 'AmznFrgt', 'Source': 'No API STATIC DATA', 'Date': '28-08-2025'}</t>
+  </si>
+  <si>
+    <t>{'Rate Type': 'LTL', 'Rate': 227.44, 'Carrier Name': 'Estes Express', 'Service Provider': 'Ex-Freight', 'Source': 'API', 'Date': '05-09-2025'}</t>
+  </si>
+  <si>
+    <t>{'Rate Type': 'LTL', 'Rate': 226.67, 'Carrier Name': 'ABF Density', 'Service Provider': 'HeyPrimo', 'Source': 'API', 'Date': '06-09-2025'}</t>
+  </si>
+  <si>
+    <t>{'Rate Type': 'LTL', 'Rate': 227.44, 'Carrier Name': 'Estes Express', 'Service Provider': 'Ex-Freight', 'Source': 'API', 'Date': '09-09-2025'}</t>
+  </si>
+  <si>
+    <t>{'Rate Type': 'LTL', 'Rate': 228.17, 'Carrier Name': 'ABF Density', 'Service Provider': 'HeyPrimo', 'Source': 'API', 'Date': '12-09-2025'}</t>
+  </si>
+  <si>
+    <t>{'Rate Type': 'LTL', 'Rate': 255.6, 'Carrier Name': '', 'Service Provider': 'AmznFrgt', 'Source': 'No API STATIC DATA', 'Date': '28-08-2025'}</t>
+  </si>
+  <si>
     <t>{'Rate': 1358.2649999999999, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt'}</t>
   </si>
   <si>
@@ -607,12 +676,57 @@
     <t>{'Rate Type': 'FTL', 'Rate': 1038.345, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt', 'Source': 'API', 'Date': '30-08-2025'}</t>
   </si>
   <si>
+    <t>{'Rate Type': 'FTL', 'Rate': 928.0, 'Carrier Name': '', 'Service Provider': 'JB.Hunt', 'Source': 'No API STATIC DATA', 'Date': '28-08-2025'}</t>
+  </si>
+  <si>
     <t>{'Rate Type': 'FTL', 'Rate': 1571.0700000000002, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt', 'Source': 'API', 'Date': '02-09-2025'}</t>
   </si>
   <si>
     <t>{'Rate Type': 'FTL', 'Rate': 963.5699999999999, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt', 'Source': 'API', 'Date': '02-09-2025'}</t>
   </si>
   <si>
+    <t>{'Rate Type': 'FTL', 'Rate': 1253.3700000000001, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt', 'Source': 'API', 'Date': '03-09-2025'}</t>
+  </si>
+  <si>
+    <t>{'Rate Type': 'FTL', 'Rate': 465.0, 'Carrier Name': '', 'Service Provider': 'JB.Hunt', 'Source': 'No API STATIC DATA', 'Date': '28-08-2025'}</t>
+  </si>
+  <si>
+    <t>{'Rate Type': 'FTL', 'Rate': 5422.200000000001, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt', 'Source': 'API', 'Date': '03-09-2025'}</t>
+  </si>
+  <si>
+    <t>{'Rate Type': 'FTL', 'Rate': 1750.125, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt', 'Source': 'API', 'Date': '03-09-2025'}</t>
+  </si>
+  <si>
+    <t>{'Rate Type': 'FTL', 'Rate': 1619.9250000000002, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt', 'Source': 'API', 'Date': '03-09-2025'}</t>
+  </si>
+  <si>
+    <t>{'Rate Type': 'FTL', 'Rate': 1908.87, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt', 'Source': 'API', 'Date': '03-09-2025'}</t>
+  </si>
+  <si>
+    <t>{'Rate Type': 'FTL', 'Rate': 1987.6950000000002, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt', 'Source': 'API', 'Date': '03-09-2025'}</t>
+  </si>
+  <si>
+    <t>{'Rate Type': 'FTL', 'Rate': 801.8700000000001, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt', 'Source': 'API', 'Date': '04-09-2025'}</t>
+  </si>
+  <si>
+    <t>{'Rate Type': 'FTL', 'Rate': 911.9250000000001, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt', 'Source': 'API', 'Date': '04-09-2025'}</t>
+  </si>
+  <si>
+    <t>{'Rate Type': 'FTL', 'Rate': 821.3700000000001, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt', 'Source': 'API', 'Date': '05-09-2025'}</t>
+  </si>
+  <si>
+    <t>{'Rate Type': 'FTL', 'Rate': 1118.3700000000001, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt', 'Source': 'API', 'Date': '06-09-2025'}</t>
+  </si>
+  <si>
+    <t>{'Rate Type': 'FTL', 'Rate': 885.015, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt', 'Source': 'API', 'Date': '09-09-2025'}</t>
+  </si>
+  <si>
+    <t>{'Rate Type': 'FTL', 'Rate': 514.0, 'Carrier Name': '', 'Service Provider': 'JB.Hunt', 'Source': 'No API STATIC DATA', 'Date': '28-08-2025'}</t>
+  </si>
+  <si>
+    <t>{'Rate Type': 'FTL', 'Rate': 1184.2649999999999, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt', 'Source': 'API', 'Date': '12-09-2025'}</t>
+  </si>
+  <si>
     <t>{'Rate': 372.0, 'Carrier Name': '', 'Service Provider': 'NTG'}</t>
   </si>
   <si>
@@ -631,12 +745,57 @@
     <t>{'Rate Type': 'FTL53', 'Rate': 1038.345, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt', 'Source': 'API', 'Date': '30-08-2025'}</t>
   </si>
   <si>
+    <t>{'Rate Type': 'FTL53', 'Rate': 877.0, 'Carrier Name': '', 'Service Provider': 'NTG', 'Source': 'No API STATIC DATA', 'Date': '28-08-2025'}</t>
+  </si>
+  <si>
     <t>{'Rate Type': 'FTL53', 'Rate': 0, 'Carrier Name': 'Jb Hunt API Failed :No valid rates returned', 'Service Provider': 'J.B. Hunt', 'Source': 'API', 'Date': '02-09-2025'}</t>
   </si>
   <si>
     <t>{'Rate Type': 'FTL53', 'Rate': 963.5699999999999, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt', 'Source': 'API', 'Date': '02-09-2025'}</t>
   </si>
   <si>
+    <t>{'Rate Type': 'FTL53', 'Rate': 1253.3700000000001, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt', 'Source': 'API', 'Date': '03-09-2025'}</t>
+  </si>
+  <si>
+    <t>{'Rate Type': 'FTL53', 'Rate': 372.0, 'Carrier Name': '', 'Service Provider': 'NTG', 'Source': 'No API STATIC DATA', 'Date': '28-08-2025'}</t>
+  </si>
+  <si>
+    <t>{'Rate Type': 'FTL53', 'Rate': 5422.200000000001, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt', 'Source': 'API', 'Date': '03-09-2025'}</t>
+  </si>
+  <si>
+    <t>{'Rate Type': 'FTL53', 'Rate': 1750.125, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt', 'Source': 'API', 'Date': '03-09-2025'}</t>
+  </si>
+  <si>
+    <t>{'Rate Type': 'FTL53', 'Rate': 1619.9250000000002, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt', 'Source': 'API', 'Date': '03-09-2025'}</t>
+  </si>
+  <si>
+    <t>{'Rate Type': 'FTL53', 'Rate': 1908.87, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt', 'Source': 'API', 'Date': '03-09-2025'}</t>
+  </si>
+  <si>
+    <t>{'Rate Type': 'FTL53', 'Rate': 1987.6950000000002, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt', 'Source': 'API', 'Date': '03-09-2025'}</t>
+  </si>
+  <si>
+    <t>{'Rate Type': 'FTL53', 'Rate': 801.8700000000001, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt', 'Source': 'API', 'Date': '04-09-2025'}</t>
+  </si>
+  <si>
+    <t>{'Rate Type': 'FTL53', 'Rate': 911.9250000000001, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt', 'Source': 'API', 'Date': '04-09-2025'}</t>
+  </si>
+  <si>
+    <t>{'Rate Type': 'FTL53', 'Rate': 821.3700000000001, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt', 'Source': 'API', 'Date': '05-09-2025'}</t>
+  </si>
+  <si>
+    <t>{'Rate Type': 'FTL53', 'Rate': 1118.3700000000001, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt', 'Source': 'API', 'Date': '06-09-2025'}</t>
+  </si>
+  <si>
+    <t>{'Rate Type': 'FTL53', 'Rate': 885.015, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt', 'Source': 'API', 'Date': '09-09-2025'}</t>
+  </si>
+  <si>
+    <t>{'Rate Type': 'FTL53', 'Rate': 460.0, 'Carrier Name': '', 'Service Provider': 'NTG', 'Source': 'No API STATIC DATA', 'Date': '28-08-2025'}</t>
+  </si>
+  <si>
+    <t>{'Rate Type': 'FTL53', 'Rate': 0, 'Carrier Name': 'Jb Hunt API Failed :No valid rates returned', 'Service Provider': 'J.B. Hunt', 'Source': 'API', 'Date': '12-09-2025'}</t>
+  </si>
+  <si>
     <t>{'Rate Type': 'LTL', 'Rate': 546.16, 'Carrier Name': 'Estes Express Lines', 'Service Provider': 'Ex-Freight'}</t>
   </si>
   <si>
@@ -838,6 +997,45 @@
     <t>CMM0878LCL0003</t>
   </si>
   <si>
+    <t>CMM0800LCL0076</t>
+  </si>
+  <si>
+    <t>CMM0800LCL0077</t>
+  </si>
+  <si>
+    <t>CMM0800LCL0078</t>
+  </si>
+  <si>
+    <t>CMM0637LCL0009</t>
+  </si>
+  <si>
+    <t>CMM0741LCL0014</t>
+  </si>
+  <si>
+    <t>CMM0741LCL0015</t>
+  </si>
+  <si>
+    <t>CMM0637LCL0012</t>
+  </si>
+  <si>
+    <t>CMM0014LCL0006</t>
+  </si>
+  <si>
+    <t>CMM0923LCL0001</t>
+  </si>
+  <si>
+    <t>CMM0657LCL0128</t>
+  </si>
+  <si>
+    <t>CMM0014LCL0007</t>
+  </si>
+  <si>
+    <t>CMM0914LCL0002</t>
+  </si>
+  <si>
+    <t>CMM0868LCL0007</t>
+  </si>
+  <si>
     <t>Own Console</t>
   </si>
   <si>
@@ -946,6 +1144,54 @@
     <t>2025-09-02 07:17:13</t>
   </si>
   <si>
+    <t>2025-09-03 08:37:22</t>
+  </si>
+  <si>
+    <t>2025-09-03 10:52:23</t>
+  </si>
+  <si>
+    <t>2025-09-03 11:10:24</t>
+  </si>
+  <si>
+    <t>2025-09-03 11:15:50</t>
+  </si>
+  <si>
+    <t>2025-09-03 11:18:22</t>
+  </si>
+  <si>
+    <t>2025-09-03 11:43:01</t>
+  </si>
+  <si>
+    <t>2025-09-04 12:55:57</t>
+  </si>
+  <si>
+    <t>2025-09-04 13:38:25</t>
+  </si>
+  <si>
+    <t>2025-09-04 15:39:54</t>
+  </si>
+  <si>
+    <t>2025-09-05 09:06:27</t>
+  </si>
+  <si>
+    <t>2025-09-05 11:39:24</t>
+  </si>
+  <si>
+    <t>2025-09-06 13:36:15</t>
+  </si>
+  <si>
+    <t>2025-09-09 17:09:16</t>
+  </si>
+  <si>
+    <t>2025-09-11 11:07:57</t>
+  </si>
+  <si>
+    <t>2025-09-12 16:03:17</t>
+  </si>
+  <si>
+    <t>2025-09-18 02:54:06</t>
+  </si>
+  <si>
     <t>CMM0246LCL0056_20250828120709</t>
   </si>
   <si>
@@ -964,20 +1210,59 @@
     <t>CMM0077LCL0002_20250902071644</t>
   </si>
   <si>
-    <t>{'Rate Type': 'LTL', 'Rate': 384.0, 'Carrier Name': '', 'Service Provider': 'AmznFrgt', 'Source': 'No API STATIC DATA', 'Date': '28-08-2025'}</t>
-  </si>
-  <si>
-    <t>{'Rate Type': 'FTL53', 'Rate': 877.0, 'Carrier Name': '', 'Service Provider': 'NTG', 'Source': 'No API STATIC DATA', 'Date': '28-08-2025'}</t>
-  </si>
-  <si>
-    <t>{'Rate Type': 'FTL', 'Rate': 928.0, 'Carrier Name': '', 'Service Provider': 'JB.Hunt', 'Source': 'No API STATIC DATA', 'Date': '28-08-2025'}</t>
+    <t>CMM0246LCL0039_20250903083608</t>
+  </si>
+  <si>
+    <t>CMM0800LCL0076_20250903105110</t>
+  </si>
+  <si>
+    <t>CMM0800LCL0077_20250903110900</t>
+  </si>
+  <si>
+    <t>CMM0800LCL0077_20250903111427</t>
+  </si>
+  <si>
+    <t>CMM0800LCL0077_20250903111730</t>
+  </si>
+  <si>
+    <t>CMM0800LCL0078_20250903114223</t>
+  </si>
+  <si>
+    <t>CMM0637LCL0009_20250904125511</t>
+  </si>
+  <si>
+    <t>CMM0741LCL0014_20250904133750</t>
+  </si>
+  <si>
+    <t>CMM0741LCL0015_20250904153923</t>
+  </si>
+  <si>
+    <t>CMM0637LCL0012_20250905090547</t>
+  </si>
+  <si>
+    <t>CMM0014LCL0006_20250905113833</t>
+  </si>
+  <si>
+    <t>CMM0923LCL0001_20250906133522</t>
+  </si>
+  <si>
+    <t>CMM0657LCL0128_20250909170828</t>
+  </si>
+  <si>
+    <t>CMM0014LCL0007_20250911110739</t>
+  </si>
+  <si>
+    <t>CMM0914LCL0002_20250912160116</t>
+  </si>
+  <si>
+    <t>CMM0868LCL0007_20250918025308</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1040,21 +1325,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1092,7 +1369,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1126,7 +1403,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1161,10 +1437,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1337,65 +1612,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AW47"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AW70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y35" workbookViewId="0">
-      <selection activeCell="S45" sqref="S45"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="51.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="60.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.88671875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.88671875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="129.44140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="128" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="130" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="129.44140625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="19.21875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="12" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="4.5546875" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="4.44140625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="14.21875" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="21.109375" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="12" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="60.6640625" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="31.88671875" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="33.33203125" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="21.88671875" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="28.21875" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="14" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:49">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1544,7 +1768,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:49">
       <c r="A2" t="s">
         <v>49</v>
       </c>
@@ -1552,28 +1776,28 @@
         <v>51</v>
       </c>
       <c r="C2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E2">
         <v>29483</v>
       </c>
       <c r="F2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="H2">
         <v>28303</v>
       </c>
       <c r="I2" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="J2" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="K2">
         <v>288</v>
@@ -1588,34 +1812,34 @@
         <v>9.02</v>
       </c>
       <c r="O2">
-        <v>72.161280000000005</v>
+        <v>72.16128</v>
       </c>
       <c r="P2">
         <v>6</v>
       </c>
       <c r="Q2" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="R2" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="S2">
         <v>0</v>
       </c>
       <c r="T2" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="U2" t="s">
-        <v>159</v>
+        <v>184</v>
       </c>
       <c r="V2" t="s">
-        <v>159</v>
+        <v>184</v>
       </c>
       <c r="X2" t="s">
-        <v>205</v>
+        <v>260</v>
       </c>
       <c r="Y2" t="s">
-        <v>205</v>
+        <v>260</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -1624,13 +1848,13 @@
         <v>0</v>
       </c>
       <c r="AB2">
-        <v>78.119834710743802</v>
+        <v>78.1198347107438</v>
       </c>
       <c r="AC2">
         <v>83.66307196129813</v>
       </c>
       <c r="AD2">
-        <v>704.64090909090908</v>
+        <v>704.6409090909091</v>
       </c>
       <c r="AE2">
         <v>50</v>
@@ -1657,22 +1881,22 @@
         <v>1573.800909090909</v>
       </c>
       <c r="AM2">
-        <v>174.47903648457969</v>
+        <v>174.4790364845797</v>
       </c>
       <c r="AN2" t="s">
-        <v>241</v>
+        <v>296</v>
       </c>
       <c r="AO2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="AP2" t="s">
-        <v>272</v>
+        <v>340</v>
       </c>
       <c r="AQ2" t="s">
-        <v>274</v>
+        <v>342</v>
       </c>
     </row>
-    <row r="3" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:49">
       <c r="A3" t="s">
         <v>49</v>
       </c>
@@ -1680,28 +1904,28 @@
         <v>51</v>
       </c>
       <c r="C3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E3">
         <v>7201</v>
       </c>
       <c r="F3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G3" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="H3">
         <v>46140</v>
       </c>
       <c r="I3" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="J3" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="K3">
         <v>518</v>
@@ -1716,34 +1940,34 @@
         <v>16.224</v>
       </c>
       <c r="O3">
-        <v>72.161280000000005</v>
+        <v>72.16128</v>
       </c>
       <c r="P3">
         <v>10</v>
       </c>
       <c r="Q3" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="R3" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="U3" t="s">
-        <v>160</v>
+        <v>185</v>
       </c>
       <c r="V3" t="s">
-        <v>160</v>
+        <v>185</v>
       </c>
       <c r="X3" t="s">
-        <v>206</v>
+        <v>261</v>
       </c>
       <c r="Y3" t="s">
-        <v>206</v>
+        <v>261</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -1752,10 +1976,10 @@
         <v>0</v>
       </c>
       <c r="AB3">
-        <v>71.359848484848484</v>
+        <v>71.35984848484848</v>
       </c>
       <c r="AC3">
-        <v>74.441702528240995</v>
+        <v>74.441702528241</v>
       </c>
       <c r="AD3">
         <v>1157.742181818182</v>
@@ -1782,25 +2006,25 @@
         <v>1515.57</v>
       </c>
       <c r="AL3">
-        <v>3056.3121818181821</v>
+        <v>3056.312181818182</v>
       </c>
       <c r="AM3">
         <v>188.3821611081226</v>
       </c>
       <c r="AN3" t="s">
-        <v>241</v>
+        <v>296</v>
       </c>
       <c r="AO3" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="AP3" t="s">
-        <v>272</v>
+        <v>340</v>
       </c>
       <c r="AQ3" t="s">
-        <v>274</v>
+        <v>342</v>
       </c>
     </row>
-    <row r="4" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:49">
       <c r="A4" t="s">
         <v>49</v>
       </c>
@@ -1808,28 +2032,28 @@
         <v>51</v>
       </c>
       <c r="C4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E4">
         <v>90220</v>
       </c>
       <c r="F4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G4" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="H4">
         <v>75241</v>
       </c>
       <c r="I4" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="J4" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="K4">
         <v>461</v>
@@ -1844,34 +2068,34 @@
         <v>14.439</v>
       </c>
       <c r="O4">
-        <v>72.161280000000005</v>
+        <v>72.16128</v>
       </c>
       <c r="P4">
         <v>9</v>
       </c>
       <c r="Q4" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="R4" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="U4" t="s">
-        <v>161</v>
+        <v>186</v>
       </c>
       <c r="V4" t="s">
-        <v>161</v>
+        <v>186</v>
       </c>
       <c r="X4" t="s">
-        <v>207</v>
+        <v>262</v>
       </c>
       <c r="Y4" t="s">
-        <v>207</v>
+        <v>262</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -1880,10 +2104,10 @@
         <v>0</v>
       </c>
       <c r="AB4">
-        <v>81.028925619834709</v>
+        <v>81.02892561983471</v>
       </c>
       <c r="AC4">
-        <v>84.491769307070669</v>
+        <v>84.49176930707067</v>
       </c>
       <c r="AD4">
         <v>1169.976657024793</v>
@@ -1913,22 +2137,22 @@
         <v>2867.206657024793</v>
       </c>
       <c r="AM4">
-        <v>198.57376944558439</v>
+        <v>198.5737694455844</v>
       </c>
       <c r="AN4" t="s">
-        <v>241</v>
+        <v>296</v>
       </c>
       <c r="AO4" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="AP4" t="s">
-        <v>272</v>
+        <v>340</v>
       </c>
       <c r="AQ4" t="s">
-        <v>274</v>
+        <v>342</v>
       </c>
     </row>
-    <row r="5" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:49">
       <c r="A5" t="s">
         <v>49</v>
       </c>
@@ -1936,28 +2160,28 @@
         <v>51</v>
       </c>
       <c r="C5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E5">
         <v>90220</v>
       </c>
       <c r="F5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G5" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="H5">
         <v>85395</v>
       </c>
       <c r="I5" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="J5" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="K5">
         <v>461</v>
@@ -1972,34 +2196,34 @@
         <v>14.439</v>
       </c>
       <c r="O5">
-        <v>72.161280000000005</v>
+        <v>72.16128</v>
       </c>
       <c r="P5">
         <v>9</v>
       </c>
       <c r="Q5" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="R5" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="U5" t="s">
-        <v>162</v>
+        <v>187</v>
       </c>
       <c r="V5" t="s">
-        <v>162</v>
+        <v>187</v>
       </c>
       <c r="X5" t="s">
-        <v>208</v>
+        <v>263</v>
       </c>
       <c r="Y5" t="s">
-        <v>208</v>
+        <v>263</v>
       </c>
       <c r="Z5">
         <v>0</v>
@@ -2008,10 +2232,10 @@
         <v>0</v>
       </c>
       <c r="AB5">
-        <v>81.028925619834709</v>
+        <v>81.02892561983471</v>
       </c>
       <c r="AC5">
-        <v>84.491769307070669</v>
+        <v>84.49176930707067</v>
       </c>
       <c r="AD5">
         <v>1169.976657024793</v>
@@ -2038,25 +2262,25 @@
         <v>638.28</v>
       </c>
       <c r="AL5">
-        <v>2191.2566570247941</v>
+        <v>2191.256657024794</v>
       </c>
       <c r="AM5">
         <v>151.7595856378415</v>
       </c>
       <c r="AN5" t="s">
-        <v>241</v>
+        <v>296</v>
       </c>
       <c r="AO5" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="AP5" t="s">
-        <v>272</v>
+        <v>340</v>
       </c>
       <c r="AQ5" t="s">
-        <v>274</v>
+        <v>342</v>
       </c>
     </row>
-    <row r="6" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:49">
       <c r="A6" t="s">
         <v>49</v>
       </c>
@@ -2064,28 +2288,28 @@
         <v>51</v>
       </c>
       <c r="C6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E6">
         <v>90220</v>
       </c>
       <c r="F6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G6" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="H6">
         <v>85043</v>
       </c>
       <c r="I6" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="J6" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="K6">
         <v>576</v>
@@ -2100,34 +2324,34 @@
         <v>18.04</v>
       </c>
       <c r="O6">
-        <v>72.161280000000005</v>
+        <v>72.16128</v>
       </c>
       <c r="P6">
         <v>11</v>
       </c>
       <c r="Q6" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="R6" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="S6">
         <v>0</v>
       </c>
       <c r="T6" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="U6" t="s">
-        <v>163</v>
+        <v>188</v>
       </c>
       <c r="V6" t="s">
-        <v>163</v>
+        <v>188</v>
       </c>
       <c r="X6" t="s">
-        <v>209</v>
+        <v>264</v>
       </c>
       <c r="Y6" t="s">
-        <v>209</v>
+        <v>264</v>
       </c>
       <c r="Z6">
         <v>0</v>
@@ -2136,13 +2360,13 @@
         <v>0</v>
       </c>
       <c r="AB6">
-        <v>81.028925619834709</v>
+        <v>81.02892561983471</v>
       </c>
       <c r="AC6">
-        <v>83.800544245111865</v>
+        <v>83.80054424511187</v>
       </c>
       <c r="AD6">
-        <v>1461.7618181818179</v>
+        <v>1461.761818181818</v>
       </c>
       <c r="AE6">
         <v>50</v>
@@ -2166,25 +2390,25 @@
         <v>1089.06</v>
       </c>
       <c r="AL6">
-        <v>2973.8218181818179</v>
+        <v>2973.821818181818</v>
       </c>
       <c r="AM6">
         <v>164.8459987905664</v>
       </c>
       <c r="AN6" t="s">
-        <v>241</v>
+        <v>296</v>
       </c>
       <c r="AO6" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="AP6" t="s">
-        <v>272</v>
+        <v>340</v>
       </c>
       <c r="AQ6" t="s">
-        <v>274</v>
+        <v>342</v>
       </c>
     </row>
-    <row r="7" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:49">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -2192,28 +2416,28 @@
         <v>52</v>
       </c>
       <c r="C7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E7">
         <v>29483</v>
       </c>
       <c r="F7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G7" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="H7">
         <v>30567</v>
       </c>
       <c r="I7" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="J7" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="K7">
         <v>10</v>
@@ -2228,34 +2452,34 @@
         <v>1</v>
       </c>
       <c r="O7">
-        <v>2.6015999999999999</v>
+        <v>2.6016</v>
       </c>
       <c r="P7">
         <v>1</v>
       </c>
       <c r="Q7" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="R7" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
       <c r="T7" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="U7" t="s">
-        <v>164</v>
+        <v>189</v>
       </c>
       <c r="V7" t="s">
-        <v>164</v>
+        <v>189</v>
       </c>
       <c r="X7" t="s">
-        <v>210</v>
+        <v>265</v>
       </c>
       <c r="Y7" t="s">
-        <v>210</v>
+        <v>265</v>
       </c>
       <c r="Z7">
         <v>10000</v>
@@ -2264,13 +2488,13 @@
         <v>113.6363636363636</v>
       </c>
       <c r="AB7">
-        <v>78.119834710743802</v>
+        <v>78.1198347107438</v>
       </c>
       <c r="AC7">
-        <v>128.11983471074379</v>
+        <v>128.1198347107438</v>
       </c>
       <c r="AD7">
-        <v>78.119834710743802</v>
+        <v>78.1198347107438</v>
       </c>
       <c r="AE7">
         <v>50</v>
@@ -2291,28 +2515,28 @@
         <v>20</v>
       </c>
       <c r="AK7">
-        <v>304.35000000000002</v>
+        <v>304.35</v>
       </c>
       <c r="AL7">
-        <v>719.10619834710747</v>
+        <v>719.1061983471075</v>
       </c>
       <c r="AM7">
-        <v>719.10619834710747</v>
+        <v>719.1061983471075</v>
       </c>
       <c r="AN7" t="s">
-        <v>242</v>
+        <v>297</v>
       </c>
       <c r="AO7" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="AP7" t="s">
-        <v>272</v>
+        <v>340</v>
       </c>
       <c r="AQ7" t="s">
-        <v>275</v>
+        <v>343</v>
       </c>
     </row>
-    <row r="8" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:49">
       <c r="A8" t="s">
         <v>50</v>
       </c>
@@ -2320,28 +2544,28 @@
         <v>52</v>
       </c>
       <c r="C8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E8">
         <v>7201</v>
       </c>
       <c r="F8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G8" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="H8">
         <v>8873</v>
       </c>
       <c r="I8" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="J8" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="K8">
         <v>9</v>
@@ -2356,34 +2580,34 @@
         <v>1</v>
       </c>
       <c r="O8">
-        <v>2.6015999999999999</v>
+        <v>2.6016</v>
       </c>
       <c r="P8">
         <v>1</v>
       </c>
       <c r="Q8" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="R8" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
       <c r="T8" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="U8" t="s">
-        <v>165</v>
+        <v>190</v>
       </c>
       <c r="V8" t="s">
-        <v>197</v>
+        <v>237</v>
       </c>
       <c r="X8" t="s">
-        <v>211</v>
+        <v>266</v>
       </c>
       <c r="Y8" t="s">
-        <v>211</v>
+        <v>266</v>
       </c>
       <c r="Z8">
         <v>10000</v>
@@ -2392,13 +2616,13 @@
         <v>113.6363636363636</v>
       </c>
       <c r="AB8">
-        <v>71.359848484848484</v>
+        <v>71.35984848484848</v>
       </c>
       <c r="AC8">
         <v>121.3598484848485</v>
       </c>
       <c r="AD8">
-        <v>71.359848484848484</v>
+        <v>71.35984848484848</v>
       </c>
       <c r="AE8">
         <v>50</v>
@@ -2422,25 +2646,25 @@
         <v>97</v>
       </c>
       <c r="AL8">
-        <v>502.99621212121212</v>
+        <v>502.9962121212121</v>
       </c>
       <c r="AM8">
-        <v>502.99621212121212</v>
+        <v>502.9962121212121</v>
       </c>
       <c r="AN8" t="s">
-        <v>242</v>
+        <v>297</v>
       </c>
       <c r="AO8" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="AP8" t="s">
-        <v>272</v>
+        <v>340</v>
       </c>
       <c r="AQ8" t="s">
-        <v>275</v>
+        <v>343</v>
       </c>
     </row>
-    <row r="9" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:49">
       <c r="A9" t="s">
         <v>49</v>
       </c>
@@ -2448,28 +2672,28 @@
         <v>53</v>
       </c>
       <c r="C9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E9">
         <v>7201</v>
       </c>
       <c r="F9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G9" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="H9">
         <v>18202</v>
       </c>
       <c r="I9" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="J9" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="K9">
         <v>72</v>
@@ -2481,37 +2705,37 @@
         <v>720</v>
       </c>
       <c r="N9">
-        <v>2.2549999999999999</v>
+        <v>2.255</v>
       </c>
       <c r="O9">
-        <v>2.2550400000000002</v>
+        <v>2.25504</v>
       </c>
       <c r="P9">
         <v>2</v>
       </c>
       <c r="Q9" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="R9" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
       <c r="T9" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="U9" t="s">
-        <v>166</v>
+        <v>191</v>
       </c>
       <c r="V9" t="s">
-        <v>198</v>
+        <v>238</v>
       </c>
       <c r="X9" t="s">
-        <v>212</v>
+        <v>267</v>
       </c>
       <c r="Y9" t="s">
-        <v>212</v>
+        <v>267</v>
       </c>
       <c r="Z9">
         <v>0</v>
@@ -2520,13 +2744,13 @@
         <v>0</v>
       </c>
       <c r="AB9">
-        <v>71.359848484848484</v>
+        <v>71.35984848484848</v>
       </c>
       <c r="AC9">
-        <v>93.532797487065778</v>
+        <v>93.53279748706578</v>
       </c>
       <c r="AD9">
-        <v>160.91645833333331</v>
+        <v>160.9164583333333</v>
       </c>
       <c r="AE9">
         <v>50</v>
@@ -2550,25 +2774,25 @@
         <v>180</v>
       </c>
       <c r="AL9">
-        <v>579.91645833333337</v>
+        <v>579.9164583333334</v>
       </c>
       <c r="AM9">
-        <v>257.16916112342938</v>
+        <v>257.1691611234294</v>
       </c>
       <c r="AN9" t="s">
-        <v>243</v>
+        <v>298</v>
       </c>
       <c r="AO9" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AP9" t="s">
-        <v>272</v>
+        <v>340</v>
       </c>
       <c r="AQ9" t="s">
-        <v>276</v>
+        <v>344</v>
       </c>
     </row>
-    <row r="10" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:49">
       <c r="A10" t="s">
         <v>49</v>
       </c>
@@ -2576,28 +2800,28 @@
         <v>53</v>
       </c>
       <c r="C10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E10">
         <v>77020</v>
       </c>
       <c r="F10" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G10" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="H10">
         <v>75007</v>
       </c>
       <c r="I10" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="J10" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="K10">
         <v>50</v>
@@ -2609,7 +2833,7 @@
         <v>125000</v>
       </c>
       <c r="N10">
-        <v>6.9119999999999999</v>
+        <v>6.912</v>
       </c>
       <c r="O10">
         <v>34.56</v>
@@ -2618,25 +2842,25 @@
         <v>50</v>
       </c>
       <c r="Q10" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="R10" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="S10">
         <v>0</v>
       </c>
       <c r="U10" t="s">
-        <v>167</v>
+        <v>192</v>
       </c>
       <c r="V10" t="s">
-        <v>167</v>
+        <v>192</v>
       </c>
       <c r="X10" t="s">
-        <v>213</v>
+        <v>268</v>
       </c>
       <c r="Y10" t="s">
-        <v>213</v>
+        <v>268</v>
       </c>
       <c r="Z10">
         <v>0</v>
@@ -2648,10 +2872,10 @@
         <v>90</v>
       </c>
       <c r="AC10">
-        <v>97.233796296296291</v>
+        <v>97.23379629629629</v>
       </c>
       <c r="AD10">
-        <v>622.08000000000004</v>
+        <v>622.08</v>
       </c>
       <c r="AE10">
         <v>50</v>
@@ -2678,22 +2902,22 @@
         <v>1940.52</v>
       </c>
       <c r="AM10">
-        <v>280.74652777777783</v>
+        <v>280.7465277777778</v>
       </c>
       <c r="AN10" t="s">
-        <v>244</v>
+        <v>299</v>
       </c>
       <c r="AO10" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="AP10" t="s">
-        <v>273</v>
+        <v>341</v>
       </c>
       <c r="AQ10" t="s">
-        <v>277</v>
+        <v>345</v>
       </c>
     </row>
-    <row r="11" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:49">
       <c r="A11" t="s">
         <v>49</v>
       </c>
@@ -2701,28 +2925,28 @@
         <v>53</v>
       </c>
       <c r="C11" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E11">
         <v>7201</v>
       </c>
       <c r="F11" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G11" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="H11">
         <v>18105</v>
       </c>
       <c r="I11" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="J11" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="K11">
         <v>100</v>
@@ -2743,25 +2967,25 @@
         <v>100</v>
       </c>
       <c r="Q11" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="R11" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
       <c r="U11" t="s">
-        <v>168</v>
+        <v>193</v>
       </c>
       <c r="V11" t="s">
-        <v>168</v>
+        <v>193</v>
       </c>
       <c r="X11" t="s">
-        <v>214</v>
+        <v>269</v>
       </c>
       <c r="Y11" t="s">
-        <v>214</v>
+        <v>269</v>
       </c>
       <c r="Z11">
         <v>0</v>
@@ -2770,13 +2994,13 @@
         <v>0</v>
       </c>
       <c r="AB11">
-        <v>71.359848484848484</v>
+        <v>71.35984848484848</v>
       </c>
       <c r="AC11">
-        <v>74.976746632996637</v>
+        <v>74.97674663299664</v>
       </c>
       <c r="AD11">
-        <v>986.47854545454538</v>
+        <v>986.4785454545454</v>
       </c>
       <c r="AE11">
         <v>50</v>
@@ -2797,28 +3021,28 @@
         <v>0</v>
       </c>
       <c r="AK11">
-        <v>831.40499999999997</v>
+        <v>831.405</v>
       </c>
       <c r="AL11">
-        <v>1967.8835454545449</v>
+        <v>1967.883545454545</v>
       </c>
       <c r="AM11">
-        <v>142.35268702651521</v>
+        <v>142.3526870265152</v>
       </c>
       <c r="AN11" t="s">
-        <v>244</v>
+        <v>299</v>
       </c>
       <c r="AO11" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="AP11" t="s">
-        <v>272</v>
+        <v>340</v>
       </c>
       <c r="AQ11" t="s">
-        <v>277</v>
+        <v>345</v>
       </c>
     </row>
-    <row r="12" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:49">
       <c r="A12" t="s">
         <v>49</v>
       </c>
@@ -2826,28 +3050,28 @@
         <v>53</v>
       </c>
       <c r="C12" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D12" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E12">
         <v>7201</v>
       </c>
       <c r="F12" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G12" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="H12">
         <v>17112</v>
       </c>
       <c r="I12" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="J12" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="K12">
         <v>100</v>
@@ -2868,25 +3092,25 @@
         <v>100</v>
       </c>
       <c r="Q12" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="R12" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="S12">
         <v>0</v>
       </c>
       <c r="U12" t="s">
-        <v>169</v>
+        <v>194</v>
       </c>
       <c r="V12" t="s">
-        <v>169</v>
+        <v>194</v>
       </c>
       <c r="X12" t="s">
-        <v>215</v>
+        <v>270</v>
       </c>
       <c r="Y12" t="s">
-        <v>215</v>
+        <v>270</v>
       </c>
       <c r="Z12">
         <v>0</v>
@@ -2895,13 +3119,13 @@
         <v>0</v>
       </c>
       <c r="AB12">
-        <v>71.359848484848484</v>
+        <v>71.35984848484848</v>
       </c>
       <c r="AC12">
-        <v>74.976746632996637</v>
+        <v>74.97674663299664</v>
       </c>
       <c r="AD12">
-        <v>986.47854545454538</v>
+        <v>986.4785454545454</v>
       </c>
       <c r="AE12">
         <v>50</v>
@@ -2925,25 +3149,25 @@
         <v>1171.5</v>
       </c>
       <c r="AL12">
-        <v>2307.9785454545449</v>
+        <v>2307.978545454545</v>
       </c>
       <c r="AM12">
-        <v>166.95446654040401</v>
+        <v>166.954466540404</v>
       </c>
       <c r="AN12" t="s">
-        <v>244</v>
+        <v>299</v>
       </c>
       <c r="AO12" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="AP12" t="s">
-        <v>272</v>
+        <v>340</v>
       </c>
       <c r="AQ12" t="s">
-        <v>277</v>
+        <v>345</v>
       </c>
     </row>
-    <row r="13" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:49">
       <c r="A13" t="s">
         <v>49</v>
       </c>
@@ -2951,28 +3175,28 @@
         <v>51</v>
       </c>
       <c r="C13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E13">
         <v>29483</v>
       </c>
       <c r="F13" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G13" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="H13">
         <v>29330</v>
       </c>
       <c r="I13" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="J13" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="K13">
         <v>390</v>
@@ -2984,7 +3208,7 @@
         <v>5460</v>
       </c>
       <c r="N13">
-        <v>29.515000000000001</v>
+        <v>29.515</v>
       </c>
       <c r="O13">
         <v>29.5152</v>
@@ -2993,28 +3217,28 @@
         <v>17</v>
       </c>
       <c r="Q13" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="R13" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="S13">
         <v>0</v>
       </c>
       <c r="T13" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="U13" t="s">
-        <v>170</v>
+        <v>195</v>
       </c>
       <c r="V13" t="s">
-        <v>170</v>
+        <v>195</v>
       </c>
       <c r="X13" t="s">
-        <v>216</v>
+        <v>271</v>
       </c>
       <c r="Y13" t="s">
-        <v>216</v>
+        <v>271</v>
       </c>
       <c r="Z13">
         <v>0</v>
@@ -3023,13 +3247,13 @@
         <v>0</v>
       </c>
       <c r="AB13">
-        <v>78.119834710743802</v>
+        <v>78.1198347107438</v>
       </c>
       <c r="AC13">
-        <v>79.813888581656897</v>
+        <v>79.8138885816569</v>
       </c>
       <c r="AD13">
-        <v>2305.7069214876028</v>
+        <v>2305.706921487603</v>
       </c>
       <c r="AE13">
         <v>50</v>
@@ -3053,25 +3277,25 @@
         <v>1132.68</v>
       </c>
       <c r="AL13">
-        <v>3928.3869214876031</v>
+        <v>3928.386921487603</v>
       </c>
       <c r="AM13">
-        <v>133.09798141580899</v>
+        <v>133.097981415809</v>
       </c>
       <c r="AN13" t="s">
-        <v>245</v>
+        <v>300</v>
       </c>
       <c r="AO13" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="AP13" t="s">
-        <v>272</v>
+        <v>340</v>
       </c>
       <c r="AQ13" t="s">
-        <v>278</v>
+        <v>346</v>
       </c>
     </row>
-    <row r="14" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:49">
       <c r="A14" t="s">
         <v>49</v>
       </c>
@@ -3079,28 +3303,28 @@
         <v>51</v>
       </c>
       <c r="C14" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D14" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E14">
         <v>7201</v>
       </c>
       <c r="F14" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G14" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="H14">
         <v>46410</v>
       </c>
       <c r="I14" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="J14" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="K14">
         <v>390</v>
@@ -3112,7 +3336,7 @@
         <v>5460</v>
       </c>
       <c r="N14">
-        <v>29.515000000000001</v>
+        <v>29.515</v>
       </c>
       <c r="O14">
         <v>29.5152</v>
@@ -3121,28 +3345,28 @@
         <v>17</v>
       </c>
       <c r="Q14" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="R14" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="S14">
         <v>0</v>
       </c>
       <c r="T14" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="U14" t="s">
-        <v>171</v>
+        <v>196</v>
       </c>
       <c r="V14" t="s">
-        <v>171</v>
+        <v>196</v>
       </c>
       <c r="X14" t="s">
-        <v>217</v>
+        <v>272</v>
       </c>
       <c r="Y14" t="s">
-        <v>217</v>
+        <v>272</v>
       </c>
       <c r="Z14">
         <v>0</v>
@@ -3151,13 +3375,13 @@
         <v>0</v>
       </c>
       <c r="AB14">
-        <v>71.359848484848484</v>
+        <v>71.35984848484848</v>
       </c>
       <c r="AC14">
-        <v>73.053902355761579</v>
+        <v>73.05390235576158</v>
       </c>
       <c r="AD14">
-        <v>2106.1859280303029</v>
+        <v>2106.185928030303</v>
       </c>
       <c r="AE14">
         <v>50</v>
@@ -3181,25 +3405,25 @@
         <v>1890</v>
       </c>
       <c r="AL14">
-        <v>4452.1859280303033</v>
+        <v>4452.185928030303</v>
       </c>
       <c r="AM14">
-        <v>150.84485610809091</v>
+        <v>150.8448561080909</v>
       </c>
       <c r="AN14" t="s">
-        <v>246</v>
+        <v>301</v>
       </c>
       <c r="AO14" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="AP14" t="s">
-        <v>272</v>
+        <v>340</v>
       </c>
       <c r="AQ14" t="s">
-        <v>279</v>
+        <v>347</v>
       </c>
     </row>
-    <row r="15" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:49">
       <c r="A15" t="s">
         <v>49</v>
       </c>
@@ -3207,28 +3431,28 @@
         <v>53</v>
       </c>
       <c r="C15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E15">
         <v>29483</v>
       </c>
       <c r="F15" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G15" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="H15">
         <v>29330</v>
       </c>
       <c r="I15" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="J15" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="K15">
         <v>436</v>
@@ -3240,37 +3464,37 @@
         <v>6300.2</v>
       </c>
       <c r="N15">
-        <v>32.996000000000002</v>
+        <v>32.996</v>
       </c>
       <c r="O15">
-        <v>32.996479999999998</v>
+        <v>32.99648</v>
       </c>
       <c r="P15">
         <v>19</v>
       </c>
       <c r="Q15" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="R15" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="S15">
         <v>0</v>
       </c>
       <c r="T15" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="U15" t="s">
-        <v>172</v>
+        <v>197</v>
       </c>
       <c r="V15" t="s">
-        <v>172</v>
+        <v>197</v>
       </c>
       <c r="X15" t="s">
-        <v>218</v>
+        <v>273</v>
       </c>
       <c r="Y15" t="s">
-        <v>218</v>
+        <v>273</v>
       </c>
       <c r="Z15">
         <v>0</v>
@@ -3279,13 +3503,13 @@
         <v>0</v>
       </c>
       <c r="AB15">
-        <v>78.119834710743802</v>
+        <v>78.1198347107438</v>
       </c>
       <c r="AC15">
-        <v>79.635169902888308</v>
+        <v>79.63516990288831</v>
       </c>
       <c r="AD15">
-        <v>2577.6420661157031</v>
+        <v>2577.642066115703</v>
       </c>
       <c r="AE15">
         <v>50</v>
@@ -3309,25 +3533,25 @@
         <v>1144.68</v>
       </c>
       <c r="AL15">
-        <v>4305.3220661157029</v>
+        <v>4305.322066115703</v>
       </c>
       <c r="AM15">
-        <v>130.48012080602811</v>
+        <v>130.4801208060281</v>
       </c>
       <c r="AN15" t="s">
-        <v>247</v>
+        <v>302</v>
       </c>
       <c r="AO15" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="AP15" t="s">
-        <v>272</v>
+        <v>340</v>
       </c>
       <c r="AQ15" t="s">
-        <v>280</v>
+        <v>348</v>
       </c>
     </row>
-    <row r="16" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:49">
       <c r="A16" t="s">
         <v>49</v>
       </c>
@@ -3335,28 +3559,28 @@
         <v>53</v>
       </c>
       <c r="C16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D16" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E16">
         <v>7201</v>
       </c>
       <c r="F16" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G16" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="H16">
         <v>46410</v>
       </c>
       <c r="I16" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="J16" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="K16">
         <v>436</v>
@@ -3368,37 +3592,37 @@
         <v>6300.2</v>
       </c>
       <c r="N16">
-        <v>32.996000000000002</v>
+        <v>32.996</v>
       </c>
       <c r="O16">
-        <v>32.996479999999998</v>
+        <v>32.99648</v>
       </c>
       <c r="P16">
         <v>19</v>
       </c>
       <c r="Q16" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="R16" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="S16">
         <v>0</v>
       </c>
       <c r="T16" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="U16" t="s">
-        <v>173</v>
+        <v>198</v>
       </c>
       <c r="V16" t="s">
-        <v>173</v>
+        <v>198</v>
       </c>
       <c r="X16" t="s">
-        <v>219</v>
+        <v>274</v>
       </c>
       <c r="Y16" t="s">
-        <v>219</v>
+        <v>274</v>
       </c>
       <c r="Z16">
         <v>0</v>
@@ -3407,13 +3631,13 @@
         <v>0</v>
       </c>
       <c r="AB16">
-        <v>71.359848484848484</v>
+        <v>71.35984848484848</v>
       </c>
       <c r="AC16">
-        <v>72.875183676992989</v>
+        <v>72.87518367699299</v>
       </c>
       <c r="AD16">
-        <v>2354.5895606060608</v>
+        <v>2354.589560606061</v>
       </c>
       <c r="AE16">
         <v>50</v>
@@ -3437,25 +3661,25 @@
         <v>1909.5</v>
       </c>
       <c r="AL16">
-        <v>4809.0895606060603</v>
+        <v>4809.08956060606</v>
       </c>
       <c r="AM16">
         <v>145.7476530672221</v>
       </c>
       <c r="AN16" t="s">
-        <v>248</v>
+        <v>303</v>
       </c>
       <c r="AO16" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="AP16" t="s">
-        <v>272</v>
+        <v>340</v>
       </c>
       <c r="AQ16" t="s">
-        <v>281</v>
+        <v>349</v>
       </c>
     </row>
-    <row r="17" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:43">
       <c r="A17" t="s">
         <v>49</v>
       </c>
@@ -3463,28 +3687,28 @@
         <v>53</v>
       </c>
       <c r="C17" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D17" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E17">
         <v>7201</v>
       </c>
       <c r="F17" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G17" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="H17">
         <v>48917</v>
       </c>
       <c r="I17" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="J17" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="K17">
         <v>4</v>
@@ -3496,37 +3720,37 @@
         <v>10878</v>
       </c>
       <c r="N17">
-        <v>6.9800700000000004</v>
+        <v>6.98007</v>
       </c>
       <c r="O17">
-        <v>43.078830000000004</v>
+        <v>43.07883</v>
       </c>
       <c r="P17">
         <v>4</v>
       </c>
       <c r="Q17" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="R17" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="S17">
         <v>0</v>
       </c>
       <c r="T17" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="U17" t="s">
-        <v>174</v>
+        <v>199</v>
       </c>
       <c r="V17" t="s">
-        <v>174</v>
+        <v>199</v>
       </c>
       <c r="X17" t="s">
-        <v>220</v>
+        <v>275</v>
       </c>
       <c r="Y17" t="s">
-        <v>220</v>
+        <v>275</v>
       </c>
       <c r="Z17">
         <v>0</v>
@@ -3535,13 +3759,13 @@
         <v>0</v>
       </c>
       <c r="AB17">
-        <v>71.359848484848484</v>
+        <v>71.35984848484848</v>
       </c>
       <c r="AC17">
-        <v>78.523100429313232</v>
+        <v>78.52310042931323</v>
       </c>
       <c r="AD17">
-        <v>498.09673761363632</v>
+        <v>498.0967376136363</v>
       </c>
       <c r="AE17">
         <v>50</v>
@@ -3568,22 +3792,22 @@
         <v>1438.056737613636</v>
       </c>
       <c r="AM17">
-        <v>206.02325443922999</v>
+        <v>206.02325443923</v>
       </c>
       <c r="AN17" t="s">
-        <v>249</v>
+        <v>304</v>
       </c>
       <c r="AO17" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="AP17" t="s">
-        <v>272</v>
+        <v>340</v>
       </c>
       <c r="AQ17" t="s">
-        <v>282</v>
+        <v>350</v>
       </c>
     </row>
-    <row r="18" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:43">
       <c r="A18" t="s">
         <v>49</v>
       </c>
@@ -3591,28 +3815,28 @@
         <v>53</v>
       </c>
       <c r="C18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D18" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G18" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="H18">
         <v>60433</v>
       </c>
       <c r="I18" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="J18" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="K18">
         <v>9</v>
@@ -3624,34 +3848,34 @@
         <v>10878</v>
       </c>
       <c r="N18">
-        <v>15.209239999999999</v>
+        <v>15.20924</v>
       </c>
       <c r="O18">
-        <v>43.078830000000004</v>
+        <v>43.07883</v>
       </c>
       <c r="P18">
         <v>9</v>
       </c>
       <c r="Q18" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="R18" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="S18">
         <v>0</v>
       </c>
       <c r="U18" t="s">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="V18" t="s">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="X18" t="s">
-        <v>221</v>
+        <v>276</v>
       </c>
       <c r="Y18" t="s">
-        <v>221</v>
+        <v>276</v>
       </c>
       <c r="Z18">
         <v>0</v>
@@ -3663,7 +3887,7 @@
         <v>90</v>
       </c>
       <c r="AC18">
-        <v>93.287475245311398</v>
+        <v>93.2874752453114</v>
       </c>
       <c r="AD18">
         <v>1368.8316</v>
@@ -3696,19 +3920,19 @@
         <v>103.3471494959643</v>
       </c>
       <c r="AN18" t="s">
-        <v>249</v>
+        <v>304</v>
       </c>
       <c r="AO18" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="AP18" t="s">
-        <v>273</v>
+        <v>341</v>
       </c>
       <c r="AQ18" t="s">
-        <v>282</v>
+        <v>350</v>
       </c>
     </row>
-    <row r="19" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:43">
       <c r="A19" t="s">
         <v>49</v>
       </c>
@@ -3716,28 +3940,28 @@
         <v>53</v>
       </c>
       <c r="C19" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D19" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E19">
         <v>7201</v>
       </c>
       <c r="F19" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G19" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="H19">
         <v>46809</v>
       </c>
       <c r="I19" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="J19" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="K19">
         <v>10</v>
@@ -3749,37 +3973,37 @@
         <v>10878</v>
       </c>
       <c r="N19">
-        <v>20.889520000000001</v>
+        <v>20.88952</v>
       </c>
       <c r="O19">
-        <v>43.078830000000004</v>
+        <v>43.07883</v>
       </c>
       <c r="P19">
         <v>10</v>
       </c>
       <c r="Q19" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="R19" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="S19">
         <v>0</v>
       </c>
       <c r="T19" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="U19" t="s">
-        <v>176</v>
+        <v>201</v>
       </c>
       <c r="V19" t="s">
-        <v>176</v>
+        <v>201</v>
       </c>
       <c r="X19" t="s">
-        <v>222</v>
+        <v>277</v>
       </c>
       <c r="Y19" t="s">
-        <v>222</v>
+        <v>277</v>
       </c>
       <c r="Z19">
         <v>0</v>
@@ -3788,10 +4012,10 @@
         <v>0</v>
       </c>
       <c r="AB19">
-        <v>71.359848484848484</v>
+        <v>71.35984848484848</v>
       </c>
       <c r="AC19">
-        <v>73.753393190519077</v>
+        <v>73.75339319051908</v>
       </c>
       <c r="AD19">
         <v>1490.672982121212</v>
@@ -3821,22 +4045,22 @@
         <v>3122.442982121212</v>
       </c>
       <c r="AM19">
-        <v>149.47413737229061</v>
+        <v>149.4741373722906</v>
       </c>
       <c r="AN19" t="s">
-        <v>249</v>
+        <v>304</v>
       </c>
       <c r="AO19" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="AP19" t="s">
-        <v>272</v>
+        <v>340</v>
       </c>
       <c r="AQ19" t="s">
-        <v>282</v>
+        <v>350</v>
       </c>
     </row>
-    <row r="20" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:43">
       <c r="A20" t="s">
         <v>49</v>
       </c>
@@ -3844,28 +4068,28 @@
         <v>53</v>
       </c>
       <c r="C20" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D20" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E20">
         <v>90220</v>
       </c>
       <c r="F20" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G20" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="H20">
         <v>89044</v>
       </c>
       <c r="I20" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="J20" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="K20">
         <v>10</v>
@@ -3886,28 +4110,28 @@
         <v>10</v>
       </c>
       <c r="Q20" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="R20" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="S20">
         <v>0</v>
       </c>
       <c r="T20" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="U20" t="s">
-        <v>177</v>
+        <v>202</v>
       </c>
       <c r="V20" t="s">
-        <v>177</v>
+        <v>202</v>
       </c>
       <c r="X20" t="s">
-        <v>223</v>
+        <v>278</v>
       </c>
       <c r="Y20" t="s">
-        <v>223</v>
+        <v>278</v>
       </c>
       <c r="Z20">
         <v>0</v>
@@ -3916,10 +4140,10 @@
         <v>0</v>
       </c>
       <c r="AB20">
-        <v>81.028925619834709</v>
+        <v>81.02892561983471</v>
       </c>
       <c r="AC20">
-        <v>83.424709041013429</v>
+        <v>83.42470904101343</v>
       </c>
       <c r="AD20">
         <v>1691.073677685951</v>
@@ -3949,22 +4173,22 @@
         <v>3285.20367768595</v>
       </c>
       <c r="AM20">
-        <v>157.41273012390749</v>
+        <v>157.4127301239075</v>
       </c>
       <c r="AN20" t="s">
-        <v>250</v>
+        <v>305</v>
       </c>
       <c r="AO20" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="AP20" t="s">
-        <v>272</v>
+        <v>340</v>
       </c>
       <c r="AQ20" t="s">
-        <v>283</v>
+        <v>351</v>
       </c>
     </row>
-    <row r="21" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:43">
       <c r="A21" t="s">
         <v>49</v>
       </c>
@@ -3972,28 +4196,28 @@
         <v>53</v>
       </c>
       <c r="C21" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E21">
         <v>90220</v>
       </c>
       <c r="F21" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G21" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="H21">
         <v>85395</v>
       </c>
       <c r="I21" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="J21" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="K21">
         <v>9</v>
@@ -4005,37 +4229,37 @@
         <v>3998</v>
       </c>
       <c r="N21">
-        <v>18.792739999999998</v>
+        <v>18.79274</v>
       </c>
       <c r="O21">
-        <v>18.792739999999998</v>
+        <v>18.79274</v>
       </c>
       <c r="P21">
         <v>9</v>
       </c>
       <c r="Q21" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="R21" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="S21">
         <v>0</v>
       </c>
       <c r="T21" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="U21" t="s">
-        <v>178</v>
+        <v>203</v>
       </c>
       <c r="V21" t="s">
-        <v>178</v>
+        <v>203</v>
       </c>
       <c r="X21" t="s">
-        <v>224</v>
+        <v>279</v>
       </c>
       <c r="Y21" t="s">
-        <v>224</v>
+        <v>279</v>
       </c>
       <c r="Z21">
         <v>0</v>
@@ -4044,13 +4268,13 @@
         <v>0</v>
       </c>
       <c r="AB21">
-        <v>81.028925619834709</v>
+        <v>81.02892561983471</v>
       </c>
       <c r="AC21">
         <v>83.68952753312675</v>
       </c>
       <c r="AD21">
-        <v>1522.7555316528919</v>
+        <v>1522.755531652892</v>
       </c>
       <c r="AE21">
         <v>50</v>
@@ -4074,25 +4298,25 @@
         <v>905.52</v>
       </c>
       <c r="AL21">
-        <v>2631.2755316528919</v>
+        <v>2631.275531652892</v>
       </c>
       <c r="AM21">
-        <v>140.01553427828469</v>
+        <v>140.0155342782847</v>
       </c>
       <c r="AN21" t="s">
-        <v>251</v>
+        <v>306</v>
       </c>
       <c r="AO21" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="AP21" t="s">
-        <v>272</v>
+        <v>340</v>
       </c>
       <c r="AQ21" t="s">
-        <v>284</v>
+        <v>352</v>
       </c>
     </row>
-    <row r="22" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:43">
       <c r="A22" t="s">
         <v>49</v>
       </c>
@@ -4100,28 +4324,28 @@
         <v>53</v>
       </c>
       <c r="C22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G22" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="H22">
         <v>60433</v>
       </c>
       <c r="I22" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="J22" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="K22">
         <v>9</v>
@@ -4136,31 +4360,31 @@
         <v>15.21</v>
       </c>
       <c r="O22">
-        <v>15.209239999999999</v>
+        <v>15.20924</v>
       </c>
       <c r="P22">
         <v>9</v>
       </c>
       <c r="Q22" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="R22" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="S22">
         <v>0</v>
       </c>
       <c r="U22" t="s">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="V22" t="s">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="X22" t="s">
-        <v>221</v>
+        <v>276</v>
       </c>
       <c r="Y22" t="s">
-        <v>221</v>
+        <v>276</v>
       </c>
       <c r="Z22">
         <v>0</v>
@@ -4172,7 +4396,7 @@
         <v>90</v>
       </c>
       <c r="AC22">
-        <v>93.287310979618667</v>
+        <v>93.28731097961867</v>
       </c>
       <c r="AD22">
         <v>1368.9</v>
@@ -4202,22 +4426,22 @@
         <v>1571.9</v>
       </c>
       <c r="AM22">
-        <v>103.34648257725181</v>
+        <v>103.3464825772518</v>
       </c>
       <c r="AN22" t="s">
-        <v>252</v>
+        <v>307</v>
       </c>
       <c r="AO22" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="AP22" t="s">
-        <v>273</v>
+        <v>341</v>
       </c>
       <c r="AQ22" t="s">
-        <v>285</v>
+        <v>353</v>
       </c>
     </row>
-    <row r="23" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:43">
       <c r="A23" t="s">
         <v>49</v>
       </c>
@@ -4225,28 +4449,28 @@
         <v>51</v>
       </c>
       <c r="C23" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D23" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E23">
         <v>7201</v>
       </c>
       <c r="F23" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G23" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="H23">
         <v>15672</v>
       </c>
       <c r="I23" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="J23" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="K23">
         <v>5</v>
@@ -4267,28 +4491,28 @@
         <v>1</v>
       </c>
       <c r="Q23" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="R23" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="S23">
         <v>0</v>
       </c>
       <c r="T23" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="U23" t="s">
-        <v>179</v>
+        <v>204</v>
       </c>
       <c r="V23" t="s">
-        <v>199</v>
+        <v>239</v>
       </c>
       <c r="X23" t="s">
-        <v>225</v>
+        <v>280</v>
       </c>
       <c r="Y23" t="s">
-        <v>225</v>
+        <v>280</v>
       </c>
       <c r="Z23">
         <v>0</v>
@@ -4297,13 +4521,13 @@
         <v>0</v>
       </c>
       <c r="AB23">
-        <v>71.359848484848484</v>
+        <v>71.35984848484848</v>
       </c>
       <c r="AC23">
         <v>121.3598484848485</v>
       </c>
       <c r="AD23">
-        <v>71.359848484848484</v>
+        <v>71.35984848484848</v>
       </c>
       <c r="AE23">
         <v>50</v>
@@ -4333,19 +4557,19 @@
         <v>413.3598484848485</v>
       </c>
       <c r="AN23" t="s">
-        <v>253</v>
+        <v>308</v>
       </c>
       <c r="AO23" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="AP23" t="s">
-        <v>272</v>
+        <v>340</v>
       </c>
       <c r="AQ23" t="s">
-        <v>286</v>
+        <v>354</v>
       </c>
     </row>
-    <row r="24" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:43">
       <c r="A24" t="s">
         <v>49</v>
       </c>
@@ -4353,28 +4577,28 @@
         <v>53</v>
       </c>
       <c r="C24" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D24" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E24">
         <v>29483</v>
       </c>
       <c r="F24" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G24" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="H24">
         <v>29330</v>
       </c>
       <c r="I24" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="J24" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="K24">
         <v>291</v>
@@ -4386,37 +4610,37 @@
         <v>2901.27</v>
       </c>
       <c r="N24">
-        <v>7.2939999999999996</v>
+        <v>7.294</v>
       </c>
       <c r="O24">
-        <v>7.2938099999999997</v>
+        <v>7.29381</v>
       </c>
       <c r="P24">
         <v>5</v>
       </c>
       <c r="Q24" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="R24" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="S24">
         <v>0</v>
       </c>
       <c r="T24" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="U24" t="s">
-        <v>180</v>
+        <v>205</v>
       </c>
       <c r="V24" t="s">
-        <v>180</v>
+        <v>205</v>
       </c>
       <c r="X24" t="s">
-        <v>226</v>
+        <v>281</v>
       </c>
       <c r="Y24" t="s">
-        <v>226</v>
+        <v>281</v>
       </c>
       <c r="Z24">
         <v>0</v>
@@ -4425,13 +4649,13 @@
         <v>0</v>
       </c>
       <c r="AB24">
-        <v>78.119834710743802</v>
+        <v>78.1198347107438</v>
       </c>
       <c r="AC24">
-        <v>84.974783984119185</v>
+        <v>84.97478398411918</v>
       </c>
       <c r="AD24">
-        <v>569.80607438016523</v>
+        <v>569.8060743801652</v>
       </c>
       <c r="AE24">
         <v>50</v>
@@ -4458,22 +4682,22 @@
         <v>1274.576074380165</v>
       </c>
       <c r="AM24">
-        <v>174.74308669867909</v>
+        <v>174.7430866986791</v>
       </c>
       <c r="AN24" t="s">
-        <v>254</v>
+        <v>309</v>
       </c>
       <c r="AO24" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="AP24" t="s">
-        <v>272</v>
+        <v>340</v>
       </c>
       <c r="AQ24" t="s">
-        <v>287</v>
+        <v>355</v>
       </c>
     </row>
-    <row r="25" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:43">
       <c r="A25" t="s">
         <v>49</v>
       </c>
@@ -4481,28 +4705,28 @@
         <v>53</v>
       </c>
       <c r="C25" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D25" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E25">
         <v>29483</v>
       </c>
       <c r="F25" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G25" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="H25">
         <v>29330</v>
       </c>
       <c r="I25" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="J25" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="K25">
         <v>149</v>
@@ -4514,37 +4738,37 @@
         <v>1527.25</v>
       </c>
       <c r="N25">
-        <v>4.2610000000000001</v>
+        <v>4.261</v>
       </c>
       <c r="O25">
-        <v>4.2610599999999996</v>
+        <v>4.26106</v>
       </c>
       <c r="P25">
         <v>3</v>
       </c>
       <c r="Q25" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="R25" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="S25">
         <v>0</v>
       </c>
       <c r="T25" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="U25" t="s">
-        <v>180</v>
+        <v>205</v>
       </c>
       <c r="V25" t="s">
-        <v>180</v>
+        <v>205</v>
       </c>
       <c r="X25" t="s">
-        <v>227</v>
+        <v>282</v>
       </c>
       <c r="Y25" t="s">
-        <v>227</v>
+        <v>282</v>
       </c>
       <c r="Z25">
         <v>0</v>
@@ -4553,13 +4777,13 @@
         <v>0</v>
       </c>
       <c r="AB25">
-        <v>78.119834710743802</v>
+        <v>78.1198347107438</v>
       </c>
       <c r="AC25">
-        <v>89.854169373968404</v>
+        <v>89.8541693739684</v>
       </c>
       <c r="AD25">
-        <v>332.86861570247942</v>
+        <v>332.8686157024794</v>
       </c>
       <c r="AE25">
         <v>50</v>
@@ -4583,25 +4807,25 @@
         <v>299.88</v>
       </c>
       <c r="AL25">
-        <v>895.74861570247936</v>
+        <v>895.7486157024794</v>
       </c>
       <c r="AM25">
-        <v>210.22028061546101</v>
+        <v>210.220280615461</v>
       </c>
       <c r="AN25" t="s">
-        <v>255</v>
+        <v>310</v>
       </c>
       <c r="AO25" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="AP25" t="s">
-        <v>272</v>
+        <v>340</v>
       </c>
       <c r="AQ25" t="s">
-        <v>288</v>
+        <v>356</v>
       </c>
     </row>
-    <row r="26" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:43">
       <c r="A26" t="s">
         <v>49</v>
       </c>
@@ -4609,28 +4833,28 @@
         <v>51</v>
       </c>
       <c r="C26" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D26" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E26">
         <v>7201</v>
       </c>
       <c r="F26" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G26" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="H26">
         <v>15672</v>
       </c>
       <c r="I26" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="J26" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="K26">
         <v>5</v>
@@ -4651,28 +4875,28 @@
         <v>1</v>
       </c>
       <c r="Q26" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="R26" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="S26">
         <v>0</v>
       </c>
       <c r="T26" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="U26" t="s">
-        <v>179</v>
+        <v>204</v>
       </c>
       <c r="V26" t="s">
-        <v>199</v>
+        <v>239</v>
       </c>
       <c r="X26" t="s">
-        <v>225</v>
+        <v>280</v>
       </c>
       <c r="Y26" t="s">
-        <v>225</v>
+        <v>280</v>
       </c>
       <c r="Z26">
         <v>0</v>
@@ -4681,13 +4905,13 @@
         <v>0</v>
       </c>
       <c r="AB26">
-        <v>71.359848484848484</v>
+        <v>71.35984848484848</v>
       </c>
       <c r="AC26">
         <v>121.3598484848485</v>
       </c>
       <c r="AD26">
-        <v>71.359848484848484</v>
+        <v>71.35984848484848</v>
       </c>
       <c r="AE26">
         <v>50</v>
@@ -4717,19 +4941,19 @@
         <v>413.3598484848485</v>
       </c>
       <c r="AN26" t="s">
-        <v>256</v>
+        <v>311</v>
       </c>
       <c r="AO26" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="AP26" t="s">
-        <v>272</v>
+        <v>340</v>
       </c>
       <c r="AQ26" t="s">
-        <v>289</v>
+        <v>357</v>
       </c>
     </row>
-    <row r="27" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:43">
       <c r="A27" t="s">
         <v>49</v>
       </c>
@@ -4737,28 +4961,28 @@
         <v>53</v>
       </c>
       <c r="C27" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D27" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E27">
         <v>29483</v>
       </c>
       <c r="F27" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G27" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="H27">
         <v>29330</v>
       </c>
       <c r="I27" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="J27" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="K27">
         <v>530</v>
@@ -4779,28 +5003,28 @@
         <v>9</v>
       </c>
       <c r="Q27" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="R27" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="S27">
         <v>0</v>
       </c>
       <c r="T27" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="U27" t="s">
-        <v>181</v>
+        <v>206</v>
       </c>
       <c r="V27" t="s">
-        <v>181</v>
+        <v>206</v>
       </c>
       <c r="X27" t="s">
-        <v>228</v>
+        <v>283</v>
       </c>
       <c r="Y27" t="s">
-        <v>228</v>
+        <v>283</v>
       </c>
       <c r="Z27">
         <v>0</v>
@@ -4809,10 +5033,10 @@
         <v>0</v>
       </c>
       <c r="AB27">
-        <v>78.119834710743802</v>
+        <v>78.1198347107438</v>
       </c>
       <c r="AC27">
-        <v>81.413859350048099</v>
+        <v>81.4138593500481</v>
       </c>
       <c r="AD27">
         <v>1185.78097107438</v>
@@ -4842,22 +5066,22 @@
         <v>2212.55097107438</v>
       </c>
       <c r="AM27">
-        <v>145.76394828871341</v>
+        <v>145.7639482887134</v>
       </c>
       <c r="AN27" t="s">
-        <v>257</v>
+        <v>312</v>
       </c>
       <c r="AO27" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="AP27" t="s">
-        <v>272</v>
+        <v>340</v>
       </c>
       <c r="AQ27" t="s">
-        <v>290</v>
+        <v>358</v>
       </c>
     </row>
-    <row r="28" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:43">
       <c r="A28" t="s">
         <v>49</v>
       </c>
@@ -4865,28 +5089,28 @@
         <v>51</v>
       </c>
       <c r="C28" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D28" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E28">
         <v>7201</v>
       </c>
       <c r="F28" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G28" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="H28">
         <v>15672</v>
       </c>
       <c r="I28" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="J28" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="K28">
         <v>30</v>
@@ -4907,25 +5131,25 @@
         <v>0</v>
       </c>
       <c r="Q28" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="R28" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="S28">
         <v>0</v>
       </c>
       <c r="U28" t="s">
-        <v>179</v>
+        <v>204</v>
       </c>
       <c r="V28" t="s">
-        <v>199</v>
+        <v>239</v>
       </c>
       <c r="X28" t="s">
-        <v>229</v>
+        <v>284</v>
       </c>
       <c r="Y28" t="s">
-        <v>229</v>
+        <v>284</v>
       </c>
       <c r="Z28">
         <v>0</v>
@@ -4934,13 +5158,13 @@
         <v>0</v>
       </c>
       <c r="AB28">
-        <v>71.359848484848484</v>
+        <v>71.35984848484848</v>
       </c>
       <c r="AC28">
         <v>121.3598484848485</v>
       </c>
       <c r="AD28">
-        <v>71.359848484848484</v>
+        <v>71.35984848484848</v>
       </c>
       <c r="AE28">
         <v>50</v>
@@ -4970,19 +5194,19 @@
         <v>1151.359848484848</v>
       </c>
       <c r="AN28" t="s">
-        <v>258</v>
+        <v>313</v>
       </c>
       <c r="AO28" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="AP28" t="s">
-        <v>272</v>
+        <v>340</v>
       </c>
       <c r="AQ28" t="s">
-        <v>291</v>
+        <v>359</v>
       </c>
     </row>
-    <row r="29" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:43">
       <c r="A29" t="s">
         <v>50</v>
       </c>
@@ -4990,28 +5214,28 @@
         <v>54</v>
       </c>
       <c r="C29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D29" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E29">
         <v>90220</v>
       </c>
       <c r="F29" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G29" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="H29">
         <v>85043</v>
       </c>
       <c r="I29" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="J29" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="K29">
         <v>156</v>
@@ -5020,40 +5244,40 @@
         <v>2012.088</v>
       </c>
       <c r="M29">
-        <v>5701.1759999999986</v>
+        <v>5701.175999999999</v>
       </c>
       <c r="N29">
         <v>5.31</v>
       </c>
       <c r="O29">
-        <v>15.045680000000001</v>
+        <v>15.04568</v>
       </c>
       <c r="P29">
         <v>3</v>
       </c>
       <c r="Q29" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="R29" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="S29">
         <v>0</v>
       </c>
       <c r="T29" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="U29" t="s">
-        <v>182</v>
+        <v>207</v>
       </c>
       <c r="V29" t="s">
-        <v>182</v>
+        <v>207</v>
       </c>
       <c r="X29" t="s">
-        <v>230</v>
+        <v>285</v>
       </c>
       <c r="Y29" t="s">
-        <v>230</v>
+        <v>285</v>
       </c>
       <c r="Z29">
         <v>10000</v>
@@ -5062,13 +5286,13 @@
         <v>113.6363636363636</v>
       </c>
       <c r="AB29">
-        <v>81.028925619834709</v>
+        <v>81.02892561983471</v>
       </c>
       <c r="AC29">
-        <v>90.445121476708536</v>
+        <v>90.44512147670854</v>
       </c>
       <c r="AD29">
-        <v>430.26359504132228</v>
+        <v>430.2635950413223</v>
       </c>
       <c r="AE29">
         <v>50</v>
@@ -5095,22 +5319,22 @@
         <v>1269.979958677686</v>
       </c>
       <c r="AM29">
-        <v>239.16760050427229</v>
+        <v>239.1676005042723</v>
       </c>
       <c r="AN29" t="s">
-        <v>259</v>
+        <v>314</v>
       </c>
       <c r="AO29" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="AP29" t="s">
-        <v>272</v>
+        <v>340</v>
       </c>
       <c r="AQ29" t="s">
-        <v>292</v>
+        <v>360</v>
       </c>
     </row>
-    <row r="30" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:43">
       <c r="A30" t="s">
         <v>50</v>
       </c>
@@ -5118,28 +5342,28 @@
         <v>54</v>
       </c>
       <c r="C30" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D30" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E30">
         <v>90220</v>
       </c>
       <c r="F30" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G30" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="H30">
         <v>85395</v>
       </c>
       <c r="I30" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="J30" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="K30">
         <v>156</v>
@@ -5148,40 +5372,40 @@
         <v>2012.088</v>
       </c>
       <c r="M30">
-        <v>5701.1759999999986</v>
+        <v>5701.175999999999</v>
       </c>
       <c r="N30">
         <v>5.31</v>
       </c>
       <c r="O30">
-        <v>15.045680000000001</v>
+        <v>15.04568</v>
       </c>
       <c r="P30">
         <v>3</v>
       </c>
       <c r="Q30" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="R30" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="S30">
         <v>0</v>
       </c>
       <c r="T30" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="U30" t="s">
-        <v>183</v>
+        <v>208</v>
       </c>
       <c r="V30" t="s">
-        <v>183</v>
+        <v>208</v>
       </c>
       <c r="X30" t="s">
-        <v>231</v>
+        <v>286</v>
       </c>
       <c r="Y30" t="s">
-        <v>231</v>
+        <v>286</v>
       </c>
       <c r="Z30">
         <v>10000</v>
@@ -5190,13 +5414,13 @@
         <v>113.6363636363636</v>
       </c>
       <c r="AB30">
-        <v>81.028925619834709</v>
+        <v>81.02892561983471</v>
       </c>
       <c r="AC30">
-        <v>90.445121476708536</v>
+        <v>90.44512147670854</v>
       </c>
       <c r="AD30">
-        <v>430.26359504132228</v>
+        <v>430.2635950413223</v>
       </c>
       <c r="AE30">
         <v>50</v>
@@ -5220,25 +5444,25 @@
         <v>469.74</v>
       </c>
       <c r="AL30">
-        <v>1276.6399586776861</v>
+        <v>1276.639958677686</v>
       </c>
       <c r="AM30">
-        <v>240.42183779240801</v>
+        <v>240.421837792408</v>
       </c>
       <c r="AN30" t="s">
-        <v>259</v>
+        <v>314</v>
       </c>
       <c r="AO30" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="AP30" t="s">
-        <v>272</v>
+        <v>340</v>
       </c>
       <c r="AQ30" t="s">
-        <v>292</v>
+        <v>360</v>
       </c>
     </row>
-    <row r="31" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:43">
       <c r="A31" t="s">
         <v>50</v>
       </c>
@@ -5246,28 +5470,28 @@
         <v>54</v>
       </c>
       <c r="C31" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D31" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E31">
         <v>90220</v>
       </c>
       <c r="F31" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G31" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="H31">
         <v>75241</v>
       </c>
       <c r="I31" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="J31" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="K31">
         <v>130</v>
@@ -5276,40 +5500,40 @@
         <v>1677</v>
       </c>
       <c r="M31">
-        <v>5701.1759999999986</v>
+        <v>5701.175999999999</v>
       </c>
       <c r="N31">
-        <v>4.4249999999999998</v>
+        <v>4.425</v>
       </c>
       <c r="O31">
-        <v>15.045680000000001</v>
+        <v>15.04568</v>
       </c>
       <c r="P31">
         <v>3</v>
       </c>
       <c r="Q31" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="R31" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="S31">
         <v>0</v>
       </c>
       <c r="T31" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="U31" t="s">
-        <v>184</v>
+        <v>209</v>
       </c>
       <c r="V31" t="s">
-        <v>184</v>
+        <v>209</v>
       </c>
       <c r="X31" t="s">
-        <v>232</v>
+        <v>287</v>
       </c>
       <c r="Y31" t="s">
-        <v>232</v>
+        <v>287</v>
       </c>
       <c r="Z31">
         <v>10000</v>
@@ -5318,13 +5542,13 @@
         <v>113.6363636363636</v>
       </c>
       <c r="AB31">
-        <v>81.028925619834709</v>
+        <v>81.02892561983471</v>
       </c>
       <c r="AC31">
-        <v>92.328360648083304</v>
+        <v>92.3283606480833</v>
       </c>
       <c r="AD31">
-        <v>358.55299586776857</v>
+        <v>358.5529958677686</v>
       </c>
       <c r="AE31">
         <v>50</v>
@@ -5348,25 +5572,25 @@
         <v>824.79</v>
       </c>
       <c r="AL31">
-        <v>1559.9793595041319</v>
+        <v>1559.979359504132</v>
       </c>
       <c r="AM31">
-        <v>352.53770836251567</v>
+        <v>352.5377083625157</v>
       </c>
       <c r="AN31" t="s">
-        <v>259</v>
+        <v>314</v>
       </c>
       <c r="AO31" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="AP31" t="s">
-        <v>272</v>
+        <v>340</v>
       </c>
       <c r="AQ31" t="s">
-        <v>292</v>
+        <v>360</v>
       </c>
     </row>
-    <row r="32" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:43">
       <c r="A32" t="s">
         <v>50</v>
       </c>
@@ -5374,28 +5598,28 @@
         <v>54</v>
       </c>
       <c r="C32" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D32" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E32">
         <v>7201</v>
       </c>
       <c r="F32" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G32" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="H32">
         <v>18202</v>
       </c>
       <c r="I32" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="J32" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="K32">
         <v>79</v>
@@ -5404,40 +5628,40 @@
         <v>1019.021</v>
       </c>
       <c r="M32">
-        <v>3057.0630000000001</v>
+        <v>3057.063</v>
       </c>
       <c r="N32">
-        <v>2.6890000000000001</v>
+        <v>2.689</v>
       </c>
       <c r="O32">
-        <v>8.0674799999999998</v>
+        <v>8.06748</v>
       </c>
       <c r="P32">
         <v>2</v>
       </c>
       <c r="Q32" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="R32" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="S32">
         <v>0</v>
       </c>
       <c r="T32" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="U32" t="s">
-        <v>166</v>
+        <v>191</v>
       </c>
       <c r="V32" t="s">
-        <v>198</v>
+        <v>238</v>
       </c>
       <c r="X32" t="s">
-        <v>212</v>
+        <v>267</v>
       </c>
       <c r="Y32" t="s">
-        <v>212</v>
+        <v>267</v>
       </c>
       <c r="Z32">
         <v>10000</v>
@@ -5446,10 +5670,10 @@
         <v>113.6363636363636</v>
       </c>
       <c r="AB32">
-        <v>71.359848484848484</v>
+        <v>71.35984848484848</v>
       </c>
       <c r="AC32">
-        <v>89.954121448775595</v>
+        <v>89.9541214487756</v>
       </c>
       <c r="AD32">
         <v>191.8866325757576</v>
@@ -5476,25 +5700,25 @@
         <v>180</v>
       </c>
       <c r="AL32">
-        <v>724.52299621212126</v>
+        <v>724.5229962121213</v>
       </c>
       <c r="AM32">
-        <v>269.43956720421022</v>
+        <v>269.4395672042102</v>
       </c>
       <c r="AN32" t="s">
-        <v>260</v>
+        <v>315</v>
       </c>
       <c r="AO32" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AP32" t="s">
-        <v>272</v>
+        <v>340</v>
       </c>
       <c r="AQ32" t="s">
-        <v>293</v>
+        <v>361</v>
       </c>
     </row>
-    <row r="33" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:49">
       <c r="A33" t="s">
         <v>50</v>
       </c>
@@ -5502,70 +5726,70 @@
         <v>54</v>
       </c>
       <c r="C33" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D33" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E33">
         <v>7201</v>
       </c>
       <c r="F33" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G33" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="H33">
         <v>22406</v>
       </c>
       <c r="I33" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="J33" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="K33">
         <v>158</v>
       </c>
       <c r="L33">
-        <v>2038.0419999999999</v>
+        <v>2038.042</v>
       </c>
       <c r="M33">
-        <v>3057.0630000000001</v>
+        <v>3057.063</v>
       </c>
       <c r="N33">
-        <v>5.3780000000000001</v>
+        <v>5.378</v>
       </c>
       <c r="O33">
-        <v>8.0674799999999998</v>
+        <v>8.06748</v>
       </c>
       <c r="P33">
         <v>3</v>
       </c>
       <c r="Q33" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="R33" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="S33">
         <v>0</v>
       </c>
       <c r="T33" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="U33" t="s">
-        <v>185</v>
+        <v>210</v>
       </c>
       <c r="V33" t="s">
-        <v>185</v>
+        <v>210</v>
       </c>
       <c r="X33" t="s">
-        <v>233</v>
+        <v>288</v>
       </c>
       <c r="Y33" t="s">
-        <v>233</v>
+        <v>288</v>
       </c>
       <c r="Z33">
         <v>10000</v>
@@ -5574,13 +5798,13 @@
         <v>113.6363636363636</v>
       </c>
       <c r="AB33">
-        <v>71.359848484848484</v>
+        <v>71.35984848484848</v>
       </c>
       <c r="AC33">
-        <v>80.656984966812047</v>
+        <v>80.65698496681205</v>
       </c>
       <c r="AD33">
-        <v>383.77326515151509</v>
+        <v>383.7732651515151</v>
       </c>
       <c r="AE33">
         <v>50</v>
@@ -5607,22 +5831,22 @@
         <v>1212.679628787879</v>
       </c>
       <c r="AM33">
-        <v>225.48896035475619</v>
+        <v>225.4889603547562</v>
       </c>
       <c r="AN33" t="s">
-        <v>260</v>
+        <v>315</v>
       </c>
       <c r="AO33" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="AP33" t="s">
-        <v>272</v>
+        <v>340</v>
       </c>
       <c r="AQ33" t="s">
-        <v>293</v>
+        <v>361</v>
       </c>
     </row>
-    <row r="34" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:49">
       <c r="A34" t="s">
         <v>49</v>
       </c>
@@ -5630,28 +5854,28 @@
         <v>51</v>
       </c>
       <c r="C34" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D34" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E34">
         <v>90220</v>
       </c>
       <c r="F34" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G34" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="H34">
         <v>91752</v>
       </c>
       <c r="I34" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="J34" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="K34">
         <v>950</v>
@@ -5666,31 +5890,31 @@
         <v>1</v>
       </c>
       <c r="O34">
-        <v>29.754000000000001</v>
+        <v>29.754</v>
       </c>
       <c r="P34">
         <v>0</v>
       </c>
       <c r="Q34" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="R34" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="S34">
         <v>0</v>
       </c>
       <c r="U34" t="s">
-        <v>186</v>
+        <v>211</v>
       </c>
       <c r="V34" t="s">
-        <v>186</v>
+        <v>211</v>
       </c>
       <c r="X34" t="s">
-        <v>234</v>
+        <v>289</v>
       </c>
       <c r="Y34" t="s">
-        <v>234</v>
+        <v>289</v>
       </c>
       <c r="Z34">
         <v>0</v>
@@ -5699,13 +5923,13 @@
         <v>0</v>
       </c>
       <c r="AB34">
-        <v>81.028925619834709</v>
+        <v>81.02892561983471</v>
       </c>
       <c r="AC34">
-        <v>131.02892561983469</v>
+        <v>131.0289256198347</v>
       </c>
       <c r="AD34">
-        <v>81.028925619834709</v>
+        <v>81.02892561983471</v>
       </c>
       <c r="AE34">
         <v>50</v>
@@ -5735,19 +5959,19 @@
         <v>1106.403925619835</v>
       </c>
       <c r="AN34" t="s">
-        <v>261</v>
+        <v>316</v>
       </c>
       <c r="AO34" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="AP34" t="s">
-        <v>272</v>
+        <v>340</v>
       </c>
       <c r="AQ34" t="s">
-        <v>294</v>
+        <v>362</v>
       </c>
     </row>
-    <row r="35" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:49">
       <c r="A35" t="s">
         <v>49</v>
       </c>
@@ -5755,28 +5979,28 @@
         <v>53</v>
       </c>
       <c r="C35" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D35" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E35">
         <v>7201</v>
       </c>
       <c r="F35" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G35" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="H35">
         <v>21740</v>
       </c>
       <c r="I35" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="J35" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="K35">
         <v>51</v>
@@ -5788,37 +6012,37 @@
         <v>1530</v>
       </c>
       <c r="N35">
-        <v>7.4050000000000002</v>
+        <v>7.405</v>
       </c>
       <c r="O35">
-        <v>7.4051999999999998</v>
+        <v>7.4052</v>
       </c>
       <c r="P35">
         <v>5</v>
       </c>
       <c r="Q35" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="R35" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="S35">
         <v>0</v>
       </c>
       <c r="T35" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="U35" t="s">
-        <v>187</v>
+        <v>212</v>
       </c>
       <c r="V35" t="s">
-        <v>187</v>
+        <v>212</v>
       </c>
       <c r="X35" t="s">
-        <v>235</v>
+        <v>290</v>
       </c>
       <c r="Y35" t="s">
-        <v>235</v>
+        <v>290</v>
       </c>
       <c r="Z35">
         <v>0</v>
@@ -5827,13 +6051,13 @@
         <v>0</v>
       </c>
       <c r="AB35">
-        <v>71.359848484848484</v>
+        <v>71.35984848484848</v>
       </c>
       <c r="AC35">
-        <v>78.112042948049023</v>
+        <v>78.11204294804902</v>
       </c>
       <c r="AD35">
-        <v>528.41967803030309</v>
+        <v>528.4196780303031</v>
       </c>
       <c r="AE35">
         <v>50</v>
@@ -5854,7 +6078,7 @@
         <v>90</v>
       </c>
       <c r="AK35">
-        <v>625.19000000000005</v>
+        <v>625.1900000000001</v>
       </c>
       <c r="AL35">
         <v>1393.609678030303</v>
@@ -5863,19 +6087,19 @@
         <v>188.198471037178</v>
       </c>
       <c r="AN35" t="s">
-        <v>262</v>
+        <v>317</v>
       </c>
       <c r="AO35" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="AP35" t="s">
-        <v>272</v>
+        <v>340</v>
       </c>
       <c r="AQ35" t="s">
-        <v>295</v>
+        <v>363</v>
       </c>
     </row>
-    <row r="36" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:49">
       <c r="A36" t="s">
         <v>49</v>
       </c>
@@ -5883,28 +6107,28 @@
         <v>53</v>
       </c>
       <c r="C36" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D36" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E36">
         <v>29483</v>
       </c>
       <c r="F36" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G36" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="H36">
         <v>38654</v>
       </c>
       <c r="I36" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="J36" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="K36">
         <v>83</v>
@@ -5919,34 +6143,34 @@
         <v>10.433</v>
       </c>
       <c r="O36">
-        <v>10.433009999999999</v>
+        <v>10.43301</v>
       </c>
       <c r="P36">
         <v>6</v>
       </c>
       <c r="Q36" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="R36" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="S36">
         <v>0</v>
       </c>
       <c r="T36" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="U36" t="s">
-        <v>188</v>
+        <v>213</v>
       </c>
       <c r="V36" t="s">
-        <v>188</v>
+        <v>213</v>
       </c>
       <c r="X36" t="s">
-        <v>236</v>
+        <v>291</v>
       </c>
       <c r="Y36" t="s">
-        <v>236</v>
+        <v>291</v>
       </c>
       <c r="Z36">
         <v>0</v>
@@ -5955,13 +6179,13 @@
         <v>0</v>
       </c>
       <c r="AB36">
-        <v>78.119834710743802</v>
+        <v>78.1198347107438</v>
       </c>
       <c r="AC36">
-        <v>82.912320093663382</v>
+        <v>82.91232009366338</v>
       </c>
       <c r="AD36">
-        <v>815.02423553719007</v>
+        <v>815.0242355371901</v>
       </c>
       <c r="AE36">
         <v>50</v>
@@ -5985,25 +6209,25 @@
         <v>833.58</v>
       </c>
       <c r="AL36">
-        <v>1918.6042355371901</v>
+        <v>1918.60423553719</v>
       </c>
       <c r="AM36">
-        <v>183.89765508839159</v>
+        <v>183.8976550883916</v>
       </c>
       <c r="AN36" t="s">
-        <v>263</v>
+        <v>318</v>
       </c>
       <c r="AO36" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="AP36" t="s">
-        <v>272</v>
+        <v>340</v>
       </c>
       <c r="AQ36" t="s">
-        <v>296</v>
+        <v>364</v>
       </c>
     </row>
-    <row r="37" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:49">
       <c r="A37" t="s">
         <v>49</v>
       </c>
@@ -6011,70 +6235,70 @@
         <v>53</v>
       </c>
       <c r="C37" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D37" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E37">
         <v>7201</v>
       </c>
       <c r="F37" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G37" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="H37">
         <v>18447</v>
       </c>
       <c r="I37" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="J37" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="K37">
         <v>397</v>
       </c>
       <c r="L37">
-        <v>4970.4399999999996</v>
+        <v>4970.44</v>
       </c>
       <c r="M37">
-        <v>4970.4399999999996</v>
+        <v>4970.44</v>
       </c>
       <c r="N37">
-        <v>30.763999999999999</v>
+        <v>30.764</v>
       </c>
       <c r="O37">
-        <v>30.763529999999999</v>
+        <v>30.76353</v>
       </c>
       <c r="P37">
         <v>18</v>
       </c>
       <c r="Q37" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="R37" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="S37">
         <v>0</v>
       </c>
       <c r="T37" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="U37" t="s">
-        <v>189</v>
+        <v>214</v>
       </c>
       <c r="V37" t="s">
-        <v>189</v>
+        <v>214</v>
       </c>
       <c r="X37" t="s">
-        <v>237</v>
+        <v>292</v>
       </c>
       <c r="Y37" t="s">
-        <v>237</v>
+        <v>292</v>
       </c>
       <c r="Z37">
         <v>0</v>
@@ -6083,13 +6307,13 @@
         <v>0</v>
       </c>
       <c r="AB37">
-        <v>71.359848484848484</v>
+        <v>71.35984848484848</v>
       </c>
       <c r="AC37">
-        <v>72.985124781818968</v>
+        <v>72.98512478181897</v>
       </c>
       <c r="AD37">
-        <v>2195.3143787878789</v>
+        <v>2195.314378787879</v>
       </c>
       <c r="AE37">
         <v>50</v>
@@ -6110,28 +6334,28 @@
         <v>324</v>
       </c>
       <c r="AK37">
-        <v>947.06999999999994</v>
+        <v>947.0699999999999</v>
       </c>
       <c r="AL37">
-        <v>3669.3843787878791</v>
+        <v>3669.384378787879</v>
       </c>
       <c r="AM37">
         <v>119.2752691063541</v>
       </c>
       <c r="AN37" t="s">
-        <v>264</v>
+        <v>319</v>
       </c>
       <c r="AO37" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="AP37" t="s">
-        <v>272</v>
+        <v>340</v>
       </c>
       <c r="AQ37" t="s">
-        <v>297</v>
+        <v>365</v>
       </c>
     </row>
-    <row r="38" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:49">
       <c r="A38" t="s">
         <v>49</v>
       </c>
@@ -6139,28 +6363,28 @@
         <v>53</v>
       </c>
       <c r="C38" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D38" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E38">
         <v>29483</v>
       </c>
       <c r="F38" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G38" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="H38">
         <v>28134</v>
       </c>
       <c r="I38" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="J38" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="K38">
         <v>44</v>
@@ -6175,34 +6399,34 @@
         <v>6.359</v>
       </c>
       <c r="O38">
-        <v>6.3593199999999994</v>
+        <v>6.359319999999999</v>
       </c>
       <c r="P38">
         <v>4</v>
       </c>
       <c r="Q38" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="R38" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="S38">
         <v>0</v>
       </c>
       <c r="T38" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="U38" t="s">
-        <v>190</v>
+        <v>215</v>
       </c>
       <c r="V38" t="s">
-        <v>190</v>
+        <v>215</v>
       </c>
       <c r="X38" t="s">
-        <v>238</v>
+        <v>293</v>
       </c>
       <c r="Y38" t="s">
-        <v>238</v>
+        <v>293</v>
       </c>
       <c r="Z38">
         <v>0</v>
@@ -6211,13 +6435,13 @@
         <v>0</v>
       </c>
       <c r="AB38">
-        <v>78.119834710743802</v>
+        <v>78.1198347107438</v>
       </c>
       <c r="AC38">
-        <v>85.982706231423151</v>
+        <v>85.98270623142315</v>
       </c>
       <c r="AD38">
-        <v>496.76402892561981</v>
+        <v>496.7640289256198</v>
       </c>
       <c r="AE38">
         <v>50</v>
@@ -6247,19 +6471,19 @@
         <v>177.7675780666174</v>
       </c>
       <c r="AN38" t="s">
-        <v>265</v>
+        <v>320</v>
       </c>
       <c r="AO38" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="AP38" t="s">
-        <v>272</v>
+        <v>340</v>
       </c>
       <c r="AQ38" t="s">
-        <v>298</v>
+        <v>366</v>
       </c>
     </row>
-    <row r="39" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:49">
       <c r="A39" t="s">
         <v>49</v>
       </c>
@@ -6267,28 +6491,28 @@
         <v>51</v>
       </c>
       <c r="C39" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D39" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E39">
         <v>29483</v>
       </c>
       <c r="F39" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G39" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="H39">
         <v>30096</v>
       </c>
       <c r="I39" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="J39" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="K39">
         <v>896</v>
@@ -6300,34 +6524,34 @@
         <v>4480</v>
       </c>
       <c r="N39">
-        <v>28.062719999999999</v>
+        <v>28.06272</v>
       </c>
       <c r="O39">
-        <v>28.062719999999999</v>
+        <v>28.06272</v>
       </c>
       <c r="P39">
         <v>16</v>
       </c>
       <c r="Q39" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="R39" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="S39">
         <v>0</v>
       </c>
       <c r="U39" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="V39" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="X39" t="s">
-        <v>239</v>
+        <v>294</v>
       </c>
       <c r="Y39" t="s">
-        <v>239</v>
+        <v>294</v>
       </c>
       <c r="Z39">
         <v>0</v>
@@ -6336,13 +6560,13 @@
         <v>0</v>
       </c>
       <c r="AB39">
-        <v>78.119834710743802</v>
+        <v>78.1198347107438</v>
       </c>
       <c r="AC39">
-        <v>79.901557936432539</v>
+        <v>79.90155793643254</v>
       </c>
       <c r="AD39">
-        <v>2192.2550479338838</v>
+        <v>2192.255047933884</v>
       </c>
       <c r="AE39">
         <v>50</v>
@@ -6363,28 +6587,28 @@
         <v>320</v>
       </c>
       <c r="AK39">
-        <v>1105.6949999999999</v>
+        <v>1105.695</v>
       </c>
       <c r="AL39">
         <v>3820.950047933884</v>
       </c>
       <c r="AM39">
-        <v>136.15750889200629</v>
+        <v>136.1575088920063</v>
       </c>
       <c r="AN39" t="s">
-        <v>266</v>
+        <v>321</v>
       </c>
       <c r="AO39" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="AP39" t="s">
-        <v>272</v>
+        <v>340</v>
       </c>
       <c r="AQ39" t="s">
-        <v>299</v>
+        <v>367</v>
       </c>
     </row>
-    <row r="40" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:49">
       <c r="A40" t="s">
         <v>49</v>
       </c>
@@ -6392,28 +6616,28 @@
         <v>53</v>
       </c>
       <c r="C40" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D40" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E40">
         <v>7201</v>
       </c>
       <c r="F40" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G40" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="H40">
         <v>15672</v>
       </c>
       <c r="I40" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="J40" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="K40">
         <v>50</v>
@@ -6425,37 +6649,37 @@
         <v>750</v>
       </c>
       <c r="N40">
-        <v>3.6869999999999998</v>
+        <v>3.687</v>
       </c>
       <c r="O40">
-        <v>3.6865000000000001</v>
+        <v>3.6865</v>
       </c>
       <c r="P40">
         <v>3</v>
       </c>
       <c r="Q40" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="R40" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="S40">
         <v>0</v>
       </c>
       <c r="T40" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="U40" t="s">
-        <v>179</v>
+        <v>204</v>
       </c>
       <c r="V40" t="s">
-        <v>199</v>
+        <v>239</v>
       </c>
       <c r="X40" t="s">
-        <v>240</v>
+        <v>295</v>
       </c>
       <c r="Y40" t="s">
-        <v>240</v>
+        <v>295</v>
       </c>
       <c r="Z40">
         <v>0</v>
@@ -6464,13 +6688,13 @@
         <v>0</v>
       </c>
       <c r="AB40">
-        <v>71.359848484848484</v>
+        <v>71.35984848484848</v>
       </c>
       <c r="AC40">
-        <v>84.921009320215987</v>
+        <v>84.92100932021599</v>
       </c>
       <c r="AD40">
-        <v>263.10376136363641</v>
+        <v>263.1037613636364</v>
       </c>
       <c r="AE40">
         <v>50</v>
@@ -6494,25 +6718,25 @@
         <v>291</v>
       </c>
       <c r="AL40">
-        <v>811.10376136363629</v>
+        <v>811.1037613636363</v>
       </c>
       <c r="AM40">
         <v>219.9901712404764</v>
       </c>
       <c r="AN40" t="s">
-        <v>267</v>
+        <v>322</v>
       </c>
       <c r="AO40" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="AP40" t="s">
-        <v>272</v>
+        <v>340</v>
       </c>
       <c r="AQ40" t="s">
-        <v>300</v>
+        <v>368</v>
       </c>
     </row>
-    <row r="41" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:49">
       <c r="A41" t="s">
         <v>49</v>
       </c>
@@ -6520,28 +6744,28 @@
         <v>53</v>
       </c>
       <c r="C41" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D41" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E41">
         <v>7201</v>
       </c>
       <c r="F41" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G41" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="H41">
         <v>15672</v>
       </c>
       <c r="I41" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="J41" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="K41">
         <v>15</v>
@@ -6562,28 +6786,28 @@
         <v>1</v>
       </c>
       <c r="Q41" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="R41" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="S41">
         <v>0</v>
       </c>
       <c r="T41" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="U41" t="s">
-        <v>179</v>
+        <v>204</v>
       </c>
       <c r="V41" t="s">
-        <v>199</v>
+        <v>239</v>
       </c>
       <c r="X41" t="s">
-        <v>225</v>
+        <v>280</v>
       </c>
       <c r="Y41" t="s">
-        <v>225</v>
+        <v>280</v>
       </c>
       <c r="Z41">
         <v>0</v>
@@ -6592,7 +6816,7 @@
         <v>0</v>
       </c>
       <c r="AB41">
-        <v>71.359848484848484</v>
+        <v>71.35984848484848</v>
       </c>
       <c r="AC41">
         <v>100.2950336700337</v>
@@ -6622,25 +6846,25 @@
         <v>121</v>
       </c>
       <c r="AL41">
-        <v>412.30981818181817</v>
+        <v>412.3098181818182</v>
       </c>
       <c r="AM41">
-        <v>238.60521885521891</v>
+        <v>238.6052188552189</v>
       </c>
       <c r="AN41" t="s">
-        <v>268</v>
+        <v>323</v>
       </c>
       <c r="AO41" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="AP41" t="s">
-        <v>272</v>
+        <v>340</v>
       </c>
       <c r="AQ41" t="s">
-        <v>301</v>
+        <v>369</v>
       </c>
     </row>
-    <row r="42" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:49">
       <c r="A42" t="s">
         <v>49</v>
       </c>
@@ -6648,28 +6872,28 @@
         <v>51</v>
       </c>
       <c r="C42" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D42" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E42">
         <v>29483</v>
       </c>
       <c r="F42" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G42" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="H42">
         <v>30096</v>
       </c>
       <c r="I42" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="J42" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="K42">
         <v>896</v>
@@ -6681,37 +6905,37 @@
         <v>4480</v>
       </c>
       <c r="N42">
-        <v>28.062719999999999</v>
+        <v>28.06272</v>
       </c>
       <c r="O42">
-        <v>28.062719999999999</v>
+        <v>28.06272</v>
       </c>
       <c r="P42">
         <v>16</v>
       </c>
       <c r="Q42" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="R42" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="S42">
         <v>0</v>
       </c>
       <c r="T42" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="U42" t="s">
-        <v>192</v>
+        <v>217</v>
       </c>
       <c r="V42" t="s">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="X42" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="Y42" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="Z42">
         <v>0</v>
@@ -6720,13 +6944,13 @@
         <v>0</v>
       </c>
       <c r="AB42">
-        <v>78.119834710743802</v>
+        <v>78.1198347107438</v>
       </c>
       <c r="AC42">
-        <v>79.901557936432539</v>
+        <v>79.90155793643254</v>
       </c>
       <c r="AD42">
-        <v>2192.2550479338838</v>
+        <v>2192.255047933884</v>
       </c>
       <c r="AE42">
         <v>50</v>
@@ -6747,28 +6971,28 @@
         <v>320</v>
       </c>
       <c r="AK42">
-        <v>1047.1500000000001</v>
+        <v>1047.15</v>
       </c>
       <c r="AL42">
-        <v>3762.4050479338839</v>
+        <v>3762.405047933884</v>
       </c>
       <c r="AM42">
-        <v>134.07128916704741</v>
+        <v>134.0712891670474</v>
       </c>
       <c r="AN42" t="s">
-        <v>266</v>
+        <v>321</v>
       </c>
       <c r="AO42" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="AP42" t="s">
-        <v>272</v>
+        <v>340</v>
       </c>
       <c r="AQ42" t="s">
-        <v>302</v>
+        <v>370</v>
       </c>
       <c r="AR42" t="s">
-        <v>308</v>
+        <v>392</v>
       </c>
       <c r="AS42">
         <v>52500</v>
@@ -6786,7 +7010,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="43" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:49">
       <c r="A43" t="s">
         <v>49</v>
       </c>
@@ -6794,28 +7018,28 @@
         <v>53</v>
       </c>
       <c r="C43" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D43" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E43">
         <v>7201</v>
       </c>
       <c r="F43" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G43" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="H43">
         <v>17057</v>
       </c>
       <c r="I43" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="J43" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="K43">
         <v>30</v>
@@ -6836,28 +7060,28 @@
         <v>1</v>
       </c>
       <c r="Q43" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="R43" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="S43">
         <v>0</v>
       </c>
       <c r="T43" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="U43" t="s">
-        <v>193</v>
+        <v>218</v>
       </c>
       <c r="V43" t="s">
-        <v>201</v>
+        <v>241</v>
       </c>
       <c r="X43" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="Y43" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="Z43">
         <v>0</v>
@@ -6866,10 +7090,10 @@
         <v>0</v>
       </c>
       <c r="AB43">
-        <v>71.359848484848484</v>
+        <v>71.35984848484848</v>
       </c>
       <c r="AC43">
-        <v>99.931277056277054</v>
+        <v>99.93127705627705</v>
       </c>
       <c r="AD43">
         <v>124.8797348484848</v>
@@ -6893,7 +7117,7 @@
         <v>18</v>
       </c>
       <c r="AK43">
-        <v>275.95999999999998</v>
+        <v>275.96</v>
       </c>
       <c r="AL43">
         <v>568.8397348484848</v>
@@ -6902,19 +7126,19 @@
         <v>325.051277056277</v>
       </c>
       <c r="AN43" t="s">
-        <v>269</v>
+        <v>324</v>
       </c>
       <c r="AO43" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="AP43" t="s">
-        <v>272</v>
+        <v>340</v>
       </c>
       <c r="AQ43" t="s">
-        <v>303</v>
+        <v>371</v>
       </c>
       <c r="AR43" t="s">
-        <v>309</v>
+        <v>393</v>
       </c>
       <c r="AS43">
         <v>52500</v>
@@ -6932,7 +7156,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="44" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:49">
       <c r="A44" t="s">
         <v>49</v>
       </c>
@@ -6940,28 +7164,28 @@
         <v>53</v>
       </c>
       <c r="C44" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D44" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E44">
         <v>29483</v>
       </c>
       <c r="F44" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G44" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="H44">
         <v>29330</v>
       </c>
       <c r="I44" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="J44" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="K44">
         <v>176</v>
@@ -6973,37 +7197,37 @@
         <v>1804</v>
       </c>
       <c r="N44">
-        <v>5.0259999999999998</v>
+        <v>5.026</v>
       </c>
       <c r="O44">
-        <v>5.0262399999999996</v>
+        <v>5.02624</v>
       </c>
       <c r="P44">
         <v>3</v>
       </c>
       <c r="Q44" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="R44" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="S44">
         <v>0</v>
       </c>
       <c r="T44" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="U44" t="s">
-        <v>194</v>
+        <v>219</v>
       </c>
       <c r="V44" t="s">
-        <v>202</v>
+        <v>242</v>
       </c>
       <c r="X44" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="Y44" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="Z44">
         <v>0</v>
@@ -7012,13 +7236,13 @@
         <v>0</v>
       </c>
       <c r="AB44">
-        <v>78.119834710743802</v>
+        <v>78.1198347107438</v>
       </c>
       <c r="AC44">
-        <v>88.068103711937596</v>
+        <v>88.0681037119376</v>
       </c>
       <c r="AD44">
-        <v>392.63028925619841</v>
+        <v>392.6302892561984</v>
       </c>
       <c r="AE44">
         <v>50</v>
@@ -7045,22 +7269,22 @@
         <v>920.3102892561983</v>
       </c>
       <c r="AM44">
-        <v>183.10988644174259</v>
+        <v>183.1098864417426</v>
       </c>
       <c r="AN44" t="s">
-        <v>270</v>
+        <v>325</v>
       </c>
       <c r="AO44" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="AP44" t="s">
-        <v>272</v>
+        <v>340</v>
       </c>
       <c r="AQ44" t="s">
-        <v>304</v>
+        <v>372</v>
       </c>
       <c r="AR44" t="s">
-        <v>310</v>
+        <v>394</v>
       </c>
       <c r="AS44">
         <v>52500</v>
@@ -7078,7 +7302,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="45" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:49">
       <c r="A45" t="s">
         <v>49</v>
       </c>
@@ -7086,28 +7310,28 @@
         <v>53</v>
       </c>
       <c r="C45" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D45" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E45">
         <v>7201</v>
       </c>
       <c r="F45" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G45" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="H45">
         <v>15672</v>
       </c>
       <c r="I45" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="J45" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="K45">
         <v>53</v>
@@ -7119,37 +7343,37 @@
         <v>795</v>
       </c>
       <c r="N45">
-        <v>6.1059999999999999</v>
+        <v>6.106</v>
       </c>
       <c r="O45">
-        <v>6.1055999999999999</v>
+        <v>6.1056</v>
       </c>
       <c r="P45">
         <v>4</v>
       </c>
       <c r="Q45" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="R45" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="S45">
         <v>0</v>
       </c>
       <c r="T45" t="s">
-        <v>314</v>
+        <v>166</v>
       </c>
       <c r="U45" t="s">
-        <v>316</v>
+        <v>220</v>
       </c>
       <c r="V45" t="s">
-        <v>315</v>
+        <v>243</v>
       </c>
       <c r="X45" t="s">
-        <v>314</v>
+        <v>166</v>
       </c>
       <c r="Y45" t="s">
-        <v>314</v>
+        <v>166</v>
       </c>
       <c r="Z45">
         <v>0</v>
@@ -7158,13 +7382,13 @@
         <v>0</v>
       </c>
       <c r="AB45">
-        <v>71.359848484848484</v>
+        <v>71.35984848484848</v>
       </c>
       <c r="AC45">
-        <v>79.548515369879595</v>
+        <v>79.5485153698796</v>
       </c>
       <c r="AD45">
-        <v>435.72323484848482</v>
+        <v>435.7232348484848</v>
       </c>
       <c r="AE45">
         <v>50</v>
@@ -7188,25 +7412,25 @@
         <v>384</v>
       </c>
       <c r="AL45">
-        <v>1041.7232348484849</v>
+        <v>1041.723234848485</v>
       </c>
       <c r="AM45">
         <v>170.6064911314256</v>
       </c>
       <c r="AN45" t="s">
-        <v>271</v>
+        <v>326</v>
       </c>
       <c r="AO45" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="AP45" t="s">
-        <v>272</v>
+        <v>340</v>
       </c>
       <c r="AQ45" t="s">
-        <v>305</v>
+        <v>373</v>
       </c>
       <c r="AR45" t="s">
-        <v>311</v>
+        <v>395</v>
       </c>
       <c r="AS45">
         <v>52500</v>
@@ -7224,7 +7448,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="46" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:49">
       <c r="A46" t="s">
         <v>49</v>
       </c>
@@ -7232,28 +7456,28 @@
         <v>53</v>
       </c>
       <c r="C46" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D46" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E46">
         <v>29483</v>
       </c>
       <c r="F46" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G46" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="H46">
         <v>38654</v>
       </c>
       <c r="I46" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="J46" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="K46">
         <v>83</v>
@@ -7268,34 +7492,34 @@
         <v>10.433</v>
       </c>
       <c r="O46">
-        <v>10.433009999999999</v>
+        <v>10.43301</v>
       </c>
       <c r="P46">
         <v>6</v>
       </c>
       <c r="Q46" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="R46" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="S46">
         <v>0</v>
       </c>
       <c r="T46" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="U46" t="s">
-        <v>195</v>
+        <v>221</v>
       </c>
       <c r="V46" t="s">
-        <v>203</v>
+        <v>244</v>
       </c>
       <c r="X46" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="Y46" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="Z46">
         <v>0</v>
@@ -7304,13 +7528,13 @@
         <v>0</v>
       </c>
       <c r="AB46">
-        <v>73.574380165289256</v>
+        <v>73.57438016528926</v>
       </c>
       <c r="AC46">
-        <v>78.366865548208835</v>
+        <v>78.36686554820884</v>
       </c>
       <c r="AD46">
-        <v>767.60150826446284</v>
+        <v>767.6015082644628</v>
       </c>
       <c r="AE46">
         <v>50</v>
@@ -7331,28 +7555,28 @@
         <v>120</v>
       </c>
       <c r="AK46">
-        <v>1173.8800000000001</v>
+        <v>1173.88</v>
       </c>
       <c r="AL46">
-        <v>2211.4815082644632</v>
+        <v>2211.481508264463</v>
       </c>
       <c r="AM46">
-        <v>211.96985605908779</v>
+        <v>211.9698560590878</v>
       </c>
       <c r="AN46" t="s">
-        <v>263</v>
+        <v>318</v>
       </c>
       <c r="AO46" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="AP46" t="s">
-        <v>272</v>
+        <v>340</v>
       </c>
       <c r="AQ46" t="s">
-        <v>306</v>
+        <v>374</v>
       </c>
       <c r="AR46" t="s">
-        <v>312</v>
+        <v>396</v>
       </c>
       <c r="AS46">
         <v>52500</v>
@@ -7370,7 +7594,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="47" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:49">
       <c r="A47" t="s">
         <v>49</v>
       </c>
@@ -7378,70 +7602,70 @@
         <v>53</v>
       </c>
       <c r="C47" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D47" t="s">
-        <v>57</v>
-      </c>
-      <c r="E47" t="s">
-        <v>61</v>
+        <v>58</v>
+      </c>
+      <c r="E47">
+        <v>7201</v>
       </c>
       <c r="F47" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G47" t="s">
-        <v>110</v>
-      </c>
-      <c r="H47" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+      <c r="H47">
+        <v>18447</v>
       </c>
       <c r="I47" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="J47" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="K47">
         <v>397</v>
       </c>
       <c r="L47">
-        <v>4970.4399999999996</v>
+        <v>4970.44</v>
       </c>
       <c r="M47">
-        <v>4970.4399999999996</v>
+        <v>4970.44</v>
       </c>
       <c r="N47">
-        <v>30.763999999999999</v>
+        <v>30.764</v>
       </c>
       <c r="O47">
-        <v>30.763529999999999</v>
+        <v>30.76353</v>
       </c>
       <c r="P47">
         <v>18</v>
       </c>
       <c r="Q47" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="R47" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="S47">
         <v>0</v>
       </c>
       <c r="T47" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="U47" t="s">
-        <v>196</v>
+        <v>222</v>
       </c>
       <c r="V47" t="s">
-        <v>204</v>
+        <v>245</v>
       </c>
       <c r="X47" t="s">
-        <v>196</v>
+        <v>222</v>
       </c>
       <c r="Y47" t="s">
-        <v>196</v>
+        <v>222</v>
       </c>
       <c r="Z47">
         <v>0</v>
@@ -7450,13 +7674,13 @@
         <v>0</v>
       </c>
       <c r="AB47">
-        <v>67.193181818181813</v>
+        <v>67.19318181818181</v>
       </c>
       <c r="AC47">
-        <v>68.818458115152296</v>
+        <v>68.8184581151523</v>
       </c>
       <c r="AD47">
-        <v>2067.1310454545451</v>
+        <v>2067.131045454545</v>
       </c>
       <c r="AE47">
         <v>50</v>
@@ -7477,28 +7701,28 @@
         <v>324</v>
       </c>
       <c r="AK47">
-        <v>963.56999999999994</v>
+        <v>963.5699999999999</v>
       </c>
       <c r="AL47">
-        <v>3557.7010454545448</v>
+        <v>3557.701045454545</v>
       </c>
       <c r="AM47">
         <v>115.6449436176877</v>
       </c>
       <c r="AN47" t="s">
-        <v>264</v>
+        <v>319</v>
       </c>
       <c r="AO47" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="AP47" t="s">
-        <v>272</v>
+        <v>340</v>
       </c>
       <c r="AQ47" t="s">
-        <v>307</v>
+        <v>375</v>
       </c>
       <c r="AR47" t="s">
-        <v>313</v>
+        <v>397</v>
       </c>
       <c r="AS47">
         <v>52500</v>
@@ -7513,6 +7737,3364 @@
         <v>4031.590909090909</v>
       </c>
       <c r="AW47">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="48" spans="1:49">
+      <c r="A48" t="s">
+        <v>50</v>
+      </c>
+      <c r="B48" t="s">
+        <v>52</v>
+      </c>
+      <c r="C48" t="s">
+        <v>56</v>
+      </c>
+      <c r="D48" t="s">
+        <v>57</v>
+      </c>
+      <c r="E48">
+        <v>29483</v>
+      </c>
+      <c r="F48" t="s">
+        <v>68</v>
+      </c>
+      <c r="G48" t="s">
+        <v>98</v>
+      </c>
+      <c r="H48">
+        <v>30567</v>
+      </c>
+      <c r="I48" t="s">
+        <v>124</v>
+      </c>
+      <c r="J48" t="s">
+        <v>125</v>
+      </c>
+      <c r="K48">
+        <v>10</v>
+      </c>
+      <c r="L48">
+        <v>2000</v>
+      </c>
+      <c r="M48">
+        <v>3660</v>
+      </c>
+      <c r="N48">
+        <v>1</v>
+      </c>
+      <c r="O48">
+        <v>2.6016</v>
+      </c>
+      <c r="P48">
+        <v>1</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>132</v>
+      </c>
+      <c r="R48" t="s">
+        <v>133</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48" t="s">
+        <v>169</v>
+      </c>
+      <c r="U48" t="s">
+        <v>223</v>
+      </c>
+      <c r="V48" t="s">
+        <v>246</v>
+      </c>
+      <c r="X48" t="s">
+        <v>169</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>169</v>
+      </c>
+      <c r="Z48">
+        <v>10000</v>
+      </c>
+      <c r="AA48">
+        <v>113.6363636363636</v>
+      </c>
+      <c r="AB48">
+        <v>73.57438016528926</v>
+      </c>
+      <c r="AC48">
+        <v>123.5743801652893</v>
+      </c>
+      <c r="AD48">
+        <v>73.57438016528926</v>
+      </c>
+      <c r="AE48">
+        <v>50</v>
+      </c>
+      <c r="AF48">
+        <v>53</v>
+      </c>
+      <c r="AG48">
+        <v>100</v>
+      </c>
+      <c r="AH48">
+        <v>50</v>
+      </c>
+      <c r="AI48">
+        <v>20</v>
+      </c>
+      <c r="AJ48">
+        <v>20</v>
+      </c>
+      <c r="AK48">
+        <v>309.61</v>
+      </c>
+      <c r="AL48">
+        <v>719.8207438016528</v>
+      </c>
+      <c r="AM48">
+        <v>719.8207438016528</v>
+      </c>
+      <c r="AN48" t="s">
+        <v>297</v>
+      </c>
+      <c r="AO48" t="s">
+        <v>98</v>
+      </c>
+      <c r="AP48" t="s">
+        <v>340</v>
+      </c>
+      <c r="AQ48" t="s">
+        <v>376</v>
+      </c>
+      <c r="AR48" t="s">
+        <v>398</v>
+      </c>
+      <c r="AS48">
+        <v>52500</v>
+      </c>
+      <c r="AT48">
+        <v>2250</v>
+      </c>
+      <c r="AU48">
+        <v>1200</v>
+      </c>
+      <c r="AV48">
+        <v>4046.590909090909</v>
+      </c>
+      <c r="AW48">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="49" spans="1:49">
+      <c r="A49" t="s">
+        <v>50</v>
+      </c>
+      <c r="B49" t="s">
+        <v>52</v>
+      </c>
+      <c r="C49" t="s">
+        <v>56</v>
+      </c>
+      <c r="D49" t="s">
+        <v>58</v>
+      </c>
+      <c r="E49">
+        <v>7201</v>
+      </c>
+      <c r="F49" t="s">
+        <v>69</v>
+      </c>
+      <c r="G49" t="s">
+        <v>99</v>
+      </c>
+      <c r="H49">
+        <v>8873</v>
+      </c>
+      <c r="I49" t="s">
+        <v>124</v>
+      </c>
+      <c r="J49" t="s">
+        <v>128</v>
+      </c>
+      <c r="K49">
+        <v>9</v>
+      </c>
+      <c r="L49">
+        <v>660</v>
+      </c>
+      <c r="M49">
+        <v>3660</v>
+      </c>
+      <c r="N49">
+        <v>1</v>
+      </c>
+      <c r="O49">
+        <v>2.6016</v>
+      </c>
+      <c r="P49">
+        <v>1</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>132</v>
+      </c>
+      <c r="R49" t="s">
+        <v>133</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="T49" t="s">
+        <v>170</v>
+      </c>
+      <c r="U49" t="s">
+        <v>224</v>
+      </c>
+      <c r="V49" t="s">
+        <v>247</v>
+      </c>
+      <c r="X49" t="s">
+        <v>170</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>170</v>
+      </c>
+      <c r="Z49">
+        <v>10000</v>
+      </c>
+      <c r="AA49">
+        <v>113.6363636363636</v>
+      </c>
+      <c r="AB49">
+        <v>67.19318181818181</v>
+      </c>
+      <c r="AC49">
+        <v>117.1931818181818</v>
+      </c>
+      <c r="AD49">
+        <v>67.19318181818181</v>
+      </c>
+      <c r="AE49">
+        <v>50</v>
+      </c>
+      <c r="AF49">
+        <v>53</v>
+      </c>
+      <c r="AG49">
+        <v>100</v>
+      </c>
+      <c r="AH49">
+        <v>50</v>
+      </c>
+      <c r="AI49">
+        <v>18</v>
+      </c>
+      <c r="AJ49">
+        <v>18</v>
+      </c>
+      <c r="AK49">
+        <v>97</v>
+      </c>
+      <c r="AL49">
+        <v>498.8295454545454</v>
+      </c>
+      <c r="AM49">
+        <v>498.8295454545454</v>
+      </c>
+      <c r="AN49" t="s">
+        <v>297</v>
+      </c>
+      <c r="AO49" t="s">
+        <v>99</v>
+      </c>
+      <c r="AP49" t="s">
+        <v>340</v>
+      </c>
+      <c r="AQ49" t="s">
+        <v>376</v>
+      </c>
+      <c r="AR49" t="s">
+        <v>398</v>
+      </c>
+      <c r="AS49">
+        <v>52500</v>
+      </c>
+      <c r="AT49">
+        <v>2250</v>
+      </c>
+      <c r="AU49">
+        <v>1185</v>
+      </c>
+      <c r="AV49">
+        <v>4031.590909090909</v>
+      </c>
+      <c r="AW49">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="50" spans="1:49">
+      <c r="A50" t="s">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>53</v>
+      </c>
+      <c r="C50" t="s">
+        <v>56</v>
+      </c>
+      <c r="D50" t="s">
+        <v>59</v>
+      </c>
+      <c r="E50">
+        <v>90220</v>
+      </c>
+      <c r="F50" t="s">
+        <v>65</v>
+      </c>
+      <c r="G50" t="s">
+        <v>95</v>
+      </c>
+      <c r="H50">
+        <v>75241</v>
+      </c>
+      <c r="I50" t="s">
+        <v>125</v>
+      </c>
+      <c r="J50" t="s">
+        <v>126</v>
+      </c>
+      <c r="K50">
+        <v>4</v>
+      </c>
+      <c r="L50">
+        <v>1272.14</v>
+      </c>
+      <c r="M50">
+        <v>2707.44</v>
+      </c>
+      <c r="N50">
+        <v>7.29</v>
+      </c>
+      <c r="O50">
+        <v>16.43023</v>
+      </c>
+      <c r="P50">
+        <v>4</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>132</v>
+      </c>
+      <c r="R50" t="s">
+        <v>133</v>
+      </c>
+      <c r="S50">
+        <v>0</v>
+      </c>
+      <c r="T50" t="s">
+        <v>171</v>
+      </c>
+      <c r="U50" t="s">
+        <v>225</v>
+      </c>
+      <c r="V50" t="s">
+        <v>248</v>
+      </c>
+      <c r="X50" t="s">
+        <v>171</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>171</v>
+      </c>
+      <c r="Z50">
+        <v>0</v>
+      </c>
+      <c r="AA50">
+        <v>0</v>
+      </c>
+      <c r="AB50">
+        <v>76.48347107438016</v>
+      </c>
+      <c r="AC50">
+        <v>83.34218163679442</v>
+      </c>
+      <c r="AD50">
+        <v>557.5645041322314</v>
+      </c>
+      <c r="AE50">
+        <v>50</v>
+      </c>
+      <c r="AF50">
+        <v>53</v>
+      </c>
+      <c r="AG50">
+        <v>100</v>
+      </c>
+      <c r="AH50">
+        <v>50</v>
+      </c>
+      <c r="AI50">
+        <v>20</v>
+      </c>
+      <c r="AJ50">
+        <v>0</v>
+      </c>
+      <c r="AK50">
+        <v>720.76</v>
+      </c>
+      <c r="AL50">
+        <v>1481.324504132231</v>
+      </c>
+      <c r="AM50">
+        <v>203.1995204570962</v>
+      </c>
+      <c r="AN50" t="s">
+        <v>327</v>
+      </c>
+      <c r="AO50" t="s">
+        <v>95</v>
+      </c>
+      <c r="AP50" t="s">
+        <v>340</v>
+      </c>
+      <c r="AQ50" t="s">
+        <v>377</v>
+      </c>
+      <c r="AR50" t="s">
+        <v>399</v>
+      </c>
+      <c r="AS50">
+        <v>52500</v>
+      </c>
+      <c r="AT50">
+        <v>2250</v>
+      </c>
+      <c r="AU50">
+        <v>1360</v>
+      </c>
+      <c r="AV50">
+        <v>4206.590909090909</v>
+      </c>
+      <c r="AW50">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="51" spans="1:49">
+      <c r="A51" t="s">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>53</v>
+      </c>
+      <c r="C51" t="s">
+        <v>56</v>
+      </c>
+      <c r="D51" t="s">
+        <v>59</v>
+      </c>
+      <c r="E51">
+        <v>90220</v>
+      </c>
+      <c r="F51" t="s">
+        <v>89</v>
+      </c>
+      <c r="G51" t="s">
+        <v>119</v>
+      </c>
+      <c r="H51">
+        <v>95206</v>
+      </c>
+      <c r="I51" t="s">
+        <v>124</v>
+      </c>
+      <c r="J51" t="s">
+        <v>127</v>
+      </c>
+      <c r="K51">
+        <v>5</v>
+      </c>
+      <c r="L51">
+        <v>1435.3</v>
+      </c>
+      <c r="M51">
+        <v>2707.44</v>
+      </c>
+      <c r="N51">
+        <v>9.140000000000001</v>
+      </c>
+      <c r="O51">
+        <v>16.43023</v>
+      </c>
+      <c r="P51">
+        <v>5</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>132</v>
+      </c>
+      <c r="R51" t="s">
+        <v>133</v>
+      </c>
+      <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="T51" t="s">
+        <v>172</v>
+      </c>
+      <c r="U51" t="s">
+        <v>226</v>
+      </c>
+      <c r="V51" t="s">
+        <v>249</v>
+      </c>
+      <c r="X51" t="s">
+        <v>172</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>172</v>
+      </c>
+      <c r="Z51">
+        <v>0</v>
+      </c>
+      <c r="AA51">
+        <v>0</v>
+      </c>
+      <c r="AB51">
+        <v>76.48347107438016</v>
+      </c>
+      <c r="AC51">
+        <v>81.95393059297973</v>
+      </c>
+      <c r="AD51">
+        <v>699.0589256198348</v>
+      </c>
+      <c r="AE51">
+        <v>50</v>
+      </c>
+      <c r="AF51">
+        <v>53</v>
+      </c>
+      <c r="AG51">
+        <v>100</v>
+      </c>
+      <c r="AH51">
+        <v>50</v>
+      </c>
+      <c r="AI51">
+        <v>20</v>
+      </c>
+      <c r="AJ51">
+        <v>0</v>
+      </c>
+      <c r="AK51">
+        <v>855.2</v>
+      </c>
+      <c r="AL51">
+        <v>1757.258925619835</v>
+      </c>
+      <c r="AM51">
+        <v>192.2602763260213</v>
+      </c>
+      <c r="AN51" t="s">
+        <v>327</v>
+      </c>
+      <c r="AO51" t="s">
+        <v>119</v>
+      </c>
+      <c r="AP51" t="s">
+        <v>340</v>
+      </c>
+      <c r="AQ51" t="s">
+        <v>377</v>
+      </c>
+      <c r="AR51" t="s">
+        <v>399</v>
+      </c>
+      <c r="AS51">
+        <v>52500</v>
+      </c>
+      <c r="AT51">
+        <v>2250</v>
+      </c>
+      <c r="AU51">
+        <v>1360</v>
+      </c>
+      <c r="AV51">
+        <v>4206.590909090909</v>
+      </c>
+      <c r="AW51">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="52" spans="1:49">
+      <c r="A52" t="s">
+        <v>49</v>
+      </c>
+      <c r="B52" t="s">
+        <v>53</v>
+      </c>
+      <c r="C52" t="s">
+        <v>56</v>
+      </c>
+      <c r="D52" t="s">
+        <v>57</v>
+      </c>
+      <c r="E52">
+        <v>29483</v>
+      </c>
+      <c r="F52" t="s">
+        <v>90</v>
+      </c>
+      <c r="G52" t="s">
+        <v>120</v>
+      </c>
+      <c r="H52">
+        <v>38118</v>
+      </c>
+      <c r="I52" t="s">
+        <v>124</v>
+      </c>
+      <c r="J52" t="s">
+        <v>125</v>
+      </c>
+      <c r="K52">
+        <v>4</v>
+      </c>
+      <c r="L52">
+        <v>1501.76</v>
+      </c>
+      <c r="M52">
+        <v>3858.36</v>
+      </c>
+      <c r="N52">
+        <v>7.29</v>
+      </c>
+      <c r="O52">
+        <v>21.81025</v>
+      </c>
+      <c r="P52">
+        <v>4</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>132</v>
+      </c>
+      <c r="R52" t="s">
+        <v>133</v>
+      </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="T52" t="s">
+        <v>173</v>
+      </c>
+      <c r="U52" t="s">
+        <v>227</v>
+      </c>
+      <c r="V52" t="s">
+        <v>250</v>
+      </c>
+      <c r="X52" t="s">
+        <v>173</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>173</v>
+      </c>
+      <c r="Z52">
+        <v>0</v>
+      </c>
+      <c r="AA52">
+        <v>0</v>
+      </c>
+      <c r="AB52">
+        <v>73.57438016528926</v>
+      </c>
+      <c r="AC52">
+        <v>80.43309072770352</v>
+      </c>
+      <c r="AD52">
+        <v>536.3572314049587</v>
+      </c>
+      <c r="AE52">
+        <v>50</v>
+      </c>
+      <c r="AF52">
+        <v>53</v>
+      </c>
+      <c r="AG52">
+        <v>100</v>
+      </c>
+      <c r="AH52">
+        <v>50</v>
+      </c>
+      <c r="AI52">
+        <v>20</v>
+      </c>
+      <c r="AJ52">
+        <v>0</v>
+      </c>
+      <c r="AK52">
+        <v>496.08</v>
+      </c>
+      <c r="AL52">
+        <v>1235.437231404959</v>
+      </c>
+      <c r="AM52">
+        <v>169.4701277647406</v>
+      </c>
+      <c r="AN52" t="s">
+        <v>328</v>
+      </c>
+      <c r="AO52" t="s">
+        <v>120</v>
+      </c>
+      <c r="AP52" t="s">
+        <v>340</v>
+      </c>
+      <c r="AQ52" t="s">
+        <v>378</v>
+      </c>
+      <c r="AR52" t="s">
+        <v>400</v>
+      </c>
+      <c r="AS52">
+        <v>52500</v>
+      </c>
+      <c r="AT52">
+        <v>2250</v>
+      </c>
+      <c r="AU52">
+        <v>1200</v>
+      </c>
+      <c r="AV52">
+        <v>4046.590909090909</v>
+      </c>
+      <c r="AW52">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="53" spans="1:49">
+      <c r="A53" t="s">
+        <v>49</v>
+      </c>
+      <c r="B53" t="s">
+        <v>53</v>
+      </c>
+      <c r="C53" t="s">
+        <v>56</v>
+      </c>
+      <c r="D53" t="s">
+        <v>58</v>
+      </c>
+      <c r="E53">
+        <v>7201</v>
+      </c>
+      <c r="F53" t="s">
+        <v>78</v>
+      </c>
+      <c r="G53" t="s">
+        <v>108</v>
+      </c>
+      <c r="H53">
+        <v>46809</v>
+      </c>
+      <c r="I53" t="s">
+        <v>124</v>
+      </c>
+      <c r="J53" t="s">
+        <v>130</v>
+      </c>
+      <c r="K53">
+        <v>5</v>
+      </c>
+      <c r="L53">
+        <v>1501</v>
+      </c>
+      <c r="M53">
+        <v>3858.36</v>
+      </c>
+      <c r="N53">
+        <v>9.074999999999999</v>
+      </c>
+      <c r="O53">
+        <v>21.81025</v>
+      </c>
+      <c r="P53">
+        <v>5</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>132</v>
+      </c>
+      <c r="R53" t="s">
+        <v>133</v>
+      </c>
+      <c r="S53">
+        <v>0</v>
+      </c>
+      <c r="T53" t="s">
+        <v>174</v>
+      </c>
+      <c r="U53" t="s">
+        <v>228</v>
+      </c>
+      <c r="V53" t="s">
+        <v>251</v>
+      </c>
+      <c r="X53" t="s">
+        <v>174</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>174</v>
+      </c>
+      <c r="Z53">
+        <v>0</v>
+      </c>
+      <c r="AA53">
+        <v>0</v>
+      </c>
+      <c r="AB53">
+        <v>67.19318181818181</v>
+      </c>
+      <c r="AC53">
+        <v>72.70282369146005</v>
+      </c>
+      <c r="AD53">
+        <v>609.7781249999999</v>
+      </c>
+      <c r="AE53">
+        <v>50</v>
+      </c>
+      <c r="AF53">
+        <v>53</v>
+      </c>
+      <c r="AG53">
+        <v>100</v>
+      </c>
+      <c r="AH53">
+        <v>50</v>
+      </c>
+      <c r="AI53">
+        <v>18</v>
+      </c>
+      <c r="AJ53">
+        <v>0</v>
+      </c>
+      <c r="AK53">
+        <v>820.15</v>
+      </c>
+      <c r="AL53">
+        <v>1632.928125</v>
+      </c>
+      <c r="AM53">
+        <v>179.9369834710744</v>
+      </c>
+      <c r="AN53" t="s">
+        <v>328</v>
+      </c>
+      <c r="AO53" t="s">
+        <v>108</v>
+      </c>
+      <c r="AP53" t="s">
+        <v>340</v>
+      </c>
+      <c r="AQ53" t="s">
+        <v>378</v>
+      </c>
+      <c r="AR53" t="s">
+        <v>400</v>
+      </c>
+      <c r="AS53">
+        <v>52500</v>
+      </c>
+      <c r="AT53">
+        <v>2250</v>
+      </c>
+      <c r="AU53">
+        <v>1185</v>
+      </c>
+      <c r="AV53">
+        <v>4031.590909090909</v>
+      </c>
+      <c r="AW53">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="54" spans="1:49">
+      <c r="A54" t="s">
+        <v>49</v>
+      </c>
+      <c r="B54" t="s">
+        <v>53</v>
+      </c>
+      <c r="C54" t="s">
+        <v>56</v>
+      </c>
+      <c r="D54" t="s">
+        <v>58</v>
+      </c>
+      <c r="E54">
+        <v>7201</v>
+      </c>
+      <c r="F54" t="s">
+        <v>76</v>
+      </c>
+      <c r="G54" t="s">
+        <v>106</v>
+      </c>
+      <c r="H54">
+        <v>48917</v>
+      </c>
+      <c r="I54" t="s">
+        <v>124</v>
+      </c>
+      <c r="J54" t="s">
+        <v>129</v>
+      </c>
+      <c r="K54">
+        <v>3</v>
+      </c>
+      <c r="L54">
+        <v>855.5999999999999</v>
+      </c>
+      <c r="M54">
+        <v>3858.36</v>
+      </c>
+      <c r="N54">
+        <v>5.445</v>
+      </c>
+      <c r="O54">
+        <v>21.81025</v>
+      </c>
+      <c r="P54">
+        <v>3</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>132</v>
+      </c>
+      <c r="R54" t="s">
+        <v>133</v>
+      </c>
+      <c r="S54">
+        <v>0</v>
+      </c>
+      <c r="T54" t="s">
+        <v>175</v>
+      </c>
+      <c r="U54" t="s">
+        <v>229</v>
+      </c>
+      <c r="V54" t="s">
+        <v>252</v>
+      </c>
+      <c r="X54" t="s">
+        <v>175</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>175</v>
+      </c>
+      <c r="Z54">
+        <v>0</v>
+      </c>
+      <c r="AA54">
+        <v>0</v>
+      </c>
+      <c r="AB54">
+        <v>67.19318181818181</v>
+      </c>
+      <c r="AC54">
+        <v>76.37591827364554</v>
+      </c>
+      <c r="AD54">
+        <v>365.866875</v>
+      </c>
+      <c r="AE54">
+        <v>50</v>
+      </c>
+      <c r="AF54">
+        <v>53</v>
+      </c>
+      <c r="AG54">
+        <v>100</v>
+      </c>
+      <c r="AH54">
+        <v>50</v>
+      </c>
+      <c r="AI54">
+        <v>18</v>
+      </c>
+      <c r="AJ54">
+        <v>0</v>
+      </c>
+      <c r="AK54">
+        <v>633.41</v>
+      </c>
+      <c r="AL54">
+        <v>1202.276875</v>
+      </c>
+      <c r="AM54">
+        <v>220.8038337924702</v>
+      </c>
+      <c r="AN54" t="s">
+        <v>328</v>
+      </c>
+      <c r="AO54" t="s">
+        <v>106</v>
+      </c>
+      <c r="AP54" t="s">
+        <v>340</v>
+      </c>
+      <c r="AQ54" t="s">
+        <v>378</v>
+      </c>
+      <c r="AR54" t="s">
+        <v>400</v>
+      </c>
+      <c r="AS54">
+        <v>52500</v>
+      </c>
+      <c r="AT54">
+        <v>2250</v>
+      </c>
+      <c r="AU54">
+        <v>1185</v>
+      </c>
+      <c r="AV54">
+        <v>4031.590909090909</v>
+      </c>
+      <c r="AW54">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="55" spans="1:49">
+      <c r="A55" t="s">
+        <v>49</v>
+      </c>
+      <c r="B55" t="s">
+        <v>53</v>
+      </c>
+      <c r="C55" t="s">
+        <v>56</v>
+      </c>
+      <c r="D55" t="s">
+        <v>57</v>
+      </c>
+      <c r="E55">
+        <v>29483</v>
+      </c>
+      <c r="F55" t="s">
+        <v>90</v>
+      </c>
+      <c r="G55" t="s">
+        <v>120</v>
+      </c>
+      <c r="H55">
+        <v>38118</v>
+      </c>
+      <c r="I55" t="s">
+        <v>124</v>
+      </c>
+      <c r="J55" t="s">
+        <v>125</v>
+      </c>
+      <c r="K55">
+        <v>4</v>
+      </c>
+      <c r="L55">
+        <v>1501.76</v>
+      </c>
+      <c r="M55">
+        <v>3858.36</v>
+      </c>
+      <c r="N55">
+        <v>7.29</v>
+      </c>
+      <c r="O55">
+        <v>21.81025</v>
+      </c>
+      <c r="P55">
+        <v>4</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>132</v>
+      </c>
+      <c r="R55" t="s">
+        <v>133</v>
+      </c>
+      <c r="S55">
+        <v>0</v>
+      </c>
+      <c r="T55" t="s">
+        <v>173</v>
+      </c>
+      <c r="U55" t="s">
+        <v>227</v>
+      </c>
+      <c r="V55" t="s">
+        <v>250</v>
+      </c>
+      <c r="X55" t="s">
+        <v>173</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>173</v>
+      </c>
+      <c r="Z55">
+        <v>0</v>
+      </c>
+      <c r="AA55">
+        <v>0</v>
+      </c>
+      <c r="AB55">
+        <v>73.57438016528926</v>
+      </c>
+      <c r="AC55">
+        <v>80.43309072770352</v>
+      </c>
+      <c r="AD55">
+        <v>536.3572314049587</v>
+      </c>
+      <c r="AE55">
+        <v>50</v>
+      </c>
+      <c r="AF55">
+        <v>53</v>
+      </c>
+      <c r="AG55">
+        <v>100</v>
+      </c>
+      <c r="AH55">
+        <v>50</v>
+      </c>
+      <c r="AI55">
+        <v>20</v>
+      </c>
+      <c r="AJ55">
+        <v>0</v>
+      </c>
+      <c r="AK55">
+        <v>496.08</v>
+      </c>
+      <c r="AL55">
+        <v>1235.437231404959</v>
+      </c>
+      <c r="AM55">
+        <v>169.4701277647406</v>
+      </c>
+      <c r="AN55" t="s">
+        <v>328</v>
+      </c>
+      <c r="AO55" t="s">
+        <v>120</v>
+      </c>
+      <c r="AP55" t="s">
+        <v>340</v>
+      </c>
+      <c r="AQ55" t="s">
+        <v>379</v>
+      </c>
+      <c r="AR55" t="s">
+        <v>401</v>
+      </c>
+      <c r="AS55">
+        <v>52500</v>
+      </c>
+      <c r="AT55">
+        <v>2250</v>
+      </c>
+      <c r="AU55">
+        <v>1200</v>
+      </c>
+      <c r="AV55">
+        <v>4046.590909090909</v>
+      </c>
+      <c r="AW55">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="56" spans="1:49">
+      <c r="A56" t="s">
+        <v>49</v>
+      </c>
+      <c r="B56" t="s">
+        <v>53</v>
+      </c>
+      <c r="C56" t="s">
+        <v>56</v>
+      </c>
+      <c r="D56" t="s">
+        <v>58</v>
+      </c>
+      <c r="E56">
+        <v>7201</v>
+      </c>
+      <c r="F56" t="s">
+        <v>78</v>
+      </c>
+      <c r="G56" t="s">
+        <v>108</v>
+      </c>
+      <c r="H56">
+        <v>46809</v>
+      </c>
+      <c r="I56" t="s">
+        <v>124</v>
+      </c>
+      <c r="J56" t="s">
+        <v>130</v>
+      </c>
+      <c r="K56">
+        <v>5</v>
+      </c>
+      <c r="L56">
+        <v>1501</v>
+      </c>
+      <c r="M56">
+        <v>3858.36</v>
+      </c>
+      <c r="N56">
+        <v>9.074999999999999</v>
+      </c>
+      <c r="O56">
+        <v>21.81025</v>
+      </c>
+      <c r="P56">
+        <v>5</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>132</v>
+      </c>
+      <c r="R56" t="s">
+        <v>133</v>
+      </c>
+      <c r="S56">
+        <v>0</v>
+      </c>
+      <c r="T56" t="s">
+        <v>174</v>
+      </c>
+      <c r="U56" t="s">
+        <v>228</v>
+      </c>
+      <c r="V56" t="s">
+        <v>251</v>
+      </c>
+      <c r="X56" t="s">
+        <v>174</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>174</v>
+      </c>
+      <c r="Z56">
+        <v>0</v>
+      </c>
+      <c r="AA56">
+        <v>0</v>
+      </c>
+      <c r="AB56">
+        <v>67.19318181818181</v>
+      </c>
+      <c r="AC56">
+        <v>72.70282369146005</v>
+      </c>
+      <c r="AD56">
+        <v>609.7781249999999</v>
+      </c>
+      <c r="AE56">
+        <v>50</v>
+      </c>
+      <c r="AF56">
+        <v>53</v>
+      </c>
+      <c r="AG56">
+        <v>100</v>
+      </c>
+      <c r="AH56">
+        <v>50</v>
+      </c>
+      <c r="AI56">
+        <v>18</v>
+      </c>
+      <c r="AJ56">
+        <v>0</v>
+      </c>
+      <c r="AK56">
+        <v>820.15</v>
+      </c>
+      <c r="AL56">
+        <v>1632.928125</v>
+      </c>
+      <c r="AM56">
+        <v>179.9369834710744</v>
+      </c>
+      <c r="AN56" t="s">
+        <v>328</v>
+      </c>
+      <c r="AO56" t="s">
+        <v>108</v>
+      </c>
+      <c r="AP56" t="s">
+        <v>340</v>
+      </c>
+      <c r="AQ56" t="s">
+        <v>379</v>
+      </c>
+      <c r="AR56" t="s">
+        <v>401</v>
+      </c>
+      <c r="AS56">
+        <v>52500</v>
+      </c>
+      <c r="AT56">
+        <v>2250</v>
+      </c>
+      <c r="AU56">
+        <v>1185</v>
+      </c>
+      <c r="AV56">
+        <v>4031.590909090909</v>
+      </c>
+      <c r="AW56">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="57" spans="1:49">
+      <c r="A57" t="s">
+        <v>49</v>
+      </c>
+      <c r="B57" t="s">
+        <v>53</v>
+      </c>
+      <c r="C57" t="s">
+        <v>56</v>
+      </c>
+      <c r="D57" t="s">
+        <v>58</v>
+      </c>
+      <c r="E57">
+        <v>7201</v>
+      </c>
+      <c r="F57" t="s">
+        <v>76</v>
+      </c>
+      <c r="G57" t="s">
+        <v>106</v>
+      </c>
+      <c r="H57">
+        <v>48917</v>
+      </c>
+      <c r="I57" t="s">
+        <v>124</v>
+      </c>
+      <c r="J57" t="s">
+        <v>129</v>
+      </c>
+      <c r="K57">
+        <v>3</v>
+      </c>
+      <c r="L57">
+        <v>855.5999999999999</v>
+      </c>
+      <c r="M57">
+        <v>3858.36</v>
+      </c>
+      <c r="N57">
+        <v>5.445</v>
+      </c>
+      <c r="O57">
+        <v>21.81025</v>
+      </c>
+      <c r="P57">
+        <v>3</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>132</v>
+      </c>
+      <c r="R57" t="s">
+        <v>133</v>
+      </c>
+      <c r="S57">
+        <v>0</v>
+      </c>
+      <c r="T57" t="s">
+        <v>175</v>
+      </c>
+      <c r="U57" t="s">
+        <v>229</v>
+      </c>
+      <c r="V57" t="s">
+        <v>252</v>
+      </c>
+      <c r="X57" t="s">
+        <v>175</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>175</v>
+      </c>
+      <c r="Z57">
+        <v>0</v>
+      </c>
+      <c r="AA57">
+        <v>0</v>
+      </c>
+      <c r="AB57">
+        <v>67.19318181818181</v>
+      </c>
+      <c r="AC57">
+        <v>76.37591827364554</v>
+      </c>
+      <c r="AD57">
+        <v>365.866875</v>
+      </c>
+      <c r="AE57">
+        <v>50</v>
+      </c>
+      <c r="AF57">
+        <v>53</v>
+      </c>
+      <c r="AG57">
+        <v>100</v>
+      </c>
+      <c r="AH57">
+        <v>50</v>
+      </c>
+      <c r="AI57">
+        <v>18</v>
+      </c>
+      <c r="AJ57">
+        <v>0</v>
+      </c>
+      <c r="AK57">
+        <v>633.41</v>
+      </c>
+      <c r="AL57">
+        <v>1202.276875</v>
+      </c>
+      <c r="AM57">
+        <v>220.8038337924702</v>
+      </c>
+      <c r="AN57" t="s">
+        <v>328</v>
+      </c>
+      <c r="AO57" t="s">
+        <v>106</v>
+      </c>
+      <c r="AP57" t="s">
+        <v>340</v>
+      </c>
+      <c r="AQ57" t="s">
+        <v>379</v>
+      </c>
+      <c r="AR57" t="s">
+        <v>401</v>
+      </c>
+      <c r="AS57">
+        <v>52500</v>
+      </c>
+      <c r="AT57">
+        <v>2250</v>
+      </c>
+      <c r="AU57">
+        <v>1185</v>
+      </c>
+      <c r="AV57">
+        <v>4031.590909090909</v>
+      </c>
+      <c r="AW57">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="58" spans="1:49">
+      <c r="A58" t="s">
+        <v>49</v>
+      </c>
+      <c r="B58" t="s">
+        <v>53</v>
+      </c>
+      <c r="C58" t="s">
+        <v>56</v>
+      </c>
+      <c r="D58" t="s">
+        <v>58</v>
+      </c>
+      <c r="E58">
+        <v>7201</v>
+      </c>
+      <c r="F58" t="s">
+        <v>78</v>
+      </c>
+      <c r="G58" t="s">
+        <v>108</v>
+      </c>
+      <c r="H58">
+        <v>46809</v>
+      </c>
+      <c r="I58" t="s">
+        <v>124</v>
+      </c>
+      <c r="J58" t="s">
+        <v>130</v>
+      </c>
+      <c r="K58">
+        <v>5</v>
+      </c>
+      <c r="L58">
+        <v>1501</v>
+      </c>
+      <c r="M58">
+        <v>2356.6</v>
+      </c>
+      <c r="N58">
+        <v>9.074999999999999</v>
+      </c>
+      <c r="O58">
+        <v>14.52</v>
+      </c>
+      <c r="P58">
+        <v>5</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>132</v>
+      </c>
+      <c r="R58" t="s">
+        <v>133</v>
+      </c>
+      <c r="S58">
+        <v>0</v>
+      </c>
+      <c r="T58" t="s">
+        <v>174</v>
+      </c>
+      <c r="U58" t="s">
+        <v>228</v>
+      </c>
+      <c r="V58" t="s">
+        <v>251</v>
+      </c>
+      <c r="X58" t="s">
+        <v>174</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>174</v>
+      </c>
+      <c r="Z58">
+        <v>0</v>
+      </c>
+      <c r="AA58">
+        <v>0</v>
+      </c>
+      <c r="AB58">
+        <v>67.19318181818181</v>
+      </c>
+      <c r="AC58">
+        <v>72.70282369146005</v>
+      </c>
+      <c r="AD58">
+        <v>609.7781249999999</v>
+      </c>
+      <c r="AE58">
+        <v>50</v>
+      </c>
+      <c r="AF58">
+        <v>53</v>
+      </c>
+      <c r="AG58">
+        <v>100</v>
+      </c>
+      <c r="AH58">
+        <v>50</v>
+      </c>
+      <c r="AI58">
+        <v>18</v>
+      </c>
+      <c r="AJ58">
+        <v>0</v>
+      </c>
+      <c r="AK58">
+        <v>820.15</v>
+      </c>
+      <c r="AL58">
+        <v>1632.928125</v>
+      </c>
+      <c r="AM58">
+        <v>179.9369834710744</v>
+      </c>
+      <c r="AN58" t="s">
+        <v>328</v>
+      </c>
+      <c r="AO58" t="s">
+        <v>108</v>
+      </c>
+      <c r="AP58" t="s">
+        <v>340</v>
+      </c>
+      <c r="AQ58" t="s">
+        <v>380</v>
+      </c>
+      <c r="AR58" t="s">
+        <v>402</v>
+      </c>
+      <c r="AS58">
+        <v>52500</v>
+      </c>
+      <c r="AT58">
+        <v>2250</v>
+      </c>
+      <c r="AU58">
+        <v>1185</v>
+      </c>
+      <c r="AV58">
+        <v>4031.590909090909</v>
+      </c>
+      <c r="AW58">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="59" spans="1:49">
+      <c r="A59" t="s">
+        <v>49</v>
+      </c>
+      <c r="B59" t="s">
+        <v>53</v>
+      </c>
+      <c r="C59" t="s">
+        <v>56</v>
+      </c>
+      <c r="D59" t="s">
+        <v>58</v>
+      </c>
+      <c r="E59">
+        <v>7201</v>
+      </c>
+      <c r="F59" t="s">
+        <v>76</v>
+      </c>
+      <c r="G59" t="s">
+        <v>106</v>
+      </c>
+      <c r="H59">
+        <v>48917</v>
+      </c>
+      <c r="I59" t="s">
+        <v>124</v>
+      </c>
+      <c r="J59" t="s">
+        <v>129</v>
+      </c>
+      <c r="K59">
+        <v>3</v>
+      </c>
+      <c r="L59">
+        <v>855.5999999999999</v>
+      </c>
+      <c r="M59">
+        <v>2356.6</v>
+      </c>
+      <c r="N59">
+        <v>5.445</v>
+      </c>
+      <c r="O59">
+        <v>14.52</v>
+      </c>
+      <c r="P59">
+        <v>3</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>132</v>
+      </c>
+      <c r="R59" t="s">
+        <v>133</v>
+      </c>
+      <c r="S59">
+        <v>0</v>
+      </c>
+      <c r="T59" t="s">
+        <v>175</v>
+      </c>
+      <c r="U59" t="s">
+        <v>229</v>
+      </c>
+      <c r="V59" t="s">
+        <v>252</v>
+      </c>
+      <c r="X59" t="s">
+        <v>175</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>175</v>
+      </c>
+      <c r="Z59">
+        <v>0</v>
+      </c>
+      <c r="AA59">
+        <v>0</v>
+      </c>
+      <c r="AB59">
+        <v>67.19318181818181</v>
+      </c>
+      <c r="AC59">
+        <v>76.37591827364554</v>
+      </c>
+      <c r="AD59">
+        <v>365.866875</v>
+      </c>
+      <c r="AE59">
+        <v>50</v>
+      </c>
+      <c r="AF59">
+        <v>53</v>
+      </c>
+      <c r="AG59">
+        <v>100</v>
+      </c>
+      <c r="AH59">
+        <v>50</v>
+      </c>
+      <c r="AI59">
+        <v>18</v>
+      </c>
+      <c r="AJ59">
+        <v>0</v>
+      </c>
+      <c r="AK59">
+        <v>633.41</v>
+      </c>
+      <c r="AL59">
+        <v>1202.276875</v>
+      </c>
+      <c r="AM59">
+        <v>220.8038337924702</v>
+      </c>
+      <c r="AN59" t="s">
+        <v>328</v>
+      </c>
+      <c r="AO59" t="s">
+        <v>106</v>
+      </c>
+      <c r="AP59" t="s">
+        <v>340</v>
+      </c>
+      <c r="AQ59" t="s">
+        <v>380</v>
+      </c>
+      <c r="AR59" t="s">
+        <v>402</v>
+      </c>
+      <c r="AS59">
+        <v>52500</v>
+      </c>
+      <c r="AT59">
+        <v>2250</v>
+      </c>
+      <c r="AU59">
+        <v>1185</v>
+      </c>
+      <c r="AV59">
+        <v>4031.590909090909</v>
+      </c>
+      <c r="AW59">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="60" spans="1:49">
+      <c r="A60" t="s">
+        <v>49</v>
+      </c>
+      <c r="B60" t="s">
+        <v>53</v>
+      </c>
+      <c r="C60" t="s">
+        <v>56</v>
+      </c>
+      <c r="D60" t="s">
+        <v>57</v>
+      </c>
+      <c r="E60">
+        <v>29483</v>
+      </c>
+      <c r="F60" t="s">
+        <v>90</v>
+      </c>
+      <c r="G60" t="s">
+        <v>120</v>
+      </c>
+      <c r="H60">
+        <v>38118</v>
+      </c>
+      <c r="I60" t="s">
+        <v>124</v>
+      </c>
+      <c r="J60" t="s">
+        <v>125</v>
+      </c>
+      <c r="K60">
+        <v>4</v>
+      </c>
+      <c r="L60">
+        <v>1501.76</v>
+      </c>
+      <c r="M60">
+        <v>1501.76</v>
+      </c>
+      <c r="N60">
+        <v>7.29</v>
+      </c>
+      <c r="O60">
+        <v>7.29025</v>
+      </c>
+      <c r="P60">
+        <v>4</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>132</v>
+      </c>
+      <c r="R60" t="s">
+        <v>133</v>
+      </c>
+      <c r="S60">
+        <v>0</v>
+      </c>
+      <c r="T60" t="s">
+        <v>173</v>
+      </c>
+      <c r="U60" t="s">
+        <v>227</v>
+      </c>
+      <c r="V60" t="s">
+        <v>250</v>
+      </c>
+      <c r="X60" t="s">
+        <v>173</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>173</v>
+      </c>
+      <c r="Z60">
+        <v>0</v>
+      </c>
+      <c r="AA60">
+        <v>0</v>
+      </c>
+      <c r="AB60">
+        <v>73.57438016528926</v>
+      </c>
+      <c r="AC60">
+        <v>80.43309072770352</v>
+      </c>
+      <c r="AD60">
+        <v>536.3572314049587</v>
+      </c>
+      <c r="AE60">
+        <v>50</v>
+      </c>
+      <c r="AF60">
+        <v>53</v>
+      </c>
+      <c r="AG60">
+        <v>100</v>
+      </c>
+      <c r="AH60">
+        <v>50</v>
+      </c>
+      <c r="AI60">
+        <v>20</v>
+      </c>
+      <c r="AJ60">
+        <v>0</v>
+      </c>
+      <c r="AK60">
+        <v>496.08</v>
+      </c>
+      <c r="AL60">
+        <v>1235.437231404959</v>
+      </c>
+      <c r="AM60">
+        <v>169.4701277647406</v>
+      </c>
+      <c r="AN60" t="s">
+        <v>329</v>
+      </c>
+      <c r="AO60" t="s">
+        <v>120</v>
+      </c>
+      <c r="AP60" t="s">
+        <v>340</v>
+      </c>
+      <c r="AQ60" t="s">
+        <v>381</v>
+      </c>
+      <c r="AR60" t="s">
+        <v>403</v>
+      </c>
+      <c r="AS60">
+        <v>52500</v>
+      </c>
+      <c r="AT60">
+        <v>2250</v>
+      </c>
+      <c r="AU60">
+        <v>1200</v>
+      </c>
+      <c r="AV60">
+        <v>4046.590909090909</v>
+      </c>
+      <c r="AW60">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="61" spans="1:49">
+      <c r="A61" t="s">
+        <v>49</v>
+      </c>
+      <c r="B61" t="s">
+        <v>51</v>
+      </c>
+      <c r="C61" t="s">
+        <v>56</v>
+      </c>
+      <c r="D61" t="s">
+        <v>58</v>
+      </c>
+      <c r="E61">
+        <v>7201</v>
+      </c>
+      <c r="F61" t="s">
+        <v>91</v>
+      </c>
+      <c r="G61" t="s">
+        <v>121</v>
+      </c>
+      <c r="H61">
+        <v>18031</v>
+      </c>
+      <c r="I61" t="s">
+        <v>124</v>
+      </c>
+      <c r="J61" t="s">
+        <v>125</v>
+      </c>
+      <c r="K61">
+        <v>9</v>
+      </c>
+      <c r="L61">
+        <v>90</v>
+      </c>
+      <c r="M61">
+        <v>240</v>
+      </c>
+      <c r="N61">
+        <v>1</v>
+      </c>
+      <c r="O61">
+        <v>1.9269</v>
+      </c>
+      <c r="P61">
+        <v>1</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>132</v>
+      </c>
+      <c r="R61" t="s">
+        <v>133</v>
+      </c>
+      <c r="S61">
+        <v>0</v>
+      </c>
+      <c r="T61" t="s">
+        <v>176</v>
+      </c>
+      <c r="U61" t="s">
+        <v>230</v>
+      </c>
+      <c r="V61" t="s">
+        <v>253</v>
+      </c>
+      <c r="X61" t="s">
+        <v>176</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>176</v>
+      </c>
+      <c r="Z61">
+        <v>0</v>
+      </c>
+      <c r="AA61">
+        <v>0</v>
+      </c>
+      <c r="AB61">
+        <v>67.19318181818181</v>
+      </c>
+      <c r="AC61">
+        <v>117.1931818181818</v>
+      </c>
+      <c r="AD61">
+        <v>67.19318181818181</v>
+      </c>
+      <c r="AE61">
+        <v>50</v>
+      </c>
+      <c r="AF61">
+        <v>0</v>
+      </c>
+      <c r="AG61">
+        <v>100</v>
+      </c>
+      <c r="AH61">
+        <v>50</v>
+      </c>
+      <c r="AI61">
+        <v>18</v>
+      </c>
+      <c r="AJ61">
+        <v>18</v>
+      </c>
+      <c r="AK61">
+        <v>227.44</v>
+      </c>
+      <c r="AL61">
+        <v>462.6331818181818</v>
+      </c>
+      <c r="AM61">
+        <v>462.6331818181818</v>
+      </c>
+      <c r="AN61" t="s">
+        <v>330</v>
+      </c>
+      <c r="AO61" t="s">
+        <v>121</v>
+      </c>
+      <c r="AP61" t="s">
+        <v>340</v>
+      </c>
+      <c r="AQ61" t="s">
+        <v>382</v>
+      </c>
+      <c r="AR61" t="s">
+        <v>404</v>
+      </c>
+      <c r="AS61">
+        <v>52500</v>
+      </c>
+      <c r="AT61">
+        <v>2250</v>
+      </c>
+      <c r="AU61">
+        <v>1185</v>
+      </c>
+      <c r="AV61">
+        <v>4031.590909090909</v>
+      </c>
+      <c r="AW61">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:49">
+      <c r="A62" t="s">
+        <v>50</v>
+      </c>
+      <c r="B62" t="s">
+        <v>55</v>
+      </c>
+      <c r="C62" t="s">
+        <v>56</v>
+      </c>
+      <c r="D62" t="s">
+        <v>58</v>
+      </c>
+      <c r="E62">
+        <v>7201</v>
+      </c>
+      <c r="F62" t="s">
+        <v>85</v>
+      </c>
+      <c r="G62" t="s">
+        <v>115</v>
+      </c>
+      <c r="H62">
+        <v>18447</v>
+      </c>
+      <c r="I62" t="s">
+        <v>124</v>
+      </c>
+      <c r="J62" t="s">
+        <v>125</v>
+      </c>
+      <c r="K62">
+        <v>60</v>
+      </c>
+      <c r="L62">
+        <v>512.4</v>
+      </c>
+      <c r="M62">
+        <v>512.4</v>
+      </c>
+      <c r="N62">
+        <v>5.011</v>
+      </c>
+      <c r="O62">
+        <v>5.0106</v>
+      </c>
+      <c r="P62">
+        <v>3</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>132</v>
+      </c>
+      <c r="R62" t="s">
+        <v>133</v>
+      </c>
+      <c r="S62">
+        <v>0</v>
+      </c>
+      <c r="T62" t="s">
+        <v>177</v>
+      </c>
+      <c r="U62" t="s">
+        <v>231</v>
+      </c>
+      <c r="V62" t="s">
+        <v>254</v>
+      </c>
+      <c r="X62" t="s">
+        <v>177</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>177</v>
+      </c>
+      <c r="Z62">
+        <v>10000</v>
+      </c>
+      <c r="AA62">
+        <v>113.6363636363636</v>
+      </c>
+      <c r="AB62">
+        <v>67.19318181818181</v>
+      </c>
+      <c r="AC62">
+        <v>77.17123011193556</v>
+      </c>
+      <c r="AD62">
+        <v>336.7050340909091</v>
+      </c>
+      <c r="AE62">
+        <v>50</v>
+      </c>
+      <c r="AF62">
+        <v>53</v>
+      </c>
+      <c r="AG62">
+        <v>100</v>
+      </c>
+      <c r="AH62">
+        <v>50</v>
+      </c>
+      <c r="AI62">
+        <v>18</v>
+      </c>
+      <c r="AJ62">
+        <v>54</v>
+      </c>
+      <c r="AK62">
+        <v>322.62</v>
+      </c>
+      <c r="AL62">
+        <v>1029.961397727273</v>
+      </c>
+      <c r="AM62">
+        <v>205.5400913444966</v>
+      </c>
+      <c r="AN62" t="s">
+        <v>331</v>
+      </c>
+      <c r="AO62" t="s">
+        <v>115</v>
+      </c>
+      <c r="AP62" t="s">
+        <v>340</v>
+      </c>
+      <c r="AQ62" t="s">
+        <v>383</v>
+      </c>
+      <c r="AR62" t="s">
+        <v>405</v>
+      </c>
+      <c r="AS62">
+        <v>52500</v>
+      </c>
+      <c r="AT62">
+        <v>2250</v>
+      </c>
+      <c r="AU62">
+        <v>1185</v>
+      </c>
+      <c r="AV62">
+        <v>4031.590909090909</v>
+      </c>
+      <c r="AW62">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="63" spans="1:49">
+      <c r="A63" t="s">
+        <v>50</v>
+      </c>
+      <c r="B63" t="s">
+        <v>55</v>
+      </c>
+      <c r="C63" t="s">
+        <v>56</v>
+      </c>
+      <c r="D63" t="s">
+        <v>58</v>
+      </c>
+      <c r="E63">
+        <v>7201</v>
+      </c>
+      <c r="F63" t="s">
+        <v>80</v>
+      </c>
+      <c r="G63" t="s">
+        <v>110</v>
+      </c>
+      <c r="H63">
+        <v>15672</v>
+      </c>
+      <c r="I63" t="s">
+        <v>124</v>
+      </c>
+      <c r="J63" t="s">
+        <v>125</v>
+      </c>
+      <c r="K63">
+        <v>60</v>
+      </c>
+      <c r="L63">
+        <v>512.4</v>
+      </c>
+      <c r="M63">
+        <v>512.4</v>
+      </c>
+      <c r="N63">
+        <v>5.011</v>
+      </c>
+      <c r="O63">
+        <v>5.0106</v>
+      </c>
+      <c r="P63">
+        <v>3</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>132</v>
+      </c>
+      <c r="R63" t="s">
+        <v>133</v>
+      </c>
+      <c r="S63">
+        <v>0</v>
+      </c>
+      <c r="T63" t="s">
+        <v>178</v>
+      </c>
+      <c r="U63" t="s">
+        <v>220</v>
+      </c>
+      <c r="V63" t="s">
+        <v>243</v>
+      </c>
+      <c r="X63" t="s">
+        <v>178</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>178</v>
+      </c>
+      <c r="Z63">
+        <v>10000</v>
+      </c>
+      <c r="AA63">
+        <v>113.6363636363636</v>
+      </c>
+      <c r="AB63">
+        <v>67.19318181818181</v>
+      </c>
+      <c r="AC63">
+        <v>77.17123011193556</v>
+      </c>
+      <c r="AD63">
+        <v>336.7050340909091</v>
+      </c>
+      <c r="AE63">
+        <v>50</v>
+      </c>
+      <c r="AF63">
+        <v>53</v>
+      </c>
+      <c r="AG63">
+        <v>100</v>
+      </c>
+      <c r="AH63">
+        <v>50</v>
+      </c>
+      <c r="AI63">
+        <v>18</v>
+      </c>
+      <c r="AJ63">
+        <v>54</v>
+      </c>
+      <c r="AK63">
+        <v>291</v>
+      </c>
+      <c r="AL63">
+        <v>998.3413977272727</v>
+      </c>
+      <c r="AM63">
+        <v>199.2299736035268</v>
+      </c>
+      <c r="AN63" t="s">
+        <v>332</v>
+      </c>
+      <c r="AO63" t="s">
+        <v>110</v>
+      </c>
+      <c r="AP63" t="s">
+        <v>340</v>
+      </c>
+      <c r="AQ63" t="s">
+        <v>384</v>
+      </c>
+      <c r="AR63" t="s">
+        <v>406</v>
+      </c>
+      <c r="AS63">
+        <v>52500</v>
+      </c>
+      <c r="AT63">
+        <v>2250</v>
+      </c>
+      <c r="AU63">
+        <v>1185</v>
+      </c>
+      <c r="AV63">
+        <v>4031.590909090909</v>
+      </c>
+      <c r="AW63">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="64" spans="1:49">
+      <c r="A64" t="s">
+        <v>49</v>
+      </c>
+      <c r="B64" t="s">
+        <v>51</v>
+      </c>
+      <c r="C64" t="s">
+        <v>56</v>
+      </c>
+      <c r="D64" t="s">
+        <v>58</v>
+      </c>
+      <c r="E64">
+        <v>7201</v>
+      </c>
+      <c r="F64" t="s">
+        <v>91</v>
+      </c>
+      <c r="G64" t="s">
+        <v>121</v>
+      </c>
+      <c r="H64">
+        <v>18031</v>
+      </c>
+      <c r="I64" t="s">
+        <v>124</v>
+      </c>
+      <c r="J64" t="s">
+        <v>125</v>
+      </c>
+      <c r="K64">
+        <v>9</v>
+      </c>
+      <c r="L64">
+        <v>90</v>
+      </c>
+      <c r="M64">
+        <v>240</v>
+      </c>
+      <c r="N64">
+        <v>1</v>
+      </c>
+      <c r="O64">
+        <v>1.9269</v>
+      </c>
+      <c r="P64">
+        <v>1</v>
+      </c>
+      <c r="Q64" t="s">
+        <v>132</v>
+      </c>
+      <c r="R64" t="s">
+        <v>133</v>
+      </c>
+      <c r="S64">
+        <v>0</v>
+      </c>
+      <c r="T64" t="s">
+        <v>179</v>
+      </c>
+      <c r="U64" t="s">
+        <v>232</v>
+      </c>
+      <c r="V64" t="s">
+        <v>255</v>
+      </c>
+      <c r="X64" t="s">
+        <v>179</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>179</v>
+      </c>
+      <c r="Z64">
+        <v>0</v>
+      </c>
+      <c r="AA64">
+        <v>0</v>
+      </c>
+      <c r="AB64">
+        <v>67.19318181818181</v>
+      </c>
+      <c r="AC64">
+        <v>117.1931818181818</v>
+      </c>
+      <c r="AD64">
+        <v>67.19318181818181</v>
+      </c>
+      <c r="AE64">
+        <v>50</v>
+      </c>
+      <c r="AF64">
+        <v>53</v>
+      </c>
+      <c r="AG64">
+        <v>100</v>
+      </c>
+      <c r="AH64">
+        <v>50</v>
+      </c>
+      <c r="AI64">
+        <v>18</v>
+      </c>
+      <c r="AJ64">
+        <v>18</v>
+      </c>
+      <c r="AK64">
+        <v>227.44</v>
+      </c>
+      <c r="AL64">
+        <v>515.6331818181818</v>
+      </c>
+      <c r="AM64">
+        <v>515.6331818181818</v>
+      </c>
+      <c r="AN64" t="s">
+        <v>333</v>
+      </c>
+      <c r="AO64" t="s">
+        <v>121</v>
+      </c>
+      <c r="AP64" t="s">
+        <v>340</v>
+      </c>
+      <c r="AQ64" t="s">
+        <v>385</v>
+      </c>
+      <c r="AR64" t="s">
+        <v>407</v>
+      </c>
+      <c r="AS64">
+        <v>52500</v>
+      </c>
+      <c r="AT64">
+        <v>2250</v>
+      </c>
+      <c r="AU64">
+        <v>1185</v>
+      </c>
+      <c r="AV64">
+        <v>4031.590909090909</v>
+      </c>
+      <c r="AW64">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="65" spans="1:49">
+      <c r="A65" t="s">
+        <v>49</v>
+      </c>
+      <c r="B65" t="s">
+        <v>53</v>
+      </c>
+      <c r="C65" t="s">
+        <v>56</v>
+      </c>
+      <c r="D65" t="s">
+        <v>58</v>
+      </c>
+      <c r="E65">
+        <v>7201</v>
+      </c>
+      <c r="F65" t="s">
+        <v>91</v>
+      </c>
+      <c r="G65" t="s">
+        <v>121</v>
+      </c>
+      <c r="H65">
+        <v>18031</v>
+      </c>
+      <c r="I65" t="s">
+        <v>124</v>
+      </c>
+      <c r="J65" t="s">
+        <v>125</v>
+      </c>
+      <c r="K65">
+        <v>59</v>
+      </c>
+      <c r="L65">
+        <v>725.7</v>
+      </c>
+      <c r="M65">
+        <v>725.7</v>
+      </c>
+      <c r="N65">
+        <v>4.271</v>
+      </c>
+      <c r="O65">
+        <v>4.27061</v>
+      </c>
+      <c r="P65">
+        <v>3</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>132</v>
+      </c>
+      <c r="R65" t="s">
+        <v>133</v>
+      </c>
+      <c r="S65">
+        <v>0</v>
+      </c>
+      <c r="T65" t="s">
+        <v>179</v>
+      </c>
+      <c r="U65" t="s">
+        <v>232</v>
+      </c>
+      <c r="V65" t="s">
+        <v>255</v>
+      </c>
+      <c r="X65" t="s">
+        <v>179</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>179</v>
+      </c>
+      <c r="Z65">
+        <v>0</v>
+      </c>
+      <c r="AA65">
+        <v>0</v>
+      </c>
+      <c r="AB65">
+        <v>67.19318181818181</v>
+      </c>
+      <c r="AC65">
+        <v>78.90004203827078</v>
+      </c>
+      <c r="AD65">
+        <v>286.9820795454545</v>
+      </c>
+      <c r="AE65">
+        <v>50</v>
+      </c>
+      <c r="AF65">
+        <v>0</v>
+      </c>
+      <c r="AG65">
+        <v>100</v>
+      </c>
+      <c r="AH65">
+        <v>50</v>
+      </c>
+      <c r="AI65">
+        <v>18</v>
+      </c>
+      <c r="AJ65">
+        <v>54</v>
+      </c>
+      <c r="AK65">
+        <v>227.44</v>
+      </c>
+      <c r="AL65">
+        <v>718.4220795454545</v>
+      </c>
+      <c r="AM65">
+        <v>168.2093372852855</v>
+      </c>
+      <c r="AN65" t="s">
+        <v>334</v>
+      </c>
+      <c r="AO65" t="s">
+        <v>121</v>
+      </c>
+      <c r="AP65" t="s">
+        <v>340</v>
+      </c>
+      <c r="AQ65" t="s">
+        <v>386</v>
+      </c>
+      <c r="AR65" t="s">
+        <v>408</v>
+      </c>
+      <c r="AS65">
+        <v>52500</v>
+      </c>
+      <c r="AT65">
+        <v>2250</v>
+      </c>
+      <c r="AU65">
+        <v>1185</v>
+      </c>
+      <c r="AV65">
+        <v>4031.590909090909</v>
+      </c>
+      <c r="AW65">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="66" spans="1:49">
+      <c r="A66" t="s">
+        <v>49</v>
+      </c>
+      <c r="B66" t="s">
+        <v>53</v>
+      </c>
+      <c r="C66" t="s">
+        <v>56</v>
+      </c>
+      <c r="D66" t="s">
+        <v>57</v>
+      </c>
+      <c r="E66">
+        <v>29483</v>
+      </c>
+      <c r="F66" t="s">
+        <v>63</v>
+      </c>
+      <c r="G66" t="s">
+        <v>93</v>
+      </c>
+      <c r="H66">
+        <v>28303</v>
+      </c>
+      <c r="I66" t="s">
+        <v>124</v>
+      </c>
+      <c r="J66" t="s">
+        <v>125</v>
+      </c>
+      <c r="K66">
+        <v>40</v>
+      </c>
+      <c r="L66">
+        <v>495.6</v>
+      </c>
+      <c r="M66">
+        <v>495.6</v>
+      </c>
+      <c r="N66">
+        <v>1.361</v>
+      </c>
+      <c r="O66">
+        <v>1.3608</v>
+      </c>
+      <c r="P66">
+        <v>1</v>
+      </c>
+      <c r="Q66" t="s">
+        <v>132</v>
+      </c>
+      <c r="R66" t="s">
+        <v>133</v>
+      </c>
+      <c r="S66">
+        <v>0</v>
+      </c>
+      <c r="T66" t="s">
+        <v>180</v>
+      </c>
+      <c r="U66" t="s">
+        <v>233</v>
+      </c>
+      <c r="V66" t="s">
+        <v>256</v>
+      </c>
+      <c r="X66" t="s">
+        <v>180</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>180</v>
+      </c>
+      <c r="Z66">
+        <v>0</v>
+      </c>
+      <c r="AA66">
+        <v>0</v>
+      </c>
+      <c r="AB66">
+        <v>73.57438016528926</v>
+      </c>
+      <c r="AC66">
+        <v>110.3120730381768</v>
+      </c>
+      <c r="AD66">
+        <v>100.1347314049587</v>
+      </c>
+      <c r="AE66">
+        <v>50</v>
+      </c>
+      <c r="AF66">
+        <v>53</v>
+      </c>
+      <c r="AG66">
+        <v>100</v>
+      </c>
+      <c r="AH66">
+        <v>50</v>
+      </c>
+      <c r="AI66">
+        <v>20</v>
+      </c>
+      <c r="AJ66">
+        <v>20</v>
+      </c>
+      <c r="AK66">
+        <v>226.67</v>
+      </c>
+      <c r="AL66">
+        <v>549.8047314049586</v>
+      </c>
+      <c r="AM66">
+        <v>403.9711472483164</v>
+      </c>
+      <c r="AN66" t="s">
+        <v>335</v>
+      </c>
+      <c r="AO66" t="s">
+        <v>93</v>
+      </c>
+      <c r="AP66" t="s">
+        <v>340</v>
+      </c>
+      <c r="AQ66" t="s">
+        <v>387</v>
+      </c>
+      <c r="AR66" t="s">
+        <v>409</v>
+      </c>
+      <c r="AS66">
+        <v>52500</v>
+      </c>
+      <c r="AT66">
+        <v>2250</v>
+      </c>
+      <c r="AU66">
+        <v>1200</v>
+      </c>
+      <c r="AV66">
+        <v>4046.590909090909</v>
+      </c>
+      <c r="AW66">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="67" spans="1:49">
+      <c r="A67" t="s">
+        <v>49</v>
+      </c>
+      <c r="B67" t="s">
+        <v>53</v>
+      </c>
+      <c r="C67" t="s">
+        <v>56</v>
+      </c>
+      <c r="D67" t="s">
+        <v>58</v>
+      </c>
+      <c r="E67">
+        <v>7201</v>
+      </c>
+      <c r="F67" t="s">
+        <v>91</v>
+      </c>
+      <c r="G67" t="s">
+        <v>121</v>
+      </c>
+      <c r="H67">
+        <v>18031</v>
+      </c>
+      <c r="I67" t="s">
+        <v>124</v>
+      </c>
+      <c r="J67" t="s">
+        <v>125</v>
+      </c>
+      <c r="K67">
+        <v>12</v>
+      </c>
+      <c r="L67">
+        <v>226.08</v>
+      </c>
+      <c r="M67">
+        <v>226.08</v>
+      </c>
+      <c r="N67">
+        <v>1.066</v>
+      </c>
+      <c r="O67">
+        <v>1.06608</v>
+      </c>
+      <c r="P67">
+        <v>1</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>132</v>
+      </c>
+      <c r="R67" t="s">
+        <v>133</v>
+      </c>
+      <c r="S67">
+        <v>0</v>
+      </c>
+      <c r="T67" t="s">
+        <v>181</v>
+      </c>
+      <c r="U67" t="s">
+        <v>234</v>
+      </c>
+      <c r="V67" t="s">
+        <v>257</v>
+      </c>
+      <c r="X67" t="s">
+        <v>181</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>181</v>
+      </c>
+      <c r="Z67">
+        <v>0</v>
+      </c>
+      <c r="AA67">
+        <v>0</v>
+      </c>
+      <c r="AB67">
+        <v>67.19318181818181</v>
+      </c>
+      <c r="AC67">
+        <v>114.0974970151799</v>
+      </c>
+      <c r="AD67">
+        <v>71.62793181818182</v>
+      </c>
+      <c r="AE67">
+        <v>50</v>
+      </c>
+      <c r="AF67">
+        <v>53</v>
+      </c>
+      <c r="AG67">
+        <v>100</v>
+      </c>
+      <c r="AH67">
+        <v>50</v>
+      </c>
+      <c r="AI67">
+        <v>18</v>
+      </c>
+      <c r="AJ67">
+        <v>18</v>
+      </c>
+      <c r="AK67">
+        <v>227.44</v>
+      </c>
+      <c r="AL67">
+        <v>520.0679318181818</v>
+      </c>
+      <c r="AM67">
+        <v>487.8686039570186</v>
+      </c>
+      <c r="AN67" t="s">
+        <v>336</v>
+      </c>
+      <c r="AO67" t="s">
+        <v>121</v>
+      </c>
+      <c r="AP67" t="s">
+        <v>340</v>
+      </c>
+      <c r="AQ67" t="s">
+        <v>388</v>
+      </c>
+      <c r="AR67" t="s">
+        <v>410</v>
+      </c>
+      <c r="AS67">
+        <v>52500</v>
+      </c>
+      <c r="AT67">
+        <v>2250</v>
+      </c>
+      <c r="AU67">
+        <v>1185</v>
+      </c>
+      <c r="AV67">
+        <v>4031.590909090909</v>
+      </c>
+      <c r="AW67">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="68" spans="1:49">
+      <c r="A68" t="s">
+        <v>49</v>
+      </c>
+      <c r="B68" t="s">
+        <v>53</v>
+      </c>
+      <c r="C68" t="s">
+        <v>56</v>
+      </c>
+      <c r="D68" t="s">
+        <v>58</v>
+      </c>
+      <c r="E68">
+        <v>7201</v>
+      </c>
+      <c r="F68" t="s">
+        <v>92</v>
+      </c>
+      <c r="G68" t="s">
+        <v>122</v>
+      </c>
+      <c r="H68">
+        <v>8518</v>
+      </c>
+      <c r="I68" t="s">
+        <v>124</v>
+      </c>
+      <c r="J68" t="s">
+        <v>128</v>
+      </c>
+      <c r="K68">
+        <v>50</v>
+      </c>
+      <c r="L68">
+        <v>1000</v>
+      </c>
+      <c r="M68">
+        <v>1000</v>
+      </c>
+      <c r="N68">
+        <v>1.724</v>
+      </c>
+      <c r="O68">
+        <v>1.724</v>
+      </c>
+      <c r="P68">
+        <v>1</v>
+      </c>
+      <c r="Q68" t="s">
+        <v>132</v>
+      </c>
+      <c r="R68" t="s">
+        <v>133</v>
+      </c>
+      <c r="S68">
+        <v>0</v>
+      </c>
+      <c r="T68" t="s">
+        <v>170</v>
+      </c>
+      <c r="U68" t="s">
+        <v>235</v>
+      </c>
+      <c r="V68" t="s">
+        <v>258</v>
+      </c>
+      <c r="X68" t="s">
+        <v>170</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>170</v>
+      </c>
+      <c r="Z68">
+        <v>0</v>
+      </c>
+      <c r="AA68">
+        <v>0</v>
+      </c>
+      <c r="AB68">
+        <v>67.19318181818181</v>
+      </c>
+      <c r="AC68">
+        <v>96.19550200379666</v>
+      </c>
+      <c r="AD68">
+        <v>115.8410454545454</v>
+      </c>
+      <c r="AE68">
+        <v>50</v>
+      </c>
+      <c r="AF68">
+        <v>53</v>
+      </c>
+      <c r="AG68">
+        <v>100</v>
+      </c>
+      <c r="AH68">
+        <v>50</v>
+      </c>
+      <c r="AI68">
+        <v>18</v>
+      </c>
+      <c r="AJ68">
+        <v>18</v>
+      </c>
+      <c r="AK68">
+        <v>97</v>
+      </c>
+      <c r="AL68">
+        <v>433.8410454545455</v>
+      </c>
+      <c r="AM68">
+        <v>251.6479381986923</v>
+      </c>
+      <c r="AN68" t="s">
+        <v>337</v>
+      </c>
+      <c r="AO68" t="s">
+        <v>122</v>
+      </c>
+      <c r="AP68" t="s">
+        <v>340</v>
+      </c>
+      <c r="AQ68" t="s">
+        <v>389</v>
+      </c>
+      <c r="AR68" t="s">
+        <v>411</v>
+      </c>
+      <c r="AS68">
+        <v>52500</v>
+      </c>
+      <c r="AT68">
+        <v>2250</v>
+      </c>
+      <c r="AU68">
+        <v>1185</v>
+      </c>
+      <c r="AV68">
+        <v>4031.590909090909</v>
+      </c>
+      <c r="AW68">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="69" spans="1:49">
+      <c r="A69" t="s">
+        <v>49</v>
+      </c>
+      <c r="B69" t="s">
+        <v>53</v>
+      </c>
+      <c r="C69" t="s">
+        <v>56</v>
+      </c>
+      <c r="D69" t="s">
+        <v>57</v>
+      </c>
+      <c r="E69">
+        <v>29483</v>
+      </c>
+      <c r="F69" t="s">
+        <v>63</v>
+      </c>
+      <c r="G69" t="s">
+        <v>93</v>
+      </c>
+      <c r="H69">
+        <v>28303</v>
+      </c>
+      <c r="I69" t="s">
+        <v>124</v>
+      </c>
+      <c r="J69" t="s">
+        <v>125</v>
+      </c>
+      <c r="K69">
+        <v>30</v>
+      </c>
+      <c r="L69">
+        <v>371.7</v>
+      </c>
+      <c r="M69">
+        <v>371.7</v>
+      </c>
+      <c r="N69">
+        <v>1.531</v>
+      </c>
+      <c r="O69">
+        <v>1.5309</v>
+      </c>
+      <c r="P69">
+        <v>1</v>
+      </c>
+      <c r="Q69" t="s">
+        <v>132</v>
+      </c>
+      <c r="R69" t="s">
+        <v>133</v>
+      </c>
+      <c r="S69">
+        <v>0</v>
+      </c>
+      <c r="T69" t="s">
+        <v>182</v>
+      </c>
+      <c r="U69" t="s">
+        <v>236</v>
+      </c>
+      <c r="V69" t="s">
+        <v>259</v>
+      </c>
+      <c r="X69" t="s">
+        <v>182</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>182</v>
+      </c>
+      <c r="Z69">
+        <v>0</v>
+      </c>
+      <c r="AA69">
+        <v>0</v>
+      </c>
+      <c r="AB69">
+        <v>73.57438016528926</v>
+      </c>
+      <c r="AC69">
+        <v>106.2327733723435</v>
+      </c>
+      <c r="AD69">
+        <v>112.6423760330578</v>
+      </c>
+      <c r="AE69">
+        <v>50</v>
+      </c>
+      <c r="AF69">
+        <v>53</v>
+      </c>
+      <c r="AG69">
+        <v>100</v>
+      </c>
+      <c r="AH69">
+        <v>50</v>
+      </c>
+      <c r="AI69">
+        <v>20</v>
+      </c>
+      <c r="AJ69">
+        <v>20</v>
+      </c>
+      <c r="AK69">
+        <v>228.17</v>
+      </c>
+      <c r="AL69">
+        <v>563.8123760330578</v>
+      </c>
+      <c r="AM69">
+        <v>368.2641254298222</v>
+      </c>
+      <c r="AN69" t="s">
+        <v>338</v>
+      </c>
+      <c r="AO69" t="s">
+        <v>93</v>
+      </c>
+      <c r="AP69" t="s">
+        <v>340</v>
+      </c>
+      <c r="AQ69" t="s">
+        <v>390</v>
+      </c>
+      <c r="AR69" t="s">
+        <v>412</v>
+      </c>
+      <c r="AS69">
+        <v>52500</v>
+      </c>
+      <c r="AT69">
+        <v>2250</v>
+      </c>
+      <c r="AU69">
+        <v>1200</v>
+      </c>
+      <c r="AV69">
+        <v>4046.590909090909</v>
+      </c>
+      <c r="AW69">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="70" spans="1:49">
+      <c r="A70" t="s">
+        <v>49</v>
+      </c>
+      <c r="B70" t="s">
+        <v>51</v>
+      </c>
+      <c r="C70" t="s">
+        <v>56</v>
+      </c>
+      <c r="D70" t="s">
+        <v>58</v>
+      </c>
+      <c r="E70" t="s">
+        <v>62</v>
+      </c>
+      <c r="F70" t="s">
+        <v>80</v>
+      </c>
+      <c r="G70" t="s">
+        <v>110</v>
+      </c>
+      <c r="H70" t="s">
+        <v>123</v>
+      </c>
+      <c r="I70" t="s">
+        <v>124</v>
+      </c>
+      <c r="J70" t="s">
+        <v>125</v>
+      </c>
+      <c r="K70">
+        <v>45</v>
+      </c>
+      <c r="L70">
+        <v>900</v>
+      </c>
+      <c r="M70">
+        <v>900</v>
+      </c>
+      <c r="N70">
+        <v>2.31525</v>
+      </c>
+      <c r="O70">
+        <v>2.31525</v>
+      </c>
+      <c r="P70">
+        <v>2</v>
+      </c>
+      <c r="Q70" t="s">
+        <v>132</v>
+      </c>
+      <c r="R70" t="s">
+        <v>133</v>
+      </c>
+      <c r="S70">
+        <v>0</v>
+      </c>
+      <c r="T70" t="s">
+        <v>183</v>
+      </c>
+      <c r="U70" t="s">
+        <v>220</v>
+      </c>
+      <c r="V70" t="s">
+        <v>243</v>
+      </c>
+      <c r="X70" t="s">
+        <v>183</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>183</v>
+      </c>
+      <c r="Z70">
+        <v>0</v>
+      </c>
+      <c r="AA70">
+        <v>0</v>
+      </c>
+      <c r="AB70">
+        <v>67.19318181818181</v>
+      </c>
+      <c r="AC70">
+        <v>88.78912178146871</v>
+      </c>
+      <c r="AD70">
+        <v>155.5690142045455</v>
+      </c>
+      <c r="AE70">
+        <v>50</v>
+      </c>
+      <c r="AF70">
+        <v>53</v>
+      </c>
+      <c r="AG70">
+        <v>100</v>
+      </c>
+      <c r="AH70">
+        <v>50</v>
+      </c>
+      <c r="AI70">
+        <v>18</v>
+      </c>
+      <c r="AJ70">
+        <v>36</v>
+      </c>
+      <c r="AK70">
+        <v>255.6</v>
+      </c>
+      <c r="AL70">
+        <v>650.1690142045454</v>
+      </c>
+      <c r="AM70">
+        <v>280.8202199350158</v>
+      </c>
+      <c r="AN70" t="s">
+        <v>339</v>
+      </c>
+      <c r="AO70" t="s">
+        <v>110</v>
+      </c>
+      <c r="AP70" t="s">
+        <v>340</v>
+      </c>
+      <c r="AQ70" t="s">
+        <v>391</v>
+      </c>
+      <c r="AR70" t="s">
+        <v>413</v>
+      </c>
+      <c r="AS70">
+        <v>52500</v>
+      </c>
+      <c r="AT70">
+        <v>2250</v>
+      </c>
+      <c r="AU70">
+        <v>1185</v>
+      </c>
+      <c r="AV70">
+        <v>4031.590909090909</v>
+      </c>
+      <c r="AW70">
         <v>60</v>
       </c>
     </row>

--- a/Logs/quotations.xlsx
+++ b/Logs/quotations.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1383" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1465" uniqueCount="435">
   <si>
     <t>Shipment Scope</t>
   </si>
@@ -202,7 +202,7 @@
     <t>Chicago</t>
   </si>
   <si>
-    <t>07201</t>
+    <t>90220</t>
   </si>
   <si>
     <t>RDU4</t>
@@ -295,6 +295,12 @@
     <t>ABE8</t>
   </si>
   <si>
+    <t>BFI3</t>
+  </si>
+  <si>
+    <t>DEN8</t>
+  </si>
+  <si>
     <t>RDU4 28303, Terry Sanford, Fayetteville, North Carolina, United States</t>
   </si>
   <si>
@@ -385,7 +391,16 @@
     <t>ABE8 08518, Florence, Florence, New Jersey, United States</t>
   </si>
   <si>
-    <t>15672</t>
+    <t>BFI3 98327, DuPont, DuPont, Washington, United States</t>
+  </si>
+  <si>
+    <t>DEN8 80018, Aurora, Aurora, Colorado, United States</t>
+  </si>
+  <si>
+    <t>98327</t>
+  </si>
+  <si>
+    <t>80018</t>
   </si>
   <si>
     <t>Agraga</t>
@@ -568,6 +583,15 @@
     <t>{'Rate Type': 'LTL', 'Rate': 255.6, 'Carrier Name': '', 'Service Provider': 'AmznFrgt', 'Source': 'No API STATIC DATA', 'Date': '28-08-2025'}</t>
   </si>
   <si>
+    <t>{'Rate Type': 'LTL', 'Rate': 227.44, 'Carrier Name': 'Estes Express', 'Service Provider': 'Ex-Freight', 'Source': 'API', 'Date': '18-09-2025'}</t>
+  </si>
+  <si>
+    <t>{'Rate Type': 'LTL', 'Rate': 551.83, 'Carrier Name': 'Estes Express', 'Service Provider': 'Ex-Freight', 'Source': 'API', 'Date': '18-09-2025'}</t>
+  </si>
+  <si>
+    <t>{'Rate Type': 'LTL', 'Rate': 594.06, 'Carrier Name': 'Estes Express Lines', 'Service Provider': 'HeyPrimo', 'Source': 'API STATIC DATA', 'Date': Timestamp('2025-08-28 00:00:00')}</t>
+  </si>
+  <si>
     <t>{'Rate': 1358.2649999999999, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt'}</t>
   </si>
   <si>
@@ -727,6 +751,15 @@
     <t>{'Rate Type': 'FTL', 'Rate': 1184.2649999999999, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt', 'Source': 'API', 'Date': '12-09-2025'}</t>
   </si>
   <si>
+    <t>{'Rate Type': 'FTL', 'Rate': 836.3700000000001, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt', 'Source': 'API', 'Date': '18-09-2025'}</t>
+  </si>
+  <si>
+    <t>{'Rate Type': 'FTL', 'Rate': 5177.295, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt', 'Source': 'API', 'Date': '18-09-2025'}</t>
+  </si>
+  <si>
+    <t>{'Rate Type': 'FTL', 'Rate': 5941.35, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt', 'Source': 'API', 'Date': '18-09-2025'}</t>
+  </si>
+  <si>
     <t>{'Rate': 372.0, 'Carrier Name': '', 'Service Provider': 'NTG'}</t>
   </si>
   <si>
@@ -796,6 +829,15 @@
     <t>{'Rate Type': 'FTL53', 'Rate': 0, 'Carrier Name': 'Jb Hunt API Failed :No valid rates returned', 'Service Provider': 'J.B. Hunt', 'Source': 'API', 'Date': '12-09-2025'}</t>
   </si>
   <si>
+    <t>{'Rate Type': 'FTL53', 'Rate': 836.3700000000001, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt', 'Source': 'API', 'Date': '18-09-2025'}</t>
+  </si>
+  <si>
+    <t>{'Rate Type': 'FTL53', 'Rate': 5177.295, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt', 'Source': 'API', 'Date': '18-09-2025'}</t>
+  </si>
+  <si>
+    <t>{'Rate Type': 'FTL53', 'Rate': 5941.35, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt', 'Source': 'API', 'Date': '18-09-2025'}</t>
+  </si>
+  <si>
     <t>{'Rate Type': 'LTL', 'Rate': 546.16, 'Carrier Name': 'Estes Express Lines', 'Service Provider': 'Ex-Freight'}</t>
   </si>
   <si>
@@ -1036,6 +1078,9 @@
     <t>CMM0868LCL0007</t>
   </si>
   <si>
+    <t>CMM0937LCL0001</t>
+  </si>
+  <si>
     <t>Own Console</t>
   </si>
   <si>
@@ -1192,6 +1237,15 @@
     <t>2025-09-18 02:54:06</t>
   </si>
   <si>
+    <t>2025-09-18 11:28:37</t>
+  </si>
+  <si>
+    <t>2025-09-18 11:30:38</t>
+  </si>
+  <si>
+    <t>2025-09-18 20:03:56</t>
+  </si>
+  <si>
     <t>CMM0246LCL0056_20250828120709</t>
   </si>
   <si>
@@ -1256,6 +1310,15 @@
   </si>
   <si>
     <t>CMM0868LCL0007_20250918025308</t>
+  </si>
+  <si>
+    <t>CMM0868LCL0007_20250918112817</t>
+  </si>
+  <si>
+    <t>CMM0657LCL0128_20250918113005</t>
+  </si>
+  <si>
+    <t>CMM0937LCL0001_20250918200259</t>
   </si>
 </sst>
 </file>
@@ -1613,7 +1676,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AW70"/>
+  <dimension ref="A1:AW74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1788,16 +1851,16 @@
         <v>63</v>
       </c>
       <c r="G2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H2">
         <v>28303</v>
       </c>
       <c r="I2" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="J2" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="K2">
         <v>288</v>
@@ -1818,28 +1881,28 @@
         <v>6</v>
       </c>
       <c r="Q2" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="R2" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="S2">
         <v>0</v>
       </c>
       <c r="T2" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="U2" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="V2" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="X2" t="s">
-        <v>260</v>
+        <v>274</v>
       </c>
       <c r="Y2" t="s">
-        <v>260</v>
+        <v>274</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -1884,16 +1947,16 @@
         <v>174.4790364845797</v>
       </c>
       <c r="AN2" t="s">
-        <v>296</v>
+        <v>310</v>
       </c>
       <c r="AO2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="AP2" t="s">
-        <v>340</v>
+        <v>355</v>
       </c>
       <c r="AQ2" t="s">
-        <v>342</v>
+        <v>357</v>
       </c>
     </row>
     <row r="3" spans="1:49">
@@ -1916,16 +1979,16 @@
         <v>64</v>
       </c>
       <c r="G3" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H3">
         <v>46140</v>
       </c>
       <c r="I3" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="J3" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="K3">
         <v>518</v>
@@ -1946,28 +2009,28 @@
         <v>10</v>
       </c>
       <c r="Q3" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="R3" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="U3" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="V3" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="X3" t="s">
-        <v>261</v>
+        <v>275</v>
       </c>
       <c r="Y3" t="s">
-        <v>261</v>
+        <v>275</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -2012,16 +2075,16 @@
         <v>188.3821611081226</v>
       </c>
       <c r="AN3" t="s">
-        <v>296</v>
+        <v>310</v>
       </c>
       <c r="AO3" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AP3" t="s">
-        <v>340</v>
+        <v>355</v>
       </c>
       <c r="AQ3" t="s">
-        <v>342</v>
+        <v>357</v>
       </c>
     </row>
     <row r="4" spans="1:49">
@@ -2044,16 +2107,16 @@
         <v>65</v>
       </c>
       <c r="G4" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H4">
         <v>75241</v>
       </c>
       <c r="I4" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="J4" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="K4">
         <v>461</v>
@@ -2074,28 +2137,28 @@
         <v>9</v>
       </c>
       <c r="Q4" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="R4" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="U4" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="V4" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="X4" t="s">
-        <v>262</v>
+        <v>276</v>
       </c>
       <c r="Y4" t="s">
-        <v>262</v>
+        <v>276</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -2140,16 +2203,16 @@
         <v>198.5737694455844</v>
       </c>
       <c r="AN4" t="s">
-        <v>296</v>
+        <v>310</v>
       </c>
       <c r="AO4" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AP4" t="s">
-        <v>340</v>
+        <v>355</v>
       </c>
       <c r="AQ4" t="s">
-        <v>342</v>
+        <v>357</v>
       </c>
     </row>
     <row r="5" spans="1:49">
@@ -2172,16 +2235,16 @@
         <v>66</v>
       </c>
       <c r="G5" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="H5">
         <v>85395</v>
       </c>
       <c r="I5" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="J5" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="K5">
         <v>461</v>
@@ -2202,28 +2265,28 @@
         <v>9</v>
       </c>
       <c r="Q5" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="R5" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="U5" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="V5" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="X5" t="s">
-        <v>263</v>
+        <v>277</v>
       </c>
       <c r="Y5" t="s">
-        <v>263</v>
+        <v>277</v>
       </c>
       <c r="Z5">
         <v>0</v>
@@ -2268,16 +2331,16 @@
         <v>151.7595856378415</v>
       </c>
       <c r="AN5" t="s">
-        <v>296</v>
+        <v>310</v>
       </c>
       <c r="AO5" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="AP5" t="s">
-        <v>340</v>
+        <v>355</v>
       </c>
       <c r="AQ5" t="s">
-        <v>342</v>
+        <v>357</v>
       </c>
     </row>
     <row r="6" spans="1:49">
@@ -2300,16 +2363,16 @@
         <v>67</v>
       </c>
       <c r="G6" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H6">
         <v>85043</v>
       </c>
       <c r="I6" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="J6" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="K6">
         <v>576</v>
@@ -2330,28 +2393,28 @@
         <v>11</v>
       </c>
       <c r="Q6" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="R6" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="S6">
         <v>0</v>
       </c>
       <c r="T6" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="U6" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="V6" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="X6" t="s">
-        <v>264</v>
+        <v>278</v>
       </c>
       <c r="Y6" t="s">
-        <v>264</v>
+        <v>278</v>
       </c>
       <c r="Z6">
         <v>0</v>
@@ -2396,16 +2459,16 @@
         <v>164.8459987905664</v>
       </c>
       <c r="AN6" t="s">
-        <v>296</v>
+        <v>310</v>
       </c>
       <c r="AO6" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="AP6" t="s">
-        <v>340</v>
+        <v>355</v>
       </c>
       <c r="AQ6" t="s">
-        <v>342</v>
+        <v>357</v>
       </c>
     </row>
     <row r="7" spans="1:49">
@@ -2428,16 +2491,16 @@
         <v>68</v>
       </c>
       <c r="G7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H7">
         <v>30567</v>
       </c>
       <c r="I7" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="J7" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="K7">
         <v>10</v>
@@ -2458,28 +2521,28 @@
         <v>1</v>
       </c>
       <c r="Q7" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="R7" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
       <c r="T7" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="U7" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="V7" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="X7" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="Y7" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="Z7">
         <v>10000</v>
@@ -2524,16 +2587,16 @@
         <v>719.1061983471075</v>
       </c>
       <c r="AN7" t="s">
-        <v>297</v>
+        <v>311</v>
       </c>
       <c r="AO7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AP7" t="s">
-        <v>340</v>
+        <v>355</v>
       </c>
       <c r="AQ7" t="s">
-        <v>343</v>
+        <v>358</v>
       </c>
     </row>
     <row r="8" spans="1:49">
@@ -2556,16 +2619,16 @@
         <v>69</v>
       </c>
       <c r="G8" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="H8">
         <v>8873</v>
       </c>
       <c r="I8" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="J8" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="K8">
         <v>9</v>
@@ -2586,28 +2649,28 @@
         <v>1</v>
       </c>
       <c r="Q8" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="R8" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
       <c r="T8" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="U8" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="V8" t="s">
-        <v>237</v>
+        <v>248</v>
       </c>
       <c r="X8" t="s">
-        <v>266</v>
+        <v>280</v>
       </c>
       <c r="Y8" t="s">
-        <v>266</v>
+        <v>280</v>
       </c>
       <c r="Z8">
         <v>10000</v>
@@ -2652,16 +2715,16 @@
         <v>502.9962121212121</v>
       </c>
       <c r="AN8" t="s">
-        <v>297</v>
+        <v>311</v>
       </c>
       <c r="AO8" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AP8" t="s">
-        <v>340</v>
+        <v>355</v>
       </c>
       <c r="AQ8" t="s">
-        <v>343</v>
+        <v>358</v>
       </c>
     </row>
     <row r="9" spans="1:49">
@@ -2684,16 +2747,16 @@
         <v>70</v>
       </c>
       <c r="G9" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="H9">
         <v>18202</v>
       </c>
       <c r="I9" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="J9" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="K9">
         <v>72</v>
@@ -2714,28 +2777,28 @@
         <v>2</v>
       </c>
       <c r="Q9" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="R9" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
       <c r="T9" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="U9" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="V9" t="s">
-        <v>238</v>
+        <v>249</v>
       </c>
       <c r="X9" t="s">
-        <v>267</v>
+        <v>281</v>
       </c>
       <c r="Y9" t="s">
-        <v>267</v>
+        <v>281</v>
       </c>
       <c r="Z9">
         <v>0</v>
@@ -2780,16 +2843,16 @@
         <v>257.1691611234294</v>
       </c>
       <c r="AN9" t="s">
-        <v>298</v>
+        <v>312</v>
       </c>
       <c r="AO9" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="AP9" t="s">
-        <v>340</v>
+        <v>355</v>
       </c>
       <c r="AQ9" t="s">
-        <v>344</v>
+        <v>359</v>
       </c>
     </row>
     <row r="10" spans="1:49">
@@ -2812,16 +2875,16 @@
         <v>71</v>
       </c>
       <c r="G10" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="H10">
         <v>75007</v>
       </c>
       <c r="I10" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="J10" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="K10">
         <v>50</v>
@@ -2842,25 +2905,25 @@
         <v>50</v>
       </c>
       <c r="Q10" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="R10" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="S10">
         <v>0</v>
       </c>
       <c r="U10" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="V10" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="X10" t="s">
-        <v>268</v>
+        <v>282</v>
       </c>
       <c r="Y10" t="s">
-        <v>268</v>
+        <v>282</v>
       </c>
       <c r="Z10">
         <v>0</v>
@@ -2905,16 +2968,16 @@
         <v>280.7465277777778</v>
       </c>
       <c r="AN10" t="s">
-        <v>299</v>
+        <v>313</v>
       </c>
       <c r="AO10" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="AP10" t="s">
-        <v>341</v>
+        <v>356</v>
       </c>
       <c r="AQ10" t="s">
-        <v>345</v>
+        <v>360</v>
       </c>
     </row>
     <row r="11" spans="1:49">
@@ -2937,16 +3000,16 @@
         <v>72</v>
       </c>
       <c r="G11" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H11">
         <v>18105</v>
       </c>
       <c r="I11" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="J11" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="K11">
         <v>100</v>
@@ -2967,25 +3030,25 @@
         <v>100</v>
       </c>
       <c r="Q11" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="R11" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
       <c r="U11" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="V11" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="X11" t="s">
-        <v>269</v>
+        <v>283</v>
       </c>
       <c r="Y11" t="s">
-        <v>269</v>
+        <v>283</v>
       </c>
       <c r="Z11">
         <v>0</v>
@@ -3030,16 +3093,16 @@
         <v>142.3526870265152</v>
       </c>
       <c r="AN11" t="s">
-        <v>299</v>
+        <v>313</v>
       </c>
       <c r="AO11" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="AP11" t="s">
-        <v>340</v>
+        <v>355</v>
       </c>
       <c r="AQ11" t="s">
-        <v>345</v>
+        <v>360</v>
       </c>
     </row>
     <row r="12" spans="1:49">
@@ -3062,16 +3125,16 @@
         <v>73</v>
       </c>
       <c r="G12" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H12">
         <v>17112</v>
       </c>
       <c r="I12" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="J12" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="K12">
         <v>100</v>
@@ -3092,25 +3155,25 @@
         <v>100</v>
       </c>
       <c r="Q12" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="R12" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="S12">
         <v>0</v>
       </c>
       <c r="U12" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="V12" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="X12" t="s">
-        <v>270</v>
+        <v>284</v>
       </c>
       <c r="Y12" t="s">
-        <v>270</v>
+        <v>284</v>
       </c>
       <c r="Z12">
         <v>0</v>
@@ -3155,16 +3218,16 @@
         <v>166.954466540404</v>
       </c>
       <c r="AN12" t="s">
-        <v>299</v>
+        <v>313</v>
       </c>
       <c r="AO12" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="AP12" t="s">
-        <v>340</v>
+        <v>355</v>
       </c>
       <c r="AQ12" t="s">
-        <v>345</v>
+        <v>360</v>
       </c>
     </row>
     <row r="13" spans="1:49">
@@ -3187,16 +3250,16 @@
         <v>74</v>
       </c>
       <c r="G13" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="H13">
         <v>29330</v>
       </c>
       <c r="I13" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="J13" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="K13">
         <v>390</v>
@@ -3217,28 +3280,28 @@
         <v>17</v>
       </c>
       <c r="Q13" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="R13" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="S13">
         <v>0</v>
       </c>
       <c r="T13" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="U13" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="V13" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="X13" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="Y13" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="Z13">
         <v>0</v>
@@ -3283,16 +3346,16 @@
         <v>133.097981415809</v>
       </c>
       <c r="AN13" t="s">
-        <v>300</v>
+        <v>314</v>
       </c>
       <c r="AO13" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="AP13" t="s">
-        <v>340</v>
+        <v>355</v>
       </c>
       <c r="AQ13" t="s">
-        <v>346</v>
+        <v>361</v>
       </c>
     </row>
     <row r="14" spans="1:49">
@@ -3315,16 +3378,16 @@
         <v>75</v>
       </c>
       <c r="G14" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="H14">
         <v>46410</v>
       </c>
       <c r="I14" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="J14" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="K14">
         <v>390</v>
@@ -3345,28 +3408,28 @@
         <v>17</v>
       </c>
       <c r="Q14" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="R14" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="S14">
         <v>0</v>
       </c>
       <c r="T14" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="U14" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="V14" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="X14" t="s">
-        <v>272</v>
+        <v>286</v>
       </c>
       <c r="Y14" t="s">
-        <v>272</v>
+        <v>286</v>
       </c>
       <c r="Z14">
         <v>0</v>
@@ -3411,16 +3474,16 @@
         <v>150.8448561080909</v>
       </c>
       <c r="AN14" t="s">
-        <v>301</v>
+        <v>315</v>
       </c>
       <c r="AO14" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="AP14" t="s">
-        <v>340</v>
+        <v>355</v>
       </c>
       <c r="AQ14" t="s">
-        <v>347</v>
+        <v>362</v>
       </c>
     </row>
     <row r="15" spans="1:49">
@@ -3443,16 +3506,16 @@
         <v>74</v>
       </c>
       <c r="G15" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="H15">
         <v>29330</v>
       </c>
       <c r="I15" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="J15" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="K15">
         <v>436</v>
@@ -3473,28 +3536,28 @@
         <v>19</v>
       </c>
       <c r="Q15" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="R15" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="S15">
         <v>0</v>
       </c>
       <c r="T15" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="U15" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="V15" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="X15" t="s">
-        <v>273</v>
+        <v>287</v>
       </c>
       <c r="Y15" t="s">
-        <v>273</v>
+        <v>287</v>
       </c>
       <c r="Z15">
         <v>0</v>
@@ -3539,16 +3602,16 @@
         <v>130.4801208060281</v>
       </c>
       <c r="AN15" t="s">
-        <v>302</v>
+        <v>316</v>
       </c>
       <c r="AO15" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="AP15" t="s">
-        <v>340</v>
+        <v>355</v>
       </c>
       <c r="AQ15" t="s">
-        <v>348</v>
+        <v>363</v>
       </c>
     </row>
     <row r="16" spans="1:49">
@@ -3571,16 +3634,16 @@
         <v>75</v>
       </c>
       <c r="G16" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="H16">
         <v>46410</v>
       </c>
       <c r="I16" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="J16" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="K16">
         <v>436</v>
@@ -3601,28 +3664,28 @@
         <v>19</v>
       </c>
       <c r="Q16" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="R16" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="S16">
         <v>0</v>
       </c>
       <c r="T16" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="U16" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="V16" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="X16" t="s">
-        <v>274</v>
+        <v>288</v>
       </c>
       <c r="Y16" t="s">
-        <v>274</v>
+        <v>288</v>
       </c>
       <c r="Z16">
         <v>0</v>
@@ -3667,16 +3730,16 @@
         <v>145.7476530672221</v>
       </c>
       <c r="AN16" t="s">
-        <v>303</v>
+        <v>317</v>
       </c>
       <c r="AO16" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="AP16" t="s">
-        <v>340</v>
+        <v>355</v>
       </c>
       <c r="AQ16" t="s">
-        <v>349</v>
+        <v>364</v>
       </c>
     </row>
     <row r="17" spans="1:43">
@@ -3699,16 +3762,16 @@
         <v>76</v>
       </c>
       <c r="G17" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="H17">
         <v>48917</v>
       </c>
       <c r="I17" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="J17" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="K17">
         <v>4</v>
@@ -3729,28 +3792,28 @@
         <v>4</v>
       </c>
       <c r="Q17" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="R17" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="S17">
         <v>0</v>
       </c>
       <c r="T17" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="U17" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="V17" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="X17" t="s">
-        <v>275</v>
+        <v>289</v>
       </c>
       <c r="Y17" t="s">
-        <v>275</v>
+        <v>289</v>
       </c>
       <c r="Z17">
         <v>0</v>
@@ -3795,16 +3858,16 @@
         <v>206.02325443923</v>
       </c>
       <c r="AN17" t="s">
-        <v>304</v>
+        <v>318</v>
       </c>
       <c r="AO17" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="AP17" t="s">
-        <v>340</v>
+        <v>355</v>
       </c>
       <c r="AQ17" t="s">
-        <v>350</v>
+        <v>365</v>
       </c>
     </row>
     <row r="18" spans="1:43">
@@ -3827,16 +3890,16 @@
         <v>77</v>
       </c>
       <c r="G18" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H18">
         <v>60433</v>
       </c>
       <c r="I18" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="J18" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="K18">
         <v>9</v>
@@ -3857,25 +3920,25 @@
         <v>9</v>
       </c>
       <c r="Q18" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="R18" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="S18">
         <v>0</v>
       </c>
       <c r="U18" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="V18" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="X18" t="s">
-        <v>276</v>
+        <v>290</v>
       </c>
       <c r="Y18" t="s">
-        <v>276</v>
+        <v>290</v>
       </c>
       <c r="Z18">
         <v>0</v>
@@ -3920,16 +3983,16 @@
         <v>103.3471494959643</v>
       </c>
       <c r="AN18" t="s">
-        <v>304</v>
+        <v>318</v>
       </c>
       <c r="AO18" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="AP18" t="s">
-        <v>341</v>
+        <v>356</v>
       </c>
       <c r="AQ18" t="s">
-        <v>350</v>
+        <v>365</v>
       </c>
     </row>
     <row r="19" spans="1:43">
@@ -3952,16 +4015,16 @@
         <v>78</v>
       </c>
       <c r="G19" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H19">
         <v>46809</v>
       </c>
       <c r="I19" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="J19" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="K19">
         <v>10</v>
@@ -3982,28 +4045,28 @@
         <v>10</v>
       </c>
       <c r="Q19" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="R19" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="S19">
         <v>0</v>
       </c>
       <c r="T19" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="U19" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="V19" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="X19" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="Y19" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="Z19">
         <v>0</v>
@@ -4048,16 +4111,16 @@
         <v>149.4741373722906</v>
       </c>
       <c r="AN19" t="s">
-        <v>304</v>
+        <v>318</v>
       </c>
       <c r="AO19" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AP19" t="s">
-        <v>340</v>
+        <v>355</v>
       </c>
       <c r="AQ19" t="s">
-        <v>350</v>
+        <v>365</v>
       </c>
     </row>
     <row r="20" spans="1:43">
@@ -4080,16 +4143,16 @@
         <v>79</v>
       </c>
       <c r="G20" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="H20">
         <v>89044</v>
       </c>
       <c r="I20" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="J20" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="K20">
         <v>10</v>
@@ -4110,28 +4173,28 @@
         <v>10</v>
       </c>
       <c r="Q20" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="R20" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="S20">
         <v>0</v>
       </c>
       <c r="T20" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="U20" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="V20" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="X20" t="s">
-        <v>278</v>
+        <v>292</v>
       </c>
       <c r="Y20" t="s">
-        <v>278</v>
+        <v>292</v>
       </c>
       <c r="Z20">
         <v>0</v>
@@ -4176,16 +4239,16 @@
         <v>157.4127301239075</v>
       </c>
       <c r="AN20" t="s">
-        <v>305</v>
+        <v>319</v>
       </c>
       <c r="AO20" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AP20" t="s">
-        <v>340</v>
+        <v>355</v>
       </c>
       <c r="AQ20" t="s">
-        <v>351</v>
+        <v>366</v>
       </c>
     </row>
     <row r="21" spans="1:43">
@@ -4208,16 +4271,16 @@
         <v>66</v>
       </c>
       <c r="G21" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="H21">
         <v>85395</v>
       </c>
       <c r="I21" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="J21" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="K21">
         <v>9</v>
@@ -4238,28 +4301,28 @@
         <v>9</v>
       </c>
       <c r="Q21" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="R21" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="S21">
         <v>0</v>
       </c>
       <c r="T21" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="U21" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="V21" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="X21" t="s">
-        <v>279</v>
+        <v>293</v>
       </c>
       <c r="Y21" t="s">
-        <v>279</v>
+        <v>293</v>
       </c>
       <c r="Z21">
         <v>0</v>
@@ -4304,16 +4367,16 @@
         <v>140.0155342782847</v>
       </c>
       <c r="AN21" t="s">
-        <v>306</v>
+        <v>320</v>
       </c>
       <c r="AO21" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="AP21" t="s">
-        <v>340</v>
+        <v>355</v>
       </c>
       <c r="AQ21" t="s">
-        <v>352</v>
+        <v>367</v>
       </c>
     </row>
     <row r="22" spans="1:43">
@@ -4336,16 +4399,16 @@
         <v>77</v>
       </c>
       <c r="G22" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H22">
         <v>60433</v>
       </c>
       <c r="I22" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="J22" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="K22">
         <v>9</v>
@@ -4366,25 +4429,25 @@
         <v>9</v>
       </c>
       <c r="Q22" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="R22" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="S22">
         <v>0</v>
       </c>
       <c r="U22" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="V22" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="X22" t="s">
-        <v>276</v>
+        <v>290</v>
       </c>
       <c r="Y22" t="s">
-        <v>276</v>
+        <v>290</v>
       </c>
       <c r="Z22">
         <v>0</v>
@@ -4429,16 +4492,16 @@
         <v>103.3464825772518</v>
       </c>
       <c r="AN22" t="s">
-        <v>307</v>
+        <v>321</v>
       </c>
       <c r="AO22" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="AP22" t="s">
-        <v>341</v>
+        <v>356</v>
       </c>
       <c r="AQ22" t="s">
-        <v>353</v>
+        <v>368</v>
       </c>
     </row>
     <row r="23" spans="1:43">
@@ -4461,16 +4524,16 @@
         <v>80</v>
       </c>
       <c r="G23" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="H23">
         <v>15672</v>
       </c>
       <c r="I23" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="J23" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="K23">
         <v>5</v>
@@ -4491,28 +4554,28 @@
         <v>1</v>
       </c>
       <c r="Q23" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="R23" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="S23">
         <v>0</v>
       </c>
       <c r="T23" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="U23" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="V23" t="s">
-        <v>239</v>
+        <v>250</v>
       </c>
       <c r="X23" t="s">
-        <v>280</v>
+        <v>294</v>
       </c>
       <c r="Y23" t="s">
-        <v>280</v>
+        <v>294</v>
       </c>
       <c r="Z23">
         <v>0</v>
@@ -4557,16 +4620,16 @@
         <v>413.3598484848485</v>
       </c>
       <c r="AN23" t="s">
-        <v>308</v>
+        <v>322</v>
       </c>
       <c r="AO23" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AP23" t="s">
-        <v>340</v>
+        <v>355</v>
       </c>
       <c r="AQ23" t="s">
-        <v>354</v>
+        <v>369</v>
       </c>
     </row>
     <row r="24" spans="1:43">
@@ -4589,16 +4652,16 @@
         <v>74</v>
       </c>
       <c r="G24" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="H24">
         <v>29330</v>
       </c>
       <c r="I24" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="J24" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="K24">
         <v>291</v>
@@ -4619,28 +4682,28 @@
         <v>5</v>
       </c>
       <c r="Q24" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="R24" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="S24">
         <v>0</v>
       </c>
       <c r="T24" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="U24" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="V24" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="X24" t="s">
-        <v>281</v>
+        <v>295</v>
       </c>
       <c r="Y24" t="s">
-        <v>281</v>
+        <v>295</v>
       </c>
       <c r="Z24">
         <v>0</v>
@@ -4685,16 +4748,16 @@
         <v>174.7430866986791</v>
       </c>
       <c r="AN24" t="s">
-        <v>309</v>
+        <v>323</v>
       </c>
       <c r="AO24" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="AP24" t="s">
-        <v>340</v>
+        <v>355</v>
       </c>
       <c r="AQ24" t="s">
-        <v>355</v>
+        <v>370</v>
       </c>
     </row>
     <row r="25" spans="1:43">
@@ -4717,16 +4780,16 @@
         <v>74</v>
       </c>
       <c r="G25" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="H25">
         <v>29330</v>
       </c>
       <c r="I25" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="J25" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="K25">
         <v>149</v>
@@ -4747,28 +4810,28 @@
         <v>3</v>
       </c>
       <c r="Q25" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="R25" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="S25">
         <v>0</v>
       </c>
       <c r="T25" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="U25" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="V25" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="X25" t="s">
-        <v>282</v>
+        <v>296</v>
       </c>
       <c r="Y25" t="s">
-        <v>282</v>
+        <v>296</v>
       </c>
       <c r="Z25">
         <v>0</v>
@@ -4813,16 +4876,16 @@
         <v>210.220280615461</v>
       </c>
       <c r="AN25" t="s">
-        <v>310</v>
+        <v>324</v>
       </c>
       <c r="AO25" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="AP25" t="s">
-        <v>340</v>
+        <v>355</v>
       </c>
       <c r="AQ25" t="s">
-        <v>356</v>
+        <v>371</v>
       </c>
     </row>
     <row r="26" spans="1:43">
@@ -4845,16 +4908,16 @@
         <v>80</v>
       </c>
       <c r="G26" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="H26">
         <v>15672</v>
       </c>
       <c r="I26" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="J26" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="K26">
         <v>5</v>
@@ -4875,28 +4938,28 @@
         <v>1</v>
       </c>
       <c r="Q26" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="R26" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="S26">
         <v>0</v>
       </c>
       <c r="T26" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="U26" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="V26" t="s">
-        <v>239</v>
+        <v>250</v>
       </c>
       <c r="X26" t="s">
-        <v>280</v>
+        <v>294</v>
       </c>
       <c r="Y26" t="s">
-        <v>280</v>
+        <v>294</v>
       </c>
       <c r="Z26">
         <v>0</v>
@@ -4941,16 +5004,16 @@
         <v>413.3598484848485</v>
       </c>
       <c r="AN26" t="s">
-        <v>311</v>
+        <v>325</v>
       </c>
       <c r="AO26" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AP26" t="s">
-        <v>340</v>
+        <v>355</v>
       </c>
       <c r="AQ26" t="s">
-        <v>357</v>
+        <v>372</v>
       </c>
     </row>
     <row r="27" spans="1:43">
@@ -4973,16 +5036,16 @@
         <v>74</v>
       </c>
       <c r="G27" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="H27">
         <v>29330</v>
       </c>
       <c r="I27" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="J27" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="K27">
         <v>530</v>
@@ -5003,28 +5066,28 @@
         <v>9</v>
       </c>
       <c r="Q27" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="R27" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="S27">
         <v>0</v>
       </c>
       <c r="T27" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="U27" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="V27" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="X27" t="s">
-        <v>283</v>
+        <v>297</v>
       </c>
       <c r="Y27" t="s">
-        <v>283</v>
+        <v>297</v>
       </c>
       <c r="Z27">
         <v>0</v>
@@ -5069,16 +5132,16 @@
         <v>145.7639482887134</v>
       </c>
       <c r="AN27" t="s">
-        <v>312</v>
+        <v>326</v>
       </c>
       <c r="AO27" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="AP27" t="s">
-        <v>340</v>
+        <v>355</v>
       </c>
       <c r="AQ27" t="s">
-        <v>358</v>
+        <v>373</v>
       </c>
     </row>
     <row r="28" spans="1:43">
@@ -5101,16 +5164,16 @@
         <v>80</v>
       </c>
       <c r="G28" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="H28">
         <v>15672</v>
       </c>
       <c r="I28" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="J28" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="K28">
         <v>30</v>
@@ -5131,25 +5194,25 @@
         <v>0</v>
       </c>
       <c r="Q28" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="R28" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="S28">
         <v>0</v>
       </c>
       <c r="U28" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="V28" t="s">
-        <v>239</v>
+        <v>250</v>
       </c>
       <c r="X28" t="s">
-        <v>284</v>
+        <v>298</v>
       </c>
       <c r="Y28" t="s">
-        <v>284</v>
+        <v>298</v>
       </c>
       <c r="Z28">
         <v>0</v>
@@ -5194,16 +5257,16 @@
         <v>1151.359848484848</v>
       </c>
       <c r="AN28" t="s">
-        <v>313</v>
+        <v>327</v>
       </c>
       <c r="AO28" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AP28" t="s">
-        <v>340</v>
+        <v>355</v>
       </c>
       <c r="AQ28" t="s">
-        <v>359</v>
+        <v>374</v>
       </c>
     </row>
     <row r="29" spans="1:43">
@@ -5226,16 +5289,16 @@
         <v>67</v>
       </c>
       <c r="G29" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H29">
         <v>85043</v>
       </c>
       <c r="I29" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="J29" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="K29">
         <v>156</v>
@@ -5256,28 +5319,28 @@
         <v>3</v>
       </c>
       <c r="Q29" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="R29" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="S29">
         <v>0</v>
       </c>
       <c r="T29" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="U29" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="V29" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="X29" t="s">
-        <v>285</v>
+        <v>299</v>
       </c>
       <c r="Y29" t="s">
-        <v>285</v>
+        <v>299</v>
       </c>
       <c r="Z29">
         <v>10000</v>
@@ -5322,16 +5385,16 @@
         <v>239.1676005042723</v>
       </c>
       <c r="AN29" t="s">
-        <v>314</v>
+        <v>328</v>
       </c>
       <c r="AO29" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="AP29" t="s">
-        <v>340</v>
+        <v>355</v>
       </c>
       <c r="AQ29" t="s">
-        <v>360</v>
+        <v>375</v>
       </c>
     </row>
     <row r="30" spans="1:43">
@@ -5354,16 +5417,16 @@
         <v>66</v>
       </c>
       <c r="G30" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="H30">
         <v>85395</v>
       </c>
       <c r="I30" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="J30" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="K30">
         <v>156</v>
@@ -5384,28 +5447,28 @@
         <v>3</v>
       </c>
       <c r="Q30" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="R30" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="S30">
         <v>0</v>
       </c>
       <c r="T30" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="U30" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="V30" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="X30" t="s">
-        <v>286</v>
+        <v>300</v>
       </c>
       <c r="Y30" t="s">
-        <v>286</v>
+        <v>300</v>
       </c>
       <c r="Z30">
         <v>10000</v>
@@ -5450,16 +5513,16 @@
         <v>240.421837792408</v>
       </c>
       <c r="AN30" t="s">
-        <v>314</v>
+        <v>328</v>
       </c>
       <c r="AO30" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="AP30" t="s">
-        <v>340</v>
+        <v>355</v>
       </c>
       <c r="AQ30" t="s">
-        <v>360</v>
+        <v>375</v>
       </c>
     </row>
     <row r="31" spans="1:43">
@@ -5482,16 +5545,16 @@
         <v>65</v>
       </c>
       <c r="G31" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H31">
         <v>75241</v>
       </c>
       <c r="I31" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="J31" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="K31">
         <v>130</v>
@@ -5512,28 +5575,28 @@
         <v>3</v>
       </c>
       <c r="Q31" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="R31" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="S31">
         <v>0</v>
       </c>
       <c r="T31" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="U31" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="V31" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="X31" t="s">
-        <v>287</v>
+        <v>301</v>
       </c>
       <c r="Y31" t="s">
-        <v>287</v>
+        <v>301</v>
       </c>
       <c r="Z31">
         <v>10000</v>
@@ -5578,16 +5641,16 @@
         <v>352.5377083625157</v>
       </c>
       <c r="AN31" t="s">
-        <v>314</v>
+        <v>328</v>
       </c>
       <c r="AO31" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AP31" t="s">
-        <v>340</v>
+        <v>355</v>
       </c>
       <c r="AQ31" t="s">
-        <v>360</v>
+        <v>375</v>
       </c>
     </row>
     <row r="32" spans="1:43">
@@ -5610,16 +5673,16 @@
         <v>70</v>
       </c>
       <c r="G32" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="H32">
         <v>18202</v>
       </c>
       <c r="I32" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="J32" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="K32">
         <v>79</v>
@@ -5640,28 +5703,28 @@
         <v>2</v>
       </c>
       <c r="Q32" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="R32" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="S32">
         <v>0</v>
       </c>
       <c r="T32" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="U32" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="V32" t="s">
-        <v>238</v>
+        <v>249</v>
       </c>
       <c r="X32" t="s">
-        <v>267</v>
+        <v>281</v>
       </c>
       <c r="Y32" t="s">
-        <v>267</v>
+        <v>281</v>
       </c>
       <c r="Z32">
         <v>10000</v>
@@ -5706,16 +5769,16 @@
         <v>269.4395672042102</v>
       </c>
       <c r="AN32" t="s">
-        <v>315</v>
+        <v>329</v>
       </c>
       <c r="AO32" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="AP32" t="s">
-        <v>340</v>
+        <v>355</v>
       </c>
       <c r="AQ32" t="s">
-        <v>361</v>
+        <v>376</v>
       </c>
     </row>
     <row r="33" spans="1:49">
@@ -5738,16 +5801,16 @@
         <v>81</v>
       </c>
       <c r="G33" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="H33">
         <v>22406</v>
       </c>
       <c r="I33" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="J33" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="K33">
         <v>158</v>
@@ -5768,28 +5831,28 @@
         <v>3</v>
       </c>
       <c r="Q33" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="R33" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="S33">
         <v>0</v>
       </c>
       <c r="T33" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="U33" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="V33" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="X33" t="s">
-        <v>288</v>
+        <v>302</v>
       </c>
       <c r="Y33" t="s">
-        <v>288</v>
+        <v>302</v>
       </c>
       <c r="Z33">
         <v>10000</v>
@@ -5834,16 +5897,16 @@
         <v>225.4889603547562</v>
       </c>
       <c r="AN33" t="s">
-        <v>315</v>
+        <v>329</v>
       </c>
       <c r="AO33" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AP33" t="s">
-        <v>340</v>
+        <v>355</v>
       </c>
       <c r="AQ33" t="s">
-        <v>361</v>
+        <v>376</v>
       </c>
     </row>
     <row r="34" spans="1:49">
@@ -5866,16 +5929,16 @@
         <v>82</v>
       </c>
       <c r="G34" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="H34">
         <v>91752</v>
       </c>
       <c r="I34" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="J34" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="K34">
         <v>950</v>
@@ -5896,25 +5959,25 @@
         <v>0</v>
       </c>
       <c r="Q34" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="R34" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="S34">
         <v>0</v>
       </c>
       <c r="U34" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="V34" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="X34" t="s">
-        <v>289</v>
+        <v>303</v>
       </c>
       <c r="Y34" t="s">
-        <v>289</v>
+        <v>303</v>
       </c>
       <c r="Z34">
         <v>0</v>
@@ -5959,16 +6022,16 @@
         <v>1106.403925619835</v>
       </c>
       <c r="AN34" t="s">
-        <v>316</v>
+        <v>330</v>
       </c>
       <c r="AO34" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AP34" t="s">
-        <v>340</v>
+        <v>355</v>
       </c>
       <c r="AQ34" t="s">
-        <v>362</v>
+        <v>377</v>
       </c>
     </row>
     <row r="35" spans="1:49">
@@ -5991,16 +6054,16 @@
         <v>83</v>
       </c>
       <c r="G35" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="H35">
         <v>21740</v>
       </c>
       <c r="I35" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="J35" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="K35">
         <v>51</v>
@@ -6021,28 +6084,28 @@
         <v>5</v>
       </c>
       <c r="Q35" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="R35" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="S35">
         <v>0</v>
       </c>
       <c r="T35" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="U35" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="V35" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="X35" t="s">
-        <v>290</v>
+        <v>304</v>
       </c>
       <c r="Y35" t="s">
-        <v>290</v>
+        <v>304</v>
       </c>
       <c r="Z35">
         <v>0</v>
@@ -6087,16 +6150,16 @@
         <v>188.198471037178</v>
       </c>
       <c r="AN35" t="s">
-        <v>317</v>
+        <v>331</v>
       </c>
       <c r="AO35" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AP35" t="s">
-        <v>340</v>
+        <v>355</v>
       </c>
       <c r="AQ35" t="s">
-        <v>363</v>
+        <v>378</v>
       </c>
     </row>
     <row r="36" spans="1:49">
@@ -6119,16 +6182,16 @@
         <v>84</v>
       </c>
       <c r="G36" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H36">
         <v>38654</v>
       </c>
       <c r="I36" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="J36" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="K36">
         <v>83</v>
@@ -6149,28 +6212,28 @@
         <v>6</v>
       </c>
       <c r="Q36" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="R36" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="S36">
         <v>0</v>
       </c>
       <c r="T36" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="U36" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="V36" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="X36" t="s">
-        <v>291</v>
+        <v>305</v>
       </c>
       <c r="Y36" t="s">
-        <v>291</v>
+        <v>305</v>
       </c>
       <c r="Z36">
         <v>0</v>
@@ -6215,16 +6278,16 @@
         <v>183.8976550883916</v>
       </c>
       <c r="AN36" t="s">
-        <v>318</v>
+        <v>332</v>
       </c>
       <c r="AO36" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AP36" t="s">
-        <v>340</v>
+        <v>355</v>
       </c>
       <c r="AQ36" t="s">
-        <v>364</v>
+        <v>379</v>
       </c>
     </row>
     <row r="37" spans="1:49">
@@ -6247,16 +6310,16 @@
         <v>85</v>
       </c>
       <c r="G37" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="H37">
         <v>18447</v>
       </c>
       <c r="I37" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="J37" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="K37">
         <v>397</v>
@@ -6277,28 +6340,28 @@
         <v>18</v>
       </c>
       <c r="Q37" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="R37" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="S37">
         <v>0</v>
       </c>
       <c r="T37" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="U37" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="V37" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="X37" t="s">
-        <v>292</v>
+        <v>306</v>
       </c>
       <c r="Y37" t="s">
-        <v>292</v>
+        <v>306</v>
       </c>
       <c r="Z37">
         <v>0</v>
@@ -6343,16 +6406,16 @@
         <v>119.2752691063541</v>
       </c>
       <c r="AN37" t="s">
-        <v>319</v>
+        <v>333</v>
       </c>
       <c r="AO37" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AP37" t="s">
-        <v>340</v>
+        <v>355</v>
       </c>
       <c r="AQ37" t="s">
-        <v>365</v>
+        <v>380</v>
       </c>
     </row>
     <row r="38" spans="1:49">
@@ -6375,16 +6438,16 @@
         <v>86</v>
       </c>
       <c r="G38" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H38">
         <v>28134</v>
       </c>
       <c r="I38" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="J38" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="K38">
         <v>44</v>
@@ -6405,28 +6468,28 @@
         <v>4</v>
       </c>
       <c r="Q38" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="R38" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="S38">
         <v>0</v>
       </c>
       <c r="T38" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="U38" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="V38" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="X38" t="s">
-        <v>293</v>
+        <v>307</v>
       </c>
       <c r="Y38" t="s">
-        <v>293</v>
+        <v>307</v>
       </c>
       <c r="Z38">
         <v>0</v>
@@ -6471,16 +6534,16 @@
         <v>177.7675780666174</v>
       </c>
       <c r="AN38" t="s">
-        <v>320</v>
+        <v>334</v>
       </c>
       <c r="AO38" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="AP38" t="s">
-        <v>340</v>
+        <v>355</v>
       </c>
       <c r="AQ38" t="s">
-        <v>366</v>
+        <v>381</v>
       </c>
     </row>
     <row r="39" spans="1:49">
@@ -6503,16 +6566,16 @@
         <v>87</v>
       </c>
       <c r="G39" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H39">
         <v>30096</v>
       </c>
       <c r="I39" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="J39" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="K39">
         <v>896</v>
@@ -6533,25 +6596,25 @@
         <v>16</v>
       </c>
       <c r="Q39" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="R39" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="S39">
         <v>0</v>
       </c>
       <c r="U39" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="V39" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="X39" t="s">
-        <v>294</v>
+        <v>308</v>
       </c>
       <c r="Y39" t="s">
-        <v>294</v>
+        <v>308</v>
       </c>
       <c r="Z39">
         <v>0</v>
@@ -6596,16 +6659,16 @@
         <v>136.1575088920063</v>
       </c>
       <c r="AN39" t="s">
-        <v>321</v>
+        <v>335</v>
       </c>
       <c r="AO39" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AP39" t="s">
-        <v>340</v>
+        <v>355</v>
       </c>
       <c r="AQ39" t="s">
-        <v>367</v>
+        <v>382</v>
       </c>
     </row>
     <row r="40" spans="1:49">
@@ -6628,16 +6691,16 @@
         <v>80</v>
       </c>
       <c r="G40" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="H40">
         <v>15672</v>
       </c>
       <c r="I40" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="J40" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="K40">
         <v>50</v>
@@ -6658,28 +6721,28 @@
         <v>3</v>
       </c>
       <c r="Q40" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="R40" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="S40">
         <v>0</v>
       </c>
       <c r="T40" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="U40" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="V40" t="s">
-        <v>239</v>
+        <v>250</v>
       </c>
       <c r="X40" t="s">
-        <v>295</v>
+        <v>309</v>
       </c>
       <c r="Y40" t="s">
-        <v>295</v>
+        <v>309</v>
       </c>
       <c r="Z40">
         <v>0</v>
@@ -6724,16 +6787,16 @@
         <v>219.9901712404764</v>
       </c>
       <c r="AN40" t="s">
-        <v>322</v>
+        <v>336</v>
       </c>
       <c r="AO40" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AP40" t="s">
-        <v>340</v>
+        <v>355</v>
       </c>
       <c r="AQ40" t="s">
-        <v>368</v>
+        <v>383</v>
       </c>
     </row>
     <row r="41" spans="1:49">
@@ -6756,16 +6819,16 @@
         <v>80</v>
       </c>
       <c r="G41" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="H41">
         <v>15672</v>
       </c>
       <c r="I41" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="J41" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="K41">
         <v>15</v>
@@ -6786,28 +6849,28 @@
         <v>1</v>
       </c>
       <c r="Q41" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="R41" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="S41">
         <v>0</v>
       </c>
       <c r="T41" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="U41" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="V41" t="s">
-        <v>239</v>
+        <v>250</v>
       </c>
       <c r="X41" t="s">
-        <v>280</v>
+        <v>294</v>
       </c>
       <c r="Y41" t="s">
-        <v>280</v>
+        <v>294</v>
       </c>
       <c r="Z41">
         <v>0</v>
@@ -6852,16 +6915,16 @@
         <v>238.6052188552189</v>
       </c>
       <c r="AN41" t="s">
-        <v>323</v>
+        <v>337</v>
       </c>
       <c r="AO41" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AP41" t="s">
-        <v>340</v>
+        <v>355</v>
       </c>
       <c r="AQ41" t="s">
-        <v>369</v>
+        <v>384</v>
       </c>
     </row>
     <row r="42" spans="1:49">
@@ -6884,16 +6947,16 @@
         <v>87</v>
       </c>
       <c r="G42" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H42">
         <v>30096</v>
       </c>
       <c r="I42" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="J42" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="K42">
         <v>896</v>
@@ -6914,28 +6977,28 @@
         <v>16</v>
       </c>
       <c r="Q42" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="R42" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="S42">
         <v>0</v>
       </c>
       <c r="T42" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="U42" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="V42" t="s">
-        <v>240</v>
+        <v>251</v>
       </c>
       <c r="X42" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="Y42" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="Z42">
         <v>0</v>
@@ -6980,19 +7043,19 @@
         <v>134.0712891670474</v>
       </c>
       <c r="AN42" t="s">
-        <v>321</v>
+        <v>335</v>
       </c>
       <c r="AO42" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AP42" t="s">
-        <v>340</v>
+        <v>355</v>
       </c>
       <c r="AQ42" t="s">
-        <v>370</v>
+        <v>385</v>
       </c>
       <c r="AR42" t="s">
-        <v>392</v>
+        <v>410</v>
       </c>
       <c r="AS42">
         <v>52500</v>
@@ -7030,16 +7093,16 @@
         <v>88</v>
       </c>
       <c r="G43" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="H43">
         <v>17057</v>
       </c>
       <c r="I43" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="J43" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="K43">
         <v>30</v>
@@ -7060,28 +7123,28 @@
         <v>1</v>
       </c>
       <c r="Q43" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="R43" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="S43">
         <v>0</v>
       </c>
       <c r="T43" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="U43" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="V43" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
       <c r="X43" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="Y43" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="Z43">
         <v>0</v>
@@ -7126,19 +7189,19 @@
         <v>325.051277056277</v>
       </c>
       <c r="AN43" t="s">
-        <v>324</v>
+        <v>338</v>
       </c>
       <c r="AO43" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="AP43" t="s">
-        <v>340</v>
+        <v>355</v>
       </c>
       <c r="AQ43" t="s">
-        <v>371</v>
+        <v>386</v>
       </c>
       <c r="AR43" t="s">
-        <v>393</v>
+        <v>411</v>
       </c>
       <c r="AS43">
         <v>52500</v>
@@ -7176,16 +7239,16 @@
         <v>74</v>
       </c>
       <c r="G44" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="H44">
         <v>29330</v>
       </c>
       <c r="I44" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="J44" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="K44">
         <v>176</v>
@@ -7206,28 +7269,28 @@
         <v>3</v>
       </c>
       <c r="Q44" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="R44" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="S44">
         <v>0</v>
       </c>
       <c r="T44" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="U44" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="V44" t="s">
-        <v>242</v>
+        <v>253</v>
       </c>
       <c r="X44" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="Y44" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="Z44">
         <v>0</v>
@@ -7272,19 +7335,19 @@
         <v>183.1098864417426</v>
       </c>
       <c r="AN44" t="s">
-        <v>325</v>
+        <v>339</v>
       </c>
       <c r="AO44" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="AP44" t="s">
-        <v>340</v>
+        <v>355</v>
       </c>
       <c r="AQ44" t="s">
-        <v>372</v>
+        <v>387</v>
       </c>
       <c r="AR44" t="s">
-        <v>394</v>
+        <v>412</v>
       </c>
       <c r="AS44">
         <v>52500</v>
@@ -7322,16 +7385,16 @@
         <v>80</v>
       </c>
       <c r="G45" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="H45">
         <v>15672</v>
       </c>
       <c r="I45" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="J45" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="K45">
         <v>53</v>
@@ -7352,28 +7415,28 @@
         <v>4</v>
       </c>
       <c r="Q45" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="R45" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="S45">
         <v>0</v>
       </c>
       <c r="T45" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="U45" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="V45" t="s">
-        <v>243</v>
+        <v>254</v>
       </c>
       <c r="X45" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="Y45" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="Z45">
         <v>0</v>
@@ -7418,19 +7481,19 @@
         <v>170.6064911314256</v>
       </c>
       <c r="AN45" t="s">
-        <v>326</v>
+        <v>340</v>
       </c>
       <c r="AO45" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AP45" t="s">
-        <v>340</v>
+        <v>355</v>
       </c>
       <c r="AQ45" t="s">
-        <v>373</v>
+        <v>388</v>
       </c>
       <c r="AR45" t="s">
-        <v>395</v>
+        <v>413</v>
       </c>
       <c r="AS45">
         <v>52500</v>
@@ -7468,16 +7531,16 @@
         <v>84</v>
       </c>
       <c r="G46" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H46">
         <v>38654</v>
       </c>
       <c r="I46" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="J46" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="K46">
         <v>83</v>
@@ -7498,28 +7561,28 @@
         <v>6</v>
       </c>
       <c r="Q46" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="R46" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="S46">
         <v>0</v>
       </c>
       <c r="T46" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="U46" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="V46" t="s">
-        <v>244</v>
+        <v>255</v>
       </c>
       <c r="X46" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="Y46" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="Z46">
         <v>0</v>
@@ -7564,19 +7627,19 @@
         <v>211.9698560590878</v>
       </c>
       <c r="AN46" t="s">
-        <v>318</v>
+        <v>332</v>
       </c>
       <c r="AO46" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AP46" t="s">
-        <v>340</v>
+        <v>355</v>
       </c>
       <c r="AQ46" t="s">
-        <v>374</v>
+        <v>389</v>
       </c>
       <c r="AR46" t="s">
-        <v>396</v>
+        <v>414</v>
       </c>
       <c r="AS46">
         <v>52500</v>
@@ -7614,16 +7677,16 @@
         <v>85</v>
       </c>
       <c r="G47" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="H47">
         <v>18447</v>
       </c>
       <c r="I47" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="J47" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="K47">
         <v>397</v>
@@ -7644,28 +7707,28 @@
         <v>18</v>
       </c>
       <c r="Q47" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="R47" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="S47">
         <v>0</v>
       </c>
       <c r="T47" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="U47" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="V47" t="s">
-        <v>245</v>
+        <v>256</v>
       </c>
       <c r="X47" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="Y47" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="Z47">
         <v>0</v>
@@ -7710,19 +7773,19 @@
         <v>115.6449436176877</v>
       </c>
       <c r="AN47" t="s">
-        <v>319</v>
+        <v>333</v>
       </c>
       <c r="AO47" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AP47" t="s">
-        <v>340</v>
+        <v>355</v>
       </c>
       <c r="AQ47" t="s">
-        <v>375</v>
+        <v>390</v>
       </c>
       <c r="AR47" t="s">
-        <v>397</v>
+        <v>415</v>
       </c>
       <c r="AS47">
         <v>52500</v>
@@ -7760,16 +7823,16 @@
         <v>68</v>
       </c>
       <c r="G48" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H48">
         <v>30567</v>
       </c>
       <c r="I48" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="J48" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="K48">
         <v>10</v>
@@ -7790,28 +7853,28 @@
         <v>1</v>
       </c>
       <c r="Q48" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="R48" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="S48">
         <v>0</v>
       </c>
       <c r="T48" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="U48" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="V48" t="s">
-        <v>246</v>
+        <v>257</v>
       </c>
       <c r="X48" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="Y48" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="Z48">
         <v>10000</v>
@@ -7856,19 +7919,19 @@
         <v>719.8207438016528</v>
       </c>
       <c r="AN48" t="s">
-        <v>297</v>
+        <v>311</v>
       </c>
       <c r="AO48" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AP48" t="s">
-        <v>340</v>
+        <v>355</v>
       </c>
       <c r="AQ48" t="s">
-        <v>376</v>
+        <v>391</v>
       </c>
       <c r="AR48" t="s">
-        <v>398</v>
+        <v>416</v>
       </c>
       <c r="AS48">
         <v>52500</v>
@@ -7906,16 +7969,16 @@
         <v>69</v>
       </c>
       <c r="G49" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="H49">
         <v>8873</v>
       </c>
       <c r="I49" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="J49" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="K49">
         <v>9</v>
@@ -7936,28 +7999,28 @@
         <v>1</v>
       </c>
       <c r="Q49" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="R49" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="S49">
         <v>0</v>
       </c>
       <c r="T49" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="U49" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="V49" t="s">
-        <v>247</v>
+        <v>258</v>
       </c>
       <c r="X49" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="Y49" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="Z49">
         <v>10000</v>
@@ -8002,19 +8065,19 @@
         <v>498.8295454545454</v>
       </c>
       <c r="AN49" t="s">
-        <v>297</v>
+        <v>311</v>
       </c>
       <c r="AO49" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AP49" t="s">
-        <v>340</v>
+        <v>355</v>
       </c>
       <c r="AQ49" t="s">
-        <v>376</v>
+        <v>391</v>
       </c>
       <c r="AR49" t="s">
-        <v>398</v>
+        <v>416</v>
       </c>
       <c r="AS49">
         <v>52500</v>
@@ -8052,16 +8115,16 @@
         <v>65</v>
       </c>
       <c r="G50" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H50">
         <v>75241</v>
       </c>
       <c r="I50" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="J50" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="K50">
         <v>4</v>
@@ -8082,28 +8145,28 @@
         <v>4</v>
       </c>
       <c r="Q50" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="R50" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="S50">
         <v>0</v>
       </c>
       <c r="T50" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="U50" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="V50" t="s">
-        <v>248</v>
+        <v>259</v>
       </c>
       <c r="X50" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="Y50" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="Z50">
         <v>0</v>
@@ -8148,19 +8211,19 @@
         <v>203.1995204570962</v>
       </c>
       <c r="AN50" t="s">
-        <v>327</v>
+        <v>341</v>
       </c>
       <c r="AO50" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AP50" t="s">
-        <v>340</v>
+        <v>355</v>
       </c>
       <c r="AQ50" t="s">
-        <v>377</v>
+        <v>392</v>
       </c>
       <c r="AR50" t="s">
-        <v>399</v>
+        <v>417</v>
       </c>
       <c r="AS50">
         <v>52500</v>
@@ -8198,16 +8261,16 @@
         <v>89</v>
       </c>
       <c r="G51" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="H51">
         <v>95206</v>
       </c>
       <c r="I51" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="J51" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="K51">
         <v>5</v>
@@ -8228,28 +8291,28 @@
         <v>5</v>
       </c>
       <c r="Q51" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="R51" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="S51">
         <v>0</v>
       </c>
       <c r="T51" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="U51" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="V51" t="s">
-        <v>249</v>
+        <v>260</v>
       </c>
       <c r="X51" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="Y51" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="Z51">
         <v>0</v>
@@ -8294,19 +8357,19 @@
         <v>192.2602763260213</v>
       </c>
       <c r="AN51" t="s">
-        <v>327</v>
+        <v>341</v>
       </c>
       <c r="AO51" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="AP51" t="s">
-        <v>340</v>
+        <v>355</v>
       </c>
       <c r="AQ51" t="s">
-        <v>377</v>
+        <v>392</v>
       </c>
       <c r="AR51" t="s">
-        <v>399</v>
+        <v>417</v>
       </c>
       <c r="AS51">
         <v>52500</v>
@@ -8344,16 +8407,16 @@
         <v>90</v>
       </c>
       <c r="G52" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="H52">
         <v>38118</v>
       </c>
       <c r="I52" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="J52" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="K52">
         <v>4</v>
@@ -8374,28 +8437,28 @@
         <v>4</v>
       </c>
       <c r="Q52" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="R52" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="S52">
         <v>0</v>
       </c>
       <c r="T52" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="U52" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="V52" t="s">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="X52" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="Y52" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="Z52">
         <v>0</v>
@@ -8440,19 +8503,19 @@
         <v>169.4701277647406</v>
       </c>
       <c r="AN52" t="s">
-        <v>328</v>
+        <v>342</v>
       </c>
       <c r="AO52" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AP52" t="s">
-        <v>340</v>
+        <v>355</v>
       </c>
       <c r="AQ52" t="s">
-        <v>378</v>
+        <v>393</v>
       </c>
       <c r="AR52" t="s">
-        <v>400</v>
+        <v>418</v>
       </c>
       <c r="AS52">
         <v>52500</v>
@@ -8490,16 +8553,16 @@
         <v>78</v>
       </c>
       <c r="G53" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H53">
         <v>46809</v>
       </c>
       <c r="I53" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="J53" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="K53">
         <v>5</v>
@@ -8520,28 +8583,28 @@
         <v>5</v>
       </c>
       <c r="Q53" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="R53" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="S53">
         <v>0</v>
       </c>
       <c r="T53" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="U53" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="V53" t="s">
-        <v>251</v>
+        <v>262</v>
       </c>
       <c r="X53" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="Y53" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="Z53">
         <v>0</v>
@@ -8586,19 +8649,19 @@
         <v>179.9369834710744</v>
       </c>
       <c r="AN53" t="s">
-        <v>328</v>
+        <v>342</v>
       </c>
       <c r="AO53" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AP53" t="s">
-        <v>340</v>
+        <v>355</v>
       </c>
       <c r="AQ53" t="s">
-        <v>378</v>
+        <v>393</v>
       </c>
       <c r="AR53" t="s">
-        <v>400</v>
+        <v>418</v>
       </c>
       <c r="AS53">
         <v>52500</v>
@@ -8636,16 +8699,16 @@
         <v>76</v>
       </c>
       <c r="G54" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="H54">
         <v>48917</v>
       </c>
       <c r="I54" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="J54" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="K54">
         <v>3</v>
@@ -8666,28 +8729,28 @@
         <v>3</v>
       </c>
       <c r="Q54" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="R54" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="S54">
         <v>0</v>
       </c>
       <c r="T54" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="U54" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="V54" t="s">
-        <v>252</v>
+        <v>263</v>
       </c>
       <c r="X54" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="Y54" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="Z54">
         <v>0</v>
@@ -8732,19 +8795,19 @@
         <v>220.8038337924702</v>
       </c>
       <c r="AN54" t="s">
-        <v>328</v>
+        <v>342</v>
       </c>
       <c r="AO54" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="AP54" t="s">
-        <v>340</v>
+        <v>355</v>
       </c>
       <c r="AQ54" t="s">
-        <v>378</v>
+        <v>393</v>
       </c>
       <c r="AR54" t="s">
-        <v>400</v>
+        <v>418</v>
       </c>
       <c r="AS54">
         <v>52500</v>
@@ -8782,16 +8845,16 @@
         <v>90</v>
       </c>
       <c r="G55" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="H55">
         <v>38118</v>
       </c>
       <c r="I55" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="J55" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="K55">
         <v>4</v>
@@ -8812,28 +8875,28 @@
         <v>4</v>
       </c>
       <c r="Q55" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="R55" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="S55">
         <v>0</v>
       </c>
       <c r="T55" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="U55" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="V55" t="s">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="X55" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="Y55" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="Z55">
         <v>0</v>
@@ -8878,19 +8941,19 @@
         <v>169.4701277647406</v>
       </c>
       <c r="AN55" t="s">
-        <v>328</v>
+        <v>342</v>
       </c>
       <c r="AO55" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AP55" t="s">
-        <v>340</v>
+        <v>355</v>
       </c>
       <c r="AQ55" t="s">
-        <v>379</v>
+        <v>394</v>
       </c>
       <c r="AR55" t="s">
-        <v>401</v>
+        <v>419</v>
       </c>
       <c r="AS55">
         <v>52500</v>
@@ -8928,16 +8991,16 @@
         <v>78</v>
       </c>
       <c r="G56" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H56">
         <v>46809</v>
       </c>
       <c r="I56" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="J56" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="K56">
         <v>5</v>
@@ -8958,28 +9021,28 @@
         <v>5</v>
       </c>
       <c r="Q56" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="R56" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="S56">
         <v>0</v>
       </c>
       <c r="T56" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="U56" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="V56" t="s">
-        <v>251</v>
+        <v>262</v>
       </c>
       <c r="X56" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="Y56" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="Z56">
         <v>0</v>
@@ -9024,19 +9087,19 @@
         <v>179.9369834710744</v>
       </c>
       <c r="AN56" t="s">
-        <v>328</v>
+        <v>342</v>
       </c>
       <c r="AO56" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AP56" t="s">
-        <v>340</v>
+        <v>355</v>
       </c>
       <c r="AQ56" t="s">
-        <v>379</v>
+        <v>394</v>
       </c>
       <c r="AR56" t="s">
-        <v>401</v>
+        <v>419</v>
       </c>
       <c r="AS56">
         <v>52500</v>
@@ -9074,16 +9137,16 @@
         <v>76</v>
       </c>
       <c r="G57" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="H57">
         <v>48917</v>
       </c>
       <c r="I57" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="J57" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="K57">
         <v>3</v>
@@ -9104,28 +9167,28 @@
         <v>3</v>
       </c>
       <c r="Q57" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="R57" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="S57">
         <v>0</v>
       </c>
       <c r="T57" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="U57" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="V57" t="s">
-        <v>252</v>
+        <v>263</v>
       </c>
       <c r="X57" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="Y57" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="Z57">
         <v>0</v>
@@ -9170,19 +9233,19 @@
         <v>220.8038337924702</v>
       </c>
       <c r="AN57" t="s">
-        <v>328</v>
+        <v>342</v>
       </c>
       <c r="AO57" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="AP57" t="s">
-        <v>340</v>
+        <v>355</v>
       </c>
       <c r="AQ57" t="s">
-        <v>379</v>
+        <v>394</v>
       </c>
       <c r="AR57" t="s">
-        <v>401</v>
+        <v>419</v>
       </c>
       <c r="AS57">
         <v>52500</v>
@@ -9220,16 +9283,16 @@
         <v>78</v>
       </c>
       <c r="G58" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H58">
         <v>46809</v>
       </c>
       <c r="I58" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="J58" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="K58">
         <v>5</v>
@@ -9250,28 +9313,28 @@
         <v>5</v>
       </c>
       <c r="Q58" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="R58" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="S58">
         <v>0</v>
       </c>
       <c r="T58" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="U58" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="V58" t="s">
-        <v>251</v>
+        <v>262</v>
       </c>
       <c r="X58" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="Y58" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="Z58">
         <v>0</v>
@@ -9316,19 +9379,19 @@
         <v>179.9369834710744</v>
       </c>
       <c r="AN58" t="s">
-        <v>328</v>
+        <v>342</v>
       </c>
       <c r="AO58" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AP58" t="s">
-        <v>340</v>
+        <v>355</v>
       </c>
       <c r="AQ58" t="s">
-        <v>380</v>
+        <v>395</v>
       </c>
       <c r="AR58" t="s">
-        <v>402</v>
+        <v>420</v>
       </c>
       <c r="AS58">
         <v>52500</v>
@@ -9366,16 +9429,16 @@
         <v>76</v>
       </c>
       <c r="G59" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="H59">
         <v>48917</v>
       </c>
       <c r="I59" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="J59" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="K59">
         <v>3</v>
@@ -9396,28 +9459,28 @@
         <v>3</v>
       </c>
       <c r="Q59" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="R59" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="S59">
         <v>0</v>
       </c>
       <c r="T59" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="U59" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="V59" t="s">
-        <v>252</v>
+        <v>263</v>
       </c>
       <c r="X59" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="Y59" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="Z59">
         <v>0</v>
@@ -9462,19 +9525,19 @@
         <v>220.8038337924702</v>
       </c>
       <c r="AN59" t="s">
-        <v>328</v>
+        <v>342</v>
       </c>
       <c r="AO59" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="AP59" t="s">
-        <v>340</v>
+        <v>355</v>
       </c>
       <c r="AQ59" t="s">
-        <v>380</v>
+        <v>395</v>
       </c>
       <c r="AR59" t="s">
-        <v>402</v>
+        <v>420</v>
       </c>
       <c r="AS59">
         <v>52500</v>
@@ -9512,16 +9575,16 @@
         <v>90</v>
       </c>
       <c r="G60" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="H60">
         <v>38118</v>
       </c>
       <c r="I60" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="J60" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="K60">
         <v>4</v>
@@ -9542,28 +9605,28 @@
         <v>4</v>
       </c>
       <c r="Q60" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="R60" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="S60">
         <v>0</v>
       </c>
       <c r="T60" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="U60" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="V60" t="s">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="X60" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="Y60" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="Z60">
         <v>0</v>
@@ -9608,19 +9671,19 @@
         <v>169.4701277647406</v>
       </c>
       <c r="AN60" t="s">
-        <v>329</v>
+        <v>343</v>
       </c>
       <c r="AO60" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AP60" t="s">
-        <v>340</v>
+        <v>355</v>
       </c>
       <c r="AQ60" t="s">
-        <v>381</v>
+        <v>396</v>
       </c>
       <c r="AR60" t="s">
-        <v>403</v>
+        <v>421</v>
       </c>
       <c r="AS60">
         <v>52500</v>
@@ -9658,16 +9721,16 @@
         <v>91</v>
       </c>
       <c r="G61" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H61">
         <v>18031</v>
       </c>
       <c r="I61" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="J61" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="K61">
         <v>9</v>
@@ -9688,28 +9751,28 @@
         <v>1</v>
       </c>
       <c r="Q61" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="R61" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="S61">
         <v>0</v>
       </c>
       <c r="T61" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="U61" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="V61" t="s">
-        <v>253</v>
+        <v>264</v>
       </c>
       <c r="X61" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="Y61" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="Z61">
         <v>0</v>
@@ -9754,19 +9817,19 @@
         <v>462.6331818181818</v>
       </c>
       <c r="AN61" t="s">
-        <v>330</v>
+        <v>344</v>
       </c>
       <c r="AO61" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="AP61" t="s">
-        <v>340</v>
+        <v>355</v>
       </c>
       <c r="AQ61" t="s">
-        <v>382</v>
+        <v>397</v>
       </c>
       <c r="AR61" t="s">
-        <v>404</v>
+        <v>422</v>
       </c>
       <c r="AS61">
         <v>52500</v>
@@ -9804,16 +9867,16 @@
         <v>85</v>
       </c>
       <c r="G62" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="H62">
         <v>18447</v>
       </c>
       <c r="I62" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="J62" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="K62">
         <v>60</v>
@@ -9834,28 +9897,28 @@
         <v>3</v>
       </c>
       <c r="Q62" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="R62" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="S62">
         <v>0</v>
       </c>
       <c r="T62" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="U62" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="V62" t="s">
-        <v>254</v>
+        <v>265</v>
       </c>
       <c r="X62" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="Y62" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="Z62">
         <v>10000</v>
@@ -9900,19 +9963,19 @@
         <v>205.5400913444966</v>
       </c>
       <c r="AN62" t="s">
-        <v>331</v>
+        <v>345</v>
       </c>
       <c r="AO62" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AP62" t="s">
-        <v>340</v>
+        <v>355</v>
       </c>
       <c r="AQ62" t="s">
-        <v>383</v>
+        <v>398</v>
       </c>
       <c r="AR62" t="s">
-        <v>405</v>
+        <v>423</v>
       </c>
       <c r="AS62">
         <v>52500</v>
@@ -9950,16 +10013,16 @@
         <v>80</v>
       </c>
       <c r="G63" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="H63">
         <v>15672</v>
       </c>
       <c r="I63" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="J63" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="K63">
         <v>60</v>
@@ -9980,28 +10043,28 @@
         <v>3</v>
       </c>
       <c r="Q63" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="R63" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="S63">
         <v>0</v>
       </c>
       <c r="T63" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="U63" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="V63" t="s">
-        <v>243</v>
+        <v>254</v>
       </c>
       <c r="X63" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="Y63" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="Z63">
         <v>10000</v>
@@ -10046,19 +10109,19 @@
         <v>199.2299736035268</v>
       </c>
       <c r="AN63" t="s">
-        <v>332</v>
+        <v>346</v>
       </c>
       <c r="AO63" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AP63" t="s">
-        <v>340</v>
+        <v>355</v>
       </c>
       <c r="AQ63" t="s">
-        <v>384</v>
+        <v>399</v>
       </c>
       <c r="AR63" t="s">
-        <v>406</v>
+        <v>424</v>
       </c>
       <c r="AS63">
         <v>52500</v>
@@ -10096,16 +10159,16 @@
         <v>91</v>
       </c>
       <c r="G64" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H64">
         <v>18031</v>
       </c>
       <c r="I64" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="J64" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="K64">
         <v>9</v>
@@ -10126,28 +10189,28 @@
         <v>1</v>
       </c>
       <c r="Q64" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="R64" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="S64">
         <v>0</v>
       </c>
       <c r="T64" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="U64" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="V64" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="X64" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="Y64" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="Z64">
         <v>0</v>
@@ -10192,19 +10255,19 @@
         <v>515.6331818181818</v>
       </c>
       <c r="AN64" t="s">
-        <v>333</v>
+        <v>347</v>
       </c>
       <c r="AO64" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="AP64" t="s">
-        <v>340</v>
+        <v>355</v>
       </c>
       <c r="AQ64" t="s">
-        <v>385</v>
+        <v>400</v>
       </c>
       <c r="AR64" t="s">
-        <v>407</v>
+        <v>425</v>
       </c>
       <c r="AS64">
         <v>52500</v>
@@ -10242,16 +10305,16 @@
         <v>91</v>
       </c>
       <c r="G65" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H65">
         <v>18031</v>
       </c>
       <c r="I65" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="J65" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="K65">
         <v>59</v>
@@ -10272,28 +10335,28 @@
         <v>3</v>
       </c>
       <c r="Q65" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="R65" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="S65">
         <v>0</v>
       </c>
       <c r="T65" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="U65" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="V65" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="X65" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="Y65" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="Z65">
         <v>0</v>
@@ -10338,19 +10401,19 @@
         <v>168.2093372852855</v>
       </c>
       <c r="AN65" t="s">
-        <v>334</v>
+        <v>348</v>
       </c>
       <c r="AO65" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="AP65" t="s">
-        <v>340</v>
+        <v>355</v>
       </c>
       <c r="AQ65" t="s">
-        <v>386</v>
+        <v>401</v>
       </c>
       <c r="AR65" t="s">
-        <v>408</v>
+        <v>426</v>
       </c>
       <c r="AS65">
         <v>52500</v>
@@ -10388,16 +10451,16 @@
         <v>63</v>
       </c>
       <c r="G66" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H66">
         <v>28303</v>
       </c>
       <c r="I66" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="J66" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="K66">
         <v>40</v>
@@ -10418,28 +10481,28 @@
         <v>1</v>
       </c>
       <c r="Q66" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="R66" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="S66">
         <v>0</v>
       </c>
       <c r="T66" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="U66" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="V66" t="s">
-        <v>256</v>
+        <v>267</v>
       </c>
       <c r="X66" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="Y66" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="Z66">
         <v>0</v>
@@ -10484,19 +10547,19 @@
         <v>403.9711472483164</v>
       </c>
       <c r="AN66" t="s">
-        <v>335</v>
+        <v>349</v>
       </c>
       <c r="AO66" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="AP66" t="s">
-        <v>340</v>
+        <v>355</v>
       </c>
       <c r="AQ66" t="s">
-        <v>387</v>
+        <v>402</v>
       </c>
       <c r="AR66" t="s">
-        <v>409</v>
+        <v>427</v>
       </c>
       <c r="AS66">
         <v>52500</v>
@@ -10534,16 +10597,16 @@
         <v>91</v>
       </c>
       <c r="G67" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H67">
         <v>18031</v>
       </c>
       <c r="I67" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="J67" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="K67">
         <v>12</v>
@@ -10564,28 +10627,28 @@
         <v>1</v>
       </c>
       <c r="Q67" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="R67" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="S67">
         <v>0</v>
       </c>
       <c r="T67" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="U67" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="V67" t="s">
-        <v>257</v>
+        <v>268</v>
       </c>
       <c r="X67" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="Y67" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="Z67">
         <v>0</v>
@@ -10630,19 +10693,19 @@
         <v>487.8686039570186</v>
       </c>
       <c r="AN67" t="s">
-        <v>336</v>
+        <v>350</v>
       </c>
       <c r="AO67" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="AP67" t="s">
-        <v>340</v>
+        <v>355</v>
       </c>
       <c r="AQ67" t="s">
-        <v>388</v>
+        <v>403</v>
       </c>
       <c r="AR67" t="s">
-        <v>410</v>
+        <v>428</v>
       </c>
       <c r="AS67">
         <v>52500</v>
@@ -10680,16 +10743,16 @@
         <v>92</v>
       </c>
       <c r="G68" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="H68">
         <v>8518</v>
       </c>
       <c r="I68" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="J68" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="K68">
         <v>50</v>
@@ -10710,28 +10773,28 @@
         <v>1</v>
       </c>
       <c r="Q68" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="R68" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="S68">
         <v>0</v>
       </c>
       <c r="T68" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="U68" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="V68" t="s">
-        <v>258</v>
+        <v>269</v>
       </c>
       <c r="X68" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="Y68" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="Z68">
         <v>0</v>
@@ -10776,19 +10839,19 @@
         <v>251.6479381986923</v>
       </c>
       <c r="AN68" t="s">
-        <v>337</v>
+        <v>351</v>
       </c>
       <c r="AO68" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AP68" t="s">
-        <v>340</v>
+        <v>355</v>
       </c>
       <c r="AQ68" t="s">
-        <v>389</v>
+        <v>404</v>
       </c>
       <c r="AR68" t="s">
-        <v>411</v>
+        <v>429</v>
       </c>
       <c r="AS68">
         <v>52500</v>
@@ -10826,16 +10889,16 @@
         <v>63</v>
       </c>
       <c r="G69" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H69">
         <v>28303</v>
       </c>
       <c r="I69" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="J69" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="K69">
         <v>30</v>
@@ -10856,28 +10919,28 @@
         <v>1</v>
       </c>
       <c r="Q69" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="R69" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="S69">
         <v>0</v>
       </c>
       <c r="T69" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="U69" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="V69" t="s">
-        <v>259</v>
+        <v>270</v>
       </c>
       <c r="X69" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="Y69" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="Z69">
         <v>0</v>
@@ -10922,19 +10985,19 @@
         <v>368.2641254298222</v>
       </c>
       <c r="AN69" t="s">
-        <v>338</v>
+        <v>352</v>
       </c>
       <c r="AO69" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="AP69" t="s">
-        <v>340</v>
+        <v>355</v>
       </c>
       <c r="AQ69" t="s">
-        <v>390</v>
+        <v>405</v>
       </c>
       <c r="AR69" t="s">
-        <v>412</v>
+        <v>430</v>
       </c>
       <c r="AS69">
         <v>52500</v>
@@ -10965,23 +11028,23 @@
       <c r="D70" t="s">
         <v>58</v>
       </c>
-      <c r="E70" t="s">
-        <v>62</v>
+      <c r="E70">
+        <v>7201</v>
       </c>
       <c r="F70" t="s">
         <v>80</v>
       </c>
       <c r="G70" t="s">
-        <v>110</v>
-      </c>
-      <c r="H70" t="s">
-        <v>123</v>
+        <v>112</v>
+      </c>
+      <c r="H70">
+        <v>15672</v>
       </c>
       <c r="I70" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="J70" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="K70">
         <v>45</v>
@@ -11002,28 +11065,28 @@
         <v>2</v>
       </c>
       <c r="Q70" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="R70" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="S70">
         <v>0</v>
       </c>
       <c r="T70" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="U70" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="V70" t="s">
-        <v>243</v>
+        <v>254</v>
       </c>
       <c r="X70" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="Y70" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="Z70">
         <v>0</v>
@@ -11068,19 +11131,19 @@
         <v>280.8202199350158</v>
       </c>
       <c r="AN70" t="s">
-        <v>339</v>
+        <v>353</v>
       </c>
       <c r="AO70" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AP70" t="s">
-        <v>340</v>
+        <v>355</v>
       </c>
       <c r="AQ70" t="s">
-        <v>391</v>
+        <v>406</v>
       </c>
       <c r="AR70" t="s">
-        <v>413</v>
+        <v>431</v>
       </c>
       <c r="AS70">
         <v>52500</v>
@@ -11096,6 +11159,590 @@
       </c>
       <c r="AW70">
         <v>60</v>
+      </c>
+    </row>
+    <row r="71" spans="1:49">
+      <c r="A71" t="s">
+        <v>49</v>
+      </c>
+      <c r="B71" t="s">
+        <v>51</v>
+      </c>
+      <c r="C71" t="s">
+        <v>56</v>
+      </c>
+      <c r="D71" t="s">
+        <v>58</v>
+      </c>
+      <c r="E71">
+        <v>7201</v>
+      </c>
+      <c r="F71" t="s">
+        <v>80</v>
+      </c>
+      <c r="G71" t="s">
+        <v>112</v>
+      </c>
+      <c r="H71">
+        <v>15672</v>
+      </c>
+      <c r="I71" t="s">
+        <v>129</v>
+      </c>
+      <c r="J71" t="s">
+        <v>130</v>
+      </c>
+      <c r="K71">
+        <v>45</v>
+      </c>
+      <c r="L71">
+        <v>900</v>
+      </c>
+      <c r="M71">
+        <v>900</v>
+      </c>
+      <c r="N71">
+        <v>2.31525</v>
+      </c>
+      <c r="O71">
+        <v>2.31525</v>
+      </c>
+      <c r="P71">
+        <v>2</v>
+      </c>
+      <c r="Q71" t="s">
+        <v>137</v>
+      </c>
+      <c r="R71" t="s">
+        <v>138</v>
+      </c>
+      <c r="S71">
+        <v>0</v>
+      </c>
+      <c r="T71" t="s">
+        <v>188</v>
+      </c>
+      <c r="U71" t="s">
+        <v>228</v>
+      </c>
+      <c r="V71" t="s">
+        <v>254</v>
+      </c>
+      <c r="X71" t="s">
+        <v>188</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>188</v>
+      </c>
+      <c r="Z71">
+        <v>0</v>
+      </c>
+      <c r="AA71">
+        <v>0</v>
+      </c>
+      <c r="AB71">
+        <v>67.19318181818181</v>
+      </c>
+      <c r="AC71">
+        <v>88.78912178146871</v>
+      </c>
+      <c r="AD71">
+        <v>155.5690142045455</v>
+      </c>
+      <c r="AE71">
+        <v>50</v>
+      </c>
+      <c r="AF71">
+        <v>53</v>
+      </c>
+      <c r="AG71">
+        <v>100</v>
+      </c>
+      <c r="AH71">
+        <v>50</v>
+      </c>
+      <c r="AI71">
+        <v>18</v>
+      </c>
+      <c r="AJ71">
+        <v>36</v>
+      </c>
+      <c r="AK71">
+        <v>255.6</v>
+      </c>
+      <c r="AL71">
+        <v>650.1690142045454</v>
+      </c>
+      <c r="AM71">
+        <v>280.8202199350158</v>
+      </c>
+      <c r="AN71" t="s">
+        <v>353</v>
+      </c>
+      <c r="AO71" t="s">
+        <v>112</v>
+      </c>
+      <c r="AP71" t="s">
+        <v>355</v>
+      </c>
+      <c r="AQ71" t="s">
+        <v>407</v>
+      </c>
+      <c r="AR71" t="s">
+        <v>432</v>
+      </c>
+      <c r="AS71">
+        <v>52500</v>
+      </c>
+      <c r="AT71">
+        <v>2250</v>
+      </c>
+      <c r="AU71">
+        <v>1185</v>
+      </c>
+      <c r="AV71">
+        <v>4031.590909090909</v>
+      </c>
+      <c r="AW71">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="72" spans="1:49">
+      <c r="A72" t="s">
+        <v>49</v>
+      </c>
+      <c r="B72" t="s">
+        <v>53</v>
+      </c>
+      <c r="C72" t="s">
+        <v>56</v>
+      </c>
+      <c r="D72" t="s">
+        <v>58</v>
+      </c>
+      <c r="E72">
+        <v>7201</v>
+      </c>
+      <c r="F72" t="s">
+        <v>91</v>
+      </c>
+      <c r="G72" t="s">
+        <v>123</v>
+      </c>
+      <c r="H72">
+        <v>18031</v>
+      </c>
+      <c r="I72" t="s">
+        <v>129</v>
+      </c>
+      <c r="J72" t="s">
+        <v>130</v>
+      </c>
+      <c r="K72">
+        <v>12</v>
+      </c>
+      <c r="L72">
+        <v>226.08</v>
+      </c>
+      <c r="M72">
+        <v>226.08</v>
+      </c>
+      <c r="N72">
+        <v>1.066</v>
+      </c>
+      <c r="O72">
+        <v>1.06608</v>
+      </c>
+      <c r="P72">
+        <v>1</v>
+      </c>
+      <c r="Q72" t="s">
+        <v>137</v>
+      </c>
+      <c r="R72" t="s">
+        <v>138</v>
+      </c>
+      <c r="S72">
+        <v>0</v>
+      </c>
+      <c r="T72" t="s">
+        <v>189</v>
+      </c>
+      <c r="U72" t="s">
+        <v>245</v>
+      </c>
+      <c r="V72" t="s">
+        <v>271</v>
+      </c>
+      <c r="X72" t="s">
+        <v>189</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>189</v>
+      </c>
+      <c r="Z72">
+        <v>0</v>
+      </c>
+      <c r="AA72">
+        <v>0</v>
+      </c>
+      <c r="AB72">
+        <v>67.19318181818181</v>
+      </c>
+      <c r="AC72">
+        <v>114.0974970151799</v>
+      </c>
+      <c r="AD72">
+        <v>71.62793181818182</v>
+      </c>
+      <c r="AE72">
+        <v>50</v>
+      </c>
+      <c r="AF72">
+        <v>53</v>
+      </c>
+      <c r="AG72">
+        <v>100</v>
+      </c>
+      <c r="AH72">
+        <v>50</v>
+      </c>
+      <c r="AI72">
+        <v>18</v>
+      </c>
+      <c r="AJ72">
+        <v>18</v>
+      </c>
+      <c r="AK72">
+        <v>227.44</v>
+      </c>
+      <c r="AL72">
+        <v>520.0679318181818</v>
+      </c>
+      <c r="AM72">
+        <v>487.8686039570186</v>
+      </c>
+      <c r="AN72" t="s">
+        <v>350</v>
+      </c>
+      <c r="AO72" t="s">
+        <v>123</v>
+      </c>
+      <c r="AP72" t="s">
+        <v>355</v>
+      </c>
+      <c r="AQ72" t="s">
+        <v>408</v>
+      </c>
+      <c r="AR72" t="s">
+        <v>433</v>
+      </c>
+      <c r="AS72">
+        <v>52500</v>
+      </c>
+      <c r="AT72">
+        <v>2250</v>
+      </c>
+      <c r="AU72">
+        <v>1185</v>
+      </c>
+      <c r="AV72">
+        <v>4031.590909090909</v>
+      </c>
+      <c r="AW72">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="73" spans="1:49">
+      <c r="A73" t="s">
+        <v>49</v>
+      </c>
+      <c r="B73" t="s">
+        <v>53</v>
+      </c>
+      <c r="C73" t="s">
+        <v>56</v>
+      </c>
+      <c r="D73" t="s">
+        <v>59</v>
+      </c>
+      <c r="E73" t="s">
+        <v>62</v>
+      </c>
+      <c r="F73" t="s">
+        <v>93</v>
+      </c>
+      <c r="G73" t="s">
+        <v>125</v>
+      </c>
+      <c r="H73" t="s">
+        <v>127</v>
+      </c>
+      <c r="I73" t="s">
+        <v>129</v>
+      </c>
+      <c r="J73" t="s">
+        <v>130</v>
+      </c>
+      <c r="K73">
+        <v>20</v>
+      </c>
+      <c r="L73">
+        <v>432</v>
+      </c>
+      <c r="M73">
+        <v>894</v>
+      </c>
+      <c r="N73">
+        <v>1.66</v>
+      </c>
+      <c r="O73">
+        <v>3.99164</v>
+      </c>
+      <c r="P73">
+        <v>1</v>
+      </c>
+      <c r="Q73" t="s">
+        <v>137</v>
+      </c>
+      <c r="R73" t="s">
+        <v>138</v>
+      </c>
+      <c r="S73">
+        <v>0</v>
+      </c>
+      <c r="T73" t="s">
+        <v>190</v>
+      </c>
+      <c r="U73" t="s">
+        <v>246</v>
+      </c>
+      <c r="V73" t="s">
+        <v>272</v>
+      </c>
+      <c r="X73" t="s">
+        <v>190</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>190</v>
+      </c>
+      <c r="Z73">
+        <v>0</v>
+      </c>
+      <c r="AA73">
+        <v>0</v>
+      </c>
+      <c r="AB73">
+        <v>76.48347107438016</v>
+      </c>
+      <c r="AC73">
+        <v>106.603953002091</v>
+      </c>
+      <c r="AD73">
+        <v>126.9625619834711</v>
+      </c>
+      <c r="AE73">
+        <v>50</v>
+      </c>
+      <c r="AF73">
+        <v>53</v>
+      </c>
+      <c r="AG73">
+        <v>100</v>
+      </c>
+      <c r="AH73">
+        <v>50</v>
+      </c>
+      <c r="AI73">
+        <v>20</v>
+      </c>
+      <c r="AJ73">
+        <v>20</v>
+      </c>
+      <c r="AK73">
+        <v>551.83</v>
+      </c>
+      <c r="AL73">
+        <v>901.7925619834712</v>
+      </c>
+      <c r="AM73">
+        <v>543.2485313153441</v>
+      </c>
+      <c r="AN73" t="s">
+        <v>354</v>
+      </c>
+      <c r="AO73" t="s">
+        <v>125</v>
+      </c>
+      <c r="AP73" t="s">
+        <v>355</v>
+      </c>
+      <c r="AQ73" t="s">
+        <v>409</v>
+      </c>
+      <c r="AR73" t="s">
+        <v>434</v>
+      </c>
+      <c r="AS73">
+        <v>52500</v>
+      </c>
+      <c r="AT73">
+        <v>2250</v>
+      </c>
+      <c r="AU73">
+        <v>1360</v>
+      </c>
+      <c r="AV73">
+        <v>4206.590909090909</v>
+      </c>
+      <c r="AW73">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="74" spans="1:49">
+      <c r="A74" t="s">
+        <v>49</v>
+      </c>
+      <c r="B74" t="s">
+        <v>53</v>
+      </c>
+      <c r="C74" t="s">
+        <v>56</v>
+      </c>
+      <c r="D74" t="s">
+        <v>59</v>
+      </c>
+      <c r="E74" t="s">
+        <v>62</v>
+      </c>
+      <c r="F74" t="s">
+        <v>94</v>
+      </c>
+      <c r="G74" t="s">
+        <v>126</v>
+      </c>
+      <c r="H74" t="s">
+        <v>128</v>
+      </c>
+      <c r="I74" t="s">
+        <v>129</v>
+      </c>
+      <c r="J74" t="s">
+        <v>130</v>
+      </c>
+      <c r="K74">
+        <v>7</v>
+      </c>
+      <c r="L74">
+        <v>147</v>
+      </c>
+      <c r="M74">
+        <v>894</v>
+      </c>
+      <c r="N74">
+        <v>1.021</v>
+      </c>
+      <c r="O74">
+        <v>3.99164</v>
+      </c>
+      <c r="P74">
+        <v>1</v>
+      </c>
+      <c r="Q74" t="s">
+        <v>137</v>
+      </c>
+      <c r="R74" t="s">
+        <v>138</v>
+      </c>
+      <c r="S74">
+        <v>0</v>
+      </c>
+      <c r="T74" t="s">
+        <v>191</v>
+      </c>
+      <c r="U74" t="s">
+        <v>247</v>
+      </c>
+      <c r="V74" t="s">
+        <v>273</v>
+      </c>
+      <c r="X74" t="s">
+        <v>191</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>191</v>
+      </c>
+      <c r="Z74">
+        <v>0</v>
+      </c>
+      <c r="AA74">
+        <v>0</v>
+      </c>
+      <c r="AB74">
+        <v>76.48347107438016</v>
+      </c>
+      <c r="AC74">
+        <v>125.4550675484252</v>
+      </c>
+      <c r="AD74">
+        <v>78.08962396694214</v>
+      </c>
+      <c r="AE74">
+        <v>50</v>
+      </c>
+      <c r="AF74">
+        <v>53</v>
+      </c>
+      <c r="AG74">
+        <v>100</v>
+      </c>
+      <c r="AH74">
+        <v>50</v>
+      </c>
+      <c r="AI74">
+        <v>20</v>
+      </c>
+      <c r="AJ74">
+        <v>20</v>
+      </c>
+      <c r="AK74">
+        <v>594.0599999999999</v>
+      </c>
+      <c r="AL74">
+        <v>895.149623966942</v>
+      </c>
+      <c r="AM74">
+        <v>876.7381233760452</v>
+      </c>
+      <c r="AN74" t="s">
+        <v>354</v>
+      </c>
+      <c r="AO74" t="s">
+        <v>126</v>
+      </c>
+      <c r="AP74" t="s">
+        <v>355</v>
+      </c>
+      <c r="AQ74" t="s">
+        <v>409</v>
+      </c>
+      <c r="AR74" t="s">
+        <v>434</v>
+      </c>
+      <c r="AS74">
+        <v>52500</v>
+      </c>
+      <c r="AT74">
+        <v>2250</v>
+      </c>
+      <c r="AU74">
+        <v>1360</v>
+      </c>
+      <c r="AV74">
+        <v>4206.590909090909</v>
+      </c>
+      <c r="AW74">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
